--- a/data/02_intermediate/cleaned_Abou_Debeing_songs.xlsx
+++ b/data/02_intermediate/cleaned_Abou_Debeing_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stan-E Music, bonjour Ma petite, ma Kitoko viens par là que je t'explique On va fuir à Mexico tu vas quitter ton mari Si ya drah ou quiproquo tinquiètes j'ai beaucoup d'amis J'crois qu'il y a mon nom dans le dico' Le chouchou de ces chéries Cómo estás Monica ? Ou plutôt Aminata En vérité je ne sais pas oh, tout ce que je sais c'est t'es bonita Mais dis-moi où sont mes youves ? Mais dis moi que font-ils ? Ils doivent gérer des tassabas, ou tabasser des ennemies Eh je suis gentleman 2.0, Je t'aime mais je vais pas te le dire J'sens que toi et moi c'est le classico On va jouer mais sans arbitre Je veux le biff' de Pablo pour t'offrir ton Medellín Et tout est noir quand mes négros refusent de rentrer dormir On m'appelle superman oh, et toi t'es ma kryptonite Tu peux te mettre sur mes te-cô que si t'as les reins solides Parle pas de tes acolytes c'est que des alcooliques On va coucher tous tes négros, même balaises comme Samsonite You might also like Pas bon Voler c'est pas bon yeah, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler c'est pas bon, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler voler, voler voler, voler c'est pas bon c'est pas bon Voler voler, voler, voler c'est pas bon voler c'est pas bon Voler, voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon Et vu la taille de ton jean Nous on va te regarder partir Mais regarde nous vendre des disques On va faire ça sans la triche, mais sans la triche t'es pas jolie Demande à Kardashian Kim, Kardashian Kim elle est nne-bo' Mesquine son fils est un fils de... Pinpon Pinpon appelez les, les pompiers Ce soir on sort pas du club, les videurs ont donné les clés Si tu deviens ma cavalière Je t'habillerai en Cavalli Je te porterai sur mon dos Comme le 9 de Cavani Pas bon Voler c'est pas bon yeah, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler c'est pas bon, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler voler, voler voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon voler c'est pas bon Voler, voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon voler c'est pas bon Tout ça c'est pas bon, tout ça c'est pas bon Retoucher les photos, retoucher c'est pas bon Tromper tromper, et tromper c'est pas bon Le fair-play financier, ça aussi c'est pas bon Tout ça c'est pas bon, tout ça tout ça c'est pas bon Sortir sans contours, mon renoi c'est pas bon Elle a mis un faux-boule, ma chérie c'est pas bon Location de bouteille, mon Rebeu c'est pas bon Aah</t>
+          <t>Stan-E Music, bonjour Ma petite, ma Kitoko viens par là que je t'explique On va fuir à Mexico tu vas quitter ton mari Si ya drah ou quiproquo tinquiètes j'ai beaucoup d'amis J'crois qu'il y a mon nom dans le dico' Le chouchou de ces chéries Cómo estás Monica ? Ou plutôt Aminata En vérité je ne sais pas oh, tout ce que je sais c'est t'es bonita Mais dis-moi où sont mes youves ? Mais dis moi que font-ils ? Ils doivent gérer des tassabas, ou tabasser des ennemies Eh je suis gentleman 2.0, Je t'aime mais je vais pas te le dire J'sens que toi et moi c'est le classico On va jouer mais sans arbitre Je veux le biff' de Pablo pour t'offrir ton Medellín Et tout est noir quand mes négros refusent de rentrer dormir On m'appelle superman oh, et toi t'es ma kryptonite Tu peux te mettre sur mes te-cô que si t'as les reins solides Parle pas de tes acolytes c'est que des alcooliques On va coucher tous tes négros, même balaises comme Samsonite Pas bon Voler c'est pas bon yeah, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler c'est pas bon, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler voler, voler voler, voler c'est pas bon c'est pas bon Voler voler, voler, voler c'est pas bon voler c'est pas bon Voler, voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon Et vu la taille de ton jean Nous on va te regarder partir Mais regarde nous vendre des disques On va faire ça sans la triche, mais sans la triche t'es pas jolie Demande à Kardashian Kim, Kardashian Kim elle est nne-bo' Mesquine son fils est un fils de... Pinpon Pinpon appelez les, les pompiers Ce soir on sort pas du club, les videurs ont donné les clés Si tu deviens ma cavalière Je t'habillerai en Cavalli Je te porterai sur mon dos Comme le 9 de Cavani Pas bon Voler c'est pas bon yeah, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler c'est pas bon, voler c'est pas bon tiriri pom pom Voler c'est pas bon, voler c'est pas bon ara tumtumtumtum Voler voler, voler voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon voler c'est pas bon Voler, voler, voler c'est pas bon c'est pas bon Voler voler voler, voler c'est pas bon voler c'est pas bon Tout ça c'est pas bon, tout ça c'est pas bon Retoucher les photos, retoucher c'est pas bon Tromper tromper, et tromper c'est pas bon Le fair-play financier, ça aussi c'est pas bon Tout ça c'est pas bon, tout ça tout ça c'est pas bon Sortir sans contours, mon renoi c'est pas bon Elle a mis un faux-boule, ma chérie c'est pas bon Location de bouteille, mon Rebeu c'est pas bon Aah</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hey yo Dadj ! Ouais Debeing Bien ou quoi mon gars ? Calme Faut qu'j'te raconte l'histoire d'un chien de la casse, un vrai connard Le personnage c'est moi, ouais j'avoue c'est moi J'travaille une go au corps depuis à peu près six mois La semaine dernière c'était Cécilia On n'compte plus toutes ces filles-là À chaque fois qu'un gros boule passe, tu fais le Singuila Toujours un problème de go Elle t'aime et hasta luego Tu pars toujours sans te retourner C'est ça ton défaut J'te décris la demoiselle, jambes de gazelle Caractère de tigresse, soit tu la domptes, soit t'y restes Tu connais ton gars plus c'est dur, plus c'est doux J'ai visé la proie, mais cette fois j'ai vu flou T'as vu flou ? J'ai du mal à croire Laisse-moi m'taper des barres Vas-y raconte-moi ton histoire J'te raconte la suite, mais faut pas qu'tu te vexes Hier soir j'ai trop bu et au réveil c'était ton ex Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle You might also like J'sortais du stud', il était tard, j'étais un peu dans les vapes On m'appelle, soirée appart', de quoi sauter les étapes J'étais sur sa pote elle, elle était dans mes pattes Elle m'ont fait tiser du rhum, d'la vodka et puis du Jack Action vérité, deux-trois verres je baisse ma garde D'un coup, elle fonce dans la chambre Et elle se met à fondre en larmes Elle veut que tu la touches mais ça veut pas sortir d'sa bouche Donc elle va s'cacher dans la douche pour pouvoir retirer ses sapes Je connais la suite, elle te dit qu'elle est trop cuite Rien n'va dans sa vie, son papa a prit la fuite Elle raconte tout un tas de mytho Elle te dira j'suis pas une michto J'suis tombé dans son jeu Un de plus a son compteur La go est trop dangereuse Elle a su dompter le dompteur Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle S'mettre avec elle, c'est d'la folie Elle endort tout ceux qui finissent dans son lit S'mettre avec elle, c'est d'la folie Elle endort tout ceux qui finissent dans son lit Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle Je suis tombé, tombé, tombé sur elle Je suis tombé, tombé, tombé, tombé, tombé sur elle Oui je suis tombé dans son piège J'avais pas vu son petit manège Je suis tombé, tombé sur elle, sur elle2</t>
+          <t>Hey yo Dadj ! Ouais Debeing Bien ou quoi mon gars ? Calme Faut qu'j'te raconte l'histoire d'un chien de la casse, un vrai connard Le personnage c'est moi, ouais j'avoue c'est moi J'travaille une go au corps depuis à peu près six mois La semaine dernière c'était Cécilia On n'compte plus toutes ces filles-là À chaque fois qu'un gros boule passe, tu fais le Singuila Toujours un problème de go Elle t'aime et hasta luego Tu pars toujours sans te retourner C'est ça ton défaut J'te décris la demoiselle, jambes de gazelle Caractère de tigresse, soit tu la domptes, soit t'y restes Tu connais ton gars plus c'est dur, plus c'est doux J'ai visé la proie, mais cette fois j'ai vu flou T'as vu flou ? J'ai du mal à croire Laisse-moi m'taper des barres Vas-y raconte-moi ton histoire J'te raconte la suite, mais faut pas qu'tu te vexes Hier soir j'ai trop bu et au réveil c'était ton ex Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle J'sortais du stud', il était tard, j'étais un peu dans les vapes On m'appelle, soirée appart', de quoi sauter les étapes J'étais sur sa pote elle, elle était dans mes pattes Elle m'ont fait tiser du rhum, d'la vodka et puis du Jack Action vérité, deux-trois verres je baisse ma garde D'un coup, elle fonce dans la chambre Et elle se met à fondre en larmes Elle veut que tu la touches mais ça veut pas sortir d'sa bouche Donc elle va s'cacher dans la douche pour pouvoir retirer ses sapes Je connais la suite, elle te dit qu'elle est trop cuite Rien n'va dans sa vie, son papa a prit la fuite Elle raconte tout un tas de mytho Elle te dira j'suis pas une michto J'suis tombé dans son jeu Un de plus a son compteur La go est trop dangereuse Elle a su dompter le dompteur Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle S'mettre avec elle, c'est d'la folie Elle endort tout ceux qui finissent dans son lit S'mettre avec elle, c'est d'la folie Elle endort tout ceux qui finissent dans son lit Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Je suis tombé, je suis tombé Elle aime détourner les hommes mais c'est tout ce qu'elle a l'intention d'aimer Je suis tombé, je suis tombé L'ennemi de toutes les femmes, elle va usé de son charme Tu vas tomber dans son piège J'connais son petit manège, yeah Je suis tombé, j'suis tombé sur elle Je suis tombé, tombé, tombé sur elle Je suis tombé, tombé, tombé, tombé, tombé sur elle Oui je suis tombé dans son piège J'avais pas vu son petit manège Je suis tombé, tombé sur elle, sur elle2</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jamais contente T'aurais dû rester qu'un plan Tu m'as fais perdre mon temps Et beaucoup d'argent comptant Ouais c'est vrai que j'ai pas l'salaire d'un joueur de United C'est peut être pour ça que tu me prenais la tête, mais je sais que t'es pas mieux avec ton autre mec Comme Erdogan, j'peux tout régler en un face time Mais j'ai plus l'time, j'suis plus aveuglé par ton charme Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse t'inquiète pas je te vois Tu t'affiches , le soir tu fais la folle t'inquiète pas je te vois J'avoue ça m'pique mais t'as fais ton choix Je t'avais dis, je t'avais prévenue t'en trouvera pas deux comme moi C'est moi qui t'ai fait, je t'ai appris à devenir une femme Tu me fais plus d'effets même quand je te vois marcher, faire la dame Je sais qu'ils te veulent tous tous tous tous Car à leurs yeux t'es si dou-dou-dou-douce Je connais le goût de ta bou-bou-bou-bouche T'es partie donc vas y bou-bou-bou-bouge Car je sais qu'ailleurs y'aura pas mieux, tu seras pas plus heureuse Et j'sais que ce beau visage cache une femme dangereuse Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse t'inquiète pas je te vois Tu t'affiches , le soir tu fais la folle t'inquiète pas je te vois J'avoue ça m'pique mais t'as fais ton choix Je t'avais dis, je t'avais prévenue t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Hum, t'en trouveras pas deux comme moi Hum, t'en trouveras pas deux comme moi Hum, mais t'as fait ton choix T'inquiète pas, je te vois Hum, t'en trouveras pas deux comme moi Hum, t'en trouveras pas deux comme moi Mais t'as fait ton choix T'inquiète pas, je te voisYou might also like3</t>
+          <t>Jamais contente T'aurais dû rester qu'un plan Tu m'as fais perdre mon temps Et beaucoup d'argent comptant Ouais c'est vrai que j'ai pas l'salaire d'un joueur de United C'est peut être pour ça que tu me prenais la tête, mais je sais que t'es pas mieux avec ton autre mec Comme Erdogan, j'peux tout régler en un face time Mais j'ai plus l'time, j'suis plus aveuglé par ton charme Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse t'inquiète pas je te vois Tu t'affiches , le soir tu fais la folle t'inquiète pas je te vois J'avoue ça m'pique mais t'as fais ton choix Je t'avais dis, je t'avais prévenue t'en trouvera pas deux comme moi C'est moi qui t'ai fait, je t'ai appris à devenir une femme Tu me fais plus d'effets même quand je te vois marcher, faire la dame Je sais qu'ils te veulent tous tous tous tous Car à leurs yeux t'es si dou-dou-dou-douce Je connais le goût de ta bou-bou-bou-bouche T'es partie donc vas y bou-bou-bou-bouge Car je sais qu'ailleurs y'aura pas mieux, tu seras pas plus heureuse Et j'sais que ce beau visage cache une femme dangereuse Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse t'inquiète pas je te vois Tu t'affiches , le soir tu fais la folle t'inquiète pas je te vois J'avoue ça m'pique mais t'as fais ton choix Je t'avais dis, je t'avais prévenue t'en trouvera pas deux comme moi Tu vis ta vie, au fond t'es pas heureuse, t'inquiète pas je te vois Tu t'affiches tu fais la folle le soir, t'inquiète pas je te vois J'avoue ça me pique, mais t'as fais ton choix Je t'avais dis, je t'avais prévenue , t'en trouvera pas deux comme moi Hum, t'en trouveras pas deux comme moi Hum, t'en trouveras pas deux comme moi Hum, mais t'as fait ton choix T'inquiète pas, je te vois Hum, t'en trouveras pas deux comme moi Hum, t'en trouveras pas deux comme moi Mais t'as fait ton choix T'inquiète pas, je te vois3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Imen, ah-ah Capo, ah-ah Abou, ah-ah Lossa, ah-ah Parle-moi lovés, n'me parle pas de sentiments C'est pas avec amour qu'on achète vêtements, hmm C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Tcha, Abou, Abou, Abou, Abou Petit génie, fait son malin Elle veut câlin, j'fais le gamin J'suis dans l'c-tru, j'suis dans l'machin J'ai le bras long, elle m'donne sa main C'est ma jolie madame Même devant l'miroir, y a pas deux comme toi Ma jolie madame, tu peux chercher Mais y a pas deux comme moi Elle veut du bouche-à-bouche Il faut qu'je touche son pouls Tout le temps, elle m'parle d'amour Elle veut qu'j'donne tout pour nous T'sais qu'on est bons qu'à ça, hein ? T'sais qu'on est bons qu'à ça, hein ? T'sais qu'on est bons qu'à ça, ouais T'sais qu'on est bons qu'à ça, ouais, oh You might also like Parle-moi lovés, ne m'parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Yeah, A.L.O.N.Z.O 2054 quatro Mamé Dis-leur, Mamé, ouais, OK C'est le Capo hein Hein Fais-en un, fais-en un, fais-en un J'arrive et tout s'éteint, tout est plein, tout est plein Fais-en un, j'suis pas Omah Lay Omah Lay J'ai jeté le chopper dans l'allée Dans l'allée Elle veut se caler Se caler Mais j'suis légendaire comme Pepe Kalle C'est pas comme ça Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Parle-moi lovés, n'me parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Parle-moi lovés, ne m'parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Imen, ah-ah Capo, ah-ah Abou, ah-ah Lossa, ah-ah Jungeli, yeah Jungeli, yeah oh Jungeli ah-ah-ah Capo, ah-ah</t>
+          <t>Imen, ah-ah Capo, ah-ah Abou, ah-ah Lossa, ah-ah Parle-moi lovés, n'me parle pas de sentiments C'est pas avec amour qu'on achète vêtements, hmm C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Tcha, Abou, Abou, Abou, Abou Petit génie, fait son malin Elle veut câlin, j'fais le gamin J'suis dans l'c-tru, j'suis dans l'machin J'ai le bras long, elle m'donne sa main C'est ma jolie madame Même devant l'miroir, y a pas deux comme toi Ma jolie madame, tu peux chercher Mais y a pas deux comme moi Elle veut du bouche-à-bouche Il faut qu'je touche son pouls Tout le temps, elle m'parle d'amour Elle veut qu'j'donne tout pour nous T'sais qu'on est bons qu'à ça, hein ? T'sais qu'on est bons qu'à ça, hein ? T'sais qu'on est bons qu'à ça, ouais T'sais qu'on est bons qu'à ça, ouais, oh Parle-moi lovés, ne m'parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Yeah, A.L.O.N.Z.O 2054 quatro Mamé Dis-leur, Mamé, ouais, OK C'est le Capo hein Hein Fais-en un, fais-en un, fais-en un J'arrive et tout s'éteint, tout est plein, tout est plein Fais-en un, j'suis pas Omah Lay Omah Lay J'ai jeté le chopper dans l'allée Dans l'allée Elle veut se caler Se caler Mais j'suis légendaire comme Pepe Kalle C'est pas comme ça Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Mwana natikaka moke sima ekoli oya oye Parle-moi lovés, n'me parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Parle-moi lovés, ne m'parle pas de sentiments C'est pas avec amour qu'on achète vêtements C'est dommage pour mon ex, j'étais l'chouchou d'son passé Y a plus rien à coller, quand c'est cassé, c'est cassé Imen, ah-ah Capo, ah-ah Abou, ah-ah Lossa, ah-ah Jungeli, yeah Jungeli, yeah oh Jungeli ah-ah-ah Capo, ah-ah</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô You might also like x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
+          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh T'étais ma go, tu deviens ma femme Les feux d'l'amour, tu deviens ma flamme C'est moi la star mais j'suis ton fan Ton plus grand fan, le number one Ensemble on plane, yes I can fly Mon papillon, mon butterfly T'as fais un vu, t'en avais qu'un On était deux, on fera qu'un Tu m'rends si fort, j'te rend si fière Je vais le faire, oui J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh You might also like Le ciel est bleu, la vie est rose T'es ma richesse, j'peux mourir pauvre Tu veilles sur moi, je veille pour toi Tu pries pour moi, je trime pour toi Tu m'fais l'effet d'la première fois J'me sens refais à chaque regard T'es mon repère, t'es mon rempart J'dois l'faire comprendre à tes rents-pa Tu m'rends si fort, j'te rend si fière Je vais le faire, oui J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh Le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh J'irai affronter ton père affronter ton père Pour lui dire que j'veux ta main dire que j'veux ta main J'irais rassurer ta mère rassurer ta mère Pour lui dire qu'tu seras ma reine dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur j'ai su lire dans ton cur Je veux soigner tes douleurs soigner tes douleurs Je serai le premier je serai le premier Mais je serai le dernier je serai le dernier, oh Le dernier Je serai le dernier, oh-oh Le premier, le premier des premiers Le dernier, je serai le dernier Oh-oh, le premier</t>
+          <t>J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh T'étais ma go, tu deviens ma femme Les feux d'l'amour, tu deviens ma flamme C'est moi la star mais j'suis ton fan Ton plus grand fan, le number one Ensemble on plane, yes I can fly Mon papillon, mon butterfly T'as fais un vu, t'en avais qu'un On était deux, on fera qu'un Tu m'rends si fort, j'te rend si fière Je vais le faire, oui J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh Le ciel est bleu, la vie est rose T'es ma richesse, j'peux mourir pauvre Tu veilles sur moi, je veille pour toi Tu pries pour moi, je trime pour toi Tu m'fais l'effet d'la première fois J'me sens refais à chaque regard T'es mon repère, t'es mon rempart J'dois l'faire comprendre à tes rents-pa Tu m'rends si fort, j'te rend si fière Je vais le faire, oui J'irai affronter ton père Pour lui dire que j'veux ta main J'irai rassurer ta mère Pour lui dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur Je veux soigner tes douleurs Je serai le premier Mais je serai le dernier Oh, le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh Le premier, je serai le premier Oh-oh, le dernier, le dernier des derniers, oh J'irai affronter ton père affronter ton père Pour lui dire que j'veux ta main dire que j'veux ta main J'irais rassurer ta mère rassurer ta mère Pour lui dire qu'tu seras ma reine dire qu'tu seras ma reine Oh, j'ai su lire dans ton cur j'ai su lire dans ton cur Je veux soigner tes douleurs soigner tes douleurs Je serai le premier je serai le premier Mais je serai le dernier je serai le dernier, oh Le dernier Je serai le dernier, oh-oh Le premier, le premier des premiers Le dernier, je serai le dernier Oh-oh, le premier</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dj Lil King Dawala Congolais de pure souche, j'suis un vantard Prêt à vendre la raque-ba pour un costard Si j'me trouve ici, tu n'es forcément nul part Certains pourraient s'crever les yeux pour qu'on les regarde Les michtos se dessapent afin qu'tu les ressapes Dans un sharingan depuis que t'as eu son WhatsApp Petit canard, maman t'a appris à dire stop Pour te voler le billet violet, bien sûr qu'elle frotte Sexy lady, ton homme on va l'taser Range ces sses-cui, mes négros veulent damer Tout est physique, ton cul oui t'rend te-bê Faut qu'ça s'finisse en soirée mayabé Quoi que disent les gens sur toi Plus rien à foutre, laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce, t'es là pour t'ambiancer You might also like Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ma chérie l'argent te fascine D'où viennent tes racines ? Ton choix de vêtements m'assassine Les pas sont saccadés, rentre dans la ronde, fais ta mala D'Abidjan à Douala, partout dans le monde fais ta mala Congolais, expert en sapologie Quand j'me sape, vois comment la foule réagit Avec le sexe opposé, on interagit Agile sont les miens, si y'a gadjis Docile, ça jamais, demande à Badjnight Si j'rince, c'est qu'je peux passer une bad night Comme Michael touche le ciel sans mes Air Flyght Quand j'vois s'fight tous mes amoureux de lasphalte Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, l'argent va façon facile Wati B fascine, mes gars là sont sapés façon bavon On est loin des footeux niama niama, ooh niama niama Tu veux goûter l'succès d'mande à Dawa, ooh demande à Dawa J'suis sénégalais pure souche, pas une p'tite frappe Jeune et beau, j'suis l'cauchemar des cistes-ra Je sais très bien que juste pour la mala J'pourrais poser 10 bouteilles même si j'tise pas Bien bien, les montres et les p'tites sapes Dommage que la fin du mois soit ric-rac Je n'sais guerre ce que veulent ces p'tites 'tasse Quitte là, pour les chneckzer j'ai du whiskas Mon gava, mon gava y'a pas si longtemps que ça tu n'me regardais pas Maintenant ta f-meu se-dan sur du Shin Sekaï Elle kiff ma dégaine, le charisme et le style Ce soir, j'compte bien faire du boucan sur tout Paname Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, Debeing a le billet facile Abidjan, Abidjan ! Le billet facile, Tall a le billet facile Séné-Sénégal ! Le billet facile, Beriz a le billet facile BKO, BKO ! Le billet facile, DR a le billet facile Congo Kinshasa, Brazzaville, ah !6</t>
+          <t>Dj Lil King Dawala Congolais de pure souche, j'suis un vantard Prêt à vendre la raque-ba pour un costard Si j'me trouve ici, tu n'es forcément nul part Certains pourraient s'crever les yeux pour qu'on les regarde Les michtos se dessapent afin qu'tu les ressapes Dans un sharingan depuis que t'as eu son WhatsApp Petit canard, maman t'a appris à dire stop Pour te voler le billet violet, bien sûr qu'elle frotte Sexy lady, ton homme on va l'taser Range ces sses-cui, mes négros veulent damer Tout est physique, ton cul oui t'rend te-bê Faut qu'ça s'finisse en soirée mayabé Quoi que disent les gens sur toi Plus rien à foutre, laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce, t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ma chérie l'argent te fascine D'où viennent tes racines ? Ton choix de vêtements m'assassine Les pas sont saccadés, rentre dans la ronde, fais ta mala D'Abidjan à Douala, partout dans le monde fais ta mala Congolais, expert en sapologie Quand j'me sape, vois comment la foule réagit Avec le sexe opposé, on interagit Agile sont les miens, si y'a gadjis Docile, ça jamais, demande à Badjnight Si j'rince, c'est qu'je peux passer une bad night Comme Michael touche le ciel sans mes Air Flyght Quand j'vois s'fight tous mes amoureux de lasphalte Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir-ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, l'argent va façon facile Wati B fascine, mes gars là sont sapés façon bavon On est loin des footeux niama niama, ooh niama niama Tu veux goûter l'succès d'mande à Dawa, ooh demande à Dawa J'suis sénégalais pure souche, pas une p'tite frappe Jeune et beau, j'suis l'cauchemar des cistes-ra Je sais très bien que juste pour la mala J'pourrais poser 10 bouteilles même si j'tise pas Bien bien, les montres et les p'tites sapes Dommage que la fin du mois soit ric-rac Je n'sais guerre ce que veulent ces p'tites 'tasse Quitte là, pour les chneckzer j'ai du whiskas Mon gava, mon gava y'a pas si longtemps que ça tu n'me regardais pas Maintenant ta f-meu se-dan sur du Shin Sekaï Elle kiff ma dégaine, le charisme et le style Ce soir, j'compte bien faire du boucan sur tout Paname Quoi que disent les gens sur toi Plus rien à foutre laissons les juger, ah Oh Oh Ah Demain tu reprendras ton taf' Mais soir ce t'es là pour t'ambiancer Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, ce soir j'ai le billet facile, han Le billet facile, ce soir est le billet facile, han Le billet facile, Debeing a le billet facile Abidjan, Abidjan ! Le billet facile, Tall a le billet facile Séné-Sénégal ! Le billet facile, Beriz a le billet facile BKO, BKO ! Le billet facile, DR a le billet facile Congo Kinshasa, Brazzaville, ah !6</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Je te vois je, je, je, je te vois Pas besoin, pas, pas, pas, pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège eh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu as tout c'qu'il faut Tu n'as rien à envier à aucune go Tu n'as rien à voir avec ces bimbos Tu n'as pas le vécu de ces michtos Les hommes rêvent de t'avoir en binôme à huit clos Tout c'qu'il faut Ma go, quand t'es là je n'vois pas les autres You might also like Ah ! J't'ai vue direct, j't'ai mise sur le tec', tec', tec' Oui la belle, elle m'a rendu trop bête, bête, bête Sans blague, viens on se met d'acc', d'acc', d'acc' Donne moi ta main, j't'enfile la bague, bague, bague Trop parler peut tuer, j'vais peut-être m'enterrer vivant Pour toi, pour toi, m'enterrer vivant J'te briefe, on fera la diff', diff', diff' Love to love, ça sera le kiff, kiff, kiff Si l'amour rend aveugle, tu m'as crevé les yeux J'te suivrai pour le meilleur et l'pire, pire, pire Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop La nuit tombée, elle sort de son trou Je l'aperçois mais je trace ma route Ils te trouvent tous bonne, j'en pense pas moins Regarde moi ces gav, ils perdent leurs moyens J'ai vu que tu m'as vu entouré d'mes zins Mais tu ne m'approche pas, tu veux pas passer pour une michto Tu sais que mon charisme parle de lui-même Henoune, j'peux te faire oublier que t'es belle Tu me vois devant toi, demain sur Snapchat Tu ne m'oublieras pas j'suis déjà dans une autre go, une autre go Tu n'as pas besoin d'en faire trop No, no, no, no, no, no, no, no, no, no Elle a un petit bodjo, eh oh Mais ça dérange pas parce que sheguey n'aime que les gros lolos Elle est che-fraî, oui elle est nne-bo Elle me fait cracher plus vite que le dernier Lambo Elle s'en fout des siste-gro, remballe ta gue-dro Dans son répertoire c'est Messi, Ronaldo Donc arrête de chercher son numéro Elle s'en fout d'la saint Valentin Tout c'qu'elle veut, c'est des Valentino Si t'es nne-bo, monte dans le Merco Bébé, oui j'ai tout c'qu'il faut Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège Eh !</t>
+          <t>Je te vois je, je, je, je te vois Pas besoin, pas, pas, pas, pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège eh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu as tout c'qu'il faut Tu n'as rien à envier à aucune go Tu n'as rien à voir avec ces bimbos Tu n'as pas le vécu de ces michtos Les hommes rêvent de t'avoir en binôme à huit clos Tout c'qu'il faut Ma go, quand t'es là je n'vois pas les autres Ah ! J't'ai vue direct, j't'ai mise sur le tec', tec', tec' Oui la belle, elle m'a rendu trop bête, bête, bête Sans blague, viens on se met d'acc', d'acc', d'acc' Donne moi ta main, j't'enfile la bague, bague, bague Trop parler peut tuer, j'vais peut-être m'enterrer vivant Pour toi, pour toi, m'enterrer vivant J'te briefe, on fera la diff', diff', diff' Love to love, ça sera le kiff, kiff, kiff Si l'amour rend aveugle, tu m'as crevé les yeux J'te suivrai pour le meilleur et l'pire, pire, pire Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop La nuit tombée, elle sort de son trou Je l'aperçois mais je trace ma route Ils te trouvent tous bonne, j'en pense pas moins Regarde moi ces gav, ils perdent leurs moyens J'ai vu que tu m'as vu entouré d'mes zins Mais tu ne m'approche pas, tu veux pas passer pour une michto Tu sais que mon charisme parle de lui-même Henoune, j'peux te faire oublier que t'es belle Tu me vois devant toi, demain sur Snapchat Tu ne m'oublieras pas j'suis déjà dans une autre go, une autre go Tu n'as pas besoin d'en faire trop No, no, no, no, no, no, no, no, no, no Elle a un petit bodjo, eh oh Mais ça dérange pas parce que sheguey n'aime que les gros lolos Elle est che-fraî, oui elle est nne-bo Elle me fait cracher plus vite que le dernier Lambo Elle s'en fout des siste-gro, remballe ta gue-dro Dans son répertoire c'est Messi, Ronaldo Donc arrête de chercher son numéro Elle s'en fout d'la saint Valentin Tout c'qu'elle veut, c'est des Valentino Si t'es nne-bo, monte dans le Merco Bébé, oui j'ai tout c'qu'il faut Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège Eh !</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Il n'est pas comme les autres, il a un vrai charisme Pas d'ceux qui parlent, il est de ceux qui agissent Il a demandé ma main, il est allé voir ma mère Il veut nous tirer vers le haut et nous sortir d'la merde Car il est un 2.0, pas un super-héros J'me souviens du jour, il a demandé mon numéro Un plus un ça fait deux, lui plus moi ça fait nous On est parti de rien, et c'est ça qui fait tout Je sais que c'est compliqué eh eh, les gens ne comprennent pas ah ah Mais j'peux pas t'expliquer eh eh eh, tout ça, ça se contrôle pas ah ah C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité You might also like J'suis le dernier des pirates, ouais le dernier des pirates Pour me ranger où il a fallu un miracle Les gos c'étaient mon dada, derrière moi que des cadavres J'étais pas un gars fidèle, pourtant j'étais un gabra J'veux t'ouvrir les yeux, t'es prête à tout donner Avec les mains, mais t'as le dos tourné Une guerre à 2.0, c'est des blêmes 2.0 C'est des jalouses 2.0, et des envieux 2.0 Je sais que c'est compliqué eh eh, les gens n'te comprennent pas T'aimerais leur expliquer eh eh eh, mais ça n'se contrôle pas C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité Tous mes défauts ah, j'vois tous mes défauts na Hum tous mes défauts na na na na na na, j'vois tous mes défauts yeah eh eh Hum tout tout tout tout na na na, j'vois tous mes défauts oh ah ah Hum tout tout tout tout na na, j'vois tous mes défauts na na na na Hum hum hum na ah, tous mes défauts na ah ah ah Hum hum hum ah ah, tous mes défauts Yeah yeah1</t>
+          <t>Il n'est pas comme les autres, il a un vrai charisme Pas d'ceux qui parlent, il est de ceux qui agissent Il a demandé ma main, il est allé voir ma mère Il veut nous tirer vers le haut et nous sortir d'la merde Car il est un 2.0, pas un super-héros J'me souviens du jour, il a demandé mon numéro Un plus un ça fait deux, lui plus moi ça fait nous On est parti de rien, et c'est ça qui fait tout Je sais que c'est compliqué eh eh, les gens ne comprennent pas ah ah Mais j'peux pas t'expliquer eh eh eh, tout ça, ça se contrôle pas ah ah C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'suis le dernier des pirates, ouais le dernier des pirates Pour me ranger où il a fallu un miracle Les gos c'étaient mon dada, derrière moi que des cadavres J'étais pas un gars fidèle, pourtant j'étais un gabra J'veux t'ouvrir les yeux, t'es prête à tout donner Avec les mains, mais t'as le dos tourné Une guerre à 2.0, c'est des blêmes 2.0 C'est des jalouses 2.0, et des envieux 2.0 Je sais que c'est compliqué eh eh, les gens n'te comprennent pas T'aimerais leur expliquer eh eh eh, mais ça n'se contrôle pas C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité Tous mes défauts ah, j'vois tous mes défauts na Hum tous mes défauts na na na na na na, j'vois tous mes défauts yeah eh eh Hum tout tout tout tout na na na, j'vois tous mes défauts oh ah ah Hum tout tout tout tout na na, j'vois tous mes défauts na na na na Hum hum hum na ah, tous mes défauts na ah ah ah Hum hum hum ah ah, tous mes défauts Yeah yeah1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Le style est de Paname Paname M'as-tu bien vu ? Je n'ai absolument rien de banal B'nal Je vais les mettre KO KO, teste et t'y laisse ta peau Ta peau Si je te parle d'amour et que sans vergogne ma chérie tu me parles d'euros, bitch ne me parle pas trop Brah, brah On veut caresser l'million avant les 30 piges Retourner dans la hass me rendrait plus si gentil Tu l'aimes, elle te traite comme un cabot T'es prêt à t'en mettre ta miff' à dos La haine et la jalousie me guettent ces temps-ci Pourquoi m'sourire p'tit enculé, si tu m'envies ? Le temps sélectionne les vrais des faux Et bizarrement je n'te vois plus mon soss Où sont ces mecs qui, avant, faisaient les beaux ? On va vous gifler, ça va vous faire tout drôle Ça vient du 7.5, oui c'est la neuvième zone Argent et respect nous, nous sommes dans ces choses Tout ce que tu peux faire c'est parler sur nos côtes Que peux-tu faire d'autre quand la barre est trop haute ? Aucun de nos rivaux Ne peut prétendre avoir plus de flow Jamais Pablo Picasso Pablo Picasso, Pablo Picasso J'te refais le portrait vite ait-f à la pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso You might also like O.K Un pied dans le game, deux pieds dans le game Lion Noir depuis la crèche shit, mon rap je l'écris au pinceau Picasso Flow coké, c'est ma Dope Pablo, j'fais l'effet d'un rail de coke El Diablo Mes baskets sentent l'ennemi, pénalty, t'as la gueule niquée oh shit Akatsuki dans la son-mai Lets get it faire de la monnaie Fall m'a conseillé Dites lui j'me suis orienté vers le sommet Prince D.A.D.J, qui va me dire quoi? Devenir plus fort est leur unique stratégie Château Rouge, Brazza, Kin', Matonge, et Belgique, j'suis plus congolais que Paris est magique J'entends mon blaze, on m'appelle pour un selfie, comment s'contenter d'une seule fille? Bien trop d'péchés pour une seule vie, papa est fier de ses se-fil' Et même ton Koro, des koros, des koros, des koros, des koros, des koros me connaît Cette pute veut savoir ce que j'suis devenu depuis l'bach qu'elle m'a mit devant tout l'monde au collège Ok soirée foot, qui veut se marier? Une chance sur six t'es dans l'barillet Makélé retourne te maquiller, je t'aimais avant que tu sois révélée Rouge et noir, le peuple se questionne Comment fait l'Akatsuki? Et vu que chaque homme a besoin de sa lionne, je veux une femme comme Kouki à semi coquine Tu vois le croquis, les formes se dessinent, elle monte dans mon estime Y'en a sous le capot, je l'aime comme mes euros, t'as cerné le tableau Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso oh oh J'te refais le portrait vite ait-f pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso han J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Toujours dans ces choses, à se-l'ai dans mes shoes J'te refais le portrait pour mon honneur ou pour du flouze À ce qu'il parait, ils veulent ma peau, ils auront que ma blouse L'amour est dans le pré, j'ai trop la haine, j'ai grandi dans la brousse Ma chérie m'aimerais-tu si j'étais en loup? L'argent fait le bonheur et l'malheur des jaloux On fait des sous, on fait du sohr J'peux dessiner deux planètes sur ton boule Coach, fais moi rentrer, compte sur moi, j'vise le but J'ai des comptes à règler plus deux-trois fils de putes Rien à gagner tout à perdre, qu'est ce que tu veux que j'te dise de plus? À part qu'on prend des putains d'péchés dans le trafic de stup' L'oseille me dit Ti amo, Ti amo J'décroche, j'ai le diablo, j'dis Allô Ok que passa, à peine noir, j'sors du patio', j't'attrape au lasso On prend tout tes vassaux, sors l'fusil d'assaut, Pablo Picasso9</t>
+          <t>Le style est de Paname Paname M'as-tu bien vu ? Je n'ai absolument rien de banal B'nal Je vais les mettre KO KO, teste et t'y laisse ta peau Ta peau Si je te parle d'amour et que sans vergogne ma chérie tu me parles d'euros, bitch ne me parle pas trop Brah, brah On veut caresser l'million avant les 30 piges Retourner dans la hass me rendrait plus si gentil Tu l'aimes, elle te traite comme un cabot T'es prêt à t'en mettre ta miff' à dos La haine et la jalousie me guettent ces temps-ci Pourquoi m'sourire p'tit enculé, si tu m'envies ? Le temps sélectionne les vrais des faux Et bizarrement je n'te vois plus mon soss Où sont ces mecs qui, avant, faisaient les beaux ? On va vous gifler, ça va vous faire tout drôle Ça vient du 7.5, oui c'est la neuvième zone Argent et respect nous, nous sommes dans ces choses Tout ce que tu peux faire c'est parler sur nos côtes Que peux-tu faire d'autre quand la barre est trop haute ? Aucun de nos rivaux Ne peut prétendre avoir plus de flow Jamais Pablo Picasso Pablo Picasso, Pablo Picasso J'te refais le portrait vite ait-f à la pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso O.K Un pied dans le game, deux pieds dans le game Lion Noir depuis la crèche shit, mon rap je l'écris au pinceau Picasso Flow coké, c'est ma Dope Pablo, j'fais l'effet d'un rail de coke El Diablo Mes baskets sentent l'ennemi, pénalty, t'as la gueule niquée oh shit Akatsuki dans la son-mai Lets get it faire de la monnaie Fall m'a conseillé Dites lui j'me suis orienté vers le sommet Prince D.A.D.J, qui va me dire quoi? Devenir plus fort est leur unique stratégie Château Rouge, Brazza, Kin', Matonge, et Belgique, j'suis plus congolais que Paris est magique J'entends mon blaze, on m'appelle pour un selfie, comment s'contenter d'une seule fille? Bien trop d'péchés pour une seule vie, papa est fier de ses se-fil' Et même ton Koro, des koros, des koros, des koros, des koros, des koros me connaît Cette pute veut savoir ce que j'suis devenu depuis l'bach qu'elle m'a mit devant tout l'monde au collège Ok soirée foot, qui veut se marier? Une chance sur six t'es dans l'barillet Makélé retourne te maquiller, je t'aimais avant que tu sois révélée Rouge et noir, le peuple se questionne Comment fait l'Akatsuki? Et vu que chaque homme a besoin de sa lionne, je veux une femme comme Kouki à semi coquine Tu vois le croquis, les formes se dessinent, elle monte dans mon estime Y'en a sous le capot, je l'aime comme mes euros, t'as cerné le tableau Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso oh oh J'te refais le portrait vite ait-f pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso han J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Toujours dans ces choses, à se-l'ai dans mes shoes J'te refais le portrait pour mon honneur ou pour du flouze À ce qu'il parait, ils veulent ma peau, ils auront que ma blouse L'amour est dans le pré, j'ai trop la haine, j'ai grandi dans la brousse Ma chérie m'aimerais-tu si j'étais en loup? L'argent fait le bonheur et l'malheur des jaloux On fait des sous, on fait du sohr J'peux dessiner deux planètes sur ton boule Coach, fais moi rentrer, compte sur moi, j'vise le but J'ai des comptes à règler plus deux-trois fils de putes Rien à gagner tout à perdre, qu'est ce que tu veux que j'te dise de plus? À part qu'on prend des putains d'péchés dans le trafic de stup' L'oseille me dit Ti amo, Ti amo J'décroche, j'ai le diablo, j'dis Allô Ok que passa, à peine noir, j'sors du patio', j't'attrape au lasso On prend tout tes vassaux, sors l'fusil d'assaut, Pablo Picasso9</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? You might also like La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dernier des derniers, petits pas, petits pas Dernier des derniers, petits pas, petits pas Localisé, on t'a localisé, on va te traumatiser Pas l'habitude de rater quand nous ka viser Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Sur sol mouillé, derniers souliers pour pas glisser Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière descends Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends You might also like Viens si tu veux d'l'ambiance J'ai dit Viens si tu veux d'l'ambiance Tout dans l'mouv, tout dans l'apparence Elle veut mon nom c'est la Beingance Enchanté, j'suis de bonne humeur Ce soir, j'ai pas l'temps pour les rumeurs Tu m'analyses depuis une heure Pourquoi tu t'figes ? Faut pas qu't'aies peur J'ai l'dernier flow, les dernières sappes En vérité, j'suis le dernier gars On m'voit casser le dernier pas Regarde-moi, c'est p't-être la dernière fois Eh eh Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends ah, quitte là Organisés, on est organisés Cazalisés, chemisés, oui, la coupe est égalisée oui monsieur Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Tout en douceur comme si c'était légalisé Dernier arrêt, dernier des derniers, donc fais pas d'erreur Si tu n'es pas prêt, ressors pas derrière quitte là, petits pas, petits pas Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Nous, on y go, nous, on y go, t'es prêt ou pas ? Nous, on y go petits pas, petits pas, nous, on y go, t'es prêt pour ça ? Nous, on y go, t'es prêt ou pas ? Nous, on y go Hein hein, nous, on y go, dernier arrêt Si t'es pas prêt pour ça, descends Dernier des derniers Petits pas, petits pas Dernier des derniers des derniers Petits pas, petits pas Dernier des derniers... Nous, on y go ... des derniers Si t'es pas prêt pour ça, descends2</t>
+          <t>Dernier des derniers, petits pas, petits pas Dernier des derniers, petits pas, petits pas Localisé, on t'a localisé, on va te traumatiser Pas l'habitude de rater quand nous ka viser Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Sur sol mouillé, derniers souliers pour pas glisser Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière descends Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends Viens si tu veux d'l'ambiance J'ai dit Viens si tu veux d'l'ambiance Tout dans l'mouv, tout dans l'apparence Elle veut mon nom c'est la Beingance Enchanté, j'suis de bonne humeur Ce soir, j'ai pas l'temps pour les rumeurs Tu m'analyses depuis une heure Pourquoi tu t'figes ? Faut pas qu't'aies peur J'ai l'dernier flow, les dernières sappes En vérité, j'suis le dernier gars On m'voit casser le dernier pas Regarde-moi, c'est p't-être la dernière fois Eh eh Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends ah, quitte là Organisés, on est organisés Cazalisés, chemisés, oui, la coupe est égalisée oui monsieur Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Tout en douceur comme si c'était légalisé Dernier arrêt, dernier des derniers, donc fais pas d'erreur Si tu n'es pas prêt, ressors pas derrière quitte là, petits pas, petits pas Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Nous, on y go, nous, on y go, t'es prêt ou pas ? Nous, on y go petits pas, petits pas, nous, on y go, t'es prêt pour ça ? Nous, on y go, t'es prêt ou pas ? Nous, on y go Hein hein, nous, on y go, dernier arrêt Si t'es pas prêt pour ça, descends Dernier des derniers Petits pas, petits pas Dernier des derniers des derniers Petits pas, petits pas Dernier des derniers... Nous, on y go ... des derniers Si t'es pas prêt pour ça, descends2</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Je ne comprends pas pourquoi vous men voulez Tout ce que jai eu je ne lai pas volé En bien ou en mal, je sais que ça parle de moi Si je t'ai fais du mal Pardonne moi Je me souviens de tous les moments forts de ma vie Tous les hypocrites sont hors de ma vue Je me rappelle de toutes ces nuits blanches dans Paris Les descentes de keuf en bas de ma rue Toute ces filles au cur fragile Qui mont aimé mais sans retour Je nai rien dis car je me méfie Je mouvrirais peut être un jour You might also like La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Trop rêveur J'aimerais voir ma vie en reverse Jai pris de lâge, du kilométrage La même rage, dis-leur Depuis le temps que je barode Les gens qui me disent Tu ny arriveras pas, jen ai vu dautres Depuis jai fait mon bout de chemin Mais limportance cest la fin, je dirais pas que jai commis aucune faute Paris ma ville, des comme elle, y'en a pas mille Mais sur le périph', je roule en pensant à une île Où il y aurait des gros requins en guise de videurs Une île où jirais me poser pour faire le vide Une île où personne ne parle de musique et de feat Pas la peine dappeler, y'a personne au bout du fil Jai pas changé donc arrêtez de vous faire des films Faut que jvous dise Adios, parce que rien que ma vie défile Adios, Adios Adios, Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios8</t>
+          <t>La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Je ne comprends pas pourquoi vous men voulez Tout ce que jai eu je ne lai pas volé En bien ou en mal, je sais que ça parle de moi Si je t'ai fais du mal Pardonne moi Je me souviens de tous les moments forts de ma vie Tous les hypocrites sont hors de ma vue Je me rappelle de toutes ces nuits blanches dans Paris Les descentes de keuf en bas de ma rue Toute ces filles au cur fragile Qui mont aimé mais sans retour Je nai rien dis car je me méfie Je mouvrirais peut être un jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Trop rêveur J'aimerais voir ma vie en reverse Jai pris de lâge, du kilométrage La même rage, dis-leur Depuis le temps que je barode Les gens qui me disent Tu ny arriveras pas, jen ai vu dautres Depuis jai fait mon bout de chemin Mais limportance cest la fin, je dirais pas que jai commis aucune faute Paris ma ville, des comme elle, y'en a pas mille Mais sur le périph', je roule en pensant à une île Où il y aurait des gros requins en guise de videurs Une île où jirais me poser pour faire le vide Une île où personne ne parle de musique et de feat Pas la peine dappeler, y'a personne au bout du fil Jai pas changé donc arrêtez de vous faire des films Faut que jvous dise Adios, parce que rien que ma vie défile Adios, Adios Adios, Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios8</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Me raconte pas ta vie, moi, j'ai pas l'temps C'est S.Pri Noir, ma grande, j'aime tes pas d'danse La robe qui moule ton corps est éclatante La manière dont tu bouges est épatante Tu veux du sale, on peut bosser Mais ne compte pas sur nous pour t'engrosser Trouve-moi au fond du club, j'suis adossé Beauté, entre tes ex et moi, y'a un fossé T'es mortelle du phonetel au Chuck Taylor Un cocktail à l'hôtel, tu m'donnes quelle heure ? Black, Being, Shin Sekaï, aucun d'nous n'est une pince Chérie, envoie ton dos, on veut juste que tu bounce T'as rien à m'prouver, j'te connais Rien dans la tête mais un corps siliconé Tu m'aimeras toujours plus que ton keumè Tant qu'je continuerai d'vivre à la télé Tu penses m'avoir sur le mental Et, si tu échoues, tu sauteras sur mon gars Tall J'le vois dans tes yeux, la confiance s'installe Pour toi, j'suis qu'un investissement rentable You might also like Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce B-b-bou-bounce, et si tu parles mal Je te monte et te jette de la Tour Montparnasse Dans ma tête, ton boule est magique, ton boule, c'est Paname Vas-y, bounce, oui, c'est ma façon de faire le canard J'ai du mal à reconnaître, oui, c'est tout moi Un pour la money, ça, c'est tout toi Donc, le Big Black, il se méfie, merci, salut les filles D't'façons, j'ai la bague au doigt, bien loin de la bac au bois Qu'est-ce que t'as ? T'es pas contente ? Bah casse-toi, tu perds ton temps Dédicace à Hilton, c'est les zèm' qui la michtonnent Je sais, j'suis un grand con mais, toi, t'es qu'une petite conne Oh merde, j't'imagine déjà dire qu'j'suis misogyne La daronne m'écoute à tout moment, je peux me prendre une gifle On aime les gros bails mais pas les fakes comme Nicki Pas besoin de communiquer, encore moins polémiquer Encore, l'Akats en redemande, ma chérie, on veut juste que tu bounce Donc t'es une fille correcte et pas une fille facile ? Bon, ok, sois honnête, t'es une fille maline Devant moi, tu caches tes formes, tu restes dans les normes Mon gava Tall m'a dit qu't'as secoué ton boule énorme Donc, pour toi, j'ferai le borgne Chez nous, on est prêt à tout pour soulever un bord Vas-y, parle, cause, cause, cause, cause toujours À l'heure qu'il est, mon ex court, court, court toujours Comme toutes les autres, tu vas faire un déni Au début, tu m'désires, à la fin, tu m'dénigres Arrête tes blagues, chérie, tu veux juste 'iller-bri' Si j'te recale, tu sauteras sur mon gars S.Pri Donc fuck, fuck, fuck tes appels de phare J'te stoppe, stoppe, t'es attiré par les stars C'est la pote de ta pote qui m'a 'lé-par' À part en robe dans mon lit, j't'emmène nulle part Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que... Stop, stop, stop, stop Devant toi, les gros poissons mordent à l'hameçon J'veux juste que tu bounce le truc comme mon ingé' son Tu veux rentrer dans ma vie par effraction Tu penses que j'vais tomber love, mais je n'suis pas assez con Que ce soit sur de l'afrobeat ou sur du reggaeton Quand t'es sur la piste, reconnais que les nuques se tordent Tu n'veux plus du RER et, pour te faire sortir Il me faudrait un Mercedes Benz minimum Est-ce que tu m'aimerais, et ce même si j'étais une pince ? Je n'crois pas, du moins je pense que les chances sont minces Si t'es princesse de la nuit, je n'serai pas ton prince Donc bounce... bounce Tout c'que mes gars veulent, c'est juste de te voir bounce Tu fais la fille sage mais, bon, tu finis par bounce Puisque tu aimes tant attirer l'attention, bounce Ma chérie, bounce Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce2</t>
+          <t>Me raconte pas ta vie, moi, j'ai pas l'temps C'est S.Pri Noir, ma grande, j'aime tes pas d'danse La robe qui moule ton corps est éclatante La manière dont tu bouges est épatante Tu veux du sale, on peut bosser Mais ne compte pas sur nous pour t'engrosser Trouve-moi au fond du club, j'suis adossé Beauté, entre tes ex et moi, y'a un fossé T'es mortelle du phonetel au Chuck Taylor Un cocktail à l'hôtel, tu m'donnes quelle heure ? Black, Being, Shin Sekaï, aucun d'nous n'est une pince Chérie, envoie ton dos, on veut juste que tu bounce T'as rien à m'prouver, j'te connais Rien dans la tête mais un corps siliconé Tu m'aimeras toujours plus que ton keumè Tant qu'je continuerai d'vivre à la télé Tu penses m'avoir sur le mental Et, si tu échoues, tu sauteras sur mon gars Tall J'le vois dans tes yeux, la confiance s'installe Pour toi, j'suis qu'un investissement rentable Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce B-b-bou-bounce, et si tu parles mal Je te monte et te jette de la Tour Montparnasse Dans ma tête, ton boule est magique, ton boule, c'est Paname Vas-y, bounce, oui, c'est ma façon de faire le canard J'ai du mal à reconnaître, oui, c'est tout moi Un pour la money, ça, c'est tout toi Donc, le Big Black, il se méfie, merci, salut les filles D't'façons, j'ai la bague au doigt, bien loin de la bac au bois Qu'est-ce que t'as ? T'es pas contente ? Bah casse-toi, tu perds ton temps Dédicace à Hilton, c'est les zèm' qui la michtonnent Je sais, j'suis un grand con mais, toi, t'es qu'une petite conne Oh merde, j't'imagine déjà dire qu'j'suis misogyne La daronne m'écoute à tout moment, je peux me prendre une gifle On aime les gros bails mais pas les fakes comme Nicki Pas besoin de communiquer, encore moins polémiquer Encore, l'Akats en redemande, ma chérie, on veut juste que tu bounce Donc t'es une fille correcte et pas une fille facile ? Bon, ok, sois honnête, t'es une fille maline Devant moi, tu caches tes formes, tu restes dans les normes Mon gava Tall m'a dit qu't'as secoué ton boule énorme Donc, pour toi, j'ferai le borgne Chez nous, on est prêt à tout pour soulever un bord Vas-y, parle, cause, cause, cause, cause toujours À l'heure qu'il est, mon ex court, court, court toujours Comme toutes les autres, tu vas faire un déni Au début, tu m'désires, à la fin, tu m'dénigres Arrête tes blagues, chérie, tu veux juste 'iller-bri' Si j'te recale, tu sauteras sur mon gars S.Pri Donc fuck, fuck, fuck tes appels de phare J'te stoppe, stoppe, t'es attiré par les stars C'est la pote de ta pote qui m'a 'lé-par' À part en robe dans mon lit, j't'emmène nulle part Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que... Stop, stop, stop, stop Devant toi, les gros poissons mordent à l'hameçon J'veux juste que tu bounce le truc comme mon ingé' son Tu veux rentrer dans ma vie par effraction Tu penses que j'vais tomber love, mais je n'suis pas assez con Que ce soit sur de l'afrobeat ou sur du reggaeton Quand t'es sur la piste, reconnais que les nuques se tordent Tu n'veux plus du RER et, pour te faire sortir Il me faudrait un Mercedes Benz minimum Est-ce que tu m'aimerais, et ce même si j'étais une pince ? Je n'crois pas, du moins je pense que les chances sont minces Si t'es princesse de la nuit, je n'serai pas ton prince Donc bounce... bounce Tout c'que mes gars veulent, c'est juste de te voir bounce Tu fais la fille sage mais, bon, tu finis par bounce Puisque tu aimes tant attirer l'attention, bounce Ma chérie, bounce Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce2</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? You might also like La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Du mal à faire confiance à un homme Elle a bien raison ma belle dame Elle tape sur le tam-tam Sur mon répondeur quand je ne suis pas là Et pour rien au monde, je ne l'ai échanger Peau caramel, africaine un peu mélangée Personne avant elle n'a su me changer M'a ouvert ses bras en sachant qu'elle est en danger Elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont aucun effet Si ça sonne faux bima Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love You might also like Avoue le ! J'ressemble à ton futur, pas ton ex Oui je sais ! Avec lui c'était pire, moi ça sera mieux Parlons de nous, comment on s'organise ? Comment faire pour que la relation s'éternise ? Regarde-moi, dis-moi si tu me crois, j'aimerais savoir Elle sais comment m'aborder quand je lui parle chinois Elle en a rien à foutre des billets Si ça sonne faux bima Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Parce quelle est bonne Oh oui elle est bonne ! Parce quelle est bonne, je pensais qu'elle était conne Parce qu'elle est belle, je pensais qu'elle était bête J'ai pas cherché le fond, j'ai juste trouver la forme Elle ma déclaré sa flamme Je l'ai éteind avec la flemme Va dans un sens, moi j'irais dans l'autre Je sais que ça fais mal ma chérie Yâko Mais elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont plus d'effet Si ça sonne faux bima Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi3</t>
+          <t>Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Du mal à faire confiance à un homme Elle a bien raison ma belle dame Elle tape sur le tam-tam Sur mon répondeur quand je ne suis pas là Et pour rien au monde, je ne l'ai échanger Peau caramel, africaine un peu mélangée Personne avant elle n'a su me changer M'a ouvert ses bras en sachant qu'elle est en danger Elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont aucun effet Si ça sonne faux bima Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Avoue le ! J'ressemble à ton futur, pas ton ex Oui je sais ! Avec lui c'était pire, moi ça sera mieux Parlons de nous, comment on s'organise ? Comment faire pour que la relation s'éternise ? Regarde-moi, dis-moi si tu me crois, j'aimerais savoir Elle sais comment m'aborder quand je lui parle chinois Elle en a rien à foutre des billets Si ça sonne faux bima Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Parce quelle est bonne Oh oui elle est bonne ! Parce quelle est bonne, je pensais qu'elle était conne Parce qu'elle est belle, je pensais qu'elle était bête J'ai pas cherché le fond, j'ai juste trouver la forme Elle ma déclaré sa flamme Je l'ai éteind avec la flemme Va dans un sens, moi j'irais dans l'autre Je sais que ça fais mal ma chérie Yâko Mais elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont plus d'effet Si ça sonne faux bima Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi3</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker You might also like C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? J'suis plus crédible que la crédibilité J'rends plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P You might also like Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Agressif comme un niama Mon succès t'pousse en en Asie comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve tout ce que le diable depréserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
+          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? J'suis plus crédible que la crédibilité J'rends plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Agressif comme un niama Mon succès t'pousse en en Asie comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve tout ce que le diable depréserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>On est pas parisiens nous ? On est pas parisiens nous ? On est pas numéro 1 nous ? On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Parigo, vénin, gangster, dealer Footballeur, rappeur, plus chauvin tu meurs Parisienne nne-bo' Elle envoie des teilles-bou' comme un nambo Elle est pas attirée par les bobos Paris braque, car il fuck dans tes cocos Parle avec moi d'ici concrètement Que à but lucratif si je te le dis complètement Dans l'avion en business premier compartiment Je dépense, tu disposes tout pour comportement Article 1 d'la Parigo, Minimum 3.0 Je répète minimum 3.0, qu'on doit mettre à l'O.M pour Afrique Classico You might also like On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Posés dans les quartiers chics, tous ces fils de riches on les chope Soit dans le caleçon il y a du shit, soit je dois refaire ma carte dEurope Fleury freine XXX la santé Pour tes promenades je vais t'enrager comme un Rod Quatre ans plus trad je fais le tour du monde Rod en liberté t'as pas fait agir l'Europe Qui me connaît sur la capitale ? Bon je récapitule, hein quoi ? Articule Le corps dans la Seine même capitule Pirate et capitaine 7.5 matriculent J'supporte l'obèse, j'ai deux XXX Bien avant Neymar, un million de Quataris Paris peut pas me représenter, mon ami Il n'y a que moi qui peut représenter Paris On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On va prendre la Tour Eiffel nous Aux Champs-Élysées c'est nous XXX La danse de Paname</t>
+          <t>On est pas parisiens nous ? On est pas parisiens nous ? On est pas numéro 1 nous ? On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Parigo, vénin, gangster, dealer Footballeur, rappeur, plus chauvin tu meurs Parisienne nne-bo' Elle envoie des teilles-bou' comme un nambo Elle est pas attirée par les bobos Paris braque, car il fuck dans tes cocos Parle avec moi d'ici concrètement Que à but lucratif si je te le dis complètement Dans l'avion en business premier compartiment Je dépense, tu disposes tout pour comportement Article 1 d'la Parigo, Minimum 3.0 Je répète minimum 3.0, qu'on doit mettre à l'O.M pour Afrique Classico On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Posés dans les quartiers chics, tous ces fils de riches on les chope Soit dans le caleçon il y a du shit, soit je dois refaire ma carte dEurope Fleury freine XXX la santé Pour tes promenades je vais t'enrager comme un Rod Quatre ans plus trad je fais le tour du monde Rod en liberté t'as pas fait agir l'Europe Qui me connaît sur la capitale ? Bon je récapitule, hein quoi ? Articule Le corps dans la Seine même capitule Pirate et capitaine 7.5 matriculent J'supporte l'obèse, j'ai deux XXX Bien avant Neymar, un million de Quataris Paris peut pas me représenter, mon ami Il n'y a que moi qui peut représenter Paris On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On va prendre la Tour Eiffel nous Aux Champs-Élysées c'est nous XXX La danse de Paname</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yeah Hanhan hanhan han Yeah Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Faites pas les guignols, les anciens j'les brise, les nouveaux j'les casse Prends tes gosses, niggaz, y'a d'l'action, la riposte les gaz Verre d'Écosse, nouvelle négoc', qui rêve de ter-sau Pégase ? Rien n'va plus, les games sont fait, j'retourne retourner Vegas Et ma gueule, toutes les règles on s'en bat les reins, cauchemar, Audemard, Balmain Y'a pas d'argent sale, y'a qu'des clochards qui s'lavent pas les mains Check le cercle, il tourne pas rond, fucking ceinture, foutu marron Quinze par showcase, quatre par semaine, c'est pas les p'tits sous du daron Déguisé en FARC dans le maquis comme les Corses J'cogne le torse, j'ai l'impact et j'jacte des tch tch comme le Bors Pas d'gestion, j't'envoie au tapis, premier round, pose pas de questions Tu m'connais pas quoi ? Moi, j'suis le seul bougnoule d'la Sexion Et j'prends debout, rappelle Kev Adams, j'ai un plan de fou C'est comment ? Ça fait un moment qu'j'suis l'rappeur du moment J'suis l'passeur, j'ai pas d'gros classeurs, de mots, ni d'grammaire C'est que la mère, toi tu m'donnes ta sur, toi tu niques ta mère Ça tremblote, c'est Grande Fianso pour le feat, ils s'tappent Sauer Sig, équipe Champions League, c'est pas l'city stade En tournée, en journée t'aboies, en soirée tu mords Rien qui vaille, Top 1 Spotify en Corée du Nord J'ai les bailles, Tchi-tchi prend la came ? Man aurais-tu l'or ? J'suis mainstream, ça danse en fôret, la choré du mort C't'année c'est mort, on refait tout le game, j'ai les grandes spatules Sans calcul, j'les tiens sans alcool sous mes tentacules Caille-ra plus, rafale dans l'carosse, j'reviens cribler l'bus J'prends l'week-end, j'remonte au huitième, j'check Olivier Lus' Faux rebèle, crise d'adolescence, t'as changé, tu campes Cartouché, couché, pas bougé, va ranger ta chambre, Fianso You might also like J'suis même pas à 30, comme Warano, j'suis pas à fond J'ai pété le million, mais je n'vais pas le dire sur chaque son Salam à tous les frères sauf Killuminati J'fais de l'ombre à la lumière, chouf j'illumine la ville Han, j'suis pas riche, j'suis un ex-pauvre Mes gros yeuse en expo', pour m'avoir en feat Ton rappeur essaye les sextos, ils font tous les mecs sombres Y'a que des mauvais exemples, vexant comme les Texans Mets-toi sur le tec' centre, pas le droit à l'échec, sans Victoire on te sép d'dans, ma gueule, ça fait 7 ans Que de septembre à septembre, j'tourne et je vois s'étendre Mon public de 7 ans à 77 ans Depuis l'époque de Sexion, toujours un pied dans le tieckson Renoi, tu le sais on a mis des corrections Rien ne me correspond, très peu d'entre eux resteront La plupart sont restreints, ne pose pas de questions Wesh, c'est quand qu'ils testent? ça kicke et y'a pas de mystère À force d'être dans l'game, j'suis un hypocryte comme les Lannister Mets-nous sur la liste frère, fuck les journalistes On va pas s'laisser distraire, on a trop de charisme Faites passer l'message sur vos putains de bandes FM J'suis tellement parisien, j'suis l'frère jumeau d'la Tour Eiffel J'triomphe comme l'Arc, j'ai un sacré cur J'suis de-spi comme Kylian au Parc, bah ouais, ça fait peur Les rappeurs ont une p'tite mine comme Meek Mill Qui s'est fait plaquer par Nicki comme une victime Enfin bref, moi j'suis dans ma p'tite ville en civil Les gens te diront, j'suis un chic type, c'est c'qui s'dit Y'a qu'un seul Black M, te demande pas si c'est l'faux Même ta grand-mère veut son selfie Y'a qu'les baltringues qui n'se rencontrent pas Mets le monde en face, j'ferai le contre-poids Beaucoup de moutons beaucoup de moutons, très peu de loups très peu de loups C'est c'foutu nombreux supérieur qui fait la loi Pourquoi ils veulent me pousser à bout ? à bout J'suis dans mon truc avec Debeing Abou ah bon ? La go m'énerve car elle est très conne très conne Mon prochain single sera très com' très com' Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Yeah, S.E.X.I.O.N., Fianso De 2002 à 2018 Yeah, toujours les mêmes Haha Où sont les kickers ? Où sont les streamers ?9</t>
+          <t>Yeah Hanhan hanhan han Yeah Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Faites pas les guignols, les anciens j'les brise, les nouveaux j'les casse Prends tes gosses, niggaz, y'a d'l'action, la riposte les gaz Verre d'Écosse, nouvelle négoc', qui rêve de ter-sau Pégase ? Rien n'va plus, les games sont fait, j'retourne retourner Vegas Et ma gueule, toutes les règles on s'en bat les reins, cauchemar, Audemard, Balmain Y'a pas d'argent sale, y'a qu'des clochards qui s'lavent pas les mains Check le cercle, il tourne pas rond, fucking ceinture, foutu marron Quinze par showcase, quatre par semaine, c'est pas les p'tits sous du daron Déguisé en FARC dans le maquis comme les Corses J'cogne le torse, j'ai l'impact et j'jacte des tch tch comme le Bors Pas d'gestion, j't'envoie au tapis, premier round, pose pas de questions Tu m'connais pas quoi ? Moi, j'suis le seul bougnoule d'la Sexion Et j'prends debout, rappelle Kev Adams, j'ai un plan de fou C'est comment ? Ça fait un moment qu'j'suis l'rappeur du moment J'suis l'passeur, j'ai pas d'gros classeurs, de mots, ni d'grammaire C'est que la mère, toi tu m'donnes ta sur, toi tu niques ta mère Ça tremblote, c'est Grande Fianso pour le feat, ils s'tappent Sauer Sig, équipe Champions League, c'est pas l'city stade En tournée, en journée t'aboies, en soirée tu mords Rien qui vaille, Top 1 Spotify en Corée du Nord J'ai les bailles, Tchi-tchi prend la came ? Man aurais-tu l'or ? J'suis mainstream, ça danse en fôret, la choré du mort C't'année c'est mort, on refait tout le game, j'ai les grandes spatules Sans calcul, j'les tiens sans alcool sous mes tentacules Caille-ra plus, rafale dans l'carosse, j'reviens cribler l'bus J'prends l'week-end, j'remonte au huitième, j'check Olivier Lus' Faux rebèle, crise d'adolescence, t'as changé, tu campes Cartouché, couché, pas bougé, va ranger ta chambre, Fianso J'suis même pas à 30, comme Warano, j'suis pas à fond J'ai pété le million, mais je n'vais pas le dire sur chaque son Salam à tous les frères sauf Killuminati J'fais de l'ombre à la lumière, chouf j'illumine la ville Han, j'suis pas riche, j'suis un ex-pauvre Mes gros yeuse en expo', pour m'avoir en feat Ton rappeur essaye les sextos, ils font tous les mecs sombres Y'a que des mauvais exemples, vexant comme les Texans Mets-toi sur le tec' centre, pas le droit à l'échec, sans Victoire on te sép d'dans, ma gueule, ça fait 7 ans Que de septembre à septembre, j'tourne et je vois s'étendre Mon public de 7 ans à 77 ans Depuis l'époque de Sexion, toujours un pied dans le tieckson Renoi, tu le sais on a mis des corrections Rien ne me correspond, très peu d'entre eux resteront La plupart sont restreints, ne pose pas de questions Wesh, c'est quand qu'ils testent? ça kicke et y'a pas de mystère À force d'être dans l'game, j'suis un hypocryte comme les Lannister Mets-nous sur la liste frère, fuck les journalistes On va pas s'laisser distraire, on a trop de charisme Faites passer l'message sur vos putains de bandes FM J'suis tellement parisien, j'suis l'frère jumeau d'la Tour Eiffel J'triomphe comme l'Arc, j'ai un sacré cur J'suis de-spi comme Kylian au Parc, bah ouais, ça fait peur Les rappeurs ont une p'tite mine comme Meek Mill Qui s'est fait plaquer par Nicki comme une victime Enfin bref, moi j'suis dans ma p'tite ville en civil Les gens te diront, j'suis un chic type, c'est c'qui s'dit Y'a qu'un seul Black M, te demande pas si c'est l'faux Même ta grand-mère veut son selfie Y'a qu'les baltringues qui n'se rencontrent pas Mets le monde en face, j'ferai le contre-poids Beaucoup de moutons beaucoup de moutons, très peu de loups très peu de loups C'est c'foutu nombreux supérieur qui fait la loi Pourquoi ils veulent me pousser à bout ? à bout J'suis dans mon truc avec Debeing Abou ah bon ? La go m'énerve car elle est très conne très conne Mon prochain single sera très com' très com' Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Yeah, S.E.X.I.O.N., Fianso De 2002 à 2018 Yeah, toujours les mêmes Haha Où sont les kickers ? Où sont les streamers ?9</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Si t'as d'jà parlé au poste hein, sois gentil n'me parle pas Dans mon cur y'a du monde, et pour toi y'a pas d'place Ouais je sais j'me rabat, ouais je sais j'ai pas d'barbe Adama me l'rappelle, fais salat t'as pas l'choix Mes larmes coulent sur mes frères, transformés en passoire Un mec bien qu'aimerait s'poser, j'arrive plus à m'asseoir J'reste debout et basta, nique sa mère j'suis pas stable T'es qu'une michto d'passage, une autre fille t'remplacera J'vais pas tout t'donner hein, juste mon corps mais pas d'cash Tu m'aimes pas c'est pas grave, mon succès t'embrassera Dans mon rap, y'a pas d'failles, sur mon chemin y a pas d'rails Tout me ment, mon pote Fall, tu me manques, j'suis autre part Wesh Meugi, on s'est connut en volant cette fille Regarde c'qu'on a vécu, elle est pas violente cette vie Descendre presque en Italie, remplir des Zéniths Ils savent pas qu'on est des frères avec ou sans la musique J'l'ai dans l'sang la musique, comme un virus nuisible Ouais sérieux, c'est easy pour nous d'faire des tubes ici Des frères me trahissent, qui m'entubent à domicile Si mes ancêtres sont des singes, akhi j'ai pas d'origine J'suis l'Yin et l'Yang en même temps, intelligent et méfiant On dépend tous d'un rectangle, carte bleue, billets d'banques Ça devient pas inquiétant, ça l'a toujours été Mais le croyant n's'inquiète pas, pour lui tout est réglé Votre opinion m'a stressé, j'me sens sans cesse agressé Par vos jugements mais laissez moi, j'ai déjà percé Qu'ils viennent tous me tester, j'vais les tenir en respect Plus de rimes que t'espères, plus de haine que d'espèces J'suis modeste et pépère mais viens pas teste un mec fier Une plaine et deux cow-boys peut vite devenir un western La beauté du monde réside dans l'visage de mes gosses Tout est paradoxal un peu comme l'histoire de Rick Ross J'suis un pirate de l'époque, un navire me suffit pas Et si l'capitaine me bloque, les conséquences il subira J'ai d'la sueur sur mes draps, même quand j'dors j'fais des efforts Ouais l'avenir me sourit pas car au bout il y a la mort Aucune crainte de perdre la vie mais d'rencontrer des anges hardcores Tu veux m'complimenter ? Viens pas couronner un mort Le frelon sort de taule, il a besoin d'se détendre Alcool et femme, laisse ber-tom, tu sais comment on s'distrait Oui le Diable est discret, introduit nos systèmes Nerveux et on s'y fait, Lucifer est si fier Shit, coke et misère, toi tu vis du deal d'herbe À part toucher le SMIC, j'me demande à quoi les flics servent Pardonnez-moi si j'rêve de les voir en civière Ceux qui pèsent le plus, sont au fond de la rivière Allô Abou, appelle des poufs, que l'démon se libère Ramène-nous des sirènes avec des langues de vipère Pour foncer dans un mur, pas besoin d'avoir ton mis-per Location de tombe, oui ça rémunère les cimetières T'chie pas dessus, fais l'bonhomme et t'auras pas une vie d'merde Regard vide remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire You might also like Paris by night à la recherche des acheteurs C'est pas pour trouver l'âme sur qu'on met nos pieds en after J'passe en débat différé si j'ai pas d'alibi Quand j'vais en Belgique, j'me dirige pas vers Walibi J'ai jamais rien compris aux maths, t'as vu Donc j'me retrouve à faire des ronds à tous les angles de rues Des récits fantastiques, des statistiques statiques On veut devenir obèse mais l'État sert d'anneau gastrique Quand j'voulais qu'on m'tende la patte, y'avait pas un chat On devait graille dans la même assiette mais t'en as fait ton plat Perce, tu vis un cauch' quand tu rêves Les gens te gonflent en espérant qu'tu crèves si un jour tu perces Haa, tu sens la rage quand j'parle Chez nous c'est soit les putes soit les keufs qui palpent C'est la même combine qu'on deal ou vende des compils Retourne dans tes comptes, pines pour éviter qu'on t'pille Ils veulent savoir si j'possède des biens d'grosse valeur J'me demande avec quelle arme j'vais affronter l'fossoyeur 10 ans plus tard j'suis toujours l'même putain d'gosse râleur J'tourne en radio sans qu'tu m'entendes, j'suis un ghost rideur J'étais mineur émancipé par des cas d'force majeur 17 ans en taule, sorti avec une force d'ailleurs J'ai la dalle, j'suis en chien, j'ai le mort d'ailleurs C'est c'qui a faillit nous faire braquer ces convoyeurs On était con voyons, loin d'être visionnaires On voulait juste baiser la rue en missionnaire On voulait s'déplumer, pour des prises de bec Ça jouait les gros bras aux premières prises de pecs Soit t'étais sur l'terrain soit t'étais mis sur l'tec' On savait exiler tous les fils de traîtres Les fils de traîtres ou les fils de lâches Ont baignés dans leur sang et ont pris le large M'dépasser pour mes gars, bâtard, j'ai l'art d'le faire J'prendrai la vie de celui qui veut enterrer mon H de guerre Rappelle-toi de nos cambriolages en l'an 2000 12 ans plus tard en cellule on s'tape des barres de rire J'connais Paris de fond en comble, ses côtés les plus sombres Tu dois noircir ton cur pour briller dans la pénombre J'ai volé, j'ai racketté, j'ai fait du mal à autrui La rue m'a instruit, mais la rue m'a détruit J'ai tabassé des gravons, j'avoue j'ai boxé des javons J'me suis aussi mangé des K.O., bouche ouverte sur l'carreau J'ai fait ma salat mais j'ai plus souvent commis des pêchés La question est-ce que ton gars Abou va s'faire repêcher ? Haa bref, assez, laisse le passé au passé Mon gars Maska m'appelle, ce soir y'a du gibier à chasser On s'capte à 9 heure pétante, j'suis pas ce qu'ils prétendent J'sors de taule, j'tire un coup juste histoire d'me détendre Peu importe la filière, j'veux pas toucher une misère J'finirai en civière ou comme tout l'monde au cimetière Te chie pas dessus, fais l'bonhomme, t'auras pas une vie d'merde Regard vide, remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire11</t>
+          <t>Si t'as d'jà parlé au poste hein, sois gentil n'me parle pas Dans mon cur y'a du monde, et pour toi y'a pas d'place Ouais je sais j'me rabat, ouais je sais j'ai pas d'barbe Adama me l'rappelle, fais salat t'as pas l'choix Mes larmes coulent sur mes frères, transformés en passoire Un mec bien qu'aimerait s'poser, j'arrive plus à m'asseoir J'reste debout et basta, nique sa mère j'suis pas stable T'es qu'une michto d'passage, une autre fille t'remplacera J'vais pas tout t'donner hein, juste mon corps mais pas d'cash Tu m'aimes pas c'est pas grave, mon succès t'embrassera Dans mon rap, y'a pas d'failles, sur mon chemin y a pas d'rails Tout me ment, mon pote Fall, tu me manques, j'suis autre part Wesh Meugi, on s'est connut en volant cette fille Regarde c'qu'on a vécu, elle est pas violente cette vie Descendre presque en Italie, remplir des Zéniths Ils savent pas qu'on est des frères avec ou sans la musique J'l'ai dans l'sang la musique, comme un virus nuisible Ouais sérieux, c'est easy pour nous d'faire des tubes ici Des frères me trahissent, qui m'entubent à domicile Si mes ancêtres sont des singes, akhi j'ai pas d'origine J'suis l'Yin et l'Yang en même temps, intelligent et méfiant On dépend tous d'un rectangle, carte bleue, billets d'banques Ça devient pas inquiétant, ça l'a toujours été Mais le croyant n's'inquiète pas, pour lui tout est réglé Votre opinion m'a stressé, j'me sens sans cesse agressé Par vos jugements mais laissez moi, j'ai déjà percé Qu'ils viennent tous me tester, j'vais les tenir en respect Plus de rimes que t'espères, plus de haine que d'espèces J'suis modeste et pépère mais viens pas teste un mec fier Une plaine et deux cow-boys peut vite devenir un western La beauté du monde réside dans l'visage de mes gosses Tout est paradoxal un peu comme l'histoire de Rick Ross J'suis un pirate de l'époque, un navire me suffit pas Et si l'capitaine me bloque, les conséquences il subira J'ai d'la sueur sur mes draps, même quand j'dors j'fais des efforts Ouais l'avenir me sourit pas car au bout il y a la mort Aucune crainte de perdre la vie mais d'rencontrer des anges hardcores Tu veux m'complimenter ? Viens pas couronner un mort Le frelon sort de taule, il a besoin d'se détendre Alcool et femme, laisse ber-tom, tu sais comment on s'distrait Oui le Diable est discret, introduit nos systèmes Nerveux et on s'y fait, Lucifer est si fier Shit, coke et misère, toi tu vis du deal d'herbe À part toucher le SMIC, j'me demande à quoi les flics servent Pardonnez-moi si j'rêve de les voir en civière Ceux qui pèsent le plus, sont au fond de la rivière Allô Abou, appelle des poufs, que l'démon se libère Ramène-nous des sirènes avec des langues de vipère Pour foncer dans un mur, pas besoin d'avoir ton mis-per Location de tombe, oui ça rémunère les cimetières T'chie pas dessus, fais l'bonhomme et t'auras pas une vie d'merde Regard vide remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire Paris by night à la recherche des acheteurs C'est pas pour trouver l'âme sur qu'on met nos pieds en after J'passe en débat différé si j'ai pas d'alibi Quand j'vais en Belgique, j'me dirige pas vers Walibi J'ai jamais rien compris aux maths, t'as vu Donc j'me retrouve à faire des ronds à tous les angles de rues Des récits fantastiques, des statistiques statiques On veut devenir obèse mais l'État sert d'anneau gastrique Quand j'voulais qu'on m'tende la patte, y'avait pas un chat On devait graille dans la même assiette mais t'en as fait ton plat Perce, tu vis un cauch' quand tu rêves Les gens te gonflent en espérant qu'tu crèves si un jour tu perces Haa, tu sens la rage quand j'parle Chez nous c'est soit les putes soit les keufs qui palpent C'est la même combine qu'on deal ou vende des compils Retourne dans tes comptes, pines pour éviter qu'on t'pille Ils veulent savoir si j'possède des biens d'grosse valeur J'me demande avec quelle arme j'vais affronter l'fossoyeur 10 ans plus tard j'suis toujours l'même putain d'gosse râleur J'tourne en radio sans qu'tu m'entendes, j'suis un ghost rideur J'étais mineur émancipé par des cas d'force majeur 17 ans en taule, sorti avec une force d'ailleurs J'ai la dalle, j'suis en chien, j'ai le mort d'ailleurs C'est c'qui a faillit nous faire braquer ces convoyeurs On était con voyons, loin d'être visionnaires On voulait juste baiser la rue en missionnaire On voulait s'déplumer, pour des prises de bec Ça jouait les gros bras aux premières prises de pecs Soit t'étais sur l'terrain soit t'étais mis sur l'tec' On savait exiler tous les fils de traîtres Les fils de traîtres ou les fils de lâches Ont baignés dans leur sang et ont pris le large M'dépasser pour mes gars, bâtard, j'ai l'art d'le faire J'prendrai la vie de celui qui veut enterrer mon H de guerre Rappelle-toi de nos cambriolages en l'an 2000 12 ans plus tard en cellule on s'tape des barres de rire J'connais Paris de fond en comble, ses côtés les plus sombres Tu dois noircir ton cur pour briller dans la pénombre J'ai volé, j'ai racketté, j'ai fait du mal à autrui La rue m'a instruit, mais la rue m'a détruit J'ai tabassé des gravons, j'avoue j'ai boxé des javons J'me suis aussi mangé des K.O., bouche ouverte sur l'carreau J'ai fait ma salat mais j'ai plus souvent commis des pêchés La question est-ce que ton gars Abou va s'faire repêcher ? Haa bref, assez, laisse le passé au passé Mon gars Maska m'appelle, ce soir y'a du gibier à chasser On s'capte à 9 heure pétante, j'suis pas ce qu'ils prétendent J'sors de taule, j'tire un coup juste histoire d'me détendre Peu importe la filière, j'veux pas toucher une misère J'finirai en civière ou comme tout l'monde au cimetière Te chie pas dessus, fais l'bonhomme, t'auras pas une vie d'merde Regard vide, remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire11</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah Je suis dégoûté de ce qu'il y a dans mon angle de vue Nous on rame dans la merde parce que tu donnes ton cul On vit de l'art de rue, chez nous y a pas de revenus Certains ont visés la lune et y sont parvenus Mais ne sont pas revenus En gros, toutes ces heures de colle ne nous ont pas retenus Je disais au prof d'anglais De quoi me parles-tu ? Chez nous ça sort le silencieux, ça ne parle plus On connaît les perquis', matraqués par les dékis Tu tombais dans nos filets, on te rackettait tes tennis Car en manque d'espace, très peu respirent et respectent En manque d'espèces, très peu restent peace Des fois pour du pain ça compte des centimes Obligés de jeûner quand y a du porc à la cantine J'ai des projets futurs, mais mon passé me suit À présent on me fuit et oublie qui je suis Debeing, j'ai la vingtaine, j'ai fait le tour de Paname Je sais qu'il faut en chier pour rentrer dans les annales C'est gonflant, je veux pas percer en me faisant pistonner Ni crever dans mon trou avec un pistolet Si t'as des révélations, fais des concessions Des prêtres demandent des fellations pendant les confessions Y a des propositions, je suis en opposition Je veux pas me faire baiser, donc je prends position You might also like Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah La rue m'a bercé dans ses bras Et m'a dit Non quand j'ai voulu partir Et j'ai vu du sang dans ses draps Bien évidemment, j'ai du partir Bye bye x94</t>
+          <t>Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah Je suis dégoûté de ce qu'il y a dans mon angle de vue Nous on rame dans la merde parce que tu donnes ton cul On vit de l'art de rue, chez nous y a pas de revenus Certains ont visés la lune et y sont parvenus Mais ne sont pas revenus En gros, toutes ces heures de colle ne nous ont pas retenus Je disais au prof d'anglais De quoi me parles-tu ? Chez nous ça sort le silencieux, ça ne parle plus On connaît les perquis', matraqués par les dékis Tu tombais dans nos filets, on te rackettait tes tennis Car en manque d'espace, très peu respirent et respectent En manque d'espèces, très peu restent peace Des fois pour du pain ça compte des centimes Obligés de jeûner quand y a du porc à la cantine J'ai des projets futurs, mais mon passé me suit À présent on me fuit et oublie qui je suis Debeing, j'ai la vingtaine, j'ai fait le tour de Paname Je sais qu'il faut en chier pour rentrer dans les annales C'est gonflant, je veux pas percer en me faisant pistonner Ni crever dans mon trou avec un pistolet Si t'as des révélations, fais des concessions Des prêtres demandent des fellations pendant les confessions Y a des propositions, je suis en opposition Je veux pas me faire baiser, donc je prends position Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah La rue m'a bercé dans ses bras Et m'a dit Non quand j'ai voulu partir Et j'ai vu du sang dans ses draps Bien évidemment, j'ai du partir Bye bye x94</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oui j'ai des erreurs à regretter j'ai laissé passer du temps à espérer Je n'ai qu'une envie c'est de voir mes proches m'aimer je ne veux pas avoir à quémander le respect Je suis lessivé, excédé j'veux pas retourner déposer des CV Avec le temps crois moi poto rien n'est resté qui me pleureras quand je serais décédé ? Ouais et en face de ma classe je constate que je m'encrasse J'paierais de mon sang mes erreurs tôt ou tard j'aimerais que lallégresse m'embrasse Et les gens changent, tout s'efface on s'retrouve au point de départ On se sent mal, tout nous lasse mais j'reste de marbre, Tall J'ai cru que j'avais une triste histoire mais quand t'es dedans, dur d'y croire J'avais les menottes et la vie du chtar aujourd'hui pas loin de la vie de star Dans mon histoire des fautes dorthographes effacées par des autographes J'ai toujours cru que je touchais le fond mais je pète la forme et les choses se font J'étais dans le faux c'est une chose qui est vraie j'ai le sourire, rien ne m'effraie Le temps passe, la Terre tourne j'suis figé, jattends mon tour Mon gars Abou, j'suis à bout dur d'avancer les deux pieds dans la boue Notre enfance collège Paul Gauguin aujourd'hui faut qu'on amasse des gains, DeBeing Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface You might also like Seigneur ayez pitié de moi le jour où je partirai j'ai peur d'avoir niqué ma vie à faire le passionné Je parle au nom de tout le monde, rien de personnel à vouloir aller trop vite on finit par saigner Malheureusement le temps nous appâte car il sait que j'suis dans de beaux draps Le Diable tente de noircir mon âme pendant que mes gars apprécient mon art Donc épargnez vos discours de taré Si la zik est un trou noir j'avance sans savoir où aller Des projets de papiers, loin des guerres de quartier J'suis venu écrire l'histoire si tout s'efface laisse les parler Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Le temps passe et passe et moi j'ai l'impression De tourner en rond malgré ma constante évolution Pas une ride sur le visage mais la pression De navrer mon daron, comment s'en sortir dans ce bas monde ? Le temps c'est devenu de l'argent mais y'a plus le temps de dépenser cet argent Fuck les plans, agis sur le moment la mort en Rolex s'impatiente Je ne suis qu'un homme que Dieu me pardonne aveuglé à la vue des sommes Le temps effacera-t-il tous mes défauts ? OohOoh Haa Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface</t>
+          <t>Oui j'ai des erreurs à regretter j'ai laissé passer du temps à espérer Je n'ai qu'une envie c'est de voir mes proches m'aimer je ne veux pas avoir à quémander le respect Je suis lessivé, excédé j'veux pas retourner déposer des CV Avec le temps crois moi poto rien n'est resté qui me pleureras quand je serais décédé ? Ouais et en face de ma classe je constate que je m'encrasse J'paierais de mon sang mes erreurs tôt ou tard j'aimerais que lallégresse m'embrasse Et les gens changent, tout s'efface on s'retrouve au point de départ On se sent mal, tout nous lasse mais j'reste de marbre, Tall J'ai cru que j'avais une triste histoire mais quand t'es dedans, dur d'y croire J'avais les menottes et la vie du chtar aujourd'hui pas loin de la vie de star Dans mon histoire des fautes dorthographes effacées par des autographes J'ai toujours cru que je touchais le fond mais je pète la forme et les choses se font J'étais dans le faux c'est une chose qui est vraie j'ai le sourire, rien ne m'effraie Le temps passe, la Terre tourne j'suis figé, jattends mon tour Mon gars Abou, j'suis à bout dur d'avancer les deux pieds dans la boue Notre enfance collège Paul Gauguin aujourd'hui faut qu'on amasse des gains, DeBeing Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Seigneur ayez pitié de moi le jour où je partirai j'ai peur d'avoir niqué ma vie à faire le passionné Je parle au nom de tout le monde, rien de personnel à vouloir aller trop vite on finit par saigner Malheureusement le temps nous appâte car il sait que j'suis dans de beaux draps Le Diable tente de noircir mon âme pendant que mes gars apprécient mon art Donc épargnez vos discours de taré Si la zik est un trou noir j'avance sans savoir où aller Des projets de papiers, loin des guerres de quartier J'suis venu écrire l'histoire si tout s'efface laisse les parler Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Le temps passe et passe et moi j'ai l'impression De tourner en rond malgré ma constante évolution Pas une ride sur le visage mais la pression De navrer mon daron, comment s'en sortir dans ce bas monde ? Le temps c'est devenu de l'argent mais y'a plus le temps de dépenser cet argent Fuck les plans, agis sur le moment la mort en Rolex s'impatiente Je ne suis qu'un homme que Dieu me pardonne aveuglé à la vue des sommes Le temps effacera-t-il tous mes défauts ? OohOoh Haa Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>J'te voulais dans ma vie, voulais dans ma vie Mais t'as mis les voiles, mais t'as mis les voiles J'suis seul sur mon navire, seul sur mon navire J'avais besoin de toi, avais besoin de toi J'avoue j'ai pris du temps, j'avoue j'ai pris du temps Et toi t'en n'avais pas, tu voulais qu'on avance Mais bon tu me connais, en vrai on se connaît J'suis pas le genre de gars qui ment ou qui promet, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor T'étais une femme en or, t'étais une femme en or Tu voulais pas l'argent, tu voulais que mon temps Et j't'en n'ai pas donné, mais j't'en n'ai pas donné En vrai j'en n'avais pas, en fait j'en n'avais pas Mais avec du recul, avec du recul J'aurais pu t'en donner, j'ai fait un mauvais calcul Mais tu connais les hommes, tu connais les hommes Montrer ses sentiments, chez nous c'est ridicule, yeah You might also like J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor Mi amor, je te revois danser Danser, danser, danser, danser Je n'sais plus quoi penser Penser, penser, penser, penser Mi amor, mi amor, mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor</t>
+          <t>J'te voulais dans ma vie, voulais dans ma vie Mais t'as mis les voiles, mais t'as mis les voiles J'suis seul sur mon navire, seul sur mon navire J'avais besoin de toi, avais besoin de toi J'avoue j'ai pris du temps, j'avoue j'ai pris du temps Et toi t'en n'avais pas, tu voulais qu'on avance Mais bon tu me connais, en vrai on se connaît J'suis pas le genre de gars qui ment ou qui promet, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor T'étais une femme en or, t'étais une femme en or Tu voulais pas l'argent, tu voulais que mon temps Et j't'en n'ai pas donné, mais j't'en n'ai pas donné En vrai j'en n'avais pas, en fait j'en n'avais pas Mais avec du recul, avec du recul J'aurais pu t'en donner, j'ai fait un mauvais calcul Mais tu connais les hommes, tu connais les hommes Montrer ses sentiments, chez nous c'est ridicule, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor Mi amor, je te revois danser Danser, danser, danser, danser Je n'sais plus quoi penser Penser, penser, penser, penser Mi amor, mi amor, mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soit on s'en sort, soit tout est mort Mais dans les deux cas, faut essayer J'suis un homme, et quand je donne Je n'sais pas faire les choses à moitié Si t'as le fond sous tes formes On les fera taire jusqu'au dernier Je veux qu'on bosse, qu'on ait des gosses Et tu sais comment me les donner Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom You might also like J'ai déjà testé, t'es pas le premier essai Faut pas qu'ça s'finisse en souvenir Faut pas glisser, j'te parle de faire du concret Si on construit, faut qu'ça soit solide J'irai au fond de chaque chose Mais faut vraiment qut'aies les reins solides Donne-moi ton corps, donne-moi ton cur J'en prendrai soin pour mille et une nuits Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom x2 Prend ta décision, là ça fait des heures qu'on parle Et si tu préfères, on peut couper le contact Bla bla bla bla bla, trop de bla bla bla Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom</t>
+          <t>Soit on s'en sort, soit tout est mort Mais dans les deux cas, faut essayer J'suis un homme, et quand je donne Je n'sais pas faire les choses à moitié Si t'as le fond sous tes formes On les fera taire jusqu'au dernier Je veux qu'on bosse, qu'on ait des gosses Et tu sais comment me les donner Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom J'ai déjà testé, t'es pas le premier essai Faut pas qu'ça s'finisse en souvenir Faut pas glisser, j'te parle de faire du concret Si on construit, faut qu'ça soit solide J'irai au fond de chaque chose Mais faut vraiment qut'aies les reins solides Donne-moi ton corps, donne-moi ton cur J'en prendrai soin pour mille et une nuits Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom x2 Prend ta décision, là ça fait des heures qu'on parle Et si tu préfères, on peut couper le contact Bla bla bla bla bla, trop de bla bla bla Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Big Black M Faut qu'ça Trace Jacky, Wati B J'connais pas le mur de Berlin chez moi, c'est l'barrage 36 J'essaie d'être un mec sain mais, à chaque fois, Satan m'siffle Oh bordel, la musique, là, devient nocive Résultat sur l'terrain, j'ai les yeux plus gros que Özil Ton rappeur est mouillé mais ça vient pas d'son maillot Vérifie son 'pe-sli', faible maillon Oui, parfois, j'attaque, hein, vote dans les catins Mon continent s'est fait 'quer-ni', y'a que d'la merde sous le sapin À Paris, l'homme est mignon, il porte des Zanotti Il pense ou espère briller comme un diamant Swarovski À côté de la plaqu'a, loin de la vraie baraka Ma façon d'voir les choses me pousse à faire des sons qui fracassent Et, toi, renoi, t'as qu'à flopper, je m'en tape, get the fuck out Aujourd'hui, tous les négros sont matrixés comme Waka Flocka Atthitan mi hollabhe poto, dis ça vient pas de Ils font la guerre, XXX, oui, mon label, c'est l'Wati B Pas de lampe d'Aladdin mais une inspi' d'malade J'ai le flow qui les mets tous mal à l'aise, qui me vient tout droit d'l'époque d'la hass Qui peut, qui peut m'arrêter ? Tu peux m'trouver sur ma route ou alors à la récré' J'assume tous mes morceaux, tes 'tits-pe' dansent sur mes sons Oui, ça va, tes rappeurs kickent mais, moi, je fais des soumissions Depuis l'temps qu'on est là, depuis La Terre du Milieu Ils veulent tous Le Retour des Rois moi, j'veux juste péter mon million Ça kick avec orgueil, sous prétexte qu'y a pas mort d'Homme Et, quand il y aura mort d'Homme, tant pis, on sera tous en deuil You might also like Yeah, Big Black M Faut qu'ça Trace Un-deux, un-deux, hein, hein Yeah, yeah, j'ai les flows qu't'as pas Obligé d'revenir faire du sale parce que tes fautes m'agacent Akhi, sache que, la rue, c'est pas ton tiekson Et puis on devient pas thug parce qu'on a écrit deuxtrois textes sombres J'suis remonté parce qu'ils veulent tous me descendre Tous dans un trou noir parce que l'Black est omniprésent Tous cherchent la bête noire pour que le black soit méchant T'ouvres ta putain de gueule mais, en cachette, tu 'té-chan' Clashez-vous, moi, je veux juste remplir mon frigo Allez-y, faites les brigands, mais vous n'avez pas le niveau J'rappe, ça vient des 'ppes-tri' sales sont tous mes 'pes-cli' Braille, je m'en tape de ta rage, je sais pas t'es qui Sale, ça, c'est mon délire, surtout quand je gagne Le game, c'est une feu-me qui vient d'avoir ses ragnagnas Hey yo, wassup? J'ai plus de flow que AAP Du sang d'MC sur mes sapes, j'continue quand tu m'dis Stop Faut qu'tu ressembles à Aïsha, non pas à Neguesha Même si, starfoullah, ma tête se retourne sur les geishas Putain d'pêché, j'suis sur l'deuxième bum-al Sheitan fait tellement bien les choses qu'mes fans ils trouvent ça normal Le daron, il kiffe, oui, il a réussi Sa fille, c'est pas Nicki son fils, c'est pas un niqué J'vois qu'vous paniquez, or, c'est pas fini Dadju, Abou Tall, boom, Indéfini Big Black, Faut qu'ça Trace T'entends pas ?! Big Black, Faut qu'ça Trace Big Black, Faut qu'ça Trace Yeah, hein Wallah, tes gars sont pas gang, demande à Abou Debeing J'connais des barges, des dingues, pas d'ceux qui bégaient Quelques fois, j'suis dans les soirées Pump it up Et, quelques fois, j'ai l'poing levé contre l'Europe Bipolaire, et j'te jure que ça m'fait 'reup' Mais j'suis déter', ils m'auront pas, je suis le fils de mon 'reu-p' Ça t'arrange de dire que je n'fais plus de rap, bâtard Mais, faire le quart de c'que j'ai 'ait-f', t'en es pas capable Pas d'bagarre, je suis le nouveau king, nigga Je m'accapare le game et tous ses types, nigga C'est pour mes côtes de ma Guinée et mes gars d'Dakar Oui, j'ai la côte, j'sais pas si tu sais, demande au boy d'XXX Hey, j'n'ai peur que du Tout-Puissant Attendez l'dernier jour, on verra bien si Bruce est si puissant Vous m'épuisez tous, comment rester debout ? J'ai pas la veste de Debbouze... han, yeah Deux mille 'ze-quin', qu'est-ce qui peut me choquer ? Chez moi, ça kick sec, pas d'ceux qui suck Rien à foutre que ta star se pavane là-bas Moi, j'suis là, je kick sale pour mes gavanavas Depuis qu'ces ploucs m'ont vu avec le frérot Kev Adams Ils ont zappé que, quand le Big Black s'y met, il crève le mic J'suis pas dans l'futur, juste présent Percer fut dur, au 'tier-quar', y'avait rien d'intéressant La rue a fait de moi une machine, t'imagines même pas J'crois pas en la magie les génies, on les aime pas Wesh, c'est comme... parce que j'ai fait mon blé, p't-être ... Yeah, yeah, yeah, yeah, yeah Faut qu'j'm'arrête, mais Shady veut pas J'suis comme hypnotisé même quand ma chérie m'parle Dire qu'ils vont oublier c'freestyle comme s'ils avaient bu Mon Dieu, ils m'idolâtrent, p't-être que, rapper, j'aurais jamais dû Vas-y, mets du son et écoute mes dires La réussite, ça fait du mal, ils font que médire Han, j'ai cascadé, demande à Mehdi Sheitan m'épie, veut pas qu'j'finisse à Médine Made in Afrique de l'Ouest Cinq cent mille ventes, akhi, mais j'pense à ceux qui vivent la hass Sur la vie d'ma mère, faut qu'j'me vide la tête T'as vu, y'a pas que dans les films que l'ennemi vise la tête La porte était scellée, fallait que j'brise la fenêtre Ici, on s'en bat les couilles quand tu exprimes ta peine Aussitôt qu'le public te lève, mon ami, il t'rabaisse Un-deux, un-deux, dites à Joey Starr que c'est mieux qu'il s'la ferme Ha, Big Black Faut qu'ça Trace, Jacky Un pour la monnaie, deux pour le show Trois une pensée aux rappeurs qui ont pas d'flow En tête de la D1, toi, t'es un Mec que tout l'monde oublie d'appeler le 31 Là, c'est mon terrain, j'prends n'importe quel terrien Je suis né pour 'pper-ra', le game ne fait que d's''ter-ra' Pas de Porsche Carrera, mais la 'mif' à l'arrière Pas d'erreur, c'est toujours ma Sexion qui sème la terreur Cramés comme les Daltons, fuck Lucky Luke On acclame pas l'shérif pendant que le black se fait niquer Jambes solides, pas besoin de bolide Le rap français horrible, laissez-moi faire qu'on rigole Vengeance, j'ai réchauffé l'plat Tu m'vois solo sur ma route mais wallah qu'on est plein L'machin caché juste au cas où Renois jaloux voudraient m'mettre un K.O Big Black M maintenant, tu connais Plus le temps d'vous mettre des gifles, plus le temps de vous cogner Yeah, Faut qu'ça Trace, Big Black Yeah, Faut qu'ça Trace, Big Black5</t>
+          <t>Big Black M Faut qu'ça Trace Jacky, Wati B J'connais pas le mur de Berlin chez moi, c'est l'barrage 36 J'essaie d'être un mec sain mais, à chaque fois, Satan m'siffle Oh bordel, la musique, là, devient nocive Résultat sur l'terrain, j'ai les yeux plus gros que Özil Ton rappeur est mouillé mais ça vient pas d'son maillot Vérifie son 'pe-sli', faible maillon Oui, parfois, j'attaque, hein, vote dans les catins Mon continent s'est fait 'quer-ni', y'a que d'la merde sous le sapin À Paris, l'homme est mignon, il porte des Zanotti Il pense ou espère briller comme un diamant Swarovski À côté de la plaqu'a, loin de la vraie baraka Ma façon d'voir les choses me pousse à faire des sons qui fracassent Et, toi, renoi, t'as qu'à flopper, je m'en tape, get the fuck out Aujourd'hui, tous les négros sont matrixés comme Waka Flocka Atthitan mi hollabhe poto, dis ça vient pas de Ils font la guerre, XXX, oui, mon label, c'est l'Wati B Pas de lampe d'Aladdin mais une inspi' d'malade J'ai le flow qui les mets tous mal à l'aise, qui me vient tout droit d'l'époque d'la hass Qui peut, qui peut m'arrêter ? Tu peux m'trouver sur ma route ou alors à la récré' J'assume tous mes morceaux, tes 'tits-pe' dansent sur mes sons Oui, ça va, tes rappeurs kickent mais, moi, je fais des soumissions Depuis l'temps qu'on est là, depuis La Terre du Milieu Ils veulent tous Le Retour des Rois moi, j'veux juste péter mon million Ça kick avec orgueil, sous prétexte qu'y a pas mort d'Homme Et, quand il y aura mort d'Homme, tant pis, on sera tous en deuil Yeah, Big Black M Faut qu'ça Trace Un-deux, un-deux, hein, hein Yeah, yeah, j'ai les flows qu't'as pas Obligé d'revenir faire du sale parce que tes fautes m'agacent Akhi, sache que, la rue, c'est pas ton tiekson Et puis on devient pas thug parce qu'on a écrit deuxtrois textes sombres J'suis remonté parce qu'ils veulent tous me descendre Tous dans un trou noir parce que l'Black est omniprésent Tous cherchent la bête noire pour que le black soit méchant T'ouvres ta putain de gueule mais, en cachette, tu 'té-chan' Clashez-vous, moi, je veux juste remplir mon frigo Allez-y, faites les brigands, mais vous n'avez pas le niveau J'rappe, ça vient des 'ppes-tri' sales sont tous mes 'pes-cli' Braille, je m'en tape de ta rage, je sais pas t'es qui Sale, ça, c'est mon délire, surtout quand je gagne Le game, c'est une feu-me qui vient d'avoir ses ragnagnas Hey yo, wassup? J'ai plus de flow que AAP Du sang d'MC sur mes sapes, j'continue quand tu m'dis Stop Faut qu'tu ressembles à Aïsha, non pas à Neguesha Même si, starfoullah, ma tête se retourne sur les geishas Putain d'pêché, j'suis sur l'deuxième bum-al Sheitan fait tellement bien les choses qu'mes fans ils trouvent ça normal Le daron, il kiffe, oui, il a réussi Sa fille, c'est pas Nicki son fils, c'est pas un niqué J'vois qu'vous paniquez, or, c'est pas fini Dadju, Abou Tall, boom, Indéfini Big Black, Faut qu'ça Trace T'entends pas ?! Big Black, Faut qu'ça Trace Big Black, Faut qu'ça Trace Yeah, hein Wallah, tes gars sont pas gang, demande à Abou Debeing J'connais des barges, des dingues, pas d'ceux qui bégaient Quelques fois, j'suis dans les soirées Pump it up Et, quelques fois, j'ai l'poing levé contre l'Europe Bipolaire, et j'te jure que ça m'fait 'reup' Mais j'suis déter', ils m'auront pas, je suis le fils de mon 'reu-p' Ça t'arrange de dire que je n'fais plus de rap, bâtard Mais, faire le quart de c'que j'ai 'ait-f', t'en es pas capable Pas d'bagarre, je suis le nouveau king, nigga Je m'accapare le game et tous ses types, nigga C'est pour mes côtes de ma Guinée et mes gars d'Dakar Oui, j'ai la côte, j'sais pas si tu sais, demande au boy d'XXX Hey, j'n'ai peur que du Tout-Puissant Attendez l'dernier jour, on verra bien si Bruce est si puissant Vous m'épuisez tous, comment rester debout ? J'ai pas la veste de Debbouze... han, yeah Deux mille 'ze-quin', qu'est-ce qui peut me choquer ? Chez moi, ça kick sec, pas d'ceux qui suck Rien à foutre que ta star se pavane là-bas Moi, j'suis là, je kick sale pour mes gavanavas Depuis qu'ces ploucs m'ont vu avec le frérot Kev Adams Ils ont zappé que, quand le Big Black s'y met, il crève le mic J'suis pas dans l'futur, juste présent Percer fut dur, au 'tier-quar', y'avait rien d'intéressant La rue a fait de moi une machine, t'imagines même pas J'crois pas en la magie les génies, on les aime pas Wesh, c'est comme... parce que j'ai fait mon blé, p't-être ... Yeah, yeah, yeah, yeah, yeah Faut qu'j'm'arrête, mais Shady veut pas J'suis comme hypnotisé même quand ma chérie m'parle Dire qu'ils vont oublier c'freestyle comme s'ils avaient bu Mon Dieu, ils m'idolâtrent, p't-être que, rapper, j'aurais jamais dû Vas-y, mets du son et écoute mes dires La réussite, ça fait du mal, ils font que médire Han, j'ai cascadé, demande à Mehdi Sheitan m'épie, veut pas qu'j'finisse à Médine Made in Afrique de l'Ouest Cinq cent mille ventes, akhi, mais j'pense à ceux qui vivent la hass Sur la vie d'ma mère, faut qu'j'me vide la tête T'as vu, y'a pas que dans les films que l'ennemi vise la tête La porte était scellée, fallait que j'brise la fenêtre Ici, on s'en bat les couilles quand tu exprimes ta peine Aussitôt qu'le public te lève, mon ami, il t'rabaisse Un-deux, un-deux, dites à Joey Starr que c'est mieux qu'il s'la ferme Ha, Big Black Faut qu'ça Trace, Jacky Un pour la monnaie, deux pour le show Trois une pensée aux rappeurs qui ont pas d'flow En tête de la D1, toi, t'es un Mec que tout l'monde oublie d'appeler le 31 Là, c'est mon terrain, j'prends n'importe quel terrien Je suis né pour 'pper-ra', le game ne fait que d's''ter-ra' Pas de Porsche Carrera, mais la 'mif' à l'arrière Pas d'erreur, c'est toujours ma Sexion qui sème la terreur Cramés comme les Daltons, fuck Lucky Luke On acclame pas l'shérif pendant que le black se fait niquer Jambes solides, pas besoin de bolide Le rap français horrible, laissez-moi faire qu'on rigole Vengeance, j'ai réchauffé l'plat Tu m'vois solo sur ma route mais wallah qu'on est plein L'machin caché juste au cas où Renois jaloux voudraient m'mettre un K.O Big Black M maintenant, tu connais Plus le temps d'vous mettre des gifles, plus le temps de vous cogner Yeah, Faut qu'ça Trace, Big Black Yeah, Faut qu'ça Trace, Big Black5</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Viens faire un tour ici, ya qules tits-pe qui restent innocents Te faire fumer par gourmandise, ils disent on meurt ensemble Ils trahissent leurs familles, imagine si tas pas leurs sang Pourquoi ils tfont la bise quand tu les baises, quand tas pas leurs temps On parle pas beaucoup, un mot de travers chez nous Égal un coup de serpette Rien dans la tête, attends que ça tire pour te mettre du plomb dans la cervelle Chacun sa vie, si t'es ravi quand les condés nous interpellent Sans remords, je te souhaite pas la mort, je te souhaite la hess en perpète Tu sers à rien à part sucer Comme une tchoin qui a ses gles-rè C'est pas des 3arabes C'est des beurettes, série de levrette dans leurs surettes Faut pas se leurrer, compter sur eux Pour t'assurer, gros tu le sauras Le jour ou t'auras, depuis le bloc, tu seras plus rien c'est déplorable Laisse tomber les politesse, comment a-t-il pu oser les trahir pour des jolies fesses J'imagine toi pour de l'oseille, t'es pas la bienvenue fe-dar tu peux rester chez oit, chez oit 3arbi véritable quitte à parler dans la One c'est oim Eh avant l'heure, t'as dit oui on dira non On a fait shab on t'a cru On te sourit même si ça ment, à l'écouter, il fait du sale, zahma il fait du biff avant Shabi devait jouer au Real, il s'est fait les ligaments Oh là là oh là là J'ai pas un euros couramment en sterling en dollar en dirham évidemment Mon kho m'a dit faut pas parler pour rien dire, ça évite la merde Là j'ai pas le temps assez parler pose le khalis et nique ta mère woo woo woo You might also like Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Yeah Me check pas si tu te torches avec la main droite J'vais la baiser, c'est une escorte mais je l'a payerai aps pute Tu parles fort, tu frappes au torse comme un gorille Mais tu fais le singe, quand ça se corse tu veux qu'on gole-ri Je mesure ta force comme un Sayan Tu vides tes poches pour des Putte-rie Je me fais deux trois paillettes 4 7 AK abruti J'ai pris ma décision, je les baise tous avec précision Pas besoin de marabout, prédiction inverse de ballon prévisions wow La mala n's'achète pas quand t'es endetté, Debeing Niro en DT wow Pas la grosse tête, tu es entêté dans le pe-ra et dans la rue j'ai chiffré Celui qui pense que j'ai pas de couilles, va se faire bifler wow Quand tu vois ma dégaine, t'es briefé wow Dolce Gabbana Gucci je suis griffé wow À l'entrée du club que des gibiers blessés wow J'arrive, je fais pas là que tu veux, te greffer Je veux tout le VIP à coloc, tu gigotes on te chicote, zebi dans ta culotte Ta gueule, c'est un monologue, sommes dans les chromosomes J'ai montré mes chro-osomes sur mes terres comme un autogoal Viens on se passe dans l'octogone Quand t'es une star pas besoin de starifier Quand t'es gang, pas besoin de gangifier vue J'roule en plein phare Le samedi soir Mondéo Danse avec les shtars Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ?</t>
+          <t>Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Viens faire un tour ici, ya qules tits-pe qui restent innocents Te faire fumer par gourmandise, ils disent on meurt ensemble Ils trahissent leurs familles, imagine si tas pas leurs sang Pourquoi ils tfont la bise quand tu les baises, quand tas pas leurs temps On parle pas beaucoup, un mot de travers chez nous Égal un coup de serpette Rien dans la tête, attends que ça tire pour te mettre du plomb dans la cervelle Chacun sa vie, si t'es ravi quand les condés nous interpellent Sans remords, je te souhaite pas la mort, je te souhaite la hess en perpète Tu sers à rien à part sucer Comme une tchoin qui a ses gles-rè C'est pas des 3arabes C'est des beurettes, série de levrette dans leurs surettes Faut pas se leurrer, compter sur eux Pour t'assurer, gros tu le sauras Le jour ou t'auras, depuis le bloc, tu seras plus rien c'est déplorable Laisse tomber les politesse, comment a-t-il pu oser les trahir pour des jolies fesses J'imagine toi pour de l'oseille, t'es pas la bienvenue fe-dar tu peux rester chez oit, chez oit 3arbi véritable quitte à parler dans la One c'est oim Eh avant l'heure, t'as dit oui on dira non On a fait shab on t'a cru On te sourit même si ça ment, à l'écouter, il fait du sale, zahma il fait du biff avant Shabi devait jouer au Real, il s'est fait les ligaments Oh là là oh là là J'ai pas un euros couramment en sterling en dollar en dirham évidemment Mon kho m'a dit faut pas parler pour rien dire, ça évite la merde Là j'ai pas le temps assez parler pose le khalis et nique ta mère woo woo woo Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Yeah Me check pas si tu te torches avec la main droite J'vais la baiser, c'est une escorte mais je l'a payerai aps pute Tu parles fort, tu frappes au torse comme un gorille Mais tu fais le singe, quand ça se corse tu veux qu'on gole-ri Je mesure ta force comme un Sayan Tu vides tes poches pour des Putte-rie Je me fais deux trois paillettes 4 7 AK abruti J'ai pris ma décision, je les baise tous avec précision Pas besoin de marabout, prédiction inverse de ballon prévisions wow La mala n's'achète pas quand t'es endetté, Debeing Niro en DT wow Pas la grosse tête, tu es entêté dans le pe-ra et dans la rue j'ai chiffré Celui qui pense que j'ai pas de couilles, va se faire bifler wow Quand tu vois ma dégaine, t'es briefé wow Dolce Gabbana Gucci je suis griffé wow À l'entrée du club que des gibiers blessés wow J'arrive, je fais pas là que tu veux, te greffer Je veux tout le VIP à coloc, tu gigotes on te chicote, zebi dans ta culotte Ta gueule, c'est un monologue, sommes dans les chromosomes J'ai montré mes chro-osomes sur mes terres comme un autogoal Viens on se passe dans l'octogone Quand t'es une star pas besoin de starifier Quand t'es gang, pas besoin de gangifier vue J'roule en plein phare Le samedi soir Mondéo Danse avec les shtars Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ?</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Yeah ! Aujourd'hui, j'parle de tes qualités Entre vous y'a pas match, t'es déjà qualifiée J'suis XX le khalife, tu seras ma khalifa T'es une bombe atomique, j'aime trop ton calibrage J'ai les clés d'ton cur, j'vais te cadenasser Te verrouiller sur le canapé J'vais dire un truc, il faut chuchoter T'es mieux sans ton string mais j'suis culotté Tu m'rends plus ivre que du 20 ans d'âge Toutes ces folles, j'en ai encore des flashs Des flashs, des flashs Toutes ces folles, j'en ai encore des flashs Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout You might also like Oh oui ma reine, elles prendront pas ta place Elles redoublent d'effort mais n'ont pas ta classe Elles n'ont pas l'premier rôle, elles sont mortes dans l'film J'veux une femme comme toi, pas ce genre de fille C'est toi ma drogue, elle c'est pas ma came Après l'heure c'est plus l'heure, donc j'ai plus leur time Tic tac, tic tac, vas-y viens on s'casse Que nos corps s'enlacent Que les choses se passent, passent, passent Et dans la salle de bain buée sur la glace, glace, glace J't'emmène voir les étoiles qu'il y'a dans l'espace-pace-pace x2 Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout Ah ! Tout, elle a tout Ah ! Tout, elle a tout Fatou, tu as tout Sarah, tu as tout, tout Juliette, tu as tout, tout Mélissa, tu as tout, tout Ah ! Tout, elle a tout, tout Ah ! Tout, elle a tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Respirer tout, tout Respirer tout, tout Il faut la censurer tout, tout S'exprimer tout, tout La go elle a tout, tout, tout, tout La go elle a tout, tout</t>
+          <t>Tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Yeah ! Aujourd'hui, j'parle de tes qualités Entre vous y'a pas match, t'es déjà qualifiée J'suis XX le khalife, tu seras ma khalifa T'es une bombe atomique, j'aime trop ton calibrage J'ai les clés d'ton cur, j'vais te cadenasser Te verrouiller sur le canapé J'vais dire un truc, il faut chuchoter T'es mieux sans ton string mais j'suis culotté Tu m'rends plus ivre que du 20 ans d'âge Toutes ces folles, j'en ai encore des flashs Des flashs, des flashs Toutes ces folles, j'en ai encore des flashs Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Oh oui ma reine, elles prendront pas ta place Elles redoublent d'effort mais n'ont pas ta classe Elles n'ont pas l'premier rôle, elles sont mortes dans l'film J'veux une femme comme toi, pas ce genre de fille C'est toi ma drogue, elle c'est pas ma came Après l'heure c'est plus l'heure, donc j'ai plus leur time Tic tac, tic tac, vas-y viens on s'casse Que nos corps s'enlacent Que les choses se passent, passent, passent Et dans la salle de bain buée sur la glace, glace, glace J't'emmène voir les étoiles qu'il y'a dans l'espace-pace-pace x2 Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout Ah ! Tout, elle a tout Ah ! Tout, elle a tout Fatou, tu as tout Sarah, tu as tout, tout Juliette, tu as tout, tout Mélissa, tu as tout, tout Ah ! Tout, elle a tout, tout Ah ! Tout, elle a tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Respirer tout, tout Respirer tout, tout Il faut la censurer tout, tout S'exprimer tout, tout La go elle a tout, tout, tout, tout La go elle a tout, tout</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- J'ai la joie de vivre ou j'suis ivre de joie? Telle est la question, faut qu'je vois mes choix Mon cur est protegé car c'est du diamant brut J'aime pas les langues de bois ni les langues des putes J'me vaut au sommeil où il vois ma chute J'passe mes nuits aux dans la vente des stups Laissez-moi tomber, mais si je tombe me relevez pas J'vais sortir de ce cauchemar, quoi qu'il arrive ne revez pas You might also like J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Elle m'dit qu'j'suis égoïste, que j'deviens dix-temps Quand elle est avec moi elles sont inexistants Elle dit que j'fais ma vie, que j'pense qu'à moi, moi, moi Je sais qu'ça va trop vite, oui, pour toi, toi, toi Je fais si, je fais ça, elle m'fait des reproches Pourtant j'l'AK plus que tous mes proches J'aime l'adrénaline, on va cent mille à l'heure Passe de l'amour à la haine, tout ça J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce-4</t>
+          <t>Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- J'ai la joie de vivre ou j'suis ivre de joie? Telle est la question, faut qu'je vois mes choix Mon cur est protegé car c'est du diamant brut J'aime pas les langues de bois ni les langues des putes J'me vaut au sommeil où il vois ma chute J'passe mes nuits aux dans la vente des stups Laissez-moi tomber, mais si je tombe me relevez pas J'vais sortir de ce cauchemar, quoi qu'il arrive ne revez pas J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Elle m'dit qu'j'suis égoïste, que j'deviens dix-temps Quand elle est avec moi elles sont inexistants Elle dit que j'fais ma vie, que j'pense qu'à moi, moi, moi Je sais qu'ça va trop vite, oui, pour toi, toi, toi Je fais si, je fais ça, elle m'fait des reproches Pourtant j'l'AK plus que tous mes proches J'aime l'adrénaline, on va cent mille à l'heure Passe de l'amour à la haine, tout ça J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce-4</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah yeah Freestyle, 23h15 Debeinguerie, a capella J'ai aucun besoin de perdre la vie pour croire en Dieu Les morts ne parlent pas donc adresse-toi au silencieux En pleine contrôle j'mets une pêche dans la gueule du keuf Enlève tes mains bâtard c'est pas la teuf t'as cru qu'j'étais une teuch ? J'étais tellement au coeur d'la street j'sentais ses battements Planqué dans l'appartement les XXX bloquent le bâtiment Le proc' fait la réquisition ensuite y'a la perquisition Coup d'bélier la daronne sait déjà qu'tu pars en détention Faut tout assumer sans prétention J'raconte ça aux tits-pe histoire d'faire d'la prévention Ils veulent prendre exemple, ils veulent nous épater Puis nous dépasser et au final nous effacer Hier t'étais une grosse pointure aujourd'hui on t'écrase les pieds La vie ça va vite, très très vite renvoi t'as pas idée On s'connaît tous, on sait qui a fait des ous-s J'connais tous ceux qui vous poussent, toi et tes loques allez houste Arrêtez vos rôles, vous n'êtes que des jacteurs Marlo Stanfield est joué par un acteur M'éduquez pas n'essayez pas d'me faire la morale La plus grande leçon de vie, c'est le Cor-an J'lis à travers les lignes de façon subtile C'est l'mektoub tu crois marquer l'Histoire mais tu la subis Le front au sol c'est comme ça qu'on supplie Un bout de XXX au mitard c'est comme ça qu'on survit C'est pas des allocs qui vont acheter nos valeurs, vas-leur dire Que j'fais ce couplet pour les avertir J'ai déjà ma cible on peut pas m'divertir J'vais viser la tête tu vas tilter qu'après l'tir Tu sais, tu quand j'touche une pute je la marque C'est pareil avec le rap si j'le baise je le maque J'vais m'adresser aux MCs même s'ils m'connaissent déjà J'arrive comme un M16 chaque 16 fait des dégâts À Générations ou à Sky' on a du s'croiser En taule ou dans la rue, ou en freestyle, j'ai dû vous crosser Les seules défaites que j'ai connu c'est à mes procès J'viens pas pour gagner mais racketter le trophée Shin Sekaï découvre le nouveau monde, moi j'viens tout dévaster J'dois vous doubler en quelques secondes et laisser qu'un monde délabré Esprit t'as la conscience noire tu sais que moi qu'j'suis ténébreux On sait qu'il doit en rester qu'un on s'voit au sommet tous les deux Black M, si t'as Les Yeux Plus Gros Qu'le Monde, moi j'viens montrer au monde que j'ai les couilles plus grosses qu'les yeux J'dis ce que je veux, j'suis pas là pour faire un vu J'vais p't-être finir sur Terre à trop vouloir viser les cieux You might also like 23h48, Debeinguerie a capella, fin de freestyle breh1</t>
+          <t>Yeah yeah yeah yeah Freestyle, 23h15 Debeinguerie, a capella J'ai aucun besoin de perdre la vie pour croire en Dieu Les morts ne parlent pas donc adresse-toi au silencieux En pleine contrôle j'mets une pêche dans la gueule du keuf Enlève tes mains bâtard c'est pas la teuf t'as cru qu'j'étais une teuch ? J'étais tellement au coeur d'la street j'sentais ses battements Planqué dans l'appartement les XXX bloquent le bâtiment Le proc' fait la réquisition ensuite y'a la perquisition Coup d'bélier la daronne sait déjà qu'tu pars en détention Faut tout assumer sans prétention J'raconte ça aux tits-pe histoire d'faire d'la prévention Ils veulent prendre exemple, ils veulent nous épater Puis nous dépasser et au final nous effacer Hier t'étais une grosse pointure aujourd'hui on t'écrase les pieds La vie ça va vite, très très vite renvoi t'as pas idée On s'connaît tous, on sait qui a fait des ous-s J'connais tous ceux qui vous poussent, toi et tes loques allez houste Arrêtez vos rôles, vous n'êtes que des jacteurs Marlo Stanfield est joué par un acteur M'éduquez pas n'essayez pas d'me faire la morale La plus grande leçon de vie, c'est le Cor-an J'lis à travers les lignes de façon subtile C'est l'mektoub tu crois marquer l'Histoire mais tu la subis Le front au sol c'est comme ça qu'on supplie Un bout de XXX au mitard c'est comme ça qu'on survit C'est pas des allocs qui vont acheter nos valeurs, vas-leur dire Que j'fais ce couplet pour les avertir J'ai déjà ma cible on peut pas m'divertir J'vais viser la tête tu vas tilter qu'après l'tir Tu sais, tu quand j'touche une pute je la marque C'est pareil avec le rap si j'le baise je le maque J'vais m'adresser aux MCs même s'ils m'connaissent déjà J'arrive comme un M16 chaque 16 fait des dégâts À Générations ou à Sky' on a du s'croiser En taule ou dans la rue, ou en freestyle, j'ai dû vous crosser Les seules défaites que j'ai connu c'est à mes procès J'viens pas pour gagner mais racketter le trophée Shin Sekaï découvre le nouveau monde, moi j'viens tout dévaster J'dois vous doubler en quelques secondes et laisser qu'un monde délabré Esprit t'as la conscience noire tu sais que moi qu'j'suis ténébreux On sait qu'il doit en rester qu'un on s'voit au sommet tous les deux Black M, si t'as Les Yeux Plus Gros Qu'le Monde, moi j'viens montrer au monde que j'ai les couilles plus grosses qu'les yeux J'dis ce que je veux, j'suis pas là pour faire un vu J'vais p't-être finir sur Terre à trop vouloir viser les cieux 23h48, Debeinguerie a capella, fin de freestyle breh1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'étais dans mon mood ouais, j'étais dans mon monde Tous les soirs en boite t'as dépenser toutes les secondes Je pensais qu'à faire la fête, aucune go n'était prête Avec moi pas de lèche-vitrine tu veux une loulou je l'achète Mais je suis tombé sur une go, pas la plus fidèle Avec les gars c'était elle qui tirait les ficelles Une bombe atomique molotov cocktail On a fait la guerre et je suis tombé fou d'elle Donc je l'ai cacher à mes potes, je voulais pas qu'ils voient ma chute Sans chercher à comprendre ils l'auraient traité de pute On bronze, on se défonce, on veut se taper des cuites On loue des suites et hum tu imagines la suite Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Ça y est j'ai craqué On prend des selfies, comme imaginer on me demande c'est qui On sort en boite à deux, on fait des folies On fait des galipettes, quand on est au lit Me casser pas les couilles dans tous les cas je m'en bas les ... Vos discours en carton vous pouvez les remballer Je vais à cent milles à l'heure, oui je kiffe bombarder Quand je suis avec mon bae, j'suis débordé Elle et moi on fait la paire, j'suis dans mon dé' Et si je la laisse je me perd, j'suis dans mon dé' Parler il y a que ça à faire, j'suis dans mon dé' Et je sais qu'on va les faire taire, j'suis dans mon dé' You might also like Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Tout assumer, tout assumer, tout assumer Je vais tout assumer, tout assumer Je vais tout assumer, hum tout assumer</t>
+          <t>J'étais dans mon mood ouais, j'étais dans mon monde Tous les soirs en boite t'as dépenser toutes les secondes Je pensais qu'à faire la fête, aucune go n'était prête Avec moi pas de lèche-vitrine tu veux une loulou je l'achète Mais je suis tombé sur une go, pas la plus fidèle Avec les gars c'était elle qui tirait les ficelles Une bombe atomique molotov cocktail On a fait la guerre et je suis tombé fou d'elle Donc je l'ai cacher à mes potes, je voulais pas qu'ils voient ma chute Sans chercher à comprendre ils l'auraient traité de pute On bronze, on se défonce, on veut se taper des cuites On loue des suites et hum tu imagines la suite Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Ça y est j'ai craqué On prend des selfies, comme imaginer on me demande c'est qui On sort en boite à deux, on fait des folies On fait des galipettes, quand on est au lit Me casser pas les couilles dans tous les cas je m'en bas les ... Vos discours en carton vous pouvez les remballer Je vais à cent milles à l'heure, oui je kiffe bombarder Quand je suis avec mon bae, j'suis débordé Elle et moi on fait la paire, j'suis dans mon dé' Et si je la laisse je me perd, j'suis dans mon dé' Parler il y a que ça à faire, j'suis dans mon dé' Et je sais qu'on va les faire taire, j'suis dans mon dé' Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Tout assumer, tout assumer, tout assumer Je vais tout assumer, tout assumer Je vais tout assumer, hum tout assumer</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hey woah Hey woah, hey woah Hey woah Hey woah, hey woah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot dordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, impossible de lire l'heure sur ma montre Audemars J'suis à Kin, Montréal ou à Londres London Le César avant la soirée mondaine ah eh Ma black card ne vient pas de ce monde ah eh J'aime bien rentrer sans être sur la liste Le coin VIP est très loin de la piste Elle danse bien, j'ai guetté mais j'suis discret C'est qu'elle a fait exprès, yeah You might also like Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, la tigresse que tu vois, je lai domptée en cage Après quatre, cinq, six verres de Dom Pé Regarde bien les bouteilles, tu sais compter casse pas Lui ou moi ? faut surtout pas te tromper oh oh ah Quand on quitte le club cest un chantier Une bise sur la main pour l'enchanter Mes négros ne connaissent pas la honte jamais La soirée va être longue, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme dhabitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude Pour faire du seille-o, faut mouiller l'maillot Soirée mondaine, avenue Montaigne CB ou cash c'est comme ça quon paye Si y a heja, je prends un Popey Pour faire du seille-o, tu changes de maillot Elle a l'habitude des soirées mondaine En CB ou cash c'est comme ça qu'on paye Tu dis qu'y a plus d'chambre, j'ai racheté l'hôtel Charbonner on bosse, on bosse toute la semaine everyday Samedi soir la night, la night, du rouge sous la semelle LouLou' Grosse équipe méga comme d'habitude mes gos Un seul mot d'ordre juste un attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Oh oh ah</t>
+          <t>Hey woah Hey woah, hey woah Hey woah Hey woah, hey woah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot dordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, impossible de lire l'heure sur ma montre Audemars J'suis à Kin, Montréal ou à Londres London Le César avant la soirée mondaine ah eh Ma black card ne vient pas de ce monde ah eh J'aime bien rentrer sans être sur la liste Le coin VIP est très loin de la piste Elle danse bien, j'ai guetté mais j'suis discret C'est qu'elle a fait exprès, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, la tigresse que tu vois, je lai domptée en cage Après quatre, cinq, six verres de Dom Pé Regarde bien les bouteilles, tu sais compter casse pas Lui ou moi ? faut surtout pas te tromper oh oh ah Quand on quitte le club cest un chantier Une bise sur la main pour l'enchanter Mes négros ne connaissent pas la honte jamais La soirée va être longue, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme dhabitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude Pour faire du seille-o, faut mouiller l'maillot Soirée mondaine, avenue Montaigne CB ou cash c'est comme ça quon paye Si y a heja, je prends un Popey Pour faire du seille-o, tu changes de maillot Elle a l'habitude des soirées mondaine En CB ou cash c'est comme ça qu'on paye Tu dis qu'y a plus d'chambre, j'ai racheté l'hôtel Charbonner on bosse, on bosse toute la semaine everyday Samedi soir la night, la night, du rouge sous la semelle LouLou' Grosse équipe méga comme d'habitude mes gos Un seul mot d'ordre juste un attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Oh oh ah</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah, Debeinguerie Faut bien qu'je perce nan ? J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Calé avec mes loubards Dans Paris j'suis à se-l'ai tout-par J'veux un plan pers' j'suis pas dans les touses-par J'tape au poids les nes-jeu, les cougars T'as pas d'quoi t'acheter une re-pai enculé Tu veux faire la rre-gue C'est avec ton sang qu'tu vas nous régler Bats en retrait ou t'auras des regrets J'ai consulté tous mes mogos Tes gavas racontent des flocos N'ont jamais liquidé un flacon d'cke-cra Ou même touché du XXX Ramenez du gnamakoudji sec C'est bien plus que du saké Tu m'connais j'suis toujours sapé Proprement j'viens vous faire une saleté You might also like J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Arrêtez-moi vos chorés, j'suis pas effrayé par vos Hakas Si j'fais gonfler mes bravas, c'est pour mieux soulever mon AK Soir-ce j'mets bien tous mes gavas Un peu d'taga et deux-trois thiagas Mes ennemis se font allumer J'suis innocent mais venez pas m'checker Tu m'vois danser dans mes clips J'peux t'faire bouger ton cul en club Ou te faire chialer sur un titre Et dans Zulu t'effrayer ta reum Le maniement des mots la maladie des mélomanes A. DeB' j'suis un phénomène au mic' Aujourd'hui j'suis dans l'anonymat Un clip tu cliques et j'fais péter l'audimat J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Ou bien, a babié J'ai fait ça sale Pour tous mes Ivoiriens, y'a foye On est ensemble Abou Debeing, qui veut faire mieux ? Tu apprendras Allez prévenir vos gavas ou vos gomis Debeing est là pour tout rafaler Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah1</t>
+          <t>Yeah yeah yeah, Debeinguerie Faut bien qu'je perce nan ? J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Calé avec mes loubards Dans Paris j'suis à se-l'ai tout-par J'veux un plan pers' j'suis pas dans les touses-par J'tape au poids les nes-jeu, les cougars T'as pas d'quoi t'acheter une re-pai enculé Tu veux faire la rre-gue C'est avec ton sang qu'tu vas nous régler Bats en retrait ou t'auras des regrets J'ai consulté tous mes mogos Tes gavas racontent des flocos N'ont jamais liquidé un flacon d'cke-cra Ou même touché du XXX Ramenez du gnamakoudji sec C'est bien plus que du saké Tu m'connais j'suis toujours sapé Proprement j'viens vous faire une saleté J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Arrêtez-moi vos chorés, j'suis pas effrayé par vos Hakas Si j'fais gonfler mes bravas, c'est pour mieux soulever mon AK Soir-ce j'mets bien tous mes gavas Un peu d'taga et deux-trois thiagas Mes ennemis se font allumer J'suis innocent mais venez pas m'checker Tu m'vois danser dans mes clips J'peux t'faire bouger ton cul en club Ou te faire chialer sur un titre Et dans Zulu t'effrayer ta reum Le maniement des mots la maladie des mélomanes A. DeB' j'suis un phénomène au mic' Aujourd'hui j'suis dans l'anonymat Un clip tu cliques et j'fais péter l'audimat J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Ou bien, a babié J'ai fait ça sale Pour tous mes Ivoiriens, y'a foye On est ensemble Abou Debeing, qui veut faire mieux ? Tu apprendras Allez prévenir vos gavas ou vos gomis Debeing est là pour tout rafaler Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah1</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yeah Oh oh oh Tcha, tcha Hi yeah, let's get it Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo yeah Tu me connais, cest ma manière dêtre bébé Je viendrais te voir, dabord, je fais des lovés Tinquiète pas pour moi, ils goutteront le sol, bébé Cest pour mes hits, pas pour fait dhiver que j'passe à la télé Compliqué, là cest compliqué, jai des choses à faire Jai pas ltemps d'te plaire, jsais quon fait la paire Pour acheter la paix, je leur fais la guerre, tu soigneras mes plaies Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks You might also like Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Tcha, tcha, tcha, tu sais que j'viens du bendo, moi j'ai pas fait d'longues études J'ai appris à couper le bédo, armé j'peux faire d'la sécu Mon nom te fera honneur, zappe tes copines les clubeuses Elles voudront pas ton bonheur, elles mêmes, elles sont pas heureuses J'peux pas faire l'Casanova, quand on passe en gova Le premier qui kouma, un clin d'il, il coma J'étais au pied d'la montagne, ils jetaient leurs pierres sur moi Maintenant que j'suis au sommet, c'est moi qui serai là pour toi Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Let's get it Elle aime ma manière de faire Elle aime ma manière de faire Tout c'que j'fais cest élégant Tout c'que j'fais cest élégant Elle sait très bien qujsuis dans lbinks Jfais du biff, jfais mes jezz, que jagis, que j'perds pas dtemps Oh, elle veut un mec du bendo du bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo du bendo, bendo, bendo, bendo Umh, elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo</t>
+          <t>Yeah Oh oh oh Tcha, tcha Hi yeah, let's get it Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo yeah Tu me connais, cest ma manière dêtre bébé Je viendrais te voir, dabord, je fais des lovés Tinquiète pas pour moi, ils goutteront le sol, bébé Cest pour mes hits, pas pour fait dhiver que j'passe à la télé Compliqué, là cest compliqué, jai des choses à faire Jai pas ltemps d'te plaire, jsais quon fait la paire Pour acheter la paix, je leur fais la guerre, tu soigneras mes plaies Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Tcha, tcha, tcha, tu sais que j'viens du bendo, moi j'ai pas fait d'longues études J'ai appris à couper le bédo, armé j'peux faire d'la sécu Mon nom te fera honneur, zappe tes copines les clubeuses Elles voudront pas ton bonheur, elles mêmes, elles sont pas heureuses J'peux pas faire l'Casanova, quand on passe en gova Le premier qui kouma, un clin d'il, il coma J'étais au pied d'la montagne, ils jetaient leurs pierres sur moi Maintenant que j'suis au sommet, c'est moi qui serai là pour toi Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Let's get it Elle aime ma manière de faire Elle aime ma manière de faire Tout c'que j'fais cest élégant Tout c'que j'fais cest élégant Elle sait très bien qujsuis dans lbinks Jfais du biff, jfais mes jezz, que jagis, que j'perds pas dtemps Oh, elle veut un mec du bendo du bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo du bendo, bendo, bendo, bendo Umh, elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend Bon j'avoue tu n'es pas Drake Mais t'as de quoi la faire craquer Surtout tes techniques de drague Mais devant sa beauté, faut pas que tu bégaies Elle aimerait voir qu'est-ce que tu dégages Quand t'es tout seul, sans tes gars Peut être que t'as un truc que j'sais pas Mais si tu l'a pas bah vas-y dégages ! La go ne peut pas refuser Elle ne sait pas que j'suis rusé Je n'suis pas la pour m'amuser Si elle veut la lune, j'vais construire la fusée Quitte la on connait ton CV J'ai dis quitte la on connait ton CV Entre toi et moi, y'aura jamais d'amitié Un peut de mais jamais d'amitié You might also like Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend J't'avais dis qu'j'allais la blesser J't'avais dis qu'j'allais la blesser Mais désolé j'suis pas médecin Je n'sais pas comment te soigner Ah, tchatcheur, blagueur, acteur J'ai toutes les qualités d'un dragueur Elle a même pas mis un quart d'heure pour donner son coeur J'ai pas de clés, j'suis un braqueur, boom Oh, j'ai même pas eu le temps de finir mon rre-ve Mon gava, t'as pris la créature de rêve Autour de nous, j'vois les renois sont paro Mon gava, tu vas devoir les gérer un par un Et peut-être que je fais mille mètres Passe, dégage, y'a six mètres De le noir, j'aperçois la silhouette Elle me rend mais j'suis pas une girouette Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend -Ah mon gars ! Non, toi Debeing c'est trop, laisse tomber, tu blesses -Ah Black, j't'ai prévenu, je blesses -Attends, attends, attends, attends, j'vais avancé. C'est comment? C'est comment? Serina, Karina, Amina, Monica, Elina ou peut-être Erika Mais non ! Black M tu m'as triqua, j'connais pas son blaze, elle va me guetter bizarre J'croyais qu'elle habitait sur ris-Pa Non tu m'as crié dans le tier-quar T'façon c'est la même, tu blesses, tu blesses les Mon gars, laisse tomber Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend</t>
+          <t>Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend Bon j'avoue tu n'es pas Drake Mais t'as de quoi la faire craquer Surtout tes techniques de drague Mais devant sa beauté, faut pas que tu bégaies Elle aimerait voir qu'est-ce que tu dégages Quand t'es tout seul, sans tes gars Peut être que t'as un truc que j'sais pas Mais si tu l'a pas bah vas-y dégages ! La go ne peut pas refuser Elle ne sait pas que j'suis rusé Je n'suis pas la pour m'amuser Si elle veut la lune, j'vais construire la fusée Quitte la on connait ton CV J'ai dis quitte la on connait ton CV Entre toi et moi, y'aura jamais d'amitié Un peut de mais jamais d'amitié Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend J't'avais dis qu'j'allais la blesser J't'avais dis qu'j'allais la blesser Mais désolé j'suis pas médecin Je n'sais pas comment te soigner Ah, tchatcheur, blagueur, acteur J'ai toutes les qualités d'un dragueur Elle a même pas mis un quart d'heure pour donner son coeur J'ai pas de clés, j'suis un braqueur, boom Oh, j'ai même pas eu le temps de finir mon rre-ve Mon gava, t'as pris la créature de rêve Autour de nous, j'vois les renois sont paro Mon gava, tu vas devoir les gérer un par un Et peut-être que je fais mille mètres Passe, dégage, y'a six mètres De le noir, j'aperçois la silhouette Elle me rend mais j'suis pas une girouette Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend -Ah mon gars ! Non, toi Debeing c'est trop, laisse tomber, tu blesses -Ah Black, j't'ai prévenu, je blesses -Attends, attends, attends, attends, j'vais avancé. C'est comment? C'est comment? Serina, Karina, Amina, Monica, Elina ou peut-être Erika Mais non ! Black M tu m'as triqua, j'connais pas son blaze, elle va me guetter bizarre J'croyais qu'elle habitait sur ris-Pa Non tu m'as crié dans le tier-quar T'façon c'est la même, tu blesses, tu blesses les Mon gars, laisse tomber Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jvous raconte lhistoire dune veuve Cest dur à croire mais ce nest pas une femme Je l'ai croisé en soirée, soirée Elle était si soignée, soignée Je nvoulais pas d'un coup d'un soir Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé Je fais le tour de toutes les boîtes de nuit pensant que je vais la retrouver J'me fais des films et des films Et j'me dis que non, elle pourra pas me repousser J'veux réécrire l'histoire Viens on repart s'il le faut, juste pour un soir Je n'vais pas te décevoir, même si c'est dur à croire You might also like Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé x2 La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé</t>
+          <t>Jvous raconte lhistoire dune veuve Cest dur à croire mais ce nest pas une femme Je l'ai croisé en soirée, soirée Elle était si soignée, soignée Je nvoulais pas d'un coup d'un soir Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé Je fais le tour de toutes les boîtes de nuit pensant que je vais la retrouver J'me fais des films et des films Et j'me dis que non, elle pourra pas me repousser J'veux réécrire l'histoire Viens on repart s'il le faut, juste pour un soir Je n'vais pas te décevoir, même si c'est dur à croire Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé x2 La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yeah yeah Dans le calme Avec mon équipe, on est posé dans le calme T'as vu ma carrure ? T'as voulu foncer dans le mal Tu vas t'prendre un mur, pourquoi te donner tant de mal ? Plus je résiste, plus tu vas t'lâcher N'essaie pas de twerker, j'ai d'autres chattes à fouetter Là, tu m'amuses, en fait t'es ma muse J'suis juste un tchateur, qui use de la ruse Tu m'envoies ta pote qui, elle même, me veut Tu restes dans mes pattes donc tu aimes ce jeu Un pour la mala, deux pour le visu' Tu sais que j'apprécie ton attitude, mais... J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova Elle est classe, elle est clean bling Belle plastique de quoi faire craquer son jean that atho J'apprends la galanterie par mon vieux Et dès qu'elle passe devant moi, je baisse les yeux oh shit Pas comme toutes ces nanas T'as les critères pour être ma baby mama hun hun Mauvais garçon gentleman pas un voyou Et ta copine que j'aime Bitch, do I know you ? Ro là là Rien à foutre de ce que les gens disent So please, épargne-moi leur avis Si t'es matérialiste, bye bye bye bye Si t'es sérieuse, viens m'voir You might also like J'ai pour toi tes propositions, donne ta main sont trop de questions oh oh ah Tu vois plus loin que les billets de 100, tu deviens intéressante oh oh ah Plus d'un gars de mon équipe n'attend que de t'avoir au corps à corps Mais, personne dans l'illcite baby, on ne fera rien sans ton accord yeah Rien à dire sur ton physique, ta maman je félicite oh oh ah Et si tu ne sais pas qui je suis, tu n'es sûrement pas d'ici oh oh ah Tu n'es pas comme les autres filles, c'est vrai Princesse tu as, le charisme d'une dame Et j'aimerais pouvoir insister, mais Le prince Dadj m'appelle donc je resterai calme J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova J't'ai vue bouger ton corps sur du dancehall J'ai vu faire parler ta classe sur un air soul J'aime l'odeur de ton parfum, est-ce du Kenzo ? J't'emmène avec moi, si t'as eu moins de rapports qu'une benzo Oh ma, je sais ce que tu veux, car en réalité, j'ai ce que tu veux Donc stop tes manières, stop tes chichis Fis-toi à mon expérience, ouais J'ai connu des Lisa, des Tisha, Camilla, Laëticia, Astrid, Axelle, Laure et Anissa Donc prends tes bagages et tes accessoires tout Debeing a assez de vibes pour te faire valser ce soir J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova</t>
+          <t>Yeah yeah Dans le calme Avec mon équipe, on est posé dans le calme T'as vu ma carrure ? T'as voulu foncer dans le mal Tu vas t'prendre un mur, pourquoi te donner tant de mal ? Plus je résiste, plus tu vas t'lâcher N'essaie pas de twerker, j'ai d'autres chattes à fouetter Là, tu m'amuses, en fait t'es ma muse J'suis juste un tchateur, qui use de la ruse Tu m'envoies ta pote qui, elle même, me veut Tu restes dans mes pattes donc tu aimes ce jeu Un pour la mala, deux pour le visu' Tu sais que j'apprécie ton attitude, mais... J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova Elle est classe, elle est clean bling Belle plastique de quoi faire craquer son jean that atho J'apprends la galanterie par mon vieux Et dès qu'elle passe devant moi, je baisse les yeux oh shit Pas comme toutes ces nanas T'as les critères pour être ma baby mama hun hun Mauvais garçon gentleman pas un voyou Et ta copine que j'aime Bitch, do I know you ? Ro là là Rien à foutre de ce que les gens disent So please, épargne-moi leur avis Si t'es matérialiste, bye bye bye bye Si t'es sérieuse, viens m'voir J'ai pour toi tes propositions, donne ta main sont trop de questions oh oh ah Tu vois plus loin que les billets de 100, tu deviens intéressante oh oh ah Plus d'un gars de mon équipe n'attend que de t'avoir au corps à corps Mais, personne dans l'illcite baby, on ne fera rien sans ton accord yeah Rien à dire sur ton physique, ta maman je félicite oh oh ah Et si tu ne sais pas qui je suis, tu n'es sûrement pas d'ici oh oh ah Tu n'es pas comme les autres filles, c'est vrai Princesse tu as, le charisme d'une dame Et j'aimerais pouvoir insister, mais Le prince Dadj m'appelle donc je resterai calme J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova J't'ai vue bouger ton corps sur du dancehall J'ai vu faire parler ta classe sur un air soul J'aime l'odeur de ton parfum, est-ce du Kenzo ? J't'emmène avec moi, si t'as eu moins de rapports qu'une benzo Oh ma, je sais ce que tu veux, car en réalité, j'ai ce que tu veux Donc stop tes manières, stop tes chichis Fis-toi à mon expérience, ouais J'ai connu des Lisa, des Tisha, Camilla, Laëticia, Astrid, Axelle, Laure et Anissa Donc prends tes bagages et tes accessoires tout Debeing a assez de vibes pour te faire valser ce soir J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas You might also like Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
+          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yah ! Ce soir tribunal, messieurs-dames Vous allez tous être jugés Yo T'as baisé la femme de ton pote, mais tu fuis parce que tu sais pas si le poto t'as cramé Tu t'es fait pété par les keufs guet-apens de litrons et c'est ce poto qui t'as ramené Tu veux cadenasser son cur, t'as même pas la clef de son cul Tu crois que c'est ta hlel qu'on a vu dans une sextape, maintenant comment te sens tu ? Ce soir tribunal, ce soir c'est ton jugement T'as la taille d'une âne, tu veux baiser une jument L'alcool c'est de l'eau, la drogue c'est du piment Au tiek t'es qu'un guetteur, la vérité si je mens Snappeur de bouteilles, t'as pas mis un E, au pire c'est d'la location Si c'est des bites, c'est ta vocation, numéro un de la provocation Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal You might also like T'as une paire d'Asics, le frigo est plein La débrouillardise, que Dieu te bénisse 800 E la Balenciaga, tu pointes à Pôle Emploi, que Dieu te punisse T'as mis de carottes, t'es un chaud lapin Si on veut te soulever, c'est chez ton tapin En bas de chez la gadji les gadjos sont tarpin Tu passes des coups de fil personne prend tes patins Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions C'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Madame la juge, faites entrer l'accusé Monsieur l'accusé, faut-il vous excuser ? Madame la juge, faites entrer les accusés Monsieur l'accusé, il faut vous excuser Tribunal, c'est le tribunal Le tribunal, c'est le tribunal Je dis n'importe quoi, mais on s'en fout Je dis n'importe quoi, mais on s'en fout Hahaha Ce soir, c'est le tribunal Abou Debeing Bara Being</t>
+          <t>Yah ! Ce soir tribunal, messieurs-dames Vous allez tous être jugés Yo T'as baisé la femme de ton pote, mais tu fuis parce que tu sais pas si le poto t'as cramé Tu t'es fait pété par les keufs guet-apens de litrons et c'est ce poto qui t'as ramené Tu veux cadenasser son cur, t'as même pas la clef de son cul Tu crois que c'est ta hlel qu'on a vu dans une sextape, maintenant comment te sens tu ? Ce soir tribunal, ce soir c'est ton jugement T'as la taille d'une âne, tu veux baiser une jument L'alcool c'est de l'eau, la drogue c'est du piment Au tiek t'es qu'un guetteur, la vérité si je mens Snappeur de bouteilles, t'as pas mis un E, au pire c'est d'la location Si c'est des bites, c'est ta vocation, numéro un de la provocation Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal T'as une paire d'Asics, le frigo est plein La débrouillardise, que Dieu te bénisse 800 E la Balenciaga, tu pointes à Pôle Emploi, que Dieu te punisse T'as mis de carottes, t'es un chaud lapin Si on veut te soulever, c'est chez ton tapin En bas de chez la gadji les gadjos sont tarpin Tu passes des coups de fil personne prend tes patins Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions C'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Madame la juge, faites entrer l'accusé Monsieur l'accusé, faut-il vous excuser ? Madame la juge, faites entrer les accusés Monsieur l'accusé, il faut vous excuser Tribunal, c'est le tribunal Le tribunal, c'est le tribunal Je dis n'importe quoi, mais on s'en fout Je dis n'importe quoi, mais on s'en fout Hahaha Ce soir, c'est le tribunal Abou Debeing Bara Being</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C'est comment ? C'est comment, c'est comment ? C'est comment ? C'est comment, c'est comment, c'est comment ? Les gavas c'est comment ? Sortez les derniers pas de danse quand ça commence Les gomis c'est comment ? Sortez les derniers déhanchés, ça commence Ça s'connait pas j'te l'dis franco Tu grattes l'amitié, comme les darons grattent les Banco Chérie j'peux protéger ton dos Mais c'est pas pour danser le tango Tu connais ton gars, elle peut m'faire tanguer Si j'aperçois son tanga Tanguer, tanguer, tanguer, tanguer, tanguer, hey Si j'aperçois son tanga Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi You might also like C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? J'ai du buzz, tu m'fais la bise Moi j'l'ai hmmm, c'est que du showbizz Dany Synthé, change-moi la mélo Elle tombe dans les pommes mais j'ai pas pris le melon La gomi est tombée Bois-moi du Dom Pé' L'animal se fait pas dompter Mais peut se faire combler Rassemblez tous mes gavas, on est où ? Plus on est soûls, plus on est fous Paris et sa banlieue, on est où ? Nord, Sud, Est, Ouest, on est où ? Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Abidjan, c'est comment ? Bamako, c'est comment ? Dakar, c'est comment ? Kinshasa, c'est comment ? Tunis, c'est comment ? Alger, c'est comment ? Marrakech, c'est comment ? Miami, c'est comment ?</t>
+          <t>C'est comment ? C'est comment, c'est comment ? C'est comment ? C'est comment, c'est comment, c'est comment ? Les gavas c'est comment ? Sortez les derniers pas de danse quand ça commence Les gomis c'est comment ? Sortez les derniers déhanchés, ça commence Ça s'connait pas j'te l'dis franco Tu grattes l'amitié, comme les darons grattent les Banco Chérie j'peux protéger ton dos Mais c'est pas pour danser le tango Tu connais ton gars, elle peut m'faire tanguer Si j'aperçois son tanga Tanguer, tanguer, tanguer, tanguer, tanguer, hey Si j'aperçois son tanga Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? J'ai du buzz, tu m'fais la bise Moi j'l'ai hmmm, c'est que du showbizz Dany Synthé, change-moi la mélo Elle tombe dans les pommes mais j'ai pas pris le melon La gomi est tombée Bois-moi du Dom Pé' L'animal se fait pas dompter Mais peut se faire combler Rassemblez tous mes gavas, on est où ? Plus on est soûls, plus on est fous Paris et sa banlieue, on est où ? Nord, Sud, Est, Ouest, on est où ? Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Abidjan, c'est comment ? Bamako, c'est comment ? Dakar, c'est comment ? Kinshasa, c'est comment ? Tunis, c'est comment ? Alger, c'est comment ? Marrakech, c'est comment ? Miami, c'est comment ?</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tcha, tcha, tcha-tcha-tcha Tcha-tcha-tcha, tcha Moi j'viens du bendo J'aime pas trop les blèmes-pro Tu veux que j'fasse du blé Mais tu me reproches que je traîne trop Tu sais, l'argent tombe pas du ciel, il pousse sur le ter-ter Donc, tes copines, qui parle ? On va les faire taire Tu dis qu't'es dans l'bendo mais t'es peut-être avec ta deuxième go Y a des bruits d'couloir, ouais, j'ai entendu des échos Tu parles de ma fierté, tu devrais ravaler ton ego Tu m'as pris pour la déco, tu me mets sur le té-cô J't'ai pas mis sur le téc-téc J'suis là avec mon TekPak Dans le froid ça micmac J'bibi pas de Tic-Tac Six du mat', toc-toc J'suis sé-po sur le clic-clac T'es là, tu m'fais perdre mon temps Sur le terrain, les p'tits m'taclent J'te fais perdre ton temps et toi tu rentres à pas d'heure Tu sais qu'ça me rend folle, tu me connais par cur J'ai ton téléphone, vas-y donne tes codes On verra si toutes ces meufs ne sont que des potes You might also like Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort T'étais où ? J't'ai laissé cinq appels en absence Mais t'étais où ? Tu disparais donc tu prends des vacances J'ai vu des Snaps, tu fais le beau avec tes nouvelles sapes Et tu me zappes, j'ai pas fini, besoin d'vider mon sac Eh, eh, où j'étais ? J'étais dans l'binks, j'faisais pas la bringue Où j'étais ? Avec ton il de lynx, j'ai pas changé de fringues Qu'est-ce qui se passe, pourquoi ce clash ? Pour rien tu te fâches Moi je trace, tu crois qu'je chasse Comme un chien d'la casse Non, non, non Aujourd'hui tu vas pas découcher Non, non, non, non Aujourd'hui, tu vas m'écouter C'est comment ? Tu transpires tellement, tu vas te noyer C'est comment ? T'es plus dehors que dans ton foyer Oui, oui, oui Tu m'appelles et j'veux plus décrocher Oui, oui, oui, oui Tu m'harcèles et j'veux plus t'écouter C'est comment ? J'veux être patron, j'veux plus être employé C'est comment ? Vivons d'amour, d'eau fraîche, ça payera le loyer Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Si tu veux ne m'pardonne pas Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Cette fois-ci j'te pardonne pas Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort</t>
+          <t>Tcha, tcha, tcha-tcha-tcha Tcha-tcha-tcha, tcha Moi j'viens du bendo J'aime pas trop les blèmes-pro Tu veux que j'fasse du blé Mais tu me reproches que je traîne trop Tu sais, l'argent tombe pas du ciel, il pousse sur le ter-ter Donc, tes copines, qui parle ? On va les faire taire Tu dis qu't'es dans l'bendo mais t'es peut-être avec ta deuxième go Y a des bruits d'couloir, ouais, j'ai entendu des échos Tu parles de ma fierté, tu devrais ravaler ton ego Tu m'as pris pour la déco, tu me mets sur le té-cô J't'ai pas mis sur le téc-téc J'suis là avec mon TekPak Dans le froid ça micmac J'bibi pas de Tic-Tac Six du mat', toc-toc J'suis sé-po sur le clic-clac T'es là, tu m'fais perdre mon temps Sur le terrain, les p'tits m'taclent J'te fais perdre ton temps et toi tu rentres à pas d'heure Tu sais qu'ça me rend folle, tu me connais par cur J'ai ton téléphone, vas-y donne tes codes On verra si toutes ces meufs ne sont que des potes Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort T'étais où ? J't'ai laissé cinq appels en absence Mais t'étais où ? Tu disparais donc tu prends des vacances J'ai vu des Snaps, tu fais le beau avec tes nouvelles sapes Et tu me zappes, j'ai pas fini, besoin d'vider mon sac Eh, eh, où j'étais ? J'étais dans l'binks, j'faisais pas la bringue Où j'étais ? Avec ton il de lynx, j'ai pas changé de fringues Qu'est-ce qui se passe, pourquoi ce clash ? Pour rien tu te fâches Moi je trace, tu crois qu'je chasse Comme un chien d'la casse Non, non, non Aujourd'hui tu vas pas découcher Non, non, non, non Aujourd'hui, tu vas m'écouter C'est comment ? Tu transpires tellement, tu vas te noyer C'est comment ? T'es plus dehors que dans ton foyer Oui, oui, oui Tu m'appelles et j'veux plus décrocher Oui, oui, oui, oui Tu m'harcèles et j'veux plus t'écouter C'est comment ? J'veux être patron, j'veux plus être employé C'est comment ? Vivons d'amour, d'eau fraîche, ça payera le loyer Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Si tu veux ne m'pardonne pas Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Cette fois-ci j'te pardonne pas Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eh Debeing? - Yeah Franglish - Dis à tes gars qu'ils disent à leurs gars qui restent à l'arrière, ils sont pas encore prêts, pas préparer - Yeah yeah, yeah yeah Changement d'ambiance, motherfucker J'distingue les vrais des faux, les lions et les fauves Ici, le niveau je hausse face à toute la fausse Ils s'regardent quand je pose, Franglish je m'impose J'suis unique motherfuck', me comparer tu oses? Lion Noir sur la blouse, j'bosse pour faire du flouz' Mon entourage est fou, ne s'attache pas au fouf' Les femmes et les vil-ci m'traquent, ils sont dans mon dos Pourquoi ces bolos craquent? Ils écoutent ma dope? Entre grey et kaki, j'milite, je manie l'nine milli' Money, money, money, money Centime jusqu'au milli' Banquette arrière puis vacille, fais pas tes manières Moi, j'veux du violet, vert Bitch, où est ma manière? J'pense qu'à faire de la bombe, XXX Un charme venu du Congo passant par le Togo Comme une wifi, j'ai des connexions d'tout-par La réussite, moi et mes gars, on va la touze-par You might also like Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Deux-trois fils de pute, un seul 357 La vie n'a pas de prix mais la mort s'achète J'ai vendu en détail la drogue en sachet J'ravitaillais l'bétail, les keufs nous pourchassaient J'ai beau quitter la ur' mais la ur' ne me quittera pas Le plus éloquent de vos députés cain-ri ne me guidera pas J'sors des Debeinguerie et ils pètent les XXX Euros, dollars ou livre, j'suis dans les papers moves J'fais des parenthèses même quand j'vais charbonner J'passe du point A, au point B, en passant par le point G J'aime les gros terma' et les fouffes étroites Si j'me lève du pied gauche, tu t'bouffes une droite Si j'suis pris dans les salades, j'appelle mon avocat J'mange une peine planchée, le juge a étudié mon cas J'suis un chacal, j'vais tous vous laissé affamer XXX Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Eh Franglish? J'ai dis à mes gars qu'ils disent à leurs gars d'rester à l'arrière, qu'ils sont pas encore prêts, pas encore préparés Let's Get It, Let's Get It</t>
+          <t>Eh Debeing? - Yeah Franglish - Dis à tes gars qu'ils disent à leurs gars qui restent à l'arrière, ils sont pas encore prêts, pas préparer - Yeah yeah, yeah yeah Changement d'ambiance, motherfucker J'distingue les vrais des faux, les lions et les fauves Ici, le niveau je hausse face à toute la fausse Ils s'regardent quand je pose, Franglish je m'impose J'suis unique motherfuck', me comparer tu oses? Lion Noir sur la blouse, j'bosse pour faire du flouz' Mon entourage est fou, ne s'attache pas au fouf' Les femmes et les vil-ci m'traquent, ils sont dans mon dos Pourquoi ces bolos craquent? Ils écoutent ma dope? Entre grey et kaki, j'milite, je manie l'nine milli' Money, money, money, money Centime jusqu'au milli' Banquette arrière puis vacille, fais pas tes manières Moi, j'veux du violet, vert Bitch, où est ma manière? J'pense qu'à faire de la bombe, XXX Un charme venu du Congo passant par le Togo Comme une wifi, j'ai des connexions d'tout-par La réussite, moi et mes gars, on va la touze-par Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Deux-trois fils de pute, un seul 357 La vie n'a pas de prix mais la mort s'achète J'ai vendu en détail la drogue en sachet J'ravitaillais l'bétail, les keufs nous pourchassaient J'ai beau quitter la ur' mais la ur' ne me quittera pas Le plus éloquent de vos députés cain-ri ne me guidera pas J'sors des Debeinguerie et ils pètent les XXX Euros, dollars ou livre, j'suis dans les papers moves J'fais des parenthèses même quand j'vais charbonner J'passe du point A, au point B, en passant par le point G J'aime les gros terma' et les fouffes étroites Si j'me lève du pied gauche, tu t'bouffes une droite Si j'suis pris dans les salades, j'appelle mon avocat J'mange une peine planchée, le juge a étudié mon cas J'suis un chacal, j'vais tous vous laissé affamer XXX Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Eh Franglish? J'ai dis à mes gars qu'ils disent à leurs gars d'rester à l'arrière, qu'ils sont pas encore prêts, pas encore préparés Let's Get It, Let's Get It</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eh, eh Elles sont fans de moi, eh, moi, je suis fan de toi, eh Y a que ça qui compte, tu peux compter sur moi, eh Quand j'tai engagé, eh, je les ai dégagé, eh Comme tu mas choisi, je tai mis côté passager, eh On est dans le bolide, eh, normal quils critiquent, eh Nous deux, cest solide, tes pas là pour mon liquide, eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Nous, on sait ce quon fait, eux, ils voient que ce quon montre Nous, on y va molo, eux, cest course contre-la-montre Nous, on est en mala, eux, ils voient notre mala Nous, on va pas kala, eux, ils aiment les palabres On est dans le bolide, eh, normal quils critiquent, eh Nous deux cest solide, tes pas là pour mon liquide eh You might also like Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh</t>
+          <t>Eh, eh Elles sont fans de moi, eh, moi, je suis fan de toi, eh Y a que ça qui compte, tu peux compter sur moi, eh Quand j'tai engagé, eh, je les ai dégagé, eh Comme tu mas choisi, je tai mis côté passager, eh On est dans le bolide, eh, normal quils critiquent, eh Nous deux, cest solide, tes pas là pour mon liquide, eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Nous, on sait ce quon fait, eux, ils voient que ce quon montre Nous, on y va molo, eux, cest course contre-la-montre Nous, on est en mala, eux, ils voient notre mala Nous, on va pas kala, eux, ils aiment les palabres On est dans le bolide, eh, normal quils critiquent, eh Nous deux cest solide, tes pas là pour mon liquide eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Jvois tout ses raclos, ouais, qui font les macros, ouais Jviens pour le mégot, ouais, comme sur un braquot, ouais T'as du monde sur les côtes, ouais, et jm'en bats les reins, ouais Jles tacles yaura pas faute, ouais, et jm'en lave les mains, ouais Jconnais pas ton fond, ouais, mais jconnait tes formes, ouais Moi c'que je ressens cest profond, ouais, tes pas dans les normes, ouais Jsais ce que tu vaux, ouais, jai ce quil te faut, ouais Ils font tous les vrais, ouais, jte dis tout est faux, ouais Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? You might also like Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? 911, appelle la police, jvoudrais la caresser tellement elle a la peau lisse Jsuis ton super-héro, t'as capté mon vice mais j'suis sincère assez, j'attends que Dieu me bénisse Tu ma pris pour qui ? Tu ma pris pour quoi ? Tu penses que je voudrais juste passer la nuit avec toi Tu ma pris pour qui ? Tu ma pris pour quoi ? Laisse-moi le temps et le Tout-Puissant nous réunira Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ?</t>
+          <t>Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Jvois tout ses raclos, ouais, qui font les macros, ouais Jviens pour le mégot, ouais, comme sur un braquot, ouais T'as du monde sur les côtes, ouais, et jm'en bats les reins, ouais Jles tacles yaura pas faute, ouais, et jm'en lave les mains, ouais Jconnais pas ton fond, ouais, mais jconnait tes formes, ouais Moi c'que je ressens cest profond, ouais, tes pas dans les normes, ouais Jsais ce que tu vaux, ouais, jai ce quil te faut, ouais Ils font tous les vrais, ouais, jte dis tout est faux, ouais Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? 911, appelle la police, jvoudrais la caresser tellement elle a la peau lisse Jsuis ton super-héro, t'as capté mon vice mais j'suis sincère assez, j'attends que Dieu me bénisse Tu ma pris pour qui ? Tu ma pris pour quoi ? Tu penses que je voudrais juste passer la nuit avec toi Tu ma pris pour qui ? Tu ma pris pour quoi ? Laisse-moi le temps et le Tout-Puissant nous réunira Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ?</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ah, hum, ah hum hum Ah, hum, ah hum hum Trois du mat', j'suis devant l'club et j'rentre comme si c'était un pub La queue est longue mais j'fais pas la queue, grosse équipe, dix fois deux Dix du front un d'mes gars dans l'fond Trop d'prestance mais qui ils sont, Versacisé, Gabanisé, Rolexisé, j'peux pas m'canaliser T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer You might also like J'suis un gars d'la tess, j'suis un gars d'la brèche, j'suis dans la presse, j'suis un gosse d'la hess Ça parle d'argent, j'peux pas nahess, j'te rentre dedans tu veux J'suis à ma table y a mes gars sûrs, j'te connais pas, tu fonces dans l'mur Tu m'parles de blanche, tu m'parles de pure, j'te connais pas, tu fonces dans l'mur T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer C'est le moment d'envoyer, rouler! Ah, on les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé de Paris jusqu'à Marseille Ils ont envoyé d'Abidjan à Bamako Ils ont envoyé Marrakech, Marbella Ils ont envoyé de London à Kinshasa Ils ont envoyé One, two, three, viva... ahah</t>
+          <t>Ah, hum, ah hum hum Ah, hum, ah hum hum Trois du mat', j'suis devant l'club et j'rentre comme si c'était un pub La queue est longue mais j'fais pas la queue, grosse équipe, dix fois deux Dix du front un d'mes gars dans l'fond Trop d'prestance mais qui ils sont, Versacisé, Gabanisé, Rolexisé, j'peux pas m'canaliser T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer J'suis un gars d'la tess, j'suis un gars d'la brèche, j'suis dans la presse, j'suis un gosse d'la hess Ça parle d'argent, j'peux pas nahess, j'te rentre dedans tu veux J'suis à ma table y a mes gars sûrs, j'te connais pas, tu fonces dans l'mur Tu m'parles de blanche, tu m'parles de pure, j'te connais pas, tu fonces dans l'mur T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer C'est le moment d'envoyer, rouler! Ah, on les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé de Paris jusqu'à Marseille Ils ont envoyé d'Abidjan à Bamako Ils ont envoyé Marrakech, Marbella Ils ont envoyé de London à Kinshasa Ils ont envoyé One, two, three, viva... ahah</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ahn ahn ahn ahn Ahn ouh, ahnn ouh J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jsuis toujours le même, jai jamais joué de rôle Cest toi mon bras droit, cest toi mon fusil dépaule Chérie, j'suis ton homme donc les gens parlent de nous Les rues sont remplies d'sang, j'peux pas me mettre à genoux Mes frères de la rue sont comme mes frères de sang Jai pas beaucoup damis, j'connais juste beaucoup de gens Et jai des goûts de luxe, les riches m'ont contaminé J'veux plus revivre la hess, jen suis traumatisé Jétais dans le gouffre, là où tout l'monde souffre Où tu prends du ferme parce quaucune porte ne souvre Jai pris ma vie en main, avec mes couilles et mon cerveau Instagram et snap, j'poste tout sur mes réseaux You might also like J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jaime aussi plaire aux femmes, cest un d'mes gros défauts Jai ça dans les veines, jaime flatter mon égo Donc les femmes parlent de moi, dans Paris, y a des échos J'bombarde dans ma Merco, j'vois toutes mes exs dans le rétro Mais faut les comprendre, j'suis devenu une star Et ça reste un fantasme de coucher avec une star On choisit pas doù on vient mais on choisit où on va Jai créé mon chemin, plutôt qumarcher au pas J'me r'vois dans ma cellule avec vue sur la merde Faut qu'jassure la vie d'mon fils, sur la vie de ma mère J'préfère un ennemi fort plutôt quun ami faible Je sais qui f'ra le mort, je sais qui va me faire J'préfère être triste et riche que rester joyeux mais pauvre J'suis pas de ceux qui flippent, je suis de ceux qui osent Même si j'me fais fume, comme XXXTentacion Le jour où j'partirais, on oubliera mes bonnes actions J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Ahn ahn ahn ahn Ahn ouh, ahnn ouh</t>
+          <t>Ahn ahn ahn ahn Ahn ouh, ahnn ouh J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jsuis toujours le même, jai jamais joué de rôle Cest toi mon bras droit, cest toi mon fusil dépaule Chérie, j'suis ton homme donc les gens parlent de nous Les rues sont remplies d'sang, j'peux pas me mettre à genoux Mes frères de la rue sont comme mes frères de sang Jai pas beaucoup damis, j'connais juste beaucoup de gens Et jai des goûts de luxe, les riches m'ont contaminé J'veux plus revivre la hess, jen suis traumatisé Jétais dans le gouffre, là où tout l'monde souffre Où tu prends du ferme parce quaucune porte ne souvre Jai pris ma vie en main, avec mes couilles et mon cerveau Instagram et snap, j'poste tout sur mes réseaux J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jaime aussi plaire aux femmes, cest un d'mes gros défauts Jai ça dans les veines, jaime flatter mon égo Donc les femmes parlent de moi, dans Paris, y a des échos J'bombarde dans ma Merco, j'vois toutes mes exs dans le rétro Mais faut les comprendre, j'suis devenu une star Et ça reste un fantasme de coucher avec une star On choisit pas doù on vient mais on choisit où on va Jai créé mon chemin, plutôt qumarcher au pas J'me r'vois dans ma cellule avec vue sur la merde Faut qu'jassure la vie d'mon fils, sur la vie de ma mère J'préfère un ennemi fort plutôt quun ami faible Je sais qui f'ra le mort, je sais qui va me faire J'préfère être triste et riche que rester joyeux mais pauvre J'suis pas de ceux qui flippent, je suis de ceux qui osent Même si j'me fais fume, comme XXXTentacion Le jour où j'partirais, on oubliera mes bonnes actions J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Ahn ahn ahn ahn Ahn ouh, ahnn ouh</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Paris, Marseille, Lille, Strasbourg, Lyon, Toulouse, Bordeaux On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa musique Il était en soirée soirée Complètement bourré bourré La go, il la voulait voulait Mais il la soûlait soûlait Ouais il la voulait voulait Mais c'était un boulet boulet Roulé boulé, il a tout déballé Marrakech, Tunis, Alger, Kinshasa, Bamako, Dakar, Abidjan On me dit qu'elle dansa, hey On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique You might also like Elle était en soirée soirée Très très soignée soignée Le gars, elle le voulait voulait Mais il a foiré foiré Ouais il a foiré foiré Il a fait l'enfoiré 'foiré Donc elle est rentrée rentrée Bien accompagnée 'pagnée Miami, Vegas, New York, L.A., Dubaï, Phuket, Ibiza On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa2</t>
+          <t>Paris, Marseille, Lille, Strasbourg, Lyon, Toulouse, Bordeaux On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa musique Il était en soirée soirée Complètement bourré bourré La go, il la voulait voulait Mais il la soûlait soûlait Ouais il la voulait voulait Mais c'était un boulet boulet Roulé boulé, il a tout déballé Marrakech, Tunis, Alger, Kinshasa, Bamako, Dakar, Abidjan On me dit qu'elle dansa, hey On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique Elle était en soirée soirée Très très soignée soignée Le gars, elle le voulait voulait Mais il a foiré foiré Ouais il a foiré foiré Il a fait l'enfoiré 'foiré Donc elle est rentrée rentrée Bien accompagnée 'pagnée Miami, Vegas, New York, L.A., Dubaï, Phuket, Ibiza On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa2</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tchè, tchè, tchè tchè tchè Tchè, tchè, tchè eh Ouais la night, ouais la night va me tuer Un jour les groupies vont finir par me huer Je te trompe, j'te retrompe, j'te fais suer Mais tu fais la sourde donc je fais le muet Sous la douche tes pleurs sont cachés par la buée J'suis l'dernier des salauds, j'me dis qu'j'ai abusé Y a pas d'raison j'ai fini par m'ennuyer J'ai sali ton honneur j'pourrais jamais l'essuyer Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni You might also like Tchè, Tchè L'amour rend aveugle donc tu te voiles la face Tu nageais dans le bonheur aujourd'hui tu bois la tasse T'aime pas les histoires c'est pour ça que tu tais Un jour tout se paie, ouais un jour tout se sait Je veux te le dire il y a que pour toi que j'ai des sentiments Les autres je les vois et elles repartent toutes gentiment Peut-être qu'on serait mieux si on prenait nos distances Mais le silence est la meilleure des défenses Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni Pour nous protéger hein Pour te protéger hein Je m'en veux aussi hein On est dans le déni hein</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè, tchè, tchè eh Ouais la night, ouais la night va me tuer Un jour les groupies vont finir par me huer Je te trompe, j'te retrompe, j'te fais suer Mais tu fais la sourde donc je fais le muet Sous la douche tes pleurs sont cachés par la buée J'suis l'dernier des salauds, j'me dis qu'j'ai abusé Y a pas d'raison j'ai fini par m'ennuyer J'ai sali ton honneur j'pourrais jamais l'essuyer Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Tchè, Tchè L'amour rend aveugle donc tu te voiles la face Tu nageais dans le bonheur aujourd'hui tu bois la tasse T'aime pas les histoires c'est pour ça que tu tais Un jour tout se paie, ouais un jour tout se sait Je veux te le dire il y a que pour toi que j'ai des sentiments Les autres je les vois et elles repartent toutes gentiment Peut-être qu'on serait mieux si on prenait nos distances Mais le silence est la meilleure des défenses Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni Pour nous protéger hein Pour te protéger hein Je m'en veux aussi hein On est dans le déni hein</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo You might also like Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
+          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Han, han Han, han Dessaoulé, Aymoune t'a dessaoulé Dessaoulé, Aymoune t'a dessaoulé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Marrakech, Pattaya Joint de XXX, faya J'ai fais l'plein Porsche Chayenne XXXX d'addition XXX caillasse Coup d'bouteille dans la te-tê' Belvé' belvé' belvé' belvé' Chaussures Gucci, ceinture élevée Niveau élevé élevé élevé You might also like J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Elle a tourné dans tout Paris Et elle ose me dire c'est comment ? On s'était dit on s'attache pas Elle a vu le buzz, elle d'vient collante Amnésie globale, amnesia locale Elle peut boire Vodka, XXX pas d'car J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Service, pourboire Jada, trou noir Chicha, beurette Tel-ho', levrette Négresse fâchée, Marine placée Black M, Verdun Marine fâchée Aymoune, Debeing, il t'a assuré Est-ce que c'morceau sera censuré ? Jada, Belvé', bouteille, bénef' Magnum, champagne, XXX Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé</t>
+          <t>Han, han Han, han Dessaoulé, Aymoune t'a dessaoulé Dessaoulé, Aymoune t'a dessaoulé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Marrakech, Pattaya Joint de XXX, faya J'ai fais l'plein Porsche Chayenne XXXX d'addition XXX caillasse Coup d'bouteille dans la te-tê' Belvé' belvé' belvé' belvé' Chaussures Gucci, ceinture élevée Niveau élevé élevé élevé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Elle a tourné dans tout Paris Et elle ose me dire c'est comment ? On s'était dit on s'attache pas Elle a vu le buzz, elle d'vient collante Amnésie globale, amnesia locale Elle peut boire Vodka, XXX pas d'car J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Service, pourboire Jada, trou noir Chicha, beurette Tel-ho', levrette Négresse fâchée, Marine placée Black M, Verdun Marine fâchée Aymoune, Debeing, il t'a assuré Est-ce que c'morceau sera censuré ? Jada, Belvé', bouteille, bénef' Magnum, champagne, XXX Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eh, eh eh Tcheh, tcheh, tcheh tcheh tcheh Eh, eh eh Tcheh, tcheh Tu passes ta vie en boîte de nuit, elle veut juste qu't'évites les ennuis Les chiennes de garde ne font qu'du bruit quand t'es en chien, direct, elles fuient Ton poto s'est fait tirer d'ssus, tu veux retourner les plomber Quand t'as la tête dans ton plan cul, elle pense déjà à ton plan B En gros t'es juste un chien d'la casse, elle est naïve, elle s'voile la face Tu l'as prise pour la mettre de té-cô, pour que personne te prenne ta place Un mot d'travers, c'est toi qui t'casse, la hagra la plus efficace À chaque fois qu'elle regarde ton bigo, elle se remange le coup d'grâce T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste You might also like On sait tous que t'es pas timide, nous mens pas, ne fais pas timnik Des maîtresses, t'en a cinq ou six, on sait tous que t'as pas d'limites Han, à chaque fois qu'tu l'entends râler chaque fois Tu la bombardes de ça va aller ça va, va Tu lui sors tout un tas de mythos pour l'empêcher de cavaler Teh, t'as pas d'cur, non, t'as pas d'pitié, faire du mal, ça t'fait palpiter Tu rentres pas, elle est paniquée, tu rentres pas tant qu't'as pas niqué Tu cherches même plus à t'rattraper tu t'en fous, ouais, chez moi on dit 'Esprit mabé mauvais Comme tu sais qu'elle va revenir, y'a plus besoin de s'adapter T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste</t>
+          <t>Eh, eh eh Tcheh, tcheh, tcheh tcheh tcheh Eh, eh eh Tcheh, tcheh Tu passes ta vie en boîte de nuit, elle veut juste qu't'évites les ennuis Les chiennes de garde ne font qu'du bruit quand t'es en chien, direct, elles fuient Ton poto s'est fait tirer d'ssus, tu veux retourner les plomber Quand t'as la tête dans ton plan cul, elle pense déjà à ton plan B En gros t'es juste un chien d'la casse, elle est naïve, elle s'voile la face Tu l'as prise pour la mettre de té-cô, pour que personne te prenne ta place Un mot d'travers, c'est toi qui t'casse, la hagra la plus efficace À chaque fois qu'elle regarde ton bigo, elle se remange le coup d'grâce T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste On sait tous que t'es pas timide, nous mens pas, ne fais pas timnik Des maîtresses, t'en a cinq ou six, on sait tous que t'as pas d'limites Han, à chaque fois qu'tu l'entends râler chaque fois Tu la bombardes de ça va aller ça va, va Tu lui sors tout un tas de mythos pour l'empêcher de cavaler Teh, t'as pas d'cur, non, t'as pas d'pitié, faire du mal, ça t'fait palpiter Tu rentres pas, elle est paniquée, tu rentres pas tant qu't'as pas niqué Tu cherches même plus à t'rattraper tu t'en fous, ouais, chez moi on dit 'Esprit mabé mauvais Comme tu sais qu'elle va revenir, y'a plus besoin de s'adapter T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Euro, dollar Euro, dollar Euro, dollar Ey, ey, ey, prr Euro, dollar Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Vient qu'on s'capte, j'suis dans l'speed Tu veux m'voir, j'suis dans le VIP Regarde-moi, regard triste J'bois tellement qu'j'ai l'regard vide Autour de moi y a que des foufs, que des clowns, que des jnouns J'ai tellement des liasses de partout, t'as l'impression que j'vends d'la schnouf Yah, euro, dollar, livre sterling yah Y a du pain en libre service yah J'avais l'ennemi à ma merci yah Mais j'avais la meuf dans mon Merce yah You might also like Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ey, ey Stack is paars, heb een paar gebosst Prr Straight up, pak saaf in een envelop Beaucoup d'argent, da's een rare som Ontspan, ga naar huis met een Franse bom Prr, hey Securen de bag Ben niet de type dat liegt in m'n raps Hou van mezelf, wat ik doe voor de cash Cash Ben onderweg, die miljoen is niet ver, hmm Rah Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Ey, ey, ey, prr, prr, hey Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Prr, hey On est arrivé à deux On est reparti à dix La devise c'est love et and peace L'amour on laisse ça à nos vices Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Euro, dollar Euro, dollar Euro, dollar Euro, dollar</t>
+          <t>Euro, dollar Euro, dollar Euro, dollar Ey, ey, ey, prr Euro, dollar Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Vient qu'on s'capte, j'suis dans l'speed Tu veux m'voir, j'suis dans le VIP Regarde-moi, regard triste J'bois tellement qu'j'ai l'regard vide Autour de moi y a que des foufs, que des clowns, que des jnouns J'ai tellement des liasses de partout, t'as l'impression que j'vends d'la schnouf Yah, euro, dollar, livre sterling yah Y a du pain en libre service yah J'avais l'ennemi à ma merci yah Mais j'avais la meuf dans mon Merce yah Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ey, ey Stack is paars, heb een paar gebosst Prr Straight up, pak saaf in een envelop Beaucoup d'argent, da's een rare som Ontspan, ga naar huis met een Franse bom Prr, hey Securen de bag Ben niet de type dat liegt in m'n raps Hou van mezelf, wat ik doe voor de cash Cash Ben onderweg, die miljoen is niet ver, hmm Rah Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Ey, ey, ey, prr, prr, hey Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Prr, hey On est arrivé à deux On est reparti à dix La devise c'est love et and peace L'amour on laisse ça à nos vices Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Euro, dollar Euro, dollar Euro, dollar Euro, dollar</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>...You might also like</t>
+          <t>...</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ils croient tous faire du rap, ils sont bons dans la trap Eux, tous le même flow sorti d'un XXX J'crache dans une fouf, pas dans la soupe Mon gosse te butera dans dix ans si j'te loupe J'bosse et j'ai du talent Ramène-moi l'mic' queYou might also like</t>
+          <t>Ils croient tous faire du rap, ils sont bons dans la trap Eux, tous le même flow sorti d'un XXX J'crache dans une fouf, pas dans la soupe Mon gosse te butera dans dix ans si j'te loupe J'bosse et j'ai du talent Ramène-moi l'mic' que</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer You might also like Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
+          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! Tu fais l'sourd, on t'allonge si tu fais l'sourd sourd ! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous! Ce soir, jsuis tellement griffé quon va mappeler griffon dor Aujourdhui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Comme on s'retrouve ma dépouga Il est trop tard pour prier Pouda J'veux m'casser pars pas m'faire Pumba T'as cherché la mienne dans mon crou d'balle A-M-G j'suis dans le leasing Debeing 1 sur le listing J'ai conquis le club comme un viking Pas d'garde de saloon, que des vikings Tu sais si on fascine des bonhommes Première poignée de mon premier regard Tu sais si on fascine Tchaga Première bise, premier roulage de pétards You might also like Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin J'prends les jeunes majeures, j'prends les cougars Chocolat noir, caramel, nougat T'as bien compris que j'suis dans l'métissage J'promène en beu-Reu', j'vends les p'tits sages A ce qu'il paraît, t'as un garage Tellement de bouteilles, j'ai un parking Oui j'ai un parking Avec les Magnums, j'fais du karting T'envoies ta copine au casse Tu t'mets devant le vide, tu ne passes pas le casting Tu l'envoies au casse Tu t'mets devant le vide, mais elle n'passe pas le casting Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! T fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous!</t>
+          <t>Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! Tu fais l'sourd, on t'allonge si tu fais l'sourd sourd ! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous! Ce soir, jsuis tellement griffé quon va mappeler griffon dor Aujourdhui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Comme on s'retrouve ma dépouga Il est trop tard pour prier Pouda J'veux m'casser pars pas m'faire Pumba T'as cherché la mienne dans mon crou d'balle A-M-G j'suis dans le leasing Debeing 1 sur le listing J'ai conquis le club comme un viking Pas d'garde de saloon, que des vikings Tu sais si on fascine des bonhommes Première poignée de mon premier regard Tu sais si on fascine Tchaga Première bise, premier roulage de pétards Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin J'prends les jeunes majeures, j'prends les cougars Chocolat noir, caramel, nougat T'as bien compris que j'suis dans l'métissage J'promène en beu-Reu', j'vends les p'tits sages A ce qu'il paraît, t'as un garage Tellement de bouteilles, j'ai un parking Oui j'ai un parking Avec les Magnums, j'fais du karting T'envoies ta copine au casse Tu t'mets devant le vide, tu ne passes pas le casting Tu l'envoies au casse Tu t'mets devant le vide, mais elle n'passe pas le casting Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! T fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous!</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Woh, woh, woh Woh, woh, woh, woh Aaah, il veulent faire la guerre, pas assez d'armes Il pleut des bouteilles, il verse des larmes J'embrasse ces jaloux, avec le sourire Allez kiss, allez kiss Dans la rue, aucune règle c'est l'argent qui fait la loi Parlons biff, parlons français, parlons pas chinois Mouah pour les jalouses avec le sourire Allez kiss, allez kiss Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre You might also like Aaah, dix minutes sur la table, on a posé nos couilles Bande de pisseux, vous parlez plus beaucoup Aaah, toujours ceux qui parlent le plus qu'en font le moins et qui redoutent la fin du mois J'vis de la 'sique sin-c, j'fais plus trop de zigzag J'ai vendu la me-ca comme si je vendais des Tic-Tac Six du mat' tic tac Les keufs ont fait toc toc, toc toc Ils m'ont soulevé sur le clic-clac Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre La concurrence n'est pas née Et si elle est née on va la tuer La concurrence n'est pas née Et si elle est née on va la tuer T'en envoies une, j't'en envoie cinq T'en envoies cinq, j't'en envoie quinze La concurrence n'est pas née Et si elle est née on va la tuer, ah ! On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Woh, woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh, woh Star Wars, Star Wars, Star Wars Woh, woh 300, 300, 300 Woh, woh, woh1</t>
+          <t>Woh, woh, woh Woh, woh, woh, woh Aaah, il veulent faire la guerre, pas assez d'armes Il pleut des bouteilles, il verse des larmes J'embrasse ces jaloux, avec le sourire Allez kiss, allez kiss Dans la rue, aucune règle c'est l'argent qui fait la loi Parlons biff, parlons français, parlons pas chinois Mouah pour les jalouses avec le sourire Allez kiss, allez kiss Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Aaah, dix minutes sur la table, on a posé nos couilles Bande de pisseux, vous parlez plus beaucoup Aaah, toujours ceux qui parlent le plus qu'en font le moins et qui redoutent la fin du mois J'vis de la 'sique sin-c, j'fais plus trop de zigzag J'ai vendu la me-ca comme si je vendais des Tic-Tac Six du mat' tic tac Les keufs ont fait toc toc, toc toc Ils m'ont soulevé sur le clic-clac Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre La concurrence n'est pas née Et si elle est née on va la tuer La concurrence n'est pas née Et si elle est née on va la tuer T'en envoies une, j't'en envoie cinq T'en envoies cinq, j't'en envoie quinze La concurrence n'est pas née Et si elle est née on va la tuer, ah ! On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Woh, woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh, woh Star Wars, Star Wars, Star Wars Woh, woh 300, 300, 300 Woh, woh, woh1</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yah, yah yah yah yah yah Ah, ah, ah Wesh la famax', sortait les famas On est chavax, Air Max, TMAX Bans'bagui, ah j'crois qu'y a trop d'gadji Huit magnum, seize raclis J'vois tout en double, ah, c'est l'effet d'groupe Vision très sombre, vision très trouble Après quatre heures, plus d'comportement Fait la passe dé', débordement Tir frappe cadrée, tié le sang le fraté J'suis en 4G, sur Snap j'vais l'engager Grosse bagarre, pépère c'est l'bazar J'suis avec Amar, le berbère barbare Tu parles pour quoi? Tu baises ou pas? T'es vierge ou quoi? T'as tes règles ou quoi? Tu parles beaucoup, petite poupée, vire la d'ici, meuf à problème CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablahYou might also like</t>
+          <t>Yah, yah yah yah yah yah Ah, ah, ah Wesh la famax', sortait les famas On est chavax, Air Max, TMAX Bans'bagui, ah j'crois qu'y a trop d'gadji Huit magnum, seize raclis J'vois tout en double, ah, c'est l'effet d'groupe Vision très sombre, vision très trouble Après quatre heures, plus d'comportement Fait la passe dé', débordement Tir frappe cadrée, tié le sang le fraté J'suis en 4G, sur Snap j'vais l'engager Grosse bagarre, pépère c'est l'bazar J'suis avec Amar, le berbère barbare Tu parles pour quoi? Tu baises ou pas? T'es vierge ou quoi? T'as tes règles ou quoi? Tu parles beaucoup, petite poupée, vire la d'ici, meuf à problème CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>I wrote this in ten minutes That's more than you'll ever give me You only met me twice but I don't think that you'd forget me I'll admit that I'm crushing, won't admit that I'm creeping Unless you're into that, I'll tell you all about your weekend I'm peeping your profile, falling for things so simple like dimples on your smile Give me your number, watch how fast I make that phone dial Impatiently waiting, debating whether or not I should just show up to your spot What's the worst that can happen? Serenade you with rapping Ven conmigo mi Jasmine, you ever been with a Latin? I know you understand it, cause I'm speaking your language And I'm from your same island, another reason I'm wildin' I'm finding ways to impress you, take you out and finesse you Compliment your outfit while I mentally undress you And test you, while you're in class I text you things to tempt you Nobody makes me feel this way except you You got my heart rushing, I'm loving the way you stunt in them heels, I'm crushing for real Nothing but praise, that's just how I feel, do it again got you blushing for days Okay, this whole song's for you, hope you can manage This liquor got me so gone, but this wasn't a challengeYou might also like</t>
+          <t>I wrote this in ten minutes That's more than you'll ever give me You only met me twice but I don't think that you'd forget me I'll admit that I'm crushing, won't admit that I'm creeping Unless you're into that, I'll tell you all about your weekend I'm peeping your profile, falling for things so simple like dimples on your smile Give me your number, watch how fast I make that phone dial Impatiently waiting, debating whether or not I should just show up to your spot What's the worst that can happen? Serenade you with rapping Ven conmigo mi Jasmine, you ever been with a Latin? I know you understand it, cause I'm speaking your language And I'm from your same island, another reason I'm wildin' I'm finding ways to impress you, take you out and finesse you Compliment your outfit while I mentally undress you And test you, while you're in class I text you things to tempt you Nobody makes me feel this way except you You got my heart rushing, I'm loving the way you stunt in them heels, I'm crushing for real Nothing but praise, that's just how I feel, do it again got you blushing for days Okay, this whole song's for you, hope you can manage This liquor got me so gone, but this wasn't a challenge</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Allô, bébé comment tu vas ? Oui allô, chérie comment tu vas ? Je viens aux nouvelles Mais quest-cquil se passe ? Mes affaires sont dans la poubelle Mais quest-cquil se passe ? Pour elle jai tout donné Une faute avouée à moitié pardonnée Ah jai tout donné Aujourdhui mon royaume sest écroulé Jai toujours espoir Sil te plait ma chérie ne me laisse pas Jveux monter lestrade Si tu me laisses mon cur reste là Non je peux pas le nier Aujourdhui tes problèmes sont les miens Non je peux pas le nier Tu me tends ta main bah jte tends la mienne Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle You might also like x2 Tu sais très bien qujai déconné Tu sais très bien qutas déconné Mais au fond dtout ça on sconnaît Allô, mais quest-cquil se passe ? Quest-cquil se passe ? Allô Assieds-toi jvois qules choses te dépassent Tu crois qule Ciel tes tombé sur la tête Mais des étoiles comme elle y en a mille Cétait un canon ta chérie faut ladmettre Mais tas pas visé dans le mile Elle fouillait ton tél, tu mdisais Debeing Quest-cquelle est bête, quest-cquelle est bête Mais tu peux pas comprendre Est-cque tes sûr de toi ? Ouais jsuis sûr de moi Écoute-moi pour une fois et x2 Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle Tas pas déconné, déconné Tas pas déconné, déconné Tas pas déconné, déconné</t>
+          <t>Allô, bébé comment tu vas ? Oui allô, chérie comment tu vas ? Je viens aux nouvelles Mais quest-cquil se passe ? Mes affaires sont dans la poubelle Mais quest-cquil se passe ? Pour elle jai tout donné Une faute avouée à moitié pardonnée Ah jai tout donné Aujourdhui mon royaume sest écroulé Jai toujours espoir Sil te plait ma chérie ne me laisse pas Jveux monter lestrade Si tu me laisses mon cur reste là Non je peux pas le nier Aujourdhui tes problèmes sont les miens Non je peux pas le nier Tu me tends ta main bah jte tends la mienne Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle x2 Tu sais très bien qujai déconné Tu sais très bien qutas déconné Mais au fond dtout ça on sconnaît Allô, mais quest-cquil se passe ? Quest-cquil se passe ? Allô Assieds-toi jvois qules choses te dépassent Tu crois qule Ciel tes tombé sur la tête Mais des étoiles comme elle y en a mille Cétait un canon ta chérie faut ladmettre Mais tas pas visé dans le mile Elle fouillait ton tél, tu mdisais Debeing Quest-cquelle est bête, quest-cquelle est bête Mais tu peux pas comprendre Est-cque tes sûr de toi ? Ouais jsuis sûr de moi Écoute-moi pour une fois et x2 Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle Tas pas déconné, déconné Tas pas déconné, déconné Tas pas déconné, déconné</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker You might also like C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô You might also like x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
+          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hey hey hey, hey hey hey Hey hey hey, hey hey hey Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm, oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Quand je sors dans le club, je fais la guerre c'est midi Dans l'équipe ouais j'suis seul faut booter du living Je pose et repose d'puis l'époque de la loco C'est pas en vieux Bonobo qu'on apprend d'apparat locaux Dans la street c'est la jungle tu peux te faire cartoucher Par Tarzan et Mowgli quand tu t'fais partouzer Sans capote faut pas toucher comportement pas loucher Barbie refuse d'être une poupée donc premier soir faut pas coucher Elle se met avec un 6 gros elle veut un train d'vie coûteux Elle se met avec un fouteux c'est la planque c'est douteux Avec un rappeur je me méfie pour vous deux Elle est peut-être fan de moi elle te quittera pour nous deux You might also like Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Tu veux rentrer sur le terrain est-ce que t'es cramponné Tu me cires les baskets si je te fous le pomponner Elle me dit qu'elle a ses règles mais elle veut se faire tamponner Je vais sur l'avenue Montaigne je vais faire de la randonnée Tout ce qu'ils m'ont pris à la fouille paye vroom redonnée J'suis devenu une resta le blason redoré Le blason redoré toutes les portes décodés Je crois que le bord est trop gros je vais finir déborder Je traîne avec des barbus pour la 7 je veux crépule Qui coulaient vos crépuscules comme la dernière des crapules Les gens changent avec le temps ou c'est le temps qui change les gens Dans tous les cas je m'en bats les couilles je perds mon temps sur les champs Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Hey hey hey, hey hey hey Hey hey hey, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey</t>
+          <t>Hey hey hey, hey hey hey Hey hey hey, hey hey hey Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm, oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Quand je sors dans le club, je fais la guerre c'est midi Dans l'équipe ouais j'suis seul faut booter du living Je pose et repose d'puis l'époque de la loco C'est pas en vieux Bonobo qu'on apprend d'apparat locaux Dans la street c'est la jungle tu peux te faire cartoucher Par Tarzan et Mowgli quand tu t'fais partouzer Sans capote faut pas toucher comportement pas loucher Barbie refuse d'être une poupée donc premier soir faut pas coucher Elle se met avec un 6 gros elle veut un train d'vie coûteux Elle se met avec un fouteux c'est la planque c'est douteux Avec un rappeur je me méfie pour vous deux Elle est peut-être fan de moi elle te quittera pour nous deux Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Tu veux rentrer sur le terrain est-ce que t'es cramponné Tu me cires les baskets si je te fous le pomponner Elle me dit qu'elle a ses règles mais elle veut se faire tamponner Je vais sur l'avenue Montaigne je vais faire de la randonnée Tout ce qu'ils m'ont pris à la fouille paye vroom redonnée J'suis devenu une resta le blason redoré Le blason redoré toutes les portes décodés Je crois que le bord est trop gros je vais finir déborder Je traîne avec des barbus pour la 7 je veux crépule Qui coulaient vos crépuscules comme la dernière des crapules Les gens changent avec le temps ou c'est le temps qui change les gens Dans tous les cas je m'en bats les couilles je perds mon temps sur les champs Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Hey hey hey, hey hey hey Hey hey hey, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hors-Série Feeling La violence est gratuite F-f-f-f-feeling Équipe de nuit Feeling L'institut Frappe, que des boules, ouais, mes shab, on s'débrouille pas On gère, laisse le WA, on tient le rap par les couilles Laisse les parler d'nous, on sait qui suce la bite à qui Si tu m'as vu à g'noux c'est qu'j'étais sur un tapis J'ai les nerfs, nique ta mère, laisse ton commentaire haineux Mon frère, si y'a un putain d'traitre, encerclez-le Soir ce j'suis pas d'humeur Ramene des chiottes dans la cabine j'te chie un classique en moins d'une heure Le rap n'a pas d'niveau, donc on a pas d'rivaux J'sais qu'ton cur palpite, gros, fais pas l'mytho Mon insolence n'a pas pris une ride Flow, phases, assonances, te gifflent avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère You might also like Cherche un sens à ta vie avant d'exercer flow, phases Fasse qu'il se'bousille n'est qu'un exercice, exquis J'ai plusieurs smileys klaxonne en prestige C'est l'odysée des enfants mystiques J'ai cru apercevoir des têtes qui parlent sur nous dans la foule Rien ne m'sali appart la merde que j'roule Deux-trois langue de putes, les negros ont leur periode Sache que leuré dans la minute un ons comme Amélie Laisse-moi m'glisser dans ton iPod Le cur a Tox demande à One Shot dans l'WA Chut, on pue la grande forme, lèves la tête y'a un level après la grande classe Fixé par les auditeurs comme en sonne Feeling Tu sonnes Feeling, feeling On bosse avec le Feeling Livraison à domicile Voilà ton kiff de vote en..., voilà ton kiff de vote de l'or. yeah Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère , Doomams, j'désab' et c'est qu'j'suis un bâtard Reste lourd, j'kick avec le cafard, yeah Le H De Guerre Équipe de nuit Abou Debeing Hors-Série</t>
+          <t>Hors-Série Feeling La violence est gratuite F-f-f-f-feeling Équipe de nuit Feeling L'institut Frappe, que des boules, ouais, mes shab, on s'débrouille pas On gère, laisse le WA, on tient le rap par les couilles Laisse les parler d'nous, on sait qui suce la bite à qui Si tu m'as vu à g'noux c'est qu'j'étais sur un tapis J'ai les nerfs, nique ta mère, laisse ton commentaire haineux Mon frère, si y'a un putain d'traitre, encerclez-le Soir ce j'suis pas d'humeur Ramene des chiottes dans la cabine j'te chie un classique en moins d'une heure Le rap n'a pas d'niveau, donc on a pas d'rivaux J'sais qu'ton cur palpite, gros, fais pas l'mytho Mon insolence n'a pas pris une ride Flow, phases, assonances, te gifflent avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Cherche un sens à ta vie avant d'exercer flow, phases Fasse qu'il se'bousille n'est qu'un exercice, exquis J'ai plusieurs smileys klaxonne en prestige C'est l'odysée des enfants mystiques J'ai cru apercevoir des têtes qui parlent sur nous dans la foule Rien ne m'sali appart la merde que j'roule Deux-trois langue de putes, les negros ont leur periode Sache que leuré dans la minute un ons comme Amélie Laisse-moi m'glisser dans ton iPod Le cur a Tox demande à One Shot dans l'WA Chut, on pue la grande forme, lèves la tête y'a un level après la grande classe Fixé par les auditeurs comme en sonne Feeling Tu sonnes Feeling, feeling On bosse avec le Feeling Livraison à domicile Voilà ton kiff de vote en..., voilà ton kiff de vote de l'or. yeah Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère , Doomams, j'désab' et c'est qu'j'suis un bâtard Reste lourd, j'kick avec le cafard, yeah Le H De Guerre Équipe de nuit Abou Debeing Hors-Série</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ah, Alleluia Michael Production Abou Debeing, tu dis quoi ?! Argh..Argh.. Wati B On m'entend bien là ? Whouu! Debeinguerie On t'avais prévenu ! Ecoute ça ! Le gars-là, c'est un salaud... Argh Il pourrait blaguer ta go... Argh Jeu de jambes, cadeau... Argh Il la fou sur le té-cô... Argh Sa langue, elle est sucré... Argh Mais l'addition est salée... Argh Ton rabouin l'insultait... Argh Il va tous faire pour la blaguer... Argh Un chien fini... Argh C'est un vrai prédateur... Argh Il va pas bouffer tes os... Argh Lui, il va bouffer ton cur... Argh Il dit qu'il veut protéger ton dos... Argh Mais il vise que ton tard-pé... Argh On l'appelle Bip-Bip... Argh Tu le voies plus quand il t'a tapé... Argh You might also like Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Le gars-là, veut pas ton cur... Argh C'qu'il veut, c'est tes lolos... Argh S'il te dit suis-moi... Argh Faut pas le follow... Argh Non faut pas le follow, lui c'est un salaud Tu finiras solo, noyé sous l'eau Il va te faire croire que t'es pas comme les autres Que maintenant, il est vrai qu'il a commis des fautes Tu crois qu'il t'aime, elle aussi Tu crois que tu vas l'changer, elle aussi Mais vous aussi, vous ne comprenez pas On vous donne des conseils que vous n'appliquez pas Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Il va te dire qu'il veut que tu sois discrète Il veut te cacher tout ça, c'est des disquettes Ouais c'est des disquettes, il ne pense qu'à son bifteck Pense qu'à son bifteck, à te rentrer son biscuit En tête, est-ce qu'il discute ? Ou est-ce qu'il crée des disputes ? En tête, est-ce qu'il discute ? Dis-moi, ou est-ce qu'il crée des disputes ? Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh2</t>
+          <t>Ah, Alleluia Michael Production Abou Debeing, tu dis quoi ?! Argh..Argh.. Wati B On m'entend bien là ? Whouu! Debeinguerie On t'avais prévenu ! Ecoute ça ! Le gars-là, c'est un salaud... Argh Il pourrait blaguer ta go... Argh Jeu de jambes, cadeau... Argh Il la fou sur le té-cô... Argh Sa langue, elle est sucré... Argh Mais l'addition est salée... Argh Ton rabouin l'insultait... Argh Il va tous faire pour la blaguer... Argh Un chien fini... Argh C'est un vrai prédateur... Argh Il va pas bouffer tes os... Argh Lui, il va bouffer ton cur... Argh Il dit qu'il veut protéger ton dos... Argh Mais il vise que ton tard-pé... Argh On l'appelle Bip-Bip... Argh Tu le voies plus quand il t'a tapé... Argh Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Le gars-là, veut pas ton cur... Argh C'qu'il veut, c'est tes lolos... Argh S'il te dit suis-moi... Argh Faut pas le follow... Argh Non faut pas le follow, lui c'est un salaud Tu finiras solo, noyé sous l'eau Il va te faire croire que t'es pas comme les autres Que maintenant, il est vrai qu'il a commis des fautes Tu crois qu'il t'aime, elle aussi Tu crois que tu vas l'changer, elle aussi Mais vous aussi, vous ne comprenez pas On vous donne des conseils que vous n'appliquez pas Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Il va te dire qu'il veut que tu sois discrète Il veut te cacher tout ça, c'est des disquettes Ouais c'est des disquettes, il ne pense qu'à son bifteck Pense qu'à son bifteck, à te rentrer son biscuit En tête, est-ce qu'il discute ? Ou est-ce qu'il crée des disputes ? En tête, est-ce qu'il discute ? Dis-moi, ou est-ce qu'il crée des disputes ? Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh2</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>On m'dit Debeing faut qu't'arrêtes les sorties T'es une tête d'affiche, faut pas qu'tu t'tapes l'affiche Un gars du peuple, j'suis un gars du peuple Toujours moi et mon équipe, avec des frappes dans l'club Laissez-moi vivre, enlevez-moi le V J'perds des res-frè, j'veux encore des rre-ve Ma peine est profonde, ramenez-moi des bouteilles Des litres et des litres, je liquide mon oseille Je sais ce qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise You might also like Tu peux me croiser dans Paname en train de saigner les Champs On a trop souffert mon ami, rien d'méchant On pense nos plaies, on pense qu'on plait J'suis un homme complet mais pas un homme comblé Les femmes me cherchent, je cherche une femme J'me fais ravaler de likes sur Instagram C'est toujours la même dès que j'm'ennuis Tous les chemins me mènent en boite de nuit, et Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise2</t>
+          <t>On m'dit Debeing faut qu't'arrêtes les sorties T'es une tête d'affiche, faut pas qu'tu t'tapes l'affiche Un gars du peuple, j'suis un gars du peuple Toujours moi et mon équipe, avec des frappes dans l'club Laissez-moi vivre, enlevez-moi le V J'perds des res-frè, j'veux encore des rre-ve Ma peine est profonde, ramenez-moi des bouteilles Des litres et des litres, je liquide mon oseille Je sais ce qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Tu peux me croiser dans Paname en train de saigner les Champs On a trop souffert mon ami, rien d'méchant On pense nos plaies, on pense qu'on plait J'suis un homme complet mais pas un homme comblé Les femmes me cherchent, je cherche une femme J'me fais ravaler de likes sur Instagram C'est toujours la même dès que j'm'ennuis Tous les chemins me mènent en boite de nuit, et Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise2</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer You might also like Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
+          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey You might also like Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tchè, tchè, tchè tchè tchè Tchè tchè, eh T'es prête à tirer pour moi, tout assumer pour moi Pour que je sois numéro un t'es prête à tomber pour moi Avec toi c'est tout droit pas d'bla-bla, de pourquoi Je suis pas du genre courtois, mais je vais changer pour toi T'es mon double, t'es mon binôme, toi t'assume mieux qu'un bonhomme T'est la même en hiver, printemps, été ou automne Pas le temps de bailler, je veux le bif', le pouvoir T'as pas le temps de brailler t'es pas dans les bruits de couloir Tchè, de fois je fais l'enfant Tchè, parce que je sais que t'es en sang Tchè, on a pas commencé ensemble Tchè, mais on a fini ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dilleur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dilleur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh You might also like Si demain des pirates viennent chercher le magot enlève ce qu'il y a sous le matelas T'es le meilleur des matelots Toi et moi ça fait qu'un Eh c'est pas des maths là Rejoins-moi n'importe où dans le monde oui c'est ça la fast life J'suis pas tout le temps dispo, j'suis pas tout le temps présent J'suis peut-être avec une michto, mais non tu sais que je plaisante Fais pas la meuf qui pète les plombs, comme tes potes les tarés Tu sais que si je vais faire des ronds, c'est pour que tout soit carré Tchè, de fois je fais l'enfant enfant Tchè, parce que je sais que t'es en sang en sang Tchè, on a pas commencé ensemble ensemble Tchè, mais on a fini ensemble ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dealeur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dealeur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè tchè, eh T'es prête à tirer pour moi, tout assumer pour moi Pour que je sois numéro un t'es prête à tomber pour moi Avec toi c'est tout droit pas d'bla-bla, de pourquoi Je suis pas du genre courtois, mais je vais changer pour toi T'es mon double, t'es mon binôme, toi t'assume mieux qu'un bonhomme T'est la même en hiver, printemps, été ou automne Pas le temps de bailler, je veux le bif', le pouvoir T'as pas le temps de brailler t'es pas dans les bruits de couloir Tchè, de fois je fais l'enfant Tchè, parce que je sais que t'es en sang Tchè, on a pas commencé ensemble Tchè, mais on a fini ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dilleur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dilleur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Si demain des pirates viennent chercher le magot enlève ce qu'il y a sous le matelas T'es le meilleur des matelots Toi et moi ça fait qu'un Eh c'est pas des maths là Rejoins-moi n'importe où dans le monde oui c'est ça la fast life J'suis pas tout le temps dispo, j'suis pas tout le temps présent J'suis peut-être avec une michto, mais non tu sais que je plaisante Fais pas la meuf qui pète les plombs, comme tes potes les tarés Tu sais que si je vais faire des ronds, c'est pour que tout soit carré Tchè, de fois je fais l'enfant enfant Tchè, parce que je sais que t'es en sang en sang Tchè, on a pas commencé ensemble ensemble Tchè, mais on a fini ensemble ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dealeur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dealeur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lequel de nous a osé ? Lequel de nous a fauté ? On a tout noyé dans l'rosé, prie, oui, fais-le pour moi Crie mais non, ne pars pas, oublie tout sinon l'amour est mort Forcément je s'rais mort et là j'suis comme un con, sans ami J'ressens plus aucun pleasure J'ressens plus aucun pleasure On l'a fait, on avait déjà tout fait Combien de trains sont passés ? Toi, tu m'laisses sur le quai, ouh Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais J'suis dans ton dos, je te vois, je veux qu't'entendes ma voix Tu fais des aller-retours mais c'est que des détours Au final, tu reviendras vers moi, j'ai mal, j'ai l'mort J'oublierai jamais ton corps, j'ai fait tant d'efforts J'ai même su reconnaître mes torts Est-c'que tes lèvres il a goûté ? Avoue, ton corps, il a touché J'ai louché rien qu'd'y penser De vous deux, j'aimerais faire qu'une bouchée J'vois flou, c'est fou, à la base le couple, c'était nous Nous nous, nous nous, nous Maintenant, dans la tête, j'ai que vous You might also like Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais</t>
+          <t>Lequel de nous a osé ? Lequel de nous a fauté ? On a tout noyé dans l'rosé, prie, oui, fais-le pour moi Crie mais non, ne pars pas, oublie tout sinon l'amour est mort Forcément je s'rais mort et là j'suis comme un con, sans ami J'ressens plus aucun pleasure J'ressens plus aucun pleasure On l'a fait, on avait déjà tout fait Combien de trains sont passés ? Toi, tu m'laisses sur le quai, ouh Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais J'suis dans ton dos, je te vois, je veux qu't'entendes ma voix Tu fais des aller-retours mais c'est que des détours Au final, tu reviendras vers moi, j'ai mal, j'ai l'mort J'oublierai jamais ton corps, j'ai fait tant d'efforts J'ai même su reconnaître mes torts Est-c'que tes lèvres il a goûté ? Avoue, ton corps, il a touché J'ai louché rien qu'd'y penser De vous deux, j'aimerais faire qu'une bouchée J'vois flou, c'est fou, à la base le couple, c'était nous Nous nous, nous nous, nous Maintenant, dans la tête, j'ai que vous Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hey attendez je vais vous raconter une histoire là Hey modifie ma voix, j'vais imiter la femelle Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! You might also like Vingt-trois heures, je suis normal J'lui demande ce soir, y'a quoi ? A minuit, je passe la cap Et j'lui dis ce soir, on s'voit A une heure, j'suis avec elle Mais j'lui dis j'veux pas la Ken A deux heures, je range mon tél Quand j'arrive devant l'hôtel Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! J'ai d'abord guetté ton boule Avant d'regarder tes yeux Avant de penser à nous J'suis égo, et je parle en je, je, je Je veux ci, je veux ça T'es à moi, quand tu passes Les chiens aboient Je touche ton boule, j'touche pas du bois Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey !</t>
+          <t>Hey attendez je vais vous raconter une histoire là Hey modifie ma voix, j'vais imiter la femelle Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! Vingt-trois heures, je suis normal J'lui demande ce soir, y'a quoi ? A minuit, je passe la cap Et j'lui dis ce soir, on s'voit A une heure, j'suis avec elle Mais j'lui dis j'veux pas la Ken A deux heures, je range mon tél Quand j'arrive devant l'hôtel Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! J'ai d'abord guetté ton boule Avant d'regarder tes yeux Avant de penser à nous J'suis égo, et je parle en je, je, je Je veux ci, je veux ça T'es à moi, quand tu passes Les chiens aboient Je touche ton boule, j'touche pas du bois Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey !</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo You might also like Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
+          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennuis Mais doucement, doucement, doucement, doucement Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faut pas que tu te précipites, devant y'a le précipice Tu aimeras une femme, t'en feras ta dame Tu brûleras d'envie de lui déclarer ta flamme Si tu baisses les bras, tes amis seront là pour t'épauler Et si un jour tu perds la tête, la tête On sera tous là pour te raisonner Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennemis Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faudra qu'on te félicite, mais pas qu'on te facilite Y'a pas de place pour le rêve, ici c'est marche ou crève Dès ton plus jeune âge, on va te donner un glaive You might also like Si je baisse les bras, tu seras là pour m'épauler Et si un jour je perds la tête, la tête Tu seras là pour me raisonner Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Si t'effaces mes défaites, ça sera ma plus belle victoire Je suis mort dans le film, j'aimerais que tu changes l'histoire On me dit que je me voile la face mais j'ai envie d'y croire Quand je te prends dans mes bras, ça me fait l'effet miroir Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit</t>
+          <t>Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennuis Mais doucement, doucement, doucement, doucement Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faut pas que tu te précipites, devant y'a le précipice Tu aimeras une femme, t'en feras ta dame Tu brûleras d'envie de lui déclarer ta flamme Si tu baisses les bras, tes amis seront là pour t'épauler Et si un jour tu perds la tête, la tête On sera tous là pour te raisonner Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennemis Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faudra qu'on te félicite, mais pas qu'on te facilite Y'a pas de place pour le rêve, ici c'est marche ou crève Dès ton plus jeune âge, on va te donner un glaive Si je baisse les bras, tu seras là pour m'épauler Et si un jour je perds la tête, la tête Tu seras là pour me raisonner Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Si t'effaces mes défaites, ça sera ma plus belle victoire Je suis mort dans le film, j'aimerais que tu changes l'histoire On me dit que je me voile la face mais j'ai envie d'y croire Quand je te prends dans mes bras, ça me fait l'effet miroir Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tcheh tcheh tcheh tcheh tcheh Tu dis que t'es mon soldat Mais tes un aventurier T'aimes les terrains minés ta bouche c'est un canon scié Tas bien visé ta proie maintenant tu t'en mord les doigts Tu peux me faire les yeux doux mais ça marchera pas avec moi Je t'ai grillé grillé ouais grillé grillé Tu peux t'expliquer pliquer mais je serais sans pitié pitié J'ai vu tes DM tout tes snap Rouge à lèvre sur tes sapes Tu fais le mec propr quand tu parles Mais enfaite ta bouch est sale C'est ta tactique à chaque épreuve t'as des nouvelles pratiques Je m'applique mimplique avec toi cest un casse pipe Et je vais à 100 000 à l'heure Des groupies me draguent à pas dheure Mais ma AP donne pas l'heure eh T'as rien grillé grillé T'es juste piqué piqué Tas cru que j'allais flipper flipper tchip Tu peux me tchipper tchipper C'était un une deux Mais là je vais faire le libéro Un pour mon petit égo Deux pour les dinéro You might also like Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Gratte ta te-té Fais la le-bé Tu m'as pris pour un te-trai Ou pour un teubé J'ai pas ?? Écoute tout tes ?? Je suis hors game dorénavant Moi c'est le carré d'or Je te laisse les bougs de Paris nord Où ceux de château d'eau Même ceux de gare du nord Je vais pas dire Amen A tout ce que dit Amel Ah je voulais dire Imen Vas y rentre chez toi T'es né avant la honte Tu vois tellement de meuf que les prénoms se confondent Une chose est claire tu m'a du-per Ce que tu viens de faire ça s'appelle l'adultère T'es là tu minimise assume un peut T'inquiète je te félicite t'as fini le jeu Fin de carrière t'as clôturé le bal Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux</t>
+          <t>Tcheh tcheh tcheh tcheh tcheh Tu dis que t'es mon soldat Mais tes un aventurier T'aimes les terrains minés ta bouche c'est un canon scié Tas bien visé ta proie maintenant tu t'en mord les doigts Tu peux me faire les yeux doux mais ça marchera pas avec moi Je t'ai grillé grillé ouais grillé grillé Tu peux t'expliquer pliquer mais je serais sans pitié pitié J'ai vu tes DM tout tes snap Rouge à lèvre sur tes sapes Tu fais le mec propr quand tu parles Mais enfaite ta bouch est sale C'est ta tactique à chaque épreuve t'as des nouvelles pratiques Je m'applique mimplique avec toi cest un casse pipe Et je vais à 100 000 à l'heure Des groupies me draguent à pas dheure Mais ma AP donne pas l'heure eh T'as rien grillé grillé T'es juste piqué piqué Tas cru que j'allais flipper flipper tchip Tu peux me tchipper tchipper C'était un une deux Mais là je vais faire le libéro Un pour mon petit égo Deux pour les dinéro Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Gratte ta te-té Fais la le-bé Tu m'as pris pour un te-trai Ou pour un teubé J'ai pas ?? Écoute tout tes ?? Je suis hors game dorénavant Moi c'est le carré d'or Je te laisse les bougs de Paris nord Où ceux de château d'eau Même ceux de gare du nord Je vais pas dire Amen A tout ce que dit Amel Ah je voulais dire Imen Vas y rentre chez toi T'es né avant la honte Tu vois tellement de meuf que les prénoms se confondent Une chose est claire tu m'a du-per Ce que tu viens de faire ça s'appelle l'adultère T'es là tu minimise assume un peut T'inquiète je te félicite t'as fini le jeu Fin de carrière t'as clôturé le bal Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Stan-E Music H24 ça charbonne J'ai fait du sale, que Dieu me pardonne Tu marches pas droit, t'es pas des nôtres Tu sais pas te tenir t'es pas des nôtres On vient de la street du ter-ter Quand y a drah nous on sait s'taire Dans le secteur tous sectaires Donne un plan on sait l'faire J'suis à bout j'pète un cable J'suis à bout j'vais quer-cra J'suis à bout j'suis coupable J'suis à bout j'suis mé-cra Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé You might also like Maman m'a dit Naza fait pas le fou, la faut chanter la paix Comme j'aime les lovés, la bibi, détaillé j'ai tout gaché J'ai pris des coups, j'ai laissé l'école Commencer le cool-Al mais comme j'ai du talent Avec la dalle des fois y'avait pas là avec des namaratintin Mais je suis à bout prends ma main J'suis à bout oui maman J'suis à bout prends ma main J'suis à bout oui maman Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout Hey Binguy buaka guitare !</t>
+          <t>Stan-E Music H24 ça charbonne J'ai fait du sale, que Dieu me pardonne Tu marches pas droit, t'es pas des nôtres Tu sais pas te tenir t'es pas des nôtres On vient de la street du ter-ter Quand y a drah nous on sait s'taire Dans le secteur tous sectaires Donne un plan on sait l'faire J'suis à bout j'pète un cable J'suis à bout j'vais quer-cra J'suis à bout j'suis coupable J'suis à bout j'suis mé-cra Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Maman m'a dit Naza fait pas le fou, la faut chanter la paix Comme j'aime les lovés, la bibi, détaillé j'ai tout gaché J'ai pris des coups, j'ai laissé l'école Commencer le cool-Al mais comme j'ai du talent Avec la dalle des fois y'avait pas là avec des namaratintin Mais je suis à bout prends ma main J'suis à bout oui maman J'suis à bout prends ma main J'suis à bout oui maman Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout Hey Binguy buaka guitare !</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall You might also like Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
+          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Plus je vis plus je meurs, j'ai confiance qu'en mon honneur J'veux bien partir dans l'horreur, si ma mère est dans le bonheur Ramené une mangue au cyrock, j'noies ma peine je sirote Ma chérie monte à bord du bolide c'est moi le pilote Si tu t'mets avec moi, faut qu't'assume mon passé Faut qu't'assumes mes groupies, faut qu't'assume le pavé Millionnaire à trente pige, j'ai versé une larme de joie Malgré ces années de taules, j'peux pas regretter mes choix Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Eux toujours sur mise à puis Au cas où y a kheja, les fils de ches-lâ chelou, on connaît déjà Voler c'est pas bon, t'essaye d'nous mettre une khasba, petit on va te daba Chez nous ya pas de guépard Perquis' à six du mat', t'es dans ton lit tu colmates Les keufs passent pas d'pomade, la daronne finie tromat' Topo, dépôt garde a v' Garde a v' dépôt karplar Promenade on m'a tarba Karba ça fini tarba You might also like Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo</t>
+          <t>Plus je vis plus je meurs, j'ai confiance qu'en mon honneur J'veux bien partir dans l'horreur, si ma mère est dans le bonheur Ramené une mangue au cyrock, j'noies ma peine je sirote Ma chérie monte à bord du bolide c'est moi le pilote Si tu t'mets avec moi, faut qu't'assume mon passé Faut qu't'assumes mes groupies, faut qu't'assume le pavé Millionnaire à trente pige, j'ai versé une larme de joie Malgré ces années de taules, j'peux pas regretter mes choix Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Eux toujours sur mise à puis Au cas où y a kheja, les fils de ches-lâ chelou, on connaît déjà Voler c'est pas bon, t'essaye d'nous mettre une khasba, petit on va te daba Chez nous ya pas de guépard Perquis' à six du mat', t'es dans ton lit tu colmates Les keufs passent pas d'pomade, la daronne finie tromat' Topo, dépôt garde a v' Garde a v' dépôt karplar Promenade on m'a tarba Karba ça fini tarba Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi J'suis la fierté du tier-quar, petit n'écoute pas les on dit On m'a tellement jeté lil mais aujourd'hui all eyes on me J'ai dû la vendre à des zombies, puis j'ai côtoyé la son-pri En promenade ils parlent de mon nom, moi j'parle toutes les années qu'ils ont pris La rue c'est une vision d'horreur, putain d'merde rien n'vaut mon honneur J'étais à la recherche du bonheur, petit faudra s'lever de bonne heure C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi You might also like Dix ans plus tard on peut s'dire c'est comment ? Y en a tellement qui aimeraient revenir sur le moment Quand le coup d'feu part non tu n'peux plus le retenir T'entends l'bruit retentir, les morts vont plus rev'nir Ils vont plus rev'nir au tiek y a plus d'avenir Pas l'bienvenu à bord, donc j'ai construit mon av'nire Et j'irais où j'veux, quand j'veux, j'fais feu à tout moment j'peux partir La rue c'est mes chaudasses, faut s'équiper comme dans Shooters La bibi, les go fast, faut rester droit dans ses godasses C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang x2 Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Pardonne-moiiii, pardonne-moi Pardonne-moiiii, pardonne-moi</t>
+          <t>Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi J'suis la fierté du tier-quar, petit n'écoute pas les on dit On m'a tellement jeté lil mais aujourd'hui all eyes on me J'ai dû la vendre à des zombies, puis j'ai côtoyé la son-pri En promenade ils parlent de mon nom, moi j'parle toutes les années qu'ils ont pris La rue c'est une vision d'horreur, putain d'merde rien n'vaut mon honneur J'étais à la recherche du bonheur, petit faudra s'lever de bonne heure C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Dix ans plus tard on peut s'dire c'est comment ? Y en a tellement qui aimeraient revenir sur le moment Quand le coup d'feu part non tu n'peux plus le retenir T'entends l'bruit retentir, les morts vont plus rev'nir Ils vont plus rev'nir au tiek y a plus d'avenir Pas l'bienvenu à bord, donc j'ai construit mon av'nire Et j'irais où j'veux, quand j'veux, j'fais feu à tout moment j'peux partir La rue c'est mes chaudasses, faut s'équiper comme dans Shooters La bibi, les go fast, faut rester droit dans ses godasses C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang x2 Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Pardonne-moiiii, pardonne-moi Pardonne-moiiii, pardonne-moi</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker You might also like C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Quand t'arrive dans le club tu fais tomber mes thugs Quand tu bouges sur le sub, dirait qu'il y a un bug quand on passe pub tout le monde nous guette J'aime ton taga et ta taille de guêpe J'étais dans le block, j'avais les menottes, maintenant on les snobe Je vends plus de la drogue Toi t'es ma bastos moi je suis le glock Tout le monde à terre, téma l'onde de choc Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe You might also like Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Toi et elle aucune comparaison Immédiatement tu passes en comparution Un peu de concentration, pas de concertation J'sais ce que je veux, pas de contradiction Prends ce que tu veux, je gère l'addition Pire que de la dope, t'es une vraie addiction Avant je voyais l'anneau, comme une malédiction Je vais te passer la bague, plein de bénédiction Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Un deux un deux, un deux un deux Un deux un deux, un deux un deux</t>
+          <t>Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Quand t'arrive dans le club tu fais tomber mes thugs Quand tu bouges sur le sub, dirait qu'il y a un bug quand on passe pub tout le monde nous guette J'aime ton taga et ta taille de guêpe J'étais dans le block, j'avais les menottes, maintenant on les snobe Je vends plus de la drogue Toi t'es ma bastos moi je suis le glock Tout le monde à terre, téma l'onde de choc Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Toi et elle aucune comparaison Immédiatement tu passes en comparution Un peu de concentration, pas de concertation J'sais ce que je veux, pas de contradiction Prends ce que tu veux, je gère l'addition Pire que de la dope, t'es une vraie addiction Avant je voyais l'anneau, comme une malédiction Je vais te passer la bague, plein de bénédiction Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Un deux un deux, un deux un deux Un deux un deux, un deux un deux</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker You might also like C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Hey, hey, hey, hey, hey Cómo está, señorita fly to Miami j'ai ton Insta Sur un coup de tête j'suis hors compèt Fais pas la meuf toi et moi on se complète Pas de valises sur place on fera du shopping Dans les rues de Tokyo je te ferai un shooting J'suis pas comme tes ex faut que t'en prennes de la graine J'suis le best des best, crème de la crème Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess You might also like Tu t'demandes pourquoi je bloque tu m'as fait l'effet d'un Glock Krik krik pah Oh my god je te vois baisser ta garde bientôt tu seras sous mes ordres Au début c'est d'la drague puis je finis par être ta drogue, hey Viens on se calcule sans calculer Viens on bascule sans basculer, sans se bousculer On s'ment en osmose même si tout nous oppose Je t'emmène dans le cosmos, tout ce que je propose Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais ouais Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais, oauis</t>
+          <t>Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Hey, hey, hey, hey, hey Cómo está, señorita fly to Miami j'ai ton Insta Sur un coup de tête j'suis hors compèt Fais pas la meuf toi et moi on se complète Pas de valises sur place on fera du shopping Dans les rues de Tokyo je te ferai un shooting J'suis pas comme tes ex faut que t'en prennes de la graine J'suis le best des best, crème de la crème Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Tu t'demandes pourquoi je bloque tu m'as fait l'effet d'un Glock Krik krik pah Oh my god je te vois baisser ta garde bientôt tu seras sous mes ordres Au début c'est d'la drague puis je finis par être ta drogue, hey Viens on se calcule sans calculer Viens on bascule sans basculer, sans se bousculer On s'ment en osmose même si tout nous oppose Je t'emmène dans le cosmos, tout ce que je propose Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais ouais Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais, oauis</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses You might also like Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
+          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Oh oh ah Djé, djé, , ah bah ouais, bah ouais Ouh ouh ouh, let's get it Tu sais je viens du bend' du bend' Monte à bord d'la Benz unh unh T'inquiète j'vais tout gérer, ta vie j'vais colorer yeah yeah Elle aime me questionner unh unh Comment j'fais la monnaie ? la moula Moins t'en sais, mieux tu t'portes unh unh Pour l'instant reste forte oh oh J'ai tout c'qu'il te faut, j'ai les mots si faut t'aider si faut t'aider Pourquoi m'résister ? Avec le temps tu vas céder yeah yeah Mon regard sur toi, t'as gagné, tu t'es démarqué woah C'que t'as sur le cur, dis-l-moi, tu peux m'raconter T'es différnte des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche T'es différente des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre You might also like On va pas faire de détail, t'es chargée comme un pétard Quand tu fais ta mala, mes côtés un flow impeccable J'connais les termes, sur Snap tout va à moitié, t'es une galère Tu m'fais péter un câble Moi j'veux dinero, faut qu'j'augmente les zéros Mon cur pue l'ghetto, j'veux pas vendre la gue-dro Tu veux mes codes, contrôler mes pensées J'en ai assez, faut qu'mes épaules tiennent la route Je sais que t'aimes toucher le ciel, ascenseur émotionnel De ton corps j'suis passionné, notre amour est fusionnel yeah Dis-moi qu't'en veux encore Avec toi mon bébé, on va changer d'décors Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre J'te le dis en toute humilité, j'sais qu'j't'ai mérité Mélité, j'ai l'humidité quand tu m'as hérité Éclipsé, moi t'es mon soleil, j'voulais pas m'esquiver Étiqueté, oui, cest c'que t'as fais au lieu d'm'estimer Mais malgré tout ça j'suis toujours là J'sais pas si ça t'touche ou pas Tu veux qu'j'te le prouve ou pas ? J'touche ton cur, j'touche pas du bois On s'sépare puis on s'retrouve On s'revoit, on s'redécouvre Tout comme à la première fois Oui, cest peut-être la dernière fois On s'aime plus ou moins quand on fait l'addition On s'empoisonne, mais t'es mon addiction Argent, baise ou crime, cétait mon ABC C'est depuis qu't'es dans ma tête, j'offre ma Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Jamais, jamais sans toi comme j'serai jamais, jamais sans billet jamais, jamais sans billet Jamais, jamais loin d'toi même après t'avoir déshabillé te déshabiller J'suis là pour te servir, queen a besoin d'un chevalier un chevalier J'suis là pour ton body, pour ton esprit, pour te marier mama Avant d'aller vite, il faut le rodage On peut plus vous matrixer, les congolais son rodav Ton petit cur est serré, les hommes t'ont rendu ro-pa Si moi j'suis la Champions League, les autres c'était l'Europa mama Tout le monde me félicite, tout l'monde dit qu'j'ai réussi oh oui Pour j'aurai réussi que quand tu seras dans ma vie nah eh Y a rien de plus difficile que d'me réveiller ainsi T'es carrément la femme de mes rêves oh oh ah Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Laisse-moi t'aimer longtemps, longtemps Laisse-moi t'aimer longtemps, longtemps oh oh ah J'sais qu'ton cur n'est pas à vendre T'es mon bijoux Ta beauté me blesse souvent Ah ouais bah ouais, ah bah ouais, bah ouais, ah ah eh</t>
+          <t>Oh oh ah Djé, djé, , ah bah ouais, bah ouais Ouh ouh ouh, let's get it Tu sais je viens du bend' du bend' Monte à bord d'la Benz unh unh T'inquiète j'vais tout gérer, ta vie j'vais colorer yeah yeah Elle aime me questionner unh unh Comment j'fais la monnaie ? la moula Moins t'en sais, mieux tu t'portes unh unh Pour l'instant reste forte oh oh J'ai tout c'qu'il te faut, j'ai les mots si faut t'aider si faut t'aider Pourquoi m'résister ? Avec le temps tu vas céder yeah yeah Mon regard sur toi, t'as gagné, tu t'es démarqué woah C'que t'as sur le cur, dis-l-moi, tu peux m'raconter T'es différnte des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche T'es différente des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre On va pas faire de détail, t'es chargée comme un pétard Quand tu fais ta mala, mes côtés un flow impeccable J'connais les termes, sur Snap tout va à moitié, t'es une galère Tu m'fais péter un câble Moi j'veux dinero, faut qu'j'augmente les zéros Mon cur pue l'ghetto, j'veux pas vendre la gue-dro Tu veux mes codes, contrôler mes pensées J'en ai assez, faut qu'mes épaules tiennent la route Je sais que t'aimes toucher le ciel, ascenseur émotionnel De ton corps j'suis passionné, notre amour est fusionnel yeah Dis-moi qu't'en veux encore Avec toi mon bébé, on va changer d'décors Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre J'te le dis en toute humilité, j'sais qu'j't'ai mérité Mélité, j'ai l'humidité quand tu m'as hérité Éclipsé, moi t'es mon soleil, j'voulais pas m'esquiver Étiqueté, oui, cest c'que t'as fais au lieu d'm'estimer Mais malgré tout ça j'suis toujours là J'sais pas si ça t'touche ou pas Tu veux qu'j'te le prouve ou pas ? J'touche ton cur, j'touche pas du bois On s'sépare puis on s'retrouve On s'revoit, on s'redécouvre Tout comme à la première fois Oui, cest peut-être la dernière fois On s'aime plus ou moins quand on fait l'addition On s'empoisonne, mais t'es mon addiction Argent, baise ou crime, cétait mon ABC C'est depuis qu't'es dans ma tête, j'offre ma Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Jamais, jamais sans toi comme j'serai jamais, jamais sans billet jamais, jamais sans billet Jamais, jamais loin d'toi même après t'avoir déshabillé te déshabiller J'suis là pour te servir, queen a besoin d'un chevalier un chevalier J'suis là pour ton body, pour ton esprit, pour te marier mama Avant d'aller vite, il faut le rodage On peut plus vous matrixer, les congolais son rodav Ton petit cur est serré, les hommes t'ont rendu ro-pa Si moi j'suis la Champions League, les autres c'était l'Europa mama Tout le monde me félicite, tout l'monde dit qu'j'ai réussi oh oui Pour j'aurai réussi que quand tu seras dans ma vie nah eh Y a rien de plus difficile que d'me réveiller ainsi T'es carrément la femme de mes rêves oh oh ah Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Laisse-moi t'aimer longtemps, longtemps Laisse-moi t'aimer longtemps, longtemps oh oh ah J'sais qu'ton cur n'est pas à vendre T'es mon bijoux Ta beauté me blesse souvent Ah ouais bah ouais, ah bah ouais, bah ouais, ah ah eh</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey You might also like Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J'ai pas su me protéger Jai pas su me projeter Tu voulais t'attacher J'ai fait que te rejeter Je tai traité comme une merde Tes copines m'ont senti Donc elles t'ont fait partir Mais tu voulais te mentir J'aimerais que tu m'aimes encore Mais je crois que ton cur est mort Mais le mien est rempli, rempli de remords Mais là je veux faire le vide Il faut que je me confie Au fait j'en ai besoin, je cherche pas le conflit Tout est de ma faute C'est moi qui m'amusais Je savais comment tparler Donc, donc jai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, lai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je tai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi You might also like Tout le monde parle de nous Enfin tout le monde parle de toi Comme si t'était une pute T'as plus confiance en toi J'avais rien de fidèle Je tirais les ficelles J'ai fait le mec présent Quand tu te sentais si seul J'ai fait le mec attentif Quand tu voulais te confier Je t'ai fait rire quand il le fallait Quand fallait décoincer Je t'ai laissé prendre ton temps Pour pas que tu freines Jusqu'a ce que ça glisse Tout ça pour te ken Tout est de ma faute C'est moi qui m'amusais Je savais comment t'parler Donc, donc j'ai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, l'ai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je t'ai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi</t>
+          <t>J'ai pas su me protéger Jai pas su me projeter Tu voulais t'attacher J'ai fait que te rejeter Je tai traité comme une merde Tes copines m'ont senti Donc elles t'ont fait partir Mais tu voulais te mentir J'aimerais que tu m'aimes encore Mais je crois que ton cur est mort Mais le mien est rempli, rempli de remords Mais là je veux faire le vide Il faut que je me confie Au fait j'en ai besoin, je cherche pas le conflit Tout est de ma faute C'est moi qui m'amusais Je savais comment tparler Donc, donc jai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, lai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je tai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi Tout le monde parle de nous Enfin tout le monde parle de toi Comme si t'était une pute T'as plus confiance en toi J'avais rien de fidèle Je tirais les ficelles J'ai fait le mec présent Quand tu te sentais si seul J'ai fait le mec attentif Quand tu voulais te confier Je t'ai fait rire quand il le fallait Quand fallait décoincer Je t'ai laissé prendre ton temps Pour pas que tu freines Jusqu'a ce que ça glisse Tout ça pour te ken Tout est de ma faute C'est moi qui m'amusais Je savais comment t'parler Donc, donc j'ai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, l'ai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je t'ai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall You might also like Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
+          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? You might also like La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Au quartier, c'est la hess qui t'met le brolique sur la tempe yeah à la cité, a la tess, dans le tieks Tu veux baigner dans l'banditisme, faut qu'tu saches où tu trempes yeah tu fais la caill', tu fais le gang, tu fais le youv On n'est pas d'la même catégorie, on n'est pas d'la même trempe yeah toi et moi, c'est pas la même non non J'voulais pas t'foutre une crampe mais j't'éteins si tu t'trompes yeah pah pah pah pah pah À la base, c'était des potes, enlève le O tu mets un U, au final c'est que des putes, j'm'en bats le couilles de ta reput' J'm'en bats les couilles de qui tu es, j'm'en bats le couilles de qui te crain Si t'es plus dans ma ville wallah c'est qu't'as loupé le train Quand j'suis posté en GAV, j'pense à ma dernière bédave, j'pense à ma dernière criave, j'pense à ma dernière pétasse J'pense déjà aux arrivants, negueus les putains d'mort vivant J'pense déjà aux bâtiments, les m'tons et leur déguisement J'pense déjà aux coups d'coudes, j'pense déjà aux coups d'couteau J'pense déjà aux gouttes d'eau qui coulent dans les gouttières J'pense déjà à la promenade, écrire des putains d'couplets Avoir trois fois douches par jour, le foot, la muscu', l'complet J'pense déjà aux tas d'pack qu'j'vais mettre à c'lui qui va jouer J'pense aux bâtards qui vont dire c'est bien de banguer et croué J'pense déjà au tar-mi, les cinq prières, le tapis J'pense déjà au parloir et quand j'vais voir ma ra-cli Nique sa mère, ton daron, ta tente, ton oncle Le quartier nous pourri mais c'est là qu'on s'nourrit d'cette merde à la cité, à la tess, dans le tieks J'sais rien faire à part bibi, j'sais rien faire à part casser des gueules fauche droite, middle, coups de coudes C'est c'que j'pensais étant petit, j'ai vu qu'c'était différent ma gueule ça a gé-chan, ça a changé, ça change Trente piges, mili, mili, mili ma gueule j'en veux un, j'en veux deux, j'en veux trois Oui y a toujours l'automatique en cas de 'blème ma gueule pah pah pah pah pah Ferme ta gueuleYou might also like</t>
+          <t>Au quartier, c'est la hess qui t'met le brolique sur la tempe yeah à la cité, a la tess, dans le tieks Tu veux baigner dans l'banditisme, faut qu'tu saches où tu trempes yeah tu fais la caill', tu fais le gang, tu fais le youv On n'est pas d'la même catégorie, on n'est pas d'la même trempe yeah toi et moi, c'est pas la même non non J'voulais pas t'foutre une crampe mais j't'éteins si tu t'trompes yeah pah pah pah pah pah À la base, c'était des potes, enlève le O tu mets un U, au final c'est que des putes, j'm'en bats le couilles de ta reput' J'm'en bats les couilles de qui tu es, j'm'en bats le couilles de qui te crain Si t'es plus dans ma ville wallah c'est qu't'as loupé le train Quand j'suis posté en GAV, j'pense à ma dernière bédave, j'pense à ma dernière criave, j'pense à ma dernière pétasse J'pense déjà aux arrivants, negueus les putains d'mort vivant J'pense déjà aux bâtiments, les m'tons et leur déguisement J'pense déjà aux coups d'coudes, j'pense déjà aux coups d'couteau J'pense déjà aux gouttes d'eau qui coulent dans les gouttières J'pense déjà à la promenade, écrire des putains d'couplets Avoir trois fois douches par jour, le foot, la muscu', l'complet J'pense déjà aux tas d'pack qu'j'vais mettre à c'lui qui va jouer J'pense aux bâtards qui vont dire c'est bien de banguer et croué J'pense déjà au tar-mi, les cinq prières, le tapis J'pense déjà au parloir et quand j'vais voir ma ra-cli Nique sa mère, ton daron, ta tente, ton oncle Le quartier nous pourri mais c'est là qu'on s'nourrit d'cette merde à la cité, à la tess, dans le tieks J'sais rien faire à part bibi, j'sais rien faire à part casser des gueules fauche droite, middle, coups de coudes C'est c'que j'pensais étant petit, j'ai vu qu'c'était différent ma gueule ça a gé-chan, ça a changé, ça change Trente piges, mili, mili, mili ma gueule j'en veux un, j'en veux deux, j'en veux trois Oui y a toujours l'automatique en cas de 'blème ma gueule pah pah pah pah pah Ferme ta gueule</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>T'as du biff, t'es quelqu'un T'en a pas, t'es personne T'as du biff, t'es quelqu'un T'en a pas, t'es personne Deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ils se posent des questions Nous, on pose des bouteilles J'sais pas quand j'vais quitter ce monde Mais j'sais que j'dois faire de l'oseille Ah, Maman a mal au dos et ça m'fait mal au cur J'vais essuyer tes larmes et ton honneur J'vais leur faire vivre une horreur L'argent c'est le pouvoir La serveuse est bonne, je laisse un pourboire Quand j'rentre chez Vitton, j'ressors equipé Jeune black friqué, t'as d'quoi me tchiper Rien ne fera disparaître les négros Ni les keufs aux States, ni le tchoko Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent You might also like On vient d'la street nous, bâtard Toi, qu'est-ce que tu connais ? J'ai cherché, j'ai cherché mon chemin, j'ai failli me paumer Vas-y trinque à ma santé, y'a du dompé' à gogo J'ai de quoi mettre du coco, j'suis plus vendeur de co'-co' Ah, Showcase complet, j'suis aiguisé poupée J'ai du cash, j'ai ma CB Pilon, chicha, feuille OCB, CB, OCB J'ai du cash, j'ai ma CB, CB, CB Elle est belle, elle est cambrée Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent Plutôt crever que toucher le RSA J'veux toucher des millions et j'parle pas d'CFA, CFA, CFA Plutôt crever que toucher le RSA Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne, t'es personne, t'es personne Désolé, j'suis devenu quelqu'un</t>
+          <t>T'as du biff, t'es quelqu'un T'en a pas, t'es personne T'as du biff, t'es quelqu'un T'en a pas, t'es personne Deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ils se posent des questions Nous, on pose des bouteilles J'sais pas quand j'vais quitter ce monde Mais j'sais que j'dois faire de l'oseille Ah, Maman a mal au dos et ça m'fait mal au cur J'vais essuyer tes larmes et ton honneur J'vais leur faire vivre une horreur L'argent c'est le pouvoir La serveuse est bonne, je laisse un pourboire Quand j'rentre chez Vitton, j'ressors equipé Jeune black friqué, t'as d'quoi me tchiper Rien ne fera disparaître les négros Ni les keufs aux States, ni le tchoko Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent On vient d'la street nous, bâtard Toi, qu'est-ce que tu connais ? J'ai cherché, j'ai cherché mon chemin, j'ai failli me paumer Vas-y trinque à ma santé, y'a du dompé' à gogo J'ai de quoi mettre du coco, j'suis plus vendeur de co'-co' Ah, Showcase complet, j'suis aiguisé poupée J'ai du cash, j'ai ma CB Pilon, chicha, feuille OCB, CB, OCB J'ai du cash, j'ai ma CB, CB, CB Elle est belle, elle est cambrée Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent Plutôt crever que toucher le RSA J'veux toucher des millions et j'parle pas d'CFA, CFA, CFA Plutôt crever que toucher le RSA Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne, t'es personne, t'es personne Désolé, j'suis devenu quelqu'un</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HCue Tcha, tcha, tcha, tcha, tcha, tcha Si tes Madame Debeing, la street sera jalouse, donc Ça va parler, jdevrais casser un tas dbouches On vendra du rêve, ça sera leur cauchemar Oui, on donnera lheure ma dit la Audemars Toublieras les pélos qui veulent te cala Ils proposent des tels-hô, moi, jte propose un palace, haha Jsuis mi Wakanda, mi Gangster Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tcheh, tcheh, tcheh Jai rangé mon égo, tes quelqu'un qui sera sur le té-co, ya dégain Tas dla classe, tas du style, jai le bagou Jsuis en place, viens on frime, cest pas tabou Moi, jai pas pagayé, pas bégayé Ya une embouteillé, oui, jpeux payer Jsuis mi rechta, mi resta Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher You might also like Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh1</t>
+          <t>HCue Tcha, tcha, tcha, tcha, tcha, tcha Si tes Madame Debeing, la street sera jalouse, donc Ça va parler, jdevrais casser un tas dbouches On vendra du rêve, ça sera leur cauchemar Oui, on donnera lheure ma dit la Audemars Toublieras les pélos qui veulent te cala Ils proposent des tels-hô, moi, jte propose un palace, haha Jsuis mi Wakanda, mi Gangster Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tcheh, tcheh, tcheh Jai rangé mon égo, tes quelqu'un qui sera sur le té-co, ya dégain Tas dla classe, tas du style, jai le bagou Jsuis en place, viens on frime, cest pas tabou Moi, jai pas pagayé, pas bégayé Ya une embouteillé, oui, jpeux payer Jsuis mi rechta, mi resta Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle J'étais sur Insta, en train de me tâter J'tombe sur son profil, la go m'a piqué Elle m'a piqué, donc j'ai cliqué Et comme un con, j'ai finis par liker Une fois, deux fois, puis toutes les photos J'vais direct la montrer à mon poto Est-ce que tu connais ce canon scié ? Cent followers, elle va pas me griller Message en PV donc on prend contact Hello ma chérie, il faudrait qu'on se cache T'as voulu une go en or et j'veux pas qu'elle m'traque Elle m'dit ok, tu manques pas de taqu', mec J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde You might also like Avec la féline, c'est pas des blagues A chaque fois qu'j'la zappe, elle fait son come-back Mais avec ma go, le temps m'échappe J'rentre avec du fond de teint sur mes sacs Et là ça devient chaud, là ça devient hard Pour maquillé tout ça, je dis qu'c'est des fans Elle est pas bê-bête, encore moins co-conne Elle me dit t'étais avec quelle fo-folle ? Et là ça devient chaud, très très paro La fille, une gouttière, j'vais payer le tarot Mais je mis en bloque, en bloque, en bloque Et de tous les réseaux, je la bloque J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Par la féline, j'me suis fait piéger Le compte que j'vais, il était privé Oh l'horreur, ma go l'a follow C'est une femme d'influence dans le Girl Power Aïe aïe aïe, elle a posté une photo de nous deux, disant qu'elle a trouvé l'âme-sur Oh mon dieu, je vais devoir nier en haut Nier en bas, nier à gauche, nier à droite J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde1</t>
+          <t>J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle J'étais sur Insta, en train de me tâter J'tombe sur son profil, la go m'a piqué Elle m'a piqué, donc j'ai cliqué Et comme un con, j'ai finis par liker Une fois, deux fois, puis toutes les photos J'vais direct la montrer à mon poto Est-ce que tu connais ce canon scié ? Cent followers, elle va pas me griller Message en PV donc on prend contact Hello ma chérie, il faudrait qu'on se cache T'as voulu une go en or et j'veux pas qu'elle m'traque Elle m'dit ok, tu manques pas de taqu', mec J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Avec la féline, c'est pas des blagues A chaque fois qu'j'la zappe, elle fait son come-back Mais avec ma go, le temps m'échappe J'rentre avec du fond de teint sur mes sacs Et là ça devient chaud, là ça devient hard Pour maquillé tout ça, je dis qu'c'est des fans Elle est pas bê-bête, encore moins co-conne Elle me dit t'étais avec quelle fo-folle ? Et là ça devient chaud, très très paro La fille, une gouttière, j'vais payer le tarot Mais je mis en bloque, en bloque, en bloque Et de tous les réseaux, je la bloque J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Par la féline, j'me suis fait piéger Le compte que j'vais, il était privé Oh l'horreur, ma go l'a follow C'est une femme d'influence dans le Girl Power Aïe aïe aïe, elle a posté une photo de nous deux, disant qu'elle a trouvé l'âme-sur Oh mon dieu, je vais devoir nier en haut Nier en bas, nier à gauche, nier à droite J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde1</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Allô, allô Allô, allô, allô Allô, Allô Allô, Allô, Allô Eh, je t'ai cherché dans tout paris T'es wanted ma chérie Bon, j'étais pas d'humeur à gole-ri Ok j'assume toutes mes conneries T'étais la deuxième Et j'te l'ai caché Je sais que j'ai merdé Donc tu m'envoies chier J'ai voulu jongler Mais j'dois avouer Avouer que j'suis pas doué J'aurais préféré que tu portes mon nom Mais, aujourd'hui tu m'vois comme un traître Quon ne fasse quun comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi You might also like Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allô, Allô Allô, Allô, Allô Allô, Allô Allô, Allô, Allô Je sais que tu m'en veux je t'ai doublé T'as coupé les liens qu'on a noué Dis-moi ce qui t'a fait le plus mal Que tu sois pas la première ou que j't'ai trompé Relasse toi merde tu t'en doutais Au final c'est moi qui est dégoûté Je sais que tu me hais, que tu me détestes J'ai juré tu as déjà voulu me voir crever J'aurais préféré que tu portes mon nom Mais aujourd'hui tu me vois comme un traître Quon ne fasse quun, comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo répondeur Allo, allo répondeur Allo, allo, allo répondeur</t>
+          <t>Allô, allô Allô, allô, allô Allô, Allô Allô, Allô, Allô Eh, je t'ai cherché dans tout paris T'es wanted ma chérie Bon, j'étais pas d'humeur à gole-ri Ok j'assume toutes mes conneries T'étais la deuxième Et j'te l'ai caché Je sais que j'ai merdé Donc tu m'envoies chier J'ai voulu jongler Mais j'dois avouer Avouer que j'suis pas doué J'aurais préféré que tu portes mon nom Mais, aujourd'hui tu m'vois comme un traître Quon ne fasse quun comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allô, Allô Allô, Allô, Allô Allô, Allô Allô, Allô, Allô Je sais que tu m'en veux je t'ai doublé T'as coupé les liens qu'on a noué Dis-moi ce qui t'a fait le plus mal Que tu sois pas la première ou que j't'ai trompé Relasse toi merde tu t'en doutais Au final c'est moi qui est dégoûté Je sais que tu me hais, que tu me détestes J'ai juré tu as déjà voulu me voir crever J'aurais préféré que tu portes mon nom Mais aujourd'hui tu me vois comme un traître Quon ne fasse quun, comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo répondeur Allo, allo répondeur Allo, allo, allo répondeur</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>La puissance respecte que la puissance La dinguerie respecte que la dinguerie La vaillance respecte que la vaillance La puterie respecte que la puterie Ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta Ta-ta Hey, hey, hey hey Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Hey, sous-estime pas le dozo tchoin, on a des torpilles sous le cargot tchoin Rappelle-toi de nous, boloss, biatch, n'oublie pas d'me follow On est plus fous que vous, ce n'est pas de la chance, on s'impose par les armes et la violence ouais Renoi, j'parle pas ching-chong, j'suis Martin Luther King Kong ah ouais, ouais Tu nous respectes pas, on va te mou-gou, gilet pare-balles nouvelle paire de Lou-Lou Nous, c'est le GB, bébé, on te menace en PGP Il est l'heure que tu prennes ta dose sur ma Rolex Daytona Gold rose ouais J'suis le boss posé à ma ble-ta pute, t'es dans l'coffre, dans le pain ou dans la ve-ca ris-Kaa You might also like Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Tcha-tcha Celui qui va à la chasse, ce soir, il perd sa 'tasse Trop d'bouteilles à la table, ce soir, on boit la tasse En boîte, me fais pas d'rappels, assume-toi, fais pas l'bipolaire Ma maîtresse est en CFA, Champions League pour la titulaire Oui, c'est comme ça qu'on vit Tu paies pas, tu tises pas, chez nous, c'est comme ça qu'on dit Ah, baby, j'ai de ces plans peinard, j'ai ter-ma ton pétard Ton gava est vé-ner, comme toi, petit veinard Ton gava veut s'per-ta, j'vais ti-sor mon pétard, j'vais l'ber-bar J'vais l'quer-bra, puis, on f'ra les fêtards Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter Ah oui Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter</t>
+          <t>La puissance respecte que la puissance La dinguerie respecte que la dinguerie La vaillance respecte que la vaillance La puterie respecte que la puterie Ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta Ta-ta Hey, hey, hey hey Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Hey, sous-estime pas le dozo tchoin, on a des torpilles sous le cargot tchoin Rappelle-toi de nous, boloss, biatch, n'oublie pas d'me follow On est plus fous que vous, ce n'est pas de la chance, on s'impose par les armes et la violence ouais Renoi, j'parle pas ching-chong, j'suis Martin Luther King Kong ah ouais, ouais Tu nous respectes pas, on va te mou-gou, gilet pare-balles nouvelle paire de Lou-Lou Nous, c'est le GB, bébé, on te menace en PGP Il est l'heure que tu prennes ta dose sur ma Rolex Daytona Gold rose ouais J'suis le boss posé à ma ble-ta pute, t'es dans l'coffre, dans le pain ou dans la ve-ca ris-Kaa Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Tcha-tcha Celui qui va à la chasse, ce soir, il perd sa 'tasse Trop d'bouteilles à la table, ce soir, on boit la tasse En boîte, me fais pas d'rappels, assume-toi, fais pas l'bipolaire Ma maîtresse est en CFA, Champions League pour la titulaire Oui, c'est comme ça qu'on vit Tu paies pas, tu tises pas, chez nous, c'est comme ça qu'on dit Ah, baby, j'ai de ces plans peinard, j'ai ter-ma ton pétard Ton gava est vé-ner, comme toi, petit veinard Ton gava veut s'per-ta, j'vais ti-sor mon pétard, j'vais l'ber-bar J'vais l'quer-bra, puis, on f'ra les fêtards Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter Ah oui Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? On a essayer Dis-moi est-ce qu'on a essayer ou pas ? On a essayer d'avancer Mais on a pas pu marcher au pas Les paroles, les paroles, les paroles Quand je parle, tu crois que je raconte que des bobards Assis-toi et tais-toi, écoute-moi pour une fois Ne dis pas que je suis un connard On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle You might also like Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? Ne sois pas débile, on fonce dans un mur Ton cur est fragile, mais ta tête est dure Encore une fois, tu vas pleurer, pleurer des rivières Toi t'en a rien à foutre de toute manière On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche?</t>
+          <t>Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? On a essayer Dis-moi est-ce qu'on a essayer ou pas ? On a essayer d'avancer Mais on a pas pu marcher au pas Les paroles, les paroles, les paroles Quand je parle, tu crois que je raconte que des bobards Assis-toi et tais-toi, écoute-moi pour une fois Ne dis pas que je suis un connard On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? Ne sois pas débile, on fonce dans un mur Ton cur est fragile, mais ta tête est dure Encore une fois, tu vas pleurer, pleurer des rivières Toi t'en a rien à foutre de toute manière On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche?</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tié tié tié tié tié, tié tié tié Tié tié tié tié, hey Tu voulais mettre les voiles, t'as sauté du navire Faudrait qu'une autre monte à bord pour que mon cur chavire Mais j'veux pas, nan j'peux pas, car j't'ai pas oublié Maintenant j'ai mon bouclier, aucune femme va m'bousiller Le fruit de l'amour une grenade, j'ai fini par dégoupiller Ton cur était un présent comme un pirate j'ai tout piller J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi You might also like En amour, j'suis aveugle J'perds la raison comme Ivar Et même quand j'fous l'cafard, pour moi j'te donne du caviar Pour mes potes j'suis conseiller, j'les aiguilles, j'les renseignes Et quand c'est moi l'concerné, j'me vois détruit, j'me renferme Tu peux m'faire mon procès, j'suis fautif, j'suis coupable Pas d'motif j'suis tout calme, en coulisse j'suis tout pâle J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi T'as décales C'est sans toi Quand faut l'dire Sans voix Le calcul, plus d'une fois, plus d'cent fois Résultat, au final, t'es sans moi</t>
+          <t>Tié tié tié tié tié, tié tié tié Tié tié tié tié, hey Tu voulais mettre les voiles, t'as sauté du navire Faudrait qu'une autre monte à bord pour que mon cur chavire Mais j'veux pas, nan j'peux pas, car j't'ai pas oublié Maintenant j'ai mon bouclier, aucune femme va m'bousiller Le fruit de l'amour une grenade, j'ai fini par dégoupiller Ton cur était un présent comme un pirate j'ai tout piller J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi En amour, j'suis aveugle J'perds la raison comme Ivar Et même quand j'fous l'cafard, pour moi j'te donne du caviar Pour mes potes j'suis conseiller, j'les aiguilles, j'les renseignes Et quand c'est moi l'concerné, j'me vois détruit, j'me renferme Tu peux m'faire mon procès, j'suis fautif, j'suis coupable Pas d'motif j'suis tout calme, en coulisse j'suis tout pâle J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi T'as décales C'est sans toi Quand faut l'dire Sans voix Le calcul, plus d'une fois, plus d'cent fois Résultat, au final, t'es sans moi</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yeah Y'all know what this is we back at it uh huh Come on uhh, yeah, yeah It's that 911 music right here, man We in the building, man Welcome to ground zero, everybody! Juelz Santana Dipset Hell Rell Yo, yo I speak pain, I spit power, talk courage, breathe flowers Follow me through the debris of these towers The rain, the sleet, the street showers Don't get caught up when the street showers When the guns rain, the clips pour The soldiers grip fours, then begin war Come on, it's Santana the Great Tie 'em up, bandana his face, hammer his face, fucker I'm trying to get my act together In the booth now trying to get my rap together You know, I got the fire to heat the street up Abuse the track, and beat the beat up, you know You already know what I'm about homie I'm young, I'm focused, I'm just coming out homie You can go by what you hear through word of mouth homie Or step out of line, Cam betting the house on me woo! No, I ain't stopping yet yeah No, my album ain't done, it ain't dropping yet I'm in the midst of a bidding war And we need two mil' more just to move in the door, shit You might also like Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa, yo Your girl told you I'm the man, right? Right? Well listen to lover When I beef, visions are gutter Kids clapping, kidnappings, heard her missing a brother I'm hitting your sister, you kissing your mother This shit'll disgust ya Underground with people, lethal Trapped in the desert, surrounded by Eagles Dipset, girl Yeah, I see your bitch is impressed, my kicks is all fresh This shit on my chest by Mitchell and Ness jersey Got her open, hoping she's not I'll have her, crack in her tits, coke in her twat Have her crack up the strip, coke up the block She get cracked up and hit, keep soap in your sock, mami mami My girls lay up in suites A half a cake a week, and masturbate like Tweet, Killa I be popping them Uzis, copping them Coogis Eyes on the drop real droopy Mair is Snoopy, look at your hooptie, rocking her rubies Hop in the hoochie, popping her coochie Chill while I'm chasing millions I'm a baller that'll merk you like Jayson Williams uh huh Don't play with villains, vacate the building Or the apes'll come and rape your children Yeah, it's a kilo to a milligram I'm still the man, word to Killa Cam Killa Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it To all of my cons and crooks, slash that to of my pawns and rooks For all the charms they took To my head of security, British the Titan, clicking the fifth, and gripping it tight, goddamn it Not to mention my bishop and knights, soliciting bricks of the white Making crucial trips through the night highways And Prince Juelz, I told you ever since Juelz If them faggots even flinch Juelz bluuuuatttt My dogs gonna 'em alive Forty-four's depleting, deleting they lives come on And Killa while he's leading the movement For realer we wouldn't be in this movement Over him I might kill ya kill ya Be in the tombs, just facing my time Lawyer on side, outside spoiler on ride System bumping, bumping Oh Boy in the ride Oh boy I done slide, shit He done came got his boy, it's a shame that his boy Had to flame at a boy, over the name we employ Which is none other Than Dipset, for y'all dumb motherfuckers holla Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa the Don, Freekey, Juelz Santana BK, Harlem woo!! Hell Rell, the whole Taliban Dipset T. Money, Luca Brazi Double Nicko, Blaka Shane, cut it short on these niggas1</t>
+          <t>Yeah Y'all know what this is we back at it uh huh Come on uhh, yeah, yeah It's that 911 music right here, man We in the building, man Welcome to ground zero, everybody! Juelz Santana Dipset Hell Rell Yo, yo I speak pain, I spit power, talk courage, breathe flowers Follow me through the debris of these towers The rain, the sleet, the street showers Don't get caught up when the street showers When the guns rain, the clips pour The soldiers grip fours, then begin war Come on, it's Santana the Great Tie 'em up, bandana his face, hammer his face, fucker I'm trying to get my act together In the booth now trying to get my rap together You know, I got the fire to heat the street up Abuse the track, and beat the beat up, you know You already know what I'm about homie I'm young, I'm focused, I'm just coming out homie You can go by what you hear through word of mouth homie Or step out of line, Cam betting the house on me woo! No, I ain't stopping yet yeah No, my album ain't done, it ain't dropping yet I'm in the midst of a bidding war And we need two mil' more just to move in the door, shit Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa, yo Your girl told you I'm the man, right? Right? Well listen to lover When I beef, visions are gutter Kids clapping, kidnappings, heard her missing a brother I'm hitting your sister, you kissing your mother This shit'll disgust ya Underground with people, lethal Trapped in the desert, surrounded by Eagles Dipset, girl Yeah, I see your bitch is impressed, my kicks is all fresh This shit on my chest by Mitchell and Ness jersey Got her open, hoping she's not I'll have her, crack in her tits, coke in her twat Have her crack up the strip, coke up the block She get cracked up and hit, keep soap in your sock, mami mami My girls lay up in suites A half a cake a week, and masturbate like Tweet, Killa I be popping them Uzis, copping them Coogis Eyes on the drop real droopy Mair is Snoopy, look at your hooptie, rocking her rubies Hop in the hoochie, popping her coochie Chill while I'm chasing millions I'm a baller that'll merk you like Jayson Williams uh huh Don't play with villains, vacate the building Or the apes'll come and rape your children Yeah, it's a kilo to a milligram I'm still the man, word to Killa Cam Killa Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it To all of my cons and crooks, slash that to of my pawns and rooks For all the charms they took To my head of security, British the Titan, clicking the fifth, and gripping it tight, goddamn it Not to mention my bishop and knights, soliciting bricks of the white Making crucial trips through the night highways And Prince Juelz, I told you ever since Juelz If them faggots even flinch Juelz bluuuuatttt My dogs gonna 'em alive Forty-four's depleting, deleting they lives come on And Killa while he's leading the movement For realer we wouldn't be in this movement Over him I might kill ya kill ya Be in the tombs, just facing my time Lawyer on side, outside spoiler on ride System bumping, bumping Oh Boy in the ride Oh boy I done slide, shit He done came got his boy, it's a shame that his boy Had to flame at a boy, over the name we employ Which is none other Than Dipset, for y'all dumb motherfuckers holla Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa the Don, Freekey, Juelz Santana BK, Harlem woo!! Hell Rell, the whole Taliban Dipset T. Money, Luca Brazi Double Nicko, Blaka Shane, cut it short on these niggas1</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey You might also like Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo Pourquoi j'suis déçu par les gens que j'aime ? Pourquoi quand t'as l'cur sur la main on veut qu'tu saignes ? Pourquoi j'ai du volé quand j'étais pauvre ? Pourquoi ma mère avait l'poids du monde sur ces épaules ? Ah, pourquoi la vérité fait si mal ? Pourquoi c'est les gens comme toi qui veulent qu'tu cannes ? Pourquoi tu parles mal de moi devant des go ? Pourquoi dans la street j'entends tous ces échos, eh ? On a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Ouais on a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo You might also like Ah Pourquoi on a pas eu le choix ? Pourquoi si tu fais pas le loup on t'prend pour une proie, ah ? Pourquoi l'argent fait pas l'bonheur ? Pourquoi j'préfère m'asseoir sur une somme que sur mon honneur, ah ? Pourquoi tu veux m'tirer ver le bas, malgré ça moi j'vais t'poussé vers le haut, ah ? Pourquoi j'te reconnais pas, quand j'te vois j'ai des frissons dans le dos ? Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo</t>
+          <t>J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo Pourquoi j'suis déçu par les gens que j'aime ? Pourquoi quand t'as l'cur sur la main on veut qu'tu saignes ? Pourquoi j'ai du volé quand j'étais pauvre ? Pourquoi ma mère avait l'poids du monde sur ces épaules ? Ah, pourquoi la vérité fait si mal ? Pourquoi c'est les gens comme toi qui veulent qu'tu cannes ? Pourquoi tu parles mal de moi devant des go ? Pourquoi dans la street j'entends tous ces échos, eh ? On a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Ouais on a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo Ah Pourquoi on a pas eu le choix ? Pourquoi si tu fais pas le loup on t'prend pour une proie, ah ? Pourquoi l'argent fait pas l'bonheur ? Pourquoi j'préfère m'asseoir sur une somme que sur mon honneur, ah ? Pourquoi tu veux m'tirer ver le bas, malgré ça moi j'vais t'poussé vers le haut, ah ? Pourquoi j'te reconnais pas, quand j'te vois j'ai des frissons dans le dos ? Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Ma chérie quand tu sors cest la guerre Tu laisses mes collègues à terre Dans la boite on sait que tu gères, mais à quoi ça sert Ton allure et ta démarche, tous les hommes te remarquent Il y a un truc que tu dégages, ce qui fait que tu te démarques Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme You might also like Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Tu veux quon te montre son visage Cheveux court ou tissage Tu tdemandes si elle rage quand tes dans les parages Tu veux pas quon te compare, mais toi-même tu te compares Si tu cherches à te venger tu nas rien à lui envier Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Mais cest quun homme Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Oui cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo</t>
+          <t>Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Ma chérie quand tu sors cest la guerre Tu laisses mes collègues à terre Dans la boite on sait que tu gères, mais à quoi ça sert Ton allure et ta démarche, tous les hommes te remarquent Il y a un truc que tu dégages, ce qui fait que tu te démarques Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Tu veux quon te montre son visage Cheveux court ou tissage Tu tdemandes si elle rage quand tes dans les parages Tu veux pas quon te compare, mais toi-même tu te compares Si tu cherches à te venger tu nas rien à lui envier Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Mais cest quun homme Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Oui cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tchè, tchè, tchè tchè tchè Tchè, hè Je me souviens javais parloir une heure avec ma fem-me Jenfilais mes baskets et mes jogos tous fe-ne Elle me faisait rentrer des Big Mac On faisait des mik mak On sembrassait en vric vrac Comme ça quand les flics planent Retour dans ma cellule, aller-retour en promenade Je lui disais que jallais sortir, je lui passais de la pommade Bagarre sur le préau, du sang sur les vres-lè Donne-moi des news dautre lo, jattends toujours ça tre-let Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars You might also like Tchè, tchè, tchè Devant la juge jai toujours menti sous serment Mais devant toi jai toujours parlé sincèrement Tu me disais quune fois dehors je toublierais sûrement Tu me connaissais mieux que moi-même, mais si seulement Javais su faire, jaurais dû me taire, tavais du flair, et jai fait le fier Mais tas su me comprendre et mentendre Il ta fallu attendre et tout prendre Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, c'était un polard Et jétais prêt à tout pour les dollars Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè, hè Je me souviens javais parloir une heure avec ma fem-me Jenfilais mes baskets et mes jogos tous fe-ne Elle me faisait rentrer des Big Mac On faisait des mik mak On sembrassait en vric vrac Comme ça quand les flics planent Retour dans ma cellule, aller-retour en promenade Je lui disais que jallais sortir, je lui passais de la pommade Bagarre sur le préau, du sang sur les vres-lè Donne-moi des news dautre lo, jattends toujours ça tre-let Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tchè, tchè, tchè Devant la juge jai toujours menti sous serment Mais devant toi jai toujours parlé sincèrement Tu me disais quune fois dehors je toublierais sûrement Tu me connaissais mieux que moi-même, mais si seulement Javais su faire, jaurais dû me taire, tavais du flair, et jai fait le fier Mais tas su me comprendre et mentendre Il ta fallu attendre et tout prendre Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, c'était un polard Et jétais prêt à tout pour les dollars Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Wow, c'est la galère au quartier Mais bon, tout doux, direction L.A J'vais clipper avec mon iPhone tiens Azy viens on s'barre Tout doux, tout doux Tout doux doux doux J'me vois déjà sur la playa, complètement faya Trop black pour les mes-crè solaires, loin d'la galère Té-ma là-celle, comment elle m'regarde Quoi ? T'as jamais vu une caille-ra ? J'suis venu me détendre avec mes gars Claquer tout mon salaire Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver You might also like Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo J'ai rassemblé tous mes gavas pour faire un carnage À c'qu'il paraît y'a un barrage tout va ter-sau J'suis venu pour faire la fiesta Señorita como esta ? J'te veux toi et tes pines-co, pour tous mes soces Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Donc tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo</t>
+          <t>Wow, c'est la galère au quartier Mais bon, tout doux, direction L.A J'vais clipper avec mon iPhone tiens Azy viens on s'barre Tout doux, tout doux Tout doux doux doux J'me vois déjà sur la playa, complètement faya Trop black pour les mes-crè solaires, loin d'la galère Té-ma là-celle, comment elle m'regarde Quoi ? T'as jamais vu une caille-ra ? J'suis venu me détendre avec mes gars Claquer tout mon salaire Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo J'ai rassemblé tous mes gavas pour faire un carnage À c'qu'il paraît y'a un barrage tout va ter-sau J'suis venu pour faire la fiesta Señorita como esta ? J'te veux toi et tes pines-co, pour tous mes soces Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Donc tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es le plus beau des plus beaux, aujourd'hui y'a pas photos T'es le fils de ta mère et le garçon de ton père Ta beauté est blessante, pour les jaloux est vexante T'as la classe et l'élégance, en vérité t'es un exemple x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne craint personne C'est vrai qu'la vie est dure Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... You might also like Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es la plus belle des plus belles, t'as le regard qui ensorcelle La fierté de ton père, t'as la beauté de ta mère Tu viens d'une autre planète, j'aime ton charme et tes manières Tu peux stopper la guerre, t'as la Lune et le Soleil dans ton derrière x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne crains personne C'est vrai que la vie est dur Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Ils nous prennent la tête, faut qu'ils arrêtent Pour être honnête, on veut juste faire la fête Ils nous prennent la tête, la tête, la tête Faut qu'ils arrêtent, arrêtent, arrêtent Pour être honnête, honnête, honnête On veut juste faire la fête, fête, fête Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo</t>
+          <t>Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es le plus beau des plus beaux, aujourd'hui y'a pas photos T'es le fils de ta mère et le garçon de ton père Ta beauté est blessante, pour les jaloux est vexante T'as la classe et l'élégance, en vérité t'es un exemple x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne craint personne C'est vrai qu'la vie est dure Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es la plus belle des plus belles, t'as le regard qui ensorcelle La fierté de ton père, t'as la beauté de ta mère Tu viens d'une autre planète, j'aime ton charme et tes manières Tu peux stopper la guerre, t'as la Lune et le Soleil dans ton derrière x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne crains personne C'est vrai que la vie est dur Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Ils nous prennent la tête, faut qu'ils arrêtent Pour être honnête, on veut juste faire la fête Ils nous prennent la tête, la tête, la tête Faut qu'ils arrêtent, arrêtent, arrêtent Pour être honnête, honnête, honnête On veut juste faire la fête, fête, fête Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Oh nino, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait Jaurais pris des bastos Pour toi, ouais jaurais sorti le matos ouais A ma droite dans le gamos Gros bolide, pour nous pas de tacos Ouais ouais, tétais une vraie gazelle avec un corps de fou Tous les mecs qui te guettaient avaient la corde au cou Ils font toujours la queue, Il y en a encore beaucoup Mais je suis plus de la partie, je reporte mon tour Tcha, tu mas proprement sali Mais quelle vie, maintenant les amines, les ennemies sont ta famille Tu veux refaire le détail Tu reviens mais quel bail Tu regrettes tu dérailles Cest le revers de la médaille Tas tout gâché ohoh Je voyais mon avenir avec toi, tas tout gâché, t'as tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou jaurais tout fait pour toit Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou ou You might also like Dans quelques mois, tu te rappelleras de moi Dans quelques mois, je me souviendrai de toi Maintenant, tu es loin de mes pensés Pourtant, jai été prêt à tout dépenser Il y a pas de marche arrière, jsuis sur Je tavoue quand nos regards se croisen,t oui cest dur Mais toi tas pas cru en nous, laisse tombé moi jai tourné la page, cest tout Me parle pas de la vie des autres, au fond tu sais très bien que tout ce quelles disent cest faux oui Tout ce que je voulais cétait une vie de famille mais toi Tas tout gâché, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou J'aurais tout fais pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha</t>
+          <t>Oh nino, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait Jaurais pris des bastos Pour toi, ouais jaurais sorti le matos ouais A ma droite dans le gamos Gros bolide, pour nous pas de tacos Ouais ouais, tétais une vraie gazelle avec un corps de fou Tous les mecs qui te guettaient avaient la corde au cou Ils font toujours la queue, Il y en a encore beaucoup Mais je suis plus de la partie, je reporte mon tour Tcha, tu mas proprement sali Mais quelle vie, maintenant les amines, les ennemies sont ta famille Tu veux refaire le détail Tu reviens mais quel bail Tu regrettes tu dérailles Cest le revers de la médaille Tas tout gâché ohoh Je voyais mon avenir avec toi, tas tout gâché, t'as tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou jaurais tout fait pour toit Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou ou Dans quelques mois, tu te rappelleras de moi Dans quelques mois, je me souviendrai de toi Maintenant, tu es loin de mes pensés Pourtant, jai été prêt à tout dépenser Il y a pas de marche arrière, jsuis sur Je tavoue quand nos regards se croisen,t oui cest dur Mais toi tas pas cru en nous, laisse tombé moi jai tourné la page, cest tout Me parle pas de la vie des autres, au fond tu sais très bien que tout ce quelles disent cest faux oui Tout ce que je voulais cétait une vie de famille mais toi Tas tout gâché, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou J'aurais tout fais pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Stan-E Music, bonjour Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît T'es loin d'avoir le boule de Amber et tu chipotes pour ton number Va là bas avance sans peur, bouteille chicha ambiance de clubber On dirait t'es venue te faire un nom, et zehma tu ne veux pas te joindre à nous Ambiance tout le monde veut faire le youv mais le youv lui n'est pas du tout dans l'ambiance Y a mes rebeus, renoi, miss. Twerk ! Peut-être que nous on est matrixés Même sous champagne on arrive à pister, les gros yeux t'ont vus tu les a fixés Ah ! Dégage, pas là pour du love my nigga Tu verras pas le black qui béggaie, si j'me lève et sors du VIP c'est tout le monde qui técal Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît You might also like Appelle moi le passeport qui te fais glisser dans la te-boî, pour rentrer mes gavas comptent sur moi Si tu veux des teilles-bou pour remplir la ble-ta j'ai le billet facile compte sur moi Si tu pètes un ble-ca sur la cambrure de ce cavu pour le numéro tu comptes sur moi Si t'es en manque de pas jette un oeil sur la piste et tu verras les négros pompent sur moi Tu m'as surement déjà vu dans la capitale, de la street au shtar tout est radical C'est du business boy rien d'amical, elles veulent soutirer le biff de l'animal Ok, j'suis très calme quand il faut, mais j'peux te brah brah si il le faut On est ensemble j'te le promets, fais comme chez toi ici tout le monde nous connaît Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît Sans même le savoir tu m'connais Stan-E Music sois pas étonné Black M laisse moi les cogner J'vais leur faire du sale là, j'vais retourner Paname, préviens tous tes gavas, j'fais des sons qui fracassent Je t'ai vu bouger ton gros tard-pé sur mes sons, comment ça tu connais pas mon nom Stan-E Music, tu vas dire il est trop aaw, la concu va se perdre dans mon monde Stan-E Music, magnum pour tout le club, motherfucker Oui j'ai le biff et les filles et ma clique dans le VIP, renoi tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Ce soir j'suis en mala Tout le monde me connaît J'peux pas m'empêcher de casser la démarche Tout le monde me ouh ouh Elle fait comme si elle ne m'a jamais vu Fais comme chez toi ici tout le monde nous connaît Tout le monde me connaît Tout le monde me connaît2</t>
+          <t>Stan-E Music, bonjour Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît T'es loin d'avoir le boule de Amber et tu chipotes pour ton number Va là bas avance sans peur, bouteille chicha ambiance de clubber On dirait t'es venue te faire un nom, et zehma tu ne veux pas te joindre à nous Ambiance tout le monde veut faire le youv mais le youv lui n'est pas du tout dans l'ambiance Y a mes rebeus, renoi, miss. Twerk ! Peut-être que nous on est matrixés Même sous champagne on arrive à pister, les gros yeux t'ont vus tu les a fixés Ah ! Dégage, pas là pour du love my nigga Tu verras pas le black qui béggaie, si j'me lève et sors du VIP c'est tout le monde qui técal Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît Appelle moi le passeport qui te fais glisser dans la te-boî, pour rentrer mes gavas comptent sur moi Si tu veux des teilles-bou pour remplir la ble-ta j'ai le billet facile compte sur moi Si tu pètes un ble-ca sur la cambrure de ce cavu pour le numéro tu comptes sur moi Si t'es en manque de pas jette un oeil sur la piste et tu verras les négros pompent sur moi Tu m'as surement déjà vu dans la capitale, de la street au shtar tout est radical C'est du business boy rien d'amical, elles veulent soutirer le biff de l'animal Ok, j'suis très calme quand il faut, mais j'peux te brah brah si il le faut On est ensemble j'te le promets, fais comme chez toi ici tout le monde nous connaît Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît Sans même le savoir tu m'connais Stan-E Music sois pas étonné Black M laisse moi les cogner J'vais leur faire du sale là, j'vais retourner Paname, préviens tous tes gavas, j'fais des sons qui fracassent Je t'ai vu bouger ton gros tard-pé sur mes sons, comment ça tu connais pas mon nom Stan-E Music, tu vas dire il est trop aaw, la concu va se perdre dans mon monde Stan-E Music, magnum pour tout le club, motherfucker Oui j'ai le biff et les filles et ma clique dans le VIP, renoi tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Ce soir j'suis en mala Tout le monde me connaît J'peux pas m'empêcher de casser la démarche Tout le monde me ouh ouh Elle fait comme si elle ne m'a jamais vu Fais comme chez toi ici tout le monde nous connaît Tout le monde me connaît Tout le monde me connaît2</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>La famille, rien a changé J'suis sorti du placard et j'me suis rangé T'étais mon re-frè mais parlons français Aujourd'hui, on est comme deux étrangers J't'ai donné mon dos, t'as tenté de m'étrangler T'as pointé ton gun vers moi mais t'as tremblé Le pardon, c'est pour les humains Espèce de chien, t'auras pas l'mien Trahi par un pote, qui en fait, était une pute qui voulait m'baiser T'as voulu faire le fort, ouais t'as voulu faire le dur T'as finis blessé Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés T'étais pas un pote, nan J'leur ai dis t'étais une pute On a baissé ton froc, nan T'avais rien dans le fute J'suis encore sous le choc Du sommet, j'ai vu ma chute Ah chut ! Plus la peine de jouer de la flûte Balayé de ma vie, si j'te vois je n'sais pas si j'pourrais t'laisser Tu veux faire le fort OK tu veux faire le dur, tu vas finir blessé Un de perdu dix de retrouvé You might also like x4 Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés2</t>
+          <t>La famille, rien a changé J'suis sorti du placard et j'me suis rangé T'étais mon re-frè mais parlons français Aujourd'hui, on est comme deux étrangers J't'ai donné mon dos, t'as tenté de m'étrangler T'as pointé ton gun vers moi mais t'as tremblé Le pardon, c'est pour les humains Espèce de chien, t'auras pas l'mien Trahi par un pote, qui en fait, était une pute qui voulait m'baiser T'as voulu faire le fort, ouais t'as voulu faire le dur T'as finis blessé Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés T'étais pas un pote, nan J'leur ai dis t'étais une pute On a baissé ton froc, nan T'avais rien dans le fute J'suis encore sous le choc Du sommet, j'ai vu ma chute Ah chut ! Plus la peine de jouer de la flûte Balayé de ma vie, si j'te vois je n'sais pas si j'pourrais t'laisser Tu veux faire le fort OK tu veux faire le dur, tu vas finir blessé Un de perdu dix de retrouvé x4 Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés2</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise Si tu veux savoir qui je suis, essaie de me soulever sur mon plumard Si tu veux savoir où j'en suis, j'en suis 300 000 euros plus tard Ils ont vendu la peau de la Beingance, avant de l'avoir débeusser Lave pas ton linge sale en public, si tu veux pas te faire repasser Oh, Givenchy, c'est la vivance quant à chez choi, c'est la jouissance Elle est attirée par la puissance moitié affaiblie par la cuissance T'as des doutes sur ta go, donc tu la fais pister par un de tes gars les plus fidèles Tu pensais que tu portais le caleçon pendant qu'on lui tirait le string ficelle L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise You might also like Après une nuit que des putrines, ne m'parlez pas de Cendrillon Nous sommes bien avant la naissance depuis que je suis embryon Garde à vue, dépôt arrivant, et ça, même quand je suis innocent Libère Abdari chez Vuitton je me soucie plus d'savoir, ça fait bien con Les jeux sont faits, les dés sont pimpés à quoi bon, ça va être réglo Un pied au loulou dans le showbiz un pied en pierre dans le bendo Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise5</t>
+          <t>L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise Si tu veux savoir qui je suis, essaie de me soulever sur mon plumard Si tu veux savoir où j'en suis, j'en suis 300 000 euros plus tard Ils ont vendu la peau de la Beingance, avant de l'avoir débeusser Lave pas ton linge sale en public, si tu veux pas te faire repasser Oh, Givenchy, c'est la vivance quant à chez choi, c'est la jouissance Elle est attirée par la puissance moitié affaiblie par la cuissance T'as des doutes sur ta go, donc tu la fais pister par un de tes gars les plus fidèles Tu pensais que tu portais le caleçon pendant qu'on lui tirait le string ficelle L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise Après une nuit que des putrines, ne m'parlez pas de Cendrillon Nous sommes bien avant la naissance depuis que je suis embryon Garde à vue, dépôt arrivant, et ça, même quand je suis innocent Libère Abdari chez Vuitton je me soucie plus d'savoir, ça fait bien con Les jeux sont faits, les dés sont pimpés à quoi bon, ça va être réglo Un pied au loulou dans le showbiz un pied en pierre dans le bendo Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise5</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Toute ma vie, j'ai vécu des choses Mais j'en ai encore plus à dire Abou Debeing Eh steuplait, coupe-moi l'instru, coupe-moi l'instru Toujours éloigné j'ai toujours pris des baffes y'a toujours eu d'la casse Aujourd'hui c'est la tôle, y'a vingt ans d'ça c'était la DDASS Haine viscerale, dièses illégales, peine misérable Feigne inégale, règne intégral Drogue végétales, kiff équitable Et quand ça parle en litrons y'a des miss véritables Nous, on aime les mioches qui t'font les poches Qui t'font tomber les morches, on veut qu'les keufs nous torchent On t'vole ton Porsche tu morfles chez nous c'est moche Par ici, c'est Paris Est Ceux qui s'manifestent, vendeurs d'emphèt' on bouffera pas les restes J'veux m'reproduire, faire du blé pas être adulé Pour m'empêcher d'éjaculer faudra m'émasculer Élève du fond d'la classe élément perturbateur Un jet d'cutter et on t'change un instructeur en éducateur Un parcours mémorable, des choix pas très honorables J'ai compris qu'vivre c'est une vérité générale J'parle de rue donc j'suis cru dans mes sons J'ai compris qu'vivre c'est une vérité générale J'perds mon temps, du biff et du sang J'ai compris qu'vivre c'est une vérité générale Chacun sa merde chacun son caviar J'ai compris qu'vivre c'est une vérité générale J'me fie au destin bats les couilles du hasard J'ai compris qu'vivre c'est une vérité générale You might also like Destin fataliste, tu veux qu'j'idéalise ? Devant la proc' j'ai besoin d'un pénaliste j'suis réaliste Trop d'fois pris dans les filets j'ai mis mon hat trick Une vie d'star j'signe pas des autographes j'signe des articles Si t'as pas compris j'répète on est des saloperies On préfère pourrir en son-pri qu'être libre avec le frigo vide On aime les filles jolies, la bave qui t'fige au lit Cocaïne à prix torride, kilos d'shit, p'tit bolide J'dis pas ça avec ironie, pour protéger leurs surs certains leur excisent le clitoris Des bastos dans l'corps, des torpilles dans l'paquebot J'préfère couler, que me faire mener en bateau Pes-stu, vols aggravés on en a bavé Sur l'pavé, tape un bravé avant d'se gaver Dans ma cellule j'fais des pompes j'affûte ma silhouette Laisse parler ces girouettes j'vais leur faire faire des pirouettes Y'a une diff' entre c'que t'as fais, et c'que t'aurais pu C'qui est sûr affamés corrompus finissent les os rompus On sait comment ça finit une fois qu'c'est parti Bluffés par les tunes et pris dans les griffes des harpies Incarcéré trop jeune j'ressens comme un gêne Quatre siècles de chaînes la vie une chienne j'ai ça dans les gênes J'aiguise mon shadow, j'accumule les brouillons À quoi sert d'être bruyant, quand ça part en brouille-em ? Silencieux règle tes contentieux n'aies rien d'prétentieux Pète un coup, et belek à pas laisser des traces de pneus Argent baise ou crime c'est notre ABC C'est soit tu mets la fessée soit on va t'rabaisser J'ai compris qu'vivre c'est une vérité générale Voilà, la meilleure leçon d'vie Tout est dit Debeinguerie2</t>
+          <t>Toute ma vie, j'ai vécu des choses Mais j'en ai encore plus à dire Abou Debeing Eh steuplait, coupe-moi l'instru, coupe-moi l'instru Toujours éloigné j'ai toujours pris des baffes y'a toujours eu d'la casse Aujourd'hui c'est la tôle, y'a vingt ans d'ça c'était la DDASS Haine viscerale, dièses illégales, peine misérable Feigne inégale, règne intégral Drogue végétales, kiff équitable Et quand ça parle en litrons y'a des miss véritables Nous, on aime les mioches qui t'font les poches Qui t'font tomber les morches, on veut qu'les keufs nous torchent On t'vole ton Porsche tu morfles chez nous c'est moche Par ici, c'est Paris Est Ceux qui s'manifestent, vendeurs d'emphèt' on bouffera pas les restes J'veux m'reproduire, faire du blé pas être adulé Pour m'empêcher d'éjaculer faudra m'émasculer Élève du fond d'la classe élément perturbateur Un jet d'cutter et on t'change un instructeur en éducateur Un parcours mémorable, des choix pas très honorables J'ai compris qu'vivre c'est une vérité générale J'parle de rue donc j'suis cru dans mes sons J'ai compris qu'vivre c'est une vérité générale J'perds mon temps, du biff et du sang J'ai compris qu'vivre c'est une vérité générale Chacun sa merde chacun son caviar J'ai compris qu'vivre c'est une vérité générale J'me fie au destin bats les couilles du hasard J'ai compris qu'vivre c'est une vérité générale Destin fataliste, tu veux qu'j'idéalise ? Devant la proc' j'ai besoin d'un pénaliste j'suis réaliste Trop d'fois pris dans les filets j'ai mis mon hat trick Une vie d'star j'signe pas des autographes j'signe des articles Si t'as pas compris j'répète on est des saloperies On préfère pourrir en son-pri qu'être libre avec le frigo vide On aime les filles jolies, la bave qui t'fige au lit Cocaïne à prix torride, kilos d'shit, p'tit bolide J'dis pas ça avec ironie, pour protéger leurs surs certains leur excisent le clitoris Des bastos dans l'corps, des torpilles dans l'paquebot J'préfère couler, que me faire mener en bateau Pes-stu, vols aggravés on en a bavé Sur l'pavé, tape un bravé avant d'se gaver Dans ma cellule j'fais des pompes j'affûte ma silhouette Laisse parler ces girouettes j'vais leur faire faire des pirouettes Y'a une diff' entre c'que t'as fais, et c'que t'aurais pu C'qui est sûr affamés corrompus finissent les os rompus On sait comment ça finit une fois qu'c'est parti Bluffés par les tunes et pris dans les griffes des harpies Incarcéré trop jeune j'ressens comme un gêne Quatre siècles de chaînes la vie une chienne j'ai ça dans les gênes J'aiguise mon shadow, j'accumule les brouillons À quoi sert d'être bruyant, quand ça part en brouille-em ? Silencieux règle tes contentieux n'aies rien d'prétentieux Pète un coup, et belek à pas laisser des traces de pneus Argent baise ou crime c'est notre ABC C'est soit tu mets la fessée soit on va t'rabaisser J'ai compris qu'vivre c'est une vérité générale Voilà, la meilleure leçon d'vie Tout est dit Debeinguerie2</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas You might also like Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
+          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Black card dans la poche pourtant je sors du placard A la table que des vikings, j'suis en Ragnar Mais sappé en Versace, pas de bagarre 3attaï le hakka peut les hagar J'étais sur les bancs de la té-ci, pas de la muscu Frapper les commissaires, ça m'amuse plus calbut', la street j'l'enlève son string et jla culbute , jvais la mousser Elle espère que j'vais la bouffer Mon re-noi tes en fin de vie, t'es essoufflé 100 000 j'peux t'les pousser, te les pousser Hey, tu peux bomber le torse mais cest elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Gringo dinero mucho J'espère toi tu m'oublieras comme Larusso Clés du succès, j'ai le trousseau Combo originaire, j'sors de l'ordinaire Avant j'avais centaines d'euros, aujourd'hui j'ai milliers d'euros Si elle me michtonne, j'fais une heureuse J'peux refaire sa vie, nan va pas trop parler Tête à tête dans une petite allée J'prends un dessert même si la facture est salée Après quelques verres, elle s'laisse aller, elle se laisse aller, ah oui You might also like Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior J'ai l'attitude du warrior J'ai l'attitude du warrior</t>
+          <t>Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Black card dans la poche pourtant je sors du placard A la table que des vikings, j'suis en Ragnar Mais sappé en Versace, pas de bagarre 3attaï le hakka peut les hagar J'étais sur les bancs de la té-ci, pas de la muscu Frapper les commissaires, ça m'amuse plus calbut', la street j'l'enlève son string et jla culbute , jvais la mousser Elle espère que j'vais la bouffer Mon re-noi tes en fin de vie, t'es essoufflé 100 000 j'peux t'les pousser, te les pousser Hey, tu peux bomber le torse mais cest elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Gringo dinero mucho J'espère toi tu m'oublieras comme Larusso Clés du succès, j'ai le trousseau Combo originaire, j'sors de l'ordinaire Avant j'avais centaines d'euros, aujourd'hui j'ai milliers d'euros Si elle me michtonne, j'fais une heureuse J'peux refaire sa vie, nan va pas trop parler Tête à tête dans une petite allée J'prends un dessert même si la facture est salée Après quelques verres, elle s'laisse aller, elle se laisse aller, ah oui Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior J'ai l'attitude du warrior J'ai l'attitude du warrior</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Yeah, remix Debeinguerie Il faut bien qu'je perce nan ? Ton boug est taillé comme un Golgoth On a l'habitude de casser des les-gueu avec nos pieds La musique de Dark Vador on va m'offrir quarante Grey Goose Elle aimerait que j'l'épouse moi j'veux juste qu'elle me les bouffe Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F Libertalia, Cristal, New's Café j'suis en place dans Paname J'suis XXX escorté par les gendarmes J'la laisse faire les préliminaires j'suis un gentleman Si tu m'vois pas plus d'trois jours, c'est qu'j'suis au hebs À part serrer les seufs après l'parlu y'a rien à F Y'a rien à F, y'a rien à F Si j'te baffe dans ton tieks, R.A.S Le même en tôle, dans la rue ou à Sony J'fais des pompes, j'casse des gueules mais j'suis très poli J'suis Ivoirien, j't'ai tapé dans l'il Viens on s'enjaille même si... You might also like Yeah, yeah Tous les loubards à ma table, n'aiment que les gros tassabas Pour un verre de Belvedere on t'fait danser le mapouka En tous cas, si on s'connait pas tu pourras pas m'louper Virgule Nike sur la tête et des Balenciaga aux pieds Dans la rue j'ai liquidé, quantité et qualité Au jugement pas inquiété, fuck j'suis pas acquitté Traîtrise gravité on t'maîtrise calibré Situation clarifiée Beriz, Wati-B ooh Alonzo m'a validé, j'vais baiser l'game comme t'as pas idée La force est avec nous les portes sont devant nous Les porcs sont derrière nous j'm'entaille même si... Ooh, Debeinguerie t'aimes trop la mala wAllah On va prendre une bouteille de Belvedere en guise de canne pour les MC qui boitent Wow, y'a rien à F</t>
+          <t>Yeah, remix Debeinguerie Il faut bien qu'je perce nan ? Ton boug est taillé comme un Golgoth On a l'habitude de casser des les-gueu avec nos pieds La musique de Dark Vador on va m'offrir quarante Grey Goose Elle aimerait que j'l'épouse moi j'veux juste qu'elle me les bouffe Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F Libertalia, Cristal, New's Café j'suis en place dans Paname J'suis XXX escorté par les gendarmes J'la laisse faire les préliminaires j'suis un gentleman Si tu m'vois pas plus d'trois jours, c'est qu'j'suis au hebs À part serrer les seufs après l'parlu y'a rien à F Y'a rien à F, y'a rien à F Si j'te baffe dans ton tieks, R.A.S Le même en tôle, dans la rue ou à Sony J'fais des pompes, j'casse des gueules mais j'suis très poli J'suis Ivoirien, j't'ai tapé dans l'il Viens on s'enjaille même si... Yeah, yeah Tous les loubards à ma table, n'aiment que les gros tassabas Pour un verre de Belvedere on t'fait danser le mapouka En tous cas, si on s'connait pas tu pourras pas m'louper Virgule Nike sur la tête et des Balenciaga aux pieds Dans la rue j'ai liquidé, quantité et qualité Au jugement pas inquiété, fuck j'suis pas acquitté Traîtrise gravité on t'maîtrise calibré Situation clarifiée Beriz, Wati-B ooh Alonzo m'a validé, j'vais baiser l'game comme t'as pas idée La force est avec nous les portes sont devant nous Les porcs sont derrière nous j'm'entaille même si... Ooh, Debeinguerie t'aimes trop la mala wAllah On va prendre une bouteille de Belvedere en guise de canne pour les MC qui boitent Wow, y'a rien à F</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>On fait pas de quartier une balle dans la lunette quand on vise, mon gava C'est sur des flaques d'urine ou bien des flaques de sang qu'on glisse, mon gava Un casier deviergé depuis mineur, je sens bien que l'Etat nous pointe, mon gava Les juges, les procs et même ces bâtards de baveux, c'est eux que je pointe, mon gava Nous on sort du bloc, on a mangé des pierres, mon gava On en chie des cailloux blancs, quand on craque, mon gava J'ai vendu de la dope, j'te mens pas j'ai le mort, mon gava Fuck that shit, j'avais les mains dans la merde, mon gava Dis à tes gars de se taire, si ils croient mieux faire qu'ils montent en feat, mon gava Ici des corps se terrent qu'on croise le fer, c'est la street, mon gava Bouches terre-par, té-gou, goudron baffes, coups de front, coups de barre, coups de pompe Rien de commun, ici pas de coups de main pas de coups de cur, ici que des coups de reins C'est Debeing, j'ai le flow, j'ai le fond , je m'exprime, j'ai le style j'ai la rime J'suis marqué par la vie, je décris pas la street, ce que j'écris je le vis Pas numéro un, mais je ferai tout pour si t'as pris des ailes, t'inquiètes on coupe court Pas de temps à perdre dans des concours j'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu You might also like On a des marques de fouets dans le dos, y aura des traces de spermes dans leur colons mon gava On veut finir dans la soie, nos ancêtres ont commencé dans les champs de coton mon gava 400 ans, faut qu'on pète un plomb, c'était trop long mon gava Le revers de la médaille, les esclaves se déchaînent sur les colons mon gava Tu nous rentres dedans, soit pas hésitant mais faut se décider Y a des groupes en dicident et des résistants qui vont se désister Tellement dans la Street que t'avais l'impression que j'étais pétrifié Si il y a une proie devant nous beh c'est évident qu'on va la déchiqueter J'suis peut-être un rappeur mais toi pour qui tu t'es pris mon gava T'es dans ton rôle d'acteur, dans tes récits c'es ma vie que tu décris mon gava On saigne, quelques règles on transgresse sur l'terrain des fois des balles nous transpercent Chez nous on agresse, pas de tendresse on t'arrache ton Hublot car le temps presse Aujourd'hui mon compte est vide et j'suis un mec simple si demain il se remplit j'serais un mec humble J'ai la dalle, j'vais forcer le destin si jatteins mon but j'vais déguster un festin Fuck léchelle de Richter, chaque 16 provoque des secousses Pas là pour entrer dans les critères j'pars en guerre comme un zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu</t>
+          <t>On fait pas de quartier une balle dans la lunette quand on vise, mon gava C'est sur des flaques d'urine ou bien des flaques de sang qu'on glisse, mon gava Un casier deviergé depuis mineur, je sens bien que l'Etat nous pointe, mon gava Les juges, les procs et même ces bâtards de baveux, c'est eux que je pointe, mon gava Nous on sort du bloc, on a mangé des pierres, mon gava On en chie des cailloux blancs, quand on craque, mon gava J'ai vendu de la dope, j'te mens pas j'ai le mort, mon gava Fuck that shit, j'avais les mains dans la merde, mon gava Dis à tes gars de se taire, si ils croient mieux faire qu'ils montent en feat, mon gava Ici des corps se terrent qu'on croise le fer, c'est la street, mon gava Bouches terre-par, té-gou, goudron baffes, coups de front, coups de barre, coups de pompe Rien de commun, ici pas de coups de main pas de coups de cur, ici que des coups de reins C'est Debeing, j'ai le flow, j'ai le fond , je m'exprime, j'ai le style j'ai la rime J'suis marqué par la vie, je décris pas la street, ce que j'écris je le vis Pas numéro un, mais je ferai tout pour si t'as pris des ailes, t'inquiètes on coupe court Pas de temps à perdre dans des concours j'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu On a des marques de fouets dans le dos, y aura des traces de spermes dans leur colons mon gava On veut finir dans la soie, nos ancêtres ont commencé dans les champs de coton mon gava 400 ans, faut qu'on pète un plomb, c'était trop long mon gava Le revers de la médaille, les esclaves se déchaînent sur les colons mon gava Tu nous rentres dedans, soit pas hésitant mais faut se décider Y a des groupes en dicident et des résistants qui vont se désister Tellement dans la Street que t'avais l'impression que j'étais pétrifié Si il y a une proie devant nous beh c'est évident qu'on va la déchiqueter J'suis peut-être un rappeur mais toi pour qui tu t'es pris mon gava T'es dans ton rôle d'acteur, dans tes récits c'es ma vie que tu décris mon gava On saigne, quelques règles on transgresse sur l'terrain des fois des balles nous transpercent Chez nous on agresse, pas de tendresse on t'arrache ton Hublot car le temps presse Aujourd'hui mon compte est vide et j'suis un mec simple si demain il se remplit j'serais un mec humble J'ai la dalle, j'vais forcer le destin si jatteins mon but j'vais déguster un festin Fuck léchelle de Richter, chaque 16 provoque des secousses Pas là pour entrer dans les critères j'pars en guerre comme un zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu J'pars en guerre comme un Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu Zulu eh Zulu</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Abou_Debeing_songs.xlsx
+++ b/data/02_intermediate/cleaned_Abou_Debeing_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hasta la vista</t>
+          <t>Tout ce qu’il faut</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>Je te vois je, je, je, je te vois Pas besoin, pas, pas, pas, pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège eh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu as tout c'qu'il faut Tu n'as rien à envier à aucune go Tu n'as rien à voir avec ces bimbos Tu n'as pas le vécu de ces michtos Les hommes rêvent de t'avoir en binôme à huit clos Tout c'qu'il faut Ma go, quand t'es là je n'vois pas les autres Ah ! J't'ai vue direct, j't'ai mise sur le tec', tec', tec' Oui la belle, elle m'a rendu trop bête, bête, bête Sans blague, viens on se met d'acc', d'acc', d'acc' Donne moi ta main, j't'enfile la bague, bague, bague Trop parler peut tuer, j'vais peut-être m'enterrer vivant Pour toi, pour toi, m'enterrer vivant J'te briefe, on fera la diff', diff', diff' Love to love, ça sera le kiff, kiff, kiff Si l'amour rend aveugle, tu m'as crevé les yeux J'te suivrai pour le meilleur et l'pire, pire, pire Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop La nuit tombée, elle sort de son trou Je l'aperçois mais je trace ma route Ils te trouvent tous bonne, j'en pense pas moins Regarde moi ces gav, ils perdent leurs moyens J'ai vu que tu m'as vu entouré d'mes zins Mais tu ne m'approche pas, tu veux pas passer pour une michto Tu sais que mon charisme parle de lui-même Henoune, j'peux te faire oublier que t'es belle Tu me vois devant toi, demain sur Snapchat Tu ne m'oublieras pas j'suis déjà dans une autre go, une autre go Tu n'as pas besoin d'en faire trop No, no, no, no, no, no, no, no, no, no Elle a un petit bodjo, eh oh Mais ça dérange pas parce que sheguey n'aime que les gros lolos Elle est che-fraî, oui elle est nne-bo Elle me fait cracher plus vite que le dernier Lambo Elle s'en fout des siste-gro, remballe ta gue-dro Dans son répertoire c'est Messi, Ronaldo Donc arrête de chercher son numéro Elle s'en fout d'la saint Valentin Tout c'qu'elle veut, c'est des Valentino Si t'es nne-bo, monte dans le Merco Bébé, oui j'ai tout c'qu'il faut Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège Eh !</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tout ce qu’il faut</t>
+          <t>Mes défauts</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Je te vois je, je, je, je te vois Pas besoin, pas, pas, pas, pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège eh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu as tout c'qu'il faut Tu n'as rien à envier à aucune go Tu n'as rien à voir avec ces bimbos Tu n'as pas le vécu de ces michtos Les hommes rêvent de t'avoir en binôme à huit clos Tout c'qu'il faut Ma go, quand t'es là je n'vois pas les autres Ah ! J't'ai vue direct, j't'ai mise sur le tec', tec', tec' Oui la belle, elle m'a rendu trop bête, bête, bête Sans blague, viens on se met d'acc', d'acc', d'acc' Donne moi ta main, j't'enfile la bague, bague, bague Trop parler peut tuer, j'vais peut-être m'enterrer vivant Pour toi, pour toi, m'enterrer vivant J'te briefe, on fera la diff', diff', diff' Love to love, ça sera le kiff, kiff, kiff Si l'amour rend aveugle, tu m'as crevé les yeux J'te suivrai pour le meilleur et l'pire, pire, pire Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop La nuit tombée, elle sort de son trou Je l'aperçois mais je trace ma route Ils te trouvent tous bonne, j'en pense pas moins Regarde moi ces gav, ils perdent leurs moyens J'ai vu que tu m'as vu entouré d'mes zins Mais tu ne m'approche pas, tu veux pas passer pour une michto Tu sais que mon charisme parle de lui-même Henoune, j'peux te faire oublier que t'es belle Tu me vois devant toi, demain sur Snapchat Tu ne m'oublieras pas j'suis déjà dans une autre go, une autre go Tu n'as pas besoin d'en faire trop No, no, no, no, no, no, no, no, no, no Elle a un petit bodjo, eh oh Mais ça dérange pas parce que sheguey n'aime que les gros lolos Elle est che-fraî, oui elle est nne-bo Elle me fait cracher plus vite que le dernier Lambo Elle s'en fout des siste-gro, remballe ta gue-dro Dans son répertoire c'est Messi, Ronaldo Donc arrête de chercher son numéro Elle s'en fout d'la saint Valentin Tout c'qu'elle veut, c'est des Valentino Si t'es nne-bo, monte dans le Merco Bébé, oui j'ai tout c'qu'il faut Je te vois ne t'en fais pas je te vois ne t'en fais pas Oh ! Je te vois ne t'en fais pas je te vois ne t'en fais pas Tu as tout c'qu'il faut où il faut Tu as tout c'qu'il faut où il faut Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop Tu n'as pas besoin d'en faire trop Pas besoin d'en faire trop pas besoin d'en faire trop T'es la reine de la jungle Tu n'as rien à craindre Tu les as rendu bêtes Beaucoup d'entre eux t'tournent autour comme des vautours Et moi, tu ne le sais pas, mais je te protège Eh !</t>
+          <t>Il n'est pas comme les autres, il a un vrai charisme Pas d'ceux qui parlent, il est de ceux qui agissent Il a demandé ma main, il est allé voir ma mère Il veut nous tirer vers le haut et nous sortir d'la merde Car il est un 2.0, pas un super-héros J'me souviens du jour, il a demandé mon numéro Un plus un ça fait deux, lui plus moi ça fait nous On est parti de rien, et c'est ça qui fait tout Je sais que c'est compliqué eh eh, les gens ne comprennent pas ah ah Mais j'peux pas t'expliquer eh eh eh, tout ça, ça se contrôle pas ah ah C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'suis le dernier des pirates, ouais le dernier des pirates Pour me ranger où il a fallu un miracle Les gos c'étaient mon dada, derrière moi que des cadavres J'étais pas un gars fidèle, pourtant j'étais un gabra J'veux t'ouvrir les yeux, t'es prête à tout donner Avec les mains, mais t'as le dos tourné Une guerre à 2.0, c'est des blêmes 2.0 C'est des jalouses 2.0, et des envieux 2.0 Je sais que c'est compliqué eh eh, les gens n'te comprennent pas T'aimerais leur expliquer eh eh eh, mais ça n'se contrôle pas C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité Tous mes défauts ah, j'vois tous mes défauts na Hum tous mes défauts na na na na na na, j'vois tous mes défauts yeah eh eh Hum tout tout tout tout na na na, j'vois tous mes défauts oh ah ah Hum tout tout tout tout na na, j'vois tous mes défauts na na na na Hum hum hum na ah, tous mes défauts na ah ah ah Hum hum hum ah ah, tous mes défauts Yeah yeah1</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mes défauts</t>
+          <t>Pablo Picasso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Il n'est pas comme les autres, il a un vrai charisme Pas d'ceux qui parlent, il est de ceux qui agissent Il a demandé ma main, il est allé voir ma mère Il veut nous tirer vers le haut et nous sortir d'la merde Car il est un 2.0, pas un super-héros J'me souviens du jour, il a demandé mon numéro Un plus un ça fait deux, lui plus moi ça fait nous On est parti de rien, et c'est ça qui fait tout Je sais que c'est compliqué eh eh, les gens ne comprennent pas ah ah Mais j'peux pas t'expliquer eh eh eh, tout ça, ça se contrôle pas ah ah C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'suis le dernier des pirates, ouais le dernier des pirates Pour me ranger où il a fallu un miracle Les gos c'étaient mon dada, derrière moi que des cadavres J'étais pas un gars fidèle, pourtant j'étais un gabra J'veux t'ouvrir les yeux, t'es prête à tout donner Avec les mains, mais t'as le dos tourné Une guerre à 2.0, c'est des blêmes 2.0 C'est des jalouses 2.0, et des envieux 2.0 Je sais que c'est compliqué eh eh, les gens n'te comprennent pas T'aimerais leur expliquer eh eh eh, mais ça n'se contrôle pas C'est parce qu'il est comme moi il est comme moi Que je le veux pas pour toi je le veux pas pour toi Et quand je parle dans ta tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite C'est parce qu'il est comme toi il est comme toi Que je le veux pour moi je le veux pour moi Quand tu parles dans ma tête Ça rentre par la gauche, ça ressort par la droite ça ressort par la droite J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité J'vois tous mes défauts, j'vois toutes tes qualités T'es dans l'faux, j'suis dans la vérité Tous mes défauts ah, j'vois tous mes défauts na Hum tous mes défauts na na na na na na, j'vois tous mes défauts yeah eh eh Hum tout tout tout tout na na na, j'vois tous mes défauts oh ah ah Hum tout tout tout tout na na, j'vois tous mes défauts na na na na Hum hum hum na ah, tous mes défauts na ah ah ah Hum hum hum ah ah, tous mes défauts Yeah yeah1</t>
+          <t>Le style est de Paname Paname M'as-tu bien vu ? Je n'ai absolument rien de banal B'nal Je vais les mettre KO KO, teste et t'y laisse ta peau Ta peau Si je te parle d'amour et que sans vergogne ma chérie tu me parles d'euros, bitch ne me parle pas trop Brah, brah On veut caresser l'million avant les 30 piges Retourner dans la hass me rendrait plus si gentil Tu l'aimes, elle te traite comme un cabot T'es prêt à t'en mettre ta miff' à dos La haine et la jalousie me guettent ces temps-ci Pourquoi m'sourire p'tit enculé, si tu m'envies ? Le temps sélectionne les vrais des faux Et bizarrement je n'te vois plus mon soss Où sont ces mecs qui, avant, faisaient les beaux ? On va vous gifler, ça va vous faire tout drôle Ça vient du 7.5, oui c'est la neuvième zone Argent et respect nous, nous sommes dans ces choses Tout ce que tu peux faire c'est parler sur nos côtes Que peux-tu faire d'autre quand la barre est trop haute ? Aucun de nos rivaux Ne peut prétendre avoir plus de flow Jamais Pablo Picasso Pablo Picasso, Pablo Picasso J'te refais le portrait vite ait-f à la pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso O.K Un pied dans le game, deux pieds dans le game Lion Noir depuis la crèche shit, mon rap je l'écris au pinceau Picasso Flow coké, c'est ma Dope Pablo, j'fais l'effet d'un rail de coke El Diablo Mes baskets sentent l'ennemi, pénalty, t'as la gueule niquée oh shit Akatsuki dans la son-mai Lets get it faire de la monnaie Fall m'a conseillé Dites lui j'me suis orienté vers le sommet Prince D.A.D.J, qui va me dire quoi? Devenir plus fort est leur unique stratégie Château Rouge, Brazza, Kin', Matonge, et Belgique, j'suis plus congolais que Paris est magique J'entends mon blaze, on m'appelle pour un selfie, comment s'contenter d'une seule fille? Bien trop d'péchés pour une seule vie, papa est fier de ses se-fil' Et même ton Koro, des koros, des koros, des koros, des koros, des koros me connaît Cette pute veut savoir ce que j'suis devenu depuis l'bach qu'elle m'a mit devant tout l'monde au collège Ok soirée foot, qui veut se marier? Une chance sur six t'es dans l'barillet Makélé retourne te maquiller, je t'aimais avant que tu sois révélée Rouge et noir, le peuple se questionne Comment fait l'Akatsuki? Et vu que chaque homme a besoin de sa lionne, je veux une femme comme Kouki à semi coquine Tu vois le croquis, les formes se dessinent, elle monte dans mon estime Y'en a sous le capot, je l'aime comme mes euros, t'as cerné le tableau Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso oh oh J'te refais le portrait vite ait-f pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso han J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Toujours dans ces choses, à se-l'ai dans mes shoes J'te refais le portrait pour mon honneur ou pour du flouze À ce qu'il parait, ils veulent ma peau, ils auront que ma blouse L'amour est dans le pré, j'ai trop la haine, j'ai grandi dans la brousse Ma chérie m'aimerais-tu si j'étais en loup? L'argent fait le bonheur et l'malheur des jaloux On fait des sous, on fait du sohr J'peux dessiner deux planètes sur ton boule Coach, fais moi rentrer, compte sur moi, j'vise le but J'ai des comptes à règler plus deux-trois fils de putes Rien à gagner tout à perdre, qu'est ce que tu veux que j'te dise de plus? À part qu'on prend des putains d'péchés dans le trafic de stup' L'oseille me dit Ti amo, Ti amo J'décroche, j'ai le diablo, j'dis Allô Ok que passa, à peine noir, j'sors du patio', j't'attrape au lasso On prend tout tes vassaux, sors l'fusil d'assaut, Pablo Picasso9</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pablo Picasso</t>
+          <t>TaÇaTwa</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Le style est de Paname Paname M'as-tu bien vu ? Je n'ai absolument rien de banal B'nal Je vais les mettre KO KO, teste et t'y laisse ta peau Ta peau Si je te parle d'amour et que sans vergogne ma chérie tu me parles d'euros, bitch ne me parle pas trop Brah, brah On veut caresser l'million avant les 30 piges Retourner dans la hass me rendrait plus si gentil Tu l'aimes, elle te traite comme un cabot T'es prêt à t'en mettre ta miff' à dos La haine et la jalousie me guettent ces temps-ci Pourquoi m'sourire p'tit enculé, si tu m'envies ? Le temps sélectionne les vrais des faux Et bizarrement je n'te vois plus mon soss Où sont ces mecs qui, avant, faisaient les beaux ? On va vous gifler, ça va vous faire tout drôle Ça vient du 7.5, oui c'est la neuvième zone Argent et respect nous, nous sommes dans ces choses Tout ce que tu peux faire c'est parler sur nos côtes Que peux-tu faire d'autre quand la barre est trop haute ? Aucun de nos rivaux Ne peut prétendre avoir plus de flow Jamais Pablo Picasso Pablo Picasso, Pablo Picasso J'te refais le portrait vite ait-f à la pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso O.K Un pied dans le game, deux pieds dans le game Lion Noir depuis la crèche shit, mon rap je l'écris au pinceau Picasso Flow coké, c'est ma Dope Pablo, j'fais l'effet d'un rail de coke El Diablo Mes baskets sentent l'ennemi, pénalty, t'as la gueule niquée oh shit Akatsuki dans la son-mai Lets get it faire de la monnaie Fall m'a conseillé Dites lui j'me suis orienté vers le sommet Prince D.A.D.J, qui va me dire quoi? Devenir plus fort est leur unique stratégie Château Rouge, Brazza, Kin', Matonge, et Belgique, j'suis plus congolais que Paris est magique J'entends mon blaze, on m'appelle pour un selfie, comment s'contenter d'une seule fille? Bien trop d'péchés pour une seule vie, papa est fier de ses se-fil' Et même ton Koro, des koros, des koros, des koros, des koros, des koros me connaît Cette pute veut savoir ce que j'suis devenu depuis l'bach qu'elle m'a mit devant tout l'monde au collège Ok soirée foot, qui veut se marier? Une chance sur six t'es dans l'barillet Makélé retourne te maquiller, je t'aimais avant que tu sois révélée Rouge et noir, le peuple se questionne Comment fait l'Akatsuki? Et vu que chaque homme a besoin de sa lionne, je veux une femme comme Kouki à semi coquine Tu vois le croquis, les formes se dessinent, elle monte dans mon estime Y'en a sous le capot, je l'aime comme mes euros, t'as cerné le tableau Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso oh oh J'te refais le portrait vite ait-f pointe de mon pinceau à la pointe de mon pinceau Pablo Picasso Pablo Picasso, Pablo Picasso han J'vois la vie en couleur, appelle-moi Pablo Picasso Pablo Picasso Pablo Picasso, Pablo Picasso Admire-moi bitch, je suis un tableau au Musée du Louvre Pablo Picasso Pablo Picasso, Pablo Picasso J'vois la vie en couleur, appelle-moi Pablo Picasso Toujours dans ces choses, à se-l'ai dans mes shoes J'te refais le portrait pour mon honneur ou pour du flouze À ce qu'il parait, ils veulent ma peau, ils auront que ma blouse L'amour est dans le pré, j'ai trop la haine, j'ai grandi dans la brousse Ma chérie m'aimerais-tu si j'étais en loup? L'argent fait le bonheur et l'malheur des jaloux On fait des sous, on fait du sohr J'peux dessiner deux planètes sur ton boule Coach, fais moi rentrer, compte sur moi, j'vise le but J'ai des comptes à règler plus deux-trois fils de putes Rien à gagner tout à perdre, qu'est ce que tu veux que j'te dise de plus? À part qu'on prend des putains d'péchés dans le trafic de stup' L'oseille me dit Ti amo, Ti amo J'décroche, j'ai le diablo, j'dis Allô Ok que passa, à peine noir, j'sors du patio', j't'attrape au lasso On prend tout tes vassaux, sors l'fusil d'assaut, Pablo Picasso9</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TaÇaTwa</t>
+          <t>Dernier arrêt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>Dernier des derniers, petits pas, petits pas Dernier des derniers, petits pas, petits pas Localisé, on t'a localisé, on va te traumatiser Pas l'habitude de rater quand nous ka viser Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Sur sol mouillé, derniers souliers pour pas glisser Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière descends Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends Viens si tu veux d'l'ambiance J'ai dit Viens si tu veux d'l'ambiance Tout dans l'mouv, tout dans l'apparence Elle veut mon nom c'est la Beingance Enchanté, j'suis de bonne humeur Ce soir, j'ai pas l'temps pour les rumeurs Tu m'analyses depuis une heure Pourquoi tu t'figes ? Faut pas qu't'aies peur J'ai l'dernier flow, les dernières sappes En vérité, j'suis le dernier gars On m'voit casser le dernier pas Regarde-moi, c'est p't-être la dernière fois Eh eh Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends ah, quitte là Organisés, on est organisés Cazalisés, chemisés, oui, la coupe est égalisée oui monsieur Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Tout en douceur comme si c'était légalisé Dernier arrêt, dernier des derniers, donc fais pas d'erreur Si tu n'es pas prêt, ressors pas derrière quitte là, petits pas, petits pas Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Nous, on y go, nous, on y go, t'es prêt ou pas ? Nous, on y go petits pas, petits pas, nous, on y go, t'es prêt pour ça ? Nous, on y go, t'es prêt ou pas ? Nous, on y go Hein hein, nous, on y go, dernier arrêt Si t'es pas prêt pour ça, descends Dernier des derniers Petits pas, petits pas Dernier des derniers des derniers Petits pas, petits pas Dernier des derniers... Nous, on y go ... des derniers Si t'es pas prêt pour ça, descends2</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Essaie encore</t>
+          <t>Adios</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Je ne comprends pas pourquoi vous men voulez Tout ce que jai eu je ne lai pas volé En bien ou en mal, je sais que ça parle de moi Si je t'ai fais du mal Pardonne moi Je me souviens de tous les moments forts de ma vie Tous les hypocrites sont hors de ma vue Je me rappelle de toutes ces nuits blanches dans Paris Les descentes de keuf en bas de ma rue Toute ces filles au cur fragile Qui mont aimé mais sans retour Je nai rien dis car je me méfie Je mouvrirais peut être un jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Trop rêveur J'aimerais voir ma vie en reverse Jai pris de lâge, du kilométrage La même rage, dis-leur Depuis le temps que je barode Les gens qui me disent Tu ny arriveras pas, jen ai vu dautres Depuis jai fait mon bout de chemin Mais limportance cest la fin, je dirais pas que jai commis aucune faute Paris ma ville, des comme elle, y'en a pas mille Mais sur le périph', je roule en pensant à une île Où il y aurait des gros requins en guise de videurs Une île où jirais me poser pour faire le vide Une île où personne ne parle de musique et de feat Pas la peine dappeler, y'a personne au bout du fil Jai pas changé donc arrêtez de vous faire des films Faut que jvous dise Adios, parce que rien que ma vie défile Adios, Adios Adios, Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios8</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dernier arrêt</t>
+          <t>Bounce</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dernier des derniers, petits pas, petits pas Dernier des derniers, petits pas, petits pas Localisé, on t'a localisé, on va te traumatiser Pas l'habitude de rater quand nous ka viser Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Sur sol mouillé, derniers souliers pour pas glisser Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière descends Dernier arrêt, dernier des derniers, donc fais marche arrière Descends sinon c'est la fin d'ta carrière quitte là, c'est la fin d'ta carrière Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends Viens si tu veux d'l'ambiance J'ai dit Viens si tu veux d'l'ambiance Tout dans l'mouv, tout dans l'apparence Elle veut mon nom c'est la Beingance Enchanté, j'suis de bonne humeur Ce soir, j'ai pas l'temps pour les rumeurs Tu m'analyses depuis une heure Pourquoi tu t'figes ? Faut pas qu't'aies peur J'ai l'dernier flow, les dernières sappes En vérité, j'suis le dernier gars On m'voit casser le dernier pas Regarde-moi, c'est p't-être la dernière fois Eh eh Arrête un peu de paniquer, respire Prends ta place sans dire merci Fais-nous voir ce que tu vaux Montre-nous c'que tu proposes Ou descends descends, descends descends Descends descends, dernier arrêt donc Descends descends, descends quitte là Tu n'peux pas tenir Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends ah, quitte là Organisés, on est organisés Cazalisés, chemisés, oui, la coupe est égalisée oui monsieur Petits pas synchronisés petits pas, petits pas sans s'alcooliser petits pas, petits pas Tout en douceur comme si c'était légalisé Dernier arrêt, dernier des derniers, donc fais pas d'erreur Si tu n'es pas prêt, ressors pas derrière quitte là, petits pas, petits pas Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends ah, quitte là Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Dernier arrêt ouh, le dernier Si tu n'es pas prêt pour ça, descends descends Dernier arrêt le dernier des derniers Tu n'es pas prêt pour ça, descends quitte là Nous, on y go, nous, on y go, t'es prêt ou pas ? Nous, on y go petits pas, petits pas, nous, on y go, t'es prêt pour ça ? Nous, on y go, t'es prêt ou pas ? Nous, on y go Hein hein, nous, on y go, dernier arrêt Si t'es pas prêt pour ça, descends Dernier des derniers Petits pas, petits pas Dernier des derniers des derniers Petits pas, petits pas Dernier des derniers... Nous, on y go ... des derniers Si t'es pas prêt pour ça, descends2</t>
+          <t>Me raconte pas ta vie, moi, j'ai pas l'temps C'est S.Pri Noir, ma grande, j'aime tes pas d'danse La robe qui moule ton corps est éclatante La manière dont tu bouges est épatante Tu veux du sale, on peut bosser Mais ne compte pas sur nous pour t'engrosser Trouve-moi au fond du club, j'suis adossé Beauté, entre tes ex et moi, y'a un fossé T'es mortelle du phonetel au Chuck Taylor Un cocktail à l'hôtel, tu m'donnes quelle heure ? Black, Being, Shin Sekaï, aucun d'nous n'est une pince Chérie, envoie ton dos, on veut juste que tu bounce T'as rien à m'prouver, j'te connais Rien dans la tête mais un corps siliconé Tu m'aimeras toujours plus que ton keumè Tant qu'je continuerai d'vivre à la télé Tu penses m'avoir sur le mental Et, si tu échoues, tu sauteras sur mon gars Tall J'le vois dans tes yeux, la confiance s'installe Pour toi, j'suis qu'un investissement rentable Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce B-b-bou-bounce, et si tu parles mal Je te monte et te jette de la Tour Montparnasse Dans ma tête, ton boule est magique, ton boule, c'est Paname Vas-y, bounce, oui, c'est ma façon de faire le canard J'ai du mal à reconnaître, oui, c'est tout moi Un pour la money, ça, c'est tout toi Donc, le Big Black, il se méfie, merci, salut les filles D't'façons, j'ai la bague au doigt, bien loin de la bac au bois Qu'est-ce que t'as ? T'es pas contente ? Bah casse-toi, tu perds ton temps Dédicace à Hilton, c'est les zèm' qui la michtonnent Je sais, j'suis un grand con mais, toi, t'es qu'une petite conne Oh merde, j't'imagine déjà dire qu'j'suis misogyne La daronne m'écoute à tout moment, je peux me prendre une gifle On aime les gros bails mais pas les fakes comme Nicki Pas besoin de communiquer, encore moins polémiquer Encore, l'Akats en redemande, ma chérie, on veut juste que tu bounce Donc t'es une fille correcte et pas une fille facile ? Bon, ok, sois honnête, t'es une fille maline Devant moi, tu caches tes formes, tu restes dans les normes Mon gava Tall m'a dit qu't'as secoué ton boule énorme Donc, pour toi, j'ferai le borgne Chez nous, on est prêt à tout pour soulever un bord Vas-y, parle, cause, cause, cause, cause toujours À l'heure qu'il est, mon ex court, court, court toujours Comme toutes les autres, tu vas faire un déni Au début, tu m'désires, à la fin, tu m'dénigres Arrête tes blagues, chérie, tu veux juste 'iller-bri' Si j'te recale, tu sauteras sur mon gars S.Pri Donc fuck, fuck, fuck tes appels de phare J'te stoppe, stoppe, t'es attiré par les stars C'est la pote de ta pote qui m'a 'lé-par' À part en robe dans mon lit, j't'emmène nulle part Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que... Stop, stop, stop, stop Devant toi, les gros poissons mordent à l'hameçon J'veux juste que tu bounce le truc comme mon ingé' son Tu veux rentrer dans ma vie par effraction Tu penses que j'vais tomber love, mais je n'suis pas assez con Que ce soit sur de l'afrobeat ou sur du reggaeton Quand t'es sur la piste, reconnais que les nuques se tordent Tu n'veux plus du RER et, pour te faire sortir Il me faudrait un Mercedes Benz minimum Est-ce que tu m'aimerais, et ce même si j'étais une pince ? Je n'crois pas, du moins je pense que les chances sont minces Si t'es princesse de la nuit, je n'serai pas ton prince Donc bounce... bounce Tout c'que mes gars veulent, c'est juste de te voir bounce Tu fais la fille sage mais, bon, tu finis par bounce Puisque tu aimes tant attirer l'attention, bounce Ma chérie, bounce Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce2</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adios</t>
+          <t>Chelou</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Je ne comprends pas pourquoi vous men voulez Tout ce que jai eu je ne lai pas volé En bien ou en mal, je sais que ça parle de moi Si je t'ai fais du mal Pardonne moi Je me souviens de tous les moments forts de ma vie Tous les hypocrites sont hors de ma vue Je me rappelle de toutes ces nuits blanches dans Paris Les descentes de keuf en bas de ma rue Toute ces filles au cur fragile Qui mont aimé mais sans retour Je nai rien dis car je me méfie Je mouvrirais peut être un jour La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Trop rêveur J'aimerais voir ma vie en reverse Jai pris de lâge, du kilométrage La même rage, dis-leur Depuis le temps que je barode Les gens qui me disent Tu ny arriveras pas, jen ai vu dautres Depuis jai fait mon bout de chemin Mais limportance cest la fin, je dirais pas que jai commis aucune faute Paris ma ville, des comme elle, y'en a pas mille Mais sur le périph', je roule en pensant à une île Où il y aurait des gros requins en guise de videurs Une île où jirais me poser pour faire le vide Une île où personne ne parle de musique et de feat Pas la peine dappeler, y'a personne au bout du fil Jai pas changé donc arrêtez de vous faire des films Faut que jvous dise Adios, parce que rien que ma vie défile Adios, Adios Adios, Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios La nuit, je barode, posé dans mon gamos Je veux bombarder, on me dit vamos Mais je prends mon temps, je fais les choses Jusquau beau jour où j'vous dirai Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios Adios, Adios8</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bounce</t>
+          <t>#Tuvoulais</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Me raconte pas ta vie, moi, j'ai pas l'temps C'est S.Pri Noir, ma grande, j'aime tes pas d'danse La robe qui moule ton corps est éclatante La manière dont tu bouges est épatante Tu veux du sale, on peut bosser Mais ne compte pas sur nous pour t'engrosser Trouve-moi au fond du club, j'suis adossé Beauté, entre tes ex et moi, y'a un fossé T'es mortelle du phonetel au Chuck Taylor Un cocktail à l'hôtel, tu m'donnes quelle heure ? Black, Being, Shin Sekaï, aucun d'nous n'est une pince Chérie, envoie ton dos, on veut juste que tu bounce T'as rien à m'prouver, j'te connais Rien dans la tête mais un corps siliconé Tu m'aimeras toujours plus que ton keumè Tant qu'je continuerai d'vivre à la télé Tu penses m'avoir sur le mental Et, si tu échoues, tu sauteras sur mon gars Tall J'le vois dans tes yeux, la confiance s'installe Pour toi, j'suis qu'un investissement rentable Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce B-b-bou-bounce, et si tu parles mal Je te monte et te jette de la Tour Montparnasse Dans ma tête, ton boule est magique, ton boule, c'est Paname Vas-y, bounce, oui, c'est ma façon de faire le canard J'ai du mal à reconnaître, oui, c'est tout moi Un pour la money, ça, c'est tout toi Donc, le Big Black, il se méfie, merci, salut les filles D't'façons, j'ai la bague au doigt, bien loin de la bac au bois Qu'est-ce que t'as ? T'es pas contente ? Bah casse-toi, tu perds ton temps Dédicace à Hilton, c'est les zèm' qui la michtonnent Je sais, j'suis un grand con mais, toi, t'es qu'une petite conne Oh merde, j't'imagine déjà dire qu'j'suis misogyne La daronne m'écoute à tout moment, je peux me prendre une gifle On aime les gros bails mais pas les fakes comme Nicki Pas besoin de communiquer, encore moins polémiquer Encore, l'Akats en redemande, ma chérie, on veut juste que tu bounce Donc t'es une fille correcte et pas une fille facile ? Bon, ok, sois honnête, t'es une fille maline Devant moi, tu caches tes formes, tu restes dans les normes Mon gava Tall m'a dit qu't'as secoué ton boule énorme Donc, pour toi, j'ferai le borgne Chez nous, on est prêt à tout pour soulever un bord Vas-y, parle, cause, cause, cause, cause toujours À l'heure qu'il est, mon ex court, court, court toujours Comme toutes les autres, tu vas faire un déni Au début, tu m'désires, à la fin, tu m'dénigres Arrête tes blagues, chérie, tu veux juste 'iller-bri' Si j'te recale, tu sauteras sur mon gars S.Pri Donc fuck, fuck, fuck tes appels de phare J'te stoppe, stoppe, t'es attiré par les stars C'est la pote de ta pote qui m'a 'lé-par' À part en robe dans mon lit, j't'emmène nulle part Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que... Stop, stop, stop, stop Devant toi, les gros poissons mordent à l'hameçon J'veux juste que tu bounce le truc comme mon ingé' son Tu veux rentrer dans ma vie par effraction Tu penses que j'vais tomber love, mais je n'suis pas assez con Que ce soit sur de l'afrobeat ou sur du reggaeton Quand t'es sur la piste, reconnais que les nuques se tordent Tu n'veux plus du RER et, pour te faire sortir Il me faudrait un Mercedes Benz minimum Est-ce que tu m'aimerais, et ce même si j'étais une pince ? Je n'crois pas, du moins je pense que les chances sont minces Si t'es princesse de la nuit, je n'serai pas ton prince Donc bounce... bounce Tout c'que mes gars veulent, c'est juste de te voir bounce Tu fais la fille sage mais, bon, tu finis par bounce Puisque tu aimes tant attirer l'attention, bounce Ma chérie, bounce Tu dis qu'ensemble on vivra le big love, mais, dès qu'j'manquerai d'lovés, toi, t'iras vers un autre gars Soi-disant celle qui m'guide sur la bonne voie, mais, dès qu'j'aurai perdu ma voix, t'iras vers un autre gars Pas besoin qu'tu me félicites, toutes tes intentions ne m'incitent qu'à sortir la Black Card Donc épargne-nous tes histoires sans espoir, on t'laisse croire que tu nous auras, mais on veut juste que tu... Bounce, chérie On veut juste que tu bounce, chérie On veut juste que tu bounce2</t>
+          <t>Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Du mal à faire confiance à un homme Elle a bien raison ma belle dame Elle tape sur le tam-tam Sur mon répondeur quand je ne suis pas là Et pour rien au monde, je ne l'ai échanger Peau caramel, africaine un peu mélangée Personne avant elle n'a su me changer M'a ouvert ses bras en sachant qu'elle est en danger Elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont aucun effet Si ça sonne faux bima Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Avoue le ! J'ressemble à ton futur, pas ton ex Oui je sais ! Avec lui c'était pire, moi ça sera mieux Parlons de nous, comment on s'organise ? Comment faire pour que la relation s'éternise ? Regarde-moi, dis-moi si tu me crois, j'aimerais savoir Elle sais comment m'aborder quand je lui parle chinois Elle en a rien à foutre des billets Si ça sonne faux bima Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Parce quelle est bonne Oh oui elle est bonne ! Parce quelle est bonne, je pensais qu'elle était conne Parce qu'elle est belle, je pensais qu'elle était bête J'ai pas cherché le fond, j'ai juste trouver la forme Elle ma déclaré sa flamme Je l'ai éteind avec la flemme Va dans un sens, moi j'irais dans l'autre Je sais que ça fais mal ma chérie Yâko Mais elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont plus d'effet Si ça sonne faux bima Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi3</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chelou</t>
+          <t>Parle Pas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#Tuvoulais</t>
+          <t>Étoile filante</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Du mal à faire confiance à un homme Elle a bien raison ma belle dame Elle tape sur le tam-tam Sur mon répondeur quand je ne suis pas là Et pour rien au monde, je ne l'ai échanger Peau caramel, africaine un peu mélangée Personne avant elle n'a su me changer M'a ouvert ses bras en sachant qu'elle est en danger Elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont aucun effet Si ça sonne faux bima Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Avoue le ! J'ressemble à ton futur, pas ton ex Oui je sais ! Avec lui c'était pire, moi ça sera mieux Parlons de nous, comment on s'organise ? Comment faire pour que la relation s'éternise ? Regarde-moi, dis-moi si tu me crois, j'aimerais savoir Elle sais comment m'aborder quand je lui parle chinois Elle en a rien à foutre des billets Si ça sonne faux bima Elle veut me faire tomber Elle veut me faire tomber love Elle veut me faire tomber Elle veut me faire tomber love Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Parce quelle est bonne Oh oui elle est bonne ! Parce quelle est bonne, je pensais qu'elle était conne Parce qu'elle est belle, je pensais qu'elle était bête J'ai pas cherché le fond, j'ai juste trouver la forme Elle ma déclaré sa flamme Je l'ai éteind avec la flemme Va dans un sens, moi j'irais dans l'autre Je sais que ça fais mal ma chérie Yâko Mais elle sais comment m'aborder quand je lui parle chinois Mes compliments n'ont plus d'effet Si ça sonne faux bima Elle m'a fait tomber Elle m'a fait tomber love Elle m'a fait tomber Elle m'a fait tomber love Les gars, j'suis tombé Les gars, j'suis tombé love Les gars, j'suis tombé Les gars, j'suis tombé love Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi Tu voulais, tu voulais Tu voulais, tu voulais que je sois à toi3</t>
+          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? J'suis plus crédible que la crédibilité J'rends plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Agressif comme un niama Mon succès t'pousse en en Asie comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve tout ce que le diable depréserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Au début</t>
+          <t>La danse de Paname</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>On est pas parisiens nous ? On est pas parisiens nous ? On est pas numéro 1 nous ? On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Parigo, vénin, gangster, dealer Footballeur, rappeur, plus chauvin tu meurs Parisienne nne-bo' Elle envoie des teilles-bou' comme un nambo Elle est pas attirée par les bobos Paris braque, car il fuck dans tes cocos Parle avec moi d'ici concrètement Que à but lucratif si je te le dis complètement Dans l'avion en business premier compartiment Je dépense, tu disposes tout pour comportement Article 1 d'la Parigo, Minimum 3.0 Je répète minimum 3.0, qu'on doit mettre à l'O.M pour Afrique Classico On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Posés dans les quartiers chics, tous ces fils de riches on les chope Soit dans le caleçon il y a du shit, soit je dois refaire ma carte dEurope Fleury freine XXX la santé Pour tes promenades je vais t'enrager comme un Rod Quatre ans plus trad je fais le tour du monde Rod en liberté t'as pas fait agir l'Europe Qui me connaît sur la capitale ? Bon je récapitule, hein quoi ? Articule Le corps dans la Seine même capitule Pirate et capitaine 7.5 matriculent J'supporte l'obèse, j'ai deux XXX Bien avant Neymar, un million de Quataris Paris peut pas me représenter, mon ami Il n'y a que moi qui peut représenter Paris On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On va prendre la Tour Eiffel nous Aux Champs-Élysées c'est nous XXX La danse de Paname</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parle Pas</t>
+          <t>La go</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Yeah Hanhan hanhan han Yeah Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Faites pas les guignols, les anciens j'les brise, les nouveaux j'les casse Prends tes gosses, niggaz, y'a d'l'action, la riposte les gaz Verre d'Écosse, nouvelle négoc', qui rêve de ter-sau Pégase ? Rien n'va plus, les games sont fait, j'retourne retourner Vegas Et ma gueule, toutes les règles on s'en bat les reins, cauchemar, Audemard, Balmain Y'a pas d'argent sale, y'a qu'des clochards qui s'lavent pas les mains Check le cercle, il tourne pas rond, fucking ceinture, foutu marron Quinze par showcase, quatre par semaine, c'est pas les p'tits sous du daron Déguisé en FARC dans le maquis comme les Corses J'cogne le torse, j'ai l'impact et j'jacte des tch tch comme le Bors Pas d'gestion, j't'envoie au tapis, premier round, pose pas de questions Tu m'connais pas quoi ? Moi, j'suis le seul bougnoule d'la Sexion Et j'prends debout, rappelle Kev Adams, j'ai un plan de fou C'est comment ? Ça fait un moment qu'j'suis l'rappeur du moment J'suis l'passeur, j'ai pas d'gros classeurs, de mots, ni d'grammaire C'est que la mère, toi tu m'donnes ta sur, toi tu niques ta mère Ça tremblote, c'est Grande Fianso pour le feat, ils s'tappent Sauer Sig, équipe Champions League, c'est pas l'city stade En tournée, en journée t'aboies, en soirée tu mords Rien qui vaille, Top 1 Spotify en Corée du Nord J'ai les bailles, Tchi-tchi prend la came ? Man aurais-tu l'or ? J'suis mainstream, ça danse en fôret, la choré du mort C't'année c'est mort, on refait tout le game, j'ai les grandes spatules Sans calcul, j'les tiens sans alcool sous mes tentacules Caille-ra plus, rafale dans l'carosse, j'reviens cribler l'bus J'prends l'week-end, j'remonte au huitième, j'check Olivier Lus' Faux rebèle, crise d'adolescence, t'as changé, tu campes Cartouché, couché, pas bougé, va ranger ta chambre, Fianso J'suis même pas à 30, comme Warano, j'suis pas à fond J'ai pété le million, mais je n'vais pas le dire sur chaque son Salam à tous les frères sauf Killuminati J'fais de l'ombre à la lumière, chouf j'illumine la ville Han, j'suis pas riche, j'suis un ex-pauvre Mes gros yeuse en expo', pour m'avoir en feat Ton rappeur essaye les sextos, ils font tous les mecs sombres Y'a que des mauvais exemples, vexant comme les Texans Mets-toi sur le tec' centre, pas le droit à l'échec, sans Victoire on te sép d'dans, ma gueule, ça fait 7 ans Que de septembre à septembre, j'tourne et je vois s'étendre Mon public de 7 ans à 77 ans Depuis l'époque de Sexion, toujours un pied dans le tieckson Renoi, tu le sais on a mis des corrections Rien ne me correspond, très peu d'entre eux resteront La plupart sont restreints, ne pose pas de questions Wesh, c'est quand qu'ils testent? ça kicke et y'a pas de mystère À force d'être dans l'game, j'suis un hypocryte comme les Lannister Mets-nous sur la liste frère, fuck les journalistes On va pas s'laisser distraire, on a trop de charisme Faites passer l'message sur vos putains de bandes FM J'suis tellement parisien, j'suis l'frère jumeau d'la Tour Eiffel J'triomphe comme l'Arc, j'ai un sacré cur J'suis de-spi comme Kylian au Parc, bah ouais, ça fait peur Les rappeurs ont une p'tite mine comme Meek Mill Qui s'est fait plaquer par Nicki comme une victime Enfin bref, moi j'suis dans ma p'tite ville en civil Les gens te diront, j'suis un chic type, c'est c'qui s'dit Y'a qu'un seul Black M, te demande pas si c'est l'faux Même ta grand-mère veut son selfie Y'a qu'les baltringues qui n'se rencontrent pas Mets le monde en face, j'ferai le contre-poids Beaucoup de moutons beaucoup de moutons, très peu de loups très peu de loups C'est c'foutu nombreux supérieur qui fait la loi Pourquoi ils veulent me pousser à bout ? à bout J'suis dans mon truc avec Debeing Abou ah bon ? La go m'énerve car elle est très conne très conne Mon prochain single sera très com' très com' Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Yeah, S.E.X.I.O.N., Fianso De 2002 à 2018 Yeah, toujours les mêmes Haha Où sont les kickers ? Où sont les streamers ?9</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dernière fois</t>
+          <t>Yin / Yang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>Si t'as d'jà parlé au poste hein, sois gentil n'me parle pas Dans mon cur y'a du monde, et pour toi y'a pas d'place Ouais je sais j'me rabat, ouais je sais j'ai pas d'barbe Adama me l'rappelle, fais salat t'as pas l'choix Mes larmes coulent sur mes frères, transformés en passoire Un mec bien qu'aimerait s'poser, j'arrive plus à m'asseoir J'reste debout et basta, nique sa mère j'suis pas stable T'es qu'une michto d'passage, une autre fille t'remplacera J'vais pas tout t'donner hein, juste mon corps mais pas d'cash Tu m'aimes pas c'est pas grave, mon succès t'embrassera Dans mon rap, y'a pas d'failles, sur mon chemin y a pas d'rails Tout me ment, mon pote Fall, tu me manques, j'suis autre part Wesh Meugi, on s'est connut en volant cette fille Regarde c'qu'on a vécu, elle est pas violente cette vie Descendre presque en Italie, remplir des Zéniths Ils savent pas qu'on est des frères avec ou sans la musique J'l'ai dans l'sang la musique, comme un virus nuisible Ouais sérieux, c'est easy pour nous d'faire des tubes ici Des frères me trahissent, qui m'entubent à domicile Si mes ancêtres sont des singes, akhi j'ai pas d'origine J'suis l'Yin et l'Yang en même temps, intelligent et méfiant On dépend tous d'un rectangle, carte bleue, billets d'banques Ça devient pas inquiétant, ça l'a toujours été Mais le croyant n's'inquiète pas, pour lui tout est réglé Votre opinion m'a stressé, j'me sens sans cesse agressé Par vos jugements mais laissez moi, j'ai déjà percé Qu'ils viennent tous me tester, j'vais les tenir en respect Plus de rimes que t'espères, plus de haine que d'espèces J'suis modeste et pépère mais viens pas teste un mec fier Une plaine et deux cow-boys peut vite devenir un western La beauté du monde réside dans l'visage de mes gosses Tout est paradoxal un peu comme l'histoire de Rick Ross J'suis un pirate de l'époque, un navire me suffit pas Et si l'capitaine me bloque, les conséquences il subira J'ai d'la sueur sur mes draps, même quand j'dors j'fais des efforts Ouais l'avenir me sourit pas car au bout il y a la mort Aucune crainte de perdre la vie mais d'rencontrer des anges hardcores Tu veux m'complimenter ? Viens pas couronner un mort Le frelon sort de taule, il a besoin d'se détendre Alcool et femme, laisse ber-tom, tu sais comment on s'distrait Oui le Diable est discret, introduit nos systèmes Nerveux et on s'y fait, Lucifer est si fier Shit, coke et misère, toi tu vis du deal d'herbe À part toucher le SMIC, j'me demande à quoi les flics servent Pardonnez-moi si j'rêve de les voir en civière Ceux qui pèsent le plus, sont au fond de la rivière Allô Abou, appelle des poufs, que l'démon se libère Ramène-nous des sirènes avec des langues de vipère Pour foncer dans un mur, pas besoin d'avoir ton mis-per Location de tombe, oui ça rémunère les cimetières T'chie pas dessus, fais l'bonhomme et t'auras pas une vie d'merde Regard vide remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire Paris by night à la recherche des acheteurs C'est pas pour trouver l'âme sur qu'on met nos pieds en after J'passe en débat différé si j'ai pas d'alibi Quand j'vais en Belgique, j'me dirige pas vers Walibi J'ai jamais rien compris aux maths, t'as vu Donc j'me retrouve à faire des ronds à tous les angles de rues Des récits fantastiques, des statistiques statiques On veut devenir obèse mais l'État sert d'anneau gastrique Quand j'voulais qu'on m'tende la patte, y'avait pas un chat On devait graille dans la même assiette mais t'en as fait ton plat Perce, tu vis un cauch' quand tu rêves Les gens te gonflent en espérant qu'tu crèves si un jour tu perces Haa, tu sens la rage quand j'parle Chez nous c'est soit les putes soit les keufs qui palpent C'est la même combine qu'on deal ou vende des compils Retourne dans tes comptes, pines pour éviter qu'on t'pille Ils veulent savoir si j'possède des biens d'grosse valeur J'me demande avec quelle arme j'vais affronter l'fossoyeur 10 ans plus tard j'suis toujours l'même putain d'gosse râleur J'tourne en radio sans qu'tu m'entendes, j'suis un ghost rideur J'étais mineur émancipé par des cas d'force majeur 17 ans en taule, sorti avec une force d'ailleurs J'ai la dalle, j'suis en chien, j'ai le mort d'ailleurs C'est c'qui a faillit nous faire braquer ces convoyeurs On était con voyons, loin d'être visionnaires On voulait juste baiser la rue en missionnaire On voulait s'déplumer, pour des prises de bec Ça jouait les gros bras aux premières prises de pecs Soit t'étais sur l'terrain soit t'étais mis sur l'tec' On savait exiler tous les fils de traîtres Les fils de traîtres ou les fils de lâches Ont baignés dans leur sang et ont pris le large M'dépasser pour mes gars, bâtard, j'ai l'art d'le faire J'prendrai la vie de celui qui veut enterrer mon H de guerre Rappelle-toi de nos cambriolages en l'an 2000 12 ans plus tard en cellule on s'tape des barres de rire J'connais Paris de fond en comble, ses côtés les plus sombres Tu dois noircir ton cur pour briller dans la pénombre J'ai volé, j'ai racketté, j'ai fait du mal à autrui La rue m'a instruit, mais la rue m'a détruit J'ai tabassé des gravons, j'avoue j'ai boxé des javons J'me suis aussi mangé des K.O., bouche ouverte sur l'carreau J'ai fait ma salat mais j'ai plus souvent commis des pêchés La question est-ce que ton gars Abou va s'faire repêcher ? Haa bref, assez, laisse le passé au passé Mon gars Maska m'appelle, ce soir y'a du gibier à chasser On s'capte à 9 heure pétante, j'suis pas ce qu'ils prétendent J'sors de taule, j'tire un coup juste histoire d'me détendre Peu importe la filière, j'veux pas toucher une misère J'finirai en civière ou comme tout l'monde au cimetière Te chie pas dessus, fais l'bonhomme, t'auras pas une vie d'merde Regard vide, remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire11</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lumière</t>
+          <t>Bye Bye</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah Je suis dégoûté de ce qu'il y a dans mon angle de vue Nous on rame dans la merde parce que tu donnes ton cul On vit de l'art de rue, chez nous y a pas de revenus Certains ont visés la lune et y sont parvenus Mais ne sont pas revenus En gros, toutes ces heures de colle ne nous ont pas retenus Je disais au prof d'anglais De quoi me parles-tu ? Chez nous ça sort le silencieux, ça ne parle plus On connaît les perquis', matraqués par les dékis Tu tombais dans nos filets, on te rackettait tes tennis Car en manque d'espace, très peu respirent et respectent En manque d'espèces, très peu restent peace Des fois pour du pain ça compte des centimes Obligés de jeûner quand y a du porc à la cantine J'ai des projets futurs, mais mon passé me suit À présent on me fuit et oublie qui je suis Debeing, j'ai la vingtaine, j'ai fait le tour de Paname Je sais qu'il faut en chier pour rentrer dans les annales C'est gonflant, je veux pas percer en me faisant pistonner Ni crever dans mon trou avec un pistolet Si t'as des révélations, fais des concessions Des prêtres demandent des fellations pendant les confessions Y a des propositions, je suis en opposition Je veux pas me faire baiser, donc je prends position Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah La rue m'a bercé dans ses bras Et m'a dit Non quand j'ai voulu partir Et j'ai vu du sang dans ses draps Bien évidemment, j'ai du partir Bye bye x94</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Étoile filante</t>
+          <t>Tout s’efface</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? J'suis plus crédible que la crédibilité J'rends plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Agressif comme un niama Mon succès t'pousse en en Asie comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve tout ce que le diable depréserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublié ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu ? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
+          <t>Oui j'ai des erreurs à regretter j'ai laissé passer du temps à espérer Je n'ai qu'une envie c'est de voir mes proches m'aimer je ne veux pas avoir à quémander le respect Je suis lessivé, excédé j'veux pas retourner déposer des CV Avec le temps crois moi poto rien n'est resté qui me pleureras quand je serais décédé ? Ouais et en face de ma classe je constate que je m'encrasse J'paierais de mon sang mes erreurs tôt ou tard j'aimerais que lallégresse m'embrasse Et les gens changent, tout s'efface on s'retrouve au point de départ On se sent mal, tout nous lasse mais j'reste de marbre, Tall J'ai cru que j'avais une triste histoire mais quand t'es dedans, dur d'y croire J'avais les menottes et la vie du chtar aujourd'hui pas loin de la vie de star Dans mon histoire des fautes dorthographes effacées par des autographes J'ai toujours cru que je touchais le fond mais je pète la forme et les choses se font J'étais dans le faux c'est une chose qui est vraie j'ai le sourire, rien ne m'effraie Le temps passe, la Terre tourne j'suis figé, jattends mon tour Mon gars Abou, j'suis à bout dur d'avancer les deux pieds dans la boue Notre enfance collège Paul Gauguin aujourd'hui faut qu'on amasse des gains, DeBeing Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Seigneur ayez pitié de moi le jour où je partirai j'ai peur d'avoir niqué ma vie à faire le passionné Je parle au nom de tout le monde, rien de personnel à vouloir aller trop vite on finit par saigner Malheureusement le temps nous appâte car il sait que j'suis dans de beaux draps Le Diable tente de noircir mon âme pendant que mes gars apprécient mon art Donc épargnez vos discours de taré Si la zik est un trou noir j'avance sans savoir où aller Des projets de papiers, loin des guerres de quartier J'suis venu écrire l'histoire si tout s'efface laisse les parler Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Le temps passe et passe et moi j'ai l'impression De tourner en rond malgré ma constante évolution Pas une ride sur le visage mais la pression De navrer mon daron, comment s'en sortir dans ce bas monde ? Le temps c'est devenu de l'argent mais y'a plus le temps de dépenser cet argent Fuck les plans, agis sur le moment la mort en Rolex s'impatiente Je ne suis qu'un homme que Dieu me pardonne aveuglé à la vue des sommes Le temps effacera-t-il tous mes défauts ? OohOoh Haa Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>La danse de Paname</t>
+          <t>Mi Amor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>On est pas parisiens nous ? On est pas parisiens nous ? On est pas numéro 1 nous ? On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Parigo, vénin, gangster, dealer Footballeur, rappeur, plus chauvin tu meurs Parisienne nne-bo' Elle envoie des teilles-bou' comme un nambo Elle est pas attirée par les bobos Paris braque, car il fuck dans tes cocos Parle avec moi d'ici concrètement Que à but lucratif si je te le dis complètement Dans l'avion en business premier compartiment Je dépense, tu disposes tout pour comportement Article 1 d'la Parigo, Minimum 3.0 Je répète minimum 3.0, qu'on doit mettre à l'O.M pour Afrique Classico On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Posés dans les quartiers chics, tous ces fils de riches on les chope Soit dans le caleçon il y a du shit, soit je dois refaire ma carte dEurope Fleury freine XXX la santé Pour tes promenades je vais t'enrager comme un Rod Quatre ans plus trad je fais le tour du monde Rod en liberté t'as pas fait agir l'Europe Qui me connaît sur la capitale ? Bon je récapitule, hein quoi ? Articule Le corps dans la Seine même capitule Pirate et capitaine 7.5 matriculent J'supporte l'obèse, j'ai deux XXX Bien avant Neymar, un million de Quataris Paris peut pas me représenter, mon ami Il n'y a que moi qui peut représenter Paris On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname Et on fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On fait quoi ? On fait la danse de Paname La danse de Paname, la danse de Paname On va prendre la Tour Eiffel nous Aux Champs-Élysées c'est nous XXX La danse de Paname</t>
+          <t>J'te voulais dans ma vie, voulais dans ma vie Mais t'as mis les voiles, mais t'as mis les voiles J'suis seul sur mon navire, seul sur mon navire J'avais besoin de toi, avais besoin de toi J'avoue j'ai pris du temps, j'avoue j'ai pris du temps Et toi t'en n'avais pas, tu voulais qu'on avance Mais bon tu me connais, en vrai on se connaît J'suis pas le genre de gars qui ment ou qui promet, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor T'étais une femme en or, t'étais une femme en or Tu voulais pas l'argent, tu voulais que mon temps Et j't'en n'ai pas donné, mais j't'en n'ai pas donné En vrai j'en n'avais pas, en fait j'en n'avais pas Mais avec du recul, avec du recul J'aurais pu t'en donner, j'ai fait un mauvais calcul Mais tu connais les hommes, tu connais les hommes Montrer ses sentiments, chez nous c'est ridicule, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor Mi amor, je te revois danser Danser, danser, danser, danser Je n'sais plus quoi penser Penser, penser, penser, penser Mi amor, mi amor, mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>La go</t>
+          <t>Boom</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yeah Hanhan hanhan han Yeah Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Faites pas les guignols, les anciens j'les brise, les nouveaux j'les casse Prends tes gosses, niggaz, y'a d'l'action, la riposte les gaz Verre d'Écosse, nouvelle négoc', qui rêve de ter-sau Pégase ? Rien n'va plus, les games sont fait, j'retourne retourner Vegas Et ma gueule, toutes les règles on s'en bat les reins, cauchemar, Audemard, Balmain Y'a pas d'argent sale, y'a qu'des clochards qui s'lavent pas les mains Check le cercle, il tourne pas rond, fucking ceinture, foutu marron Quinze par showcase, quatre par semaine, c'est pas les p'tits sous du daron Déguisé en FARC dans le maquis comme les Corses J'cogne le torse, j'ai l'impact et j'jacte des tch tch comme le Bors Pas d'gestion, j't'envoie au tapis, premier round, pose pas de questions Tu m'connais pas quoi ? Moi, j'suis le seul bougnoule d'la Sexion Et j'prends debout, rappelle Kev Adams, j'ai un plan de fou C'est comment ? Ça fait un moment qu'j'suis l'rappeur du moment J'suis l'passeur, j'ai pas d'gros classeurs, de mots, ni d'grammaire C'est que la mère, toi tu m'donnes ta sur, toi tu niques ta mère Ça tremblote, c'est Grande Fianso pour le feat, ils s'tappent Sauer Sig, équipe Champions League, c'est pas l'city stade En tournée, en journée t'aboies, en soirée tu mords Rien qui vaille, Top 1 Spotify en Corée du Nord J'ai les bailles, Tchi-tchi prend la came ? Man aurais-tu l'or ? J'suis mainstream, ça danse en fôret, la choré du mort C't'année c'est mort, on refait tout le game, j'ai les grandes spatules Sans calcul, j'les tiens sans alcool sous mes tentacules Caille-ra plus, rafale dans l'carosse, j'reviens cribler l'bus J'prends l'week-end, j'remonte au huitième, j'check Olivier Lus' Faux rebèle, crise d'adolescence, t'as changé, tu campes Cartouché, couché, pas bougé, va ranger ta chambre, Fianso J'suis même pas à 30, comme Warano, j'suis pas à fond J'ai pété le million, mais je n'vais pas le dire sur chaque son Salam à tous les frères sauf Killuminati J'fais de l'ombre à la lumière, chouf j'illumine la ville Han, j'suis pas riche, j'suis un ex-pauvre Mes gros yeuse en expo', pour m'avoir en feat Ton rappeur essaye les sextos, ils font tous les mecs sombres Y'a que des mauvais exemples, vexant comme les Texans Mets-toi sur le tec' centre, pas le droit à l'échec, sans Victoire on te sép d'dans, ma gueule, ça fait 7 ans Que de septembre à septembre, j'tourne et je vois s'étendre Mon public de 7 ans à 77 ans Depuis l'époque de Sexion, toujours un pied dans le tieckson Renoi, tu le sais on a mis des corrections Rien ne me correspond, très peu d'entre eux resteront La plupart sont restreints, ne pose pas de questions Wesh, c'est quand qu'ils testent? ça kicke et y'a pas de mystère À force d'être dans l'game, j'suis un hypocryte comme les Lannister Mets-nous sur la liste frère, fuck les journalistes On va pas s'laisser distraire, on a trop de charisme Faites passer l'message sur vos putains de bandes FM J'suis tellement parisien, j'suis l'frère jumeau d'la Tour Eiffel J'triomphe comme l'Arc, j'ai un sacré cur J'suis de-spi comme Kylian au Parc, bah ouais, ça fait peur Les rappeurs ont une p'tite mine comme Meek Mill Qui s'est fait plaquer par Nicki comme une victime Enfin bref, moi j'suis dans ma p'tite ville en civil Les gens te diront, j'suis un chic type, c'est c'qui s'dit Y'a qu'un seul Black M, te demande pas si c'est l'faux Même ta grand-mère veut son selfie Y'a qu'les baltringues qui n'se rencontrent pas Mets le monde en face, j'ferai le contre-poids Beaucoup de moutons beaucoup de moutons, très peu de loups très peu de loups C'est c'foutu nombreux supérieur qui fait la loi Pourquoi ils veulent me pousser à bout ? à bout J'suis dans mon truc avec Debeing Abou ah bon ? La go m'énerve car elle est très conne très conne Mon prochain single sera très com' très com' Eyo l'équipe eyo l'équipe Si tu nous mets pas sur la liste, on s'invite on s'invite Akhi, j'suis qu'avec la famille, j'ai fait le tri j'ai fait le tri Et va leur dire qu'ils cessent de raconter leurs vies Ils sont morts dans le stream On dit one, two, three three Alger, Conakry, on retourne ta ville ville C'est toujours les même tes-tê dans le carré VIP VIP Je les ai vu faire la mala le ventre vide Ils sont morts dans le stream dans le stream Mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Mort, mort, mort dans le stream, mort dans le stream Yeah, S.E.X.I.O.N., Fianso De 2002 à 2018 Yeah, toujours les mêmes Haha Où sont les kickers ? Où sont les streamers ?9</t>
+          <t>Soit on s'en sort, soit tout est mort Mais dans les deux cas, faut essayer J'suis un homme, et quand je donne Je n'sais pas faire les choses à moitié Si t'as le fond sous tes formes On les fera taire jusqu'au dernier Je veux qu'on bosse, qu'on ait des gosses Et tu sais comment me les donner Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom J'ai déjà testé, t'es pas le premier essai Faut pas qu'ça s'finisse en souvenir Faut pas glisser, j'te parle de faire du concret Si on construit, faut qu'ça soit solide J'irai au fond de chaque chose Mais faut vraiment qut'aies les reins solides Donne-moi ton corps, donne-moi ton cur J'en prendrai soin pour mille et une nuits Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom x2 Prend ta décision, là ça fait des heures qu'on parle Et si tu préfères, on peut couper le contact Bla bla bla bla bla, trop de bla bla bla Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Yin / Yang</t>
+          <t>Là-bas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Si t'as d'jà parlé au poste hein, sois gentil n'me parle pas Dans mon cur y'a du monde, et pour toi y'a pas d'place Ouais je sais j'me rabat, ouais je sais j'ai pas d'barbe Adama me l'rappelle, fais salat t'as pas l'choix Mes larmes coulent sur mes frères, transformés en passoire Un mec bien qu'aimerait s'poser, j'arrive plus à m'asseoir J'reste debout et basta, nique sa mère j'suis pas stable T'es qu'une michto d'passage, une autre fille t'remplacera J'vais pas tout t'donner hein, juste mon corps mais pas d'cash Tu m'aimes pas c'est pas grave, mon succès t'embrassera Dans mon rap, y'a pas d'failles, sur mon chemin y a pas d'rails Tout me ment, mon pote Fall, tu me manques, j'suis autre part Wesh Meugi, on s'est connut en volant cette fille Regarde c'qu'on a vécu, elle est pas violente cette vie Descendre presque en Italie, remplir des Zéniths Ils savent pas qu'on est des frères avec ou sans la musique J'l'ai dans l'sang la musique, comme un virus nuisible Ouais sérieux, c'est easy pour nous d'faire des tubes ici Des frères me trahissent, qui m'entubent à domicile Si mes ancêtres sont des singes, akhi j'ai pas d'origine J'suis l'Yin et l'Yang en même temps, intelligent et méfiant On dépend tous d'un rectangle, carte bleue, billets d'banques Ça devient pas inquiétant, ça l'a toujours été Mais le croyant n's'inquiète pas, pour lui tout est réglé Votre opinion m'a stressé, j'me sens sans cesse agressé Par vos jugements mais laissez moi, j'ai déjà percé Qu'ils viennent tous me tester, j'vais les tenir en respect Plus de rimes que t'espères, plus de haine que d'espèces J'suis modeste et pépère mais viens pas teste un mec fier Une plaine et deux cow-boys peut vite devenir un western La beauté du monde réside dans l'visage de mes gosses Tout est paradoxal un peu comme l'histoire de Rick Ross J'suis un pirate de l'époque, un navire me suffit pas Et si l'capitaine me bloque, les conséquences il subira J'ai d'la sueur sur mes draps, même quand j'dors j'fais des efforts Ouais l'avenir me sourit pas car au bout il y a la mort Aucune crainte de perdre la vie mais d'rencontrer des anges hardcores Tu veux m'complimenter ? Viens pas couronner un mort Le frelon sort de taule, il a besoin d'se détendre Alcool et femme, laisse ber-tom, tu sais comment on s'distrait Oui le Diable est discret, introduit nos systèmes Nerveux et on s'y fait, Lucifer est si fier Shit, coke et misère, toi tu vis du deal d'herbe À part toucher le SMIC, j'me demande à quoi les flics servent Pardonnez-moi si j'rêve de les voir en civière Ceux qui pèsent le plus, sont au fond de la rivière Allô Abou, appelle des poufs, que l'démon se libère Ramène-nous des sirènes avec des langues de vipère Pour foncer dans un mur, pas besoin d'avoir ton mis-per Location de tombe, oui ça rémunère les cimetières T'chie pas dessus, fais l'bonhomme et t'auras pas une vie d'merde Regard vide remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire Paris by night à la recherche des acheteurs C'est pas pour trouver l'âme sur qu'on met nos pieds en after J'passe en débat différé si j'ai pas d'alibi Quand j'vais en Belgique, j'me dirige pas vers Walibi J'ai jamais rien compris aux maths, t'as vu Donc j'me retrouve à faire des ronds à tous les angles de rues Des récits fantastiques, des statistiques statiques On veut devenir obèse mais l'État sert d'anneau gastrique Quand j'voulais qu'on m'tende la patte, y'avait pas un chat On devait graille dans la même assiette mais t'en as fait ton plat Perce, tu vis un cauch' quand tu rêves Les gens te gonflent en espérant qu'tu crèves si un jour tu perces Haa, tu sens la rage quand j'parle Chez nous c'est soit les putes soit les keufs qui palpent C'est la même combine qu'on deal ou vende des compils Retourne dans tes comptes, pines pour éviter qu'on t'pille Ils veulent savoir si j'possède des biens d'grosse valeur J'me demande avec quelle arme j'vais affronter l'fossoyeur 10 ans plus tard j'suis toujours l'même putain d'gosse râleur J'tourne en radio sans qu'tu m'entendes, j'suis un ghost rideur J'étais mineur émancipé par des cas d'force majeur 17 ans en taule, sorti avec une force d'ailleurs J'ai la dalle, j'suis en chien, j'ai le mort d'ailleurs C'est c'qui a faillit nous faire braquer ces convoyeurs On était con voyons, loin d'être visionnaires On voulait juste baiser la rue en missionnaire On voulait s'déplumer, pour des prises de bec Ça jouait les gros bras aux premières prises de pecs Soit t'étais sur l'terrain soit t'étais mis sur l'tec' On savait exiler tous les fils de traîtres Les fils de traîtres ou les fils de lâches Ont baignés dans leur sang et ont pris le large M'dépasser pour mes gars, bâtard, j'ai l'art d'le faire J'prendrai la vie de celui qui veut enterrer mon H de guerre Rappelle-toi de nos cambriolages en l'an 2000 12 ans plus tard en cellule on s'tape des barres de rire J'connais Paris de fond en comble, ses côtés les plus sombres Tu dois noircir ton cur pour briller dans la pénombre J'ai volé, j'ai racketté, j'ai fait du mal à autrui La rue m'a instruit, mais la rue m'a détruit J'ai tabassé des gravons, j'avoue j'ai boxé des javons J'me suis aussi mangé des K.O., bouche ouverte sur l'carreau J'ai fait ma salat mais j'ai plus souvent commis des pêchés La question est-ce que ton gars Abou va s'faire repêcher ? Haa bref, assez, laisse le passé au passé Mon gars Maska m'appelle, ce soir y'a du gibier à chasser On s'capte à 9 heure pétante, j'suis pas ce qu'ils prétendent J'sors de taule, j'tire un coup juste histoire d'me détendre Peu importe la filière, j'veux pas toucher une misère J'finirai en civière ou comme tout l'monde au cimetière Te chie pas dessus, fais l'bonhomme, t'auras pas une vie d'merde Regard vide, remplis de haine, j'ai plus rien envie d'faire J'ai plus rien envie d'faire11</t>
+          <t>Big Black M Faut qu'ça Trace Jacky, Wati B J'connais pas le mur de Berlin chez moi, c'est l'barrage 36 J'essaie d'être un mec sain mais, à chaque fois, Satan m'siffle Oh bordel, la musique, là, devient nocive Résultat sur l'terrain, j'ai les yeux plus gros que Özil Ton rappeur est mouillé mais ça vient pas d'son maillot Vérifie son 'pe-sli', faible maillon Oui, parfois, j'attaque, hein, vote dans les catins Mon continent s'est fait 'quer-ni', y'a que d'la merde sous le sapin À Paris, l'homme est mignon, il porte des Zanotti Il pense ou espère briller comme un diamant Swarovski À côté de la plaqu'a, loin de la vraie baraka Ma façon d'voir les choses me pousse à faire des sons qui fracassent Et, toi, renoi, t'as qu'à flopper, je m'en tape, get the fuck out Aujourd'hui, tous les négros sont matrixés comme Waka Flocka Atthitan mi hollabhe poto, dis ça vient pas de Ils font la guerre, XXX, oui, mon label, c'est l'Wati B Pas de lampe d'Aladdin mais une inspi' d'malade J'ai le flow qui les mets tous mal à l'aise, qui me vient tout droit d'l'époque d'la hass Qui peut, qui peut m'arrêter ? Tu peux m'trouver sur ma route ou alors à la récré' J'assume tous mes morceaux, tes 'tits-pe' dansent sur mes sons Oui, ça va, tes rappeurs kickent mais, moi, je fais des soumissions Depuis l'temps qu'on est là, depuis La Terre du Milieu Ils veulent tous Le Retour des Rois moi, j'veux juste péter mon million Ça kick avec orgueil, sous prétexte qu'y a pas mort d'Homme Et, quand il y aura mort d'Homme, tant pis, on sera tous en deuil Yeah, Big Black M Faut qu'ça Trace Un-deux, un-deux, hein, hein Yeah, yeah, j'ai les flows qu't'as pas Obligé d'revenir faire du sale parce que tes fautes m'agacent Akhi, sache que, la rue, c'est pas ton tiekson Et puis on devient pas thug parce qu'on a écrit deuxtrois textes sombres J'suis remonté parce qu'ils veulent tous me descendre Tous dans un trou noir parce que l'Black est omniprésent Tous cherchent la bête noire pour que le black soit méchant T'ouvres ta putain de gueule mais, en cachette, tu 'té-chan' Clashez-vous, moi, je veux juste remplir mon frigo Allez-y, faites les brigands, mais vous n'avez pas le niveau J'rappe, ça vient des 'ppes-tri' sales sont tous mes 'pes-cli' Braille, je m'en tape de ta rage, je sais pas t'es qui Sale, ça, c'est mon délire, surtout quand je gagne Le game, c'est une feu-me qui vient d'avoir ses ragnagnas Hey yo, wassup? J'ai plus de flow que AAP Du sang d'MC sur mes sapes, j'continue quand tu m'dis Stop Faut qu'tu ressembles à Aïsha, non pas à Neguesha Même si, starfoullah, ma tête se retourne sur les geishas Putain d'pêché, j'suis sur l'deuxième bum-al Sheitan fait tellement bien les choses qu'mes fans ils trouvent ça normal Le daron, il kiffe, oui, il a réussi Sa fille, c'est pas Nicki son fils, c'est pas un niqué J'vois qu'vous paniquez, or, c'est pas fini Dadju, Abou Tall, boom, Indéfini Big Black, Faut qu'ça Trace T'entends pas ?! Big Black, Faut qu'ça Trace Big Black, Faut qu'ça Trace Yeah, hein Wallah, tes gars sont pas gang, demande à Abou Debeing J'connais des barges, des dingues, pas d'ceux qui bégaient Quelques fois, j'suis dans les soirées Pump it up Et, quelques fois, j'ai l'poing levé contre l'Europe Bipolaire, et j'te jure que ça m'fait 'reup' Mais j'suis déter', ils m'auront pas, je suis le fils de mon 'reu-p' Ça t'arrange de dire que je n'fais plus de rap, bâtard Mais, faire le quart de c'que j'ai 'ait-f', t'en es pas capable Pas d'bagarre, je suis le nouveau king, nigga Je m'accapare le game et tous ses types, nigga C'est pour mes côtes de ma Guinée et mes gars d'Dakar Oui, j'ai la côte, j'sais pas si tu sais, demande au boy d'XXX Hey, j'n'ai peur que du Tout-Puissant Attendez l'dernier jour, on verra bien si Bruce est si puissant Vous m'épuisez tous, comment rester debout ? J'ai pas la veste de Debbouze... han, yeah Deux mille 'ze-quin', qu'est-ce qui peut me choquer ? Chez moi, ça kick sec, pas d'ceux qui suck Rien à foutre que ta star se pavane là-bas Moi, j'suis là, je kick sale pour mes gavanavas Depuis qu'ces ploucs m'ont vu avec le frérot Kev Adams Ils ont zappé que, quand le Big Black s'y met, il crève le mic J'suis pas dans l'futur, juste présent Percer fut dur, au 'tier-quar', y'avait rien d'intéressant La rue a fait de moi une machine, t'imagines même pas J'crois pas en la magie les génies, on les aime pas Wesh, c'est comme... parce que j'ai fait mon blé, p't-être ... Yeah, yeah, yeah, yeah, yeah Faut qu'j'm'arrête, mais Shady veut pas J'suis comme hypnotisé même quand ma chérie m'parle Dire qu'ils vont oublier c'freestyle comme s'ils avaient bu Mon Dieu, ils m'idolâtrent, p't-être que, rapper, j'aurais jamais dû Vas-y, mets du son et écoute mes dires La réussite, ça fait du mal, ils font que médire Han, j'ai cascadé, demande à Mehdi Sheitan m'épie, veut pas qu'j'finisse à Médine Made in Afrique de l'Ouest Cinq cent mille ventes, akhi, mais j'pense à ceux qui vivent la hass Sur la vie d'ma mère, faut qu'j'me vide la tête T'as vu, y'a pas que dans les films que l'ennemi vise la tête La porte était scellée, fallait que j'brise la fenêtre Ici, on s'en bat les couilles quand tu exprimes ta peine Aussitôt qu'le public te lève, mon ami, il t'rabaisse Un-deux, un-deux, dites à Joey Starr que c'est mieux qu'il s'la ferme Ha, Big Black Faut qu'ça Trace, Jacky Un pour la monnaie, deux pour le show Trois une pensée aux rappeurs qui ont pas d'flow En tête de la D1, toi, t'es un Mec que tout l'monde oublie d'appeler le 31 Là, c'est mon terrain, j'prends n'importe quel terrien Je suis né pour 'pper-ra', le game ne fait que d's''ter-ra' Pas de Porsche Carrera, mais la 'mif' à l'arrière Pas d'erreur, c'est toujours ma Sexion qui sème la terreur Cramés comme les Daltons, fuck Lucky Luke On acclame pas l'shérif pendant que le black se fait niquer Jambes solides, pas besoin de bolide Le rap français horrible, laissez-moi faire qu'on rigole Vengeance, j'ai réchauffé l'plat Tu m'vois solo sur ma route mais wallah qu'on est plein L'machin caché juste au cas où Renois jaloux voudraient m'mettre un K.O Big Black M maintenant, tu connais Plus le temps d'vous mettre des gifles, plus le temps de vous cogner Yeah, Faut qu'ça Trace, Big Black Yeah, Faut qu'ça Trace, Big Black5</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bye Bye</t>
+          <t>Tu sers à rien</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah Je suis dégoûté de ce qu'il y a dans mon angle de vue Nous on rame dans la merde parce que tu donnes ton cul On vit de l'art de rue, chez nous y a pas de revenus Certains ont visés la lune et y sont parvenus Mais ne sont pas revenus En gros, toutes ces heures de colle ne nous ont pas retenus Je disais au prof d'anglais De quoi me parles-tu ? Chez nous ça sort le silencieux, ça ne parle plus On connaît les perquis', matraqués par les dékis Tu tombais dans nos filets, on te rackettait tes tennis Car en manque d'espace, très peu respirent et respectent En manque d'espèces, très peu restent peace Des fois pour du pain ça compte des centimes Obligés de jeûner quand y a du porc à la cantine J'ai des projets futurs, mais mon passé me suit À présent on me fuit et oublie qui je suis Debeing, j'ai la vingtaine, j'ai fait le tour de Paname Je sais qu'il faut en chier pour rentrer dans les annales C'est gonflant, je veux pas percer en me faisant pistonner Ni crever dans mon trou avec un pistolet Si t'as des révélations, fais des concessions Des prêtres demandent des fellations pendant les confessions Y a des propositions, je suis en opposition Je veux pas me faire baiser, donc je prends position Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Ce que je vois N'a rien d'un conte ou d'une fantaisie Je crois Qu'au fil du temps je l'ai saisi Sache que la rue a fortifié mon égo Naïf, je nous pensais vraiment tous égaux Parfois, mes gavas tombent dans des biz illégaux L'État qui triche, tu veux qu'on reste réglo, bye bye Bye bye, bye bye Bye bye, bye bye Bye bye, nigga, bye bye, nigga, bye bye Bye bye, nigga, bye bye, nigga, Oh Oh Ah La rue m'a bercé dans ses bras Et m'a dit Non quand j'ai voulu partir Et j'ai vu du sang dans ses draps Bien évidemment, j'ai du partir Bye bye x94</t>
+          <t>Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Viens faire un tour ici, ya qules tits-pe qui restent innocents Te faire fumer par gourmandise, ils disent on meurt ensemble Ils trahissent leurs familles, imagine si tas pas leurs sang Pourquoi ils tfont la bise quand tu les baises, quand tas pas leurs temps On parle pas beaucoup, un mot de travers chez nous Égal un coup de serpette Rien dans la tête, attends que ça tire pour te mettre du plomb dans la cervelle Chacun sa vie, si t'es ravi quand les condés nous interpellent Sans remords, je te souhaite pas la mort, je te souhaite la hess en perpète Tu sers à rien à part sucer Comme une tchoin qui a ses gles-rè C'est pas des 3arabes C'est des beurettes, série de levrette dans leurs surettes Faut pas se leurrer, compter sur eux Pour t'assurer, gros tu le sauras Le jour ou t'auras, depuis le bloc, tu seras plus rien c'est déplorable Laisse tomber les politesse, comment a-t-il pu oser les trahir pour des jolies fesses J'imagine toi pour de l'oseille, t'es pas la bienvenue fe-dar tu peux rester chez oit, chez oit 3arbi véritable quitte à parler dans la One c'est oim Eh avant l'heure, t'as dit oui on dira non On a fait shab on t'a cru On te sourit même si ça ment, à l'écouter, il fait du sale, zahma il fait du biff avant Shabi devait jouer au Real, il s'est fait les ligaments Oh là là oh là là J'ai pas un euros couramment en sterling en dollar en dirham évidemment Mon kho m'a dit faut pas parler pour rien dire, ça évite la merde Là j'ai pas le temps assez parler pose le khalis et nique ta mère woo woo woo Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Yeah Me check pas si tu te torches avec la main droite J'vais la baiser, c'est une escorte mais je l'a payerai aps pute Tu parles fort, tu frappes au torse comme un gorille Mais tu fais le singe, quand ça se corse tu veux qu'on gole-ri Je mesure ta force comme un Sayan Tu vides tes poches pour des Putte-rie Je me fais deux trois paillettes 4 7 AK abruti J'ai pris ma décision, je les baise tous avec précision Pas besoin de marabout, prédiction inverse de ballon prévisions wow La mala n's'achète pas quand t'es endetté, Debeing Niro en DT wow Pas la grosse tête, tu es entêté dans le pe-ra et dans la rue j'ai chiffré Celui qui pense que j'ai pas de couilles, va se faire bifler wow Quand tu vois ma dégaine, t'es briefé wow Dolce Gabbana Gucci je suis griffé wow À l'entrée du club que des gibiers blessés wow J'arrive, je fais pas là que tu veux, te greffer Je veux tout le VIP à coloc, tu gigotes on te chicote, zebi dans ta culotte Ta gueule, c'est un monologue, sommes dans les chromosomes J'ai montré mes chro-osomes sur mes terres comme un autogoal Viens on se passe dans l'octogone Quand t'es une star pas besoin de starifier Quand t'es gang, pas besoin de gangifier vue J'roule en plein phare Le samedi soir Mondéo Danse avec les shtars Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ?</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tout s’efface</t>
+          <t>Elle a tout</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oui j'ai des erreurs à regretter j'ai laissé passer du temps à espérer Je n'ai qu'une envie c'est de voir mes proches m'aimer je ne veux pas avoir à quémander le respect Je suis lessivé, excédé j'veux pas retourner déposer des CV Avec le temps crois moi poto rien n'est resté qui me pleureras quand je serais décédé ? Ouais et en face de ma classe je constate que je m'encrasse J'paierais de mon sang mes erreurs tôt ou tard j'aimerais que lallégresse m'embrasse Et les gens changent, tout s'efface on s'retrouve au point de départ On se sent mal, tout nous lasse mais j'reste de marbre, Tall J'ai cru que j'avais une triste histoire mais quand t'es dedans, dur d'y croire J'avais les menottes et la vie du chtar aujourd'hui pas loin de la vie de star Dans mon histoire des fautes dorthographes effacées par des autographes J'ai toujours cru que je touchais le fond mais je pète la forme et les choses se font J'étais dans le faux c'est une chose qui est vraie j'ai le sourire, rien ne m'effraie Le temps passe, la Terre tourne j'suis figé, jattends mon tour Mon gars Abou, j'suis à bout dur d'avancer les deux pieds dans la boue Notre enfance collège Paul Gauguin aujourd'hui faut qu'on amasse des gains, DeBeing Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Seigneur ayez pitié de moi le jour où je partirai j'ai peur d'avoir niqué ma vie à faire le passionné Je parle au nom de tout le monde, rien de personnel à vouloir aller trop vite on finit par saigner Malheureusement le temps nous appâte car il sait que j'suis dans de beaux draps Le Diable tente de noircir mon âme pendant que mes gars apprécient mon art Donc épargnez vos discours de taré Si la zik est un trou noir j'avance sans savoir où aller Des projets de papiers, loin des guerres de quartier J'suis venu écrire l'histoire si tout s'efface laisse les parler Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Le temps passe et passe et moi j'ai l'impression De tourner en rond malgré ma constante évolution Pas une ride sur le visage mais la pression De navrer mon daron, comment s'en sortir dans ce bas monde ? Le temps c'est devenu de l'argent mais y'a plus le temps de dépenser cet argent Fuck les plans, agis sur le moment la mort en Rolex s'impatiente Je ne suis qu'un homme que Dieu me pardonne aveuglé à la vue des sommes Le temps effacera-t-il tous mes défauts ? OohOoh Haa Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface Avec le temps qui passe, tout s'efface, tout s'efface Les douleurs, les larmes, les drames, tout s'efface</t>
+          <t>Tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Yeah ! Aujourd'hui, j'parle de tes qualités Entre vous y'a pas match, t'es déjà qualifiée J'suis XX le khalife, tu seras ma khalifa T'es une bombe atomique, j'aime trop ton calibrage J'ai les clés d'ton cur, j'vais te cadenasser Te verrouiller sur le canapé J'vais dire un truc, il faut chuchoter T'es mieux sans ton string mais j'suis culotté Tu m'rends plus ivre que du 20 ans d'âge Toutes ces folles, j'en ai encore des flashs Des flashs, des flashs Toutes ces folles, j'en ai encore des flashs Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Oh oui ma reine, elles prendront pas ta place Elles redoublent d'effort mais n'ont pas ta classe Elles n'ont pas l'premier rôle, elles sont mortes dans l'film J'veux une femme comme toi, pas ce genre de fille C'est toi ma drogue, elle c'est pas ma came Après l'heure c'est plus l'heure, donc j'ai plus leur time Tic tac, tic tac, vas-y viens on s'casse Que nos corps s'enlacent Que les choses se passent, passent, passent Et dans la salle de bain buée sur la glace, glace, glace J't'emmène voir les étoiles qu'il y'a dans l'espace-pace-pace x2 Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout Ah ! Tout, elle a tout Ah ! Tout, elle a tout Fatou, tu as tout Sarah, tu as tout, tout Juliette, tu as tout, tout Mélissa, tu as tout, tout Ah ! Tout, elle a tout, tout Ah ! Tout, elle a tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Respirer tout, tout Respirer tout, tout Il faut la censurer tout, tout S'exprimer tout, tout La go elle a tout, tout, tout, tout La go elle a tout, tout</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mi Amor</t>
+          <t>100 mille à l’heure</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>J'te voulais dans ma vie, voulais dans ma vie Mais t'as mis les voiles, mais t'as mis les voiles J'suis seul sur mon navire, seul sur mon navire J'avais besoin de toi, avais besoin de toi J'avoue j'ai pris du temps, j'avoue j'ai pris du temps Et toi t'en n'avais pas, tu voulais qu'on avance Mais bon tu me connais, en vrai on se connaît J'suis pas le genre de gars qui ment ou qui promet, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor T'étais une femme en or, t'étais une femme en or Tu voulais pas l'argent, tu voulais que mon temps Et j't'en n'ai pas donné, mais j't'en n'ai pas donné En vrai j'en n'avais pas, en fait j'en n'avais pas Mais avec du recul, avec du recul J'aurais pu t'en donner, j'ai fait un mauvais calcul Mais tu connais les hommes, tu connais les hommes Montrer ses sentiments, chez nous c'est ridicule, yeah J'm'engage pas, c'est mon défaut Si t'es parti, c'est de ma faute Mais j'pourrai pas t'oublier, oublier, oublier, oublier J'ai mis d'côté mon égo Et je veux qu't'entendes les échos J'voudrais pas t'oublier, oublier, oublier, oublier Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor Mi amor, je te revois danser Danser, danser, danser, danser Je n'sais plus quoi penser Penser, penser, penser, penser Mi amor, mi amor, mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor, mi amor Mi amor</t>
+          <t>Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- J'ai la joie de vivre ou j'suis ivre de joie? Telle est la question, faut qu'je vois mes choix Mon cur est protegé car c'est du diamant brut J'aime pas les langues de bois ni les langues des putes J'me vaut au sommeil où il vois ma chute J'passe mes nuits aux dans la vente des stups Laissez-moi tomber, mais si je tombe me relevez pas J'vais sortir de ce cauchemar, quoi qu'il arrive ne revez pas J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Elle m'dit qu'j'suis égoïste, que j'deviens dix-temps Quand elle est avec moi elles sont inexistants Elle dit que j'fais ma vie, que j'pense qu'à moi, moi, moi Je sais qu'ça va trop vite, oui, pour toi, toi, toi Je fais si, je fais ça, elle m'fait des reproches Pourtant j'l'AK plus que tous mes proches J'aime l'adrénaline, on va cent mille à l'heure Passe de l'amour à la haine, tout ça J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce-4</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Beautiful</t>
+          <t>23h45 Freestyle (A Capella)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
+          <t>Yeah yeah yeah yeah Freestyle, 23h15 Debeinguerie, a capella J'ai aucun besoin de perdre la vie pour croire en Dieu Les morts ne parlent pas donc adresse-toi au silencieux En pleine contrôle j'mets une pêche dans la gueule du keuf Enlève tes mains bâtard c'est pas la teuf t'as cru qu'j'étais une teuch ? J'étais tellement au coeur d'la street j'sentais ses battements Planqué dans l'appartement les XXX bloquent le bâtiment Le proc' fait la réquisition ensuite y'a la perquisition Coup d'bélier la daronne sait déjà qu'tu pars en détention Faut tout assumer sans prétention J'raconte ça aux tits-pe histoire d'faire d'la prévention Ils veulent prendre exemple, ils veulent nous épater Puis nous dépasser et au final nous effacer Hier t'étais une grosse pointure aujourd'hui on t'écrase les pieds La vie ça va vite, très très vite renvoi t'as pas idée On s'connaît tous, on sait qui a fait des ous-s J'connais tous ceux qui vous poussent, toi et tes loques allez houste Arrêtez vos rôles, vous n'êtes que des jacteurs Marlo Stanfield est joué par un acteur M'éduquez pas n'essayez pas d'me faire la morale La plus grande leçon de vie, c'est le Cor-an J'lis à travers les lignes de façon subtile C'est l'mektoub tu crois marquer l'Histoire mais tu la subis Le front au sol c'est comme ça qu'on supplie Un bout de XXX au mitard c'est comme ça qu'on survit C'est pas des allocs qui vont acheter nos valeurs, vas-leur dire Que j'fais ce couplet pour les avertir J'ai déjà ma cible on peut pas m'divertir J'vais viser la tête tu vas tilter qu'après l'tir Tu sais, tu quand j'touche une pute je la marque C'est pareil avec le rap si j'le baise je le maque J'vais m'adresser aux MCs même s'ils m'connaissent déjà J'arrive comme un M16 chaque 16 fait des dégâts À Générations ou à Sky' on a du s'croiser En taule ou dans la rue, ou en freestyle, j'ai dû vous crosser Les seules défaites que j'ai connu c'est à mes procès J'viens pas pour gagner mais racketter le trophée Shin Sekaï découvre le nouveau monde, moi j'viens tout dévaster J'dois vous doubler en quelques secondes et laisser qu'un monde délabré Esprit t'as la conscience noire tu sais que moi qu'j'suis ténébreux On sait qu'il doit en rester qu'un on s'voit au sommet tous les deux Black M, si t'as Les Yeux Plus Gros Qu'le Monde, moi j'viens montrer au monde que j'ai les couilles plus grosses qu'les yeux J'dis ce que je veux, j'suis pas là pour faire un vu J'vais p't-être finir sur Terre à trop vouloir viser les cieux 23h48, Debeinguerie a capella, fin de freestyle breh1</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Boom</t>
+          <t>Abou Debeing - étoile filante</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Soit on s'en sort, soit tout est mort Mais dans les deux cas, faut essayer J'suis un homme, et quand je donne Je n'sais pas faire les choses à moitié Si t'as le fond sous tes formes On les fera taire jusqu'au dernier Je veux qu'on bosse, qu'on ait des gosses Et tu sais comment me les donner Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom J'ai déjà testé, t'es pas le premier essai Faut pas qu'ça s'finisse en souvenir Faut pas glisser, j'te parle de faire du concret Si on construit, faut qu'ça soit solide J'irai au fond de chaque chose Mais faut vraiment qut'aies les reins solides Donne-moi ton corps, donne-moi ton cur J'en prendrai soin pour mille et une nuits Tu m'dis qu'tu veux réellement devenir ma nana Mais est-ce que t'as toutes les qualités de ma Mama ? J'aimerai y croire, j'me dis non, non Viens on arrête de faire semblant, de faire semblant Viens on arrête de faire semblant, de faire semblant Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom x2 Prend ta décision, là ça fait des heures qu'on parle Et si tu préfères, on peut couper le contact Bla bla bla bla bla, trop de bla bla bla Et ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Ça fait boom quand je la vois Boom boom quand elle me parle Boom boom boom quand elle est là Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom, boom boom Boom boom</t>
+          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? J'suis plus crédible que la crédibilité J'rend plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Agressif comme un niama Mon succès poussant na ye comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve c'que le diable dépreserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fantôme</t>
+          <t>Assumer</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>J'étais dans mon mood ouais, j'étais dans mon monde Tous les soirs en boite t'as dépenser toutes les secondes Je pensais qu'à faire la fête, aucune go n'était prête Avec moi pas de lèche-vitrine tu veux une loulou je l'achète Mais je suis tombé sur une go, pas la plus fidèle Avec les gars c'était elle qui tirait les ficelles Une bombe atomique molotov cocktail On a fait la guerre et je suis tombé fou d'elle Donc je l'ai cacher à mes potes, je voulais pas qu'ils voient ma chute Sans chercher à comprendre ils l'auraient traité de pute On bronze, on se défonce, on veut se taper des cuites On loue des suites et hum tu imagines la suite Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Ça y est j'ai craqué On prend des selfies, comme imaginer on me demande c'est qui On sort en boite à deux, on fait des folies On fait des galipettes, quand on est au lit Me casser pas les couilles dans tous les cas je m'en bas les ... Vos discours en carton vous pouvez les remballer Je vais à cent milles à l'heure, oui je kiffe bombarder Quand je suis avec mon bae, j'suis débordé Elle et moi on fait la paire, j'suis dans mon dé' Et si je la laisse je me perd, j'suis dans mon dé' Parler il y a que ça à faire, j'suis dans mon dé' Et je sais qu'on va les faire taire, j'suis dans mon dé' Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Tout assumer, tout assumer, tout assumer Je vais tout assumer, tout assumer Je vais tout assumer, hum tout assumer</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Là-bas</t>
+          <t>Attitude</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Big Black M Faut qu'ça Trace Jacky, Wati B J'connais pas le mur de Berlin chez moi, c'est l'barrage 36 J'essaie d'être un mec sain mais, à chaque fois, Satan m'siffle Oh bordel, la musique, là, devient nocive Résultat sur l'terrain, j'ai les yeux plus gros que Özil Ton rappeur est mouillé mais ça vient pas d'son maillot Vérifie son 'pe-sli', faible maillon Oui, parfois, j'attaque, hein, vote dans les catins Mon continent s'est fait 'quer-ni', y'a que d'la merde sous le sapin À Paris, l'homme est mignon, il porte des Zanotti Il pense ou espère briller comme un diamant Swarovski À côté de la plaqu'a, loin de la vraie baraka Ma façon d'voir les choses me pousse à faire des sons qui fracassent Et, toi, renoi, t'as qu'à flopper, je m'en tape, get the fuck out Aujourd'hui, tous les négros sont matrixés comme Waka Flocka Atthitan mi hollabhe poto, dis ça vient pas de Ils font la guerre, XXX, oui, mon label, c'est l'Wati B Pas de lampe d'Aladdin mais une inspi' d'malade J'ai le flow qui les mets tous mal à l'aise, qui me vient tout droit d'l'époque d'la hass Qui peut, qui peut m'arrêter ? Tu peux m'trouver sur ma route ou alors à la récré' J'assume tous mes morceaux, tes 'tits-pe' dansent sur mes sons Oui, ça va, tes rappeurs kickent mais, moi, je fais des soumissions Depuis l'temps qu'on est là, depuis La Terre du Milieu Ils veulent tous Le Retour des Rois moi, j'veux juste péter mon million Ça kick avec orgueil, sous prétexte qu'y a pas mort d'Homme Et, quand il y aura mort d'Homme, tant pis, on sera tous en deuil Yeah, Big Black M Faut qu'ça Trace Un-deux, un-deux, hein, hein Yeah, yeah, j'ai les flows qu't'as pas Obligé d'revenir faire du sale parce que tes fautes m'agacent Akhi, sache que, la rue, c'est pas ton tiekson Et puis on devient pas thug parce qu'on a écrit deuxtrois textes sombres J'suis remonté parce qu'ils veulent tous me descendre Tous dans un trou noir parce que l'Black est omniprésent Tous cherchent la bête noire pour que le black soit méchant T'ouvres ta putain de gueule mais, en cachette, tu 'té-chan' Clashez-vous, moi, je veux juste remplir mon frigo Allez-y, faites les brigands, mais vous n'avez pas le niveau J'rappe, ça vient des 'ppes-tri' sales sont tous mes 'pes-cli' Braille, je m'en tape de ta rage, je sais pas t'es qui Sale, ça, c'est mon délire, surtout quand je gagne Le game, c'est une feu-me qui vient d'avoir ses ragnagnas Hey yo, wassup? J'ai plus de flow que AAP Du sang d'MC sur mes sapes, j'continue quand tu m'dis Stop Faut qu'tu ressembles à Aïsha, non pas à Neguesha Même si, starfoullah, ma tête se retourne sur les geishas Putain d'pêché, j'suis sur l'deuxième bum-al Sheitan fait tellement bien les choses qu'mes fans ils trouvent ça normal Le daron, il kiffe, oui, il a réussi Sa fille, c'est pas Nicki son fils, c'est pas un niqué J'vois qu'vous paniquez, or, c'est pas fini Dadju, Abou Tall, boom, Indéfini Big Black, Faut qu'ça Trace T'entends pas ?! Big Black, Faut qu'ça Trace Big Black, Faut qu'ça Trace Yeah, hein Wallah, tes gars sont pas gang, demande à Abou Debeing J'connais des barges, des dingues, pas d'ceux qui bégaient Quelques fois, j'suis dans les soirées Pump it up Et, quelques fois, j'ai l'poing levé contre l'Europe Bipolaire, et j'te jure que ça m'fait 'reup' Mais j'suis déter', ils m'auront pas, je suis le fils de mon 'reu-p' Ça t'arrange de dire que je n'fais plus de rap, bâtard Mais, faire le quart de c'que j'ai 'ait-f', t'en es pas capable Pas d'bagarre, je suis le nouveau king, nigga Je m'accapare le game et tous ses types, nigga C'est pour mes côtes de ma Guinée et mes gars d'Dakar Oui, j'ai la côte, j'sais pas si tu sais, demande au boy d'XXX Hey, j'n'ai peur que du Tout-Puissant Attendez l'dernier jour, on verra bien si Bruce est si puissant Vous m'épuisez tous, comment rester debout ? J'ai pas la veste de Debbouze... han, yeah Deux mille 'ze-quin', qu'est-ce qui peut me choquer ? Chez moi, ça kick sec, pas d'ceux qui suck Rien à foutre que ta star se pavane là-bas Moi, j'suis là, je kick sale pour mes gavanavas Depuis qu'ces ploucs m'ont vu avec le frérot Kev Adams Ils ont zappé que, quand le Big Black s'y met, il crève le mic J'suis pas dans l'futur, juste présent Percer fut dur, au 'tier-quar', y'avait rien d'intéressant La rue a fait de moi une machine, t'imagines même pas J'crois pas en la magie les génies, on les aime pas Wesh, c'est comme... parce que j'ai fait mon blé, p't-être ... Yeah, yeah, yeah, yeah, yeah Faut qu'j'm'arrête, mais Shady veut pas J'suis comme hypnotisé même quand ma chérie m'parle Dire qu'ils vont oublier c'freestyle comme s'ils avaient bu Mon Dieu, ils m'idolâtrent, p't-être que, rapper, j'aurais jamais dû Vas-y, mets du son et écoute mes dires La réussite, ça fait du mal, ils font que médire Han, j'ai cascadé, demande à Mehdi Sheitan m'épie, veut pas qu'j'finisse à Médine Made in Afrique de l'Ouest Cinq cent mille ventes, akhi, mais j'pense à ceux qui vivent la hass Sur la vie d'ma mère, faut qu'j'me vide la tête T'as vu, y'a pas que dans les films que l'ennemi vise la tête La porte était scellée, fallait que j'brise la fenêtre Ici, on s'en bat les couilles quand tu exprimes ta peine Aussitôt qu'le public te lève, mon ami, il t'rabaisse Un-deux, un-deux, dites à Joey Starr que c'est mieux qu'il s'la ferme Ha, Big Black Faut qu'ça Trace, Jacky Un pour la monnaie, deux pour le show Trois une pensée aux rappeurs qui ont pas d'flow En tête de la D1, toi, t'es un Mec que tout l'monde oublie d'appeler le 31 Là, c'est mon terrain, j'prends n'importe quel terrien Je suis né pour 'pper-ra', le game ne fait que d's''ter-ra' Pas de Porsche Carrera, mais la 'mif' à l'arrière Pas d'erreur, c'est toujours ma Sexion qui sème la terreur Cramés comme les Daltons, fuck Lucky Luke On acclame pas l'shérif pendant que le black se fait niquer Jambes solides, pas besoin de bolide Le rap français horrible, laissez-moi faire qu'on rigole Vengeance, j'ai réchauffé l'plat Tu m'vois solo sur ma route mais wallah qu'on est plein L'machin caché juste au cas où Renois jaloux voudraient m'mettre un K.O Big Black M maintenant, tu connais Plus le temps d'vous mettre des gifles, plus le temps de vous cogner Yeah, Faut qu'ça Trace, Big Black Yeah, Faut qu'ça Trace, Big Black5</t>
+          <t>Hey woah Hey woah, hey woah Hey woah Hey woah, hey woah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot dordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, impossible de lire l'heure sur ma montre Audemars J'suis à Kin, Montréal ou à Londres London Le César avant la soirée mondaine ah eh Ma black card ne vient pas de ce monde ah eh J'aime bien rentrer sans être sur la liste Le coin VIP est très loin de la piste Elle danse bien, j'ai guetté mais j'suis discret C'est qu'elle a fait exprès, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, la tigresse que tu vois, je lai domptée en cage Après quatre, cinq, six verres de Dom Pé Regarde bien les bouteilles, tu sais compter casse pas Lui ou moi ? faut surtout pas te tromper oh oh ah Quand on quitte le club cest un chantier Une bise sur la main pour l'enchanter Mes négros ne connaissent pas la honte jamais La soirée va être longue, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme dhabitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude Pour faire du seille-o, faut mouiller l'maillot Soirée mondaine, avenue Montaigne CB ou cash c'est comme ça quon paye Si y a heja, je prends un Popey Pour faire du seille-o, tu changes de maillot Elle a l'habitude des soirées mondaine En CB ou cash c'est comme ça qu'on paye Tu dis qu'y a plus d'chambre, j'ai racheté l'hôtel Charbonner on bosse, on bosse toute la semaine everyday Samedi soir la night, la night, du rouge sous la semelle LouLou' Grosse équipe méga comme d'habitude mes gos Un seul mot d'ordre juste un attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Oh oh ah</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tu sers à rien</t>
+          <t>Babié</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Viens faire un tour ici, ya qules tits-pe qui restent innocents Te faire fumer par gourmandise, ils disent on meurt ensemble Ils trahissent leurs familles, imagine si tas pas leurs sang Pourquoi ils tfont la bise quand tu les baises, quand tas pas leurs temps On parle pas beaucoup, un mot de travers chez nous Égal un coup de serpette Rien dans la tête, attends que ça tire pour te mettre du plomb dans la cervelle Chacun sa vie, si t'es ravi quand les condés nous interpellent Sans remords, je te souhaite pas la mort, je te souhaite la hess en perpète Tu sers à rien à part sucer Comme une tchoin qui a ses gles-rè C'est pas des 3arabes C'est des beurettes, série de levrette dans leurs surettes Faut pas se leurrer, compter sur eux Pour t'assurer, gros tu le sauras Le jour ou t'auras, depuis le bloc, tu seras plus rien c'est déplorable Laisse tomber les politesse, comment a-t-il pu oser les trahir pour des jolies fesses J'imagine toi pour de l'oseille, t'es pas la bienvenue fe-dar tu peux rester chez oit, chez oit 3arbi véritable quitte à parler dans la One c'est oim Eh avant l'heure, t'as dit oui on dira non On a fait shab on t'a cru On te sourit même si ça ment, à l'écouter, il fait du sale, zahma il fait du biff avant Shabi devait jouer au Real, il s'est fait les ligaments Oh là là oh là là J'ai pas un euros couramment en sterling en dollar en dirham évidemment Mon kho m'a dit faut pas parler pour rien dire, ça évite la merde Là j'ai pas le temps assez parler pose le khalis et nique ta mère woo woo woo Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ? Yeah Me check pas si tu te torches avec la main droite J'vais la baiser, c'est une escorte mais je l'a payerai aps pute Tu parles fort, tu frappes au torse comme un gorille Mais tu fais le singe, quand ça se corse tu veux qu'on gole-ri Je mesure ta force comme un Sayan Tu vides tes poches pour des Putte-rie Je me fais deux trois paillettes 4 7 AK abruti J'ai pris ma décision, je les baise tous avec précision Pas besoin de marabout, prédiction inverse de ballon prévisions wow La mala n's'achète pas quand t'es endetté, Debeing Niro en DT wow Pas la grosse tête, tu es entêté dans le pe-ra et dans la rue j'ai chiffré Celui qui pense que j'ai pas de couilles, va se faire bifler wow Quand tu vois ma dégaine, t'es briefé wow Dolce Gabbana Gucci je suis griffé wow À l'entrée du club que des gibiers blessés wow J'arrive, je fais pas là que tu veux, te greffer Je veux tout le VIP à coloc, tu gigotes on te chicote, zebi dans ta culotte Ta gueule, c'est un monologue, sommes dans les chromosomes J'ai montré mes chro-osomes sur mes terres comme un autogoal Viens on se passe dans l'octogone Quand t'es une star pas besoin de starifier Quand t'es gang, pas besoin de gangifier vue J'roule en plein phare Le samedi soir Mondéo Danse avec les shtars Liberta, oh oui qu'est-ce que je t'aime ouh Dans le pe-ra y'a qu'une règle, faut que je les saigne ouh La meilleure arme dans la tête, oui je le sais ouh On fait du cash et toi Tu sers à qui t'sers à quoi ? Mon renoi, tu sers à qui ? t'sers à quoi ? Tu sers à qui ? t'sers à quoi ? Mon rebeu, tu sers à qui ?t'sers à quoi ?</t>
+          <t>Yeah yeah yeah, Debeinguerie Faut bien qu'je perce nan ? J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Calé avec mes loubards Dans Paris j'suis à se-l'ai tout-par J'veux un plan pers' j'suis pas dans les touses-par J'tape au poids les nes-jeu, les cougars T'as pas d'quoi t'acheter une re-pai enculé Tu veux faire la rre-gue C'est avec ton sang qu'tu vas nous régler Bats en retrait ou t'auras des regrets J'ai consulté tous mes mogos Tes gavas racontent des flocos N'ont jamais liquidé un flacon d'cke-cra Ou même touché du XXX Ramenez du gnamakoudji sec C'est bien plus que du saké Tu m'connais j'suis toujours sapé Proprement j'viens vous faire une saleté J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Arrêtez-moi vos chorés, j'suis pas effrayé par vos Hakas Si j'fais gonfler mes bravas, c'est pour mieux soulever mon AK Soir-ce j'mets bien tous mes gavas Un peu d'taga et deux-trois thiagas Mes ennemis se font allumer J'suis innocent mais venez pas m'checker Tu m'vois danser dans mes clips J'peux t'faire bouger ton cul en club Ou te faire chialer sur un titre Et dans Zulu t'effrayer ta reum Le maniement des mots la maladie des mélomanes A. DeB' j'suis un phénomène au mic' Aujourd'hui j'suis dans l'anonymat Un clip tu cliques et j'fais péter l'audimat J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Ou bien, a babié J'ai fait ça sale Pour tous mes Ivoiriens, y'a foye On est ensemble Abou Debeing, qui veut faire mieux ? Tu apprendras Allez prévenir vos gavas ou vos gomis Debeing est là pour tout rafaler Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah1</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Elle a tout</t>
+          <t>Bando</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Yeah ! Aujourd'hui, j'parle de tes qualités Entre vous y'a pas match, t'es déjà qualifiée J'suis XX le khalife, tu seras ma khalifa T'es une bombe atomique, j'aime trop ton calibrage J'ai les clés d'ton cur, j'vais te cadenasser Te verrouiller sur le canapé J'vais dire un truc, il faut chuchoter T'es mieux sans ton string mais j'suis culotté Tu m'rends plus ivre que du 20 ans d'âge Toutes ces folles, j'en ai encore des flashs Des flashs, des flashs Toutes ces folles, j'en ai encore des flashs Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Oh oui ma reine, elles prendront pas ta place Elles redoublent d'effort mais n'ont pas ta classe Elles n'ont pas l'premier rôle, elles sont mortes dans l'film J'veux une femme comme toi, pas ce genre de fille C'est toi ma drogue, elle c'est pas ma came Après l'heure c'est plus l'heure, donc j'ai plus leur time Tic tac, tic tac, vas-y viens on s'casse Que nos corps s'enlacent Que les choses se passent, passent, passent Et dans la salle de bain buée sur la glace, glace, glace J't'emmène voir les étoiles qu'il y'a dans l'espace-pace-pace x2 Respirer, y'a plus moyen de respirer Il faut la censurer Son corps a de quoi s'exprimer Oui elle a tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Tout, tout Ah ! Tout, elle a tout Ah ! Tout, elle a tout Fatou, tu as tout Sarah, tu as tout, tout Juliette, tu as tout, tout Mélissa, tu as tout, tout Ah ! Tout, elle a tout, tout Ah ! Tout, elle a tout Tout, tout, tout, tout Tout, tout, tout, tout La go elle a tout, tout, tout, tout Tout, tout, tout, tout Respirer tout, tout Respirer tout, tout Il faut la censurer tout, tout S'exprimer tout, tout La go elle a tout, tout, tout, tout La go elle a tout, tout</t>
+          <t>Yeah Oh oh oh Tcha, tcha Hi yeah, let's get it Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo yeah Tu me connais, cest ma manière dêtre bébé Je viendrais te voir, dabord, je fais des lovés Tinquiète pas pour moi, ils goutteront le sol, bébé Cest pour mes hits, pas pour fait dhiver que j'passe à la télé Compliqué, là cest compliqué, jai des choses à faire Jai pas ltemps d'te plaire, jsais quon fait la paire Pour acheter la paix, je leur fais la guerre, tu soigneras mes plaies Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Tcha, tcha, tcha, tu sais que j'viens du bendo, moi j'ai pas fait d'longues études J'ai appris à couper le bédo, armé j'peux faire d'la sécu Mon nom te fera honneur, zappe tes copines les clubeuses Elles voudront pas ton bonheur, elles mêmes, elles sont pas heureuses J'peux pas faire l'Casanova, quand on passe en gova Le premier qui kouma, un clin d'il, il coma J'étais au pied d'la montagne, ils jetaient leurs pierres sur moi Maintenant que j'suis au sommet, c'est moi qui serai là pour toi Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Let's get it Elle aime ma manière de faire Elle aime ma manière de faire Tout c'que j'fais cest élégant Tout c'que j'fais cest élégant Elle sait très bien qujsuis dans lbinks Jfais du biff, jfais mes jezz, que jagis, que j'perds pas dtemps Oh, elle veut un mec du bendo du bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo du bendo, bendo, bendo, bendo Umh, elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100 mille à l’heure</t>
+          <t>Beauté Blessante</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure, cent mille à l'heure Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- J'ai la joie de vivre ou j'suis ivre de joie? Telle est la question, faut qu'je vois mes choix Mon cur est protegé car c'est du diamant brut J'aime pas les langues de bois ni les langues des putes J'me vaut au sommeil où il vois ma chute J'passe mes nuits aux dans la vente des stups Laissez-moi tomber, mais si je tombe me relevez pas J'vais sortir de ce cauchemar, quoi qu'il arrive ne revez pas J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Elle m'dit qu'j'suis égoïste, que j'deviens dix-temps Quand elle est avec moi elles sont inexistants Elle dit que j'fais ma vie, que j'pense qu'à moi, moi, moi Je sais qu'ça va trop vite, oui, pour toi, toi, toi Je fais si, je fais ça, elle m'fait des reproches Pourtant j'l'AK plus que tous mes proches J'aime l'adrénaline, on va cent mille à l'heure Passe de l'amour à la haine, tout ça J'ai perdu du temps Et j'en perdrai encore Encore et encore Encore et encore Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gars m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Mes gos m'disent Cent mille à l'heure Faut qu'tu ralentisses, tu vas à cent mille à l'heure Et j'me dis Cent mille à l'heure Faut pas qu'tu ralentisses, faut qu'j'aille à cent mille à l'heure Mais on m'dit Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce- Va douce-, va doucement Va douce-, va douce-, oh, va douce-, va doucement, va douce-4</t>
+          <t>Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend Bon j'avoue tu n'es pas Drake Mais t'as de quoi la faire craquer Surtout tes techniques de drague Mais devant sa beauté, faut pas que tu bégaies Elle aimerait voir qu'est-ce que tu dégages Quand t'es tout seul, sans tes gars Peut être que t'as un truc que j'sais pas Mais si tu l'a pas bah vas-y dégages ! La go ne peut pas refuser Elle ne sait pas que j'suis rusé Je n'suis pas la pour m'amuser Si elle veut la lune, j'vais construire la fusée Quitte la on connait ton CV J'ai dis quitte la on connait ton CV Entre toi et moi, y'aura jamais d'amitié Un peut de mais jamais d'amitié Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend J't'avais dis qu'j'allais la blesser J't'avais dis qu'j'allais la blesser Mais désolé j'suis pas médecin Je n'sais pas comment te soigner Ah, tchatcheur, blagueur, acteur J'ai toutes les qualités d'un dragueur Elle a même pas mis un quart d'heure pour donner son coeur J'ai pas de clés, j'suis un braqueur, boom Oh, j'ai même pas eu le temps de finir mon rre-ve Mon gava, t'as pris la créature de rêve Autour de nous, j'vois les renois sont paro Mon gava, tu vas devoir les gérer un par un Et peut-être que je fais mille mètres Passe, dégage, y'a six mètres De le noir, j'aperçois la silhouette Elle me rend mais j'suis pas une girouette Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend -Ah mon gars ! Non, toi Debeing c'est trop, laisse tomber, tu blesses -Ah Black, j't'ai prévenu, je blesses -Attends, attends, attends, attends, j'vais avancé. C'est comment? C'est comment? Serina, Karina, Amina, Monica, Elina ou peut-être Erika Mais non ! Black M tu m'as triqua, j'connais pas son blaze, elle va me guetter bizarre J'croyais qu'elle habitait sur ris-Pa Non tu m'as crié dans le tier-quar T'façon c'est la même, tu blesses, tu blesses les Mon gars, laisse tomber Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23h45 Freestyle (A Capella)</t>
+          <t>Blessé</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah yeah Freestyle, 23h15 Debeinguerie, a capella J'ai aucun besoin de perdre la vie pour croire en Dieu Les morts ne parlent pas donc adresse-toi au silencieux En pleine contrôle j'mets une pêche dans la gueule du keuf Enlève tes mains bâtard c'est pas la teuf t'as cru qu'j'étais une teuch ? J'étais tellement au coeur d'la street j'sentais ses battements Planqué dans l'appartement les XXX bloquent le bâtiment Le proc' fait la réquisition ensuite y'a la perquisition Coup d'bélier la daronne sait déjà qu'tu pars en détention Faut tout assumer sans prétention J'raconte ça aux tits-pe histoire d'faire d'la prévention Ils veulent prendre exemple, ils veulent nous épater Puis nous dépasser et au final nous effacer Hier t'étais une grosse pointure aujourd'hui on t'écrase les pieds La vie ça va vite, très très vite renvoi t'as pas idée On s'connaît tous, on sait qui a fait des ous-s J'connais tous ceux qui vous poussent, toi et tes loques allez houste Arrêtez vos rôles, vous n'êtes que des jacteurs Marlo Stanfield est joué par un acteur M'éduquez pas n'essayez pas d'me faire la morale La plus grande leçon de vie, c'est le Cor-an J'lis à travers les lignes de façon subtile C'est l'mektoub tu crois marquer l'Histoire mais tu la subis Le front au sol c'est comme ça qu'on supplie Un bout de XXX au mitard c'est comme ça qu'on survit C'est pas des allocs qui vont acheter nos valeurs, vas-leur dire Que j'fais ce couplet pour les avertir J'ai déjà ma cible on peut pas m'divertir J'vais viser la tête tu vas tilter qu'après l'tir Tu sais, tu quand j'touche une pute je la marque C'est pareil avec le rap si j'le baise je le maque J'vais m'adresser aux MCs même s'ils m'connaissent déjà J'arrive comme un M16 chaque 16 fait des dégâts À Générations ou à Sky' on a du s'croiser En taule ou dans la rue, ou en freestyle, j'ai dû vous crosser Les seules défaites que j'ai connu c'est à mes procès J'viens pas pour gagner mais racketter le trophée Shin Sekaï découvre le nouveau monde, moi j'viens tout dévaster J'dois vous doubler en quelques secondes et laisser qu'un monde délabré Esprit t'as la conscience noire tu sais que moi qu'j'suis ténébreux On sait qu'il doit en rester qu'un on s'voit au sommet tous les deux Black M, si t'as Les Yeux Plus Gros Qu'le Monde, moi j'viens montrer au monde que j'ai les couilles plus grosses qu'les yeux J'dis ce que je veux, j'suis pas là pour faire un vu J'vais p't-être finir sur Terre à trop vouloir viser les cieux 23h48, Debeinguerie a capella, fin de freestyle breh1</t>
+          <t>Jvous raconte lhistoire dune veuve Cest dur à croire mais ce nest pas une femme Je l'ai croisé en soirée, soirée Elle était si soignée, soignée Je nvoulais pas d'un coup d'un soir Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé Je fais le tour de toutes les boîtes de nuit pensant que je vais la retrouver J'me fais des films et des films Et j'me dis que non, elle pourra pas me repousser J'veux réécrire l'histoire Viens on repart s'il le faut, juste pour un soir Je n'vais pas te décevoir, même si c'est dur à croire Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé x2 La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Abou Debeing - étoile filante</t>
+          <t>Calme</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? J'suis plus crédible que la crédibilité J'rend plus débile que la débilité Mama ngai, ils sont limités Jamais égalé mais toujours imité La nana fait des manies, ou-ou-ou-ouh J'fais mon malin J'suis vif comme l'éclair Coup de foudre, elle tombe dans mes mains Allez lui dire qu'elle a raté Elle et moi, c'est R.I.P Elle a raté, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Agressif comme un niama Mon succès poussant na ye comme de l'igname Tu ne m'a jamais vu, ouais c'est normal Je suis ici, là-bas comme un nomade Elle veut qu'on avance mais j'suis son essence Elle veut qu'on s'réserve c'que le diable dépreserve Tu m'fais des avances, j'ai pris du recul C'est toujours pareil, comme d'habitude Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Allez lui dire qu'elle a raté Toi et moi, c'est mort, R.I.P Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Si tu m'vois passer dans ta vie Tu n'peux pas m'oublier Aussi rare qu'une étoile filante Si tu m'vois faire un vu Aussi rare qu'une étoile filante Si tu m'vois faire un vu Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Tu m'as vu passer dans ta vie Est-ce que tu m'as oublier? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Aussi rare qu'une étoile filante Mais est-ce que t'as fais un vu? Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Elle m'a laissé passer laissé passer Mais ça, c'est du passé c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer, c'est du passé Laissé passer</t>
+          <t>Yeah yeah Dans le calme Avec mon équipe, on est posé dans le calme T'as vu ma carrure ? T'as voulu foncer dans le mal Tu vas t'prendre un mur, pourquoi te donner tant de mal ? Plus je résiste, plus tu vas t'lâcher N'essaie pas de twerker, j'ai d'autres chattes à fouetter Là, tu m'amuses, en fait t'es ma muse J'suis juste un tchateur, qui use de la ruse Tu m'envoies ta pote qui, elle même, me veut Tu restes dans mes pattes donc tu aimes ce jeu Un pour la mala, deux pour le visu' Tu sais que j'apprécie ton attitude, mais... J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova Elle est classe, elle est clean bling Belle plastique de quoi faire craquer son jean that atho J'apprends la galanterie par mon vieux Et dès qu'elle passe devant moi, je baisse les yeux oh shit Pas comme toutes ces nanas T'as les critères pour être ma baby mama hun hun Mauvais garçon gentleman pas un voyou Et ta copine que j'aime Bitch, do I know you ? Ro là là Rien à foutre de ce que les gens disent So please, épargne-moi leur avis Si t'es matérialiste, bye bye bye bye Si t'es sérieuse, viens m'voir J'ai pour toi tes propositions, donne ta main sont trop de questions oh oh ah Tu vois plus loin que les billets de 100, tu deviens intéressante oh oh ah Plus d'un gars de mon équipe n'attend que de t'avoir au corps à corps Mais, personne dans l'illcite baby, on ne fera rien sans ton accord yeah Rien à dire sur ton physique, ta maman je félicite oh oh ah Et si tu ne sais pas qui je suis, tu n'es sûrement pas d'ici oh oh ah Tu n'es pas comme les autres filles, c'est vrai Princesse tu as, le charisme d'une dame Et j'aimerais pouvoir insister, mais Le prince Dadj m'appelle donc je resterai calme J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova J't'ai vue bouger ton corps sur du dancehall J'ai vu faire parler ta classe sur un air soul J'aime l'odeur de ton parfum, est-ce du Kenzo ? J't'emmène avec moi, si t'as eu moins de rapports qu'une benzo Oh ma, je sais ce que tu veux, car en réalité, j'ai ce que tu veux Donc stop tes manières, stop tes chichis Fis-toi à mon expérience, ouais J'ai connu des Lisa, des Tisha, Camilla, Laëticia, Astrid, Axelle, Laure et Anissa Donc prends tes bagages et tes accessoires tout Debeing a assez de vibes pour te faire valser ce soir J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Acquise</t>
+          <t>Ça va parler</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
+          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alors</t>
+          <t>Ce soir tribunal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sorties de janvierDjadja Dinaz - Souviens-toi KeBlack - Premier étage Marwa Loud - Temps perdu Sofiane - Tout l'monde s'en fout Vald - Vitrine ft. Damso Vegedream - La fuite ft. DJ Leska Sorties de févrierAbou Debeing - Tombé sur elle ft. Dadju Dadju - Déjà trouvé Dadju - Intuition Djadja Dinaz - Déstabilisé Kalash - Friendzone ft. Still Fresh Lacrim - Grande armée Lacrim - Traîtres MHD - Afro Trap, Pt. 8 Never Médine - Grand Paris ft. Alivor, Lartiste, Lino, Ninho, Seth Gueko, Sofiane Youssoupha Ridsa - Avancer Sorties de marsAlonzo - Feu d'artifice ft. MHD Benash - Ghetto ft. Booba Benash - Ivre ft. Damso Shay Dadju - J'ai dit non Deen Burbigo - Tu rêves ft. Nekfeu Djadja Dinaz - C'est la même Djadja Dinaz - Catalogués bandits Djadja Dinaz - Dans la cité Djadja Dinaz - Mauvais comportement Lacrim - 20 bouteilles Lacrim - 2Pac Lacrim - Colonel Carrillo Lacrim - La dolce vita Lacrim - Oh bah oui ft. Booba Lacrim - Tristi ft. Ghali Lorenzo - Le son qui fait plaiz Naza - La Débauche Niska - B.O.C KeDuSal 1 Ridsa - Mamamia Roméo Elvis - Drôle de question Roméo Elvis - J'ai vu ft. Angèle Sadek - Petit prince Scridge - Pour Walou Sorties d'avrilBMYE - Pourquoi Chérie Ft. DJ Myst, Hiro, Jaymax, KeBlack, Naza Youssoupha Columbine - Temps électrique DTF - 100 Rêves Damso - . Nwaar Is The New Black Damso - B. QuedusaalVie Damso - . Dieu ne ment jamais Damso - . Signaler Damso - . Gova Damso - . Peur dêtre père ft. Youri Botterman Damso - . Kin la belle Damso - . Noob Saibot Damso - N. J Respect R Damso - . Mosaïque solitaire Damso - . Macarena Damso - . Lové Damso - . Une âme pour deux Damso - . Kietu Mister V - Top Album Ninho - Roro Niska - Chasse à lhomme Niska - Jsuis dans lbaye KeDuSal 1.5Sofiane - Mon p'tit loup Sofiane - Toka Sorties de maiBigflo Oli - Alors alors Dadju - Reine Kalash Criminel - Je ne comprends pas ft. JuL Kalash Criminel - Piano sombre L'Algérino - Les menottes Lartiste - Pardonner Mister V - Space Jam ft. Hayce Lemsi Volts Face Naps - Ciao Naps - Elvira Naps - Vroum vroum Naps - À part ça Naza - A Gogo SCH - Comme si SCH - J'attends SCH - Mac 11 SCH - Poupée russe Sadek - Dans la lune Sofiane - Marion Maréchal Still Fresh - Collision Sorties de juinAsh Kidd - Lolita Bigflo Oli - Dommage Bigflo Oli - Papa ft. Fabian Ordonez Bigflo Oli - Personne DJ Hamida - C'est une frappe ft. Lartiste DJ Sem - Mi Corazón ft. Marwa Loud Eddy de Pretto - Fête de trop Fally Ipupa - Bad Boy ft. Aya Nakamura JuL - Ma jolie Lomepal - 70 Lomepal - Bécane ft. Superpoze Lomepal - Danse ft. Camélia Jordana Lomepal - Palpal Lomepal - Yeux disent Siboy - Mobali ft. Benash Damso Sorties de juilletAlonzo - Bagarre Alonzo - Suis-moi Booba - Nougat Djadja Dinaz - Maléfique ft. DJ Babs Jordan Dosseh - PDCV Pas dans cette vie Hornet La Frappe - Je pense à toi Lacrim - Ce soir ne sors pas ft. Gims MMZ - Ma bulle Naza - MMM Ninho - Mamacita Niro - Sors de ma tête Niska - Réseaux Sadek - En leuleu ft. Niska Timal - Vatos Sorties d'aoûtAlonzo - Papa Allo Lorenzo - Fume à fond Ninho - Chino Sadek - La vache Sorties de septembre4Keus - O'Kartier C'est La Hess Hornet La Frappe - Dead ça Hornet La Frappe - Maghrébin JuL - Drôle de dame Lacrim - Judy Moncada MC Solaar - Sonotone Marwa Loud - Mehdi Naza - Sac à dos Ninho - Caramelo Ninho - Carbozo Ninho - Ce soir ft. Alonzo Ninho - Comme prévu Ninho - De l'autre côté ft. Nekfeu Ninho - Dita ft. Hös Copperfield Ninho - Elle m'a eu Ninho - HLM ou Palace Ninho - Laisse pas traîner ton fils ft. Sofiane Ninho - Lové ft. Gradur Ninho - Pourquoi Ninho - Rose Niska - Ah bon ? Niska - Amour X Niska - Favelas ft. Skaodi Niska - HM Niska - La wewer Niska - Medellín Niska - Salé Niska - Snapchat Niska - Story X Niska - Tuba Life ft. Booba Niska - Twerk dans l'binks Niska - Versus ft. MHD OrelSan - Basique Sadek - Madre Mia ft. Ninho Soprano - Mon précieux Vald - Trophée Sorties d'octobreEddy de Pretto - Fête de trop Dadju - Ma fierté ft. Alonzo Gims Hamza - Life Hamza - Vibes JuL - La tête dans les nuages Kaaris - Je suis gninnin, je suis bien Kalash - Koussi koussa ft. Niska Kalash - Mwaka Moon ft. Damso Lacrim - Tous les mêmes Lartiste - Catchu catchu OrelSan - Bonne meuf OrelSan - Christophe ft. Gims OrelSan - Dans ma ville, on traîne OrelSan - Défaite de famille OrelSan - La fête est finie OrelSan - La lumière OrelSan - La pluie ft. Stromae OrelSan - Notes pour trop tard ft. Ibeyi OrelSan - Paradis OrelSan - Quand est-ce que ça s'arrête OrelSan - San OrelSan - Tout va bien OrelSan - Zone ft. Dizzee Rascal Nekfeu Sorties de novembreAbou Debeing - C'est pas bon ft. Dadju Columbine - Pierre, feuille, papier, ciseaux Dadju - Bob Marley Dadju - Comme si de rien n'était Dadju - Django ft. Franglish Dadju - Intuition Dadju - Oublie-le Dadju - Par amour ft. Gims Dadju - Seconde chance Dadju - Sous contrôle ft. Niska JuL - Henrico Kaaris - Bling bling ft. Kalash Criminel Sofiane Kaaris - Diarabi Lacrim - Gericault Lacrim - Intocable ft. Mister You Lacrim - Noche ft. Damso Lacrim - Veux-tu ? ft. Ninho Lomepal - Club Sorties de décembreBooba - 113 ft. Damso Booba - Bouyon ft. Gato Booba - Centurion Booba - Drapeau noir Booba - Friday Booba - Magnifique Booba - Petite fille Booba - Ridin' Booba - Terrain Booba - Trône Booba - À la folie Booba - Ça va aller ft. Niska Sidiki Diabaté Dadju - Par amour Ft. Gims Dadju - Lionne Damso - Tueurs Gims - Caméléon Hayce Lemsi - Havana JuL - Délicieuse JuL - Je vais t'oublier ft. Marwa Loud Marwa Loud - Fallait pas</t>
+          <t>Yah ! Ce soir tribunal, messieurs-dames Vous allez tous être jugés Yo T'as baisé la femme de ton pote, mais tu fuis parce que tu sais pas si le poto t'as cramé Tu t'es fait pété par les keufs guet-apens de litrons et c'est ce poto qui t'as ramené Tu veux cadenasser son cur, t'as même pas la clef de son cul Tu crois que c'est ta hlel qu'on a vu dans une sextape, maintenant comment te sens tu ? Ce soir tribunal, ce soir c'est ton jugement T'as la taille d'une âne, tu veux baiser une jument L'alcool c'est de l'eau, la drogue c'est du piment Au tiek t'es qu'un guetteur, la vérité si je mens Snappeur de bouteilles, t'as pas mis un E, au pire c'est d'la location Si c'est des bites, c'est ta vocation, numéro un de la provocation Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal T'as une paire d'Asics, le frigo est plein La débrouillardise, que Dieu te bénisse 800 E la Balenciaga, tu pointes à Pôle Emploi, que Dieu te punisse T'as mis de carottes, t'es un chaud lapin Si on veut te soulever, c'est chez ton tapin En bas de chez la gadji les gadjos sont tarpin Tu passes des coups de fil personne prend tes patins Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions C'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Madame la juge, faites entrer l'accusé Monsieur l'accusé, faut-il vous excuser ? Madame la juge, faites entrer les accusés Monsieur l'accusé, il faut vous excuser Tribunal, c'est le tribunal Le tribunal, c'est le tribunal Je dis n'importe quoi, mais on s'en fout Je dis n'importe quoi, mais on s'en fout Hahaha Ce soir, c'est le tribunal Abou Debeing Bara Being</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Assumer</t>
+          <t>C’est comment</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'étais dans mon mood ouais, j'étais dans mon monde Tous les soirs en boite t'as dépenser toutes les secondes Je pensais qu'à faire la fête, aucune go n'était prête Avec moi pas de lèche-vitrine tu veux une loulou je l'achète Mais je suis tombé sur une go, pas la plus fidèle Avec les gars c'était elle qui tirait les ficelles Une bombe atomique molotov cocktail On a fait la guerre et je suis tombé fou d'elle Donc je l'ai cacher à mes potes, je voulais pas qu'ils voient ma chute Sans chercher à comprendre ils l'auraient traité de pute On bronze, on se défonce, on veut se taper des cuites On loue des suites et hum tu imagines la suite Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Ça y est j'ai craqué On prend des selfies, comme imaginer on me demande c'est qui On sort en boite à deux, on fait des folies On fait des galipettes, quand on est au lit Me casser pas les couilles dans tous les cas je m'en bas les ... Vos discours en carton vous pouvez les remballer Je vais à cent milles à l'heure, oui je kiffe bombarder Quand je suis avec mon bae, j'suis débordé Elle et moi on fait la paire, j'suis dans mon dé' Et si je la laisse je me perd, j'suis dans mon dé' Parler il y a que ça à faire, j'suis dans mon dé' Et je sais qu'on va les faire taire, j'suis dans mon dé' Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Je sais qu'il y a un tas de mecs qui doivent roder autour d'elle Mais la go c'est une frappe un vrai top modèle Elle peut figer le temps quand elle passe j'ai juré Elle a juste quelques défauts, mais je sais qu'on va me juger Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Assumer assumer, faut assumer Tout assumer, tout assumer, tout assumer Je vais tout assumer, tout assumer Je vais tout assumer, hum tout assumer</t>
+          <t>C'est comment ? C'est comment, c'est comment ? C'est comment ? C'est comment, c'est comment, c'est comment ? Les gavas c'est comment ? Sortez les derniers pas de danse quand ça commence Les gomis c'est comment ? Sortez les derniers déhanchés, ça commence Ça s'connait pas j'te l'dis franco Tu grattes l'amitié, comme les darons grattent les Banco Chérie j'peux protéger ton dos Mais c'est pas pour danser le tango Tu connais ton gars, elle peut m'faire tanguer Si j'aperçois son tanga Tanguer, tanguer, tanguer, tanguer, tanguer, hey Si j'aperçois son tanga Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? J'ai du buzz, tu m'fais la bise Moi j'l'ai hmmm, c'est que du showbizz Dany Synthé, change-moi la mélo Elle tombe dans les pommes mais j'ai pas pris le melon La gomi est tombée Bois-moi du Dom Pé' L'animal se fait pas dompter Mais peut se faire combler Rassemblez tous mes gavas, on est où ? Plus on est soûls, plus on est fous Paris et sa banlieue, on est où ? Nord, Sud, Est, Ouest, on est où ? Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Abidjan, c'est comment ? Bamako, c'est comment ? Dakar, c'est comment ? Kinshasa, c'est comment ? Tunis, c'est comment ? Alger, c'est comment ? Marrakech, c'est comment ? Miami, c'est comment ?</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Attitude</t>
+          <t>C’est mort</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Hey woah Hey woah, hey woah Hey woah Hey woah, hey woah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot dordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, impossible de lire l'heure sur ma montre Audemars J'suis à Kin, Montréal ou à Londres London Le César avant la soirée mondaine ah eh Ma black card ne vient pas de ce monde ah eh J'aime bien rentrer sans être sur la liste Le coin VIP est très loin de la piste Elle danse bien, j'ai guetté mais j'suis discret C'est qu'elle a fait exprès, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme d'habitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude yeah Yeah, la tigresse que tu vois, je lai domptée en cage Après quatre, cinq, six verres de Dom Pé Regarde bien les bouteilles, tu sais compter casse pas Lui ou moi ? faut surtout pas te tromper oh oh ah Quand on quitte le club cest un chantier Une bise sur la main pour l'enchanter Mes négros ne connaissent pas la honte jamais La soirée va être longue, yeah Charbonner toute la semaine Samedi soir, du rouge sous la semelle Grosse équipe comme dhabitude Un seul mot d'ordre attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude Pour faire du seille-o, faut mouiller l'maillot Soirée mondaine, avenue Montaigne CB ou cash c'est comme ça quon paye Si y a heja, je prends un Popey Pour faire du seille-o, tu changes de maillot Elle a l'habitude des soirées mondaine En CB ou cash c'est comme ça qu'on paye Tu dis qu'y a plus d'chambre, j'ai racheté l'hôtel Charbonner on bosse, on bosse toute la semaine everyday Samedi soir la night, la night, du rouge sous la semelle LouLou' Grosse équipe méga comme d'habitude mes gos Un seul mot d'ordre juste un attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Attitude comme ça Oh oh ah</t>
+          <t>Tcha, tcha, tcha-tcha-tcha Tcha-tcha-tcha, tcha Moi j'viens du bendo J'aime pas trop les blèmes-pro Tu veux que j'fasse du blé Mais tu me reproches que je traîne trop Tu sais, l'argent tombe pas du ciel, il pousse sur le ter-ter Donc, tes copines, qui parle ? On va les faire taire Tu dis qu't'es dans l'bendo mais t'es peut-être avec ta deuxième go Y a des bruits d'couloir, ouais, j'ai entendu des échos Tu parles de ma fierté, tu devrais ravaler ton ego Tu m'as pris pour la déco, tu me mets sur le té-cô J't'ai pas mis sur le téc-téc J'suis là avec mon TekPak Dans le froid ça micmac J'bibi pas de Tic-Tac Six du mat', toc-toc J'suis sé-po sur le clic-clac T'es là, tu m'fais perdre mon temps Sur le terrain, les p'tits m'taclent J'te fais perdre ton temps et toi tu rentres à pas d'heure Tu sais qu'ça me rend folle, tu me connais par cur J'ai ton téléphone, vas-y donne tes codes On verra si toutes ces meufs ne sont que des potes Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort T'étais où ? J't'ai laissé cinq appels en absence Mais t'étais où ? Tu disparais donc tu prends des vacances J'ai vu des Snaps, tu fais le beau avec tes nouvelles sapes Et tu me zappes, j'ai pas fini, besoin d'vider mon sac Eh, eh, où j'étais ? J'étais dans l'binks, j'faisais pas la bringue Où j'étais ? Avec ton il de lynx, j'ai pas changé de fringues Qu'est-ce qui se passe, pourquoi ce clash ? Pour rien tu te fâches Moi je trace, tu crois qu'je chasse Comme un chien d'la casse Non, non, non Aujourd'hui tu vas pas découcher Non, non, non, non Aujourd'hui, tu vas m'écouter C'est comment ? Tu transpires tellement, tu vas te noyer C'est comment ? T'es plus dehors que dans ton foyer Oui, oui, oui Tu m'appelles et j'veux plus décrocher Oui, oui, oui, oui Tu m'harcèles et j'veux plus t'écouter C'est comment ? J'veux être patron, j'veux plus être employé C'est comment ? Vivons d'amour, d'eau fraîche, ça payera le loyer Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Si tu veux ne m'pardonne pas Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Cette fois-ci j'te pardonne pas Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Babié</t>
+          <t>C’est nous</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yeah yeah yeah, Debeinguerie Faut bien qu'je perce nan ? J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Calé avec mes loubards Dans Paris j'suis à se-l'ai tout-par J'veux un plan pers' j'suis pas dans les touses-par J'tape au poids les nes-jeu, les cougars T'as pas d'quoi t'acheter une re-pai enculé Tu veux faire la rre-gue C'est avec ton sang qu'tu vas nous régler Bats en retrait ou t'auras des regrets J'ai consulté tous mes mogos Tes gavas racontent des flocos N'ont jamais liquidé un flacon d'cke-cra Ou même touché du XXX Ramenez du gnamakoudji sec C'est bien plus que du saké Tu m'connais j'suis toujours sapé Proprement j'viens vous faire une saleté J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Arrêtez-moi vos chorés, j'suis pas effrayé par vos Hakas Si j'fais gonfler mes bravas, c'est pour mieux soulever mon AK Soir-ce j'mets bien tous mes gavas Un peu d'taga et deux-trois thiagas Mes ennemis se font allumer J'suis innocent mais venez pas m'checker Tu m'vois danser dans mes clips J'peux t'faire bouger ton cul en club Ou te faire chialer sur un titre Et dans Zulu t'effrayer ta reum Le maniement des mots la maladie des mélomanes A. DeB' j'suis un phénomène au mic' Aujourd'hui j'suis dans l'anonymat Un clip tu cliques et j'fais péter l'audimat J'ai nagé dans des profondeurs d'la street Où toi tu n'avais pas pied Aujourd'hui a bâtard, aujourd'hui a babié J'me suis tellement fait palper Qu'aujourd'hui je vis pour le papier Aujourd'hui a bâtard, aujourd'hui a babié Ou bien, a babié J'ai fait ça sale Pour tous mes Ivoiriens, y'a foye On est ensemble Abou Debeing, qui veut faire mieux ? Tu apprendras Allez prévenir vos gavas ou vos gomis Debeing est là pour tout rafaler Yeah yeah yeah Yeah yeah yeah Yeah yeah yeah1</t>
+          <t>Eh Debeing? - Yeah Franglish - Dis à tes gars qu'ils disent à leurs gars qui restent à l'arrière, ils sont pas encore prêts, pas préparer - Yeah yeah, yeah yeah Changement d'ambiance, motherfucker J'distingue les vrais des faux, les lions et les fauves Ici, le niveau je hausse face à toute la fausse Ils s'regardent quand je pose, Franglish je m'impose J'suis unique motherfuck', me comparer tu oses? Lion Noir sur la blouse, j'bosse pour faire du flouz' Mon entourage est fou, ne s'attache pas au fouf' Les femmes et les vil-ci m'traquent, ils sont dans mon dos Pourquoi ces bolos craquent? Ils écoutent ma dope? Entre grey et kaki, j'milite, je manie l'nine milli' Money, money, money, money Centime jusqu'au milli' Banquette arrière puis vacille, fais pas tes manières Moi, j'veux du violet, vert Bitch, où est ma manière? J'pense qu'à faire de la bombe, XXX Un charme venu du Congo passant par le Togo Comme une wifi, j'ai des connexions d'tout-par La réussite, moi et mes gars, on va la touze-par Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Deux-trois fils de pute, un seul 357 La vie n'a pas de prix mais la mort s'achète J'ai vendu en détail la drogue en sachet J'ravitaillais l'bétail, les keufs nous pourchassaient J'ai beau quitter la ur' mais la ur' ne me quittera pas Le plus éloquent de vos députés cain-ri ne me guidera pas J'sors des Debeinguerie et ils pètent les XXX Euros, dollars ou livre, j'suis dans les papers moves J'fais des parenthèses même quand j'vais charbonner J'passe du point A, au point B, en passant par le point G J'aime les gros terma' et les fouffes étroites Si j'me lève du pied gauche, tu t'bouffes une droite Si j'suis pris dans les salades, j'appelle mon avocat J'mange une peine planchée, le juge a étudié mon cas J'suis un chacal, j'vais tous vous laissé affamer XXX Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Eh Franglish? J'ai dis à mes gars qu'ils disent à leurs gars d'rester à l'arrière, qu'ils sont pas encore prêts, pas encore préparés Let's Get It, Let's Get It</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Bando</t>
+          <t>C’est toi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yeah Oh oh oh Tcha, tcha Hi yeah, let's get it Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo yeah Tu me connais, cest ma manière dêtre bébé Je viendrais te voir, dabord, je fais des lovés Tinquiète pas pour moi, ils goutteront le sol, bébé Cest pour mes hits, pas pour fait dhiver que j'passe à la télé Compliqué, là cest compliqué, jai des choses à faire Jai pas ltemps d'te plaire, jsais quon fait la paire Pour acheter la paix, je leur fais la guerre, tu soigneras mes plaies Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Tcha, tcha, tcha, tu sais que j'viens du bendo, moi j'ai pas fait d'longues études J'ai appris à couper le bédo, armé j'peux faire d'la sécu Mon nom te fera honneur, zappe tes copines les clubeuses Elles voudront pas ton bonheur, elles mêmes, elles sont pas heureuses J'peux pas faire l'Casanova, quand on passe en gova Le premier qui kouma, un clin d'il, il coma J'étais au pied d'la montagne, ils jetaient leurs pierres sur moi Maintenant que j'suis au sommet, c'est moi qui serai là pour toi Le jour où j'mettrais un genou à terre, ça sera pour t'demander de m'épouser Mais pour l'instant baby, j'suis dans le binks, dans le binks Elle aime ma manière de faire, tout c'que j'fais cest élégant Elle sait très bien qu'j'suis dans l'binks J'fais du biff, j'fais mes jezz, que j'agis, que j'perds pas d'temps Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo bendo, bendo, bendo, bendo dans le binks Elle veut un mec du bendo bendo, bendo, bendo, bendo Let's get it Elle aime ma manière de faire Elle aime ma manière de faire Tout c'que j'fais cest élégant Tout c'que j'fais cest élégant Elle sait très bien qujsuis dans lbinks Jfais du biff, jfais mes jezz, que jagis, que j'perds pas dtemps Oh, elle veut un mec du bendo du bendo, bendo, bendo, bendo bendo Elle veut un mec du bendo du bendo, bendo, bendo, bendo Umh, elle veut un mec du bendo, bendo, bendo, bendo Elle veut un mec du bendo, bendo, bendo, bendo</t>
+          <t>Eh, eh Elles sont fans de moi, eh, moi, je suis fan de toi, eh Y a que ça qui compte, tu peux compter sur moi, eh Quand j'tai engagé, eh, je les ai dégagé, eh Comme tu mas choisi, je tai mis côté passager, eh On est dans le bolide, eh, normal quils critiquent, eh Nous deux, cest solide, tes pas là pour mon liquide, eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Nous, on sait ce quon fait, eux, ils voient que ce quon montre Nous, on y va molo, eux, cest course contre-la-montre Nous, on est en mala, eux, ils voient notre mala Nous, on va pas kala, eux, ils aiment les palabres On est dans le bolide, eh, normal quils critiquent, eh Nous deux cest solide, tes pas là pour mon liquide eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Beauté Blessante</t>
+          <t>Cette go</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend Bon j'avoue tu n'es pas Drake Mais t'as de quoi la faire craquer Surtout tes techniques de drague Mais devant sa beauté, faut pas que tu bégaies Elle aimerait voir qu'est-ce que tu dégages Quand t'es tout seul, sans tes gars Peut être que t'as un truc que j'sais pas Mais si tu l'a pas bah vas-y dégages ! La go ne peut pas refuser Elle ne sait pas que j'suis rusé Je n'suis pas la pour m'amuser Si elle veut la lune, j'vais construire la fusée Quitte la on connait ton CV J'ai dis quitte la on connait ton CV Entre toi et moi, y'aura jamais d'amitié Un peut de mais jamais d'amitié Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend J't'avais dis qu'j'allais la blesser J't'avais dis qu'j'allais la blesser Mais désolé j'suis pas médecin Je n'sais pas comment te soigner Ah, tchatcheur, blagueur, acteur J'ai toutes les qualités d'un dragueur Elle a même pas mis un quart d'heure pour donner son coeur J'ai pas de clés, j'suis un braqueur, boom Oh, j'ai même pas eu le temps de finir mon rre-ve Mon gava, t'as pris la créature de rêve Autour de nous, j'vois les renois sont paro Mon gava, tu vas devoir les gérer un par un Et peut-être que je fais mille mètres Passe, dégage, y'a six mètres De le noir, j'aperçois la silhouette Elle me rend mais j'suis pas une girouette Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend -Ah mon gars ! Non, toi Debeing c'est trop, laisse tomber, tu blesses -Ah Black, j't'ai prévenu, je blesses -Attends, attends, attends, attends, j'vais avancé. C'est comment? C'est comment? Serina, Karina, Amina, Monica, Elina ou peut-être Erika Mais non ! Black M tu m'as triqua, j'connais pas son blaze, elle va me guetter bizarre J'croyais qu'elle habitait sur ris-Pa Non tu m'as crié dans le tier-quar T'façon c'est la même, tu blesses, tu blesses les Mon gars, laisse tomber Elle ne peut pas te dire non Parce que ta beauté est blessante Même si elle dit que tu flambes T'façon, dès que tu montes, on te descend Elle ne peut pas me dire non Parce que ma beauté est blessante Même si elle dit que je flambe T'façon, dès que tu montes, on te descend</t>
+          <t>Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Jvois tout ses raclos, ouais, qui font les macros, ouais Jviens pour le mégot, ouais, comme sur un braquot, ouais T'as du monde sur les côtes, ouais, et jm'en bats les reins, ouais Jles tacles yaura pas faute, ouais, et jm'en lave les mains, ouais Jconnais pas ton fond, ouais, mais jconnait tes formes, ouais Moi c'que je ressens cest profond, ouais, tes pas dans les normes, ouais Jsais ce que tu vaux, ouais, jai ce quil te faut, ouais Ils font tous les vrais, ouais, jte dis tout est faux, ouais Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? 911, appelle la police, jvoudrais la caresser tellement elle a la peau lisse Jsuis ton super-héro, t'as capté mon vice mais j'suis sincère assez, j'attends que Dieu me bénisse Tu ma pris pour qui ? Tu ma pris pour quoi ? Tu penses que je voudrais juste passer la nuit avec toi Tu ma pris pour qui ? Tu ma pris pour quoi ? Laisse-moi le temps et le Tout-Puissant nous réunira Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ?</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Big Up</t>
+          <t>Choquer</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>Ah, hum, ah hum hum Ah, hum, ah hum hum Trois du mat', j'suis devant l'club et j'rentre comme si c'était un pub La queue est longue mais j'fais pas la queue, grosse équipe, dix fois deux Dix du front un d'mes gars dans l'fond Trop d'prestance mais qui ils sont, Versacisé, Gabanisé, Rolexisé, j'peux pas m'canaliser T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer J'suis un gars d'la tess, j'suis un gars d'la brèche, j'suis dans la presse, j'suis un gosse d'la hess Ça parle d'argent, j'peux pas nahess, j'te rentre dedans tu veux J'suis à ma table y a mes gars sûrs, j'te connais pas, tu fonces dans l'mur Tu m'parles de blanche, tu m'parles de pure, j'te connais pas, tu fonces dans l'mur T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer C'est le moment d'envoyer, rouler! Ah, on les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé de Paris jusqu'à Marseille Ils ont envoyé d'Abidjan à Bamako Ils ont envoyé Marrakech, Marbella Ils ont envoyé de London à Kinshasa Ils ont envoyé One, two, three, viva... ahah</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Blessé</t>
+          <t>Cœur démoli</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Jvous raconte lhistoire dune veuve Cest dur à croire mais ce nest pas une femme Je l'ai croisé en soirée, soirée Elle était si soignée, soignée Je nvoulais pas d'un coup d'un soir Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé Je fais le tour de toutes les boîtes de nuit pensant que je vais la retrouver J'me fais des films et des films Et j'me dis que non, elle pourra pas me repousser J'veux réécrire l'histoire Viens on repart s'il le faut, juste pour un soir Je n'vais pas te décevoir, même si c'est dur à croire Elle avait des lèvres parfaites, à croire qucétait un rêve Dans ce rêve, je brûle devant son regard de braise Je lavoue, je lavoue, je lavoue, je lavoue, je lavoue Cétait une go qui détruit des gars, eh La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé x2 La go ma blessé han, elle ma blessé La go ma blessé han, elle ma blessé Elle ma fait du mal, mal, mal et elle ma laissé Elle ma fait du mal, mal, mal et elle ma laissé La go là m'a blessé, la go là m'a blessé La go là m'a blessé, oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé La go m'a blessé, m'a blessé, m'a blessé Oui la go là m'a blessé</t>
+          <t>Ahn ahn ahn ahn Ahn ouh, ahnn ouh J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jsuis toujours le même, jai jamais joué de rôle Cest toi mon bras droit, cest toi mon fusil dépaule Chérie, j'suis ton homme donc les gens parlent de nous Les rues sont remplies d'sang, j'peux pas me mettre à genoux Mes frères de la rue sont comme mes frères de sang Jai pas beaucoup damis, j'connais juste beaucoup de gens Et jai des goûts de luxe, les riches m'ont contaminé J'veux plus revivre la hess, jen suis traumatisé Jétais dans le gouffre, là où tout l'monde souffre Où tu prends du ferme parce quaucune porte ne souvre Jai pris ma vie en main, avec mes couilles et mon cerveau Instagram et snap, j'poste tout sur mes réseaux J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jaime aussi plaire aux femmes, cest un d'mes gros défauts Jai ça dans les veines, jaime flatter mon égo Donc les femmes parlent de moi, dans Paris, y a des échos J'bombarde dans ma Merco, j'vois toutes mes exs dans le rétro Mais faut les comprendre, j'suis devenu une star Et ça reste un fantasme de coucher avec une star On choisit pas doù on vient mais on choisit où on va Jai créé mon chemin, plutôt qumarcher au pas J'me r'vois dans ma cellule avec vue sur la merde Faut qu'jassure la vie d'mon fils, sur la vie de ma mère J'préfère un ennemi fort plutôt quun ami faible Je sais qui f'ra le mort, je sais qui va me faire J'préfère être triste et riche que rester joyeux mais pauvre J'suis pas de ceux qui flippent, je suis de ceux qui osent Même si j'me fais fume, comme XXXTentacion Le jour où j'partirais, on oubliera mes bonnes actions J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Ahn ahn ahn ahn Ahn ouh, ahnn ouh</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Boule Noire</t>
+          <t>Conscience</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Maes - Booska C - 0601 Kekra - Booska Césarienne - 0601 Max Paro - Critical 0801 Elams - Elams et les 40 voleurs - Épisode 2 - Lyon ft. ISKA, Pouya ALZ, Big Ben, Sasso Miro Starf - 0801 Hornet La Frappe - C'est mort ft. Leto RK - 0901 Leonis - Apollo - 0901 Les Alchimistes - Personne - 1001 Luv Resval - Side - 1001 Scridge - Ghetto ft. Landy - 1501 Doni M - Zig Zag - 1701 AM La Scampia - Fais-le - 1701 Gambi - Dans l'espace ft. Heuss L'enfoiré - 2201 La Fouine - Première fois - 2201 S.Pri Noir - Dystopia - 2301 Captaine Roshi - Opération CDL ft. Black D - 2301 Chily - Tout est calé ft. Koba LaD - 2301 D.Ace - La vérité - 2301 ISK - Garantie - 2301 Josman - Petite Bulle - 2301 Le Club - La maille - 2401 Benab - J'ai demandé à la rue - 2401 Damso - veillé - 2401 DTF - Baida - 2401 DTF - Maria - 2401 Laylow - TRINITYVILLE - 2401 LMB - Ça dit quoi poto - 2401 Timal - Routine - 2701 Naza - Souris verte 2901 Hache-P - Arès - 2901 Dika - Cur glacé ft. Sadek - 2901 Shotas - Compton - 2901 7 Jaws Seezy - Turbo S - 3001 Bolemvn - Frappe atomique - 3101 Bosh - Cur noir - 3101 Chily - Booska KushCoffee - 3101 Driks - Couleur ébène - 3101 Dry - Atlantis 1 - 3101 Graya - Dans la Cristaline ft. Naps - 3101 Hugo Nogam - Histoire sans fin ft. Dadju - 3101 Jok'Air - Jok'Chirac - 3101 Jok'Air - Sa mère aux mères ft. Diddi Trix, Sadek, Luv Resval Alkpote 3101 Kader Diaby 4real - Venez voir - 3101 Kekra - Comment on fait là ? - 3101 Kofs - Santé Bonheur - 3101 Marwa Loud - Allez les gros ft. Naza - 3101 Paolo - Comme un glaçon - 3101 Seizur - Ma gow - 3101 Vin's - Égalité - 3101 2zer - Balle perdue 5 - Blood Diamonds Février - 0202 Kikesa - Elle sait - 0302 Liim's - Favelas - 0502 USKY - Douce folie ft. Doxx - 0602 CG6 - Bizness - 0602 Sofiane - Training Day - 0702 Brvmsoo - Sale boulot ft. 4Keus - 0702 David Okit - Belek 0702 Gato da Bato - Ma vie - 0702 GLK - Maudit - 0702 Kaza - 3.5.7 - 0702 Meryl - TCQDOF - 0702 Soolking - Meleim ft. Dadju - 0702 YL - Larlar 2 Tennessee - 1002 Landy - Brave III Freestyle - 1202 ZKR - On se comprend ft. DA Uzi - 1402 Eden Seven - Dîner ft. Zed - 1402 Kofs - Embourgeoisé ft. Kaaris - 1402 Lujipeka - Palapalaba - 1402 TK - Benalla - 1402 T2R Minissia - Mariage 1 - 1402 Popey - Tchop ft. Sadek - 1402 Savage Toddy - AHAH ! - 1402 Zoupouti - Lolipop - 1602 Balao - Or brut - 1702 Sneazzy - Feu régulier - 1902 Barack Adama - Sirène - 2002 Naps - 6.3 ft. Ninho - 2002 Sofiane - Des malades - 2102 Abou Debeing - Meilleurs ft. Tayc - 2102 DA Uzi - Le dire ft. Maes - 2102 Dosseh - L'odeur du charbon Remix ft. Maes Dinos - 2102 Jok'Air - Ne pleure pas 2102 K.R.K - La maille - 2102 Sifax - Reste un bandit - 2102 Soolking - Marilyne ft. SCH - 2102 Timal - Week-end ft. Leto - 2102 ZeGuerre - Freestyle SixNueve 2102 2zé - Zézon - 2602 Soso Maness - DDD ft. Hornet La Frappe - 2702 Bekar - Aléas - 2702 Ninho - M.I.L.S 3 - 2702 Senyss - Bad Mama Jama - 2702 - Sneazzy - À quoi tu joues ? - 2802 Alonzo - Freestyle GG - 2802 ALP - Dernier vol ft. Niro - 2802 DJ Erise - TECO ft. Franglish 2802 Dry - Atlantis 2 - 2802 Green Montana - 6AM - 2802 Gros Mo - Rouler GZSC - 2802 Hatik - Encore - 2802 Sam's - Validé ft. Lacrim - 2802 SDM - La zone ft. Booba - 2802 Yanslo - Oublier Mars - 0103 Balao - 9 carats 37,5 ft. Salek - 0403 Shotas - GF - 0403 ZeGuerre - Corsé 7 - 0503 Dika - Enfant du block ft. Naps AM La Scampia - 0603 Rim'K - Valise ft. SCH Koba La D - 0603 GLK - Mauve - 0602 Haristone - Overdose 0603 K.R.K - Saint-Honoré - 0603 Kekra - Putain de salaire - 0603 LMB - La bringue 1 Plan B - 0603 Nseven7 - OTT2 - 0603 Onze - 11.2 - 0603 R.E.D.K. - Le Block - 0603 Soso Maness - So Maness - 0603 YL - Larlar 3 Copenhague - 0603 Zoupouti - Lollipop Remix ft. Diddi Trixx, NoName Laskiiz - 0903 Booba - CAVALIERO - 0903 Hös Copperfield - La route est longue - 1103 PSO Thug - Ça parle mal - 1103 4Keus - Wakztoubi 3 - 1203 Abou Tall - Bosser 1203 Elams - Elams et les 40 voleurs - Épisode 3 - Paris ft. The S, Mamso, Mous-K, OR, ALP, Bosh Dabs - 1303 Brvmsoo - Bénéf ft. Dinor Rdt - 1303 Denzo - La sacoche ft. Koba La D - 1303 La Malfrappe - Dans ma folie ft. Timal 1303 Le R - Moon ft. Brvmsoo - 1303 Shro - Tout va bien - 1303 Tuerie - Low - 1403 L'Allemand - Hors série C - Bizarre - 1503 Balao - 14 carats 58,4 - 1603 Big Ben - Petit bateau - 1703 Dinor Rdt - Minimum ft. Naza - 1803 Barack Adama - Vu - 1803 Guette l'ascension - Porte tes Couilles 3 ft. Tisco, Kenedy, Tvmo Nesko - 1903 Bosh - Business ft. SCH - 1903 Kalash Criminel - Pronostic - 2003 DA Uzi - Booska New York - 2003 Key Largo - Comme un ouf - 2003 Liims - Dans la tess - 2003 L'As - Distances ft. Lacrim - 2003 Max D. Carter - Yvng Læn - 2003 Rohff - T'as capté TCT - 2003 Twinsmatic - GROSLOT ft. 13 Block Koba LaD - 2303 Big Ben - Palerme - 2403 Benab - Kif Kif - 2503 Hugo TSR - Périmètre - 2503 Leto - Double Bang 9 - 2603 Bosh - Défilé - 2603 Keblack - De quoi tu parles - 2603 JuL - Sousou - 2603 Savage Toddy - Règlement Gang Freestyle - 2603 26 Keuss - Levi Strauss - 2703 DA Uzi - Autre part - 2703 Diddi Trix - Quoi d'neuf - 2703 Green Montana - Séquelles - 2703 Gros Mo - Résistance GZSC - 2703 Les Frères Lumières - Adal 2 - 2703 Koba La D - Ça ira mieux demain - 2703 Rohff - Solo - 2703 Yanslo - Ntiya ma vie - 2803 Hös Copperfield - Libanda - 3003 Doria - Calcul - 3103 Zoupouti - Oulalala Avril 0104 Dr Yaro La Folie - Je deviens fou Freestyle - 0104 Fetiche - Freezer - 0304 A2H - Angoisse - 0304 Luv Resval - 696 - 0304 Rohff - Tous à labri - 0304 Shro - Yankée Öko - 0304 Vin's - Sur mon trottoir - 0304 13 Block - BOÎTE 6 40 KIL - 0504 Young Tomy - L'hiver arrive - 0804 Zesau - Dans le noir - 0604 DA Uzi - Flashback - 0904 DJ Erise - Monte en lair ft. Naza - 1004 Bolemvn - Comment ça va ? - 1004 Gros Mo - Maria GZSC - 1004 Moha La Squale - On roule - 1004 Mister You - Casanostra ft. 3robi - 1004 S.Pri Noir - T'as capté ft. Sneazzy Alpha Wann - 1104 Naps - KNK ft. Kalif Hardcore Kikou - 1604 Didi B - Assinie Remix ft. H Magnum Lefa - 1604 Hoos - Allô - 1604 Médine - EXOMÉDINE - 1704 Alrima - Tcha tcha tcha - 1704 Elams - Bandida - 1704 Guizmo - Lamine - 1704 Kalash Criminel - Dans tous les sens - 1704 KPoint - Boule magique - 1704 L'Algérino - La vida ft. Soprano 1704 NoName - Bah oui Anoname 5 - 1704 Onze - Tout va bien - 1704 RK - F.A.C - 2204 Sifax - Charlemagne ft. TK - 2204 Skaodi - Que des mots 2204 The S - Old Up 3 ft. Popey, Key Largo, Dika, ISK, COR, Cheu-B, Moha K, Kazmi, Decimo, SLK, NKD, BKL, RBK - 2204 2zer - Balle perdue 6 - NMI - 2304 Tayc - Léwé - 2404 Bramsito - Medusa - 2404 Oboy - Rémus - 2604 Big Ben - Comprends-moi - 2804 Marty de Lutece - Brûler ft. Brö - 2804 Naps - Il rôde - 2904 Bekar - Soleil s'allume - 2904 Lossa2squa - Hinata - 2904 OM La Compo - cOMbat quotidien ft. Kemmler, Hatik, Zamdame, Relo, Saïd, DRIME, AM La Scampia R.E.D.K. 3004 ALP feat. Yaro Graya - Ganté - 3004 Klub des Loosers - Battre - 3004 La Cour de Récré - Règlement Fitness Freestyle Mai - 0105 Big Dada - Tout va bien ft. Noxious - 0105 Bolémvn - Prends ta monnaie ft. RK - 0105 LMB - Ice Vision - 0105 Michel - Tejla 0305 Beeby - Répondeur - 0305 Narkonic - Malabar - 0505 Soso Maness - Mistral - 0605 Kodes - William Thomas Freestyle - 0605 The Hop - Berline noire ft. Jazzy Bazz Krisy - 0705 Ashkidd - HOLÀ - 0705 Chanje - Casper - 0705 Naps - Fais le bisou - 0705 Naps - Poropop Remix ft. Soolking, Sofiane Kliff - 0705 PLK - Hot16Challenge2 - 0705 San-Nom - Barbapapa - 0705 SDM - À l'affût - 0705 Youri - Règlement Gosse Freestyle - 0805 Chilly - Dans mon barrio - 0805 Larry - Routine - 0805 Luv Resval - Thor ft. Diddi Trix - 0805 Lyonzon - Confinato - 0805 Max Paro - Ma belle - 0805 OldPee - FER - 0805 Yuzmv - L'exil - 0805 Zola - Bro Bro - 0905 JuL - Fait d'or - 1205 Booba - Jauné ft. Zed - 1405 Abou Tall - Mona Moore 1405 B-NØM - Règlement Bêta Nu Freestyle - 1505 Artik - Netflix - 1505 Beny - Antipop - 1505 Bolémvn - Sentiments 1505 Hamza - 140 BPM - 1505 Hooss - Vie de rue - 1505 Kalash - Toujou la - 1505 Matou - Grosses sommes ft. PLK - 1505 OBOY - Kenzo ft. Harley Moko - 1505 Scylla - Sales mômes ft. Furax - 1505 ZeGuerre - Shoot 1505 Zidi - PASSÉ - 2105 Huntrill - Fk La Drill - 2205 Amin - Elle 2205 Bolémvn - Booskateuf Freestyle - 2205 Bramsito - Criminel ft. Niska - 2205 Diddi Trix - Toujours - 2205 Gros Mo - Minuit pile - 2205 Guti Gutss - Gutti World Non - 2205 Marty de Lutece - Nudes - 2205 Zed Yun Pavarotti - Lalaland 2305 Guy2Bezbar - La callé - 2405 Abdxxl - Planète - 2405 Kikesa - Je danse comme ça 2405 Moha La Squale - Paris 2705 Badjer - CestCarre Dans laxe - 2705 EDGE - Obsolète 2705 H Magnum - Gatement - 2705 JuL - Folie 2705 Petit Voyou - C'est l'été - 2805 Dajak - Phonecall 2805 Richi - Règlement TLJ Freestyle 2905 ALP - Police - 2905 Denza - Audemars Piguet - 2905 Franglish - Biberon ft. Leto Tiakola 2905 Goulag - OPOP - 2905 Green Montana - Les ennuis - 2905 Hatik - Ali - 2905 Krisy - Je t'aime encore - 2905 L2B Gang - Trahison - 2905 Moubarak - En Clio - 2905 RK - SOS - 2905 Soso Maness - BOOSK'AAARAH - 2905 Vin's - PCGPCP 3105 Moha La Squale - Basta - 3105 Sese Kepler - Gang Shit 7 Guantanamo ft. Leto Juin 0106 Worbhé - Dowpe 0306 Djalito - Virage - 0306 Luv Resval - Molly - 0406 La Cour de Récré - Speed 0506 A2H - Aime-moi encore - 0506 B-NØM - Ce soir - 0506 Chily - Bendo - 0506 DJ Weedim - Je vous aime ft. Reta - 0506 Lacrim - Booska R4 - 0506 Le Juiice - MATIN 0506 Nino B - Millions - 0506 RK - Freestyle Neverland 1 - 0506 TK - Salam - 0506 Zikxo - Tout ou rien 0506 K.R.K - Tous les jours - 0606 Ziak - Quatre 0806 Juicy P - NLBLB - 0806 Moha La Squale - Chez Babou - 0906 Yannou JR - OG - 1006 Guette l'ascension - Porte tes Couilles 4 ft. Poulaxe, Skodri, Biscuit Tisco 1006 Joysad - Booska Périgueux - 1006 Sifax - Mecs de cités - 1106 Lujipeka - Booska Ozone - 1106 Norsacce - 4 saisons ft. Freeze Corleone - 1206 Benab - Sourire ft. Maes - 1206 Coyote Jo Bastard - Hoodboy - 1206 Doria - Tempo - 1206 F430 - California - 1206 ISK - Fazer ft. YL 1206 Juicy P - Piloter ft. KPoint - 1206 Kalash Criminel - Écrasement de tête - 1206 Klem Schen - Vision différente - 1206 Lacrim - Allez nique ta mère ft. Soso Maness - 1206 Landy - Aucune limite - 1206 Le Sid - Bouré.e ft. Nelick - 1206 Lpee - London - 1206 Mister You - Pénurie - 1206 Nahir - Fin de partie - 1206 RK - Freestyle Neverland 2 - 1206 Slim Lessio - Ah fou - 1206 Tovaritch - Booska Poutine - 1506 Moha La Squale - Amsterdam - 1506 Vendredi 13 - Second psaume - 1706 Biwaï - Awe - 1706 Gazo - Drill FR 4 ft. Freeze Corleone 1706 Jo Le Phéno - Bavure 3.0 - 1706 Sotof - BST 1806 Fiji God - Règlement PLM Freestyle - 1806 Gambi - MACINTOSH - 1906 DIL - Vengeance - 1906 HZY - Jack Sparrow - 1906 Jewel Usain - CTRL - 1906 Klem Schen - Vision claire - 1906 LauCarré - Dans le game - 1906 Le Juiice - MIDI - 1906 LMB - La bringue 2 LVDLF - 1906 San-Nom - Saucisse - 1906 Savage Toddy - Décisions - 1906 thaHomey - Lundi Mardi 1906 Tisco - Mascarade ft. Biscuit - 1906 Toma - Parcours 1906 YKM - Pochtar 2006 Almeida - Iceberg - 2106 Ibrak - GAVA 2106 Rouhnaa - Twitter 2106 TiiwTiiw - FOLLE DE LUI ft. Lacrim - 2106 TripleGo - BRRR 2206 KLN 93 - À 200 - 2206 Senamo - 7Up 2206 Shro - Inshro - 2306 TK - Premier pas - 2406 DJ Weedim - Rends l'argent ft. Stxck Mv, A2H, Youri San-Nom 2406 Jaekers - Vaisseau 2406 Popey - Besoin d'elle ft. Dabs 2506 ALP - Boosk'ALP 2506 Tonio le Vakeso - Pirogue - 2606 Dabs - STOP - 2606 Dante Sito - Johnny Interlude - 2606 Doxx - Ailleurs - 2606 Eden Seven - Trashboy - 2606 Elh Kmer - Cours - 2606 Franglish - Mauvais garçon Remix ft. Kaaris - 2606 HMZ - Choupetta ft. Sofiane Heuss L'enfoiré - 2606 Hös Copperfield - Léwé - 2606 Joysad - Californie - 2606 Key Largo - M'en sortir ft. 4Keus - 2606 Kikesa - Mort de rire 2606 Lasco - Funk petit - 2606 Les Frères Lumières - Si si si ft. Bosh - 2606 Leto - Paris c'est magique - 2606 Lord Esperanza - Couronné - 2606 Paolo - AQB - 2606 RK - Euros ft. Maes 2606 Swift Guad - Habité par le Diable - 2606 Zefor - L'Homme Mystère - 2606 ZKR - Freestyle 5min 8 - 2806 Django - À l'envers - 2806 Moha La Squale - Bébé de Bogota - 2806 Swift Guad - Épicurien 2906 KRK - Ohoh 3006 Bayssou - Coup de girafe - 3006 Bekar - En principe 3006 Niaks - Drilluminati, Pt.1 Juillet 0107 2CheeseMilkShake - Croix rouge ft. Biffty, Julius On The Wave 21Souyard 0107 S.Téban - Le Code ft. JMKS 0107 Souri B - Quedlabonne 4 0107 TK - Dans la gova 2.0 0107 ZeGuerre - Zé ft. Sofiane 0207 Kalash - Plus de love 0207 Lartiste - La chanson 0307 2TH - Solo - 0307 AM La Scampia - Bingo ft. Hatik 0307 B2L - PTD 0307 C.O.R - Pas net ft. Sofiane - 0307 Kaaris - Goulag - 0307 Kalash Criminel - Peur de personne - 0307 Koba LaD - Laisse tomber - 0307 Lyonzon - Flamengo - 0307 SDM - Yakalélo 0307 Souli - L.S.O.L.A ft. Diddi Trix - 0307 Yanso - Everyday - 0307 YL - J'me casse ft. Naps - 0607 Alkpote - Booska'Pétrole 0607 Worbhé - Dans le bat' - 0807 MS13 - Fait monter la bête - 0807 SEB - Flemme 0907 L'Allemand - C'est chaud - 1007 A2H - Hors de ma vue - 1007 Jolly - KATANA ft. Kpri - 1007 Kanoé - Mouv' du boug - 1007 Krilino - Habibi - 1007 Michel - Ouais c'est grave ft. Hatik - 1007 Niska - Bandit chef ft. Madrane - 1007 Noname - Ice - 1007 PLK - C'est mort - 1207 Deeloc - JACKIE ft. Key Largo - 1207 Moha MMZ - Paranoïack 1407 BFG - Makossa - 1407 Booba - Dolce Vita 1507 2CheeseMilkShake - Pourquoi ? 1507 Djadja Dinaz - Freestyle Pays-Bas 1507 Djalito - En règle 5 1507 TK - La night ft. JuL - 1507 Naza - La musique est bonne ft. Heuss L'enfoiré - 1607 Denzo - Booska Atroce - 1607 Leonis - Freestyle Blue 1 - 1707 Alonzo - OOP - 1707 Benab - RS3 ft. Timal 1707 Chily - Complètement rebanav 4 - 1707 Dabs Fashion ft. Kaza 1707 D4R - Teudger 3 1707 Guti - Gutti world 2 - 1707 Jolly - Zone 51 ft. Freeze Corleone - 1707 Mac Tyer - Moto ft. Ninho - 1707 Norsacce - Headshot 1707 Popey - Loin - 1707 Vendredi 13 - Kaiju 1707 Youboy - Mal luné 1 - 1907 LVZ - Meda - 2007 eden dillinger - FREESTYLE 2Ø2Ø 2007 Hermano Salvatore - Abuela 2207 Koba LaD - Freestyle Quartier - 2207 Squidji - Feeling 2407 100 Blaze - Dans le club 2407 Amar Makaveli - Sky ft. Chilla 2407 Arma Jackson - La boussole - 2407 Cheu-B - B.S.E Le Sky 5 2407 Dinero - Faut consommer ft. 4Keus - 2407 Doria - Pas le choix - 2407 GLK - Maracanã 2407 King Doudou - Sous les balles ft. Marty de Lutece 2407 Lacraps - Tah les bombes - 2407 L'As - Hôtel 2407 Lord Gasmique - 1 000 000 2407 Momsii - Tard la night ft. Timal 2407 Nahir - Danilo 2407 Rim'K - Warning - 2407 Sam's - Mec de mon bâtiment ft. Aboudou - 2407 Savage Toddy - Hood ft. Luv Resval 2407 Slimka - Slide 2407 Vegedream - Marchand de sable Part.6 Gestuelle 2407 Zidi - Toxic ft. Assy - 2407 Zoupouti - Tempête - 2607 Kikesa - Toujours en retard 2707 Freeze Corleone - Desiigner 2707 Key Largo - Miam miam 2707 RK - Booska 1H - 2807 Makala - M30 2907 2CheeseMilkshake - J'ouvre une cagnotte 2907 Black D - GESTU - 2907 Djadja Dinaz - Féfé lambo 2907 Djalito - En règle 6 2907 Frigun - Voyoucratie 2 2907 Kekra - Twisted 2907 D2T - Le sang 2907 Lazer MMZ - Jungle 2907 Sese Kepler - Gang Shit 8 - 2907 Shotas - Jaloux - 2907 Siriki - Présentation 2907 - Vin's - PCGPCP Remix ft. Demi Portion, Melan Les Frères Scotch - 3007 Deen Burbigo - Tout dedans - 3007 La F - Appel Masqué 6 - 3007 YL - Larlar 4 Air Bel Gang - 3107 Alonzo - Toi, t'es chelou ft. Landy 3107 Costa Lumni - Vérité 3107 Jaekers - Vert sachet - 3107 Kaaris - NRV - 3107 Larsé - Couronne - 3107 Lasco - Dis-le moi 3107 Leto - Nouveaux riches ft. Niska - 3107 Lorenzo - Fonsdé toute la night - 3107 Luv Resval - Smith Wesson - 3107 Michel - Je m'en ballek 3107 Nyda - Ghetto Août - 0108 Lucio Bukowski - Road Runner - 0308 Hatik - West Indies - 0308 Kanoé - Freestyle Orochimaru 0508 Kader Diaby 4real - Go 0508 Rowjay - ASTRAL DRILL - 0508 The S - Pupetta 0508 YZLA - Orage d'été I - 0608 13 Block - Tieks ft. Niska - 0608 Le Nine - FTB 7 ft. Abou Tall - 0708 C.O.R - La cité 0708 Josué - La jambe - 0708 Richi - Chorale ft. Youri - 0708 Sadek - Y en a - 0708 VSO - Dans le cur - 0708 Zesau - Anarchie ft. Freeze Corleone Stavo - 0908 Afro S - Cartouche 6 - 1108 F430 - Guap Summer - 1208 LuXe - Du Seigneur - 1208 Still Fresh - Tête-à-tête 1308 Jarod - Plus qu'avant - 1408 A2H - OG - 1408 Kaaris - Freestyle 2.7.0 1408 Lyms - Teaser 1408 Primero - Promenades 1408 Yanso Tawsen - La vida - 1508 JuL - Bande organisée ft. Elams, Ghetto Phénomène, Kofs, Naps, SCH Soso Maness - 1608 Shotas - La famille 1708 Leto - Booska 100 visages 1808 Kalash Criminel - A.D.N 1808 Kekra - Rolex HLM 2108 Sizlac - 45 ft. Dosseh - 2608 Petit Voyou - Immortel - 2708 Gazo - Inceste - 2808 Elh Kmer - Béni ft. Captaine Roshi - 2808 Heuss L'enfoiré - BX Land 5 - 2808 Jarod - 80's - 2808 Klem Schen - Mano 2 2808 Lacraps - Guerrier ft. Polva - 2808 VSO - Midi Mode - 2808 YL - Tout laisser 3008 Tonio le Vakeso - Orageux ft. Cenza - 3108 LuXe - La vie que t'aimes Septembre - 0209 Dosseh - Propagande 1 A 45 - 0209 Guizmo - Maman m'a dit ft. Nekfeu - 0309 Afro S - Woo ft. Kaki Santana - 0309 Frenetik - Infrarouge - 0409 Green Montana - Sale tchoin - 0409 Koba LaD - Beldia - 0409 Lyms - ISS - 0409 ZKR - Romance criminelle - 0409 Zuukou Mayzie - Survet Bayern Doc ft. Di-Meh - 0809 eden dillinger - OUIJA - 0909 Gringe - On aboie en silence - 0909 Ormaz - NOIR Freestyle 2 - 1009 Guirri Mafia - Comme un dream ft. SCH - 1009 Soolking - Rockstar 2 - 1109 2CheeseMilkshake - J'envoie des cheese - 1109 C.O.R - Clio - 1109 Harley - S.O.U.S - 1109 Maka - Etoile Makavelax 1 1109 Max Paro - Douane volante - 1109 Naza - Joli bébé ft. Niska - 1109 Ninho - Carbozo 2.0 - 1109 SDM - Titulaires ft. Koba LaD - 1109 SONBEST - Sad Love 1509 Graya - C'est la guerre ft. ZeGuerre - 1509 Niaks - Drilluminati Pt. 2 - 1609 7 Binks - Booska Bât 7 - 1609 A2H - Le cur des filles - 1609 Djalito - En règle 7 ft. Cheu-B - 1609 Makala - Hitman Go 1709 2G - Ma vérité ft. Mac Tyer 1709 Geeeko - Drunk ft. Coyote Jo Bastard - 1709 Jewel Usain - Bruce Lee - 1709 Spider ZED - C'est pas bien ft. Bigflo Oli - 1709 YG Pablo - Pandore ft. Tsew The Kid - 1809 Bosh - Trixma 1809 Elh Kmer - Rescapé Punition3 - 1809 GLK Pas sommeil - 1809 Hayce Lemsi Volts Face - Comme dit maman - 1809 Heuss L'enfoiré - L'ancien - 1809 La F - La violence ft. Freeze Corleone - 1809 Le A - Pas là ft. OldPee - 1809 Médine - Grand dla tess ft. Hatik 1809 Samy Ceezy - Cup ft. Tortoz - 1809 Samy Ceezy - S.A.M.Y - 1809 Sifax - Affranchis 1809 Sultan - L'amour n'est pas un jeu - 1809 Vendredi 13 - Majora 1809 Venlo - Là - 1909 Les Anticipateurs - SAPOUD 2020 - 2109 Hotel Paradisio - Cobra - 2109 LuXe - Circuit ft. Raptor X - 2209 1PLIKÉ140 - BATARD 4 - 2309 4keus - Tu nous connais - 2309 Bekar - Destinée - 2309 Hooss - Paid In Full 7 - 2309 Lacrim - Jacques Chirac - 2309 Rounhaa - Chromatyk 2309 ZeGuerre - Bolide - 2409 BKL - Gâchette R8 ft. Cheu-B - 2409 Dosseh - Place de l'étoile ft. Gazo - 2409 Hunter - Dessine - 2409 Koba LaD - 7 sur 7 ft. Freeze Corleone - 2409 Petit Voyou - En terrasse - 2409 Swift Guad - Anti-social ft. Cenza, Souffrance, Deadi, Davodka, Original Tonio Daddy Mory - 2509 DA Uzi - Boys Band - 2509 Gims - Immortel - 2509 Grems - HOSTEL PLAZA - 2509 Illustre - Type chelou - 2509 JNR - Une vie - 2509 Kobo - Barry White - 2509 Landy - Filon 2509 LauCarré - T'as compris l'truc ? - 2509 Lestin - Sunday Afternoon ft. Zed Yun Pavarotti - 2509 Matou - Neptune ft. Kikesa - 2509 Nahir - Fin de couplet 8 - 2509 Nusky - Naïf ft. Poupie - 2509 Rémy - Booska Sale - 2509 Roms - Roule - 2509 TLZ Clan - Monde onirique - 2509 Vegedream - Pour nous ft. Tayc - 2509 Zuukou Mayzie - Spike - 2709 Kikesa - Rêve encore - 2809 Criminls - War ft. Mezgo, Slim C, Freeze Corleone, RAS Power Genius - 2809 Hös Copperfield - Après la pluie ft. Leto - 2809 Népal - Dans le fond - 2909 Népal - Cheddar - 3009 Kekra - Manu milli HLM - 3009 Le Club - Coloré ft. Key Largo 3009 Max Paro - OMG - 3009 Népal - Coach K Octobre - 0110 Le Juiice - O NONO ft. Meryl - 0110 Népal - Même vie - 0210 Benab - Dounia - 0210 Chanceko - Malaboy 0210 Chicaille Argentée - Freestyle Signature 0210 Denzo - Bad Woo 0210 Dinaro - Fumette - 0210 DJ Kayz - Monte le son ft. Niska - 0210 Gazo - Drill FR 5 ft. Hamza - 0210 Guizmo - Enfumé ft. Soso Maness - 0210 Kaza - Pare-balles - 0210 Lycos - Dimension - 0210 Mous-K - Fais ta money - 0210 Népal - Benji - 0210 Ninho - La zone - 0210 Ninho - Problèmes du matin - 0210 Noname - SLT - 0210 Sid les 3 éléments - Shit - 0210 Soolking - Booboo - 0410 Luni - Sous ma veste - 0410 Rifa Samb - Danse avec les loups - 0510 Guy2Bezbar - La callé Part. 2 Remontada 0510 Hash24 - En plein cur - 0510 Popey - Imbécile ft. Dosseh - 0710 eden dillinger - BLESS - 0710 RK - Billie Jean Remix ft. Alonzo Timal 0710 Younès - Bientôt à la mode - 0810 Alkpote - Freestyle Règlement Baltimore - 0810 Deen Burbigo - Cerle vertueux - 0810 Médine - FC Grand Médine - 0910 Bigflo Oli - Au revoir 0910 Black-D - Fortnite - 0910 Chily - Téléphone 0910 Elh Kmer - Mélodie glorieuse - 0910 ISHA - Une maman qui pleure ft. Key Largo Jok'Air - 0910 ISK - Dans le réseau 0910 Lacraps - Ma noirceur 2 0910 Leonis - Méga - 0910 Max D. Carter - Hikikomori 0910 N'Seven7 - Skoll - 0910 Senyss - Spirit of Ecstasy 0910 Shotas - J'marche - 0910 Sper-K - Cash - 0910 ZKR - Poursuite ft. Koba LaD - 1110 Kanoé - BIZNESS - 1110 Lazer MMZ - Amore - 1310 RTT Clan - Travail d'ekip ft. Freeze Corleone, Norsacce, Doc OVG, Shaka, Kpri Black Jack - 1410 Captaine Roshi - BooskAttaque - 1410 Sofiane - American Airlines ft. SCH 1510 Geeeko - Rodéo - 1510 InnossB - Best ft. Damso 1510 Kenzy - Numéro 10 - 1510 Spider ZED - Overdose - 1510 Zuukou Mayzie - Règlement L.O.T.R. Freestyle - 1610 100Blaze - Ganja ft. 4Keus - 1610 4Keus - Sportback ft. Hornet La Frappe - 1610 AM La Scampia - Je m'isole - 1610 Doxx - Comme avant - 1610 Green Montana - TOUT GÂCHER ft. Booba - 1610 Guizmo - J'fais du rap - 1610 Kalash Criminel - But en or ft. Damso - 1610 Kemmler - Je veux tout - 1610 Klem Schen - Triste - 1610 K.S.A - CDN Freestyle ft. Alpha Wann - 1610 Lorage - Quelque part - 1610 Makala - Sergueï Diop - 1610 Noname - Train de vie ft. Key Largo - 1610 Rohff - G.O.A.T - 1610 Tayc - Ride ft. Leto - 1810 Kozi - Unstoppable ft. Freeze Corleone - 1910 A2H - Booska Rédemption - 1910 Alonzo L'Algérino - Faim d'Europe - 1910 Ziak - Fixette - 2110 Bolémvn - Couler - 2110 Chicaille Argentée - Bails noirs - 2110 Poupie - Feux ft. JuL - 2110 Simony - Boucle - 2110 Shotas - Code S7 - 2210 1PLIKÉ140 - Tranquillement - 2210 Captaine Roshi - Molotov 2210 - Julius - Quoi d'neuf docteur ? - 2210 Lujipeka - Putain d'époque - 2210 Meryl - Règlement Toutdedans Freestyle - 2210 Youri - Cur - 2310 Bosh - Slide - 2310 C.O.R - Jamais vu ft. 13 Block - 2310 DA Uzi - WeLaRue 5 - 2310 Dr. Yaro La Folie - Papa fait du sale ft. Hornet La Frappe - 2310 Enfantdepauvres - DIX - 2310 Gims - ORIGAMI - 2310 Jok'Air - Clic Clac Bang Bang ft. Laylow - 2310 Kaaris - IRM ft. Freeze Corleone - 2310 LMB - Innocent - 2310 Moha - CZ 75 2310 Theorem de Gama - Rêverie - 2310 Toma - La dalle ft. Hatik 2510 Tonio Le Vakeso - Monnaie ft. Davodka - 2710 Frenetik - Booska'Peinture - 2810 La Fouine - Millions - 2810 YZLA - PASSWORD ft. 2zer - 2910 47Ter - Vivre 2910 L'Allemand - MINGUETTES - 2910 Youv Dee - Règlement Spaceship Freestyle 3010 La F - 691 Part.2 - 3010 PRIME - Canon long - 3010 Taïro - Révolution Part. 2 Oublié - 3010 Uzi - Violet ft. RK - 3110 T.I.S - Folie humaine Novembre - 0111 Ashe 22 - Booska PDP - 0311 Koba LaD - Booska 1H - 0411 AM La Scampia - ZIP - 0411 AnNie.Adda - Si je quitte les Enfers - 0411 Coyote Jo Bastard - Fusil - 0411 Nahir - Moneygram ft. Freeze Corleone - 0511 Spider ZED - Règlement Politique Freestyle - 0511 Zola - Booska'Sten 0611 4Keus - Bosse comme un boss - 0611 Booba - 5G 0611 Dika - Descente - 0611 Django - Pyramide ft. Osirus Jack 0611 Leonis - Charbonner - 0611 Mous-K - On part à la guerre ft. Bosh - 0611 OBOY - Cruel - 0611 Norsacce - GOSPEL BROLIK ft. Ashe 22 - 0611 S-Pion - 100 G - 0611 sean - Le bon, la brute et le truand - 0611 Zikxo - 32 temps - 0711 Hugo TSR - Senseï - 0811 DJ Titaï - 5 étoiles ft. Lefa - 0811 Kekra - Swish HLM - 1111 Kodes - Code La B du 7 - 1111 Onze - Minerai 1111 Rounhaa - R sans R - 1211 Captaine Roshi - Champions - 1211 EDGE - Kylie Jenner ft. Esso Luxueux - 1211 Georgio - Les anges dans des robes rouges - 1211 H-Tône - Incendie 1211 Simony - J'rentre défoncé - 1211 Tawsen - La météo - 1211 TLZ Clan - C'est nous ft. Dosseh - 1211 Zuukou Mayzie - Le Mayz - 1311 Cinco - Four ft. Leto - 1311 Frenetik - Chaos 1311 Joysad - PLDM 1 - 1311 Mister You - Ça se fait pas ft. JuL - 1311 Niaks - Dame blanche - 1311 Prototype - Triste drame - 1311 Senyss - Tyana - 1511 Kalash Criminel - Booska Sauvage 3 1611 C.O.R - Booska RDM - 1711 Naza - Booska Bébé - 1711 Elams - La vida ft. Hatik - 1811 Doria - Booska Do - 1811 eden dillinger - 3-6 RHAPSODIE - 1811 Guy2Bezbar - TPM ft. Freeze Corleone - 1811 Kekra - Business HLM - 1911 13 Block - Babi 1911 Guirri Mafia - Booska Guirri - 2011 Ajar - Pire que la mort - 2011 Denzo - Cramé ft. Bramsito 2011 Mous-K - Booska Bogota 2011 SDM - Prince de la Calle - 2011 TripleGo - Maladresse - 2011 Unité - Unité ft. Dadju, Hatik, Imen Es Soolking - 2011 Youv Dee - De toi - 2311 1PLIKÉ140 - Booska Bâtard 2411 TK - Booska Sang-Froid - 2511 Keusty - Code PAL 7 - 2511 Landy - Millions d'euros ft. Niska 2511 Zikxo - Temps 33 - 2511 ZKR - Freestyle 5min 10 - 2611 Captaine Roshi - Pigalle - 2611 Coelho - ACTION - 2611 DJ Roc-J - Pas Patek ft. YL - 2711 Achile - Ça veut rien dire ft. Oxmo Puccino - 2711 Ashkidd - NOVEMBRE - 2711 Benab - En bas - 2711 Joysad - PLDM 2 - 2711 Nahir - Paris-BX ft. Frenetik - 2711 Negrito - Purge 5 ft. Freeze Corleone 2711 Saamou Skuu - French Drill 4 - 2711 Tedax Max - Drillotière - 2911 Krilino - Patate 4 - 3011 M Le Maudit - Sex focus Décembre - 0212 Hayce Lemsi - Medley 2020 - 0212 Hippocampe Fou - La thune de ma femme - 0212 Seth Gueko - Kratos - 0312 Elengi Ya Trafic - Dangereux - 0312 Heuss L'enfoiré Vald - Guccisima - 0312 Heuss L'enfoiré Vald - Matrixé - 0412 47Ter - Sommeil noir 0412 Blam's - La sape - 0412 Chiloo - Vilain - 0412 JSX - Pompéi ft. Booba - 0412 Keny Arkana - Avant l'exode 1 J'sais pas faire autrement - 0412 Koba LaD - Code La D du 7 - 0412 La F - Appel Masqué 9 - 0412 L'As - Nadine - 0412 Liim's - Mood ft. Tiakola - 0412 Luv Resval - Kurt ft. Zefor - 0412 Madrane - El Patron - 0412 R.E.D.K. - SQOSLF 2 - 0412 The S - Ça pue la rue ft. Leto - 0412 Tovaritch - Révolution - 0412 Zamdane - La fête ft. Hatik 0812 Souffrance - Opération Dragon - 0912 Twinsmatic - VILLE ft. Box Frenetik - 1012 Djadja Dinaz - Perdu - 1012 eden dillinger - TRAUMA - 1012 ISK - Où je suis 1012 Jarod - Kaioken 3 - 1012 La Cour de Récré - XPLIQUE - 1012 Zuukou Mayzie - Victorinox ft. Black Jack - 1112 Ateyaba - Moonwalk - 1112 Hornet La Frappe - 69.93 ft. Ashe 22 1112 Joysad - PLDM 3 - 1112 JuL - Mother Fk ft. SCH 1112 Les Frères Scotch - Zone - 1112 Lucio Bukowski - 4-2-4 Freestyle ft. Nedelko - 1112 Michel - Appel manqué - 1112 Pakigo - Mutation 1112 Pirate 182 - Grincheux 5 Purge - 1112 Rémy - Sur la côte - 1112 Sheldon - AGRABAH 1112 Youri - Comment - 1112 Zikxo - 34 Temps - 1412 Klem Schen - Solitaire 1512 D4R - Booska Quattro - 1512 Dinero - Zipette ft. Leto 1612 Biwaï - Kakashi - 1612 Dosseh - Famiglia è grande 1612 H-LO - Tu piges 1612 Lemon Haze - A2L - 1612 Nahir - Ça va bien se passer - 1612 rad cartier - VT ZOOM V - 1612 Wallace Cleaver - 45Camo 1612 Zeguerre - GTA 4 - 1612 ZKR - J'ai fait le tour 1712 Petit Voyou - Prosecco - 1712 RILESUNDAYZ - Clique 1712 Squidji - Melancholia 1812 Abdxxl - BILLET 1812 Chaman Sully - GG BOY - 1812 Deadi - Le voisin du 4ème - 1812 Doria - Paris - 1812 Frenetik - Blanche Neige - 1812 Joysad - 2020 - 1812 Kaaris - Five-0 ft. Gazo - 1812 M Le Maudit - Crack Poésie - 1812 Savage Toddy - Mc Gregor - 1812 SOPA - TLMR - 1812 Todd - Travaux 1912 Gambino - Quartier Nord 1912 Gutti - Gutti world 3 - 2012 Black Jack - Sournois ft. La F - 2112 Kekra - Dréel HLM - 2212 Booba - AZERTY - 2412 Dinos - Juste un clou, - 2512 Bekar - 98 2512 Shro - Pump it up - 2612 Kims La Rafale - LAMBO - 2712 Black M - Black Shady 4 - 2712 L'As - Mercedes 2812 Lasco - SO - 3112 Alonzo - Freestyle Divo Massacre de la Saint-Sylvestre 3112 Jarod - Termine 2020</t>
+          <t>The Siege Of Corinth In the year since Jesus died for men, Eighteen hundred years and ten, We were a gallant company, Riding o'er land, and sailing o'er sea. Oh! but we went merrily! We forded the river, and clomb the high hill, Never our steeds for a day stood still Whether we lay in the cave or the shed, Our sleep fell soft on the hardest bed Whether we couched in our rough capote, On the rougher plank of our gliding boat, Or stretched on the beach, or our saddles spread, As a pillow beneath the resting head, Fresh we woke upon the morrow All our thoughts and words had scope, We had health, and we had hope, Toil and travel, but no sorrow. We were of all tongues and creeds Some were those who counted beads, Some of mosque, and some of church, And some, or I mis-say, of neither Yet through the wide world might ye search, Nor find a motlier crew nor blither. But some are dead, and some are gone, And some are scattered and alone, And some are rebels on the hills That look along Epirus' valleys, Where Freedom still at moments rallies, And pays in blood Oppression's ills And some are in a far countree, And some all restlessly at home But never more, oh! never, we Shall meet to revel and to roam. But those hardy days flew cheerily! And when they now fall drearily, My thoughts, like swallows, skim the main, And bear my spirit back again Over the earth, and through the air, A wild bird and a wanderer. 'Tis this that ever wakes my strain, And oft, too oft, implores again The few who may endure my lay, To follow me so far away. Stranger, wilt thou follow now, And sit with me on Acro-Corinth's brow? I. Many a vanished year and age, And Tempest's breath, and Battle's rage, Have swept o'er Corinth yet she stands, A fortress formed to Freedom's hands. The Whirlwind's wrath, the Earthquake's shock, Have left untouched her hoary rock, The keystone of a land, which still, Though fall'n, looks proudly on that hill, The landmark to the double tide That purpling rolls on either side, As if their waters chafed to meet, Yet pause and crouch beneath her feet. But could the blood before her shed Since first Timoleon's brother bled, Or baffled Persia's despot fled, Arise from out the Earth which drank The stream of Slaughter as it sank, That sanguine Ocean would o'erflow Her isthmus idly spread below Or could the bones of all the slain, Who perished there, be piled again, That rival pyramid would rise More mountain-like, through those clear skies Than yon tower-capp'd Acropolis, Which seems the very clouds to kiss. II. On dun Cithæron's ridge appears The gleam of twice ten thousand spears And downward to the Isthmian plain, From shore to shore of either main, The tent is pitched, the Crescent shines Along the Moslem's leaguering lines And the dusk Spahi's bands advance Beneath each bearded Pacha's glance And far and wide as eye can reach The turbaned cohorts throng the beach And there the Arab's camel kneels, And there his steed the Tartar wheels The Turcoman hath left his herd, The sabre round his loins to gird And there the volleying thunders pour, Till waves grow smoother to the roar. The trench is dug, the cannon's breath Wings the far hissing globe of death Fast whirl the fragments from the wall, Which crumbles with the ponderous ball And from that wall the foe replies, O'er dusty plain and smoky skies, With fares that answer fast and well The summons of the Infidel. III. But near and nearest to the wall Of those who wish and work its fall, With deeper skill in War's black art, Than Othman's sons, and high of heart As any Chief that ever stood Triumphant in the fields of blood From post to post, and deed to deed, Fast spurring on his reeking steed, Where sallying ranks the trench assail, And make the foremost Moslem quail Or where the battery, guarded well, Remains as yet impregnable, Alighting cheerly to inspire The soldier slackening in his fire The first and freshest of the host Which Stamboul's Sultan there can boast, To guide the follower o'er the field, To point the tube, the lance to wield, Or whirl around the bickering blade Was Alp, the Adrian renegade! IV. From Veniceonce a race of worth His gentle Sireshe drew his birth But late an exile from her shore, Against his countrymen he bore The arms they taught to bear and now The turban girt his shaven brow. Through many a change had Corinth passed With Greece to Venice' rule at last And here, before her walls, with those To Greece and Venice equal foes, He stood a foe, with all the zeal Which young and fiery converts feel, Within whose heated bosom throngs The memory of a thousand wrongs. To him had Venice ceased to be Her ancient civic boastthe Free And in the palace of St. Mark Unnamed accusers in the dark Within the Lion's mouth had placed A charge against him uneffaced He fled in time, and saved his life, To waste his future years in strife, That taught his land how great her loss In him who triumphed o'er the Cross, 'Gainst which he reared the Crescent high, And battled to avenge or die. V. Coumourgihe whose closing scene Adorned the triumph of Eugene, When on Carlowitz' bloody plain, The last and mightiest of the slain, He sank, regretting not to die, But cursed the Christian's victory Coumourgican his glory cease, That latest conqueror of Greece, Till Christian hands to Greece restore The freedom Venice gave of yore? A hundred years have rolled away Since he refixed the Moslem's sway And now he led the Mussulman, And gave the guidance of the van To Alp, who well repaid the trust By cities levelled with the dust And proved, by many a deed of death, How firm his heart in novel faith. VI. The walls grew weak and fast and hot Against them poured the ceaseless shot, With unabating fury sent From battery to battlement And thunder-like the pealing din Rose from each heated culverin And here and there some crackling dome Was fired before the exploding bomb And as the fabric sank beneath The shattering shell's volcanic breath, In red and wreathing columns flashed The flame, as loud the ruin crashed, Or into countless meteors driven, Its earth-stars melted into heaven Whose clouds that day grew doubly dun, Impervious to the hidden sun, With volumed smoke that slowly grew To one wide sky of sulphurous hue. VII. But not for vengeance, long delayed, Alone, did Alp, the renegade, The Moslem warriors sternly teach His skill to pierce the promised breach Within these walls a Maid was pent His hope would win, without consent Of that inexorable Sire, Whose heart refused him in its ire, When Alp, beneath his Christian name, Her virgin hand aspired to claim. In happier mood, and earlier time, While unimpeached for traitorous crime, Gayest in Gondola or Hall, He glittered through the Carnival And tuned the softest serenade That e'er on Adria's waters played At midnight to Italian maid. VIII. And many deemed her heart was won For sought by numbers, given to none, Had young Francesca's hand remained Still by the Church's bonds unchained And when the Adriatic bore Lanciotto to the Paynim shore, Her wonted smiles were seen to fail, And pensive waxed the maid and pale More constant at confessional, More rare at masque and festival Or seen at such, with downcast eyes, Which conquered hearts they ceased to prize With listless look she seems to gaze With humbler care her form arrays Her voice less lively in the song Her step, though light, less fleet among The pairs, on whom the Morning's glance Breaks, yet unsated with the dance. IX. Sent by the State to guard the land, Which, wrested from the Moslem's hand, While Sobieski tamed his pride By Buda's wall and Danube's side, The chiefs of Venice wrung away From Patra to Euboea's bay, Minotti held in Corinth's towers The Doge's delegated powers, While yet the pitying eye of Peace Smiled o'er her long forgotten Greece And ere that faithless truce was broke Which freed her from the unchristian yoke, With him his gentle daughter came Nor there, since Menelaus' dame Forsook her lord and land, to prove What woes await on lawless love, Had fairer form adorned the shore Than she, the matchless stranger, bore. X. The wall is rent, the ruins yawn And, with to-morrow's earliest dawn, O'er the disjointed mass shall vault The foremost of the fierce assault. The bands are rankedthe chosen van Of Tartar and of Mussulman, The full of hope, misnamed forlorn, Who hold the thought of death in scorn, And win their way with falchion's force, Or pave the path with many a corse, O'er which the following brave may rise, Their stepping-stonethe last who dies! XI. 'Tis midnight on the mountains brown The cold, round moon shines deeply down Blue roll the waters, blue the sky Spreads like an ocean hung on high, Bespangled with those isles of light, So wildly, spiritually bright Who ever gazed upon them shining And turned to earth without repining, Nor wished for wings to flee away, And mix with their eternal ray? The waves on either shore lay there Calm, clear, and azure as the air And scarce their foam the pebbles shook, But murmured meekly as the brook. The winds were pillowed on the waves The banners drooped along their staves, And, as they fell around them furling, Above them shone the crescent curling And that deep silence was unbroke, Save where the watch his signal spoke, Save where the steed neighed oft and shrill, And echo answered from the hill, And the wide hum of that wild host Rustled like leaves from coast to coast, As rose the Muezzin's voice in air In midnight call to wonted prayer It rose, that chanted mournful strain, Like some lone Spirit's o'er the plain 'Twas musical, but sadly sweet, Such as when winds and harp-strings meet, And take a long unmeasured tone, To mortal minstrelsy unknown. It seemed to those within the wall A cry prophetic of their fall It struck even the besieger's ear With something ominous and drear, An undefined and sudden thrill, Which makes the heart a moment still, Then beat with quicker pulse, ashamed Of that strange sense its silence framed Such as a sudden passing-bell Wakes, though but for a stranger's knell. XII. The tent of Alp was on the shore The sound was hushed, the prayer was o'er The watch was set, the night-round made, All mandates issued and obeyed 'Tis but another anxious night, His pains the morrow may requite With all Revenge and Love can pay, In guerdon for their long delay. Few hours remain, and he hath need Of rest, to nerve for many a deed Of slaughter but within his soul The thoughts like troubled waters roll. He stood alone among the host Not his the loud fanatic boast To plant the Crescent o'er the Cross, Or risk a life with little loss, Secure in paradise to be By Houris loved immortally Nor his, what burning patriots feel, The stern exaltedness of zeal, Profuse of blood, untired in toil, When battling on the parent soil. He stood alonea renegade Against the country he betrayed He stood alone amidst his band, Without a trusted heart or hand They followed him, for he was brave, And great the spoil he got and gave They crouched to him, for he had skill To warp and wield the vulgar will But still his Christian origin With them was little less than sin. They envied even the faithless fame He earned beneath a Moslem name Since he, their mightiest chief, had been In youth a bitter Nazarene. They did not know how Pride can stoop, When baffled feelings withering droop They did not know how Hate can burn In hearts once changed from soft to stern Nor all the false and fatal zeal The convert of Revenge can feel. He ruled themman may rule the worst, By ever daring to be first So lions o'er the jackals sway The jackal points, he fells the prey, Then on the vulgar, yelling, press, To gorge the relics of success. XIII. His head grows fevered, and his pulse The quick successive throbs convulse In vain from side to side he throws His form, in courtship of repose Or if he dozed, a sound, a start Awoke him with a sunken heart. The turban on his hot brow pressed, The mail weighed lead-like on his breast, Though oft and long beneath its weight Upon his eyes had slumber sate, Without or couch or canopy, Except a rougher field and sky Than now might yield a warrior's bed, Than now along the heaven was spread. He could not rest, he could not stay Within his tent to wait for day, But walked him forth along the sand, Where thousand sleepers strewed the strand. What pillowed them? and why should he More wakeful than the humblest be, Since more their peril, worse their toil? And yet they fearless dream of spoil While he alone, where thousands passed A night of sleep, perchance their last, In sickly vigil wandered on, And envied all he gazed upon. XIV. He felt his soul become more light Beneath the freshness of the night. Cool was the silent sky, though calm, And bathed his brow with airy balm Behind, the campbefore him lay, In many a winding creek and bay, Lepanto's gulf and, on the brow Of Delphi's hill, unshaken snow, High and eternal, such as shone Through thousand summers brightly gone, Along the gulf, the mount, the clime It will not melt, like man, to time Tyrant and slave are swept away, Less formed to wear before the ray But that white veil, the lightest, frailest, Which on the mighty mount thou hailest, While tower and tree are torn and rent, Shines o'er its craggy battlement In form a peak, in height a cloud, In texture like a hovering shroud, Thus high by parting Freedom spread, As from her fond abode she fled, And lingered on the spot, where long Her prophet spirit spake in song. Oh! still her step at moments falters O'er withered fields, and ruined altars, And fain would wake, in souls too broken, By pointing to each glorious token But vain her voice, till better days Dawn in those yet remembered rays, Which shone upon the Persian flying, And saw the Spartan smile in dying. XV. Not mindless of these mighty times Was Alp, despite his flight and crimes And through this night, as on he wandered, And o'er the past and present pondered, And thought upon the glorious dead Who there in better cause had bled, He felt how faint and feebly dim The fame that could accrue to him, Who cheered the band, and waved the sword, A traitor in a turbaned horde And led them to the lawless siege, Whose best success were sacrilege. Not so had those his fancy numbered, The chiefs whose dust around him slumbered Their phalanx marshalled on the plain, Whose bulwarks were not then in vain. They fell devoted, but undying The very gale their names seemed sighing The waters murmured of their name The woods were peopled with their fame The silent pillar, lone and grey, Claimed kindred with their sacred clay Their spirits wrapped the dusky mountain, Their memory sparkled o'er the fountain The meanest rill, the mightiest river Rolled mingling with their fame for ever. Despite of every yoke she bears, That land is Glory's still and theirs! 'Tis still a watch-word to the earth When man would do a deed of worth He points to Greece, and turns to tread, So sanctioned, on the tyrant's head He looks to her, and rushes on Where life is lost, or Freedom won. XVI. Still by the shore Alp mutely mused, And wooed the freshness Night diffused. There shrinks no ebb in that tideless sea, Which changeless rolls eternally So that wildest of waves, in their angriest mood, Scarce break on the bounds of the land for a rood And the powerless moon beholds them flow, Heedless if she come or go Calm or high, in main or bay, On their course she hath no sway. The rock unworn its base doth bare, And looks o'er the surf, but it comes not there And the fringe of the foam may be seen below, On the line that it left long ages ago A smooth short space of yellow sand Between it and the greener land. He wandered on along the beach, Till within the range of a carbine's reach Of the leaguered wall but they saw him not, Or how could he 'scape from the hostile shot? Did traitors lurk in the Christians' hold? Were their hands grown stiff, or their hearts waxed cold? I know not, in sooth but from yonder wall There flashed no fire, and there hissed no ball, Though he stood beneath the bastion's frown, That flanked the seaward gate of the town Though he heard the sound, and could almost tell The sullen words of the sentinel, As his measured step on the stone below Clanked, as he paced it to and fro And he saw the lean dogs beneath the wall Hold o'er the dead their Carnival, Gorging and growling o'er carcass and limb They were too busy to bark at him! From a Tartar's skull they had stripped the flesh, As ye peel the fig when its fruit is fresh And their white tusks crunched o'er the whiter skull, As it slipped through their jaws, when their edge grew dull, As they lazily mumbled the bones of the dead, When they scarce could rise from the spot where they fed So well had they broken a lingering fast With those who had fallen for that night's repast. And Alp knew, by the turbans that rolled on the sand, The foremost of these were the best of his band Crimson and green were the shawls of their wear, And each scalp had a single long tuft of hair, All the rest was shaven and bare. The scalps were in the wild dog's maw, The hair was tangled round his jaw But close by the shore, on the edge of the gulf, There sat a vulture flapping a wolf, Who had stolen from the hills, but kept away, Scared by the dogs, from the human prey But he seized on his share of a steed that lay, Picked by the birds, on the sands of the bay. XVII. Alp turned him from the sickening sight Never had shaken his nerves in fight But he better could brook to behold the dying, Deep in the tide of their warm blood lying, Scorched with the death-thirst, and writhing in vain, Than the perishing dead who are past all pain. There is something of pride in the perilous hour, Whate'er be the shape in which Death may lower For Fame is there to say who bleeds, And Honour's eye on daring deeds! But when all is past, it is humbling to tread O'er the weltering field of the tombless dead, And see worms of the earth, and fowls of the air, Beasts of the forest, all gathering there All regarding man as their prey, All rejoicing in his decay. XVIII. There is a temple in ruin stands, Fashioned by long forgotten hands Two or three columns, and many a stone, Marble and granite, with grass o'ergrown! Out upon Time! it will leave no more Of the things to come than the things before! Out upon Time! who for ever will leave But enough of the past for the future to grieve O'er that which hath been, and o'er that which must be What we have seen, our sons shall see Remnants of things that have passed away, Fragments of stone, reared by creatures of clay! XIX. He sate him down at a pillar's base, And passed his hand athwart his face Like one in dreary musing mood, Declining was his attitude His head was drooping on his breast, Fevered, throbbing, and oppressed And o'er his brow, so downward bent, Oft his beating fingers went, Hurriedly, as you may see Your own run over the ivory key, Ere the measured tone is taken By the chords you would awaken. There he sate all heavily, As he heard the night-wind sigh. Was it the wind through some hollow stone, Sent that soft and tender moan? He lifted his head, and he looked on the sea, But it was unrippled as glass may be He looked on the long grassit waved not a blade How was that gentle sound conveyed? He looked to the bannerseach flag lay still, So did the leaves on Cithæron's hill, And he felt not a breath come over his cheek What did that sudden sound bespeak? 530 He turned to the leftis he sure of sight? There sate a lady, youthful and bright! XX. He started up with more of fear Than if an arméd foe were near. God of my fathers! what is here? Who art thou? and wherefore sent So near a hostile armament? His trembling hands refused to sign The cross he deemed no more divine He had resumed it in that hour, But Conscience wrung away the power. He gazed, he saw he knew the face Of beauty, and the form of grace It was Francesca by his side, The maid who might have been his bride! The rose was yet upon her cheek, But mellowed with a tenderer streak Where was the play of her soft lips fled? Gone was the smile that enlivened their red. The Ocean's calm within their view, Beside her eye had less of blue But like that cold wave it stood still, And its glance, though clear, was chill. Around her form a thin robe twining, Nought concealed her bosom shining Through the parting of her hair, Floating darkly downward there, Her rounded arm showed white and bare And ere yet she made reply, Once she raised her hand on high It was so wan, and transparent of hue, You might have seen the moon shine through. XXI. I come from my rest to him I love best, That I may be happy, and he may be blessed. I have passed the guards, the gate, the wall Sought thee in safety through foes and all. 'Tis said the lion will turn and flee From a maid in the pride of her purity And the Power on high, that can shield the good Thus from the tyrant of the wood, Hath extended its mercy to guard me as well From the hands of the leaguering Infidel. I comeand if I come in vain, Never, oh never, we meet again! Thou hast done a fearful deed In falling away from thy fathers' creed But dash that turban to earth, and sign The sign of the cross, and for ever be mine Wring the black drop from thy heart, And to-morrow unites us no more to part. And where should our bridal couch be spread? In the midst of the dying and the dead? For to-morrow we give to the slaughter and flame The sons and the shrines of the Christian name. None, save thou and thine, I've sworn, Shall be left upon the morn But thee will I bear to a lovely spot, Where our hands shall be joined, and our sorrow forgot. There thou yet shall be my bride, When once again I've quelled the pride Of Venice and her hated race Have felt the arm they would debase Scourge, with a whip of scorpions, those Whom Vice and Envy made my foes. Upon his hand she laid her own Light was the touch, but it thrilled to the bone, And shot a chillness to his heart, Which fixed him beyond the power to start. Though slight was that grasp so mortal cold, He could not loose him from its hold But never did clasp of one so dear Strike on the pulse with such feeling of fear, As those thin fingers, long and white, Froze through his blood by their touch that night. The feverish glow of his brow was gone, And his heart sank so still that it felt like stone, As he looked on the face, and beheld its hue, So deeply changed from what he knew Fair but faintwithout the ray Of mind, that made each feature play Like sparkling waves on a sunny day And her motionless lips lay still as death, And her words came forth without her breath, And there rose not a heave o'er her bosom's swell, And there seemed not a pulse in her veins to dwell. Though her eye shone out, yet the lids were fixed, And the glance that it gave was wild and unmixed With aught of change, as the eyes may seem Of the restless who walk in a troubled dream Like the figures on arras, that gloomily glare, Stirred by the breath of the wintry air So seen by the dying lamp's fitful light, Lifeless, but life-like, and awful to sight As they seem, through the dimness, about to come down From the shadowy wall where their images frown Fearfully flitting to and fro, As the gusts on the tapestry come and go. If not for love of me be given Thus much, then, for the love of Heaven, Again I saythat turban tear From off thy faithless brow, and swear Thine injured country's sons to spare, Or thou art lost and never shalt see Not earththat's pastbut Heaven or me. If this thou dost accord, albeit A heavy doom' tis thine to meet, That doom shall half absolve thy sin, And Mercy's gate may receive thee within But pause one moment more, and take The curse of Him thou didst forsake And look once more to Heaven, and see Its love for ever shut from thee. There is a light cloud by the moon 'Tis passing, and will pass full soon If, by the time its vapoury sail Hath ceased her shaded orb to veil, Thy heart within thee is not changed, Then God and man are both avenged Dark will thy doom be, darker still Thine immortality of ill. Alp looked to heaven, and saw on high The sign she spake of in the sky But his heart was swollen, and turned aside, By deep interminable pride. This first false passion of his breast Rolled like a torrent o'er the rest. He sue for mercy! He dismayed By wild words of a timid maid! He, wronged by Venice, vow to save Her sons, devoted to the grave! Nothough that cloud were thunder's worst, And charged to crush himlet it burst! He looked upon it earnestly, Without an accent of reply He watched it passing it is flown Full on his eye the clear moon shone, And thus he spakeWhate'er my fate, I am no changeling'tis too late The reed in storms may bow and quiver, Then rise again the tree must shiver. What Venice made me, I must be, Her foe in all, save love to thee But thou art safe oh, fly with me! He turned, but she is gone! Nothing is there but the column stone. Hath she sunk in the earth, or melted in air? He saw nothe knew notbut nothing is there. XXII. The night is past, and shines the sun As if that morn were a jocund one. Lightly and brightly breaks away The Morning from her mantle grey, And the Noon will look on a sultry day. Hark to the trump, and the drum, And the mournful sound of the barbarous horn, And the flap of the banners, that flit as they're borne, And the neigh of the steed, and the multitude's hum, And the clash, and the shout, They come! they come! The horsetails are plucked from the ground, and the sword From its sheath and they form, and but wait for the word. Tartar, and Spahi, and Turcoman, Strike your tents, and throng to the van Mount ye, spur ye, skirr the plain, That the fugitive may flee in vain, When he breaks from the town and none escape, Agéd or young, in the Christian shape While your fellows on foot, in a fiery mass, Bloodstain the breach through which they pass. The steeds are all bridled, and snort to the rein Curved is each neck, and flowing each mane White is the foam of their champ on the bit The spears are uplifted the matches are lit The cannon are pointed, and ready to roar, And crush the wall they have crumbled before Forms in his phalanx each Janizar Alp at their head his right arm is bare, So is the blade of his scimitar The Khan and the Pachas are all at their post The Vizier himself at the head of the host. When the culverin's signal is fired, then on Leave not in Corinth a living one A priest at her altars, a chief in her halls, A hearth in her mansions, a stone on her walls. God and the prophetAlla Hu! Up to the skies with that wild halloo! There the breach lies for passage, the ladder to scale And your hands on your sabres, and how should ye fail? He who first downs with the red cross may crave His heart's dearest wish let him ask it, and have! Thus uttered Coumourgi, the dauntless Vizier The reply was the brandish of sabre and spear, And the shout of fierce thousands in joyous ire Silencehark to the signalfire! XXIII. As the wolves, that headlong go On the stately buffalo, Though with fiery eyes, and angry roar, And hoofs that stamp, and horns that gore, He tramples on earth, or tosses on high The foremost, who rush on his strength but to die Thus against the wall they went, Thus the first were backward bent Many a bosom, sheathed in brass, Strewed the earth like broken glass, Shivered by the shot, that tore The ground whereon they moved no more Even as they fell, in files they lay, Like the mower's grass at the close of day, When his work is done on the levelled plain Such was the fall of the foremost slain. XXIV. As the spring-tides, with heavy plash, From the cliffs invading dash Huge fragments, sapped by the ceaseless flow, Till white and thundering down they go, Like the avalanche's snow On the Alpine vales below Thus at length, outbreathed and worn, Corinth's sons were downward borne By the long and oft renewed Charge of the Moslem multitude. In firmness they stood, and in masses they fell, Heaped by the host of the Infidel, Hand to hand, and foot to foot Nothing there, save Death, was mute Stroke, and thrust, and flash, and cry For quarter, or for victory, Mingle there with the volleying thunder, Which makes the distant cities wonder How the sounding battle goes, If with them, or for their foes If they must mourn, or may rejoice In that annihilating voice, Which pierces the deep hills through and through With an echo dread and new You might have heard it, on that day, O'er Salamis and Megara We have heard the hearers say, Even unto Piræus' bay. XXV. From the point of encountering blades to the hilt, Sabres and swords with blood were gilt But the rampart is won, and the spoil begun, And all but the after carnage done. Shriller shrieks now mingling come From within the plundered dome Hark to the haste of flying feet, That splash in the blood of the slippery street But here and there, where 'vantage ground Against the foe may still be found, Desperate groups, of twelve or ten, Make a pause, and turn again With banded backs against the wall, Fiercely stand, or fighting fall. There stood an old manhis hairs were white, But his veteran arm was full of might So gallantly bore he the brunt of the fray, The dead before him, on that day, In a semicircle lay Still he combated unwounded, Though retreating, unsurrounded. Many a scar of former fight Lurked beneath his corslet bright But of every wound his body bore, Each and all had been ta'en before Though agéd, he was so iron of limb, Few of our youth could cope with him, And the foes, whom he singly kept at bay, Outnumbered his thin hairs of silver grey. From right to left his sabre swept Many an Othman mother wept Sons that were unborn, when dipped His weapon first in Moslem gore, Ere his years could count a score. Of all he might have been the sire Who fell that day beneath his ire For, sonless left long years ago, His wrath made many a childless foe And since the day, when in the strait His only boy had met his fate, His parent's iron hand did doom More than a human hecatomb. If shades by carnage be appeased, Patroclus' spirit less was pleased Than his, Minotti's son, who died Where Asia's bounds and ours divide. Buried he lay, where thousands before For thousands of years were inhumed on the shore What of them is left, to tell Where they lie, and how they fell? Not a stone on their turf, nor a bone in their graves But they live in the verse that immortally saves. XXVI. Hark to the Allah shout! a band Of the Mussulman bravest and best is at hand Their leader's nervous arm is bare, Swifter to smite, and never to spare Unclothed to the shoulder it waves them on Thus in the fight is he ever known Others a gaudier garb may show, To tempt the spoil of the greedy foe Many a hand's on a richer hilt, But none on a steel more ruddily gilt Many a loftier turban may wear, Alp is but known by the white arm bare Look through the thick of the fight,'tis there! There is not a standard on that shore So well advanced the ranks before There is not a banner in Moslem war Will lure the Delhis half so far It glances like a falling star! Where'er that mighty arm is seen, The bravest be, or late have been There the craven cries for quarter Vainly to the vengeful Tartar Or the hero, silent lying, Scorns to yield a groan in dying Mustering his last feeble blow 'Gainst the nearest levelled foe, Though faint beneath the mutual wound, Grappling on the gory ground. XXVII. Still the old man stood erect. And Alp's career a moment checked. Yield thee, Minotti quarter take, For thine own, thy daughter's sake. Never, Renegado, never! Though the life of thy gift would last for ever. Francesca!Oh, my promised bride! Must she too perish by thy pride! She is safe.Where? where?In Heaven From whence thy traitor soul is driven Far from thee, and undefiled. Grimly then Minotti smiled, As he saw Alp staggering bow Before his words, as with a blow. Oh God! when died she?Yesternight Nor weep I for her spirit's flight None of my pure race shall be Slaves to Mahomet and thee Come on!That challenge is in vain Alp's already with the slain! While Minotti's words were wreaking More revenge in bitter speaking Than his falchion's point had found, Had the time allowed to wound, From within the neighbouring porch Of a long defended church, Where the last and desperate few Would the failing fight renew, The sharp shot dashed Alp to the ground Ere an eye could view the wound That crashed through the brain of the infidel, Round he spun, and down he fell A flash like fire within his eyes Blazed, as he bent no more to rise, And then eternal darkness sunk Through all the palpitating trunk N</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Calme</t>
+          <t>Dansa</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yeah yeah Dans le calme Avec mon équipe, on est posé dans le calme T'as vu ma carrure ? T'as voulu foncer dans le mal Tu vas t'prendre un mur, pourquoi te donner tant de mal ? Plus je résiste, plus tu vas t'lâcher N'essaie pas de twerker, j'ai d'autres chattes à fouetter Là, tu m'amuses, en fait t'es ma muse J'suis juste un tchateur, qui use de la ruse Tu m'envoies ta pote qui, elle même, me veut Tu restes dans mes pattes donc tu aimes ce jeu Un pour la mala, deux pour le visu' Tu sais que j'apprécie ton attitude, mais... J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova Elle est classe, elle est clean bling Belle plastique de quoi faire craquer son jean that atho J'apprends la galanterie par mon vieux Et dès qu'elle passe devant moi, je baisse les yeux oh shit Pas comme toutes ces nanas T'as les critères pour être ma baby mama hun hun Mauvais garçon gentleman pas un voyou Et ta copine que j'aime Bitch, do I know you ? Ro là là Rien à foutre de ce que les gens disent So please, épargne-moi leur avis Si t'es matérialiste, bye bye bye bye Si t'es sérieuse, viens m'voir J'ai pour toi tes propositions, donne ta main sont trop de questions oh oh ah Tu vois plus loin que les billets de 100, tu deviens intéressante oh oh ah Plus d'un gars de mon équipe n'attend que de t'avoir au corps à corps Mais, personne dans l'illcite baby, on ne fera rien sans ton accord yeah Rien à dire sur ton physique, ta maman je félicite oh oh ah Et si tu ne sais pas qui je suis, tu n'es sûrement pas d'ici oh oh ah Tu n'es pas comme les autres filles, c'est vrai Princesse tu as, le charisme d'une dame Et j'aimerais pouvoir insister, mais Le prince Dadj m'appelle donc je resterai calme J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova J't'ai vue bouger ton corps sur du dancehall J'ai vu faire parler ta classe sur un air soul J'aime l'odeur de ton parfum, est-ce du Kenzo ? J't'emmène avec moi, si t'as eu moins de rapports qu'une benzo Oh ma, je sais ce que tu veux, car en réalité, j'ai ce que tu veux Donc stop tes manières, stop tes chichis Fis-toi à mon expérience, ouais J'ai connu des Lisa, des Tisha, Camilla, Laëticia, Astrid, Axelle, Laure et Anissa Donc prends tes bagages et tes accessoires tout Debeing a assez de vibes pour te faire valser ce soir J'resterai calme calme calme Je ferai comme si je ne t'avais pas vue Je resterai calme calme calme Me prendre un bash serait mal venu Donc, j'resterai calme calme calme Pourtant pour toi, j'décrocherai la Lune Je resterai calme pour mes gavas, pourtant j'veux te daba, j'espère te revoir à la gova</t>
+          <t>Paris, Marseille, Lille, Strasbourg, Lyon, Toulouse, Bordeaux On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa musique Il était en soirée soirée Complètement bourré bourré La go, il la voulait voulait Mais il la soûlait soûlait Ouais il la voulait voulait Mais c'était un boulet boulet Roulé boulé, il a tout déballé Marrakech, Tunis, Alger, Kinshasa, Bamako, Dakar, Abidjan On me dit qu'elle dansa, hey On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique Elle était en soirée soirée Très très soignée soignée Le gars, elle le voulait voulait Mais il a foiré foiré Ouais il a foiré foiré Il a fait l'enfoiré 'foiré Donc elle est rentrée rentrée Bien accompagnée 'pagnée Miami, Vegas, New York, L.A., Dubaï, Phuket, Ibiza On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa2</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ça va parler</t>
+          <t>Déni</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè, tchè, tchè eh Ouais la night, ouais la night va me tuer Un jour les groupies vont finir par me huer Je te trompe, j'te retrompe, j'te fais suer Mais tu fais la sourde donc je fais le muet Sous la douche tes pleurs sont cachés par la buée J'suis l'dernier des salauds, j'me dis qu'j'ai abusé Y a pas d'raison j'ai fini par m'ennuyer J'ai sali ton honneur j'pourrais jamais l'essuyer Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Tchè, Tchè L'amour rend aveugle donc tu te voiles la face Tu nageais dans le bonheur aujourd'hui tu bois la tasse T'aime pas les histoires c'est pour ça que tu tais Un jour tout se paie, ouais un jour tout se sait Je veux te le dire il y a que pour toi que j'ai des sentiments Les autres je les vois et elles repartent toutes gentiment Peut-être qu'on serait mieux si on prenait nos distances Mais le silence est la meilleure des défenses Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni Pour nous protéger hein Pour te protéger hein Je m'en veux aussi hein On est dans le déni hein</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ce soir tribunal</t>
+          <t>Derrière toi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yah ! Ce soir tribunal, messieurs-dames Vous allez tous être jugés Yo T'as baisé la femme de ton pote, mais tu fuis parce que tu sais pas si le poto t'as cramé Tu t'es fait pété par les keufs guet-apens de litrons et c'est ce poto qui t'as ramené Tu veux cadenasser son cur, t'as même pas la clef de son cul Tu crois que c'est ta hlel qu'on a vu dans une sextape, maintenant comment te sens tu ? Ce soir tribunal, ce soir c'est ton jugement T'as la taille d'une âne, tu veux baiser une jument L'alcool c'est de l'eau, la drogue c'est du piment Au tiek t'es qu'un guetteur, la vérité si je mens Snappeur de bouteilles, t'as pas mis un E, au pire c'est d'la location Si c'est des bites, c'est ta vocation, numéro un de la provocation Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal T'as une paire d'Asics, le frigo est plein La débrouillardise, que Dieu te bénisse 800 E la Balenciaga, tu pointes à Pôle Emploi, que Dieu te punisse T'as mis de carottes, t'es un chaud lapin Si on veut te soulever, c'est chez ton tapin En bas de chez la gadji les gadjos sont tarpin Tu passes des coups de fil personne prend tes patins Calmez bambinos, anciens danseurs bloquez dos Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Calmez bambinos, anciens danseurs bloquez dos Je répète Tu nous parles d'la bibi comme-ci t'avais pas de pro-bébo Ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions Tu mérites de finir au top 8 Quand tu maîtrises pas tes pulsions Comme des filles qu'envoient des nudes dans le lavabo, où l'daron fait ses impulsions C'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir, c'est le tribunal On t'a dit ce soir ce soir, c'est le tribunal Madame la juge, faites entrer l'accusé Monsieur l'accusé, faut-il vous excuser ? Madame la juge, faites entrer les accusés Monsieur l'accusé, il faut vous excuser Tribunal, c'est le tribunal Le tribunal, c'est le tribunal Je dis n'importe quoi, mais on s'en fout Je dis n'importe quoi, mais on s'en fout Hahaha Ce soir, c'est le tribunal Abou Debeing Bara Being</t>
+          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C’est comment</t>
+          <t>Dessaoulé</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C'est comment ? C'est comment, c'est comment ? C'est comment ? C'est comment, c'est comment, c'est comment ? Les gavas c'est comment ? Sortez les derniers pas de danse quand ça commence Les gomis c'est comment ? Sortez les derniers déhanchés, ça commence Ça s'connait pas j'te l'dis franco Tu grattes l'amitié, comme les darons grattent les Banco Chérie j'peux protéger ton dos Mais c'est pas pour danser le tango Tu connais ton gars, elle peut m'faire tanguer Si j'aperçois son tanga Tanguer, tanguer, tanguer, tanguer, tanguer, hey Si j'aperçois son tanga Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? J'ai du buzz, tu m'fais la bise Moi j'l'ai hmmm, c'est que du showbizz Dany Synthé, change-moi la mélo Elle tombe dans les pommes mais j'ai pas pris le melon La gomi est tombée Bois-moi du Dom Pé' L'animal se fait pas dompter Mais peut se faire combler Rassemblez tous mes gavas, on est où ? Plus on est soûls, plus on est fous Paris et sa banlieue, on est où ? Nord, Sud, Est, Ouest, on est où ? Quand t'es dans ma ville quand t'es dans ma ville T'es bienvenue chez moi t'es bienvenue chez moi J'suis pas d'Paris j'suis pas d'Paris Paris c'est moi C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris Si t'es pas là, t'as rien compris, mhmh, t'as rien compris C'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment, c'est comment, c'est comment ? Si t'es pas là t'as rien compris C'est comment, c'est comment, c'est comment, c'est comment ? C'est comment, c'est comment ? C'est comment, c'est comment ? Abidjan, c'est comment ? Bamako, c'est comment ? Dakar, c'est comment ? Kinshasa, c'est comment ? Tunis, c'est comment ? Alger, c'est comment ? Marrakech, c'est comment ? Miami, c'est comment ?</t>
+          <t>Han, han Han, han Dessaoulé, Aymoune t'a dessaoulé Dessaoulé, Aymoune t'a dessaoulé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Marrakech, Pattaya Joint de XXX, faya J'ai fais l'plein Porsche Chayenne XXXX d'addition XXX caillasse Coup d'bouteille dans la te-tê' Belvé' belvé' belvé' belvé' Chaussures Gucci, ceinture élevée Niveau élevé élevé élevé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Elle a tourné dans tout Paris Et elle ose me dire c'est comment ? On s'était dit on s'attache pas Elle a vu le buzz, elle d'vient collante Amnésie globale, amnesia locale Elle peut boire Vodka, XXX pas d'car J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Service, pourboire Jada, trou noir Chicha, beurette Tel-ho', levrette Négresse fâchée, Marine placée Black M, Verdun Marine fâchée Aymoune, Debeing, il t'a assuré Est-ce que c'morceau sera censuré ? Jada, Belvé', bouteille, bénef' Magnum, champagne, XXX Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C’est mort</t>
+          <t>Égoïste</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Tcha, tcha, tcha-tcha-tcha Tcha-tcha-tcha, tcha Moi j'viens du bendo J'aime pas trop les blèmes-pro Tu veux que j'fasse du blé Mais tu me reproches que je traîne trop Tu sais, l'argent tombe pas du ciel, il pousse sur le ter-ter Donc, tes copines, qui parle ? On va les faire taire Tu dis qu't'es dans l'bendo mais t'es peut-être avec ta deuxième go Y a des bruits d'couloir, ouais, j'ai entendu des échos Tu parles de ma fierté, tu devrais ravaler ton ego Tu m'as pris pour la déco, tu me mets sur le té-cô J't'ai pas mis sur le téc-téc J'suis là avec mon TekPak Dans le froid ça micmac J'bibi pas de Tic-Tac Six du mat', toc-toc J'suis sé-po sur le clic-clac T'es là, tu m'fais perdre mon temps Sur le terrain, les p'tits m'taclent J'te fais perdre ton temps et toi tu rentres à pas d'heure Tu sais qu'ça me rend folle, tu me connais par cur J'ai ton téléphone, vas-y donne tes codes On verra si toutes ces meufs ne sont que des potes Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort T'étais où ? J't'ai laissé cinq appels en absence Mais t'étais où ? Tu disparais donc tu prends des vacances J'ai vu des Snaps, tu fais le beau avec tes nouvelles sapes Et tu me zappes, j'ai pas fini, besoin d'vider mon sac Eh, eh, où j'étais ? J'étais dans l'binks, j'faisais pas la bringue Où j'étais ? Avec ton il de lynx, j'ai pas changé de fringues Qu'est-ce qui se passe, pourquoi ce clash ? Pour rien tu te fâches Moi je trace, tu crois qu'je chasse Comme un chien d'la casse Non, non, non Aujourd'hui tu vas pas découcher Non, non, non, non Aujourd'hui, tu vas m'écouter C'est comment ? Tu transpires tellement, tu vas te noyer C'est comment ? T'es plus dehors que dans ton foyer Oui, oui, oui Tu m'appelles et j'veux plus décrocher Oui, oui, oui, oui Tu m'harcèles et j'veux plus t'écouter C'est comment ? J'veux être patron, j'veux plus être employé C'est comment ? Vivons d'amour, d'eau fraîche, ça payera le loyer Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Si tu veux ne m'pardonne pas Cette fois-ci ça n'passera pas D'habitude je n'parle pas J'crois qu't'abuses, c'est pas comme ça Cette fois-ci j'te pardonne pas Tu m'prends pour quel genre de gadjo ? Tu crois que j'mens, que je fais l'beau Mes potes me disent C'est mort Debeing, Debeing, c'est mort Tu m'as pris pour quel genre de gadji ? Tu crois qu'j'suis bête, que j'suis naïve Mes potes me disent C'est mort Imen, Imen, c'est mort C'est mort, c'est mort C'est mort, c'est mort</t>
+          <t>Eh, eh eh Tcheh, tcheh, tcheh tcheh tcheh Eh, eh eh Tcheh, tcheh Tu passes ta vie en boîte de nuit, elle veut juste qu't'évites les ennuis Les chiennes de garde ne font qu'du bruit quand t'es en chien, direct, elles fuient Ton poto s'est fait tirer d'ssus, tu veux retourner les plomber Quand t'as la tête dans ton plan cul, elle pense déjà à ton plan B En gros t'es juste un chien d'la casse, elle est naïve, elle s'voile la face Tu l'as prise pour la mettre de té-cô, pour que personne te prenne ta place Un mot d'travers, c'est toi qui t'casse, la hagra la plus efficace À chaque fois qu'elle regarde ton bigo, elle se remange le coup d'grâce T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste On sait tous que t'es pas timide, nous mens pas, ne fais pas timnik Des maîtresses, t'en a cinq ou six, on sait tous que t'as pas d'limites Han, à chaque fois qu'tu l'entends râler chaque fois Tu la bombardes de ça va aller ça va, va Tu lui sors tout un tas de mythos pour l'empêcher de cavaler Teh, t'as pas d'cur, non, t'as pas d'pitié, faire du mal, ça t'fait palpiter Tu rentres pas, elle est paniquée, tu rentres pas tant qu't'as pas niqué Tu cherches même plus à t'rattraper tu t'en fous, ouais, chez moi on dit 'Esprit mabé mauvais Comme tu sais qu'elle va revenir, y'a plus besoin de s'adapter T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C’est nous</t>
+          <t>Euro Dollars</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Eh Debeing? - Yeah Franglish - Dis à tes gars qu'ils disent à leurs gars qui restent à l'arrière, ils sont pas encore prêts, pas préparer - Yeah yeah, yeah yeah Changement d'ambiance, motherfucker J'distingue les vrais des faux, les lions et les fauves Ici, le niveau je hausse face à toute la fausse Ils s'regardent quand je pose, Franglish je m'impose J'suis unique motherfuck', me comparer tu oses? Lion Noir sur la blouse, j'bosse pour faire du flouz' Mon entourage est fou, ne s'attache pas au fouf' Les femmes et les vil-ci m'traquent, ils sont dans mon dos Pourquoi ces bolos craquent? Ils écoutent ma dope? Entre grey et kaki, j'milite, je manie l'nine milli' Money, money, money, money Centime jusqu'au milli' Banquette arrière puis vacille, fais pas tes manières Moi, j'veux du violet, vert Bitch, où est ma manière? J'pense qu'à faire de la bombe, XXX Un charme venu du Congo passant par le Togo Comme une wifi, j'ai des connexions d'tout-par La réussite, moi et mes gars, on va la touze-par Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Deux-trois fils de pute, un seul 357 La vie n'a pas de prix mais la mort s'achète J'ai vendu en détail la drogue en sachet J'ravitaillais l'bétail, les keufs nous pourchassaient J'ai beau quitter la ur' mais la ur' ne me quittera pas Le plus éloquent de vos députés cain-ri ne me guidera pas J'sors des Debeinguerie et ils pètent les XXX Euros, dollars ou livre, j'suis dans les papers moves J'fais des parenthèses même quand j'vais charbonner J'passe du point A, au point B, en passant par le point G J'aime les gros terma' et les fouffes étroites Si j'me lève du pied gauche, tu t'bouffes une droite Si j'suis pris dans les salades, j'appelle mon avocat J'mange une peine planchée, le juge a étudié mon cas J'suis un chacal, j'vais tous vous laissé affamer XXX Qui va t'donner à graille si tu vas pas chasser? Pour mieux égorger la bête, j'arrive en pas chassés Qui va faire le taf? Dis-moi, qui va faire le taf? Qui va prendre leur place? Qui va arracher leur part? C'est nous, c'est nous, c'est nous et personne d'autre C'est nous, c'est nous, c'est nous et personne d'autre Eh Franglish? J'ai dis à mes gars qu'ils disent à leurs gars d'rester à l'arrière, qu'ils sont pas encore prêts, pas encore préparés Let's Get It, Let's Get It</t>
+          <t>Euro, dollar Euro, dollar Euro, dollar Ey, ey, ey, prr Euro, dollar Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Vient qu'on s'capte, j'suis dans l'speed Tu veux m'voir, j'suis dans le VIP Regarde-moi, regard triste J'bois tellement qu'j'ai l'regard vide Autour de moi y a que des foufs, que des clowns, que des jnouns J'ai tellement des liasses de partout, t'as l'impression que j'vends d'la schnouf Yah, euro, dollar, livre sterling yah Y a du pain en libre service yah J'avais l'ennemi à ma merci yah Mais j'avais la meuf dans mon Merce yah Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ey, ey Stack is paars, heb een paar gebosst Prr Straight up, pak saaf in een envelop Beaucoup d'argent, da's een rare som Ontspan, ga naar huis met een Franse bom Prr, hey Securen de bag Ben niet de type dat liegt in m'n raps Hou van mezelf, wat ik doe voor de cash Cash Ben onderweg, die miljoen is niet ver, hmm Rah Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Ey, ey, ey, prr, prr, hey Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Prr, hey On est arrivé à deux On est reparti à dix La devise c'est love et and peace L'amour on laisse ça à nos vices Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Euro, dollar Euro, dollar Euro, dollar Euro, dollar</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C’est toi</t>
+          <t>Fatigué</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eh, eh Elles sont fans de moi, eh, moi, je suis fan de toi, eh Y a que ça qui compte, tu peux compter sur moi, eh Quand j'tai engagé, eh, je les ai dégagé, eh Comme tu mas choisi, je tai mis côté passager, eh On est dans le bolide, eh, normal quils critiquent, eh Nous deux, cest solide, tes pas là pour mon liquide, eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Nous, on sait ce quon fait, eux, ils voient que ce quon montre Nous, on y va molo, eux, cest course contre-la-montre Nous, on est en mala, eux, ils voient notre mala Nous, on va pas kala, eux, ils aiment les palabres On est dans le bolide, eh, normal quils critiquent, eh Nous deux cest solide, tes pas là pour mon liquide eh Ils vont jacter, faut se préparer, font tous ça pour nous retarder Tes ma vie, jaime pas trop parler, faudra me tuer pour nous séparer Si demain, on veut dérailler, nos parents vont nous recadrer Si ça colle plus, cest qu'cest plus carré, les pots cassés, faudra réparer Je vais le dire en quelle langue ? Cest toi ma wife aie Cest toi ma life, cest toi mon diams Cest toi mon bijoux, tes tellement douce, oh Cest toi ma go, cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh Cest toi ma wife, cest toi ma life Cest toi mon diams, cest toi mon bijou Tes tellement douce, oh, cest toi ma go Cest toi ma mousse, oh</t>
+          <t>...</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cette go</t>
+          <t>Freestyle Abou Debeing Planète Rap</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Jvois tout ses raclos, ouais, qui font les macros, ouais Jviens pour le mégot, ouais, comme sur un braquot, ouais T'as du monde sur les côtes, ouais, et jm'en bats les reins, ouais Jles tacles yaura pas faute, ouais, et jm'en lave les mains, ouais Jconnais pas ton fond, ouais, mais jconnait tes formes, ouais Moi c'que je ressens cest profond, ouais, tes pas dans les normes, ouais Jsais ce que tu vaux, ouais, jai ce quil te faut, ouais Ils font tous les vrais, ouais, jte dis tout est faux, ouais Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? 911, appelle la police, jvoudrais la caresser tellement elle a la peau lisse Jsuis ton super-héro, t'as capté mon vice mais j'suis sincère assez, j'attends que Dieu me bénisse Tu ma pris pour qui ? Tu ma pris pour quoi ? Tu penses que je voudrais juste passer la nuit avec toi Tu ma pris pour qui ? Tu ma pris pour quoi ? Laisse-moi le temps et le Tout-Puissant nous réunira Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Cest qui cette go ? Cest qui cette go ? Elle est en forme mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Debeing, mais cest qui cette go ? Elle est à moi jai mis mon veto Pour mtacler, faudra s'lever tôt Deux, trois blagues, je vais l'aster-cco Vegedream, mais cest qui cette go ?</t>
+          <t>Ils croient tous faire du rap, ils sont bons dans la trap Eux, tous le même flow sorti d'un XXX J'crache dans une fouf, pas dans la soupe Mon gosse te butera dans dix ans si j'te loupe J'bosse et j'ai du talent Ramène-moi l'mic' que</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Choquer</t>
+          <t>Gangsta Love</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ah, hum, ah hum hum Ah, hum, ah hum hum Trois du mat', j'suis devant l'club et j'rentre comme si c'était un pub La queue est longue mais j'fais pas la queue, grosse équipe, dix fois deux Dix du front un d'mes gars dans l'fond Trop d'prestance mais qui ils sont, Versacisé, Gabanisé, Rolexisé, j'peux pas m'canaliser T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer J'suis un gars d'la tess, j'suis un gars d'la brèche, j'suis dans la presse, j'suis un gosse d'la hess Ça parle d'argent, j'peux pas nahess, j'te rentre dedans tu veux J'suis à ma table y a mes gars sûrs, j'te connais pas, tu fonces dans l'mur Tu m'parles de blanche, tu m'parles de pure, j'te connais pas, tu fonces dans l'mur T'es beau, mon cousin ah oui T'es frais, mon cousin ah oui han T'es belle, ma cousine ah oui T'es fraîche, ma cousine ah oui han T'as des balles, mon cousin ah oui Des bad et des bonnes mon cousin ah oui han T'as des balles, ma cousine ah oui Des balles et des balles, ma cousine ah oui han On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer hum On va les choquer, choquer, choquer Choquer, choquer, choquer, choquer Les choquer, choquer, les choquer C'est le moment d'envoyer, rouler! Ah, on les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé On les connait, ils ont envoyé de Paris jusqu'à Marseille Ils ont envoyé d'Abidjan à Bamako Ils ont envoyé Marrakech, Marbella Ils ont envoyé de London à Kinshasa Ils ont envoyé One, two, three, viva... ahah</t>
+          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cœur démoli</t>
+          <t>Griffon d’or</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ahn ahn ahn ahn Ahn ouh, ahnn ouh J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jsuis toujours le même, jai jamais joué de rôle Cest toi mon bras droit, cest toi mon fusil dépaule Chérie, j'suis ton homme donc les gens parlent de nous Les rues sont remplies d'sang, j'peux pas me mettre à genoux Mes frères de la rue sont comme mes frères de sang Jai pas beaucoup damis, j'connais juste beaucoup de gens Et jai des goûts de luxe, les riches m'ont contaminé J'veux plus revivre la hess, jen suis traumatisé Jétais dans le gouffre, là où tout l'monde souffre Où tu prends du ferme parce quaucune porte ne souvre Jai pris ma vie en main, avec mes couilles et mon cerveau Instagram et snap, j'poste tout sur mes réseaux J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Jaime aussi plaire aux femmes, cest un d'mes gros défauts Jai ça dans les veines, jaime flatter mon égo Donc les femmes parlent de moi, dans Paris, y a des échos J'bombarde dans ma Merco, j'vois toutes mes exs dans le rétro Mais faut les comprendre, j'suis devenu une star Et ça reste un fantasme de coucher avec une star On choisit pas doù on vient mais on choisit où on va Jai créé mon chemin, plutôt qumarcher au pas J'me r'vois dans ma cellule avec vue sur la merde Faut qu'jassure la vie d'mon fils, sur la vie de ma mère J'préfère un ennemi fort plutôt quun ami faible Je sais qui f'ra le mort, je sais qui va me faire J'préfère être triste et riche que rester joyeux mais pauvre J'suis pas de ceux qui flippent, je suis de ceux qui osent Même si j'me fais fume, comme XXXTentacion Le jour où j'partirais, on oubliera mes bonnes actions J'me suis fait dans la rue, cest là qu'jai fait mes armes Mon cur est démoli, voilà létat d'mon âme Accepte-moi comme je suis, ma chérie, je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Grâce à Dieu, j'suis plus l'même, grâce à Dieu, j'vends plus de came J'bicrave des CDs, plus besoin d'compter de grammes Accepte-moi comme je suis, ma chérie je n'changerai pas Ce soir, j'vais faire du biff, désolé, je n'rentrerai pas Ahn ahn ahn ahn Ahn ouh, ahnn ouh</t>
+          <t>Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! Tu fais l'sourd, on t'allonge si tu fais l'sourd sourd ! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous! Ce soir, jsuis tellement griffé quon va mappeler griffon dor Aujourdhui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Comme on s'retrouve ma dépouga Il est trop tard pour prier Pouda J'veux m'casser pars pas m'faire Pumba T'as cherché la mienne dans mon crou d'balle A-M-G j'suis dans le leasing Debeing 1 sur le listing J'ai conquis le club comme un viking Pas d'garde de saloon, que des vikings Tu sais si on fascine des bonhommes Première poignée de mon premier regard Tu sais si on fascine Tchaga Première bise, premier roulage de pétards Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin J'prends les jeunes majeures, j'prends les cougars Chocolat noir, caramel, nougat T'as bien compris que j'suis dans l'métissage J'promène en beu-Reu', j'vends les p'tits sages A ce qu'il paraît, t'as un garage Tellement de bouteilles, j'ai un parking Oui j'ai un parking Avec les Magnums, j'fais du karting T'envoies ta copine au casse Tu t'mets devant le vide, tu ne passes pas le casting Tu l'envoies au casse Tu t'mets devant le vide, mais elle n'passe pas le casting Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! T fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous!</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conscience</t>
+          <t>Guerre</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>The Siege Of Corinth In the year since Jesus died for men, Eighteen hundred years and ten, We were a gallant company, Riding o'er land, and sailing o'er sea. Oh! but we went merrily! We forded the river, and clomb the high hill, Never our steeds for a day stood still Whether we lay in the cave or the shed, Our sleep fell soft on the hardest bed Whether we couched in our rough capote, On the rougher plank of our gliding boat, Or stretched on the beach, or our saddles spread, As a pillow beneath the resting head, Fresh we woke upon the morrow All our thoughts and words had scope, We had health, and we had hope, Toil and travel, but no sorrow. We were of all tongues and creeds Some were those who counted beads, Some of mosque, and some of church, And some, or I mis-say, of neither Yet through the wide world might ye search, Nor find a motlier crew nor blither. But some are dead, and some are gone, And some are scattered and alone, And some are rebels on the hills That look along Epirus' valleys, Where Freedom still at moments rallies, And pays in blood Oppression's ills And some are in a far countree, And some all restlessly at home But never more, oh! never, we Shall meet to revel and to roam. But those hardy days flew cheerily! And when they now fall drearily, My thoughts, like swallows, skim the main, And bear my spirit back again Over the earth, and through the air, A wild bird and a wanderer. 'Tis this that ever wakes my strain, And oft, too oft, implores again The few who may endure my lay, To follow me so far away. Stranger, wilt thou follow now, And sit with me on Acro-Corinth's brow? I. Many a vanished year and age, And Tempest's breath, and Battle's rage, Have swept o'er Corinth yet she stands, A fortress formed to Freedom's hands. The Whirlwind's wrath, the Earthquake's shock, Have left untouched her hoary rock, The keystone of a land, which still, Though fall'n, looks proudly on that hill, The landmark to the double tide That purpling rolls on either side, As if their waters chafed to meet, Yet pause and crouch beneath her feet. But could the blood before her shed Since first Timoleon's brother bled, Or baffled Persia's despot fled, Arise from out the Earth which drank The stream of Slaughter as it sank, That sanguine Ocean would o'erflow Her isthmus idly spread below Or could the bones of all the slain, Who perished there, be piled again, That rival pyramid would rise More mountain-like, through those clear skies Than yon tower-capp'd Acropolis, Which seems the very clouds to kiss. II. On dun Cithæron's ridge appears The gleam of twice ten thousand spears And downward to the Isthmian plain, From shore to shore of either main, The tent is pitched, the Crescent shines Along the Moslem's leaguering lines And the dusk Spahi's bands advance Beneath each bearded Pacha's glance And far and wide as eye can reach The turbaned cohorts throng the beach And there the Arab's camel kneels, And there his steed the Tartar wheels The Turcoman hath left his herd, The sabre round his loins to gird And there the volleying thunders pour, Till waves grow smoother to the roar. The trench is dug, the cannon's breath Wings the far hissing globe of death Fast whirl the fragments from the wall, Which crumbles with the ponderous ball And from that wall the foe replies, O'er dusty plain and smoky skies, With fares that answer fast and well The summons of the Infidel. III. But near and nearest to the wall Of those who wish and work its fall, With deeper skill in War's black art, Than Othman's sons, and high of heart As any Chief that ever stood Triumphant in the fields of blood From post to post, and deed to deed, Fast spurring on his reeking steed, Where sallying ranks the trench assail, And make the foremost Moslem quail Or where the battery, guarded well, Remains as yet impregnable, Alighting cheerly to inspire The soldier slackening in his fire The first and freshest of the host Which Stamboul's Sultan there can boast, To guide the follower o'er the field, To point the tube, the lance to wield, Or whirl around the bickering blade Was Alp, the Adrian renegade! IV. From Veniceonce a race of worth His gentle Sireshe drew his birth But late an exile from her shore, Against his countrymen he bore The arms they taught to bear and now The turban girt his shaven brow. Through many a change had Corinth passed With Greece to Venice' rule at last And here, before her walls, with those To Greece and Venice equal foes, He stood a foe, with all the zeal Which young and fiery converts feel, Within whose heated bosom throngs The memory of a thousand wrongs. To him had Venice ceased to be Her ancient civic boastthe Free And in the palace of St. Mark Unnamed accusers in the dark Within the Lion's mouth had placed A charge against him uneffaced He fled in time, and saved his life, To waste his future years in strife, That taught his land how great her loss In him who triumphed o'er the Cross, 'Gainst which he reared the Crescent high, And battled to avenge or die. V. Coumourgihe whose closing scene Adorned the triumph of Eugene, When on Carlowitz' bloody plain, The last and mightiest of the slain, He sank, regretting not to die, But cursed the Christian's victory Coumourgican his glory cease, That latest conqueror of Greece, Till Christian hands to Greece restore The freedom Venice gave of yore? A hundred years have rolled away Since he refixed the Moslem's sway And now he led the Mussulman, And gave the guidance of the van To Alp, who well repaid the trust By cities levelled with the dust And proved, by many a deed of death, How firm his heart in novel faith. VI. The walls grew weak and fast and hot Against them poured the ceaseless shot, With unabating fury sent From battery to battlement And thunder-like the pealing din Rose from each heated culverin And here and there some crackling dome Was fired before the exploding bomb And as the fabric sank beneath The shattering shell's volcanic breath, In red and wreathing columns flashed The flame, as loud the ruin crashed, Or into countless meteors driven, Its earth-stars melted into heaven Whose clouds that day grew doubly dun, Impervious to the hidden sun, With volumed smoke that slowly grew To one wide sky of sulphurous hue. VII. But not for vengeance, long delayed, Alone, did Alp, the renegade, The Moslem warriors sternly teach His skill to pierce the promised breach Within these walls a Maid was pent His hope would win, without consent Of that inexorable Sire, Whose heart refused him in its ire, When Alp, beneath his Christian name, Her virgin hand aspired to claim. In happier mood, and earlier time, While unimpeached for traitorous crime, Gayest in Gondola or Hall, He glittered through the Carnival And tuned the softest serenade That e'er on Adria's waters played At midnight to Italian maid. VIII. And many deemed her heart was won For sought by numbers, given to none, Had young Francesca's hand remained Still by the Church's bonds unchained And when the Adriatic bore Lanciotto to the Paynim shore, Her wonted smiles were seen to fail, And pensive waxed the maid and pale More constant at confessional, More rare at masque and festival Or seen at such, with downcast eyes, Which conquered hearts they ceased to prize With listless look she seems to gaze With humbler care her form arrays Her voice less lively in the song Her step, though light, less fleet among The pairs, on whom the Morning's glance Breaks, yet unsated with the dance. IX. Sent by the State to guard the land, Which, wrested from the Moslem's hand, While Sobieski tamed his pride By Buda's wall and Danube's side, The chiefs of Venice wrung away From Patra to Euboea's bay, Minotti held in Corinth's towers The Doge's delegated powers, While yet the pitying eye of Peace Smiled o'er her long forgotten Greece And ere that faithless truce was broke Which freed her from the unchristian yoke, With him his gentle daughter came Nor there, since Menelaus' dame Forsook her lord and land, to prove What woes await on lawless love, Had fairer form adorned the shore Than she, the matchless stranger, bore. X. The wall is rent, the ruins yawn And, with to-morrow's earliest dawn, O'er the disjointed mass shall vault The foremost of the fierce assault. The bands are rankedthe chosen van Of Tartar and of Mussulman, The full of hope, misnamed forlorn, Who hold the thought of death in scorn, And win their way with falchion's force, Or pave the path with many a corse, O'er which the following brave may rise, Their stepping-stonethe last who dies! XI. 'Tis midnight on the mountains brown The cold, round moon shines deeply down Blue roll the waters, blue the sky Spreads like an ocean hung on high, Bespangled with those isles of light, So wildly, spiritually bright Who ever gazed upon them shining And turned to earth without repining, Nor wished for wings to flee away, And mix with their eternal ray? The waves on either shore lay there Calm, clear, and azure as the air And scarce their foam the pebbles shook, But murmured meekly as the brook. The winds were pillowed on the waves The banners drooped along their staves, And, as they fell around them furling, Above them shone the crescent curling And that deep silence was unbroke, Save where the watch his signal spoke, Save where the steed neighed oft and shrill, And echo answered from the hill, And the wide hum of that wild host Rustled like leaves from coast to coast, As rose the Muezzin's voice in air In midnight call to wonted prayer It rose, that chanted mournful strain, Like some lone Spirit's o'er the plain 'Twas musical, but sadly sweet, Such as when winds and harp-strings meet, And take a long unmeasured tone, To mortal minstrelsy unknown. It seemed to those within the wall A cry prophetic of their fall It struck even the besieger's ear With something ominous and drear, An undefined and sudden thrill, Which makes the heart a moment still, Then beat with quicker pulse, ashamed Of that strange sense its silence framed Such as a sudden passing-bell Wakes, though but for a stranger's knell. XII. The tent of Alp was on the shore The sound was hushed, the prayer was o'er The watch was set, the night-round made, All mandates issued and obeyed 'Tis but another anxious night, His pains the morrow may requite With all Revenge and Love can pay, In guerdon for their long delay. Few hours remain, and he hath need Of rest, to nerve for many a deed Of slaughter but within his soul The thoughts like troubled waters roll. He stood alone among the host Not his the loud fanatic boast To plant the Crescent o'er the Cross, Or risk a life with little loss, Secure in paradise to be By Houris loved immortally Nor his, what burning patriots feel, The stern exaltedness of zeal, Profuse of blood, untired in toil, When battling on the parent soil. He stood alonea renegade Against the country he betrayed He stood alone amidst his band, Without a trusted heart or hand They followed him, for he was brave, And great the spoil he got and gave They crouched to him, for he had skill To warp and wield the vulgar will But still his Christian origin With them was little less than sin. They envied even the faithless fame He earned beneath a Moslem name Since he, their mightiest chief, had been In youth a bitter Nazarene. They did not know how Pride can stoop, When baffled feelings withering droop They did not know how Hate can burn In hearts once changed from soft to stern Nor all the false and fatal zeal The convert of Revenge can feel. He ruled themman may rule the worst, By ever daring to be first So lions o'er the jackals sway The jackal points, he fells the prey, Then on the vulgar, yelling, press, To gorge the relics of success. XIII. His head grows fevered, and his pulse The quick successive throbs convulse In vain from side to side he throws His form, in courtship of repose Or if he dozed, a sound, a start Awoke him with a sunken heart. The turban on his hot brow pressed, The mail weighed lead-like on his breast, Though oft and long beneath its weight Upon his eyes had slumber sate, Without or couch or canopy, Except a rougher field and sky Than now might yield a warrior's bed, Than now along the heaven was spread. He could not rest, he could not stay Within his tent to wait for day, But walked him forth along the sand, Where thousand sleepers strewed the strand. What pillowed them? and why should he More wakeful than the humblest be, Since more their peril, worse their toil? And yet they fearless dream of spoil While he alone, where thousands passed A night of sleep, perchance their last, In sickly vigil wandered on, And envied all he gazed upon. XIV. He felt his soul become more light Beneath the freshness of the night. Cool was the silent sky, though calm, And bathed his brow with airy balm Behind, the campbefore him lay, In many a winding creek and bay, Lepanto's gulf and, on the brow Of Delphi's hill, unshaken snow, High and eternal, such as shone Through thousand summers brightly gone, Along the gulf, the mount, the clime It will not melt, like man, to time Tyrant and slave are swept away, Less formed to wear before the ray But that white veil, the lightest, frailest, Which on the mighty mount thou hailest, While tower and tree are torn and rent, Shines o'er its craggy battlement In form a peak, in height a cloud, In texture like a hovering shroud, Thus high by parting Freedom spread, As from her fond abode she fled, And lingered on the spot, where long Her prophet spirit spake in song. Oh! still her step at moments falters O'er withered fields, and ruined altars, And fain would wake, in souls too broken, By pointing to each glorious token But vain her voice, till better days Dawn in those yet remembered rays, Which shone upon the Persian flying, And saw the Spartan smile in dying. XV. Not mindless of these mighty times Was Alp, despite his flight and crimes And through this night, as on he wandered, And o'er the past and present pondered, And thought upon the glorious dead Who there in better cause had bled, He felt how faint and feebly dim The fame that could accrue to him, Who cheered the band, and waved the sword, A traitor in a turbaned horde And led them to the lawless siege, Whose best success were sacrilege. Not so had those his fancy numbered, The chiefs whose dust around him slumbered Their phalanx marshalled on the plain, Whose bulwarks were not then in vain. They fell devoted, but undying The very gale their names seemed sighing The waters murmured of their name The woods were peopled with their fame The silent pillar, lone and grey, Claimed kindred with their sacred clay Their spirits wrapped the dusky mountain, Their memory sparkled o'er the fountain The meanest rill, the mightiest river Rolled mingling with their fame for ever. Despite of every yoke she bears, That land is Glory's still and theirs! 'Tis still a watch-word to the earth When man would do a deed of worth He points to Greece, and turns to tread, So sanctioned, on the tyrant's head He looks to her, and rushes on Where life is lost, or Freedom won. XVI. Still by the shore Alp mutely mused, And wooed the freshness Night diffused. There shrinks no ebb in that tideless sea, Which changeless rolls eternally So that wildest of waves, in their angriest mood, Scarce break on the bounds of the land for a rood And the powerless moon beholds them flow, Heedless if she come or go Calm or high, in main or bay, On their course she hath no sway. The rock unworn its base doth bare, And looks o'er the surf, but it comes not there And the fringe of the foam may be seen below, On the line that it left long ages ago A smooth short space of yellow sand Between it and the greener land. He wandered on along the beach, Till within the range of a carbine's reach Of the leaguered wall but they saw him not, Or how could he 'scape from the hostile shot? Did traitors lurk in the Christians' hold? Were their hands grown stiff, or their hearts waxed cold? I know not, in sooth but from yonder wall There flashed no fire, and there hissed no ball, Though he stood beneath the bastion's frown, That flanked the seaward gate of the town Though he heard the sound, and could almost tell The sullen words of the sentinel, As his measured step on the stone below Clanked, as he paced it to and fro And he saw the lean dogs beneath the wall Hold o'er the dead their Carnival, Gorging and growling o'er carcass and limb They were too busy to bark at him! From a Tartar's skull they had stripped the flesh, As ye peel the fig when its fruit is fresh And their white tusks crunched o'er the whiter skull, As it slipped through their jaws, when their edge grew dull, As they lazily mumbled the bones of the dead, When they scarce could rise from the spot where they fed So well had they broken a lingering fast With those who had fallen for that night's repast. And Alp knew, by the turbans that rolled on the sand, The foremost of these were the best of his band Crimson and green were the shawls of their wear, And each scalp had a single long tuft of hair, All the rest was shaven and bare. The scalps were in the wild dog's maw, The hair was tangled round his jaw But close by the shore, on the edge of the gulf, There sat a vulture flapping a wolf, Who had stolen from the hills, but kept away, Scared by the dogs, from the human prey But he seized on his share of a steed that lay, Picked by the birds, on the sands of the bay. XVII. Alp turned him from the sickening sight Never had shaken his nerves in fight But he better could brook to behold the dying, Deep in the tide of their warm blood lying, Scorched with the death-thirst, and writhing in vain, Than the perishing dead who are past all pain. There is something of pride in the perilous hour, Whate'er be the shape in which Death may lower For Fame is there to say who bleeds, And Honour's eye on daring deeds! But when all is past, it is humbling to tread O'er the weltering field of the tombless dead, And see worms of the earth, and fowls of the air, Beasts of the forest, all gathering there All regarding man as their prey, All rejoicing in his decay. XVIII. There is a temple in ruin stands, Fashioned by long forgotten hands Two or three columns, and many a stone, Marble and granite, with grass o'ergrown! Out upon Time! it will leave no more Of the things to come than the things before! Out upon Time! who for ever will leave But enough of the past for the future to grieve O'er that which hath been, and o'er that which must be What we have seen, our sons shall see Remnants of things that have passed away, Fragments of stone, reared by creatures of clay! XIX. He sate him down at a pillar's base, And passed his hand athwart his face Like one in dreary musing mood, Declining was his attitude His head was drooping on his breast, Fevered, throbbing, and oppressed And o'er his brow, so downward bent, Oft his beating fingers went, Hurriedly, as you may see Your own run over the ivory key, Ere the measured tone is taken By the chords you would awaken. There he sate all heavily, As he heard the night-wind sigh. Was it the wind through some hollow stone, Sent that soft and tender moan? He lifted his head, and he looked on the sea, But it was unrippled as glass may be He looked on the long grassit waved not a blade How was that gentle sound conveyed? He looked to the bannerseach flag lay still, So did the leaves on Cithæron's hill, And he felt not a breath come over his cheek What did that sudden sound bespeak? 530 He turned to the leftis he sure of sight? There sate a lady, youthful and bright! XX. He started up with more of fear Than if an arméd foe were near. God of my fathers! what is here? Who art thou? and wherefore sent So near a hostile armament? His trembling hands refused to sign The cross he deemed no more divine He had resumed it in that hour, But Conscience wrung away the power. He gazed, he saw he knew the face Of beauty, and the form of grace It was Francesca by his side, The maid who might have been his bride! The rose was yet upon her cheek, But mellowed with a tenderer streak Where was the play of her soft lips fled? Gone was the smile that enlivened their red. The Ocean's calm within their view, Beside her eye had less of blue But like that cold wave it stood still, And its glance, though clear, was chill. Around her form a thin robe twining, Nought concealed her bosom shining Through the parting of her hair, Floating darkly downward there, Her rounded arm showed white and bare And ere yet she made reply, Once she raised her hand on high It was so wan, and transparent of hue, You might have seen the moon shine through. XXI. I come from my rest to him I love best, That I may be happy, and he may be blessed. I have passed the guards, the gate, the wall Sought thee in safety through foes and all. 'Tis said the lion will turn and flee From a maid in the pride of her purity And the Power on high, that can shield the good Thus from the tyrant of the wood, Hath extended its mercy to guard me as well From the hands of the leaguering Infidel. I comeand if I come in vain, Never, oh never, we meet again! Thou hast done a fearful deed In falling away from thy fathers' creed But dash that turban to earth, and sign The sign of the cross, and for ever be mine Wring the black drop from thy heart, And to-morrow unites us no more to part. And where should our bridal couch be spread? In the midst of the dying and the dead? For to-morrow we give to the slaughter and flame The sons and the shrines of the Christian name. None, save thou and thine, I've sworn, Shall be left upon the morn But thee will I bear to a lovely spot, Where our hands shall be joined, and our sorrow forgot. There thou yet shall be my bride, When once again I've quelled the pride Of Venice and her hated race Have felt the arm they would debase Scourge, with a whip of scorpions, those Whom Vice and Envy made my foes. Upon his hand she laid her own Light was the touch, but it thrilled to the bone, And shot a chillness to his heart, Which fixed him beyond the power to start. Though slight was that grasp so mortal cold, He could not loose him from its hold But never did clasp of one so dear Strike on the pulse with such feeling of fear, As those thin fingers, long and white, Froze through his blood by their touch that night. The feverish glow of his brow was gone, And his heart sank so still that it felt like stone, As he looked on the face, and beheld its hue, So deeply changed from what he knew Fair but faintwithout the ray Of mind, that made each feature play Like sparkling waves on a sunny day And her motionless lips lay still as death, And her words came forth without her breath, And there rose not a heave o'er her bosom's swell, And there seemed not a pulse in her veins to dwell. Though her eye shone out, yet the lids were fixed, And the glance that it gave was wild and unmixed With aught of change, as the eyes may seem Of the restless who walk in a troubled dream Like the figures on arras, that gloomily glare, Stirred by the breath of the wintry air So seen by the dying lamp's fitful light, Lifeless, but life-like, and awful to sight As they seem, through the dimness, about to come down From the shadowy wall where their images frown Fearfully flitting to and fro, As the gusts on the tapestry come and go. If not for love of me be given Thus much, then, for the love of Heaven, Again I saythat turban tear From off thy faithless brow, and swear Thine injured country's sons to spare, Or thou art lost and never shalt see Not earththat's pastbut Heaven or me. If this thou dost accord, albeit A heavy doom' tis thine to meet, That doom shall half absolve thy sin, And Mercy's gate may receive thee within But pause one moment more, and take The curse of Him thou didst forsake And look once more to Heaven, and see Its love for ever shut from thee. There is a light cloud by the moon 'Tis passing, and will pass full soon If, by the time its vapoury sail Hath ceased her shaded orb to veil, Thy heart within thee is not changed, Then God and man are both avenged Dark will thy doom be, darker still Thine immortality of ill. Alp looked to heaven, and saw on high The sign she spake of in the sky But his heart was swollen, and turned aside, By deep interminable pride. This first false passion of his breast Rolled like a torrent o'er the rest. He sue for mercy! He dismayed By wild words of a timid maid! He, wronged by Venice, vow to save Her sons, devoted to the grave! Nothough that cloud were thunder's worst, And charged to crush himlet it burst! He looked upon it earnestly, Without an accent of reply He watched it passing it is flown Full on his eye the clear moon shone, And thus he spakeWhate'er my fate, I am no changeling'tis too late The reed in storms may bow and quiver, Then rise again the tree must shiver. What Venice made me, I must be, Her foe in all, save love to thee But thou art safe oh, fly with me! He turned, but she is gone! Nothing is there but the column stone. Hath she sunk in the earth, or melted in air? He saw nothe knew notbut nothing is there. XXII. The night is past, and shines the sun As if that morn were a jocund one. Lightly and brightly breaks away The Morning from her mantle grey, And the Noon will look on a sultry day. Hark to the trump, and the drum, And the mournful sound of the barbarous horn, And the flap of the banners, that flit as they're borne, And the neigh of the steed, and the multitude's hum, And the clash, and the shout, They come! they come! The horsetails are plucked from the ground, and the sword From its sheath and they form, and but wait for the word. Tartar, and Spahi, and Turcoman, Strike your tents, and throng to the van Mount ye, spur ye, skirr the plain, That the fugitive may flee in vain, When he breaks from the town and none escape, Agéd or young, in the Christian shape While your fellows on foot, in a fiery mass, Bloodstain the breach through which they pass. The steeds are all bridled, and snort to the rein Curved is each neck, and flowing each mane White is the foam of their champ on the bit The spears are uplifted the matches are lit The cannon are pointed, and ready to roar, And crush the wall they have crumbled before Forms in his phalanx each Janizar Alp at their head his right arm is bare, So is the blade of his scimitar The Khan and the Pachas are all at their post The Vizier himself at the head of the host. When the culverin's signal is fired, then on Leave not in Corinth a living one A priest at her altars, a chief in her halls, A hearth in her mansions, a stone on her walls. God and the prophetAlla Hu! Up to the skies with that wild halloo! There the breach lies for passage, the ladder to scale And your hands on your sabres, and how should ye fail? He who first downs with the red cross may crave His heart's dearest wish let him ask it, and have! Thus uttered Coumourgi, the dauntless Vizier The reply was the brandish of sabre and spear, And the shout of fierce thousands in joyous ire Silencehark to the signalfire! XXIII. As the wolves, that headlong go On the stately buffalo, Though with fiery eyes, and angry roar, And hoofs that stamp, and horns that gore, He tramples on earth, or tosses on high The foremost, who rush on his strength but to die Thus against the wall they went, Thus the first were backward bent Many a bosom, sheathed in brass, Strewed the earth like broken glass, Shivered by the shot, that tore The ground whereon they moved no more Even as they fell, in files they lay, Like the mower's grass at the close of day, When his work is done on the levelled plain Such was the fall of the foremost slain. XXIV. As the spring-tides, with heavy plash, From the cliffs invading dash Huge fragments, sapped by the ceaseless flow, Till white and thundering down they go, Like the avalanche's snow On the Alpine vales below Thus at length, outbreathed and worn, Corinth's sons were downward borne By the long and oft renewed Charge of the Moslem multitude. In firmness they stood, and in masses they fell, Heaped by the host of the Infidel, Hand to hand, and foot to foot Nothing there, save Death, was mute Stroke, and thrust, and flash, and cry For quarter, or for victory, Mingle there with the volleying thunder, Which makes the distant cities wonder How the sounding battle goes, If with them, or for their foes If they must mourn, or may rejoice In that annihilating voice, Which pierces the deep hills through and through With an echo dread and new You might have heard it, on that day, O'er Salamis and Megara We have heard the hearers say, Even unto Piræus' bay. XXV. From the point of encountering blades to the hilt, Sabres and swords with blood were gilt But the rampart is won, and the spoil begun, And all but the after carnage done. Shriller shrieks now mingling come From within the plundered dome Hark to the haste of flying feet, That splash in the blood of the slippery street But here and there, where 'vantage ground Against the foe may still be found, Desperate groups, of twelve or ten, Make a pause, and turn again With banded backs against the wall, Fiercely stand, or fighting fall. There stood an old manhis hairs were white, But his veteran arm was full of might So gallantly bore he the brunt of the fray, The dead before him, on that day, In a semicircle lay Still he combated unwounded, Though retreating, unsurrounded. Many a scar of former fight Lurked beneath his corslet bright But of every wound his body bore, Each and all had been ta'en before Though agéd, he was so iron of limb, Few of our youth could cope with him, And the foes, whom he singly kept at bay, Outnumbered his thin hairs of silver grey. From right to left his sabre swept Many an Othman mother wept Sons that were unborn, when dipped His weapon first in Moslem gore, Ere his years could count a score. Of all he might have been the sire Who fell that day beneath his ire For, sonless left long years ago, His wrath made many a childless foe And since the day, when in the strait His only boy had met his fate, His parent's iron hand did doom More than a human hecatomb. If shades by carnage be appeased, Patroclus' spirit less was pleased Than his, Minotti's son, who died Where Asia's bounds and ours divide. Buried he lay, where thousands before For thousands of years were inhumed on the shore What of them is left, to tell Where they lie, and how they fell? Not a stone on their turf, nor a bone in their graves But they live in the verse that immortally saves. XXVI. Hark to the Allah shout! a band Of the Mussulman bravest and best is at hand Their leader's nervous arm is bare, Swifter to smite, and never to spare Unclothed to the shoulder it waves them on Thus in the fight is he ever known Others a gaudier garb may show, To tempt the spoil of the greedy foe Many a hand's on a richer hilt, But none on a steel more ruddily gilt Many a loftier turban may wear, Alp is but known by the white arm bare Look through the thick of the fight,'tis there! There is not a standard on that shore So well advanced the ranks before There is not a banner in Moslem war Will lure the Delhis half so far It glances like a falling star! Where'er that mighty arm is seen, The bravest be, or late have been There the craven cries for quarter Vainly to the vengeful Tartar Or the hero, silent lying, Scorns to yield a groan in dying Mustering his last feeble blow 'Gainst the nearest levelled foe, Though faint beneath the mutual wound, Grappling on the gory ground. XXVII. Still the old man stood erect. And Alp's career a moment checked. Yield thee, Minotti quarter take, For thine own, thy daughter's sake. Never, Renegado, never! Though the life of thy gift would last for ever. Francesca!Oh, my promised bride! Must she too perish by thy pride! She is safe.Where? where?In Heaven From whence thy traitor soul is driven Far from thee, and undefiled. Grimly then Minotti smiled, As he saw Alp staggering bow Before his words, as with a blow. Oh God! when died she?Yesternight Nor weep I for her spirit's flight None of my pure race shall be Slaves to Mahomet and thee Come on!That challenge is in vain Alp's already with the slain! While Minotti's words were wreaking More revenge in bitter speaking Than his falchion's point had found, Had the time allowed to wound, From within the neighbouring porch Of a long defended church, Where the last and desperate few Would the failing fight renew, The sharp shot dashed Alp to the ground Ere an eye could view the wound That crashed through the brain of the infidel, Round he spun, and down he fell A flash like fire within his eyes Blazed, as he bent no more to rise, And then eternal darkness sunk Through all the palpitating trunk N</t>
+          <t>Woh, woh, woh Woh, woh, woh, woh Aaah, il veulent faire la guerre, pas assez d'armes Il pleut des bouteilles, il verse des larmes J'embrasse ces jaloux, avec le sourire Allez kiss, allez kiss Dans la rue, aucune règle c'est l'argent qui fait la loi Parlons biff, parlons français, parlons pas chinois Mouah pour les jalouses avec le sourire Allez kiss, allez kiss Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Aaah, dix minutes sur la table, on a posé nos couilles Bande de pisseux, vous parlez plus beaucoup Aaah, toujours ceux qui parlent le plus qu'en font le moins et qui redoutent la fin du mois J'vis de la 'sique sin-c, j'fais plus trop de zigzag J'ai vendu la me-ca comme si je vendais des Tic-Tac Six du mat' tic tac Les keufs ont fait toc toc, toc toc Ils m'ont soulevé sur le clic-clac Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre La concurrence n'est pas née Et si elle est née on va la tuer La concurrence n'est pas née Et si elle est née on va la tuer T'en envoies une, j't'en envoie cinq T'en envoies cinq, j't'en envoie quinze La concurrence n'est pas née Et si elle est née on va la tuer, ah ! On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Woh, woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh, woh Star Wars, Star Wars, Star Wars Woh, woh 300, 300, 300 Woh, woh, woh1</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dansa</t>
+          <t>Héhéhé</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Paris, Marseille, Lille, Strasbourg, Lyon, Toulouse, Bordeaux On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa musique Il était en soirée soirée Complètement bourré bourré La go, il la voulait voulait Mais il la soûlait soûlait Ouais il la voulait voulait Mais c'était un boulet boulet Roulé boulé, il a tout déballé Marrakech, Tunis, Alger, Kinshasa, Bamako, Dakar, Abidjan On me dit qu'elle dansa, hey On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique Elle était en soirée soirée Très très soignée soignée Le gars, elle le voulait voulait Mais il a foiré foiré Ouais il a foiré foiré Il a fait l'enfoiré 'foiré Donc elle est rentrée rentrée Bien accompagnée 'pagnée Miami, Vegas, New York, L.A., Dubaï, Phuket, Ibiza On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa On me dit qu'elle dansa musique On me dit qu'il dansa, hey On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa On me dit qu'il dansa2</t>
+          <t>Yah, yah yah yah yah yah Ah, ah, ah Wesh la famax', sortait les famas On est chavax, Air Max, TMAX Bans'bagui, ah j'crois qu'y a trop d'gadji Huit magnum, seize raclis J'vois tout en double, ah, c'est l'effet d'groupe Vision très sombre, vision très trouble Après quatre heures, plus d'comportement Fait la passe dé', débordement Tir frappe cadrée, tié le sang le fraté J'suis en 4G, sur Snap j'vais l'engager Grosse bagarre, pépère c'est l'bazar J'suis avec Amar, le berbère barbare Tu parles pour quoi? Tu baises ou pas? T'es vierge ou quoi? T'as tes règles ou quoi? Tu parles beaucoup, petite poupée, vire la d'ici, meuf à problème CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Déni</t>
+          <t>Intro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Tchè, tchè, tchè tchè tchè Tchè, tchè, tchè eh Ouais la night, ouais la night va me tuer Un jour les groupies vont finir par me huer Je te trompe, j'te retrompe, j'te fais suer Mais tu fais la sourde donc je fais le muet Sous la douche tes pleurs sont cachés par la buée J'suis l'dernier des salauds, j'me dis qu'j'ai abusé Y a pas d'raison j'ai fini par m'ennuyer J'ai sali ton honneur j'pourrais jamais l'essuyer Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Tchè, Tchè L'amour rend aveugle donc tu te voiles la face Tu nageais dans le bonheur aujourd'hui tu bois la tasse T'aime pas les histoires c'est pour ça que tu tais Un jour tout se paie, ouais un jour tout se sait Je veux te le dire il y a que pour toi que j'ai des sentiments Les autres je les vois et elles repartent toutes gentiment Peut-être qu'on serait mieux si on prenait nos distances Mais le silence est la meilleure des défenses Je veux te quitter, mais je ne peux pas te quitter T'es mon équilibre la seule qui peut me guider Tu veux me quitter, mais tu ne peux pas me quitter J'suis ton équilibre le seul qui peut te guider J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni On est dans le déni, on est dans le déni On est dans le déni, on est das le déni Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité Je suis méchant, injuste et égoïste Avec tous mes caprices ces toi que je pénalise J'aimerais tout te dire, mais je suis pétrifié Donc je préfère le mensonge à la vérité J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni J'ai préféré te mentir pour nous protéger Et tu acceptes mes mensonges pour te protéger Je sais que tu m'en veux je m'en veux aussi On en parlera demain, on est dans le déni Pour nous protéger hein Pour te protéger hein Je m'en veux aussi hein On est dans le déni hein</t>
+          <t>I wrote this in ten minutes That's more than you'll ever give me You only met me twice but I don't think that you'd forget me I'll admit that I'm crushing, won't admit that I'm creeping Unless you're into that, I'll tell you all about your weekend I'm peeping your profile, falling for things so simple like dimples on your smile Give me your number, watch how fast I make that phone dial Impatiently waiting, debating whether or not I should just show up to your spot What's the worst that can happen? Serenade you with rapping Ven conmigo mi Jasmine, you ever been with a Latin? I know you understand it, cause I'm speaking your language And I'm from your same island, another reason I'm wildin' I'm finding ways to impress you, take you out and finesse you Compliment your outfit while I mentally undress you And test you, while you're in class I text you things to tempt you Nobody makes me feel this way except you You got my heart rushing, I'm loving the way you stunt in them heels, I'm crushing for real Nothing but praise, that's just how I feel, do it again got you blushing for days Okay, this whole song's for you, hope you can manage This liquor got me so gone, but this wasn't a challenge</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Derrière toi</t>
+          <t>J’ai Déconné (Remix)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
+          <t>Allô, bébé comment tu vas ? Oui allô, chérie comment tu vas ? Je viens aux nouvelles Mais quest-cquil se passe ? Mes affaires sont dans la poubelle Mais quest-cquil se passe ? Pour elle jai tout donné Une faute avouée à moitié pardonnée Ah jai tout donné Aujourdhui mon royaume sest écroulé Jai toujours espoir Sil te plait ma chérie ne me laisse pas Jveux monter lestrade Si tu me laisses mon cur reste là Non je peux pas le nier Aujourdhui tes problèmes sont les miens Non je peux pas le nier Tu me tends ta main bah jte tends la mienne Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle x2 Tu sais très bien qujai déconné Tu sais très bien qutas déconné Mais au fond dtout ça on sconnaît Allô, mais quest-cquil se passe ? Quest-cquil se passe ? Allô Assieds-toi jvois qules choses te dépassent Tu crois qule Ciel tes tombé sur la tête Mais des étoiles comme elle y en a mille Cétait un canon ta chérie faut ladmettre Mais tas pas visé dans le mile Elle fouillait ton tél, tu mdisais Debeing Quest-cquelle est bête, quest-cquelle est bête Mais tu peux pas comprendre Est-cque tes sûr de toi ? Ouais jsuis sûr de moi Écoute-moi pour une fois et x2 Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle Tas pas déconné, déconné Tas pas déconné, déconné Tas pas déconné, déconné</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dessaoulé</t>
+          <t>J’me déteste</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Han, han Han, han Dessaoulé, Aymoune t'a dessaoulé Dessaoulé, Aymoune t'a dessaoulé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Marrakech, Pattaya Joint de XXX, faya J'ai fais l'plein Porsche Chayenne XXXX d'addition XXX caillasse Coup d'bouteille dans la te-tê' Belvé' belvé' belvé' belvé' Chaussures Gucci, ceinture élevée Niveau élevé élevé élevé J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Elle a tourné dans tout Paris Et elle ose me dire c'est comment ? On s'était dit on s'attache pas Elle a vu le buzz, elle d'vient collante Amnésie globale, amnesia locale Elle peut boire Vodka, XXX pas d'car J'suis rentré bourré, donc maman s'est fâchée J'ai bibi toute la journée, donc papa s'est fâché J'ai offert des cadeaux, mais l'fiston est fâché J'ai trompé madame, donc madame est fâchée Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Service, pourboire Jada, trou noir Chicha, beurette Tel-ho', levrette Négresse fâchée, Marine placée Black M, Verdun Marine fâchée Aymoune, Debeing, il t'a assuré Est-ce que c'morceau sera censuré ? Jada, Belvé', bouteille, bénef' Magnum, champagne, XXX Han, dessaoulé, j'ai pas de dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé Dessaoulé, j'ai pas dessaoulé</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dirty</t>
+          <t>Joujou</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Égoïste</t>
+          <t>J’suis un lossa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eh, eh eh Tcheh, tcheh, tcheh tcheh tcheh Eh, eh eh Tcheh, tcheh Tu passes ta vie en boîte de nuit, elle veut juste qu't'évites les ennuis Les chiennes de garde ne font qu'du bruit quand t'es en chien, direct, elles fuient Ton poto s'est fait tirer d'ssus, tu veux retourner les plomber Quand t'as la tête dans ton plan cul, elle pense déjà à ton plan B En gros t'es juste un chien d'la casse, elle est naïve, elle s'voile la face Tu l'as prise pour la mettre de té-cô, pour que personne te prenne ta place Un mot d'travers, c'est toi qui t'casse, la hagra la plus efficace À chaque fois qu'elle regarde ton bigo, elle se remange le coup d'grâce T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste On sait tous que t'es pas timide, nous mens pas, ne fais pas timnik Des maîtresses, t'en a cinq ou six, on sait tous que t'as pas d'limites Han, à chaque fois qu'tu l'entends râler chaque fois Tu la bombardes de ça va aller ça va, va Tu lui sors tout un tas de mythos pour l'empêcher de cavaler Teh, t'as pas d'cur, non, t'as pas d'pitié, faire du mal, ça t'fait palpiter Tu rentres pas, elle est paniquée, tu rentres pas tant qu't'as pas niqué Tu cherches même plus à t'rattraper tu t'en fous, ouais, chez moi on dit 'Esprit mabé mauvais Comme tu sais qu'elle va revenir, y'a plus besoin de s'adapter T'es dans ton délire, han, t'es dans ta matrice, han T'es dans ton de-mon, mm-yeah, non non non non non, égoïste T'es dans ton délire, han, t'es dans ta matrice, han-eh T'es dans ton de-mon, eh-yeah non non non non non, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste Na na-na-na-na, tu penses qu'à toi Na na-na-na-na, tu parles en je Na na-na-na-na et t'aimes ce jeu Na na-na-na-na, teh, égoïste</t>
+          <t>J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa On s'mélange pas, traîne avec des gens qui plaisantent pas Fais le fou, fais le fou clic, paw C'est la mala, envoie bouteille on khalass On donne chaud, Bahamas On s'enjaille, range ton famas J'sais pas t'es qui, change pas d'équipe Chacal sa pète on t'a dit, j'crois qu'on te l'a mise Un marocain dans la zone, y'a trop d'algérien aussi La sénégalaise a des formes et la malienne aussi J'suis un lossa, fais-moi un boussa Ouais j'aime trop ça, quand j'me sens die J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa Bébé j'suis un salaud, un mauvais gadjo Les sièges chauffants réchauffe ton dos Fais des squats, fais des abdos Elle touche mes mains, elle les trouve douces C'est que j'ai jamais taffé dans la vie Depuis que j'rappe, j'suis plutôt rentable J'ai des Franklin, j'te doguine toute la nuit J'suis avec Youssef dans la zone, ce soir j'claque 10 bouteilles J'détourne ta go au Sofitel Comme Alrima on s'mélange pas, pas, pas, pas J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa On s'est déjà vu sur Paris oui Mais en faite tu fais crari oui Tu fais celle qui est pas de sortie mais j'te vois posée dans les XXX du wari oui T'es bonne en calcul mental oui Toi t'as pas trop sécher l'école non 11 2, donc y'a deux fois plus de Magnum oui On voit tout on sait tout, oui On dit rien on fait tout, oui C'est les derniers des lossa Tu t'es mis propre pour faire du le-sa oui ×2 J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa1</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Euro Dollars</t>
+          <t>La force</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Euro, dollar Euro, dollar Euro, dollar Ey, ey, ey, prr Euro, dollar Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Vient qu'on s'capte, j'suis dans l'speed Tu veux m'voir, j'suis dans le VIP Regarde-moi, regard triste J'bois tellement qu'j'ai l'regard vide Autour de moi y a que des foufs, que des clowns, que des jnouns J'ai tellement des liasses de partout, t'as l'impression que j'vends d'la schnouf Yah, euro, dollar, livre sterling yah Y a du pain en libre service yah J'avais l'ennemi à ma merci yah Mais j'avais la meuf dans mon Merce yah Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ey, ey Stack is paars, heb een paar gebosst Prr Straight up, pak saaf in een envelop Beaucoup d'argent, da's een rare som Ontspan, ga naar huis met een Franse bom Prr, hey Securen de bag Ben niet de type dat liegt in m'n raps Hou van mezelf, wat ik doe voor de cash Cash Ben onderweg, die miljoen is niet ver, hmm Rah Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Ey, ey, ey, prr, prr, hey Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Ben opgegroeid in de streets Uh-huh Real, net een locomotief Uh-huh Honderden slangen gezien Uh-huh Daarom geloof ik je niet Prr, hey On est arrivé à deux On est reparti à dix La devise c'est love et and peace L'amour on laisse ça à nos vices Euro Euro, dollar Cash Ik ben altijd op een missie Hey Pak wat ik kan, ik verspil niet Prr Ben onderweg naar een millie Prr, prr Euro, dollar Du liquide, du liquide, du liquide Quand j'suis dans l'club ça devient mythique Pas besoin de la rencontrer sur Meetic Euro, dollar Euro, dollar Euro, dollar Euro, dollar</t>
+          <t>Hey hey hey, hey hey hey Hey hey hey, hey hey hey Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm, oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Quand je sors dans le club, je fais la guerre c'est midi Dans l'équipe ouais j'suis seul faut booter du living Je pose et repose d'puis l'époque de la loco C'est pas en vieux Bonobo qu'on apprend d'apparat locaux Dans la street c'est la jungle tu peux te faire cartoucher Par Tarzan et Mowgli quand tu t'fais partouzer Sans capote faut pas toucher comportement pas loucher Barbie refuse d'être une poupée donc premier soir faut pas coucher Elle se met avec un 6 gros elle veut un train d'vie coûteux Elle se met avec un fouteux c'est la planque c'est douteux Avec un rappeur je me méfie pour vous deux Elle est peut-être fan de moi elle te quittera pour nous deux Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Tu veux rentrer sur le terrain est-ce que t'es cramponné Tu me cires les baskets si je te fous le pomponner Elle me dit qu'elle a ses règles mais elle veut se faire tamponner Je vais sur l'avenue Montaigne je vais faire de la randonnée Tout ce qu'ils m'ont pris à la fouille paye vroom redonnée J'suis devenu une resta le blason redoré Le blason redoré toutes les portes décodés Je crois que le bord est trop gros je vais finir déborder Je traîne avec des barbus pour la 7 je veux crépule Qui coulaient vos crépuscules comme la dernière des crapules Les gens changent avec le temps ou c'est le temps qui change les gens Dans tous les cas je m'en bats les couilles je perds mon temps sur les champs Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Hey hey hey, hey hey hey Hey hey hey, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fatigué</t>
+          <t>Laisse les parler de nous</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>Hors-Série Feeling La violence est gratuite F-f-f-f-feeling Équipe de nuit Feeling L'institut Frappe, que des boules, ouais, mes shab, on s'débrouille pas On gère, laisse le WA, on tient le rap par les couilles Laisse les parler d'nous, on sait qui suce la bite à qui Si tu m'as vu à g'noux c'est qu'j'étais sur un tapis J'ai les nerfs, nique ta mère, laisse ton commentaire haineux Mon frère, si y'a un putain d'traitre, encerclez-le Soir ce j'suis pas d'humeur Ramene des chiottes dans la cabine j'te chie un classique en moins d'une heure Le rap n'a pas d'niveau, donc on a pas d'rivaux J'sais qu'ton cur palpite, gros, fais pas l'mytho Mon insolence n'a pas pris une ride Flow, phases, assonances, te gifflent avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Cherche un sens à ta vie avant d'exercer flow, phases Fasse qu'il se'bousille n'est qu'un exercice, exquis J'ai plusieurs smileys klaxonne en prestige C'est l'odysée des enfants mystiques J'ai cru apercevoir des têtes qui parlent sur nous dans la foule Rien ne m'sali appart la merde que j'roule Deux-trois langue de putes, les negros ont leur periode Sache que leuré dans la minute un ons comme Amélie Laisse-moi m'glisser dans ton iPod Le cur a Tox demande à One Shot dans l'WA Chut, on pue la grande forme, lèves la tête y'a un level après la grande classe Fixé par les auditeurs comme en sonne Feeling Tu sonnes Feeling, feeling On bosse avec le Feeling Livraison à domicile Voilà ton kiff de vote en..., voilà ton kiff de vote de l'or. yeah Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère , Doomams, j'désab' et c'est qu'j'suis un bâtard Reste lourd, j'kick avec le cafard, yeah Le H De Guerre Équipe de nuit Abou Debeing Hors-Série</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Freedom</t>
+          <t>Le gars-là</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
+          <t>Ah, Alleluia Michael Production Abou Debeing, tu dis quoi ?! Argh..Argh.. Wati B On m'entend bien là ? Whouu! Debeinguerie On t'avais prévenu ! Ecoute ça ! Le gars-là, c'est un salaud... Argh Il pourrait blaguer ta go... Argh Jeu de jambes, cadeau... Argh Il la fou sur le té-cô... Argh Sa langue, elle est sucré... Argh Mais l'addition est salée... Argh Ton rabouin l'insultait... Argh Il va tous faire pour la blaguer... Argh Un chien fini... Argh C'est un vrai prédateur... Argh Il va pas bouffer tes os... Argh Lui, il va bouffer ton cur... Argh Il dit qu'il veut protéger ton dos... Argh Mais il vise que ton tard-pé... Argh On l'appelle Bip-Bip... Argh Tu le voies plus quand il t'a tapé... Argh Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Le gars-là, veut pas ton cur... Argh C'qu'il veut, c'est tes lolos... Argh S'il te dit suis-moi... Argh Faut pas le follow... Argh Non faut pas le follow, lui c'est un salaud Tu finiras solo, noyé sous l'eau Il va te faire croire que t'es pas comme les autres Que maintenant, il est vrai qu'il a commis des fautes Tu crois qu'il t'aime, elle aussi Tu crois que tu vas l'changer, elle aussi Mais vous aussi, vous ne comprenez pas On vous donne des conseils que vous n'appliquez pas Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Il va te dire qu'il veut que tu sois discrète Il veut te cacher tout ça, c'est des disquettes Ouais c'est des disquettes, il ne pense qu'à son bifteck Pense qu'à son bifteck, à te rentrer son biscuit En tête, est-ce qu'il discute ? Ou est-ce qu'il crée des disputes ? En tête, est-ce qu'il discute ? Dis-moi, ou est-ce qu'il crée des disputes ? Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh2</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Freestyle Abou Debeing Planète Rap</t>
+          <t>Les sorties (C’est toujours Debeing)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ils croient tous faire du rap, ils sont bons dans la trap Eux, tous le même flow sorti d'un XXX J'crache dans une fouf, pas dans la soupe Mon gosse te butera dans dix ans si j'te loupe J'bosse et j'ai du talent Ramène-moi l'mic' que</t>
+          <t>On m'dit Debeing faut qu't'arrêtes les sorties T'es une tête d'affiche, faut pas qu'tu t'tapes l'affiche Un gars du peuple, j'suis un gars du peuple Toujours moi et mon équipe, avec des frappes dans l'club Laissez-moi vivre, enlevez-moi le V J'perds des res-frè, j'veux encore des rre-ve Ma peine est profonde, ramenez-moi des bouteilles Des litres et des litres, je liquide mon oseille Je sais ce qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Tu peux me croiser dans Paname en train de saigner les Champs On a trop souffert mon ami, rien d'méchant On pense nos plaies, on pense qu'on plait J'suis un homme complet mais pas un homme comblé Les femmes me cherchent, je cherche une femme J'me fais ravaler de likes sur Instagram C'est toujours la même dès que j'm'ennuis Tous les chemins me mènent en boite de nuit, et Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise2</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gangsta Love</t>
+          <t>Lovés</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Griffon d’or</t>
+          <t>Ma chérie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! Tu fais l'sourd, on t'allonge si tu fais l'sourd sourd ! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous! Ce soir, jsuis tellement griffé quon va mappeler griffon dor Aujourdhui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Comme on s'retrouve ma dépouga Il est trop tard pour prier Pouda J'veux m'casser pars pas m'faire Pumba T'as cherché la mienne dans mon crou d'balle A-M-G j'suis dans le leasing Debeing 1 sur le listing J'ai conquis le club comme un viking Pas d'garde de saloon, que des vikings Tu sais si on fascine des bonhommes Première poignée de mon premier regard Tu sais si on fascine Tchaga Première bise, premier roulage de pétards Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin J'prends les jeunes majeures, j'prends les cougars Chocolat noir, caramel, nougat T'as bien compris que j'suis dans l'métissage J'promène en beu-Reu', j'vends les p'tits sages A ce qu'il paraît, t'as un garage Tellement de bouteilles, j'ai un parking Oui j'ai un parking Avec les Magnums, j'fais du karting T'envoies ta copine au casse Tu t'mets devant le vide, tu ne passes pas le casting Tu l'envoies au casse Tu t'mets devant le vide, mais elle n'passe pas le casting Ce soir, j'suis tellement griffé qu'on va m'appeler griffon d'or Aujourd'hui j'suis tellement griffé tellement griffé griffé qu'on va m'appeler griffon d'or Gucci gang Gucci gang Gucci gang, Louis Vuitton, Coco na Channel Gucci gang Gucci gang Gucci gang, Versace, Prada, Louboutin Tu fais l'fou, on t'allonge si tu fais l'fou fou! fou! T fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Eh tu fais l'sourd, on t'allonge si tu fais l'sourd sourd! sourd! Tu dois des sous, on t'allonge tu dois les sous sous! sous!</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Guerre</t>
+          <t>Mamamia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Woh, woh, woh Woh, woh, woh, woh Aaah, il veulent faire la guerre, pas assez d'armes Il pleut des bouteilles, il verse des larmes J'embrasse ces jaloux, avec le sourire Allez kiss, allez kiss Dans la rue, aucune règle c'est l'argent qui fait la loi Parlons biff, parlons français, parlons pas chinois Mouah pour les jalouses avec le sourire Allez kiss, allez kiss Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Aaah, dix minutes sur la table, on a posé nos couilles Bande de pisseux, vous parlez plus beaucoup Aaah, toujours ceux qui parlent le plus qu'en font le moins et qui redoutent la fin du mois J'vis de la 'sique sin-c, j'fais plus trop de zigzag J'ai vendu la me-ca comme si je vendais des Tic-Tac Six du mat' tic tac Les keufs ont fait toc toc, toc toc Ils m'ont soulevé sur le clic-clac Le petit guetteur va devenir bicraveur Le petit voleur va devenir un grand braqueur Le petit soldat va devenir général, général, général On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre La concurrence n'est pas née Et si elle est née on va la tuer La concurrence n'est pas née Et si elle est née on va la tuer T'en envoies une, j't'en envoie cinq T'en envoies cinq, j't'en envoie quinze La concurrence n'est pas née Et si elle est née on va la tuer, ah ! On va répondre à l'appel pour la gue-guerre La gue-guerre, la gue-guerre, la guerre, guerre Gue-guerre, la gue-guerre, la gue-guerre La guerre, guerre, gue-guerre Star Wars La gue-guerre Star Wars La gue-guerre Star Wars La guerre, guerre, gue-guerre 300 La gue-guerre 300 La gue-guerre 300 La guerre, guerre Woh, woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh Gue-guerre, gue-guerre Woh Gue-guerre Woh, woh, woh Star Wars, Star Wars, Star Wars Woh, woh 300, 300, 300 Woh, woh, woh1</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè tchè, eh T'es prête à tirer pour moi, tout assumer pour moi Pour que je sois numéro un t'es prête à tomber pour moi Avec toi c'est tout droit pas d'bla-bla, de pourquoi Je suis pas du genre courtois, mais je vais changer pour toi T'es mon double, t'es mon binôme, toi t'assume mieux qu'un bonhomme T'est la même en hiver, printemps, été ou automne Pas le temps de bailler, je veux le bif', le pouvoir T'as pas le temps de brailler t'es pas dans les bruits de couloir Tchè, de fois je fais l'enfant Tchè, parce que je sais que t'es en sang Tchè, on a pas commencé ensemble Tchè, mais on a fini ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dilleur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dilleur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Si demain des pirates viennent chercher le magot enlève ce qu'il y a sous le matelas T'es le meilleur des matelots Toi et moi ça fait qu'un Eh c'est pas des maths là Rejoins-moi n'importe où dans le monde oui c'est ça la fast life J'suis pas tout le temps dispo, j'suis pas tout le temps présent J'suis peut-être avec une michto, mais non tu sais que je plaisante Fais pas la meuf qui pète les plombs, comme tes potes les tarés Tu sais que si je vais faire des ronds, c'est pour que tout soit carré Tchè, de fois je fais l'enfant enfant Tchè, parce que je sais que t'es en sang en sang Tchè, on a pas commencé ensemble ensemble Tchè, mais on a fini ensemble ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dealeur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dealeur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Héhéhé</t>
+          <t>Meilleurs</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yah, yah yah yah yah yah Ah, ah, ah Wesh la famax', sortait les famas On est chavax, Air Max, TMAX Bans'bagui, ah j'crois qu'y a trop d'gadji Huit magnum, seize raclis J'vois tout en double, ah, c'est l'effet d'groupe Vision très sombre, vision très trouble Après quatre heures, plus d'comportement Fait la passe dé', débordement Tir frappe cadrée, tié le sang le fraté J'suis en 4G, sur Snap j'vais l'engager Grosse bagarre, pépère c'est l'bazar J'suis avec Amar, le berbère barbare Tu parles pour quoi? Tu baises ou pas? T'es vierge ou quoi? T'as tes règles ou quoi? Tu parles beaucoup, petite poupée, vire la d'ici, meuf à problème CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah CB couleur pétrole Dit moi y a un bémol Zéro tracas, trop de blablah</t>
+          <t>Lequel de nous a osé ? Lequel de nous a fauté ? On a tout noyé dans l'rosé, prie, oui, fais-le pour moi Crie mais non, ne pars pas, oublie tout sinon l'amour est mort Forcément je s'rais mort et là j'suis comme un con, sans ami J'ressens plus aucun pleasure J'ressens plus aucun pleasure On l'a fait, on avait déjà tout fait Combien de trains sont passés ? Toi, tu m'laisses sur le quai, ouh Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais J'suis dans ton dos, je te vois, je veux qu't'entendes ma voix Tu fais des aller-retours mais c'est que des détours Au final, tu reviendras vers moi, j'ai mal, j'ai l'mort J'oublierai jamais ton corps, j'ai fait tant d'efforts J'ai même su reconnaître mes torts Est-c'que tes lèvres il a goûté ? Avoue, ton corps, il a touché J'ai louché rien qu'd'y penser De vous deux, j'aimerais faire qu'une bouchée J'vois flou, c'est fou, à la base le couple, c'était nous Nous nous, nous nous, nous Maintenant, dans la tête, j'ai que vous Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>Mercé</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>I wrote this in ten minutes That's more than you'll ever give me You only met me twice but I don't think that you'd forget me I'll admit that I'm crushing, won't admit that I'm creeping Unless you're into that, I'll tell you all about your weekend I'm peeping your profile, falling for things so simple like dimples on your smile Give me your number, watch how fast I make that phone dial Impatiently waiting, debating whether or not I should just show up to your spot What's the worst that can happen? Serenade you with rapping Ven conmigo mi Jasmine, you ever been with a Latin? I know you understand it, cause I'm speaking your language And I'm from your same island, another reason I'm wildin' I'm finding ways to impress you, take you out and finesse you Compliment your outfit while I mentally undress you And test you, while you're in class I text you things to tempt you Nobody makes me feel this way except you You got my heart rushing, I'm loving the way you stunt in them heels, I'm crushing for real Nothing but praise, that's just how I feel, do it again got you blushing for days Okay, this whole song's for you, hope you can manage This liquor got me so gone, but this wasn't a challenge</t>
+          <t>Hey attendez je vais vous raconter une histoire là Hey modifie ma voix, j'vais imiter la femelle Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! Vingt-trois heures, je suis normal J'lui demande ce soir, y'a quoi ? A minuit, je passe la cap Et j'lui dis ce soir, on s'voit A une heure, j'suis avec elle Mais j'lui dis j'veux pas la Ken A deux heures, je range mon tél Quand j'arrive devant l'hôtel Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! J'ai d'abord guetté ton boule Avant d'regarder tes yeux Avant de penser à nous J'suis égo, et je parle en je, je, je Je veux ci, je veux ça T'es à moi, quand tu passes Les chiens aboient Je touche ton boule, j'touche pas du bois Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey !</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>J’ai Déconné (Remix)</t>
+          <t>Merci</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Allô, bébé comment tu vas ? Oui allô, chérie comment tu vas ? Je viens aux nouvelles Mais quest-cquil se passe ? Mes affaires sont dans la poubelle Mais quest-cquil se passe ? Pour elle jai tout donné Une faute avouée à moitié pardonnée Ah jai tout donné Aujourdhui mon royaume sest écroulé Jai toujours espoir Sil te plait ma chérie ne me laisse pas Jveux monter lestrade Si tu me laisses mon cur reste là Non je peux pas le nier Aujourdhui tes problèmes sont les miens Non je peux pas le nier Tu me tends ta main bah jte tends la mienne Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle x2 Tu sais très bien qujai déconné Tu sais très bien qutas déconné Mais au fond dtout ça on sconnaît Allô, mais quest-cquil se passe ? Quest-cquil se passe ? Allô Assieds-toi jvois qules choses te dépassent Tu crois qule Ciel tes tombé sur la tête Mais des étoiles comme elle y en a mille Cétait un canon ta chérie faut ladmettre Mais tas pas visé dans le mile Elle fouillait ton tél, tu mdisais Debeing Quest-cquelle est bête, quest-cquelle est bête Mais tu peux pas comprendre Est-cque tes sûr de toi ? Ouais jsuis sûr de moi Écoute-moi pour une fois et x2 Jai déconné Sans toi jpeux plus décoller Jai déconné Sans toi jpeux plus décoller Ils tont dit ci, ils tont dit ça Réponds quand jtappelle Réponds quand jtappelle Je ten supplie, je veux que toi Réponds quand jtappelle Tas pas déconné, déconné Tas pas déconné, déconné Tas pas déconné, déconné</t>
+          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Je t’aime en silence</t>
+          <t>Mon petit</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Maes - Booska C - 0601 Kekra - Booska Césarienne - 0601 Max Paro - Critical 0801 Elams - Elams et les 40 voleurs - Épisode 2 - Lyon ft. ISKA, Pouya ALZ, Big Ben, Sasso Miro Starf - 0801 Hornet La Frappe - C'est mort ft. Leto RK - 0901 Leonis - Apollo - 0901 Les Alchimistes - Personne - 1001 Luv Resval - Side - 1001 Scridge - Ghetto ft. Landy - 1501 Doni M - Zig Zag - 1701 AM La Scampia - Fais-le - 1701 Gambi - Dans l'espace ft. Heuss L'enfoiré - 2201 La Fouine - Première fois - 2201 S.Pri Noir - Dystopia - 2301 Captaine Roshi - Opération CDL ft. Black D - 2301 Chily - Tout est calé ft. Koba LaD - 2301 D.Ace - La vérité - 2301 ISK - Garantie - 2301 Josman - Petite Bulle - 2301 Le Club - La maille - 2401 Benab - J'ai demandé à la rue - 2401 Damso - veillé - 2401 DTF - Baida - 2401 DTF - Maria - 2401 Laylow - TRINITYVILLE - 2401 LMB - Ça dit quoi poto - 2401 Timal - Routine - 2701 Naza - Souris verte 2901 Hache-P - Arès - 2901 Dika - Cur glacé ft. Sadek - 2901 Shotas - Compton - 2901 7 Jaws Seezy - Turbo S - 3001 Bolemvn - Frappe atomique - 3101 Bosh - Cur noir - 3101 Chily - Booska KushCoffee - 3101 Driks - Couleur ébène - 3101 Dry - Atlantis 1 - 3101 Graya - Dans la Cristaline ft. Naps - 3101 Hugo Nogam - Histoire sans fin ft. Dadju - 3101 Jok'Air - Jok'Chirac - 3101 Jok'Air - Sa mère aux mères ft. Diddi Trix, Sadek, Luv Resval Alkpote 3101 Kader Diaby 4real - Venez voir - 3101 Kekra - Comment on fait là ? - 3101 Kofs - Santé Bonheur - 3101 Marwa Loud - Allez les gros ft. Naza - 3101 Paolo - Comme un glaçon - 3101 Seizur - Ma gow - 3101 Vin's - Égalité - 3101 2zer - Balle perdue 5 - Blood Diamonds Février - 0202 Kikesa - Elle sait - 0302 Liim's - Favelas - 0502 USKY - Douce folie ft. Doxx - 0602 CG6 - Bizness - 0602 Sofiane - Training Day - 0702 Brvmsoo - Sale boulot ft. 4Keus - 0702 David Okit - Belek 0702 Gato da Bato - Ma vie - 0702 GLK - Maudit - 0702 Kaza - 3.5.7 - 0702 Meryl - TCQDOF - 0702 Soolking - Meleim ft. Dadju - 0702 YL - Larlar 2 Tennessee - 1002 Landy - Brave III Freestyle - 1202 ZKR - On se comprend ft. DA Uzi - 1402 Eden Seven - Dîner ft. Zed - 1402 Kofs - Embourgeoisé ft. Kaaris - 1402 Lujipeka - Palapalaba - 1402 TK - Benalla - 1402 T2R Minissia - Mariage 1 - 1402 Popey - Tchop ft. Sadek - 1402 Savage Toddy - AHAH ! - 1402 Zoupouti - Lolipop - 1602 Balao - Or brut - 1702 Sneazzy - Feu régulier - 1902 Barack Adama - Sirène - 2002 Naps - 6.3 ft. Ninho - 2002 Sofiane - Des malades - 2102 Abou Debeing - Meilleurs ft. Tayc - 2102 DA Uzi - Le dire ft. Maes - 2102 Dosseh - L'odeur du charbon Remix ft. Maes Dinos - 2102 Jok'Air - Ne pleure pas 2102 K.R.K - La maille - 2102 Sifax - Reste un bandit - 2102 Soolking - Marilyne ft. SCH - 2102 Timal - Week-end ft. Leto - 2102 ZeGuerre - Freestyle SixNueve 2102 2zé - Zézon - 2602 Soso Maness - DDD ft. Hornet La Frappe - 2702 Bekar - Aléas - 2702 Ninho - M.I.L.S 3 - 2702 Senyss - Bad Mama Jama - 2702 - Sneazzy - À quoi tu joues ? - 2802 Alonzo - Freestyle GG - 2802 ALP - Dernier vol ft. Niro - 2802 DJ Erise - TECO ft. Franglish 2802 Dry - Atlantis 2 - 2802 Green Montana - 6AM - 2802 Gros Mo - Rouler GZSC - 2802 Hatik - Encore - 2802 Sam's - Validé ft. Lacrim - 2802 SDM - La zone ft. Booba - 2802 Yanslo - Oublier Mars - 0103 Balao - 9 carats 37,5 ft. Salek - 0403 Shotas - GF - 0403 ZeGuerre - Corsé 7 - 0503 Dika - Enfant du block ft. Naps AM La Scampia - 0603 Rim'K - Valise ft. SCH Koba La D - 0603 GLK - Mauve - 0602 Haristone - Overdose 0603 K.R.K - Saint-Honoré - 0603 Kekra - Putain de salaire - 0603 LMB - La bringue 1 Plan B - 0603 Nseven7 - OTT2 - 0603 Onze - 11.2 - 0603 R.E.D.K. - Le Block - 0603 Soso Maness - So Maness - 0603 YL - Larlar 3 Copenhague - 0603 Zoupouti - Lollipop Remix ft. Diddi Trixx, NoName Laskiiz - 0903 Booba - CAVALIERO - 0903 Hös Copperfield - La route est longue - 1103 PSO Thug - Ça parle mal - 1103 4Keus - Wakztoubi 3 - 1203 Abou Tall - Bosser 1203 Elams - Elams et les 40 voleurs - Épisode 3 - Paris ft. The S, Mamso, Mous-K, OR, ALP, Bosh Dabs - 1303 Brvmsoo - Bénéf ft. Dinor Rdt - 1303 Denzo - La sacoche ft. Koba La D - 1303 La Malfrappe - Dans ma folie ft. Timal 1303 Le R - Moon ft. Brvmsoo - 1303 Shro - Tout va bien - 1303 Tuerie - Low - 1403 L'Allemand - Hors série C - Bizarre - 1503 Balao - 14 carats 58,4 - 1603 Big Ben - Petit bateau - 1703 Dinor Rdt - Minimum ft. Naza - 1803 Barack Adama - Vu - 1803 Guette l'ascension - Porte tes Couilles 3 ft. Tisco, Kenedy, Tvmo Nesko - 1903 Bosh - Business ft. SCH - 1903 Kalash Criminel - Pronostic - 2003 DA Uzi - Booska New York - 2003 Key Largo - Comme un ouf - 2003 Liims - Dans la tess - 2003 L'As - Distances ft. Lacrim - 2003 Max D. Carter - Yvng Læn - 2003 Rohff - T'as capté TCT - 2003 Twinsmatic - GROSLOT ft. 13 Block Koba LaD - 2303 Big Ben - Palerme - 2403 Benab - Kif Kif - 2503 Hugo TSR - Périmètre - 2503 Leto - Double Bang 9 - 2603 Bosh - Défilé - 2603 Keblack - De quoi tu parles - 2603 JuL - Sousou - 2603 Savage Toddy - Règlement Gang Freestyle - 2603 26 Keuss - Levi Strauss - 2703 DA Uzi - Autre part - 2703 Diddi Trix - Quoi d'neuf - 2703 Green Montana - Séquelles - 2703 Gros Mo - Résistance GZSC - 2703 Les Frères Lumières - Adal 2 - 2703 Koba La D - Ça ira mieux demain - 2703 Rohff - Solo - 2703 Yanslo - Ntiya ma vie - 2803 Hös Copperfield - Libanda - 3003 Doria - Calcul - 3103 Zoupouti - Oulalala Avril 0104 Dr Yaro La Folie - Je deviens fou Freestyle - 0104 Fetiche - Freezer - 0304 A2H - Angoisse - 0304 Luv Resval - 696 - 0304 Rohff - Tous à labri - 0304 Shro - Yankée Öko - 0304 Vin's - Sur mon trottoir - 0304 13 Block - BOÎTE 6 40 KIL - 0504 Young Tomy - L'hiver arrive - 0804 Zesau - Dans le noir - 0604 DA Uzi - Flashback - 0904 DJ Erise - Monte en lair ft. Naza - 1004 Bolemvn - Comment ça va ? - 1004 Gros Mo - Maria GZSC - 1004 Moha La Squale - On roule - 1004 Mister You - Casanostra ft. 3robi - 1004 S.Pri Noir - T'as capté ft. Sneazzy Alpha Wann - 1104 Naps - KNK ft. Kalif Hardcore Kikou - 1604 Didi B - Assinie Remix ft. H Magnum Lefa - 1604 Hoos - Allô - 1604 Médine - EXOMÉDINE - 1704 Alrima - Tcha tcha tcha - 1704 Elams - Bandida - 1704 Guizmo - Lamine - 1704 Kalash Criminel - Dans tous les sens - 1704 KPoint - Boule magique - 1704 L'Algérino - La vida ft. Soprano 1704 NoName - Bah oui Anoname 5 - 1704 Onze - Tout va bien - 1704 RK - F.A.C - 2204 Sifax - Charlemagne ft. TK - 2204 Skaodi - Que des mots 2204 The S - Old Up 3 ft. Popey, Key Largo, Dika, ISK, COR, Cheu-B, Moha K, Kazmi, Decimo, SLK, NKD, BKL, RBK - 2204 2zer - Balle perdue 6 - NMI - 2304 Tayc - Léwé - 2404 Bramsito - Medusa - 2404 Oboy - Rémus - 2604 Big Ben - Comprends-moi - 2804 Marty de Lutece - Brûler ft. Brö - 2804 Naps - Il rôde - 2904 Bekar - Soleil s'allume - 2904 Lossa2squa - Hinata - 2904 OM La Compo - cOMbat quotidien ft. Kemmler, Hatik, Zamdame, Relo, Saïd, DRIME, AM La Scampia R.E.D.K. 3004 ALP feat. Yaro Graya - Ganté - 3004 Klub des Loosers - Battre - 3004 La Cour de Récré - Règlement Fitness Freestyle Mai - 0105 Big Dada - Tout va bien ft. Noxious - 0105 Bolémvn - Prends ta monnaie ft. RK - 0105 LMB - Ice Vision - 0105 Michel - Tejla 0305 Beeby - Répondeur - 0305 Narkonic - Malabar - 0505 Soso Maness - Mistral - 0605 Kodes - William Thomas Freestyle - 0605 The Hop - Berline noire ft. Jazzy Bazz Krisy - 0705 Ashkidd - HOLÀ - 0705 Chanje - Casper - 0705 Naps - Fais le bisou - 0705 Naps - Poropop Remix ft. Soolking, Sofiane Kliff - 0705 PLK - Hot16Challenge2 - 0705 San-Nom - Barbapapa - 0705 SDM - À l'affût - 0705 Youri - Règlement Gosse Freestyle - 0805 Chilly - Dans mon barrio - 0805 Larry - Routine - 0805 Luv Resval - Thor ft. Diddi Trix - 0805 Lyonzon - Confinato - 0805 Max Paro - Ma belle - 0805 OldPee - FER - 0805 Yuzmv - L'exil - 0805 Zola - Bro Bro - 0905 JuL - Fait d'or - 1205 Booba - Jauné ft. Zed - 1405 Abou Tall - Mona Moore 1405 B-NØM - Règlement Bêta Nu Freestyle - 1505 Artik - Netflix - 1505 Beny - Antipop - 1505 Bolémvn - Sentiments 1505 Hamza - 140 BPM - 1505 Hooss - Vie de rue - 1505 Kalash - Toujou la - 1505 Matou - Grosses sommes ft. PLK - 1505 OBOY - Kenzo ft. Harley Moko - 1505 Scylla - Sales mômes ft. Furax - 1505 ZeGuerre - Shoot 1505 Zidi - PASSÉ - 2105 Huntrill - Fk La Drill - 2205 Amin - Elle 2205 Bolémvn - Booskateuf Freestyle - 2205 Bramsito - Criminel ft. Niska - 2205 Diddi Trix - Toujours - 2205 Gros Mo - Minuit pile - 2205 Guti Gutss - Gutti World Non - 2205 Marty de Lutece - Nudes - 2205 Zed Yun Pavarotti - Lalaland 2305 Guy2Bezbar - La callé - 2405 Abdxxl - Planète - 2405 Kikesa - Je danse comme ça 2405 Moha La Squale - Paris 2705 Badjer - CestCarre Dans laxe - 2705 EDGE - Obsolète 2705 H Magnum - Gatement - 2705 JuL - Folie 2705 Petit Voyou - C'est l'été - 2805 Dajak - Phonecall 2805 Richi - Règlement TLJ Freestyle 2905 ALP - Police - 2905 Denza - Audemars Piguet - 2905 Franglish - Biberon ft. Leto Tiakola 2905 Goulag - OPOP - 2905 Green Montana - Les ennuis - 2905 Hatik - Ali - 2905 Krisy - Je t'aime encore - 2905 L2B Gang - Trahison - 2905 Moubarak - En Clio - 2905 RK - SOS - 2905 Soso Maness - BOOSK'AAARAH - 2905 Vin's - PCGPCP 3105 Moha La Squale - Basta - 3105 Sese Kepler - Gang Shit 7 Guantanamo ft. Leto Juin 0106 Worbhé - Dowpe 0306 Djalito - Virage - 0306 Luv Resval - Molly - 0406 La Cour de Récré - Speed 0506 A2H - Aime-moi encore - 0506 B-NØM - Ce soir - 0506 Chily - Bendo - 0506 DJ Weedim - Je vous aime ft. Reta - 0506 Lacrim - Booska R4 - 0506 Le Juiice - MATIN 0506 Nino B - Millions - 0506 RK - Freestyle Neverland 1 - 0506 TK - Salam - 0506 Zikxo - Tout ou rien 0506 K.R.K - Tous les jours - 0606 Ziak - Quatre 0806 Juicy P - NLBLB - 0806 Moha La Squale - Chez Babou - 0906 Yannou JR - OG - 1006 Guette l'ascension - Porte tes Couilles 4 ft. Poulaxe, Skodri, Biscuit Tisco 1006 Joysad - Booska Périgueux - 1006 Sifax - Mecs de cités - 1106 Lujipeka - Booska Ozone - 1106 Norsacce - 4 saisons ft. Freeze Corleone - 1206 Benab - Sourire ft. Maes - 1206 Coyote Jo Bastard - Hoodboy - 1206 Doria - Tempo - 1206 F430 - California - 1206 ISK - Fazer ft. YL 1206 Juicy P - Piloter ft. KPoint - 1206 Kalash Criminel - Écrasement de tête - 1206 Klem Schen - Vision différente - 1206 Lacrim - Allez nique ta mère ft. Soso Maness - 1206 Landy - Aucune limite - 1206 Le Sid - Bouré.e ft. Nelick - 1206 Lpee - London - 1206 Mister You - Pénurie - 1206 Nahir - Fin de partie - 1206 RK - Freestyle Neverland 2 - 1206 Slim Lessio - Ah fou - 1206 Tovaritch - Booska Poutine - 1506 Moha La Squale - Amsterdam - 1506 Vendredi 13 - Second psaume - 1706 Biwaï - Awe - 1706 Gazo - Drill FR 4 ft. Freeze Corleone 1706 Jo Le Phéno - Bavure 3.0 - 1706 Sotof - BST 1806 Fiji God - Règlement PLM Freestyle - 1806 Gambi - MACINTOSH - 1906 DIL - Vengeance - 1906 HZY - Jack Sparrow - 1906 Jewel Usain - CTRL - 1906 Klem Schen - Vision claire - 1906 LauCarré - Dans le game - 1906 Le Juiice - MIDI - 1906 LMB - La bringue 2 LVDLF - 1906 San-Nom - Saucisse - 1906 Savage Toddy - Décisions - 1906 thaHomey - Lundi Mardi 1906 Tisco - Mascarade ft. Biscuit - 1906 Toma - Parcours 1906 YKM - Pochtar 2006 Almeida - Iceberg - 2106 Ibrak - GAVA 2106 Rouhnaa - Twitter 2106 TiiwTiiw - FOLLE DE LUI ft. Lacrim - 2106 TripleGo - BRRR 2206 KLN 93 - À 200 - 2206 Senamo - 7Up 2206 Shro - Inshro - 2306 TK - Premier pas - 2406 DJ Weedim - Rends l'argent ft. Stxck Mv, A2H, Youri San-Nom 2406 Jaekers - Vaisseau 2406 Popey - Besoin d'elle ft. Dabs 2506 ALP - Boosk'ALP 2506 Tonio le Vakeso - Pirogue - 2606 Dabs - STOP - 2606 Dante Sito - Johnny Interlude - 2606 Doxx - Ailleurs - 2606 Eden Seven - Trashboy - 2606 Elh Kmer - Cours - 2606 Franglish - Mauvais garçon Remix ft. Kaaris - 2606 HMZ - Choupetta ft. Sofiane Heuss L'enfoiré - 2606 Hös Copperfield - Léwé - 2606 Joysad - Californie - 2606 Key Largo - M'en sortir ft. 4Keus - 2606 Kikesa - Mort de rire 2606 Lasco - Funk petit - 2606 Les Frères Lumières - Si si si ft. Bosh - 2606 Leto - Paris c'est magique - 2606 Lord Esperanza - Couronné - 2606 Paolo - AQB - 2606 RK - Euros ft. Maes 2606 Swift Guad - Habité par le Diable - 2606 Zefor - L'Homme Mystère - 2606 ZKR - Freestyle 5min 8 - 2806 Django - À l'envers - 2806 Moha La Squale - Bébé de Bogota - 2806 Swift Guad - Épicurien 2906 KRK - Ohoh 3006 Bayssou - Coup de girafe - 3006 Bekar - En principe 3006 Niaks - Drilluminati, Pt.1 Juillet 0107 2CheeseMilkShake - Croix rouge ft. Biffty, Julius On The Wave 21Souyard 0107 S.Téban - Le Code ft. JMKS 0107 Souri B - Quedlabonne 4 0107 TK - Dans la gova 2.0 0107 ZeGuerre - Zé ft. Sofiane 0207 Kalash - Plus de love 0207 Lartiste - La chanson 0307 2TH - Solo - 0307 AM La Scampia - Bingo ft. Hatik 0307 B2L - PTD 0307 C.O.R - Pas net ft. Sofiane - 0307 Kaaris - Goulag - 0307 Kalash Criminel - Peur de personne - 0307 Koba LaD - Laisse tomber - 0307 Lyonzon - Flamengo - 0307 SDM - Yakalélo 0307 Souli - L.S.O.L.A ft. Diddi Trix - 0307 Yanso - Everyday - 0307 YL - J'me casse ft. Naps - 0607 Alkpote - Booska'Pétrole 0607 Worbhé - Dans le bat' - 0807 MS13 - Fait monter la bête - 0807 SEB - Flemme 0907 L'Allemand - C'est chaud - 1007 A2H - Hors de ma vue - 1007 Jolly - KATANA ft. Kpri - 1007 Kanoé - Mouv' du boug - 1007 Krilino - Habibi - 1007 Michel - Ouais c'est grave ft. Hatik - 1007 Niska - Bandit chef ft. Madrane - 1007 Noname - Ice - 1007 PLK - C'est mort - 1207 Deeloc - JACKIE ft. Key Largo - 1207 Moha MMZ - Paranoïack 1407 BFG - Makossa - 1407 Booba - Dolce Vita 1507 2CheeseMilkShake - Pourquoi ? 1507 Djadja Dinaz - Freestyle Pays-Bas 1507 Djalito - En règle 5 1507 TK - La night ft. JuL - 1507 Naza - La musique est bonne ft. Heuss L'enfoiré - 1607 Denzo - Booska Atroce - 1607 Leonis - Freestyle Blue 1 - 1707 Alonzo - OOP - 1707 Benab - RS3 ft. Timal 1707 Chily - Complètement rebanav 4 - 1707 Dabs Fashion ft. Kaza 1707 D4R - Teudger 3 1707 Guti - Gutti world 2 - 1707 Jolly - Zone 51 ft. Freeze Corleone - 1707 Mac Tyer - Moto ft. Ninho - 1707 Norsacce - Headshot 1707 Popey - Loin - 1707 Vendredi 13 - Kaiju 1707 Youboy - Mal luné 1 - 1907 LVZ - Meda - 2007 eden dillinger - FREESTYLE 2Ø2Ø 2007 Hermano Salvatore - Abuela 2207 Koba LaD - Freestyle Quartier - 2207 Squidji - Feeling 2407 100 Blaze - Dans le club 2407 Amar Makaveli - Sky ft. Chilla 2407 Arma Jackson - La boussole - 2407 Cheu-B - B.S.E Le Sky 5 2407 Dinero - Faut consommer ft. 4Keus - 2407 Doria - Pas le choix - 2407 GLK - Maracanã 2407 King Doudou - Sous les balles ft. Marty de Lutece 2407 Lacraps - Tah les bombes - 2407 L'As - Hôtel 2407 Lord Gasmique - 1 000 000 2407 Momsii - Tard la night ft. Timal 2407 Nahir - Danilo 2407 Rim'K - Warning - 2407 Sam's - Mec de mon bâtiment ft. Aboudou - 2407 Savage Toddy - Hood ft. Luv Resval 2407 Slimka - Slide 2407 Vegedream - Marchand de sable Part.6 Gestuelle 2407 Zidi - Toxic ft. Assy - 2407 Zoupouti - Tempête - 2607 Kikesa - Toujours en retard 2707 Freeze Corleone - Desiigner 2707 Key Largo - Miam miam 2707 RK - Booska 1H - 2807 Makala - M30 2907 2CheeseMilkshake - J'ouvre une cagnotte 2907 Black D - GESTU - 2907 Djadja Dinaz - Féfé lambo 2907 Djalito - En règle 6 2907 Frigun - Voyoucratie 2 2907 Kekra - Twisted 2907 D2T - Le sang 2907 Lazer MMZ - Jungle 2907 Sese Kepler - Gang Shit 8 - 2907 Shotas - Jaloux - 2907 Siriki - Présentation 2907 - Vin's - PCGPCP Remix ft. Demi Portion, Melan Les Frères Scotch - 3007 Deen Burbigo - Tout dedans - 3007 La F - Appel Masqué 6 - 3007 YL - Larlar 4 Air Bel Gang - 3107 Alonzo - Toi, t'es chelou ft. Landy 3107 Costa Lumni - Vérité 3107 Jaekers - Vert sachet - 3107 Kaaris - NRV - 3107 Larsé - Couronne - 3107 Lasco - Dis-le moi 3107 Leto - Nouveaux riches ft. Niska - 3107 Lorenzo - Fonsdé toute la night - 3107 Luv Resval - Smith Wesson - 3107 Michel - Je m'en ballek 3107 Nyda - Ghetto Août - 0108 Lucio Bukowski - Road Runner - 0308 Hatik - West Indies - 0308 Kanoé - Freestyle Orochimaru 0508 Kader Diaby 4real - Go 0508 Rowjay - ASTRAL DRILL - 0508 The S - Pupetta 0508 YZLA - Orage d'été I - 0608 13 Block - Tieks ft. Niska - 0608 Le Nine - FTB 7 ft. Abou Tall - 0708 C.O.R - La cité 0708 Josué - La jambe - 0708 Richi - Chorale ft. Youri - 0708 Sadek - Y en a - 0708 VSO - Dans le cur - 0708 Zesau - Anarchie ft. Freeze Corleone Stavo - 0908 Afro S - Cartouche 6 - 1108 F430 - Guap Summer - 1208 LuXe - Du Seigneur - 1208 Still Fresh - Tête-à-tête 1308 Jarod - Plus qu'avant - 1408 A2H - OG - 1408 Kaaris - Freestyle 2.7.0 1408 Lyms - Teaser 1408 Primero - Promenades 1408 Yanso Tawsen - La vida - 1508 JuL - Bande organisée ft. Elams, Ghetto Phénomène, Kofs, Naps, SCH Soso Maness - 1608 Shotas - La famille 1708 Leto - Booska 100 visages 1808 Kalash Criminel - A.D.N 1808 Kekra - Rolex HLM 2108 Sizlac - 45 ft. Dosseh - 2608 Petit Voyou - Immortel - 2708 Gazo - Inceste - 2808 Elh Kmer - Béni ft. Captaine Roshi - 2808 Heuss L'enfoiré - BX Land 5 - 2808 Jarod - 80's - 2808 Klem Schen - Mano 2 2808 Lacraps - Guerrier ft. Polva - 2808 VSO - Midi Mode - 2808 YL - Tout laisser 3008 Tonio le Vakeso - Orageux ft. Cenza - 3108 LuXe - La vie que t'aimes Septembre - 0209 Dosseh - Propagande 1 A 45 - 0209 Guizmo - Maman m'a dit ft. Nekfeu - 0309 Afro S - Woo ft. Kaki Santana - 0309 Frenetik - Infrarouge - 0409 Green Montana - Sale tchoin - 0409 Koba LaD - Beldia - 0409 Lyms - ISS - 0409 ZKR - Romance criminelle - 0409 Zuukou Mayzie - Survet Bayern Doc ft. Di-Meh - 0809 eden dillinger - OUIJA - 0909 Gringe - On aboie en silence - 0909 Ormaz - NOIR Freestyle 2 - 1009 Guirri Mafia - Comme un dream ft. SCH - 1009 Soolking - Rockstar 2 - 1109 2CheeseMilkshake - J'envoie des cheese - 1109 C.O.R - Clio - 1109 Harley - S.O.U.S - 1109 Maka - Etoile Makavelax 1 1109 Max Paro - Douane volante - 1109 Naza - Joli bébé ft. Niska - 1109 Ninho - Carbozo 2.0 - 1109 SDM - Titulaires ft. Koba LaD - 1109 SONBEST - Sad Love 1509 Graya - C'est la guerre ft. ZeGuerre - 1509 Niaks - Drilluminati Pt. 2 - 1609 7 Binks - Booska Bât 7 - 1609 A2H - Le cur des filles - 1609 Djalito - En règle 7 ft. Cheu-B - 1609 Makala - Hitman Go 1709 2G - Ma vérité ft. Mac Tyer 1709 Geeeko - Drunk ft. Coyote Jo Bastard - 1709 Jewel Usain - Bruce Lee - 1709 Spider ZED - C'est pas bien ft. Bigflo Oli - 1709 YG Pablo - Pandore ft. Tsew The Kid - 1809 Bosh - Trixma 1809 Elh Kmer - Rescapé Punition3 - 1809 GLK Pas sommeil - 1809 Hayce Lemsi Volts Face - Comme dit maman - 1809 Heuss L'enfoiré - L'ancien - 1809 La F - La violence ft. Freeze Corleone - 1809 Le A - Pas là ft. OldPee - 1809 Médine - Grand dla tess ft. Hatik 1809 Samy Ceezy - Cup ft. Tortoz - 1809 Samy Ceezy - S.A.M.Y - 1809 Sifax - Affranchis 1809 Sultan - L'amour n'est pas un jeu - 1809 Vendredi 13 - Majora 1809 Venlo - Là - 1909 Les Anticipateurs - SAPOUD 2020 - 2109 Hotel Paradisio - Cobra - 2109 LuXe - Circuit ft. Raptor X - 2209 1PLIKÉ140 - BATARD 4 - 2309 4keus - Tu nous connais - 2309 Bekar - Destinée - 2309 Hooss - Paid In Full 7 - 2309 Lacrim - Jacques Chirac - 2309 Rounhaa - Chromatyk 2309 ZeGuerre - Bolide - 2409 BKL - Gâchette R8 ft. Cheu-B - 2409 Dosseh - Place de l'étoile ft. Gazo - 2409 Hunter - Dessine - 2409 Koba LaD - 7 sur 7 ft. Freeze Corleone - 2409 Petit Voyou - En terrasse - 2409 Swift Guad - Anti-social ft. Cenza, Souffrance, Deadi, Davodka, Original Tonio Daddy Mory - 2509 DA Uzi - Boys Band - 2509 Gims - Immortel - 2509 Grems - HOSTEL PLAZA - 2509 Illustre - Type chelou - 2509 JNR - Une vie - 2509 Kobo - Barry White - 2509 Landy - Filon 2509 LauCarré - T'as compris l'truc ? - 2509 Lestin - Sunday Afternoon ft. Zed Yun Pavarotti - 2509 Matou - Neptune ft. Kikesa - 2509 Nahir - Fin de couplet 8 - 2509 Nusky - Naïf ft. Poupie - 2509 Rémy - Booska Sale - 2509 Roms - Roule - 2509 TLZ Clan - Monde onirique - 2509 Vegedream - Pour nous ft. Tayc - 2509 Zuukou Mayzie - Spike - 2709 Kikesa - Rêve encore - 2809 Criminls - War ft. Mezgo, Slim C, Freeze Corleone, RAS Power Genius - 2809 Hös Copperfield - Après la pluie ft. Leto - 2809 Népal - Dans le fond - 2909 Népal - Cheddar - 3009 Kekra - Manu milli HLM - 3009 Le Club - Coloré ft. Key Largo 3009 Max Paro - OMG - 3009 Népal - Coach K Octobre - 0110 Le Juiice - O NONO ft. Meryl - 0110 Népal - Même vie - 0210 Benab - Dounia - 0210 Chanceko - Malaboy 0210 Chicaille Argentée - Freestyle Signature 0210 Denzo - Bad Woo 0210 Dinaro - Fumette - 0210 DJ Kayz - Monte le son ft. Niska - 0210 Gazo - Drill FR 5 ft. Hamza - 0210 Guizmo - Enfumé ft. Soso Maness - 0210 Kaza - Pare-balles - 0210 Lycos - Dimension - 0210 Mous-K - Fais ta money - 0210 Népal - Benji - 0210 Ninho - La zone - 0210 Ninho - Problèmes du matin - 0210 Noname - SLT - 0210 Sid les 3 éléments - Shit - 0210 Soolking - Booboo - 0410 Luni - Sous ma veste - 0410 Rifa Samb - Danse avec les loups - 0510 Guy2Bezbar - La callé Part. 2 Remontada 0510 Hash24 - En plein cur - 0510 Popey - Imbécile ft. Dosseh - 0710 eden dillinger - BLESS - 0710 RK - Billie Jean Remix ft. Alonzo Timal 0710 Younès - Bientôt à la mode - 0810 Alkpote - Freestyle Règlement Baltimore - 0810 Deen Burbigo - Cerle vertueux - 0810 Médine - FC Grand Médine - 0910 Bigflo Oli - Au revoir 0910 Black-D - Fortnite - 0910 Chily - Téléphone 0910 Elh Kmer - Mélodie glorieuse - 0910 ISHA - Une maman qui pleure ft. Key Largo Jok'Air - 0910 ISK - Dans le réseau 0910 Lacraps - Ma noirceur 2 0910 Leonis - Méga - 0910 Max D. Carter - Hikikomori 0910 N'Seven7 - Skoll - 0910 Senyss - Spirit of Ecstasy 0910 Shotas - J'marche - 0910 Sper-K - Cash - 0910 ZKR - Poursuite ft. Koba LaD - 1110 Kanoé - BIZNESS - 1110 Lazer MMZ - Amore - 1310 RTT Clan - Travail d'ekip ft. Freeze Corleone, Norsacce, Doc OVG, Shaka, Kpri Black Jack - 1410 Captaine Roshi - BooskAttaque - 1410 Sofiane - American Airlines ft. SCH 1510 Geeeko - Rodéo - 1510 InnossB - Best ft. Damso 1510 Kenzy - Numéro 10 - 1510 Spider ZED - Overdose - 1510 Zuukou Mayzie - Règlement L.O.T.R. Freestyle - 1610 100Blaze - Ganja ft. 4Keus - 1610 4Keus - Sportback ft. Hornet La Frappe - 1610 AM La Scampia - Je m'isole - 1610 Doxx - Comme avant - 1610 Green Montana - TOUT GÂCHER ft. Booba - 1610 Guizmo - J'fais du rap - 1610 Kalash Criminel - But en or ft. Damso - 1610 Kemmler - Je veux tout - 1610 Klem Schen - Triste - 1610 K.S.A - CDN Freestyle ft. Alpha Wann - 1610 Lorage - Quelque part - 1610 Makala - Sergueï Diop - 1610 Noname - Train de vie ft. Key Largo - 1610 Rohff - G.O.A.T - 1610 Tayc - Ride ft. Leto - 1810 Kozi - Unstoppable ft. Freeze Corleone - 1910 A2H - Booska Rédemption - 1910 Alonzo L'Algérino - Faim d'Europe - 1910 Ziak - Fixette - 2110 Bolémvn - Couler - 2110 Chicaille Argentée - Bails noirs - 2110 Poupie - Feux ft. JuL - 2110 Simony - Boucle - 2110 Shotas - Code S7 - 2210 1PLIKÉ140 - Tranquillement - 2210 Captaine Roshi - Molotov 2210 - Julius - Quoi d'neuf docteur ? - 2210 Lujipeka - Putain d'époque - 2210 Meryl - Règlement Toutdedans Freestyle - 2210 Youri - Cur - 2310 Bosh - Slide - 2310 C.O.R - Jamais vu ft. 13 Block - 2310 DA Uzi - WeLaRue 5 - 2310 Dr. Yaro La Folie - Papa fait du sale ft. Hornet La Frappe - 2310 Enfantdepauvres - DIX - 2310 Gims - ORIGAMI - 2310 Jok'Air - Clic Clac Bang Bang ft. Laylow - 2310 Kaaris - IRM ft. Freeze Corleone - 2310 LMB - Innocent - 2310 Moha - CZ 75 2310 Theorem de Gama - Rêverie - 2310 Toma - La dalle ft. Hatik 2510 Tonio Le Vakeso - Monnaie ft. Davodka - 2710 Frenetik - Booska'Peinture - 2810 La Fouine - Millions - 2810 YZLA - PASSWORD ft. 2zer - 2910 47Ter - Vivre 2910 L'Allemand - MINGUETTES - 2910 Youv Dee - Règlement Spaceship Freestyle 3010 La F - 691 Part.2 - 3010 PRIME - Canon long - 3010 Taïro - Révolution Part. 2 Oublié - 3010 Uzi - Violet ft. RK - 3110 T.I.S - Folie humaine Novembre - 0111 Ashe 22 - Booska PDP - 0311 Koba LaD - Booska 1H - 0411 AM La Scampia - ZIP - 0411 AnNie.Adda - Si je quitte les Enfers - 0411 Coyote Jo Bastard - Fusil - 0411 Nahir - Moneygram ft. Freeze Corleone - 0511 Spider ZED - Règlement Politique Freestyle - 0511 Zola - Booska'Sten 0611 4Keus - Bosse comme un boss - 0611 Booba - 5G 0611 Dika - Descente - 0611 Django - Pyramide ft. Osirus Jack 0611 Leonis - Charbonner - 0611 Mous-K - On part à la guerre ft. Bosh - 0611 OBOY - Cruel - 0611 Norsacce - GOSPEL BROLIK ft. Ashe 22 - 0611 S-Pion - 100 G - 0611 sean - Le bon, la brute et le truand - 0611 Zikxo - 32 temps - 0711 Hugo TSR - Senseï - 0811 DJ Titaï - 5 étoiles ft. Lefa - 0811 Kekra - Swish HLM - 1111 Kodes - Code La B du 7 - 1111 Onze - Minerai 1111 Rounhaa - R sans R - 1211 Captaine Roshi - Champions - 1211 EDGE - Kylie Jenner ft. Esso Luxueux - 1211 Georgio - Les anges dans des robes rouges - 1211 H-Tône - Incendie 1211 Simony - J'rentre défoncé - 1211 Tawsen - La météo - 1211 TLZ Clan - C'est nous ft. Dosseh - 1211 Zuukou Mayzie - Le Mayz - 1311 Cinco - Four ft. Leto - 1311 Frenetik - Chaos 1311 Joysad - PLDM 1 - 1311 Mister You - Ça se fait pas ft. JuL - 1311 Niaks - Dame blanche - 1311 Prototype - Triste drame - 1311 Senyss - Tyana - 1511 Kalash Criminel - Booska Sauvage 3 1611 C.O.R - Booska RDM - 1711 Naza - Booska Bébé - 1711 Elams - La vida ft. Hatik - 1811 Doria - Booska Do - 1811 eden dillinger - 3-6 RHAPSODIE - 1811 Guy2Bezbar - TPM ft. Freeze Corleone - 1811 Kekra - Business HLM - 1911 13 Block - Babi 1911 Guirri Mafia - Booska Guirri - 2011 Ajar - Pire que la mort - 2011 Denzo - Cramé ft. Bramsito 2011 Mous-K - Booska Bogota 2011 SDM - Prince de la Calle - 2011 TripleGo - Maladresse - 2011 Unité - Unité ft. Dadju, Hatik, Imen Es Soolking - 2011 Youv Dee - De toi - 2311 1PLIKÉ140 - Booska Bâtard 2411 TK - Booska Sang-Froid - 2511 Keusty - Code PAL 7 - 2511 Landy - Millions d'euros ft. Niska 2511 Zikxo - Temps 33 - 2511 ZKR - Freestyle 5min 10 - 2611 Captaine Roshi - Pigalle - 2611 Coelho - ACTION - 2611 DJ Roc-J - Pas Patek ft. YL - 2711 Achile - Ça veut rien dire ft. Oxmo Puccino - 2711 Ashkidd - NOVEMBRE - 2711 Benab - En bas - 2711 Joysad - PLDM 2 - 2711 Nahir - Paris-BX ft. Frenetik - 2711 Negrito - Purge 5 ft. Freeze Corleone 2711 Saamou Skuu - French Drill 4 - 2711 Tedax Max - Drillotière - 2911 Krilino - Patate 4 - 3011 M Le Maudit - Sex focus Décembre - 0212 Hayce Lemsi - Medley 2020 - 0212 Hippocampe Fou - La thune de ma femme - 0212 Seth Gueko - Kratos - 0312 Elengi Ya Trafic - Dangereux - 0312 Heuss L'enfoiré Vald - Guccisima - 0312 Heuss L'enfoiré Vald - Matrixé - 0412 47Ter - Sommeil noir 0412 Blam's - La sape - 0412 Chiloo - Vilain - 0412 JSX - Pompéi ft. Booba - 0412 Keny Arkana - Avant l'exode 1 J'sais pas faire autrement - 0412 Koba LaD - Code La D du 7 - 0412 La F - Appel Masqué 9 - 0412 L'As - Nadine - 0412 Liim's - Mood ft. Tiakola - 0412 Luv Resval - Kurt ft. Zefor - 0412 Madrane - El Patron - 0412 R.E.D.K. - SQOSLF 2 - 0412 The S - Ça pue la rue ft. Leto - 0412 Tovaritch - Révolution - 0412 Zamdane - La fête ft. Hatik 0812 Souffrance - Opération Dragon - 0912 Twinsmatic - VILLE ft. Box Frenetik - 1012 Djadja Dinaz - Perdu - 1012 eden dillinger - TRAUMA - 1012 ISK - Où je suis 1012 Jarod - Kaioken 3 - 1012 La Cour de Récré - XPLIQUE - 1012 Zuukou Mayzie - Victorinox ft. Black Jack - 1112 Ateyaba - Moonwalk - 1112 Hornet La Frappe - 69.93 ft. Ashe 22 1112 Joysad - PLDM 3 - 1112 JuL - Mother Fk ft. SCH 1112 Les Frères Scotch - Zone - 1112 Lucio Bukowski - 4-2-4 Freestyle ft. Nedelko - 1112 Michel - Appel manqué - 1112 Pakigo - Mutation 1112 Pirate 182 - Grincheux 5 Purge - 1112 Rémy - Sur la côte - 1112 Sheldon - AGRABAH 1112 Youri - Comment - 1112 Zikxo - 34 Temps - 1412 Klem Schen - Solitaire 1512 D4R - Booska Quattro - 1512 Dinero - Zipette ft. Leto 1612 Biwaï - Kakashi - 1612 Dosseh - Famiglia è grande 1612 H-LO - Tu piges 1612 Lemon Haze - A2L - 1612 Nahir - Ça va bien se passer - 1612 rad cartier - VT ZOOM V - 1612 Wallace Cleaver - 45Camo 1612 Zeguerre - GTA 4 - 1612 ZKR - J'ai fait le tour 1712 Petit Voyou - Prosecco - 1712 RILESUNDAYZ - Clique 1712 Squidji - Melancholia 1812 Abdxxl - BILLET 1812 Chaman Sully - GG BOY - 1812 Deadi - Le voisin du 4ème - 1812 Doria - Paris - 1812 Frenetik - Blanche Neige - 1812 Joysad - 2020 - 1812 Kaaris - Five-0 ft. Gazo - 1812 M Le Maudit - Crack Poésie - 1812 Savage Toddy - Mc Gregor - 1812 SOPA - TLMR - 1812 Todd - Travaux 1912 Gambino - Quartier Nord 1912 Gutti - Gutti world 3 - 2012 Black Jack - Sournois ft. La F - 2112 Kekra - Dréel HLM - 2212 Booba - AZERTY - 2412 Dinos - Juste un clou, - 2512 Bekar - 98 2512 Shro - Pump it up - 2612 Kims La Rafale - LAMBO - 2712 Black M - Black Shady 4 - 2712 L'As - Mercedes 2812 Lasco - SO - 3112 Alonzo - Freestyle Divo Massacre de la Saint-Sylvestre 3112 Jarod - Termine 2020</t>
+          <t>Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennuis Mais doucement, doucement, doucement, doucement Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faut pas que tu te précipites, devant y'a le précipice Tu aimeras une femme, t'en feras ta dame Tu brûleras d'envie de lui déclarer ta flamme Si tu baisses les bras, tes amis seront là pour t'épauler Et si un jour tu perds la tête, la tête On sera tous là pour te raisonner Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennemis Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faudra qu'on te félicite, mais pas qu'on te facilite Y'a pas de place pour le rêve, ici c'est marche ou crève Dès ton plus jeune âge, on va te donner un glaive Si je baisse les bras, tu seras là pour m'épauler Et si un jour je perds la tête, la tête Tu seras là pour me raisonner Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Si t'effaces mes défaites, ça sera ma plus belle victoire Je suis mort dans le film, j'aimerais que tu changes l'histoire On me dit que je me voile la face mais j'ai envie d'y croire Quand je te prends dans mes bras, ça me fait l'effet miroir Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J’me déteste</t>
+          <t>Nous deux</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Tcheh tcheh tcheh tcheh tcheh Tu dis que t'es mon soldat Mais tes un aventurier T'aimes les terrains minés ta bouche c'est un canon scié Tas bien visé ta proie maintenant tu t'en mord les doigts Tu peux me faire les yeux doux mais ça marchera pas avec moi Je t'ai grillé grillé ouais grillé grillé Tu peux t'expliquer pliquer mais je serais sans pitié pitié J'ai vu tes DM tout tes snap Rouge à lèvre sur tes sapes Tu fais le mec propr quand tu parles Mais enfaite ta bouch est sale C'est ta tactique à chaque épreuve t'as des nouvelles pratiques Je m'applique mimplique avec toi cest un casse pipe Et je vais à 100 000 à l'heure Des groupies me draguent à pas dheure Mais ma AP donne pas l'heure eh T'as rien grillé grillé T'es juste piqué piqué Tas cru que j'allais flipper flipper tchip Tu peux me tchipper tchipper C'était un une deux Mais là je vais faire le libéro Un pour mon petit égo Deux pour les dinéro Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Gratte ta te-té Fais la le-bé Tu m'as pris pour un te-trai Ou pour un teubé J'ai pas ?? Écoute tout tes ?? Je suis hors game dorénavant Moi c'est le carré d'or Je te laisse les bougs de Paris nord Où ceux de château d'eau Même ceux de gare du nord Je vais pas dire Amen A tout ce que dit Amel Ah je voulais dire Imen Vas y rentre chez toi T'es né avant la honte Tu vois tellement de meuf que les prénoms se confondent Une chose est claire tu m'a du-per Ce que tu viens de faire ça s'appelle l'adultère T'es là tu minimise assume un peut T'inquiète je te félicite t'as fini le jeu Fin de carrière t'as clôturé le bal Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Joujou</t>
+          <t>Obligé</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Tu promets des choses mais ne fais rien Tous tes cadeaux ne valent plus rien Tu dis que j'en fais trop Mais comment, mais comment, mais comment ? Toi qui disait m'aimer vraiment Dans tes habitudes, aucun changement Remballes tes bijoux et tes vêtements Je n'suis pas de celles qui aiment bêtement Tu m'disais que j'étais la plus belle, qu'aucune autre ne pouvait rivaliser Mais baby arrête, oui arrête de mytho, oui arrête de mytho Oui arrête, arrête-moi ça, moi j'ai mal à la tête x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Aya, combien d'fois j'vais t'le dire ? J'suis piqué Le problème j'ai du mal à m'appliquer Il t'arrive quoi ? Tu veux d'prendre tes distances ? Tout ça pour deux-trois appels en absence J'suis pas comme tous ces mecs qui coureraient pour avoir un bisou, j't'ai couverte de bijoux Y'a un 'blème on en parle, y'a un os on en parle Tu sais moi j'suis pas là pour faire joujou Le problème c'est toujours le même C'est la copine d'la copine Jalousie, elles ont juste la haine, ouais les petites coquines Tout Paris le sait bien, j'suis réglo Toi t'as changé depuis qu't'as la te-co J't'ai pas brisé tes côtes, j'ai juste volé ton cur Et maintenant tu veux changer de té-cô x2 Je t'ai juste volé ton cur, je n'ai pas souillé ton âme Je tai juste volé ton cur, je n'ai pas souillé ton âme Sorry oh, sorry oh, sorry oh, sorry oh Sorry oh, sorry oh, sorry oh, sorry oh Mais tout ça va si vite, de quoi tu parles ? Laisse-moi faire ma vie, pourquoi tu pars ? J'n'ai plus de limites, non reste là J'n'écoute plus ce que tu dis, écoute moi Mais tout ça, mais tout ça va si vite, pourquoi tu fuis ? Mais laisse-moi, mais laisse-moi faire ma vie, vas-y viens on kiffe Je n'ai plus, je n'ai plus de limites, j't'ai dit sorry J'n'écoute plus, n'écoute plus c'que tu dis, j't'ai déjà dit sorry1</t>
+          <t>Stan-E Music H24 ça charbonne J'ai fait du sale, que Dieu me pardonne Tu marches pas droit, t'es pas des nôtres Tu sais pas te tenir t'es pas des nôtres On vient de la street du ter-ter Quand y a drah nous on sait s'taire Dans le secteur tous sectaires Donne un plan on sait l'faire J'suis à bout j'pète un cable J'suis à bout j'vais quer-cra J'suis à bout j'suis coupable J'suis à bout j'suis mé-cra Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Maman m'a dit Naza fait pas le fou, la faut chanter la paix Comme j'aime les lovés, la bibi, détaillé j'ai tout gaché J'ai pris des coups, j'ai laissé l'école Commencer le cool-Al mais comme j'ai du talent Avec la dalle des fois y'avait pas là avec des namaratintin Mais je suis à bout prends ma main J'suis à bout oui maman J'suis à bout prends ma main J'suis à bout oui maman Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout Hey Binguy buaka guitare !</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J’suis un lossa</t>
+          <t>Oh shit</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa On s'mélange pas, traîne avec des gens qui plaisantent pas Fais le fou, fais le fou clic, paw C'est la mala, envoie bouteille on khalass On donne chaud, Bahamas On s'enjaille, range ton famas J'sais pas t'es qui, change pas d'équipe Chacal sa pète on t'a dit, j'crois qu'on te l'a mise Un marocain dans la zone, y'a trop d'algérien aussi La sénégalaise a des formes et la malienne aussi J'suis un lossa, fais-moi un boussa Ouais j'aime trop ça, quand j'me sens die J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa Bébé j'suis un salaud, un mauvais gadjo Les sièges chauffants réchauffe ton dos Fais des squats, fais des abdos Elle touche mes mains, elle les trouve douces C'est que j'ai jamais taffé dans la vie Depuis que j'rappe, j'suis plutôt rentable J'ai des Franklin, j'te doguine toute la nuit J'suis avec Youssef dans la zone, ce soir j'claque 10 bouteilles J'détourne ta go au Sofitel Comme Alrima on s'mélange pas, pas, pas, pas J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa On s'est déjà vu sur Paris oui Mais en faite tu fais crari oui Tu fais celle qui est pas de sortie mais j'te vois posée dans les XXX du wari oui T'es bonne en calcul mental oui Toi t'as pas trop sécher l'école non 11 2, donc y'a deux fois plus de Magnum oui On voit tout on sait tout, oui On dit rien on fait tout, oui C'est les derniers des lossa Tu t'es mis propre pour faire du le-sa oui ×2 J'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa Ma chérie j'suis un lossa, j'suis un lossa Tu cherches un hlel mais j'suis un lossa Fais-moi un boussa-ssa-ssa-ssa1</t>
+          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ladies</t>
+          <t>On est al</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
+          <t>Plus je vis plus je meurs, j'ai confiance qu'en mon honneur J'veux bien partir dans l'horreur, si ma mère est dans le bonheur Ramené une mangue au cyrock, j'noies ma peine je sirote Ma chérie monte à bord du bolide c'est moi le pilote Si tu t'mets avec moi, faut qu't'assume mon passé Faut qu't'assumes mes groupies, faut qu't'assume le pavé Millionnaire à trente pige, j'ai versé une larme de joie Malgré ces années de taules, j'peux pas regretter mes choix Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Eux toujours sur mise à puis Au cas où y a kheja, les fils de ches-lâ chelou, on connaît déjà Voler c'est pas bon, t'essaye d'nous mettre une khasba, petit on va te daba Chez nous ya pas de guépard Perquis' à six du mat', t'es dans ton lit tu colmates Les keufs passent pas d'pomade, la daronne finie tromat' Topo, dépôt garde a v' Garde a v' dépôt karplar Promenade on m'a tarba Karba ça fini tarba Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>La force</t>
+          <t>Pardonne-moi</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hey hey hey, hey hey hey Hey hey hey, hey hey hey Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm, oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Quand je sors dans le club, je fais la guerre c'est midi Dans l'équipe ouais j'suis seul faut booter du living Je pose et repose d'puis l'époque de la loco C'est pas en vieux Bonobo qu'on apprend d'apparat locaux Dans la street c'est la jungle tu peux te faire cartoucher Par Tarzan et Mowgli quand tu t'fais partouzer Sans capote faut pas toucher comportement pas loucher Barbie refuse d'être une poupée donc premier soir faut pas coucher Elle se met avec un 6 gros elle veut un train d'vie coûteux Elle se met avec un fouteux c'est la planque c'est douteux Avec un rappeur je me méfie pour vous deux Elle est peut-être fan de moi elle te quittera pour nous deux Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Tu veux rentrer sur le terrain est-ce que t'es cramponné Tu me cires les baskets si je te fous le pomponner Elle me dit qu'elle a ses règles mais elle veut se faire tamponner Je vais sur l'avenue Montaigne je vais faire de la randonnée Tout ce qu'ils m'ont pris à la fouille paye vroom redonnée J'suis devenu une resta le blason redoré Le blason redoré toutes les portes décodés Je crois que le bord est trop gros je vais finir déborder Je traîne avec des barbus pour la 7 je veux crépule Qui coulaient vos crépuscules comme la dernière des crapules Les gens changent avec le temps ou c'est le temps qui change les gens Dans tous les cas je m'en bats les couilles je perds mon temps sur les champs Maman m'a accouché plus besoin de toucher du bois Est-ce qu'elle est fier de moi ? Mmmm oui Mashallah Tu me regardes de haut en bas j'suis une resta ça se voit pas Est-ce que je vais prendre la grosse tête ? Astaghfirullah Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Que la force soit avec nous, avec qui avec qui? Que la force soit avec nous Hey hey hey, hey hey hey Hey hey hey, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey Que la force soit avec nous, hey hey hey</t>
+          <t>Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi J'suis la fierté du tier-quar, petit n'écoute pas les on dit On m'a tellement jeté lil mais aujourd'hui all eyes on me J'ai dû la vendre à des zombies, puis j'ai côtoyé la son-pri En promenade ils parlent de mon nom, moi j'parle toutes les années qu'ils ont pris La rue c'est une vision d'horreur, putain d'merde rien n'vaut mon honneur J'étais à la recherche du bonheur, petit faudra s'lever de bonne heure C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Dix ans plus tard on peut s'dire c'est comment ? Y en a tellement qui aimeraient revenir sur le moment Quand le coup d'feu part non tu n'peux plus le retenir T'entends l'bruit retentir, les morts vont plus rev'nir Ils vont plus rev'nir au tiek y a plus d'avenir Pas l'bienvenu à bord, donc j'ai construit mon av'nire Et j'irais où j'veux, quand j'veux, j'fais feu à tout moment j'peux partir La rue c'est mes chaudasses, faut s'équiper comme dans Shooters La bibi, les go fast, faut rester droit dans ses godasses C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang x2 Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Pardonne-moiiii, pardonne-moi Pardonne-moiiii, pardonne-moi</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Laisse les parler de nous</t>
+          <t>Parler de nous</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hors-Série Feeling La violence est gratuite F-f-f-f-feeling Équipe de nuit Feeling L'institut Frappe, que des boules, ouais, mes shab, on s'débrouille pas On gère, laisse le WA, on tient le rap par les couilles Laisse les parler d'nous, on sait qui suce la bite à qui Si tu m'as vu à g'noux c'est qu'j'étais sur un tapis J'ai les nerfs, nique ta mère, laisse ton commentaire haineux Mon frère, si y'a un putain d'traitre, encerclez-le Soir ce j'suis pas d'humeur Ramene des chiottes dans la cabine j'te chie un classique en moins d'une heure Le rap n'a pas d'niveau, donc on a pas d'rivaux J'sais qu'ton cur palpite, gros, fais pas l'mytho Mon insolence n'a pas pris une ride Flow, phases, assonances, te gifflent avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Cherche un sens à ta vie avant d'exercer flow, phases Fasse qu'il se'bousille n'est qu'un exercice, exquis J'ai plusieurs smileys klaxonne en prestige C'est l'odysée des enfants mystiques J'ai cru apercevoir des têtes qui parlent sur nous dans la foule Rien ne m'sali appart la merde que j'roule Deux-trois langue de putes, les negros ont leur periode Sache que leuré dans la minute un ons comme Amélie Laisse-moi m'glisser dans ton iPod Le cur a Tox demande à One Shot dans l'WA Chut, on pue la grande forme, lèves la tête y'a un level après la grande classe Fixé par les auditeurs comme en sonne Feeling Tu sonnes Feeling, feeling On bosse avec le Feeling Livraison à domicile Voilà ton kiff de vote en..., voilà ton kiff de vote de l'or. yeah Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère Ça bosse avec le Feeling Feeling, feeling, feeling IST Bosse avec le Feeling Feeling, feeling, feeling On gère , Doomams, j'désab' et c'est qu'j'suis un bâtard Reste lourd, j'kick avec le cafard, yeah Le H De Guerre Équipe de nuit Abou Debeing Hors-Série</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Le gars-là</t>
+          <t>Pas comme elles</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ah, Alleluia Michael Production Abou Debeing, tu dis quoi ?! Argh..Argh.. Wati B On m'entend bien là ? Whouu! Debeinguerie On t'avais prévenu ! Ecoute ça ! Le gars-là, c'est un salaud... Argh Il pourrait blaguer ta go... Argh Jeu de jambes, cadeau... Argh Il la fou sur le té-cô... Argh Sa langue, elle est sucré... Argh Mais l'addition est salée... Argh Ton rabouin l'insultait... Argh Il va tous faire pour la blaguer... Argh Un chien fini... Argh C'est un vrai prédateur... Argh Il va pas bouffer tes os... Argh Lui, il va bouffer ton cur... Argh Il dit qu'il veut protéger ton dos... Argh Mais il vise que ton tard-pé... Argh On l'appelle Bip-Bip... Argh Tu le voies plus quand il t'a tapé... Argh Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Le gars-là, veut pas ton cur... Argh C'qu'il veut, c'est tes lolos... Argh S'il te dit suis-moi... Argh Faut pas le follow... Argh Non faut pas le follow, lui c'est un salaud Tu finiras solo, noyé sous l'eau Il va te faire croire que t'es pas comme les autres Que maintenant, il est vrai qu'il a commis des fautes Tu crois qu'il t'aime, elle aussi Tu crois que tu vas l'changer, elle aussi Mais vous aussi, vous ne comprenez pas On vous donne des conseils que vous n'appliquez pas Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh Il va te dire qu'il veut que tu sois discrète Il veut te cacher tout ça, c'est des disquettes Ouais c'est des disquettes, il ne pense qu'à son bifteck Pense qu'à son bifteck, à te rentrer son biscuit En tête, est-ce qu'il discute ? Ou est-ce qu'il crée des disputes ? En tête, est-ce qu'il discute ? Dis-moi, ou est-ce qu'il crée des disputes ? Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Le gars-là, c'est un bâtard... Argh Il est connu de tout-par... Argh Un chien de la casse... Argh Toutou, ouaf ouaf... Argh Le gars-là, il est wanted... Argh Y'a un billet sur sa tête... Argh Et ça, elles le savent toutes... Argh Mais le problème, elles tombent toutes Argh, argh, argh Argh, argh Argh, argh, argh Argh, argh Argh, argh2</t>
+          <t>Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Quand t'arrive dans le club tu fais tomber mes thugs Quand tu bouges sur le sub, dirait qu'il y a un bug quand on passe pub tout le monde nous guette J'aime ton taga et ta taille de guêpe J'étais dans le block, j'avais les menottes, maintenant on les snobe Je vends plus de la drogue Toi t'es ma bastos moi je suis le glock Tout le monde à terre, téma l'onde de choc Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Toi et elle aucune comparaison Immédiatement tu passes en comparution Un peu de concentration, pas de concertation J'sais ce que je veux, pas de contradiction Prends ce que tu veux, je gère l'addition Pire que de la dope, t'es une vraie addiction Avant je voyais l'anneau, comme une malédiction Je vais te passer la bague, plein de bénédiction Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Un deux un deux, un deux un deux Un deux un deux, un deux un deux</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Les sorties (C’est toujours Debeing)</t>
+          <t>Perquisition</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>On m'dit Debeing faut qu't'arrêtes les sorties T'es une tête d'affiche, faut pas qu'tu t'tapes l'affiche Un gars du peuple, j'suis un gars du peuple Toujours moi et mon équipe, avec des frappes dans l'club Laissez-moi vivre, enlevez-moi le V J'perds des res-frè, j'veux encore des rre-ve Ma peine est profonde, ramenez-moi des bouteilles Des litres et des litres, je liquide mon oseille Je sais ce qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Tu peux me croiser dans Paname en train de saigner les Champs On a trop souffert mon ami, rien d'méchant On pense nos plaies, on pense qu'on plait J'suis un homme complet mais pas un homme comblé Les femmes me cherchent, je cherche une femme J'me fais ravaler de likes sur Instagram C'est toujours la même dès que j'm'ennuis Tous les chemins me mènent en boite de nuit, et Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz Je sais c'qu'ils disent, disent, disent Rien qu'ils tisent, tisent, tisent On s'fait la bise, bise, bise Que pour le biz, biz, biz La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise La Lune est pleine et mon verre est plein C'est quand la nuit tombe qu'on me voit sourire Le jour se lève, les problèmes reviennent Ils aimeraient que j'change mais c'est pas possible C'est toujours Debeing-being-being Quoi qu'on dise, dise, dise Debeing-being-being Quoi qu'on dise, dise, dise2</t>
+          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lovés</t>
+          <t>Petit de la tess</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Avec moi, c'est gangsta love, love et quand j'merde, j't'offre des deaux-ca, deaux-ca, mmh La street m'a fait des dégâts, dégâts, ah, mais ça tu l'savais déjà, déjà, maintenant tu bégayes, bégayes Dans mes oreilles, tu kouma, kouma, tu m'dis qu'j'suis pas là, pas là Tu cherches des pala-palabres mais moi j'suis pas trop bava-bavard Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love, je fais des loves C'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love, j'veux pas d'tes lovés Bien sûr qu'tu lol mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu m'as promis du lova, lova, fait pas l'mec gang, avec moi c'est neve-never, j'suis pas dans c'game Les keufs qui viennent, qui toqua-toqua, j'ai la flemme Les meufs, les chauda-chaudasses, tu vas perdre ta reine Les histoires de cité, cité, de mecs excités-'xcités Tu m'dis qu't'es piqué, piqué mais moi, j'sais plus où m'situer, situer Maintenant c'est comment, comment ? C'est comment, comment ? C'est comment, comment ? On va faire comment, comment ? Mais comment, comment ? On va faire comment, comment ? Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Tu dis que j't'ai fait perdre ton time, maintenant tu t'en vas Si t'acceptes pas ma vie c'est que tu ne veux pas d'moi Oui j'ai perdu du temps mais il ne se rattrape pas, tu t'es joué de moi Oh, j'suis gangsta love gangsta, je fais des loves je fais du biff C'est pas des lol c'est pas des lol, t'es pas contente, tu t'sauves J'veux pas d'ton gangsta love nan, nan, nan, nan, j'veux pas d'tes lovés nan, nan, nan, nan Bien sûr qu'tu lol bien sûr mais t'inquiète pas, j'me sauve Gangsta love, je n'ai qu'du gangsta love, gangsta love, j'veux pas d'ton gangsta love Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices Là c'est toi qui est égoïste, tu vois pas mes sacrifices Nan c'est toi qui est égoïste, tu vois pas mes sacrifices</t>
+          <t>Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Hey, hey, hey, hey, hey Cómo está, señorita fly to Miami j'ai ton Insta Sur un coup de tête j'suis hors compèt Fais pas la meuf toi et moi on se complète Pas de valises sur place on fera du shopping Dans les rues de Tokyo je te ferai un shooting J'suis pas comme tes ex faut que t'en prennes de la graine J'suis le best des best, crème de la crème Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Tu t'demandes pourquoi je bloque tu m'as fait l'effet d'un Glock Krik krik pah Oh my god je te vois baisser ta garde bientôt tu seras sous mes ordres Au début c'est d'la drague puis je finis par être ta drogue, hey Viens on se calcule sans calculer Viens on bascule sans basculer, sans se bousculer On s'ment en osmose même si tout nous oppose Je t'emmène dans le cosmos, tout ce que je propose Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais ouais Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais, oauis</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ma chérie</t>
+          <t>Petite sœur</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
+          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Mamamia</t>
+          <t>Plan</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tchè, tchè, tchè tchè tchè Tchè tchè, eh T'es prête à tirer pour moi, tout assumer pour moi Pour que je sois numéro un t'es prête à tomber pour moi Avec toi c'est tout droit pas d'bla-bla, de pourquoi Je suis pas du genre courtois, mais je vais changer pour toi T'es mon double, t'es mon binôme, toi t'assume mieux qu'un bonhomme T'est la même en hiver, printemps, été ou automne Pas le temps de bailler, je veux le bif', le pouvoir T'as pas le temps de brailler t'es pas dans les bruits de couloir Tchè, de fois je fais l'enfant Tchè, parce que je sais que t'es en sang Tchè, on a pas commencé ensemble Tchè, mais on a fini ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dilleur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dilleur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Si demain des pirates viennent chercher le magot enlève ce qu'il y a sous le matelas T'es le meilleur des matelots Toi et moi ça fait qu'un Eh c'est pas des maths là Rejoins-moi n'importe où dans le monde oui c'est ça la fast life J'suis pas tout le temps dispo, j'suis pas tout le temps présent J'suis peut-être avec une michto, mais non tu sais que je plaisante Fais pas la meuf qui pète les plombs, comme tes potes les tarés Tu sais que si je vais faire des ronds, c'est pour que tout soit carré Tchè, de fois je fais l'enfant enfant Tchè, parce que je sais que t'es en sang en sang Tchè, on a pas commencé ensemble ensemble Tchè, mais on a fini ensemble ensemble Tchè, mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie elle accepte mon train de vie Ganster dealeur ganster dealeur Mamamia mamamia C'est une dingueria dingueria Elle accepte mon train de vie Ganster dealeur ganster dealeur Oh oh ooh, oh oh ooh mamamia Oh oh ooh, oh oh ooh Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur Mamamia C'est une dingueria Elle accepte mon train de vie Ganster dealeur</t>
+          <t>Oh oh ah Djé, djé, , ah bah ouais, bah ouais Ouh ouh ouh, let's get it Tu sais je viens du bend' du bend' Monte à bord d'la Benz unh unh T'inquiète j'vais tout gérer, ta vie j'vais colorer yeah yeah Elle aime me questionner unh unh Comment j'fais la monnaie ? la moula Moins t'en sais, mieux tu t'portes unh unh Pour l'instant reste forte oh oh J'ai tout c'qu'il te faut, j'ai les mots si faut t'aider si faut t'aider Pourquoi m'résister ? Avec le temps tu vas céder yeah yeah Mon regard sur toi, t'as gagné, tu t'es démarqué woah C'que t'as sur le cur, dis-l-moi, tu peux m'raconter T'es différnte des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche T'es différente des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre On va pas faire de détail, t'es chargée comme un pétard Quand tu fais ta mala, mes côtés un flow impeccable J'connais les termes, sur Snap tout va à moitié, t'es une galère Tu m'fais péter un câble Moi j'veux dinero, faut qu'j'augmente les zéros Mon cur pue l'ghetto, j'veux pas vendre la gue-dro Tu veux mes codes, contrôler mes pensées J'en ai assez, faut qu'mes épaules tiennent la route Je sais que t'aimes toucher le ciel, ascenseur émotionnel De ton corps j'suis passionné, notre amour est fusionnel yeah Dis-moi qu't'en veux encore Avec toi mon bébé, on va changer d'décors Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre J'te le dis en toute humilité, j'sais qu'j't'ai mérité Mélité, j'ai l'humidité quand tu m'as hérité Éclipsé, moi t'es mon soleil, j'voulais pas m'esquiver Étiqueté, oui, cest c'que t'as fais au lieu d'm'estimer Mais malgré tout ça j'suis toujours là J'sais pas si ça t'touche ou pas Tu veux qu'j'te le prouve ou pas ? J'touche ton cur, j'touche pas du bois On s'sépare puis on s'retrouve On s'revoit, on s'redécouvre Tout comme à la première fois Oui, cest peut-être la dernière fois On s'aime plus ou moins quand on fait l'addition On s'empoisonne, mais t'es mon addiction Argent, baise ou crime, cétait mon ABC C'est depuis qu't'es dans ma tête, j'offre ma Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Jamais, jamais sans toi comme j'serai jamais, jamais sans billet jamais, jamais sans billet Jamais, jamais loin d'toi même après t'avoir déshabillé te déshabiller J'suis là pour te servir, queen a besoin d'un chevalier un chevalier J'suis là pour ton body, pour ton esprit, pour te marier mama Avant d'aller vite, il faut le rodage On peut plus vous matrixer, les congolais son rodav Ton petit cur est serré, les hommes t'ont rendu ro-pa Si moi j'suis la Champions League, les autres c'était l'Europa mama Tout le monde me félicite, tout l'monde dit qu'j'ai réussi oh oui Pour j'aurai réussi que quand tu seras dans ma vie nah eh Y a rien de plus difficile que d'me réveiller ainsi T'es carrément la femme de mes rêves oh oh ah Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Laisse-moi t'aimer longtemps, longtemps Laisse-moi t'aimer longtemps, longtemps oh oh ah J'sais qu'ton cur n'est pas à vendre T'es mon bijoux Ta beauté me blesse souvent Ah ouais bah ouais, ah bah ouais, bah ouais, ah ah eh</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Meilleurs</t>
+          <t>Player</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lequel de nous a osé ? Lequel de nous a fauté ? On a tout noyé dans l'rosé, prie, oui, fais-le pour moi Crie mais non, ne pars pas, oublie tout sinon l'amour est mort Forcément je s'rais mort et là j'suis comme un con, sans ami J'ressens plus aucun pleasure J'ressens plus aucun pleasure On l'a fait, on avait déjà tout fait Combien de trains sont passés ? Toi, tu m'laisses sur le quai, ouh Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais J'suis dans ton dos, je te vois, je veux qu't'entendes ma voix Tu fais des aller-retours mais c'est que des détours Au final, tu reviendras vers moi, j'ai mal, j'ai l'mort J'oublierai jamais ton corps, j'ai fait tant d'efforts J'ai même su reconnaître mes torts Est-c'que tes lèvres il a goûté ? Avoue, ton corps, il a touché J'ai louché rien qu'd'y penser De vous deux, j'aimerais faire qu'une bouchée J'vois flou, c'est fou, à la base le couple, c'était nous Nous nous, nous nous, nous Maintenant, dans la tête, j'ai que vous Renonce à vous deux, j'serai meilleur Ne me parle pas comme au pire de tes amis Renonce à vous deux, rends-moi meilleur Je sais c'qu'il y a dans ton cur, sous tes habits Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais Tu peux lui mentir, moi, je te connais</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mercé</t>
+          <t>Plus fort que moi</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Hey attendez je vais vous raconter une histoire là Hey modifie ma voix, j'vais imiter la femelle Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Pourquoi tu te tors le cou ? Je sais qu'tu veux juste mon boule Tu m'invites à boire un coup Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! Vingt-trois heures, je suis normal J'lui demande ce soir, y'a quoi ? A minuit, je passe la cap Et j'lui dis ce soir, on s'voit A une heure, j'suis avec elle Mais j'lui dis j'veux pas la Ken A deux heures, je range mon tél Quand j'arrive devant l'hôtel Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey ! J'ai d'abord guetté ton boule Avant d'regarder tes yeux Avant de penser à nous J'suis égo, et je parle en je, je, je Je veux ci, je veux ça T'es à moi, quand tu passes Les chiens aboient Je touche ton boule, j'touche pas du bois Mytho, mytho Je sais qu'tu veux juste mon boule Mytho, mytho Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Je sais qu'tu veux juste mon boule Et merci la zone hey ! Et merci la street hey ! Et merci la taule hey ! Et merci l'aspi hey ! Et merci les fall hey ! Et merci la gym hey ! Et merci l'école hey ! Et merci le stream hey !</t>
+          <t>J'ai pas su me protéger Jai pas su me projeter Tu voulais t'attacher J'ai fait que te rejeter Je tai traité comme une merde Tes copines m'ont senti Donc elles t'ont fait partir Mais tu voulais te mentir J'aimerais que tu m'aimes encore Mais je crois que ton cur est mort Mais le mien est rempli, rempli de remords Mais là je veux faire le vide Il faut que je me confie Au fait j'en ai besoin, je cherche pas le conflit Tout est de ma faute C'est moi qui m'amusais Je savais comment tparler Donc, donc jai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, lai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je tai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi Tout le monde parle de nous Enfin tout le monde parle de toi Comme si t'était une pute T'as plus confiance en toi J'avais rien de fidèle Je tirais les ficelles J'ai fait le mec présent Quand tu te sentais si seul J'ai fait le mec attentif Quand tu voulais te confier Je t'ai fait rire quand il le fallait Quand fallait décoincer Je t'ai laissé prendre ton temps Pour pas que tu freines Jusqu'a ce que ça glisse Tout ça pour te ken Tout est de ma faute C'est moi qui m'amusais Je savais comment t'parler Donc, donc j'ai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, l'ai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je t'ai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Merci</t>
+          <t>Plus le même</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bo banga té naza na nzela Prince Dadj' Ambassadeur ya mboka Oh-oh-ah Merci Nzambe Olongoli ngai na rangée ya ba ndoki'oyo Merci Nzambe Okaboli ngai na rangée ya ba petit'oyo Nzoto na nga liyebo, soki pe osimbi ngai nako panzana Nzoto na nga liyebo, soki pe osimbi ngai, hmm Kata nga na gauche Kata nga na droite Mema ngai pembeni ya mbetu, eh ngai na yokisa yé Je m'appelle Dadju, je suis l'enfant du pays Mwana ma Dalida, eh, avec Djuna Djanana J'ai chanté la musique avant d'écrire J'suis devenu berceuse avant d'aller dormir, hmm Tout le monde sais Wololo Africain est dans l'excès Wololo Annhh, tout le monde sais Wololo Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Hmm, tout le monde sais Wololo Africain est dans l'excès Wololo Ahh, na leli, eh, prince Dadj', eh Hercules manifeste-toi Nga na leli Abed Achour Oh Kila atia musika Wololo Mama ngo woh Wololo Olingi na tia mugulu Merci yaya na nga, na lokumu ozo pesa na mboka Gims Ohh, na leli, eh Serge Ibaka Tony Yoka, masasi na maboko Joss Stinson Sidboy Franglish C'est bon Trésor Djuna On y va, maniféste-toi, déconné, brr Samuel Eto'o fils Didier Drogba Elle est rusée, très rusée J.C Sungula Elle est rusée, très rus' Elle fait la bise à tous les bougs Bien trop près de la bouche Elle fait la bise à tous les bougs Presnel Kimpembe Bien trop près de la bouche Paul Pogba Il est rusé, très rusé Nyadjiko les mains de foudres Il est rusé, très rus' Soirée bina kotazo avec l'argent des autres Tiako' La Mélodie Soirée bina kotazo avec l'argent des autres Sadio Mané, Gana Gueye, champions d'Afrique Il tape les gens pour vivre, Francis Ngannou Gradur Toi, toi Toi, koh Moi? Toi, koh Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Est-ce que tu me mens, bébé? Je te mens pas Ahh, toi Toi, toi Ah-ah toi, bébé Moi? Toi, toi, toi Moi? Est-ce que tu me mens? Non Est-ce que tu me mens, oh? Non Est-ce que tu me mens, bébé? Non Est-ce que tu me mens? Non Fally ipupa dicape la merveille Aigle Abou debeing, ah Ahhh, tout le monde sais Wololo Africain est dans l'excès Wololo Abed Achour Annhh, tout le monde sais Wololo Le patron Tokooos Abuse au mariage de ton frère Wololo Ahh, le fils de ma mère Wololo Elle-même la fille de son père Wololo La mala, Megi m'envoie Wololo Katsuku brakataka Wololo Wololo Wololo Wololo Katsuku brakataka Wololo</t>
+          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minuit</t>
+          <t>Pour toi</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>M.L.D</t>
+          <t>Quartier</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>Au quartier, c'est la hess qui t'met le brolique sur la tempe yeah à la cité, a la tess, dans le tieks Tu veux baigner dans l'banditisme, faut qu'tu saches où tu trempes yeah tu fais la caill', tu fais le gang, tu fais le youv On n'est pas d'la même catégorie, on n'est pas d'la même trempe yeah toi et moi, c'est pas la même non non J'voulais pas t'foutre une crampe mais j't'éteins si tu t'trompes yeah pah pah pah pah pah À la base, c'était des potes, enlève le O tu mets un U, au final c'est que des putes, j'm'en bats le couilles de ta reput' J'm'en bats les couilles de qui tu es, j'm'en bats le couilles de qui te crain Si t'es plus dans ma ville wallah c'est qu't'as loupé le train Quand j'suis posté en GAV, j'pense à ma dernière bédave, j'pense à ma dernière criave, j'pense à ma dernière pétasse J'pense déjà aux arrivants, negueus les putains d'mort vivant J'pense déjà aux bâtiments, les m'tons et leur déguisement J'pense déjà aux coups d'coudes, j'pense déjà aux coups d'couteau J'pense déjà aux gouttes d'eau qui coulent dans les gouttières J'pense déjà à la promenade, écrire des putains d'couplets Avoir trois fois douches par jour, le foot, la muscu', l'complet J'pense déjà aux tas d'pack qu'j'vais mettre à c'lui qui va jouer J'pense aux bâtards qui vont dire c'est bien de banguer et croué J'pense déjà au tar-mi, les cinq prières, le tapis J'pense déjà au parloir et quand j'vais voir ma ra-cli Nique sa mère, ton daron, ta tente, ton oncle Le quartier nous pourri mais c'est là qu'on s'nourrit d'cette merde à la cité, à la tess, dans le tieks J'sais rien faire à part bibi, j'sais rien faire à part casser des gueules fauche droite, middle, coups de coudes C'est c'que j'pensais étant petit, j'ai vu qu'c'était différent ma gueule ça a gé-chan, ça a changé, ça change Trente piges, mili, mili, mili ma gueule j'en veux un, j'en veux deux, j'en veux trois Oui y a toujours l'automatique en cas de 'blème ma gueule pah pah pah pah pah Ferme ta gueule</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mon petit</t>
+          <t>Quelqu’un</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennuis Mais doucement, doucement, doucement, doucement Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faut pas que tu te précipites, devant y'a le précipice Tu aimeras une femme, t'en feras ta dame Tu brûleras d'envie de lui déclarer ta flamme Si tu baisses les bras, tes amis seront là pour t'épauler Et si un jour tu perds la tête, la tête On sera tous là pour te raisonner Mon petit, mon petit, mon petit, mon petit Va découvrir la vie, t'auras beaucoup d'ennemis Un jour tu seras grand et tu seras important J'ai dit mon petit, mon petit J'ai dit mon petit, mon petit Faudra qu'on te félicite, mais pas qu'on te facilite Y'a pas de place pour le rêve, ici c'est marche ou crève Dès ton plus jeune âge, on va te donner un glaive Si je baisse les bras, tu seras là pour m'épauler Et si un jour je perds la tête, la tête Tu seras là pour me raisonner Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Si t'effaces mes défaites, ça sera ma plus belle victoire Je suis mort dans le film, j'aimerais que tu changes l'histoire On me dit que je me voile la face mais j'ai envie d'y croire Quand je te prends dans mes bras, ça me fait l'effet miroir Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Je sais que la route est longue mais t'as pas à t'en faire Un petit pas pour toi, un grand pas pour ton père Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, j'ai dit mon petit, mon petit Mon petit, mon petit, mon petit, mon petit</t>
+          <t>T'as du biff, t'es quelqu'un T'en a pas, t'es personne T'as du biff, t'es quelqu'un T'en a pas, t'es personne Deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ils se posent des questions Nous, on pose des bouteilles J'sais pas quand j'vais quitter ce monde Mais j'sais que j'dois faire de l'oseille Ah, Maman a mal au dos et ça m'fait mal au cur J'vais essuyer tes larmes et ton honneur J'vais leur faire vivre une horreur L'argent c'est le pouvoir La serveuse est bonne, je laisse un pourboire Quand j'rentre chez Vitton, j'ressors equipé Jeune black friqué, t'as d'quoi me tchiper Rien ne fera disparaître les négros Ni les keufs aux States, ni le tchoko Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent On vient d'la street nous, bâtard Toi, qu'est-ce que tu connais ? J'ai cherché, j'ai cherché mon chemin, j'ai failli me paumer Vas-y trinque à ma santé, y'a du dompé' à gogo J'ai de quoi mettre du coco, j'suis plus vendeur de co'-co' Ah, Showcase complet, j'suis aiguisé poupée J'ai du cash, j'ai ma CB Pilon, chicha, feuille OCB, CB, OCB J'ai du cash, j'ai ma CB, CB, CB Elle est belle, elle est cambrée Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent Plutôt crever que toucher le RSA J'veux toucher des millions et j'parle pas d'CFA, CFA, CFA Plutôt crever que toucher le RSA Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne, t'es personne, t'es personne Désolé, j'suis devenu quelqu'un</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Nous deux</t>
+          <t>Qu’une vie</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tcheh tcheh tcheh tcheh tcheh Tu dis que t'es mon soldat Mais tes un aventurier T'aimes les terrains minés ta bouche c'est un canon scié Tas bien visé ta proie maintenant tu t'en mord les doigts Tu peux me faire les yeux doux mais ça marchera pas avec moi Je t'ai grillé grillé ouais grillé grillé Tu peux t'expliquer pliquer mais je serais sans pitié pitié J'ai vu tes DM tout tes snap Rouge à lèvre sur tes sapes Tu fais le mec propr quand tu parles Mais enfaite ta bouch est sale C'est ta tactique à chaque épreuve t'as des nouvelles pratiques Je m'applique mimplique avec toi cest un casse pipe Et je vais à 100 000 à l'heure Des groupies me draguent à pas dheure Mais ma AP donne pas l'heure eh T'as rien grillé grillé T'es juste piqué piqué Tas cru que j'allais flipper flipper tchip Tu peux me tchipper tchipper C'était un une deux Mais là je vais faire le libéro Un pour mon petit égo Deux pour les dinéro Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Gratte ta te-té Fais la le-bé Tu m'as pris pour un te-trai Ou pour un teubé J'ai pas ?? Écoute tout tes ?? Je suis hors game dorénavant Moi c'est le carré d'or Je te laisse les bougs de Paris nord Où ceux de château d'eau Même ceux de gare du nord Je vais pas dire Amen A tout ce que dit Amel Ah je voulais dire Imen Vas y rentre chez toi T'es né avant la honte Tu vois tellement de meuf que les prénoms se confondent Une chose est claire tu m'a du-per Ce que tu viens de faire ça s'appelle l'adultère T'es là tu minimise assume un peut T'inquiète je te félicite t'as fini le jeu Fin de carrière t'as clôturé le bal Me parles plus de nous deux C'est toi qui ne doit plus parler de nous deux C'est impossible entre nous deux Bien sur que c'est impossible entre nous deux Comment j'ai pu croire en nous deux C'est moi le fou qui ai cru en nous deux Tu peux oublier nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux Oui c'est toi qui doit oublier nous deux Nous deux, nous deux Nous deux, nous deux, nous deux</t>
+          <t>HCue Tcha, tcha, tcha, tcha, tcha, tcha Si tes Madame Debeing, la street sera jalouse, donc Ça va parler, jdevrais casser un tas dbouches On vendra du rêve, ça sera leur cauchemar Oui, on donnera lheure ma dit la Audemars Toublieras les pélos qui veulent te cala Ils proposent des tels-hô, moi, jte propose un palace, haha Jsuis mi Wakanda, mi Gangster Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tcheh, tcheh, tcheh Jai rangé mon égo, tes quelqu'un qui sera sur le té-co, ya dégain Tas dla classe, tas du style, jai le bagou Jsuis en place, viens on frime, cest pas tabou Moi, jai pas pagayé, pas bégayé Ya une embouteillé, oui, jpeux payer Jsuis mi rechta, mi resta Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh1</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Obligé</t>
+          <t>Remonter</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Stan-E Music H24 ça charbonne J'ai fait du sale, que Dieu me pardonne Tu marches pas droit, t'es pas des nôtres Tu sais pas te tenir t'es pas des nôtres On vient de la street du ter-ter Quand y a drah nous on sait s'taire Dans le secteur tous sectaires Donne un plan on sait l'faire J'suis à bout j'pète un cable J'suis à bout j'vais quer-cra J'suis à bout j'suis coupable J'suis à bout j'suis mé-cra Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Maman m'a dit Naza fait pas le fou, la faut chanter la paix Comme j'aime les lovés, la bibi, détaillé j'ai tout gaché J'ai pris des coups, j'ai laissé l'école Commencer le cool-Al mais comme j'ai du talent Avec la dalle des fois y'avait pas là avec des namaratintin Mais je suis à bout prends ma main J'suis à bout oui maman J'suis à bout prends ma main J'suis à bout oui maman Maman ton fils fait plus dodo C'est toi ma chérie d'amour Ton fils fait plus dodo C'est toi ma chérie d'amour On doit faire des sous Obligé On fait les fous Obligé Tous les jours ça bibi Obligé Quel bail mais quelle vie Obligé On veut quitter la misère Obligé Nous on bibi la nuit Obligé En direct du hood Obligé Passe après minuit Obligé Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout nous on s'en fout Hey Hey, on s'en fout Hey Binguy buaka guitare !</t>
+          <t>J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle J'étais sur Insta, en train de me tâter J'tombe sur son profil, la go m'a piqué Elle m'a piqué, donc j'ai cliqué Et comme un con, j'ai finis par liker Une fois, deux fois, puis toutes les photos J'vais direct la montrer à mon poto Est-ce que tu connais ce canon scié ? Cent followers, elle va pas me griller Message en PV donc on prend contact Hello ma chérie, il faudrait qu'on se cache T'as voulu une go en or et j'veux pas qu'elle m'traque Elle m'dit ok, tu manques pas de taqu', mec J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Avec la féline, c'est pas des blagues A chaque fois qu'j'la zappe, elle fait son come-back Mais avec ma go, le temps m'échappe J'rentre avec du fond de teint sur mes sacs Et là ça devient chaud, là ça devient hard Pour maquillé tout ça, je dis qu'c'est des fans Elle est pas bê-bête, encore moins co-conne Elle me dit t'étais avec quelle fo-folle ? Et là ça devient chaud, très très paro La fille, une gouttière, j'vais payer le tarot Mais je mis en bloque, en bloque, en bloque Et de tous les réseaux, je la bloque J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Par la féline, j'me suis fait piéger Le compte que j'vais, il était privé Oh l'horreur, ma go l'a follow C'est une femme d'influence dans le Girl Power Aïe aïe aïe, elle a posté une photo de nous deux, disant qu'elle a trouvé l'âme-sur Oh mon dieu, je vais devoir nier en haut Nier en bas, nier à gauche, nier à droite J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde1</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Oh shit</t>
+          <t>Répondeur</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
+          <t>Allô, allô Allô, allô, allô Allô, Allô Allô, Allô, Allô Eh, je t'ai cherché dans tout paris T'es wanted ma chérie Bon, j'étais pas d'humeur à gole-ri Ok j'assume toutes mes conneries T'étais la deuxième Et j'te l'ai caché Je sais que j'ai merdé Donc tu m'envoies chier J'ai voulu jongler Mais j'dois avouer Avouer que j'suis pas doué J'aurais préféré que tu portes mon nom Mais, aujourd'hui tu m'vois comme un traître Quon ne fasse quun comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allô, Allô Allô, Allô, Allô Allô, Allô Allô, Allô, Allô Je sais que tu m'en veux je t'ai doublé T'as coupé les liens qu'on a noué Dis-moi ce qui t'a fait le plus mal Que tu sois pas la première ou que j't'ai trompé Relasse toi merde tu t'en doutais Au final c'est moi qui est dégoûté Je sais que tu me hais, que tu me détestes J'ai juré tu as déjà voulu me voir crever J'aurais préféré que tu portes mon nom Mais aujourd'hui tu me vois comme un traître Quon ne fasse quun, comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo répondeur Allo, allo répondeur Allo, allo, allo répondeur</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>On est al</t>
+          <t>Respectez</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Plus je vis plus je meurs, j'ai confiance qu'en mon honneur J'veux bien partir dans l'horreur, si ma mère est dans le bonheur Ramené une mangue au cyrock, j'noies ma peine je sirote Ma chérie monte à bord du bolide c'est moi le pilote Si tu t'mets avec moi, faut qu't'assume mon passé Faut qu't'assumes mes groupies, faut qu't'assume le pavé Millionnaire à trente pige, j'ai versé une larme de joie Malgré ces années de taules, j'peux pas regretter mes choix Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Eux toujours sur mise à puis Au cas où y a kheja, les fils de ches-lâ chelou, on connaît déjà Voler c'est pas bon, t'essaye d'nous mettre une khasba, petit on va te daba Chez nous ya pas de guépard Perquis' à six du mat', t'es dans ton lit tu colmates Les keufs passent pas d'pomade, la daronne finie tromat' Topo, dépôt garde a v' Garde a v' dépôt karplar Promenade on m'a tarba Karba ça fini tarba Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Cent ans en bécane, j'roule pas en Mégane J'fais plus dans l'détail, j'fais plus partie du bétail Dix milles on est al, cent milles on est al Un lourd on est al, la rue parle de nos bails Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo Woh yo, woh yo, woh yo, woh yo</t>
+          <t>La puissance respecte que la puissance La dinguerie respecte que la dinguerie La vaillance respecte que la vaillance La puterie respecte que la puterie Ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta Ta-ta Hey, hey, hey hey Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Hey, sous-estime pas le dozo tchoin, on a des torpilles sous le cargot tchoin Rappelle-toi de nous, boloss, biatch, n'oublie pas d'me follow On est plus fous que vous, ce n'est pas de la chance, on s'impose par les armes et la violence ouais Renoi, j'parle pas ching-chong, j'suis Martin Luther King Kong ah ouais, ouais Tu nous respectes pas, on va te mou-gou, gilet pare-balles nouvelle paire de Lou-Lou Nous, c'est le GB, bébé, on te menace en PGP Il est l'heure que tu prennes ta dose sur ma Rolex Daytona Gold rose ouais J'suis le boss posé à ma ble-ta pute, t'es dans l'coffre, dans le pain ou dans la ve-ca ris-Kaa Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Tcha-tcha Celui qui va à la chasse, ce soir, il perd sa 'tasse Trop d'bouteilles à la table, ce soir, on boit la tasse En boîte, me fais pas d'rappels, assume-toi, fais pas l'bipolaire Ma maîtresse est en CFA, Champions League pour la titulaire Oui, c'est comme ça qu'on vit Tu paies pas, tu tises pas, chez nous, c'est comme ça qu'on dit Ah, baby, j'ai de ces plans peinard, j'ai ter-ma ton pétard Ton gava est vé-ner, comme toi, petit veinard Ton gava veut s'per-ta, j'vais ti-sor mon pétard, j'vais l'ber-bar J'vais l'quer-bra, puis, on f'ra les fêtards Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter Ah oui Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pardonne-moi</t>
+          <t>Rien dans les poches</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi J'suis la fierté du tier-quar, petit n'écoute pas les on dit On m'a tellement jeté lil mais aujourd'hui all eyes on me J'ai dû la vendre à des zombies, puis j'ai côtoyé la son-pri En promenade ils parlent de mon nom, moi j'parle toutes les années qu'ils ont pris La rue c'est une vision d'horreur, putain d'merde rien n'vaut mon honneur J'étais à la recherche du bonheur, petit faudra s'lever de bonne heure C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Dix ans plus tard on peut s'dire c'est comment ? Y en a tellement qui aimeraient revenir sur le moment Quand le coup d'feu part non tu n'peux plus le retenir T'entends l'bruit retentir, les morts vont plus rev'nir Ils vont plus rev'nir au tiek y a plus d'avenir Pas l'bienvenu à bord, donc j'ai construit mon av'nire Et j'irais où j'veux, quand j'veux, j'fais feu à tout moment j'peux partir La rue c'est mes chaudasses, faut s'équiper comme dans Shooters La bibi, les go fast, faut rester droit dans ses godasses C'est il pour il Dent pour dent Glock pour glock Ou paye le sang par le sang x2 Y a les p'tits qui m'demandent comment sortir du hood Faut serrer les dents ou s'serrer les coudes J'leur réponds juste faut serrer les cerv', parce que le gun va semer le doute Beaucoup d'ennemis, très peu de reufs, il y aura toujours des traîtres dans la troupe Ouais tout va bien quand y a des sous, quand t'es en chien tu vois les loups Ouais j'ai charbonné, déçu la daronne, mais j'l'ai fait pour toi maman pardonne-moi Fallait rester droit, fallait rester dur et froid pardonne-moi J'ai perdu du temps, du sang et des gens hm non Si j't'ai fait du sale, si j't'ai fait du mal non, pardonne-moi Pardonne-moiiii, pardonne-moi Pardonne-moiiii, pardonne-moi</t>
+          <t>Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? On a essayer Dis-moi est-ce qu'on a essayer ou pas ? On a essayer d'avancer Mais on a pas pu marcher au pas Les paroles, les paroles, les paroles Quand je parle, tu crois que je raconte que des bobards Assis-toi et tais-toi, écoute-moi pour une fois Ne dis pas que je suis un connard On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches ? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche ? Ne sois pas débile, on fonce dans un mur Ton cur est fragile, mais ta tête est dure Encore une fois, tu vas pleurer, pleurer des rivières Toi t'en a rien à foutre de toute manière On aurait dû se poser avant d'entrer dans nos folies Peut-être qu'on aurait dû y penser Avant que je finisse dans ton lit On est dans le flou, on est dans le flou Et maintenant, faut qu'on parle Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours Si j'avais plus rien dans les poches ? Ma chérie, faut pas mentir C'est toujours les mêmes reproches Est-ce que tu m'aimerais toujours ? Est-ce que tu m'aimerais toujours ? Tu sais ma chérie, j'ai des doutes Depuis le début, j'crois qu'on force Chacun devrait faire sa route Peut-être avant que les choses se corsent Est-ce que tu m'aimerais toujours Si j'avais rien dans les poches? Le prix à payer en amour S'trouve-t-il est à l'arrière d'une Porsche?</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Parler de nous</t>
+          <t>Sans voix</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>Tié tié tié tié tié, tié tié tié Tié tié tié tié, hey Tu voulais mettre les voiles, t'as sauté du navire Faudrait qu'une autre monte à bord pour que mon cur chavire Mais j'veux pas, nan j'peux pas, car j't'ai pas oublié Maintenant j'ai mon bouclier, aucune femme va m'bousiller Le fruit de l'amour une grenade, j'ai fini par dégoupiller Ton cur était un présent comme un pirate j'ai tout piller J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi En amour, j'suis aveugle J'perds la raison comme Ivar Et même quand j'fous l'cafard, pour moi j'te donne du caviar Pour mes potes j'suis conseiller, j'les aiguilles, j'les renseignes Et quand c'est moi l'concerné, j'me vois détruit, j'me renferme Tu peux m'faire mon procès, j'suis fautif, j'suis coupable Pas d'motif j'suis tout calme, en coulisse j'suis tout pâle J'avais pas pris conscience, du diamant 24 carats J't'ai pas mis en confiance, 2.0 la caillera C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi C'est trop tard t'as décales J'dois avancer sans toi Street Love, quand faut l'dire Tu l'sais bien, j'suis sans voix J'ai refais le calcul, plus d'une fois, plus d'cent fois Quelque soit l'résultat, au final, t'es sans moi T'as décales C'est sans toi Quand faut l'dire Sans voix Le calcul, plus d'une fois, plus d'cent fois Résultat, au final, t'es sans moi</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pas comme elles</t>
+          <t>Shoot Niggaz</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Un deux un deux, un deux un deux Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Quand t'arrive dans le club tu fais tomber mes thugs Quand tu bouges sur le sub, dirait qu'il y a un bug quand on passe pub tout le monde nous guette J'aime ton taga et ta taille de guêpe J'étais dans le block, j'avais les menottes, maintenant on les snobe Je vends plus de la drogue Toi t'es ma bastos moi je suis le glock Tout le monde à terre, téma l'onde de choc Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Toi et elle aucune comparaison Immédiatement tu passes en comparution Un peu de concentration, pas de concertation J'sais ce que je veux, pas de contradiction Prends ce que tu veux, je gère l'addition Pire que de la dope, t'es une vraie addiction Avant je voyais l'anneau, comme une malédiction Je vais te passer la bague, plein de bénédiction Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Un deux un deux, toi et elles il y a pas match Un deux un deux, son talon c'est une frappe Il y a celles qui font les stars, celles qui font les bella Celles qui michtonent de Paris à Marbella Il y a celles qui font les sages mais qu'on voit rentrer tard Celles qui se cachent, mais en fait c'est des fêtardes Oui mais toi, t'es pas comme elles T'es pas comme elle, nah nah nah, t'es pas comme elles, t'es pas comme elles Un deux un deux, un deux un deux Un deux un deux, un deux un deux</t>
+          <t>Yeah Y'all know what this is we back at it uh huh Come on uhh, yeah, yeah It's that 911 music right here, man We in the building, man Welcome to ground zero, everybody! Juelz Santana Dipset Hell Rell Yo, yo I speak pain, I spit power, talk courage, breathe flowers Follow me through the debris of these towers The rain, the sleet, the street showers Don't get caught up when the street showers When the guns rain, the clips pour The soldiers grip fours, then begin war Come on, it's Santana the Great Tie 'em up, bandana his face, hammer his face, fucker I'm trying to get my act together In the booth now trying to get my rap together You know, I got the fire to heat the street up Abuse the track, and beat the beat up, you know You already know what I'm about homie I'm young, I'm focused, I'm just coming out homie You can go by what you hear through word of mouth homie Or step out of line, Cam betting the house on me woo! No, I ain't stopping yet yeah No, my album ain't done, it ain't dropping yet I'm in the midst of a bidding war And we need two mil' more just to move in the door, shit Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa, yo Your girl told you I'm the man, right? Right? Well listen to lover When I beef, visions are gutter Kids clapping, kidnappings, heard her missing a brother I'm hitting your sister, you kissing your mother This shit'll disgust ya Underground with people, lethal Trapped in the desert, surrounded by Eagles Dipset, girl Yeah, I see your bitch is impressed, my kicks is all fresh This shit on my chest by Mitchell and Ness jersey Got her open, hoping she's not I'll have her, crack in her tits, coke in her twat Have her crack up the strip, coke up the block She get cracked up and hit, keep soap in your sock, mami mami My girls lay up in suites A half a cake a week, and masturbate like Tweet, Killa I be popping them Uzis, copping them Coogis Eyes on the drop real droopy Mair is Snoopy, look at your hooptie, rocking her rubies Hop in the hoochie, popping her coochie Chill while I'm chasing millions I'm a baller that'll merk you like Jayson Williams uh huh Don't play with villains, vacate the building Or the apes'll come and rape your children Yeah, it's a kilo to a milligram I'm still the man, word to Killa Cam Killa Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it To all of my cons and crooks, slash that to of my pawns and rooks For all the charms they took To my head of security, British the Titan, clicking the fifth, and gripping it tight, goddamn it Not to mention my bishop and knights, soliciting bricks of the white Making crucial trips through the night highways And Prince Juelz, I told you ever since Juelz If them faggots even flinch Juelz bluuuuatttt My dogs gonna 'em alive Forty-four's depleting, deleting they lives come on And Killa while he's leading the movement For realer we wouldn't be in this movement Over him I might kill ya kill ya Be in the tombs, just facing my time Lawyer on side, outside spoiler on ride System bumping, bumping Oh Boy in the ride Oh boy I done slide, shit He done came got his boy, it's a shame that his boy Had to flame at a boy, over the name we employ Which is none other Than Dipset, for y'all dumb motherfuckers holla Yes, the boys are back at it Come holla at us, the boys are back at it So line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Line 'em up, shoot 'em down Do it now Welcome to ground zero Tell 'em it's ground zero Yes, the boys are back at it Come holla at us, the boys are back at it Killa the Don, Freekey, Juelz Santana BK, Harlem woo!! Hell Rell, the whole Taliban Dipset T. Money, Luca Brazi Double Nicko, Blaka Shane, cut it short on these niggas1</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Perquisition</t>
+          <t>Si Baba</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bienvenue à Paname moi c'est John K je me présente Issu de la Neuvième zone l'Institut je représente Ici l'humanité s'est noyée dans de l'essence Et pour un bon billet l'avenir se cache dans le présent Décris ta vie sur des bouts de papier l'être humain a tendance à oublier Sur Terre t'es là pour faire tes preuves pas là pour roupiller Si t'as un gun cool chez nous on a des boucliers ... Il faut savoir apprendre à admettre et comprendre ... Tu veux tester 7.5 On aime le liquide et liquider les bâtards Les bitches et enculer les 3atays Dans ma rue ne parle pas trop et ne joue pas le croma ... Bienvenue à Paris dans mon ghetto faché On te nique ta mère si tu oses nous clasher ... Eh tous les tipeux veulent avoir des brolics ... Check check j'ai vu des man sans tiep tirer Y'a peu ... ici sers un tiep dien huilé Yeah man on a la dalle fini les gomme cogne C'est devenu Compton ... Easy la plupart sont usés désabusés Comme un DJ on veut changer l'ambiance man à l'aide d'un uzi Pussy ma vie n'est pas dans les ... C'est la perquisition ... Tu piges on met des claques sur le beat t'as reçu 4 sur 8 Nous 5 sur 5 on applique le clan man en cas de sssionmi Yeah man on chie pas dans notre froc La proc on lui dit que fuck off libère nos frères motherfucker C'est bavon j'ai pris la fuite dans 10 jours je sors Incroyablement hardcore je viens péter vos portes J'irai pas fêter vos coups le 7.5 va débiter les coups Coup d'extinct j'esquinte tous vos beats et vos crews La jet set s'excite j'excelle je vais vous péter les côtes Du 7.8 au 7.7 écoute ça Les tieksons pensent à gâter la quête On fait que ça t'es fixé on vesqui la bac sur les quais de Seine En taxi les tox sont postichés dans les coins Tu veux tester Jarod tu crois qu'on est plein mais y'en a qu'un À Paname y'a que des plans qui sont intéressants Viens pas me parler de tes potes les putes on les a terrassé Les gens du quartier nous ont vu taper des morts J'suis issu de la génération qui veut piloter les Porsche J'ai trop la cote mais les cops sont sur mes cotes Moi j'ai quitté l'école pour la coke file moi ton code man 7.5 fallait vous cacher bande d'enfoirés c'est pas Bob Marley C'est Jarod A.K.A R.I.M A.K.A A.K.A le bain de sang De tout l'Institut j'ai fait que la bande son J'ai racketté les rappeurs va guetter leur clip en caleçon Ça crie sur l'ingé son pendant que je pète un gros pilon Je mets des baffes ... motherfucker bats les pattes Sur le técô y'a les srhabs val de mer que de la frappe ... dans mon sac Gros c'est pas du foot en salle ok Mais du bon rap si t'es pas content je vais te parechoquer Celui qu'on surnomme le boss même en prison je bosse Écoute demande à Tox c'est jalousie et coups de crosse Akhi moi c'est D.I. j'suis décisif un peu comme ... 7.5 on crache et crochette les MC's qu'on croise En gros j'ai la dalle ... Je crois que tu peux te véle applaudis le flow de fêlé 9ème zone la fête est finie appelle moi le fou de ... et ça sans l'aide d'un Uzi Poto je crois que t'hallucines le débit les phases te bousillent Dis leur que c'est perdu d'avance qu'y'a une guerre qui s'annonce Que l'Institut frappe et prend de l'ampleur comme la Sex d'Ass on s'amorce On atomise la concurrence et tous ces durs à croire 7.5 on reprend ce qui nous est dû de droit On kicke sale et met d'accord tous les élus de droite Donc bah ouais tu peux tchipper laisse moi kicker un petit peu L'Institut le prototype qui vient te gifler prends ton ticket Y'a pas de love pas de peace pas de lové que de la pisse On se croirait à la patinoire car sur le bitume mes reufs glissent Ici y'a pas d'amour même les sentiments se cachent Pour les centimes en cash tu peux sentir mon schlass On défonce plus que du hash ... Elles kiffent toutes le son du H ce sont des ... Poto chuchotte pas Bezbar te shoote ... Je m'arrête pas je visser mes rettebas Je t'ai rotteca comme les contrôles façon qu'on voit au Rocma J'excelle ... mais je mets des fessées Depuis que je fais ça je me fais détester hors taxes TTC ... t'es travesti le H t'avertit Réfléchis c'est soit tu te véssau soit tu retiens ta vessie Vincent McDoom ton sosie ou peut être ton soss si ... L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite Dans les temps toujours àl Abou Debeing la rafale Dans le rap je vais déclencher la seconde intifada comme Arafat Y'a toujours un truc qui relie bénéfique et le maléfique C'est comme une poucave et un mec en liberté c'est magnétique Pathétique est votre équipe je peux pas flairer tous tes types On est le ... et le reste des MC's sont des prototypes Poto je kicke parasite tout c'est automatique Je décapite dératise tout façon robotique Quand t'es au sommet la chute est deux fois plus rapide Et les pieds sur Terre pour ne pas prendre le shit comme thérapie La femme c'est comme une rose tu dégorges pour la posséder Dès que tu la détiens tu décoffres pour la voir fâner Tu l'as pris comment quand t'as su que ta meuf te trompait ? T'as pas tapé ta teté tu t'es senti pris en tetraî On va pas signer de traité ceux qu'ont négligé vont regretter Comme Léonidas on va prouver que ceux du sommet peuvent être blessés L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite L'Institut frappe préventive ça arrive On kicke et dégoupille ton équipe on la décapite J'espère que tu vas péter les plombs si t'écoutes ce son dans l'escalier Vaut mieux se caner l'Institut un gros mollard dans ton Nescafé On est pas fêlé on veut faire les choses en finesse Ceux qui pensaient que c'était fini c'est le début d'un repas d'une bande de félins On fait la différence devant nous tu vas bouffer le sol On péra près d'une poubelle tellement nos morceaux puent le sale Le hip hop c'est un égoût et les MC's sont des rats On écrase pas mal de keumés t'inquiète jamais on dérape MC t'as tes gleurés puis tu sens la muerte Si tu fais un gosse au rap je lui dirai de te faire avorter À présent t'as compris que c'est contre le micro qu'on se tape Constate que ... j'ai pu recracher sa prostate Le stylo c'est mon ami qu'il en soit ainsi à vie Pas besoin de lutter j'emmène mon 16 on forme un multivitamine Je peux dire que tu gênes ici y'a pas mal de jeunes aussi Qui attendent la cepla d'où le début de ce génocide On fait la différence entre les gosses et les jeunes boss Ouais quoi comment ça guette bien c'est tipar ... Je dors avec un oid dans le Blackberry Distribue mes ... Il te faut un taf désolé j'ai pas leur profil ... T'es dans la merde je le savais j'ai besoin de conseils 2 3 mecs sûrs de la médecine pour que je m'en sorte ... T'es pas fatigué de courir ? Tu sais que tu peux mourir ? Pense à ceux qui te nourrissent ... J'sais pas qu'est ce qui me retient Peut être l'effet d'un refrain qui te chécou à mort Qui te chécou ... Ça c'est l'effet d'une équipe qui te chécou à mort Qui te chécou</t>
+          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Petit coeur</t>
+          <t>Solo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 Fidel - TKC 0101 Kenti - C'est Quentin 0101 MTO - Allo toxic 0101 Sami Bad-X - E.M.T Vol.1 - 0101 T.I.S - Victor Frank - 0301 4Keus - Vie dartiste 0301 Prs-One - Double face 0301 Swift Guad - Best Of Swift Guad Anthology, Vol. 1 - 0401 Bitu - 1nuitavecbitsu - 0501 Volodia - Panorama Sessions - 0601 6rano - Negro EP 0801 Marcisse - L'EPeignoir 1001 Comi Banga - Negrolaoui - 1001 Leone - Pourquoi nous 1001 Max Paro - En temps de crise - 1001 Menavor - SYKRAS - 1001 Népal - Adios Bahamas 1001 Petitcopek - Tout simplement - 1101 Kaki Santana - Piège Vol.2 1301 D4R - La rue 2 - 1701 Demi Portion - La bonne école - 1701 Fils Cara - Volume 1701 Izen - Agressive distortion - 1701 Les Alchimistes - OSEF - 1701 Maes - Les Derniers Salopards 1701 Moka Boka - Juste avant Kwami - 1701 Nelick - PiuPiu - 1701 PERSO - Chambre noire - 1701 Syndrome AOS - Le monde intérieur 2401 Alrima - C'est léger 2401 Convok - Basic-Fist 2401 Eech - Eech Forever, Vol. 2 2401 Jorrdee - Fata Morgana - 2401 Kodes - La B - 2401 La Fouine - Bénédictions - 2401 Mairo - 95 Monde libre - 2401 Michel - Le vrai Michel - 2401 Noma - Binks 3 - 2601 Manuel Goldman - Piscines 3101 Aly Bass - Desperado - 3101 Dooz Kawa - Nomad's land - 3101 Hornet La Frappe - Ma ruche 3101 Juicy P - Snowfall 1 - 3101 Larry - Cité Blanche - 3101 Leonis - Leonis - 3101 MadeInParis - Vide - 3101 Mister V - MVP 3101 VH Gang - Jour de paye Février 0202 Jorrdee - Fata Bromosa - 0602 6rano Shut! - French drill EP 0602 Fakir - Pas le même 0702 Bakhaw - Libérez Bakhaw - 0702 Chily - 5ème chambre Très mystique - 0702 Isha - La Vie Augmente Vol. 3 0702 Kazmi - 30 - 0702 Swing - ALT F4 0802 Djamhellvice - Mauvais augure - 1202 Dyno274 - SCHENGEN VOL.1 - 1302 Chanje - Pacemaker - 1402 Captaine Roshi - Contre attaque - 1402 Dante Sito - Petit cur - 1402 Jarod - Best Of Jarod 1402 Le Juiice - Trap Mama 1402 Mr JL - Des instants t 1402 Sultan - Éternel Challenger Part. 1 1402 Ultimate Bitches - Soul bleed - 1402 Yaro - La spé 1702 Sekel Du 91 - Méchantillons III - 1902 H-Tône - Fistaille Made in Toylettes Vol. 2 2002 Odor - Inodore - 2102 7 Jaws Seezy - RAGE - 2102 Araujo - MINUTE - 2102 Barack Adama - Libertad 2102 Belloti - Consultations 2102 Dandyguel - Histoires vraies - 2102 Dellati - Salle d'attente 2102 Jonah - PTCAT - 2102 Kofs - Santé Bonheur - 2102 Meryl - Jour avant caviar - 2102 SenSey' - Sans le bandeau 2102 Slim C - Killu Kinf G 2102 U.L.T.E.A.M Mani Deïz - Mauvais Présages Vol.1 - 2102 USKY - Porte dorée saison 3 - 2102 Waman - Préambule 2302 SAF - Bipolaire 2402 Artistes multiples - Vintage Sounds Rap Français - 2402 H-Tône - Fistaille Made in Toylettes Vol. 3 - 2602 Ayma - VIRTU66L - 2802 Allebou - Synthèse additive - 2802 D.Ace - Vox Cordis 2802 Djado Mado - ULHAQ 2802 Galaburdy - Jeune bipolaire 2802 L'Affreux Jojo - Jungle urbaine Part. I - 2802 Laylow - Trinity 2802 Marty de Lutece - Poster Réédition 2802 Mini Gouap - Mini Tape 3 - 2802 Naps - Carré VIP 2802 Squalid - Station Nuit - 2802 Squidji - Brahm 2802 Swift Guad Al'Tarba - Musique classique - 2802 Tengo John - Temporada - 2802 Timal - Caliente - 2802 Yuzmv - YUZMV Mars - 0303 VII - Dernière musique obscure de la nuit peinte - 0403 8Ruki - Green Lobby - 0603 6rano Laazy - Negros EP - 0603 Abou Debeing - Mon histoire Part. 1 - 0603 Ausgang - Gangrène - 0603 CG6 - Soleil de minuit - 0603 Hatik - Chaise pliante 2 - 0603 Helix Jr - Le regard des gens sérieux 0603 Jo le Pheno - 60 Boulevard Ménilmontant - 0603 Josman - SPLIT - 0603 Kaza - HEARTBREAK LIFE - 0603 Sneazzy - NOUVO MODE 0603 T2R Minissia - Love Story 0703 Dadimeh - PROCESS - 0703 Ninho - M.I.L.S 3 1303 Beozedzed - Réalité - 1303 Blaiz - HSS2 1303 Blaz Pit - Alchemia - 1303 eden dillinger - SCUBA - 1303 Empty7 - Vision 1303 L'ami Caccio - Squadra - 1303 Varnish la Piscine - METRONOME POLE DANCE TWIST AMAZONE - 1303 VSO - Adrénaline - 1303 VSO - CRASH TEST - 1303 Younès - Même les feuilles - 1703 John S Myk - Virtus - 2003 Artistes multiples - Validé BO - 2003 Brvmsoo - Boulevard de Pesaro - 2003 Gérard Baste - Dans mon slip, Vol 2 2003 Gerrick - Polyvalent - 2003 ISK - Le mal est fait - 2003 John S Myk - Seven - 2003 Jok'Air - Jok'Chirac - 2003 MB - À zéro - 2003 Soolking - Vintage - 2003 Squidji - SARASWATI 2003 Swenz - SNOWTAPE 2303 Gaïden Scarp - Monde - 2703 Alpha Zeleph - Morsure - 2703 Bosh - Synkinisi - 2703 Chinwvr - Amerrissage - 2703 Coelho - Odyssée 2703 Final - Mon reflet - 2703 Glauque - Glauque - EP - 2703 GLK - Indécis - 2703 Haristone - La vie en stone - 2703 Infinit' - Ma vie est un film 2 - 2703 Inspire - Appel manqué - 2703 Kekra - Freebase, Vol. 04 2703 Lalcko - BAGS 2703 Les Frères Scotch - 1969 - 2703 Raplume - Le chant des oiseaux - 2703 Shotas - Capuché 2 - 2703 Tsew The Kid - Diavolana - 2703 Youv Dee - Planète Mars - 2803 Buhi - Bushi Tape 3103 Artistes multiples - Deezer Originals La Relève 3 3103 Risky Business - No new friends Avril - 0204 3010 - N2MO - 0304 Beeby - Hotline - 0304 DA Uzi - Architecte 0304 GLGV - Désargenté 0304 Junior Bvndo - Menace - 0304 Seyté - Libre - 0304 Twinsmatic - ATLAS - 0304 Youssef Swatt's El Gaouli - Poussières d'espoir - 0504 Prime - Xander - 0604 6ix - 6ix, Vol. 3 - 0604 6rano - Shwifty 2 EP - 0804 Grems - Muses Hommes 0804 Salakid - En attendant Sale enfant - 0804 Veerus - Monark - 0904 Zuukou Mayzie - Primera temporada 1004 Anas - Dans mon monde Réédition - 1004 Barack Adama - Libertad Chapitre 2 - 1004 Caballero JeanJass - High Fines Herbes - 1004 Dinos - Taciturne, les inachevés - 1004 FREAKEY! - Désolé Pour L'Attente - 1004 Klem Schen - Sang noir - 1004 Lujipeka - P.E.K.A. 1004 L'uZine - Jusqu'à la vie - 1004 Rim'K - Midnight 1004 Ron Brice - Pédigrée des grands - 1004 Tiitof - Tout à gagner - 1204 Dante Sito - Petit cur Version gold - 1504 Abou Tall - SESSIONS - 1504 Bluume - HALFNAKED 1504 Kaki Santana - R.E.P Pop Smoke Obs Smoke - 1704 Aero - Prologue 1704 Artistes multiples - Booska Pefra Vol. 7 - 1704 Delta - 3h33 - 1704 Dika - La rue scolarise - 1704 Gianni - XXIII Bilan de vie - 1704 Leto - Virus avant l'album - 1704 Pakigo - Paki Paki - 1704 S.Pri Noir - État d'esprit - 1704 Tejdeen - Silver Tej - 1704 WLTR - PÉRIODES - 1704 YL - Vaillants - 1904 Alonzo - Pack de 6 1904 Neshga - Noname - 2104 Buhi - Bushi 1.5 - 2104 Jarod - New attitude 2204 Dibson - Vatos - 2404 Ashe 22 - Movie Tape 2404 Mckoy - Bienfait - 2404 Doxx - 2017 - 2404 Hooss - Prohibé, chapitre 1 Le retour du H 2404 Houari - Fumar mata - 2404 Iconic - Iconic Strasbourg 2404 Lanimal - La famille - 2404 Roméo Elvis - Maison - 2404 sean - À moitié loup - 2404 Simony - SIMONY - 2404 Slimka - TUNNEL VISION PRELUDE 2404 Zn Prods - Time out 3004 Geeeko - Réel Mai 0105 3010 - Ben 0105 Absolem - Toxcity - 0105 Adæb - UW S01 - 0105 Demi Portion - 1990 0105 Leith - La suite le 29 0105 N.E.D.Z x Erwan Smith - John Weed - 0105 Sopico - Ëpisode 0 - 0505 Yassine Stein - Hayat - 0605 Double Zulu - DBZ 2 0805 3010 - Manny - 0805 Chiloo - Promesses à tenir 0805 Melan x DJ Hesa - Déconfinement 0805 Poz - Chaos 0805 Swift Guad Paco - Hérésie Tape - 0905 Lesram - G-31 1405 YUEF - Voodoo 1505 3010 - Benny Blaxxtars 1505 34A - En attendant lalbum, Vol. 2 - 1505 Chily - 5ème Chambre Réédition 1505 Jehkyl - On m'appelle STUTT Vol.2 - 1505 Kenyon - Quarantaine 1505 KT Gorique - Akwaba - 1505 Richi - Retour vers maintenant - 1505 Sameer Ahmad - Ezekiel - Un amour suprême - 1505 Sese Kepler - Gang Shit 1505 tanlee - Hokuto 2 - 1505 Zamdane - Chrysalis 1605 Aketo - Confiserie 2205 3010 - M!crophone 2205 El'ka - Allo, part.2 - 2205 Frenetik - Brouillon 2205 IGee - Mirages - 2205 Kemmler - Gris - 2205 Koriass FouKi - Génies en herbe - 2205 Lonepsi - Toutes les nuits du monde - 2205 Lujipeka - L.U.J.I. - 2205 Rockin' Squat - 432Hz 2405 Hash24 - Hell Paradise - 2705 Hamza - 140 BPM 2805 JMK - Dirty South 2905 3010 - Simon Emoes - 2905 Akhenaton - Astéroïde - 2905 Bolémvn - Vol 169 - 2905 Captaine Roshi - W.A.R - 2905 Darryl Zeuja - Chilladelphia 2905 Flaco - Chloroquine - 2905 Hooss - Prohibé, chapitre 2 Tout va bien 2905 Leith - Instinct - 2905 Youv Dee - Haine World - 2905 Zamdane - Chrysalis - DLC - 3105 OEILDUSENTIER - ODS Juin - 0106 Kenyon - Session Acoustique 0206 Droogz Brigade - Terreurs de jeunesse 0506 3010 - Eddie - 0506 Ashéo - Cosmos Pt. 1 - 0506 Hatik - Chaise pliante Édition Deluxe 0506 H Magnum - Obade - 0506 Liim's - Angelo 0506 Phasm - Supernihilisme - 0506 Soso Maness - Mistral - 0506 Volodia - Panorama - 0806 Jorrdee - WAVERS II - 1206 1PLIKÉ140 - 1PLIKTOI 1206 B-NØM - B-NØM - 1206 Franglish - MOOD 1206 Furax Barbarossa - À l'isolement 1206 Jones Cruipy - 2020 après J.C 1206 Marty de Lutece - Cruel été - 1206 Sonbest - Lotus - 1206 Menavor - Summer Dreams - 1506 Sobek Le Zini - Necronomicon 1706 Tiers - Mamadou 1806 BACKPACKERZ - Deuxième souffle 1906 Funky Armenico - Instinct - 1906 JuL - La machine 1906 Lim - Bouteille d'absinthe - 1906 PSO Thug - Code 1.8.7 Introduction 1906 Slim Lessio - Instable - 1906 Steez Sully - PILULE. 2206 Shro - Opération Bakongo - 2506 Spider ZED - Abonnez-vous 2606 1minute2rap - Maintenant ou jamais 2606 3010 - FORME FINALE 2606 6ix - W 124 2606 ALP - Jefe - 2606 Azur - FUCKNEXT - 2606 Chineurs de Rap - Codex Tape - 2606 Dajak - Flash 2606 DJ Weedim - Boulangerie française Vol. 4 2606 Glauque - Réécriture 2606 Harley - Elixir 2606 Hooss - Prohibé, chapitre 3 Soleil plein 2606 Ismo Z17 - Confiné 2606 Joe Lucazz - Krak'n Joe, Pt. 1 2606 Juicy P - Snowfall 2 - 2606 Mister You - Les oiseaux - 2606 M.S.J.A - Most Valuable Rapper 2606 Nino B - Crash Test 2606 Omerta Muzik - Derniers Vers Partie 1 - 2606 Sheldon - FPS - 2606 thaHomey - Astral Gate Spirit Race 2606 Tirgo - Numéro 7 2606 Tovaritch - Bratva - 2906 Mussy - Jig 3006 Deadi - BLC Mixtape Juillet - 0307 Alkpote - Vie rapide - 0307 Barack Adama - Lib3rtad - 0307 Bigflo Oli - Insolents - 0307 Hornet La Frappe - Ma ruche Réédition 0307 L'homme de l'Ombre - uvre dart The One - 0307 Limsa d'Aulnay - Logique, Pt.1 - 0307 Livaï - Voss - 0307 OBOY - Mafana - 0307 RK - Neverland - 0307 Senamo - Melon Soda 0307 Swift Guad Blakesmith - Expédition punitive - 0307 Triplego - TWAREG - 0807 Kasper 939 - Why You SLime Like Dat ? - 0807 K.S.A - Purple Tour Eiffel - 0807 San-Nom - Rien - 0907 Niro - Sale môme - 1007 Aladin 135 - Phantom - 1007 Gambi - La vie est belle 1007 Joysad - Fernandez - 1007 Key Largo - July Key 1007 L'Allemand - Nos rêves 1007 LA MAISONBLANCH. - EMODRILL, Le Nouveau Western - 1007 Lefa - FAMOUS - 1007 Lpee - Triptyque 1007 Moucham - Pomme Z 1007 Omerta Muzik - Derniers Vers Partie 2 1007 Rvhim - A la Z - 1007 San-Nom - Rien 1007 Syen - L'histoire se répète - 1207 Yuri Online - 1507 Bayssou - Caméléon - 1707 Bigflo Oli x Bon Entendeur - Un été quand même - 1707 Bramsito - Losa - 1707 Dante Sito - Johnny le Synthé 1707 Lartiste - Comme avant - 1707 Lord Esperanza - Dans ta ville Ep. II - 1707 Mac Tyer - Noir 1707 Megaski - Dans l'kamtar, Vol. 2 1707 Retro X - Le ciel 1707 S.Téban - Base 015 - 1707 Tsew The Kid - LOFI - 1707 USKY - TRILOGY - 1707 Wit. - NO FUTURE - 1907 Southlove Southillusions 2407 Absolem - Toxcity Part. 2 2407 Demon One - Demonstrada 2407 Keakr - Keakr Livreur de prods 2407 So La Lune - Tsuki - 2707 LVZ - Passé 2707 Moubarak - La Rafale vol .2 2907 Le Règlement - La Revanche de la Drill - 3107 Dabs - Mode S 3107 Jarhead - TYGRA - 3107 Robdbloc - Replay - 3107 Yaro - La spé Deluxe Août - 0708 Waffo - SOLR 1108 Despo Rutti - Spider Men - 1408 Chinwvr - Sun Day - 1408 Primero - Serein 1408 Rowjay - Free CDF 2 2108 Andy Luidje - Vous et Moi 2108 Ghenda - Encore une Ghenderie - 2108 NKP - BlueCheese 2108 Serane - PRISE MUSIQUE 2608 Verso - Unreleased 2808 Alvin Chris - Enchanté - 2808 Chinwvr - Sun Night - 2808 Leto - 100 visages - 2808 PLK - Enna 2808 Yanso - Double vie Vol. 1 Septembre - 0409 Abou Tall - Ghetto Chic - 0409 GRËJ - PIXELTAPE - 0409 Kaaris - 2.7.0 0409 Klem Schen - Visions - 0409 Michel - Le vrai Michel 2 0409 Souli - Start - 1009 Lombre - La lumière du noir - 1109 2TH - Espoir - 1109 Freeze Corleone - LMF - 1109 Grand Corps Malade - Mesdames - 1109 Ichon - Pour de vrai - 1109 Kaine - K.A.I.N.E 1609 Brvbus - Roi des Ours - 1609 Soolking - Vintage Gearforth - 1609 Wallace Cleaver - TOUTE LANNÉE CEST LHIVER - 1809 BEN plg - Dans nos yeux - 1809 Damso - QALF - 1809 Klub des Loosers - Vanité 1809 KPoint - NDRX - 1809 La F - The No Face 2 - 1809 Lyms - 7Vie - 1809 YL - Compte de Faits - 1809 Le Motif - Première partie 2509 2CheeseMilkShake - AOP - 2509 Bekar - Briques rouges 2509 Illustre - Ille - 2509 La Fève Kosei - KOLAF - 2509 Lasco - L.A.S 2509 Les Anticipateurs - Dieux du Québec - 2509 Squidji - Parades 2509 VSO - Pool Party 2809 Joe Lucazz - Krak'n Joe, Pt. 2 2909 Akuma Sad - Je Vieillis Seul - 2909 Reynz - 'Pluie, vol. 1' 3009 Artistes divers - Misère Record présente Klassik Fcking Shit Vol.1 Octobre - 0110 Ayma - Le Grand Bleu 0210 Corentin Moutet - Écorché 0210 Dibson - Vatos 2 0210 El'ka - Allo, part.3 - 0210 GLK - Indécis Part 2 - 0210 LauCarré - Les dés sont jetés - 0210 Nallas - NALLAS-LAND 2.0 - 0210 Sid les 3 Éléments - 3 Éléments - 0710 eden dillinger - DIVINE COMÉDIE, Chap. 1 Le Diable Peut Pleurer - 0910 13 Organisé - 13 Organisé 0910 2G - C'est léger 0910 Ashéo - Cosmos, PT2 0910 DJ Weedim - J'irai rapper chez Weedim 0910 Fhat.R - Kairos 0910 L'Hexaler - Coups Rageusement - 0910 Lycos - Dimension - 0910 Sifax - La mentale - 0910 Yuzmv - 6side - 0910 Zed Yun Pavarotti - Beauseigne 1610 Afro S - DLO 1610 EDGE - Interlude.1.9 - 1610 Furax Barbarossa - CHA O HA - 1610 Lacrim - R.I.P.R.O Vol. 4 - 1610 Les Frères Lumières - À des années lumières Adal 2 - 1610 Mini Noma - MN 1610 Shaga - Kérosène 1610 Smeels - Very Bad Drip - 1610 Timal - Trop Caliente - 2210 Jazzy Bazz - MEMENTO - 2210 Nusky - Nusky le Clown - 2310 A2H - Rédemption - 2310 ADI - Lucide 2310 Guizmo - Lamine 2310 Hidan - VANTA 2310 Hyacinthe - WIP TAPE 2310 Jonny Vegas - Winners - 2310 Kaza - HEARTBREAK LIFE Winter Version - 2310 Koba LaD - Détail 2310 Lartiste - Comme avant Réédition - 2310 Lucio Bukowski Oster Lapwass - Hôtel sans - 2310 Luidji - Boscolo Exedra 2310 Pumpkin Vin's Da Cuero - Abysses Repetita 2310 Momsii - Dans le SAS - 2410 Disiz La Peste - 20 ans Poisson Rouge 2810 Bricksy 3G - The Darkest Hour Is Just Before The Dawn 2910 Jarod - Avant la guerre 3010 4Keus - Vie dartiste Réédition 3010 Art de rue - Art de rue - 3010 Chanceko - Gaura 3010 Dadimeh - E.V.O - 3010 Green Montana - Alaska - 3010 Kemmler - Cur - 3010 Ninho - M.I.L.S 3 Réédition 3010 Tonio le Vakeso - J A M Novembre 0111 Luter - NEERA 0611 C.O.R - Rue de Madrid - 0611 Deen Burbigo - Cercle vertueux - 0611 Enfantdepauvres - EDP Saison 1 0611 Foulek - UN PIED DEDANS - 0611 Gaël Faye - Lundi Méchant 0611 HIM - 243 0611 Le7ept - Manège - 0611 Médine - Grand Médine - 0611 Misa - 200 - 0611 Noname - Big Panda 0611 Pouya ALZ - L.R.L.V La rue la vraie - 0611 Spider ZED - Jeune intermittent - 0711 Django - So le Flem - 0811 8ruki - Thank You 0911 Yawil - DAYVOTION - 1011 Kasper 939 - Srry, Jss 1 Goofy Star. - 1111 Bluume - Fisheye 1111 Rifa Samb - Demain j'arrête 1211 Le A - Insomnie La face cachée 1311 Ashéo - Cosmos 1311 Bambino47 - Drillmatic 1311 dAMEbLANCHE - VIRAGE - 1311 Empty7 - ZON 1311 Ghetto Phénomène - C'est plus comme avant 1311 LaCraps - Comète - 1311 Leone - Vibes 1311 Max Paro - Issue de secours - 1311 Naza - Gros bébé 1311 Tissmey - Melo Deal - 1311 Vendredi 13 - Ouroboros - 1411 Nyluu - uu 1611 Theorem de Gama - OPUS - 1611 Zeu - Black Gate - 1911 AnNie. Adda - CHIEN - 2011 404Billy - 21Visions 2011 Bambino - Enfant difficile 2011 Bedjik - L'île parodisiaque - 2011 FouKi - Grignotines de Luxe - 2011 Gianni - 231 - 2011 Hotel Paradisio - Hollymoon - 2011 Kalash Criminel - Sélection naturelle 2011 Koer - Derrière les murs 2011 MRC - Vengeance - 2011 sean - MP3WAV 2011 Younès - Bientôt à la mode 2011 YungCiel - Shawty - 2011 Zinée - Futée - 2011 Zola - Survie - 2711 7 Jaws - Dalton - 2711 13 Block - BLO 2 - 2711 A Little Rooster Waltmann - Oasis 2711 Bosh - Synkinisi Réédition - 2711 Captaine Roshi - Attaque II 2711 Diamond Deuklo - Dalton Dallas Chap. 2 Tonight Dallas Will Die Under the Moonlight - 2711 Dinos - Stamina, 2711 Double Zulu - Ladder Match 2711 Doxx - La fin du monde - 2711 Echelon Records - Echelon Vol. 1 2711 Elh Kmer - Rescapé 2711 Guirri Mafia - Clan Ötomo - 2711 Kalu - Général Invaincu 2711 Le Juiice - Jeune CEO 2711 Matou - Élixir 2711 Melan - Angle mort 2711 MOH - Vatos 2711 Mous-K - Tour 23 2711 Odgee Navy - OSMOSE 2711 Paco Swift Guad - Balafrés 2711 RAS - Les princes de la drill 2711 Rounhaa - Horion - 2711 Sinik - Huitième art 2711 TNS - Diagnostic 2711 Toma - Hypersensible - 2811 Serane CashCache - Serane meet CashCache Décembre - 0312 Jeune Austin - 480p 0312 MadeInParis - Quel beau jour pour mourir - 0312 TripleGo - 3 0412 Aguirre - Cornelis - 0412 Allebou - Synthèse additive Réédition 0412 Fizzi Pizzi x Kyo Itachi - Canon Fumant - 0412 Gims - LE FLÉAU 0412 G.R.E.G - Kienzan 0412 Kamini - 3ème Acte - 0412 KaNoé - Savies - 0412 Limsa d'Aulnay - Logique, Pt.2 0412 S-Pion - Sourou 2 0412 Simony - DONNY DARKO 0412 Skinny SixBool - Barre transversale 0412 TK - Pas ouehda - 0412 Yannou JR - EAV PART I 0412 Milua - Tiamat - 0512 Eline - Update - 0812 J9ueve - Le Neuf - 0912 Pekahach - DMT - 1112 1PLIKÉ140 - 1PLIKTOI Vol. 2 - 1112 Benjamin Epps - Le futur 1112 Carbozo Entertainment - Carbozo, Vol. 1 1112 Dehmo - ADDICT - 1112 EDGE - OFF - 1112 Huntrill - TRILLSAISON 1112 Jok'Air - VI République 1112 Keurta - 7K8 - 1112 Le Motif - Première partie Deluxe 1112 Lyms - Allô Hits 1112 Seven Binks - 7 Binks 1112 Vinss - Imimoya 1112 Zesau - D.E.L - 1312 Riski - Z - 1612 eden dillinger - DIVINE COMÉDIE, Chap. 2 Une gorgée du Styx - 1712 Jazzy Bazz - MEMENTO II - 1812 Alpha Wann - don dada mixtape vol 1 - 1812 Assaf - Assaf - 1812 Coyote Jo Bastard - ONLY FANS - 1812 Dante Sito - LUZ 1812 Geeeko - Irréel - 1812 Heuss L'enfoiré Vald - Horizon Vertical - 1812 JuL - Loin du monde - 1812 Landy - A-One - 1812 Lycos - Nuit 1812 Negrito - Début de la faim - 1812 RK - Neverland Édition Gold - 1812 Sasso - Enfant2larue Volume 1 1812 Souffrance - Noctambus - 1812 Ucyll Ryo - Amour Hotel 1912 Luter - NEERA SUNA 2112 Taï Z - 21 12 2020 - 2512 Ateyaba - SPACE PACK - 2512 Gouap - Santa Gouapo 2k20 - 2512 Key Largo - Christmas Key - 2512 Meryl - Quarantaine - 2712 Furlax - Odyssée 3012 BFG - Quinze trente, Vol. 2 - 3112 Beeby - Morningstar Autres Du 0501 au 2106 CYPH3R - TROPA STORY3</t>
+          <t>J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo Pourquoi j'suis déçu par les gens que j'aime ? Pourquoi quand t'as l'cur sur la main on veut qu'tu saignes ? Pourquoi j'ai du volé quand j'étais pauvre ? Pourquoi ma mère avait l'poids du monde sur ces épaules ? Ah, pourquoi la vérité fait si mal ? Pourquoi c'est les gens comme toi qui veulent qu'tu cannes ? Pourquoi tu parles mal de moi devant des go ? Pourquoi dans la street j'entends tous ces échos, eh ? On a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Ouais on a pas le choix c'est la street ma gueule Chez nous c'est les armes ou les keufs qui t'accueille Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo Ah Pourquoi on a pas eu le choix ? Pourquoi si tu fais pas le loup on t'prend pour une proie, ah ? Pourquoi l'argent fait pas l'bonheur ? Pourquoi j'préfère m'asseoir sur une somme que sur mon honneur, ah ? Pourquoi tu veux m'tirer ver le bas, malgré ça moi j'vais t'poussé vers le haut, ah ? Pourquoi j'te reconnais pas, quand j'te vois j'ai des frissons dans le dos ? Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot Je me suis fait solo, on m'disait vas-y mollo J'ai foncé comme un taureau, puis j'ai fais des tonneaux J'ai perdu du temps, mais j'guettais pas le chrono Tous les jours sur le banc, à attendre le gros lot J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo J'veux pas, finir solo</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Petit de la tess</t>
+          <t>Toi et elle</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Hey, hey, hey, hey, hey Cómo está, señorita fly to Miami j'ai ton Insta Sur un coup de tête j'suis hors compèt Fais pas la meuf toi et moi on se complète Pas de valises sur place on fera du shopping Dans les rues de Tokyo je te ferai un shooting J'suis pas comme tes ex faut que t'en prennes de la graine J'suis le best des best, crème de la crème Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Tu t'demandes pourquoi je bloque tu m'as fait l'effet d'un Glock Krik krik pah Oh my god je te vois baisser ta garde bientôt tu seras sous mes ordres Au début c'est d'la drague puis je finis par être ta drogue, hey Viens on se calcule sans calculer Viens on bascule sans basculer, sans se bousculer On s'ment en osmose même si tout nous oppose Je t'emmène dans le cosmos, tout ce que je propose Yeah tu vas respecter le respect Yeah j'suis un grand monsieur dans tous ses aspects Yeah tu vas respecter le respect yeah yeah Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder elle me prend pour un petit de la tess Mais je veux lui montrer que j'suis pas un petit de la tess Avec ce j'ai dans les poches j'suis pas un petit de la tess 'vec ce qu'il y a sous la ceinture j'suis pas un petit de la tess Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais ouais Elle veut pas me regarder non , non non Elle me prend pour un petit de la tess ouais, ouais ouais Est-ce qu'elle a raison ? non non non Donc je veux lui montrer ouais, ouais, oauis</t>
+          <t>Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Ma chérie quand tu sors cest la guerre Tu laisses mes collègues à terre Dans la boite on sait que tu gères, mais à quoi ça sert Ton allure et ta démarche, tous les hommes te remarquent Il y a un truc que tu dégages, ce qui fait que tu te démarques Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires, juste une fois, résister, il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Tu veux quon te montre son visage Cheveux court ou tissage Tu tdemandes si elle rage quand tes dans les parages Tu veux pas quon te compare, mais toi-même tu te compares Si tu cherches à te venger tu nas rien à lui envier Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Ton sourire, ton regard, tas les yeux revolver Quand tu tires juste une fois, résister il faut le faire Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Il y a pas photo entre vous, il y a pas photo Il y a pas photo ne cherche pas, il y a pas photo Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Mais cest quun homme Pour loublier ouais tu fais la folle Pour loublier ouais tu fais la conne Tu veux prouver ten fais des tonnes Oui cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Pour loublier tu fais la folle Pour loublier tu fais la conne Tu veux prouver ten fais des tonnes Tu las trompé mais cest quun homme Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo Toi et elle il y a pas photo, photo, il y a pas photo</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Petite sœur</t>
+          <t>Tôlard</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Que d'la pe-fra, validé dans le tier-q' Tier-q', tier-q' Remonte ton legging, fais tourner nos têtes Têtes, têtes J'sais même plus t'es qui, j'ai envie d'te ken Ken, ken On sent les llets-bi juste à bout de zen Zen, zen J'sais pas parler aux filles, j'suis pas Abou Debeing Being, being Se-bai dans l'Audi, se-bai dans l'hôtel Tel, tel Que d'la re-pu, neuf-trois c'est crapuleux Peuf, peuf Tu sais que ça tue, fais confiance à Dieu Dieu, dieu J'veux la même que J.Lo même si son passé en dit long Non, non J'veux la même que J.Lo J.Lo, qu'on avance en binôme Non, non Allez, retiens bien nos têtes Têtes, têtes Allez découpe la 'quette Quette, quette Effrite de l'index Dex, dex Ça vient de la tess, pe-fra J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Y a les amis, les ennemis, y a les putes Les michtonneuses qui racontent de la flûte On retrouve ton corps près du Luc J'ai des sapes italiennes, c'est du luxe J'écoute les rappels d'un frère mus' Que Dieu me guide, ouais, j'suis perdu J'suis concentré sur mon millefeuille Bébé, j't'aime plus que le tertus Viens dans mon coin, ça bibi quelques grammes de peuf Yeah, yeah J'suis à l'hôtel avec ta meuf, j'me démonte à la OG KushYeah, yeah J'ai pas changé, j'fume la frappe de Tanger J'suis au QG avec que des fils d'étrangers Trop tard pour s'ranger, des frères ont plongé Y a de l'argent à faire et ma petite sur est en danger, yeah J'fume la peuf avec Hornet Yeah J'suis avec les zins' sur le corner Yeah J'suis dans la loc', je gère le reste Fais le, fais le, fais le, fais le Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la hum On t'allume si tu pousses la fonte Pas de mystère, que d'la peuf, la cons' Viens dans mon tieks, ça vent d'la cons' Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses Yeah, yeah Ça vient du sud et de Paname et tout le reste Yeah, yeah J'trouve déjà que c'est pas mal beau visage, grosses fesses1</t>
+          <t>Tchè, tchè, tchè tchè tchè Tchè, hè Je me souviens javais parloir une heure avec ma fem-me Jenfilais mes baskets et mes jogos tous fe-ne Elle me faisait rentrer des Big Mac On faisait des mik mak On sembrassait en vric vrac Comme ça quand les flics planent Retour dans ma cellule, aller-retour en promenade Je lui disais que jallais sortir, je lui passais de la pommade Bagarre sur le préau, du sang sur les vres-lè Donne-moi des news dautre lo, jattends toujours ça tre-let Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tchè, tchè, tchè Devant la juge jai toujours menti sous serment Mais devant toi jai toujours parlé sincèrement Tu me disais quune fois dehors je toublierais sûrement Tu me connaissais mieux que moi-même, mais si seulement Javais su faire, jaurais dû me taire, tavais du flair, et jai fait le fier Mais tas su me comprendre et mentendre Il ta fallu attendre et tout prendre Ouais quand je vais sortir on fera les magasins Ouais je toffrirais mieux que du Mauboussin Ouais tu seras en talon, je serais en mocassin Ouais et on fera taire tous ces fantassins Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, c'était un polard Et jétais prêt à tout pour les dollars Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Contrairement à moi tas été une fille stable Contrairement à moi tas toujours été fiable Cétait grandiose comment jétais minable Dévoué et patiente tétais Nia Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars Tu sais ma chérie je suis un ex-tôlard Les gens me guettaient comme si javais Ebola Ma vie cétait un film, cétait un polard Et jétais prêt à tout pour les dollars</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Plan</t>
+          <t>Tout doux</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Oh oh ah Djé, djé, , ah bah ouais, bah ouais Ouh ouh ouh, let's get it Tu sais je viens du bend' du bend' Monte à bord d'la Benz unh unh T'inquiète j'vais tout gérer, ta vie j'vais colorer yeah yeah Elle aime me questionner unh unh Comment j'fais la monnaie ? la moula Moins t'en sais, mieux tu t'portes unh unh Pour l'instant reste forte oh oh J'ai tout c'qu'il te faut, j'ai les mots si faut t'aider si faut t'aider Pourquoi m'résister ? Avec le temps tu vas céder yeah yeah Mon regard sur toi, t'as gagné, tu t'es démarqué woah C'que t'as sur le cur, dis-l-moi, tu peux m'raconter T'es différnte des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche T'es différente des autres, j'reste avec toi, j'turn up Du love toute la noche, du love toute la noche Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre On va pas faire de détail, t'es chargée comme un pétard Quand tu fais ta mala, mes côtés un flow impeccable J'connais les termes, sur Snap tout va à moitié, t'es une galère Tu m'fais péter un câble Moi j'veux dinero, faut qu'j'augmente les zéros Mon cur pue l'ghetto, j'veux pas vendre la gue-dro Tu veux mes codes, contrôler mes pensées J'en ai assez, faut qu'mes épaules tiennent la route Je sais que t'aimes toucher le ciel, ascenseur émotionnel De ton corps j'suis passionné, notre amour est fusionnel yeah Dis-moi qu't'en veux encore Avec toi mon bébé, on va changer d'décors Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre J'te le dis en toute humilité, j'sais qu'j't'ai mérité Mélité, j'ai l'humidité quand tu m'as hérité Éclipsé, moi t'es mon soleil, j'voulais pas m'esquiver Étiqueté, oui, cest c'que t'as fais au lieu d'm'estimer Mais malgré tout ça j'suis toujours là J'sais pas si ça t'touche ou pas Tu veux qu'j'te le prouve ou pas ? J'touche ton cur, j'touche pas du bois On s'sépare puis on s'retrouve On s'revoit, on s'redécouvre Tout comme à la première fois Oui, cest peut-être la dernière fois On s'aime plus ou moins quand on fait l'addition On s'empoisonne, mais t'es mon addiction Argent, baise ou crime, cétait mon ABC C'est depuis qu't'es dans ma tête, j'offre ma Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent Mais t'as très bien compris qu'mon cur n'est pas à vendre Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Jamais, jamais sans toi comme j'serai jamais, jamais sans billet jamais, jamais sans billet Jamais, jamais loin d'toi même après t'avoir déshabillé te déshabiller J'suis là pour te servir, queen a besoin d'un chevalier un chevalier J'suis là pour ton body, pour ton esprit, pour te marier mama Avant d'aller vite, il faut le rodage On peut plus vous matrixer, les congolais son rodav Ton petit cur est serré, les hommes t'ont rendu ro-pa Si moi j'suis la Champions League, les autres c'était l'Europa mama Tout le monde me félicite, tout l'monde dit qu'j'ai réussi oh oui Pour j'aurai réussi que quand tu seras dans ma vie nah eh Y a rien de plus difficile que d'me réveiller ainsi T'es carrément la femme de mes rêves oh oh ah Ne t'en fais pas ma belle, t'es bien plus qu'un plan Oublions le reste sur la liste d'attente Ta beauté me blesse et me berce souvent J'ai très bien compris qu'ton cur n'est pas à vendre Laisse-moi t'aimer longtemps, longtemps Laisse-moi t'aimer longtemps, longtemps oh oh ah J'sais qu'ton cur n'est pas à vendre T'es mon bijoux Ta beauté me blesse souvent Ah ouais bah ouais, ah bah ouais, bah ouais, ah ah eh</t>
+          <t>Wow, c'est la galère au quartier Mais bon, tout doux, direction L.A J'vais clipper avec mon iPhone tiens Azy viens on s'barre Tout doux, tout doux Tout doux doux doux J'me vois déjà sur la playa, complètement faya Trop black pour les mes-crè solaires, loin d'la galère Té-ma là-celle, comment elle m'regarde Quoi ? T'as jamais vu une caille-ra ? J'suis venu me détendre avec mes gars Claquer tout mon salaire Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo J'ai rassemblé tous mes gavas pour faire un carnage À c'qu'il paraît y'a un barrage tout va ter-sau J'suis venu pour faire la fiesta Señorita como esta ? J'te veux toi et tes pines-co, pour tous mes soces Laisse-moi, j'suis bien dans l'anonymat Pas d'fan, pas d'femme, pas de mini-moi J'suis loin des gens et d'leur cinéma J'avais besoin d'un bol d'air Pas d'bague au doigt, j'suis dans l'célibat Un cur à prendre, venez j'ai le choix Caramel vanille, couleur chocolat Si elle a les yeux revolver Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Laisse, laisse les gens parler Ils ont qu'une envie c'est nous comparer Laisse, laisse les gens parler On n'a qu'une envie c'est de s'barrer Donc tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux Tout doux, tout doux, tout doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux, tout doux, doux ,doux, doux, doux Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo Tout doux tout doux, tout doux, je vais tout doux molo</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Tout est permis</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>On m'appelle l'attaquant de pointe Debeinguitos, spécialiste en feinte Je gère des frappes et j'amortie Si tu rentre dans mon camp, t'es pas sortie Numéro 9, j'aime les une-deux Si elle est prise on se démarque en 2-2 On joue à l'extérieur ou à domicile Il m'en faut qu'une, j'suis pas Cavani Punta Cana, viens on y go Les Chutes du Niagara, viens on y go On y va en jet ou en hélico ? Je joue pour gagner y'a pas de matchs amicaux Passement de jambes, virgule, petit pont J'les fais glisser, j'suis pas un petit con Toute mon équipe fait la holà-holà Bicyclette dans son lit, soirée olé-olé J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur Triangle L1, passe décisive Quand je le veux, ma chérie j'y arrive J'ai vu ton corps avaler ma salive Donne-moi la clé pour entrer dans ta ie-v' Ne sois pas naïve ne sois pas naïve Pourquoi tu m'esquives ? pourquoi tu m'esquives ? J't'emmène au Maldives, toute l'année ce sera ton anniv' ce sera ton anniv' Pourquoi tu m'esquives, tu veux me dribbler-ler-ler ? J'vais t'emmener faire des trucs de fêlé-lé-lé Une fois que je t'aurai frôlé-lé-lé Ton cur ne sera plus gelé-lé-lé Ma chérie, tes cuisses font trembler-ler-ler J'suis réputé comme Makelele Je t'emmènerai danser sur Kenyelele Donne-moi ton cur j'vais jongler-ler-ler J'pourrais t'ouvrir les portes de ce monde Te faire rêver en quelques secondes J'te tends la main, tends moi la tienne Viens je t'emmène, là c'est mon domaine Si tu as peur, ne t'en fais pas Donne-moi ton cur, ne t'en vas pas J'suis prêt à tout, ne m'en veux pas Si j'perds la partie on recommencera, hey Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Abou Debeing, Lartiste baby Les players des players de la capitale Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Démarque-toi, j'te fais une passe dé' Balle décisive, ballon piqué Dalé dalé, XXX Je veux t'appeler ma chérie, mi amor Donne-moi ton cur, donne-moi ton corps J'te donnerai de l'amour et mon ballon d'or Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferais ton bonheur Je suis un player je suis un player Un joueur je suis le meilleur Un dragueur donne-moi ton cur Un vrai tombeur je ferai ton bonheur Viens on joue, vas-y viens on joue My boo my baby, mon bébé habibi Mon bijou, vas-y viens on joue Ma chérie, mon mufuji, mon Himalaya Ma moitié, mon binôme, j'suis prêt à tout Ce soir j'vais tout te dire Mon cur, m'bifé, I love you Ich liebe dich, je suis un player</t>
+          <t>Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es le plus beau des plus beaux, aujourd'hui y'a pas photos T'es le fils de ta mère et le garçon de ton père Ta beauté est blessante, pour les jaloux est vexante T'as la classe et l'élégance, en vérité t'es un exemple x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne craint personne C'est vrai qu'la vie est dure Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle T'es la plus belle des plus belles, t'as le regard qui ensorcelle La fierté de ton père, t'as la beauté de ta mère Tu viens d'une autre planète, j'aime ton charme et tes manières Tu peux stopper la guerre, t'as la Lune et le Soleil dans ton derrière x2 Mais qui va parler ? Personne Et qui peut parler ? Personne Nous on ne néglige personne Mais on ne crains personne C'est vrai que la vie est dur Les fins de mois sont durs Les temps son durs, ça c'est sur Mais on ne vit qu'une fois On ne vit qu'une fois Donc ce soir... Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Ils nous prennent la tête, faut qu'ils arrêtent Pour être honnête, on veut juste faire la fête Ils nous prennent la tête, la tête, la tête Faut qu'ils arrêtent, arrêtent, arrêtent Pour être honnête, honnête, honnête On veut juste faire la fête, fête, fête Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo Ce soir tout est permis, est permis, est permis, mon vieux Tout est permis, est permis, est permis, ma belle Donc fais ta mala, mala, mala, mala, mala, mala, mala Vas-y molo, molo, molo, molo, molo, molo, molo Fais ta mala mala, vas-y molo molo Fais ta mala mala, vas-y molo molo</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Plus fort que moi</t>
+          <t>Tout gâcher</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>J'ai pas su me protéger Jai pas su me projeter Tu voulais t'attacher J'ai fait que te rejeter Je tai traité comme une merde Tes copines m'ont senti Donc elles t'ont fait partir Mais tu voulais te mentir J'aimerais que tu m'aimes encore Mais je crois que ton cur est mort Mais le mien est rempli, rempli de remords Mais là je veux faire le vide Il faut que je me confie Au fait j'en ai besoin, je cherche pas le conflit Tout est de ma faute C'est moi qui m'amusais Je savais comment tparler Donc, donc jai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, lai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je tai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi Tout le monde parle de nous Enfin tout le monde parle de toi Comme si t'était une pute T'as plus confiance en toi J'avais rien de fidèle Je tirais les ficelles J'ai fait le mec présent Quand tu te sentais si seul J'ai fait le mec attentif Quand tu voulais te confier Je t'ai fait rire quand il le fallait Quand fallait décoincer Je t'ai laissé prendre ton temps Pour pas que tu freines Jusqu'a ce que ça glisse Tout ça pour te ken Tout est de ma faute C'est moi qui m'amusais Je savais comment t'parler Donc, donc j'ai abusé Je t'ai bien manipulé Toi, et tes sentiments Je te, l'ai mise en douceur Je te l'ai mise gentiment Je t'ai montré tous ce que tu voulais voir Je t'ai dit tous ce que tu voulais entendre Je t'ai fait sentir que j'étais là Quand je t'ai laissé goûter au mensonge On dit que le temps guéri les blessures Donc je sais que tu t'en remettras T'as compris que tu n'étais qu'une fille de plus M'en veut pas c'est plus fort que moi, que moi, que moi M'en veut pas c'est plus fort que moi, que moi, que moi, c'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi C'est plus fort que moi C'est plus fort que moi C'est plus fort que C'est plus fort que C'est plus fort que moi</t>
+          <t>Oh nino, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou jaurais tout fait Jaurais pris des bastos Pour toi, ouais jaurais sorti le matos ouais A ma droite dans le gamos Gros bolide, pour nous pas de tacos Ouais ouais, tétais une vraie gazelle avec un corps de fou Tous les mecs qui te guettaient avaient la corde au cou Ils font toujours la queue, Il y en a encore beaucoup Mais je suis plus de la partie, je reporte mon tour Tcha, tu mas proprement sali Mais quelle vie, maintenant les amines, les ennemies sont ta famille Tu veux refaire le détail Tu reviens mais quel bail Tu regrettes tu dérailles Cest le revers de la médaille Tas tout gâché ohoh Je voyais mon avenir avec toi, tas tout gâché, t'as tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou jaurais tout fait pour toit Ou ou pour toi, ou ou pour toi Ou ou pour toi Ou ou Dans quelques mois, tu te rappelleras de moi Dans quelques mois, je me souviendrai de toi Maintenant, tu es loin de mes pensés Pourtant, jai été prêt à tout dépenser Il y a pas de marche arrière, jsuis sur Je tavoue quand nos regards se croisen,t oui cest dur Mais toi tas pas cru en nous, laisse tombé moi jai tourné la page, cest tout Me parle pas de la vie des autres, au fond tu sais très bien que tout ce quelles disent cest faux oui Tout ce que je voulais cétait une vie de famille mais toi Tas tout gâché, tas tout gâché Je voyais mon avenir avec toi, tas tout gâché, tas tout gâché Avec le temps tu regretteras, jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou J'aurais tout fais pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi, ou ou jaurais tout fait pour toi Ou ou pour toi, ou ou pour toi Ou ou pour toi ou ou Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha Tcha-tcha, tcha-tcha-tcha</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Plus le même</t>
+          <t>Tout le monde me connaît</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bitch, Let's get it Personne en face, parce que tout le monde préfère parler dans mon dos Oh shit! Après la défaite et pauvreté, viendra victoire et richesse Oh shit! Pas d'humeur à rendre des services, je n'pense qu'à ma gueule et ma famille Oh shit! Hier, j'pardonnais, mais c'est fini, nique la mère de mes ennemis Oh shit! Si j'ai du sang dans les mains, t'as dû sûrement parler d'ma mama Oh shit! Si c'est pas un contrat, mamen, appelle pas, insiste pas, j'suis pas là Oh shit! J't'ai dit mon son c'est d'la dope, nigga, I'm movin that dope Oh shit! Dans une impasse j'vois des flashs, des douilles tomber et un homme à terre Oh shit! Mais what the fuck ? J'suis pas comme vous, vous êtes pas comme moi Ici les gars brassent plus que toi dans le mois, même si l'argent est sale mais les affaires sont propres Let's get it Let's get it vers le sommet Let's get it faire d'la money, yeah Tout pour le nerf de la guerre, yeah M'arrêter, je ne peux guère, bitch Tall Viens faire un petit tour dans les froideurs de mon coeur Ces rappeurs sont pétrifiés de peur Je ne mourrais que pour l'biff ou l'honneur Accélération dans la surface Je laisse la moitié de ton équipe Telles des bitches, jambes écartées L'bénéfice et mes vices sont irrésistibles Pourtant je ne suis pas censé craquer Calomnies, moi je te lobotomise Ne nous fais pas croire que t'as été dur toute ta ie-v Et rumkakatchoum, katchoum, katchoum Tu vas retourner nous danser le logobi Oh shit! Mes gars se défoncent le crâne Oh shit! J'ai saigné le cavu du rap Oh oui ! Leurs phases et leur style de pacotille Ne pourront pas nous faire de mal J'écoute ton single J'coupe à 20 secondes ou à 22, mais c'était pas mal Un bon flow, de bonnes phases... Non j'rigole, ça pue sa mère Tall Le bruit court que le public a pu douter de moi Je vais les taper, les caner, tous leur faire péter des câbles Wati B, Indéfini, c'est Shin Shekaï, MotherFucking Tall Yeah, yeah, yeah, yeah La roue tourne et les balles du barillet aussi Papapapapapapa! Mon fils, j'suis sur le champ de bataille Ne me demande pas Où t'es papa? J'plais à la copine d'la copine qui a rotte-ca le gava du gava, sorry Tu grattes le snap de deux trois folles qui s'enjaillent sur mes sons dans leur story Parigo un jour, Parigo toujours J'vais pas te baffer, mais j'te tiens en joue La mala, la mala, tout ça est en nous Viens trainer chez nous, tu comprendras un jour J'suis toujours le même, j'ai toujours le mort, plus en chien J'fais le tour d'la France, je perds pas le nord Les anciens m'ont validé fort, va niquer tes morts Elle veut que je l'aime, elle va m'jeter un sort Oh shit! Elle a ses gles-rè mais manque de pot Je lui mettrai pas dans l'vuca Les shmitts Parloir, mandats, promenades Tu sais, moi, j'ai trop connu ça conneries Parlez, parlez, parlez, parlez Les bruits de couloir, tout ça n'm'atteint pas gole-ri Abou Debeing et Debeinguerie se tapent des barres sur leur peura1</t>
+          <t>Stan-E Music, bonjour Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît T'es loin d'avoir le boule de Amber et tu chipotes pour ton number Va là bas avance sans peur, bouteille chicha ambiance de clubber On dirait t'es venue te faire un nom, et zehma tu ne veux pas te joindre à nous Ambiance tout le monde veut faire le youv mais le youv lui n'est pas du tout dans l'ambiance Y a mes rebeus, renoi, miss. Twerk ! Peut-être que nous on est matrixés Même sous champagne on arrive à pister, les gros yeux t'ont vus tu les a fixés Ah ! Dégage, pas là pour du love my nigga Tu verras pas le black qui béggaie, si j'me lève et sors du VIP c'est tout le monde qui técal Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît Appelle moi le passeport qui te fais glisser dans la te-boî, pour rentrer mes gavas comptent sur moi Si tu veux des teilles-bou pour remplir la ble-ta j'ai le billet facile compte sur moi Si tu pètes un ble-ca sur la cambrure de ce cavu pour le numéro tu comptes sur moi Si t'es en manque de pas jette un oeil sur la piste et tu verras les négros pompent sur moi Tu m'as surement déjà vu dans la capitale, de la street au shtar tout est radical C'est du business boy rien d'amical, elles veulent soutirer le biff de l'animal Ok, j'suis très calme quand il faut, mais j'peux te brah brah si il le faut On est ensemble j'te le promets, fais comme chez toi ici tout le monde nous connaît Ce soir j'suis en mala j'fais comme si j'connaissais personne mais Tout le monde me connaît tout le monde me connaît J'peux pas m'empêcher de casser la démarche, celui qui me casse les couilles je le démarre nigga Tout le monde me connaît tout le monde me connaît Elle fait comme si elle ne m'a jamais vu fait la belle fais, fait la m'as tu vu tchip Tout le monde me connaît tout le monde me connaît Sans même le savoir tu m'connais Stan-E Music sois pas étonné Black M laisse moi les cogner J'vais leur faire du sale là, j'vais retourner Paname, préviens tous tes gavas, j'fais des sons qui fracassent Je t'ai vu bouger ton gros tard-pé sur mes sons, comment ça tu connais pas mon nom Stan-E Music, tu vas dire il est trop aaw, la concu va se perdre dans mon monde Stan-E Music, magnum pour tout le club, motherfucker Oui j'ai le biff et les filles et ma clique dans le VIP, renoi tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Tout le monde me connaît Ce soir j'suis en mala Tout le monde me connaît J'peux pas m'empêcher de casser la démarche Tout le monde me ouh ouh Elle fait comme si elle ne m'a jamais vu Fais comme chez toi ici tout le monde nous connaît Tout le monde me connaît Tout le monde me connaît2</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pour toi</t>
+          <t>Un de perdu</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Abou Debeing, est-cque tas ça toi ? Debeinguerie T'as ça toi ? La Beinguance Est-cque, est-cque tas ça toi ? Wati B Tas ça toi ? Tas ça toi? Dawala Tas ça toi ? Est-cque tas ça toi ? Joss Stinson Tas ça toi ? Est-cque tas ça toi ? Scalaprods Tas ça toi ? Est-cque t'as, est-cque tas ça toi ? Tu dois longer les murs dans tier-quar, viens pas faire le gros bras, ici on va thagar Sinon nous on splaint pas demande à Philippe Un tacos, en condition physique Toujours un temps davance cest Paris Champions en titre combien tu paries ? Combien tu paries ? Serge Aurier cisaille le petit, prends toi un carton pour sauver notre équipe Jai dit cisaille le petit, découpe-moi le petit Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? La meilleure peu-peu vient de chez nous Le meilleur te-te vient de chez nous On va pas tvi-ser si tes chelou Ah, toi là tes chelou Les meilleures ambiances elles sont chez nous Les meilleures tes-boî elles sont chez nous Guette le pas ddanse, nous on peut te cher-cou Tu veux dla violence ? Tu viens chez nous Du lundi au lundi cest parti Même les Marseillais viennent coller sur Paris Colle la petite, traumatise la petite Dévore la petite jusquà tas plus dappétit Je reprends cible ta petite, ensuite, engage ta petite, colle ta petite, et puis traumatise la petite Tu la vrou vrou, tu la vrou vrou, tu la vrou vrou, tu vrou vrou la petite Calcule pas les autres, cest des jaloux Dans le coffre, ya le joujou au cas où Paris cest ma maison, lArc de Triomphe cest mon coussin Nadine Morano a raison jsuis pas Français, jsuis Parisien Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? Bon, il est quelle heure là ? Cest lheure du crime Loti follow me, cest pour toi Allez, allez, allez, allez Allez, allez, allez, allez Les Champs Élysées, tas ça toi ? LArc de Triomphe, tas ça toi ? Le Trocadéro, tas ça toi ? La Tour Eiffel, est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas ça toi ? Tas ça toi ? Tas ça toi ? Est-cque tas, est-cque tas ça toi ? News Café baby, tas ça toi ? Le Milliardaire, tas ça toi ? Le Cristal, tas ça toi ? LAlizé Club, tas ça toi ? Le Vendôme, tas ça toi ? Le Select, tas ça toi ? Libertalia, tas ça toi ? Le Hobo Club, tas ça toi ?</t>
+          <t>La famille, rien a changé J'suis sorti du placard et j'me suis rangé T'étais mon re-frè mais parlons français Aujourd'hui, on est comme deux étrangers J't'ai donné mon dos, t'as tenté de m'étrangler T'as pointé ton gun vers moi mais t'as tremblé Le pardon, c'est pour les humains Espèce de chien, t'auras pas l'mien Trahi par un pote, qui en fait, était une pute qui voulait m'baiser T'as voulu faire le fort, ouais t'as voulu faire le dur T'as finis blessé Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés T'étais pas un pote, nan J'leur ai dis t'étais une pute On a baissé ton froc, nan T'avais rien dans le fute J'suis encore sous le choc Du sommet, j'ai vu ma chute Ah chut ! Plus la peine de jouer de la flûte Balayé de ma vie, si j'te vois je n'sais pas si j'pourrais t'laisser Tu veux faire le fort OK tu veux faire le dur, tu vas finir blessé Un de perdu dix de retrouvé x4 Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés Un de perdu, dix de retrouvés2</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Quartier</t>
+          <t>Un jour de moins</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Au quartier, c'est la hess qui t'met le brolique sur la tempe yeah à la cité, a la tess, dans le tieks Tu veux baigner dans l'banditisme, faut qu'tu saches où tu trempes yeah tu fais la caill', tu fais le gang, tu fais le youv On n'est pas d'la même catégorie, on n'est pas d'la même trempe yeah toi et moi, c'est pas la même non non J'voulais pas t'foutre une crampe mais j't'éteins si tu t'trompes yeah pah pah pah pah pah À la base, c'était des potes, enlève le O tu mets un U, au final c'est que des putes, j'm'en bats le couilles de ta reput' J'm'en bats les couilles de qui tu es, j'm'en bats le couilles de qui te crain Si t'es plus dans ma ville wallah c'est qu't'as loupé le train Quand j'suis posté en GAV, j'pense à ma dernière bédave, j'pense à ma dernière criave, j'pense à ma dernière pétasse J'pense déjà aux arrivants, negueus les putains d'mort vivant J'pense déjà aux bâtiments, les m'tons et leur déguisement J'pense déjà aux coups d'coudes, j'pense déjà aux coups d'couteau J'pense déjà aux gouttes d'eau qui coulent dans les gouttières J'pense déjà à la promenade, écrire des putains d'couplets Avoir trois fois douches par jour, le foot, la muscu', l'complet J'pense déjà aux tas d'pack qu'j'vais mettre à c'lui qui va jouer J'pense aux bâtards qui vont dire c'est bien de banguer et croué J'pense déjà au tar-mi, les cinq prières, le tapis J'pense déjà au parloir et quand j'vais voir ma ra-cli Nique sa mère, ton daron, ta tente, ton oncle Le quartier nous pourri mais c'est là qu'on s'nourrit d'cette merde à la cité, à la tess, dans le tieks J'sais rien faire à part bibi, j'sais rien faire à part casser des gueules fauche droite, middle, coups de coudes C'est c'que j'pensais étant petit, j'ai vu qu'c'était différent ma gueule ça a gé-chan, ça a changé, ça change Trente piges, mili, mili, mili ma gueule j'en veux un, j'en veux deux, j'en veux trois Oui y a toujours l'automatique en cas de 'blème ma gueule pah pah pah pah pah Ferme ta gueule</t>
+          <t>L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise Si tu veux savoir qui je suis, essaie de me soulever sur mon plumard Si tu veux savoir où j'en suis, j'en suis 300 000 euros plus tard Ils ont vendu la peau de la Beingance, avant de l'avoir débeusser Lave pas ton linge sale en public, si tu veux pas te faire repasser Oh, Givenchy, c'est la vivance quant à chez choi, c'est la jouissance Elle est attirée par la puissance moitié affaiblie par la cuissance T'as des doutes sur ta go, donc tu la fais pister par un de tes gars les plus fidèles Tu pensais que tu portais le caleçon pendant qu'on lui tirait le string ficelle L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise Après une nuit que des putrines, ne m'parlez pas de Cendrillon Nous sommes bien avant la naissance depuis que je suis embryon Garde à vue, dépôt arrivant, et ça, même quand je suis innocent Libère Abdari chez Vuitton je me soucie plus d'savoir, ça fait bien con Les jeux sont faits, les dés sont pimpés à quoi bon, ça va être réglo Un pied au loulou dans le showbiz un pied en pierre dans le bendo Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive Je connais pas son nom, ni son CV, mais je sais très bien c'qui la motive L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise La caravane est remplie d'espèces les chiens aboient, les terrains se taisent Avec des si, tu refais le monde avec des scies, on découpe des têtes Alcool, joint de beuh, jour de fête un verre de trop, tu découvres les traîtres Un jour de plus, un jour de moins je vis aujourd'hui, j'mourrai demain La vie va si vite, petit frère, aussi vite qu'une partie de jambes en l'air Je suis pas venu pour marquer l'histoire, mais mon histoire va les marquer L'ennemi veut savoir combien je pèse et elle, elle veut savoir qui je baise5</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Quelqu’un</t>
+          <t>Vérité Générale (Debeinguerie #2)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>T'as du biff, t'es quelqu'un T'en a pas, t'es personne T'as du biff, t'es quelqu'un T'en a pas, t'es personne Deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ils se posent des questions Nous, on pose des bouteilles J'sais pas quand j'vais quitter ce monde Mais j'sais que j'dois faire de l'oseille Ah, Maman a mal au dos et ça m'fait mal au cur J'vais essuyer tes larmes et ton honneur J'vais leur faire vivre une horreur L'argent c'est le pouvoir La serveuse est bonne, je laisse un pourboire Quand j'rentre chez Vitton, j'ressors equipé Jeune black friqué, t'as d'quoi me tchiper Rien ne fera disparaître les négros Ni les keufs aux States, ni le tchoko Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent On vient d'la street nous, bâtard Toi, qu'est-ce que tu connais ? J'ai cherché, j'ai cherché mon chemin, j'ai failli me paumer Vas-y trinque à ma santé, y'a du dompé' à gogo J'ai de quoi mettre du coco, j'suis plus vendeur de co'-co' Ah, Showcase complet, j'suis aiguisé poupée J'ai du cash, j'ai ma CB Pilon, chicha, feuille OCB, CB, OCB J'ai du cash, j'ai ma CB, CB, CB Elle est belle, elle est cambrée Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne Dans la vie, y'a deux catégories Ceux qui parlent, ceux qui agissent Ceux qui parlent, ceux qui agissent Ceux qui aboient, ceux qui rugissent Plutôt crever que toucher le RSA J'veux toucher des millions et j'parle pas d'CFA, CFA, CFA Plutôt crever que toucher le RSA Quand t'as du biff t'es quelqu'un Quand t'en as pas t'es personne, t'es personne, t'es personne Désolé, j'suis devenu quelqu'un</t>
+          <t>Toute ma vie, j'ai vécu des choses Mais j'en ai encore plus à dire Abou Debeing Eh steuplait, coupe-moi l'instru, coupe-moi l'instru Toujours éloigné j'ai toujours pris des baffes y'a toujours eu d'la casse Aujourd'hui c'est la tôle, y'a vingt ans d'ça c'était la DDASS Haine viscerale, dièses illégales, peine misérable Feigne inégale, règne intégral Drogue végétales, kiff équitable Et quand ça parle en litrons y'a des miss véritables Nous, on aime les mioches qui t'font les poches Qui t'font tomber les morches, on veut qu'les keufs nous torchent On t'vole ton Porsche tu morfles chez nous c'est moche Par ici, c'est Paris Est Ceux qui s'manifestent, vendeurs d'emphèt' on bouffera pas les restes J'veux m'reproduire, faire du blé pas être adulé Pour m'empêcher d'éjaculer faudra m'émasculer Élève du fond d'la classe élément perturbateur Un jet d'cutter et on t'change un instructeur en éducateur Un parcours mémorable, des choix pas très honorables J'ai compris qu'vivre c'est une vérité générale J'parle de rue donc j'suis cru dans mes sons J'ai compris qu'vivre c'est une vérité générale J'perds mon temps, du biff et du sang J'ai compris qu'vivre c'est une vérité générale Chacun sa merde chacun son caviar J'ai compris qu'vivre c'est une vérité générale J'me fie au destin bats les couilles du hasard J'ai compris qu'vivre c'est une vérité générale Destin fataliste, tu veux qu'j'idéalise ? Devant la proc' j'ai besoin d'un pénaliste j'suis réaliste Trop d'fois pris dans les filets j'ai mis mon hat trick Une vie d'star j'signe pas des autographes j'signe des articles Si t'as pas compris j'répète on est des saloperies On préfère pourrir en son-pri qu'être libre avec le frigo vide On aime les filles jolies, la bave qui t'fige au lit Cocaïne à prix torride, kilos d'shit, p'tit bolide J'dis pas ça avec ironie, pour protéger leurs surs certains leur excisent le clitoris Des bastos dans l'corps, des torpilles dans l'paquebot J'préfère couler, que me faire mener en bateau Pes-stu, vols aggravés on en a bavé Sur l'pavé, tape un bravé avant d'se gaver Dans ma cellule j'fais des pompes j'affûte ma silhouette Laisse parler ces girouettes j'vais leur faire faire des pirouettes Y'a une diff' entre c'que t'as fais, et c'que t'aurais pu C'qui est sûr affamés corrompus finissent les os rompus On sait comment ça finit une fois qu'c'est parti Bluffés par les tunes et pris dans les griffes des harpies Incarcéré trop jeune j'ressens comme un gêne Quatre siècles de chaînes la vie une chienne j'ai ça dans les gênes J'aiguise mon shadow, j'accumule les brouillons À quoi sert d'être bruyant, quand ça part en brouille-em ? Silencieux règle tes contentieux n'aies rien d'prétentieux Pète un coup, et belek à pas laisser des traces de pneus Argent baise ou crime c'est notre ABC C'est soit tu mets la fessée soit on va t'rabaisser J'ai compris qu'vivre c'est une vérité générale Voilà, la meilleure leçon d'vie Tout est dit Debeinguerie2</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Quitter</t>
+          <t>Wari</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Maes - Booska C - 0601 Kekra - Booska Césarienne - 0601 Max Paro - Critical 0801 Elams - Elams et les 40 voleurs - Épisode 2 - Lyon ft. ISKA, Pouya ALZ, Big Ben, Sasso Miro Starf - 0801 Hornet La Frappe - C'est mort ft. Leto RK - 0901 Leonis - Apollo - 0901 Les Alchimistes - Personne - 1001 Luv Resval - Side - 1001 Scridge - Ghetto ft. Landy - 1501 Doni M - Zig Zag - 1701 AM La Scampia - Fais-le - 1701 Gambi - Dans l'espace ft. Heuss L'enfoiré - 2201 La Fouine - Première fois - 2201 S.Pri Noir - Dystopia - 2301 Captaine Roshi - Opération CDL ft. Black D - 2301 Chily - Tout est calé ft. Koba LaD - 2301 D.Ace - La vérité - 2301 ISK - Garantie - 2301 Josman - Petite Bulle - 2301 Le Club - La maille - 2401 Benab - J'ai demandé à la rue - 2401 Damso - veillé - 2401 DTF - Baida - 2401 DTF - Maria - 2401 Laylow - TRINITYVILLE - 2401 LMB - Ça dit quoi poto - 2401 Timal - Routine - 2701 Naza - Souris verte 2901 Hache-P - Arès - 2901 Dika - Cur glacé ft. Sadek - 2901 Shotas - Compton - 2901 7 Jaws Seezy - Turbo S - 3001 Bolemvn - Frappe atomique - 3101 Bosh - Cur noir - 3101 Chily - Booska KushCoffee - 3101 Driks - Couleur ébène - 3101 Dry - Atlantis 1 - 3101 Graya - Dans la Cristaline ft. Naps - 3101 Hugo Nogam - Histoire sans fin ft. Dadju - 3101 Jok'Air - Jok'Chirac - 3101 Jok'Air - Sa mère aux mères ft. Diddi Trix, Sadek, Luv Resval Alkpote 3101 Kader Diaby 4real - Venez voir - 3101 Kekra - Comment on fait là ? - 3101 Kofs - Santé Bonheur - 3101 Marwa Loud - Allez les gros ft. Naza - 3101 Paolo - Comme un glaçon - 3101 Seizur - Ma gow - 3101 Vin's - Égalité - 3101 2zer - Balle perdue 5 - Blood Diamonds Février - 0202 Kikesa - Elle sait - 0302 Liim's - Favelas - 0502 USKY - Douce folie ft. Doxx - 0602 CG6 - Bizness - 0602 Sofiane - Training Day - 0702 Brvmsoo - Sale boulot ft. 4Keus - 0702 David Okit - Belek 0702 Gato da Bato - Ma vie - 0702 GLK - Maudit - 0702 Kaza - 3.5.7 - 0702 Meryl - TCQDOF - 0702 Soolking - Meleim ft. Dadju - 0702 YL - Larlar 2 Tennessee - 1002 Landy - Brave III Freestyle - 1202 ZKR - On se comprend ft. DA Uzi - 1402 Eden Seven - Dîner ft. Zed - 1402 Kofs - Embourgeoisé ft. Kaaris - 1402 Lujipeka - Palapalaba - 1402 TK - Benalla - 1402 T2R Minissia - Mariage 1 - 1402 Popey - Tchop ft. Sadek - 1402 Savage Toddy - AHAH ! - 1402 Zoupouti - Lolipop - 1602 Balao - Or brut - 1702 Sneazzy - Feu régulier - 1902 Barack Adama - Sirène - 2002 Naps - 6.3 ft. Ninho - 2002 Sofiane - Des malades - 2102 Abou Debeing - Meilleurs ft. Tayc - 2102 DA Uzi - Le dire ft. Maes - 2102 Dosseh - L'odeur du charbon Remix ft. Maes Dinos - 2102 Jok'Air - Ne pleure pas 2102 K.R.K - La maille - 2102 Sifax - Reste un bandit - 2102 Soolking - Marilyne ft. SCH - 2102 Timal - Week-end ft. Leto - 2102 ZeGuerre - Freestyle SixNueve 2102 2zé - Zézon - 2602 Soso Maness - DDD ft. Hornet La Frappe - 2702 Bekar - Aléas - 2702 Ninho - M.I.L.S 3 - 2702 Senyss - Bad Mama Jama - 2702 - Sneazzy - À quoi tu joues ? - 2802 Alonzo - Freestyle GG - 2802 ALP - Dernier vol ft. Niro - 2802 DJ Erise - TECO ft. Franglish 2802 Dry - Atlantis 2 - 2802 Green Montana - 6AM - 2802 Gros Mo - Rouler GZSC - 2802 Hatik - Encore - 2802 Sam's - Validé ft. Lacrim - 2802 SDM - La zone ft. Booba - 2802 Yanslo - Oublier Mars - 0103 Balao - 9 carats 37,5 ft. Salek - 0403 Shotas - GF - 0403 ZeGuerre - Corsé 7 - 0503 Dika - Enfant du block ft. Naps AM La Scampia - 0603 Rim'K - Valise ft. SCH Koba La D - 0603 GLK - Mauve - 0602 Haristone - Overdose 0603 K.R.K - Saint-Honoré - 0603 Kekra - Putain de salaire - 0603 LMB - La bringue 1 Plan B - 0603 Nseven7 - OTT2 - 0603 Onze - 11.2 - 0603 R.E.D.K. - Le Block - 0603 Soso Maness - So Maness - 0603 YL - Larlar 3 Copenhague - 0603 Zoupouti - Lollipop Remix ft. Diddi Trixx, NoName Laskiiz - 0903 Booba - CAVALIERO - 0903 Hös Copperfield - La route est longue - 1103 PSO Thug - Ça parle mal - 1103 4Keus - Wakztoubi 3 - 1203 Abou Tall - Bosser 1203 Elams - Elams et les 40 voleurs - Épisode 3 - Paris ft. The S, Mamso, Mous-K, OR, ALP, Bosh Dabs - 1303 Brvmsoo - Bénéf ft. Dinor Rdt - 1303 Denzo - La sacoche ft. Koba La D - 1303 La Malfrappe - Dans ma folie ft. Timal 1303 Le R - Moon ft. Brvmsoo - 1303 Shro - Tout va bien - 1303 Tuerie - Low - 1403 L'Allemand - Hors série C - Bizarre - 1503 Balao - 14 carats 58,4 - 1603 Big Ben - Petit bateau - 1703 Dinor Rdt - Minimum ft. Naza - 1803 Barack Adama - Vu - 1803 Guette l'ascension - Porte tes Couilles 3 ft. Tisco, Kenedy, Tvmo Nesko - 1903 Bosh - Business ft. SCH - 1903 Kalash Criminel - Pronostic - 2003 DA Uzi - Booska New York - 2003 Key Largo - Comme un ouf - 2003 Liims - Dans la tess - 2003 L'As - Distances ft. Lacrim - 2003 Max D. Carter - Yvng Læn - 2003 Rohff - T'as capté TCT - 2003 Twinsmatic - GROSLOT ft. 13 Block Koba LaD - 2303 Big Ben - Palerme - 2403 Benab - Kif Kif - 2503 Hugo TSR - Périmètre - 2503 Leto - Double Bang 9 - 2603 Bosh - Défilé - 2603 Keblack - De quoi tu parles - 2603 JuL - Sousou - 2603 Savage Toddy - Règlement Gang Freestyle - 2603 26 Keuss - Levi Strauss - 2703 DA Uzi - Autre part - 2703 Diddi Trix - Quoi d'neuf - 2703 Green Montana - Séquelles - 2703 Gros Mo - Résistance GZSC - 2703 Les Frères Lumières - Adal 2 - 2703 Koba La D - Ça ira mieux demain - 2703 Rohff - Solo - 2703 Yanslo - Ntiya ma vie - 2803 Hös Copperfield - Libanda - 3003 Doria - Calcul - 3103 Zoupouti - Oulalala Avril 0104 Dr Yaro La Folie - Je deviens fou Freestyle - 0104 Fetiche - Freezer - 0304 A2H - Angoisse - 0304 Luv Resval - 696 - 0304 Rohff - Tous à labri - 0304 Shro - Yankée Öko - 0304 Vin's - Sur mon trottoir - 0304 13 Block - BOÎTE 6 40 KIL - 0504 Young Tomy - L'hiver arrive - 0804 Zesau - Dans le noir - 0604 DA Uzi - Flashback - 0904 DJ Erise - Monte en lair ft. Naza - 1004 Bolemvn - Comment ça va ? - 1004 Gros Mo - Maria GZSC - 1004 Moha La Squale - On roule - 1004 Mister You - Casanostra ft. 3robi - 1004 S.Pri Noir - T'as capté ft. Sneazzy Alpha Wann - 1104 Naps - KNK ft. Kalif Hardcore Kikou - 1604 Didi B - Assinie Remix ft. H Magnum Lefa - 1604 Hoos - Allô - 1604 Médine - EXOMÉDINE - 1704 Alrima - Tcha tcha tcha - 1704 Elams - Bandida - 1704 Guizmo - Lamine - 1704 Kalash Criminel - Dans tous les sens - 1704 KPoint - Boule magique - 1704 L'Algérino - La vida ft. Soprano 1704 NoName - Bah oui Anoname 5 - 1704 Onze - Tout va bien - 1704 RK - F.A.C - 2204 Sifax - Charlemagne ft. TK - 2204 Skaodi - Que des mots 2204 The S - Old Up 3 ft. Popey, Key Largo, Dika, ISK, COR, Cheu-B, Moha K, Kazmi, Decimo, SLK, NKD, BKL, RBK - 2204 2zer - Balle perdue 6 - NMI - 2304 Tayc - Léwé - 2404 Bramsito - Medusa - 2404 Oboy - Rémus - 2604 Big Ben - Comprends-moi - 2804 Marty de Lutece - Brûler ft. Brö - 2804 Naps - Il rôde - 2904 Bekar - Soleil s'allume - 2904 Lossa2squa - Hinata - 2904 OM La Compo - cOMbat quotidien ft. Kemmler, Hatik, Zamdame, Relo, Saïd, DRIME, AM La Scampia R.E.D.K. 3004 ALP feat. Yaro Graya - Ganté - 3004 Klub des Loosers - Battre - 3004 La Cour de Récré - Règlement Fitness Freestyle Mai - 0105 Big Dada - Tout va bien ft. Noxious - 0105 Bolémvn - Prends ta monnaie ft. RK - 0105 LMB - Ice Vision - 0105 Michel - Tejla 0305 Beeby - Répondeur - 0305 Narkonic - Malabar - 0505 Soso Maness - Mistral - 0605 Kodes - William Thomas Freestyle - 0605 The Hop - Berline noire ft. Jazzy Bazz Krisy - 0705 Ashkidd - HOLÀ - 0705 Chanje - Casper - 0705 Naps - Fais le bisou - 0705 Naps - Poropop Remix ft. Soolking, Sofiane Kliff - 0705 PLK - Hot16Challenge2 - 0705 San-Nom - Barbapapa - 0705 SDM - À l'affût - 0705 Youri - Règlement Gosse Freestyle - 0805 Chilly - Dans mon barrio - 0805 Larry - Routine - 0805 Luv Resval - Thor ft. Diddi Trix - 0805 Lyonzon - Confinato - 0805 Max Paro - Ma belle - 0805 OldPee - FER - 0805 Yuzmv - L'exil - 0805 Zola - Bro Bro - 0905 JuL - Fait d'or - 1205 Booba - Jauné ft. Zed - 1405 Abou Tall - Mona Moore 1405 B-NØM - Règlement Bêta Nu Freestyle - 1505 Artik - Netflix - 1505 Beny - Antipop - 1505 Bolémvn - Sentiments 1505 Hamza - 140 BPM - 1505 Hooss - Vie de rue - 1505 Kalash - Toujou la - 1505 Matou - Grosses sommes ft. PLK - 1505 OBOY - Kenzo ft. Harley Moko - 1505 Scylla - Sales mômes ft. Furax - 1505 ZeGuerre - Shoot 1505 Zidi - PASSÉ - 2105 Huntrill - Fk La Drill - 2205 Amin - Elle 2205 Bolémvn - Booskateuf Freestyle - 2205 Bramsito - Criminel ft. Niska - 2205 Diddi Trix - Toujours - 2205 Gros Mo - Minuit pile - 2205 Guti Gutss - Gutti World Non - 2205 Marty de Lutece - Nudes - 2205 Zed Yun Pavarotti - Lalaland 2305 Guy2Bezbar - La callé - 2405 Abdxxl - Planète - 2405 Kikesa - Je danse comme ça 2405 Moha La Squale - Paris 2705 Badjer - CestCarre Dans laxe - 2705 EDGE - Obsolète 2705 H Magnum - Gatement - 2705 JuL - Folie 2705 Petit Voyou - C'est l'été - 2805 Dajak - Phonecall 2805 Richi - Règlement TLJ Freestyle 2905 ALP - Police - 2905 Denza - Audemars Piguet - 2905 Franglish - Biberon ft. Leto Tiakola 2905 Goulag - OPOP - 2905 Green Montana - Les ennuis - 2905 Hatik - Ali - 2905 Krisy - Je t'aime encore - 2905 L2B Gang - Trahison - 2905 Moubarak - En Clio - 2905 RK - SOS - 2905 Soso Maness - BOOSK'AAARAH - 2905 Vin's - PCGPCP 3105 Moha La Squale - Basta - 3105 Sese Kepler - Gang Shit 7 Guantanamo ft. Leto Juin 0106 Worbhé - Dowpe 0306 Djalito - Virage - 0306 Luv Resval - Molly - 0406 La Cour de Récré - Speed 0506 A2H - Aime-moi encore - 0506 B-NØM - Ce soir - 0506 Chily - Bendo - 0506 DJ Weedim - Je vous aime ft. Reta - 0506 Lacrim - Booska R4 - 0506 Le Juiice - MATIN 0506 Nino B - Millions - 0506 RK - Freestyle Neverland 1 - 0506 TK - Salam - 0506 Zikxo - Tout ou rien 0506 K.R.K - Tous les jours - 0606 Ziak - Quatre 0806 Juicy P - NLBLB - 0806 Moha La Squale - Chez Babou - 0906 Yannou JR - OG - 1006 Guette l'ascension - Porte tes Couilles 4 ft. Poulaxe, Skodri, Biscuit Tisco 1006 Joysad - Booska Périgueux - 1006 Sifax - Mecs de cités - 1106 Lujipeka - Booska Ozone - 1106 Norsacce - 4 saisons ft. Freeze Corleone - 1206 Benab - Sourire ft. Maes - 1206 Coyote Jo Bastard - Hoodboy - 1206 Doria - Tempo - 1206 F430 - California - 1206 ISK - Fazer ft. YL 1206 Juicy P - Piloter ft. KPoint - 1206 Kalash Criminel - Écrasement de tête - 1206 Klem Schen - Vision différente - 1206 Lacrim - Allez nique ta mère ft. Soso Maness - 1206 Landy - Aucune limite - 1206 Le Sid - Bouré.e ft. Nelick - 1206 Lpee - London - 1206 Mister You - Pénurie - 1206 Nahir - Fin de partie - 1206 RK - Freestyle Neverland 2 - 1206 Slim Lessio - Ah fou - 1206 Tovaritch - Booska Poutine - 1506 Moha La Squale - Amsterdam - 1506 Vendredi 13 - Second psaume - 1706 Biwaï - Awe - 1706 Gazo - Drill FR 4 ft. Freeze Corleone 1706 Jo Le Phéno - Bavure 3.0 - 1706 Sotof - BST 1806 Fiji God - Règlement PLM Freestyle - 1806 Gambi - MACINTOSH - 1906 DIL - Vengeance - 1906 HZY - Jack Sparrow - 1906 Jewel Usain - CTRL - 1906 Klem Schen - Vision claire - 1906 LauCarré - Dans le game - 1906 Le Juiice - MIDI - 1906 LMB - La bringue 2 LVDLF - 1906 San-Nom - Saucisse - 1906 Savage Toddy - Décisions - 1906 thaHomey - Lundi Mardi 1906 Tisco - Mascarade ft. Biscuit - 1906 Toma - Parcours 1906 YKM - Pochtar 2006 Almeida - Iceberg - 2106 Ibrak - GAVA 2106 Rouhnaa - Twitter 2106 TiiwTiiw - FOLLE DE LUI ft. Lacrim - 2106 TripleGo - BRRR 2206 KLN 93 - À 200 - 2206 Senamo - 7Up 2206 Shro - Inshro - 2306 TK - Premier pas - 2406 DJ Weedim - Rends l'argent ft. Stxck Mv, A2H, Youri San-Nom 2406 Jaekers - Vaisseau 2406 Popey - Besoin d'elle ft. Dabs 2506 ALP - Boosk'ALP 2506 Tonio le Vakeso - Pirogue - 2606 Dabs - STOP - 2606 Dante Sito - Johnny Interlude - 2606 Doxx - Ailleurs - 2606 Eden Seven - Trashboy - 2606 Elh Kmer - Cours - 2606 Franglish - Mauvais garçon Remix ft. Kaaris - 2606 HMZ - Choupetta ft. Sofiane Heuss L'enfoiré - 2606 Hös Copperfield - Léwé - 2606 Joysad - Californie - 2606 Key Largo - M'en sortir ft. 4Keus - 2606 Kikesa - Mort de rire 2606 Lasco - Funk petit - 2606 Les Frères Lumières - Si si si ft. Bosh - 2606 Leto - Paris c'est magique - 2606 Lord Esperanza - Couronné - 2606 Paolo - AQB - 2606 RK - Euros ft. Maes 2606 Swift Guad - Habité par le Diable - 2606 Zefor - L'Homme Mystère - 2606 ZKR - Freestyle 5min 8 - 2806 Django - À l'envers - 2806 Moha La Squale - Bébé de Bogota - 2806 Swift Guad - Épicurien 2906 KRK - Ohoh 3006 Bayssou - Coup de girafe - 3006 Bekar - En principe 3006 Niaks - Drilluminati, Pt.1 Juillet 0107 2CheeseMilkShake - Croix rouge ft. Biffty, Julius On The Wave 21Souyard 0107 S.Téban - Le Code ft. JMKS 0107 Souri B - Quedlabonne 4 0107 TK - Dans la gova 2.0 0107 ZeGuerre - Zé ft. Sofiane 0207 Kalash - Plus de love 0207 Lartiste - La chanson 0307 2TH - Solo - 0307 AM La Scampia - Bingo ft. Hatik 0307 B2L - PTD 0307 C.O.R - Pas net ft. Sofiane - 0307 Kaaris - Goulag - 0307 Kalash Criminel - Peur de personne - 0307 Koba LaD - Laisse tomber - 0307 Lyonzon - Flamengo - 0307 SDM - Yakalélo 0307 Souli - L.S.O.L.A ft. Diddi Trix - 0307 Yanso - Everyday - 0307 YL - J'me casse ft. Naps - 0607 Alkpote - Booska'Pétrole 0607 Worbhé - Dans le bat' - 0807 MS13 - Fait monter la bête - 0807 SEB - Flemme 0907 L'Allemand - C'est chaud - 1007 A2H - Hors de ma vue - 1007 Jolly - KATANA ft. Kpri - 1007 Kanoé - Mouv' du boug - 1007 Krilino - Habibi - 1007 Michel - Ouais c'est grave ft. Hatik - 1007 Niska - Bandit chef ft. Madrane - 1007 Noname - Ice - 1007 PLK - C'est mort - 1207 Deeloc - JACKIE ft. Key Largo - 1207 Moha MMZ - Paranoïack 1407 BFG - Makossa - 1407 Booba - Dolce Vita 1507 2CheeseMilkShake - Pourquoi ? 1507 Djadja Dinaz - Freestyle Pays-Bas 1507 Djalito - En règle 5 1507 TK - La night ft. JuL - 1507 Naza - La musique est bonne ft. Heuss L'enfoiré - 1607 Denzo - Booska Atroce - 1607 Leonis - Freestyle Blue 1 - 1707 Alonzo - OOP - 1707 Benab - RS3 ft. Timal 1707 Chily - Complètement rebanav 4 - 1707 Dabs Fashion ft. Kaza 1707 D4R - Teudger 3 1707 Guti - Gutti world 2 - 1707 Jolly - Zone 51 ft. Freeze Corleone - 1707 Mac Tyer - Moto ft. Ninho - 1707 Norsacce - Headshot 1707 Popey - Loin - 1707 Vendredi 13 - Kaiju 1707 Youboy - Mal luné 1 - 1907 LVZ - Meda - 2007 eden dillinger - FREESTYLE 2Ø2Ø 2007 Hermano Salvatore - Abuela 2207 Koba LaD - Freestyle Quartier - 2207 Squidji - Feeling 2407 100 Blaze - Dans le club 2407 Amar Makaveli - Sky ft. Chilla 2407 Arma Jackson - La boussole - 2407 Cheu-B - B.S.E Le Sky 5 2407 Dinero - Faut consommer ft. 4Keus - 2407 Doria - Pas le choix - 2407 GLK - Maracanã 2407 King Doudou - Sous les balles ft. Marty de Lutece 2407 Lacraps - Tah les bombes - 2407 L'As - Hôtel 2407 Lord Gasmique - 1 000 000 2407 Momsii - Tard la night ft. Timal 2407 Nahir - Danilo 2407 Rim'K - Warning - 2407 Sam's - Mec de mon bâtiment ft. Aboudou - 2407 Savage Toddy - Hood ft. Luv Resval 2407 Slimka - Slide 2407 Vegedream - Marchand de sable Part.6 Gestuelle 2407 Zidi - Toxic ft. Assy - 2407 Zoupouti - Tempête - 2607 Kikesa - Toujours en retard 2707 Freeze Corleone - Desiigner 2707 Key Largo - Miam miam 2707 RK - Booska 1H - 2807 Makala - M30 2907 2CheeseMilkshake - J'ouvre une cagnotte 2907 Black D - GESTU - 2907 Djadja Dinaz - Féfé lambo 2907 Djalito - En règle 6 2907 Frigun - Voyoucratie 2 2907 Kekra - Twisted 2907 D2T - Le sang 2907 Lazer MMZ - Jungle 2907 Sese Kepler - Gang Shit 8 - 2907 Shotas - Jaloux - 2907 Siriki - Présentation 2907 - Vin's - PCGPCP Remix ft. Demi Portion, Melan Les Frères Scotch - 3007 Deen Burbigo - Tout dedans - 3007 La F - Appel Masqué 6 - 3007 YL - Larlar 4 Air Bel Gang - 3107 Alonzo - Toi, t'es chelou ft. Landy 3107 Costa Lumni - Vérité 3107 Jaekers - Vert sachet - 3107 Kaaris - NRV - 3107 Larsé - Couronne - 3107 Lasco - Dis-le moi 3107 Leto - Nouveaux riches ft. Niska - 3107 Lorenzo - Fonsdé toute la night - 3107 Luv Resval - Smith Wesson - 3107 Michel - Je m'en ballek 3107 Nyda - Ghetto Août - 0108 Lucio Bukowski - Road Runner - 0308 Hatik - West Indies - 0308 Kanoé - Freestyle Orochimaru 0508 Kader Diaby 4real - Go 0508 Rowjay - ASTRAL DRILL - 0508 The S - Pupetta 0508 YZLA - Orage d'été I - 0608 13 Block - Tieks ft. Niska - 0608 Le Nine - FTB 7 ft. Abou Tall - 0708 C.O.R - La cité 0708 Josué - La jambe - 0708 Richi - Chorale ft. Youri - 0708 Sadek - Y en a - 0708 VSO - Dans le cur - 0708 Zesau - Anarchie ft. Freeze Corleone Stavo - 0908 Afro S - Cartouche 6 - 1108 F430 - Guap Summer - 1208 LuXe - Du Seigneur - 1208 Still Fresh - Tête-à-tête 1308 Jarod - Plus qu'avant - 1408 A2H - OG - 1408 Kaaris - Freestyle 2.7.0 1408 Lyms - Teaser 1408 Primero - Promenades 1408 Yanso Tawsen - La vida - 1508 JuL - Bande organisée ft. Elams, Ghetto Phénomène, Kofs, Naps, SCH Soso Maness - 1608 Shotas - La famille 1708 Leto - Booska 100 visages 1808 Kalash Criminel - A.D.N 1808 Kekra - Rolex HLM 2108 Sizlac - 45 ft. Dosseh - 2608 Petit Voyou - Immortel - 2708 Gazo - Inceste - 2808 Elh Kmer - Béni ft. Captaine Roshi - 2808 Heuss L'enfoiré - BX Land 5 - 2808 Jarod - 80's - 2808 Klem Schen - Mano 2 2808 Lacraps - Guerrier ft. Polva - 2808 VSO - Midi Mode - 2808 YL - Tout laisser 3008 Tonio le Vakeso - Orageux ft. Cenza - 3108 LuXe - La vie que t'aimes Septembre - 0209 Dosseh - Propagande 1 A 45 - 0209 Guizmo - Maman m'a dit ft. Nekfeu - 0309 Afro S - Woo ft. Kaki Santana - 0309 Frenetik - Infrarouge - 0409 Green Montana - Sale tchoin - 0409 Koba LaD - Beldia - 0409 Lyms - ISS - 0409 ZKR - Romance criminelle - 0409 Zuukou Mayzie - Survet Bayern Doc ft. Di-Meh - 0809 eden dillinger - OUIJA - 0909 Gringe - On aboie en silence - 0909 Ormaz - NOIR Freestyle 2 - 1009 Guirri Mafia - Comme un dream ft. SCH - 1009 Soolking - Rockstar 2 - 1109 2CheeseMilkshake - J'envoie des cheese - 1109 C.O.R - Clio - 1109 Harley - S.O.U.S - 1109 Maka - Etoile Makavelax 1 1109 Max Paro - Douane volante - 1109 Naza - Joli bébé ft. Niska - 1109 Ninho - Carbozo 2.0 - 1109 SDM - Titulaires ft. Koba LaD - 1109 SONBEST - Sad Love 1509 Graya - C'est la guerre ft. ZeGuerre - 1509 Niaks - Drilluminati Pt. 2 - 1609 7 Binks - Booska Bât 7 - 1609 A2H - Le cur des filles - 1609 Djalito - En règle 7 ft. Cheu-B - 1609 Makala - Hitman Go 1709 2G - Ma vérité ft. Mac Tyer 1709 Geeeko - Drunk ft. Coyote Jo Bastard - 1709 Jewel Usain - Bruce Lee - 1709 Spider ZED - C'est pas bien ft. Bigflo Oli - 1709 YG Pablo - Pandore ft. Tsew The Kid - 1809 Bosh - Trixma 1809 Elh Kmer - Rescapé Punition3 - 1809 GLK Pas sommeil - 1809 Hayce Lemsi Volts Face - Comme dit maman - 1809 Heuss L'enfoiré - L'ancien - 1809 La F - La violence ft. Freeze Corleone - 1809 Le A - Pas là ft. OldPee - 1809 Médine - Grand dla tess ft. Hatik 1809 Samy Ceezy - Cup ft. Tortoz - 1809 Samy Ceezy - S.A.M.Y - 1809 Sifax - Affranchis 1809 Sultan - L'amour n'est pas un jeu - 1809 Vendredi 13 - Majora 1809 Venlo - Là - 1909 Les Anticipateurs - SAPOUD 2020 - 2109 Hotel Paradisio - Cobra - 2109 LuXe - Circuit ft. Raptor X - 2209 1PLIKÉ140 - BATARD 4 - 2309 4keus - Tu nous connais - 2309 Bekar - Destinée - 2309 Hooss - Paid In Full 7 - 2309 Lacrim - Jacques Chirac - 2309 Rounhaa - Chromatyk 2309 ZeGuerre - Bolide - 2409 BKL - Gâchette R8 ft. Cheu-B - 2409 Dosseh - Place de l'étoile ft. Gazo - 2409 Hunter - Dessine - 2409 Koba LaD - 7 sur 7 ft. Freeze Corleone - 2409 Petit Voyou - En terrasse - 2409 Swift Guad - Anti-social ft. Cenza, Souffrance, Deadi, Davodka, Original Tonio Daddy Mory - 2509 DA Uzi - Boys Band - 2509 Gims - Immortel - 2509 Grems - HOSTEL PLAZA - 2509 Illustre - Type chelou - 2509 JNR - Une vie - 2509 Kobo - Barry White - 2509 Landy - Filon 2509 LauCarré - T'as compris l'truc ? - 2509 Lestin - Sunday Afternoon ft. Zed Yun Pavarotti - 2509 Matou - Neptune ft. Kikesa - 2509 Nahir - Fin de couplet 8 - 2509 Nusky - Naïf ft. Poupie - 2509 Rémy - Booska Sale - 2509 Roms - Roule - 2509 TLZ Clan - Monde onirique - 2509 Vegedream - Pour nous ft. Tayc - 2509 Zuukou Mayzie - Spike - 2709 Kikesa - Rêve encore - 2809 Criminls - War ft. Mezgo, Slim C, Freeze Corleone, RAS Power Genius - 2809 Hös Copperfield - Après la pluie ft. Leto - 2809 Népal - Dans le fond - 2909 Népal - Cheddar - 3009 Kekra - Manu milli HLM - 3009 Le Club - Coloré ft. Key Largo 3009 Max Paro - OMG - 3009 Népal - Coach K Octobre - 0110 Le Juiice - O NONO ft. Meryl - 0110 Népal - Même vie - 0210 Benab - Dounia - 0210 Chanceko - Malaboy 0210 Chicaille Argentée - Freestyle Signature 0210 Denzo - Bad Woo 0210 Dinaro - Fumette - 0210 DJ Kayz - Monte le son ft. Niska - 0210 Gazo - Drill FR 5 ft. Hamza - 0210 Guizmo - Enfumé ft. Soso Maness - 0210 Kaza - Pare-balles - 0210 Lycos - Dimension - 0210 Mous-K - Fais ta money - 0210 Népal - Benji - 0210 Ninho - La zone - 0210 Ninho - Problèmes du matin - 0210 Noname - SLT - 0210 Sid les 3 éléments - Shit - 0210 Soolking - Booboo - 0410 Luni - Sous ma veste - 0410 Rifa Samb - Danse avec les loups - 0510 Guy2Bezbar - La callé Part. 2 Remontada 0510 Hash24 - En plein cur - 0510 Popey - Imbécile ft. Dosseh - 0710 eden dillinger - BLESS - 0710 RK - Billie Jean Remix ft. Alonzo Timal 0710 Younès - Bientôt à la mode - 0810 Alkpote - Freestyle Règlement Baltimore - 0810 Deen Burbigo - Cerle vertueux - 0810 Médine - FC Grand Médine - 0910 Bigflo Oli - Au revoir 0910 Black-D - Fortnite - 0910 Chily - Téléphone 0910 Elh Kmer - Mélodie glorieuse - 0910 ISHA - Une maman qui pleure ft. Key Largo Jok'Air - 0910 ISK - Dans le réseau 0910 Lacraps - Ma noirceur 2 0910 Leonis - Méga - 0910 Max D. Carter - Hikikomori 0910 N'Seven7 - Skoll - 0910 Senyss - Spirit of Ecstasy 0910 Shotas - J'marche - 0910 Sper-K - Cash - 0910 ZKR - Poursuite ft. Koba LaD - 1110 Kanoé - BIZNESS - 1110 Lazer MMZ - Amore - 1310 RTT Clan - Travail d'ekip ft. Freeze Corleone, Norsacce, Doc OVG, Shaka, Kpri Black Jack - 1410 Captaine Roshi - BooskAttaque - 1410 Sofiane - American Airlines ft. SCH 1510 Geeeko - Rodéo - 1510 InnossB - Best ft. Damso 1510 Kenzy - Numéro 10 - 1510 Spider ZED - Overdose - 1510 Zuukou Mayzie - Règlement L.O.T.R. Freestyle - 1610 100Blaze - Ganja ft. 4Keus - 1610 4Keus - Sportback ft. Hornet La Frappe - 1610 AM La Scampia - Je m'isole - 1610 Doxx - Comme avant - 1610 Green Montana - TOUT GÂCHER ft. Booba - 1610 Guizmo - J'fais du rap - 1610 Kalash Criminel - But en or ft. Damso - 1610 Kemmler - Je veux tout - 1610 Klem Schen - Triste - 1610 K.S.A - CDN Freestyle ft. Alpha Wann - 1610 Lorage - Quelque part - 1610 Makala - Sergueï Diop - 1610 Noname - Train de vie ft. Key Largo - 1610 Rohff - G.O.A.T - 1610 Tayc - Ride ft. Leto - 1810 Kozi - Unstoppable ft. Freeze Corleone - 1910 A2H - Booska Rédemption - 1910 Alonzo L'Algérino - Faim d'Europe - 1910 Ziak - Fixette - 2110 Bolémvn - Couler - 2110 Chicaille Argentée - Bails noirs - 2110 Poupie - Feux ft. JuL - 2110 Simony - Boucle - 2110 Shotas - Code S7 - 2210 1PLIKÉ140 - Tranquillement - 2210 Captaine Roshi - Molotov 2210 - Julius - Quoi d'neuf docteur ? - 2210 Lujipeka - Putain d'époque - 2210 Meryl - Règlement Toutdedans Freestyle - 2210 Youri - Cur - 2310 Bosh - Slide - 2310 C.O.R - Jamais vu ft. 13 Block - 2310 DA Uzi - WeLaRue 5 - 2310 Dr. Yaro La Folie - Papa fait du sale ft. Hornet La Frappe - 2310 Enfantdepauvres - DIX - 2310 Gims - ORIGAMI - 2310 Jok'Air - Clic Clac Bang Bang ft. Laylow - 2310 Kaaris - IRM ft. Freeze Corleone - 2310 LMB - Innocent - 2310 Moha - CZ 75 2310 Theorem de Gama - Rêverie - 2310 Toma - La dalle ft. Hatik 2510 Tonio Le Vakeso - Monnaie ft. Davodka - 2710 Frenetik - Booska'Peinture - 2810 La Fouine - Millions - 2810 YZLA - PASSWORD ft. 2zer - 2910 47Ter - Vivre 2910 L'Allemand - MINGUETTES - 2910 Youv Dee - Règlement Spaceship Freestyle 3010 La F - 691 Part.2 - 3010 PRIME - Canon long - 3010 Taïro - Révolution Part. 2 Oublié - 3010 Uzi - Violet ft. RK - 3110 T.I.S - Folie humaine Novembre - 0111 Ashe 22 - Booska PDP - 0311 Koba LaD - Booska 1H - 0411 AM La Scampia - ZIP - 0411 AnNie.Adda - Si je quitte les Enfers - 0411 Coyote Jo Bastard - Fusil - 0411 Nahir - Moneygram ft. Freeze Corleone - 0511 Spider ZED - Règlement Politique Freestyle - 0511 Zola - Booska'Sten 0611 4Keus - Bosse comme un boss - 0611 Booba - 5G 0611 Dika - Descente - 0611 Django - Pyramide ft. Osirus Jack 0611 Leonis - Charbonner - 0611 Mous-K - On part à la guerre ft. Bosh - 0611 OBOY - Cruel - 0611 Norsacce - GOSPEL BROLIK ft. Ashe 22 - 0611 S-Pion - 100 G - 0611 sean - Le bon, la brute et le truand - 0611 Zikxo - 32 temps - 0711 Hugo TSR - Senseï - 0811 DJ Titaï - 5 étoiles ft. Lefa - 0811 Kekra - Swish HLM - 1111 Kodes - Code La B du 7 - 1111 Onze - Minerai 1111 Rounhaa - R sans R - 1211 Captaine Roshi - Champions - 1211 EDGE - Kylie Jenner ft. Esso Luxueux - 1211 Georgio - Les anges dans des robes rouges - 1211 H-Tône - Incendie 1211 Simony - J'rentre défoncé - 1211 Tawsen - La météo - 1211 TLZ Clan - C'est nous ft. Dosseh - 1211 Zuukou Mayzie - Le Mayz - 1311 Cinco - Four ft. Leto - 1311 Frenetik - Chaos 1311 Joysad - PLDM 1 - 1311 Mister You - Ça se fait pas ft. JuL - 1311 Niaks - Dame blanche - 1311 Prototype - Triste drame - 1311 Senyss - Tyana - 1511 Kalash Criminel - Booska Sauvage 3 1611 C.O.R - Booska RDM - 1711 Naza - Booska Bébé - 1711 Elams - La vida ft. Hatik - 1811 Doria - Booska Do - 1811 eden dillinger - 3-6 RHAPSODIE - 1811 Guy2Bezbar - TPM ft. Freeze Corleone - 1811 Kekra - Business HLM - 1911 13 Block - Babi 1911 Guirri Mafia - Booska Guirri - 2011 Ajar - Pire que la mort - 2011 Denzo - Cramé ft. Bramsito 2011 Mous-K - Booska Bogota 2011 SDM - Prince de la Calle - 2011 TripleGo - Maladresse - 2011 Unité - Unité ft. Dadju, Hatik, Imen Es Soolking - 2011 Youv Dee - De toi - 2311 1PLIKÉ140 - Booska Bâtard 2411 TK - Booska Sang-Froid - 2511 Keusty - Code PAL 7 - 2511 Landy - Millions d'euros ft. Niska 2511 Zikxo - Temps 33 - 2511 ZKR - Freestyle 5min 10 - 2611 Captaine Roshi - Pigalle - 2611 Coelho - ACTION - 2611 DJ Roc-J - Pas Patek ft. YL - 2711 Achile - Ça veut rien dire ft. Oxmo Puccino - 2711 Ashkidd - NOVEMBRE - 2711 Benab - En bas - 2711 Joysad - PLDM 2 - 2711 Nahir - Paris-BX ft. Frenetik - 2711 Negrito - Purge 5 ft. Freeze Corleone 2711 Saamou Skuu - French Drill 4 - 2711 Tedax Max - Drillotière - 2911 Krilino - Patate 4 - 3011 M Le Maudit - Sex focus Décembre - 0212 Hayce Lemsi - Medley 2020 - 0212 Hippocampe Fou - La thune de ma femme - 0212 Seth Gueko - Kratos - 0312 Elengi Ya Trafic - Dangereux - 0312 Heuss L'enfoiré Vald - Guccisima - 0312 Heuss L'enfoiré Vald - Matrixé - 0412 47Ter - Sommeil noir 0412 Blam's - La sape - 0412 Chiloo - Vilain - 0412 JSX - Pompéi ft. Booba - 0412 Keny Arkana - Avant l'exode 1 J'sais pas faire autrement - 0412 Koba LaD - Code La D du 7 - 0412 La F - Appel Masqué 9 - 0412 L'As - Nadine - 0412 Liim's - Mood ft. Tiakola - 0412 Luv Resval - Kurt ft. Zefor - 0412 Madrane - El Patron - 0412 R.E.D.K. - SQOSLF 2 - 0412 The S - Ça pue la rue ft. Leto - 0412 Tovaritch - Révolution - 0412 Zamdane - La fête ft. Hatik 0812 Souffrance - Opération Dragon - 0912 Twinsmatic - VILLE ft. Box Frenetik - 1012 Djadja Dinaz - Perdu - 1012 eden dillinger - TRAUMA - 1012 ISK - Où je suis 1012 Jarod - Kaioken 3 - 1012 La Cour de Récré - XPLIQUE - 1012 Zuukou Mayzie - Victorinox ft. Black Jack - 1112 Ateyaba - Moonwalk - 1112 Hornet La Frappe - 69.93 ft. Ashe 22 1112 Joysad - PLDM 3 - 1112 JuL - Mother Fk ft. SCH 1112 Les Frères Scotch - Zone - 1112 Lucio Bukowski - 4-2-4 Freestyle ft. Nedelko - 1112 Michel - Appel manqué - 1112 Pakigo - Mutation 1112 Pirate 182 - Grincheux 5 Purge - 1112 Rémy - Sur la côte - 1112 Sheldon - AGRABAH 1112 Youri - Comment - 1112 Zikxo - 34 Temps - 1412 Klem Schen - Solitaire 1512 D4R - Booska Quattro - 1512 Dinero - Zipette ft. Leto 1612 Biwaï - Kakashi - 1612 Dosseh - Famiglia è grande 1612 H-LO - Tu piges 1612 Lemon Haze - A2L - 1612 Nahir - Ça va bien se passer - 1612 rad cartier - VT ZOOM V - 1612 Wallace Cleaver - 45Camo 1612 Zeguerre - GTA 4 - 1612 ZKR - J'ai fait le tour 1712 Petit Voyou - Prosecco - 1712 RILESUNDAYZ - Clique 1712 Squidji - Melancholia 1812 Abdxxl - BILLET 1812 Chaman Sully - GG BOY - 1812 Deadi - Le voisin du 4ème - 1812 Doria - Paris - 1812 Frenetik - Blanche Neige - 1812 Joysad - 2020 - 1812 Kaaris - Five-0 ft. Gazo - 1812 M Le Maudit - Crack Poésie - 1812 Savage Toddy - Mc Gregor - 1812 SOPA - TLMR - 1812 Todd - Travaux 1912 Gambino - Quartier Nord 1912 Gutti - Gutti world 3 - 2012 Black Jack - Sournois ft. La F - 2112 Kekra - Dréel HLM - 2212 Booba - AZERTY - 2412 Dinos - Juste un clou, - 2512 Bekar - 98 2512 Shro - Pump it up - 2612 Kims La Rafale - LAMBO - 2712 Black M - Black Shady 4 - 2712 L'As - Mercedes 2812 Lasco - SO - 3112 Alonzo - Freestyle Divo Massacre de la Saint-Sylvestre 3112 Jarod - Termine 2020</t>
+          <t>Abou Debeing Tour 2 Garde Babi Beingué Wari oh oh oh wari So Fresh Music baby Wari oh wari Wari oh oh oh wari Wari oh wari, l'amour est fini si y a pas wari Dans la vie c'est pas toutes les jolies femmes qu'il faut approcher eh Dès le départ elle m'avait bien prévenu qu'elle est compliquée eh Mais j'insister han han Je n'imaginais pas son train de vie si élevée Je sens mon compte en banque eh Chaque jour mon jolie bébé eh Me demande un transfert En fin de mois, envoie moie mon loyer Sinon faut m'oublier eh Wari oh wari Wari yo yo yo wari Wari oh wari L'amour est fini si y a pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Elle est dans l'allée, elle n'a pas besoin de trop parler, oya Mon bébé, son boule ma déjà aveugler Quand elle tourne les reins Anh eh Ca me tourne la tête Elle connaît le travail la oh Anh eh Ça me tourne la tête Y a pas de stress, elle me met à l'aise Et après la soirée on se laisse Elle a lape tous mes sous et elle m'a laissé Je suis degba ah eh Wari oh wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu m'as tout pris Mon argent et ma dignité J'ai beau pleuré, je t'appelle et tu n'en a rien à cirer eh Mon jolie bébé eh Tu m'as trop fais saigner Mon joli bébé, tu m'as abandonné eh Toi je t'ai loupé Anh Tout ce qu'elle veut c'est me gratter Elle m'a pris pour un banco On n' va pas parler dioula Aujourd'hui nous on va parler franco Elle veut mon jeton eh Moi je veux son botcho Donc on fait comment ? Elle peut gratter que des floco Wari oh wari bey Pour les sougourouba wari bey Wari oh wari tey Pour les sougourouba wari bey Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Wari oohh wari Wari yo yo yo wari Wari oh wari L'amour est fini si ya pas wari Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas Tu mises pas, tu touches pas Tu mises pas je dis tu touches pas</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Qu’une vie</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>HCue Tcha, tcha, tcha, tcha, tcha, tcha Si tes Madame Debeing, la street sera jalouse, donc Ça va parler, jdevrais casser un tas dbouches On vendra du rêve, ça sera leur cauchemar Oui, on donnera lheure ma dit la Audemars Toublieras les pélos qui veulent te cala Ils proposent des tels-hô, moi, jte propose un palace, haha Jsuis mi Wakanda, mi Gangster Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tcheh, tcheh, tcheh Jai rangé mon égo, tes quelqu'un qui sera sur le té-co, ya dégain Tas dla classe, tas du style, jai le bagou Jsuis en place, viens on frime, cest pas tabou Moi, jai pas pagayé, pas bégayé Ya une embouteillé, oui, jpeux payer Jsuis mi rechta, mi resta Quand jy vais, jsuis dans lexa, ne me test pas On f'ra ce que personne ne fait, ouais Si tu veux limpossible, tauras c'que tu veux, ouais À la base jétais pas dhumeur à tchatcher Le temps passe et jme dis que ça peut matcher Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Tu mas sortis de mes gonds, jai mis les gants Et jdois te mettre au tapis avant le gong Tcha, tcha, tcha, tcha, tcha Tcha, tcha, tcha, tcha, tcha Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh Posé, je mennuie, elle veut réveiller mes démons dminuit Discret, elle msouris, elle mdit vient, on soublie On a quune vie, ouuuh, réfléchis plus, ouuuh On a quune vie, ouuuh, réfléchis plus, ouuuh1</t>
+          <t>Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, jai l'attitude du warrior Black card dans la poche pourtant je sors du placard A la table que des vikings, j'suis en Ragnar Mais sappé en Versace, pas de bagarre 3attaï le hakka peut les hagar J'étais sur les bancs de la té-ci, pas de la muscu Frapper les commissaires, ça m'amuse plus calbut', la street j'l'enlève son string et jla culbute , jvais la mousser Elle espère que j'vais la bouffer Mon re-noi tes en fin de vie, t'es essoufflé 100 000 j'peux t'les pousser, te les pousser Hey, tu peux bomber le torse mais cest elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Gringo dinero mucho J'espère toi tu m'oublieras comme Larusso Clés du succès, j'ai le trousseau Combo originaire, j'sors de l'ordinaire Avant j'avais centaines d'euros, aujourd'hui j'ai milliers d'euros Si elle me michtonne, j'fais une heureuse J'peux refaire sa vie, nan va pas trop parler Tête à tête dans une petite allée J'prends un dessert même si la facture est salée Après quelques verres, elle s'laisse aller, elle se laisse aller, ah oui Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior Hey, tu peux bomber le torse mais c'est elle qui va choisir son warrior Hey, je décide et je fixe les règles, j'ai l'attitude du warrior J'ai l'attitude du warrior J'ai l'attitude du warrior</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Remonter</t>
+          <t>Y’a rien à faire Remix</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle J'étais sur Insta, en train de me tâter J'tombe sur son profil, la go m'a piqué Elle m'a piqué, donc j'ai cliqué Et comme un con, j'ai finis par liker Une fois, deux fois, puis toutes les photos J'vais direct la montrer à mon poto Est-ce que tu connais ce canon scié ? Cent followers, elle va pas me griller Message en PV donc on prend contact Hello ma chérie, il faudrait qu'on se cache T'as voulu une go en or et j'veux pas qu'elle m'traque Elle m'dit ok, tu manques pas de taqu', mec J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Avec la féline, c'est pas des blagues A chaque fois qu'j'la zappe, elle fait son come-back Mais avec ma go, le temps m'échappe J'rentre avec du fond de teint sur mes sacs Et là ça devient chaud, là ça devient hard Pour maquillé tout ça, je dis qu'c'est des fans Elle est pas bê-bête, encore moins co-conne Elle me dit t'étais avec quelle fo-folle ? Et là ça devient chaud, très très paro La fille, une gouttière, j'vais payer le tarot Mais je mis en bloque, en bloque, en bloque Et de tous les réseaux, je la bloque J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde Par la féline, j'me suis fait piéger Le compte que j'vais, il était privé Oh l'horreur, ma go l'a follow C'est une femme d'influence dans le Girl Power Aïe aïe aïe, elle a posté une photo de nous deux, disant qu'elle a trouvé l'âme-sur Oh mon dieu, je vais devoir nier en haut Nier en bas, nier à gauche, nier à droite J'ai un truc à vous raconter, j'me suis fait remonter Première fois que j'l'ai rencontré J'savais pas qu'elle était cotée Et ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Ça tourne, tourne, tourne, tourne, tourne En bou-bou-bou-bou-boucle Et c'est la même la même, la même, la même J'me suis mis dans la merde la merde, la merde, la merde1</t>
+          <t>Yeah, remix Debeinguerie Il faut bien qu'je perce nan ? Ton boug est taillé comme un Golgoth On a l'habitude de casser des les-gueu avec nos pieds La musique de Dark Vador on va m'offrir quarante Grey Goose Elle aimerait que j'l'épouse moi j'veux juste qu'elle me les bouffe Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F ooh, on est en place Y'a rien à F Libertalia, Cristal, New's Café j'suis en place dans Paname J'suis XXX escorté par les gendarmes J'la laisse faire les préliminaires j'suis un gentleman Si tu m'vois pas plus d'trois jours, c'est qu'j'suis au hebs À part serrer les seufs après l'parlu y'a rien à F Y'a rien à F, y'a rien à F Si j'te baffe dans ton tieks, R.A.S Le même en tôle, dans la rue ou à Sony J'fais des pompes, j'casse des gueules mais j'suis très poli J'suis Ivoirien, j't'ai tapé dans l'il Viens on s'enjaille même si... Yeah, yeah Tous les loubards à ma table, n'aiment que les gros tassabas Pour un verre de Belvedere on t'fait danser le mapouka En tous cas, si on s'connait pas tu pourras pas m'louper Virgule Nike sur la tête et des Balenciaga aux pieds Dans la rue j'ai liquidé, quantité et qualité Au jugement pas inquiété, fuck j'suis pas acquitté Traîtrise gravité on t'maîtrise calibré Situation clarifiée Beriz, Wati-B ooh Alonzo m'a validé, j'vais baiser l'game comme t'as pas idée La force est avec nous les portes sont devant nous Les porcs sont derrière nous j'm'entaille même si... Ooh, Debeinguerie t'aimes trop la mala wAllah On va prendre une bouteille de Belvedere en guise de canne pour les MC qui boitent Wow, y'a rien à F</t>
         </is>
       </c>
     </row>
@@ -2396,384 +2396,10 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Répondeur</t>
+          <t>Zulu (Debeinguerie #1)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
-        <is>
-          <t>Allô, allô Allô, allô, allô Allô, Allô Allô, Allô, Allô Eh, je t'ai cherché dans tout paris T'es wanted ma chérie Bon, j'étais pas d'humeur à gole-ri Ok j'assume toutes mes conneries T'étais la deuxième Et j'te l'ai caché Je sais que j'ai merdé Donc tu m'envoies chier J'ai voulu jongler Mais j'dois avouer Avouer que j'suis pas doué J'aurais préféré que tu portes mon nom Mais, aujourd'hui tu m'vois comme un traître Quon ne fasse quun comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allô, Allô Allô, Allô, Allô Allô, Allô Allô, Allô, Allô Je sais que tu m'en veux je t'ai doublé T'as coupé les liens qu'on a noué Dis-moi ce qui t'a fait le plus mal Que tu sois pas la première ou que j't'ai trompé Relasse toi merde tu t'en doutais Au final c'est moi qui est dégoûté Je sais que tu me hais, que tu me détestes J'ai juré tu as déjà voulu me voir crever J'aurais préféré que tu portes mon nom Mais aujourd'hui tu me vois comme un traître Quon ne fasse quun, comme le soleil et son ombre Mais aujourd'hui de quel nom tu m'traite Hein, j'ai fais tout mon possible Le mensonge fait mal Et la vérité aussi Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Il faut qu'on parle, répondeur Je sais que tu veux me décrocher ton cur Quand j'tappelle, répondeur T'as raccroché j'te connais par cur Tu m'as bloqué répondeur Appel en absence répondeur Un, deux, trois répondeur Roi du silence répondeur Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo Allo, allo répondeur Allo, allo, allo répondeur Allo, allo répondeur Allo, allo, allo répondeur</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Abou Debeing</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Respectez</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>La puissance respecte que la puissance La dinguerie respecte que la dinguerie La vaillance respecte que la vaillance La puterie respecte que la puterie Ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta-ta Ta-ta Hey, hey, hey hey Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Hey, sous-estime pas le dozo tchoin, on a des torpilles sous le cargot tchoin Rappelle-toi de nous, boloss, biatch, n'oublie pas d'me follow On est plus fous que vous, ce n'est pas de la chance, on s'impose par les armes et la violence ouais Renoi, j'parle pas ching-chong, j'suis Martin Luther King Kong ah ouais, ouais Tu nous respectes pas, on va te mou-gou, gilet pare-balles nouvelle paire de Lou-Lou Nous, c'est le GB, bébé, on te menace en PGP Il est l'heure que tu prennes ta dose sur ma Rolex Daytona Gold rose ouais J'suis le boss posé à ma ble-ta pute, t'es dans l'coffre, dans le pain ou dans la ve-ca ris-Kaa Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Tcha-tcha Celui qui va à la chasse, ce soir, il perd sa 'tasse Trop d'bouteilles à la table, ce soir, on boit la tasse En boîte, me fais pas d'rappels, assume-toi, fais pas l'bipolaire Ma maîtresse est en CFA, Champions League pour la titulaire Oui, c'est comme ça qu'on vit Tu paies pas, tu tises pas, chez nous, c'est comme ça qu'on dit Ah, baby, j'ai de ces plans peinard, j'ai ter-ma ton pétard Ton gava est vé-ner, comme toi, petit veinard Ton gava veut s'per-ta, j'vais ti-sor mon pétard, j'vais l'ber-bar J'vais l'quer-bra, puis, on f'ra les fêtards Respectez la Audemar, j'ai souffert sur mon parcours Respectez le boulard, elle est refaite de partout Respectez les humains, j'ai dit respectez les humains Vous respectez les putains, nous, on respecte le butin Le respect, c'est le respect, vous allez nous respecter Le respect, c'est le respect, vous allez nous respecter Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter Ah oui Respectez, vous allez nous respecter Mais ils sont fous Respectez, vous allez nous respecter</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Abou Debeing</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Résurrection</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of fu